--- a/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
+++ b/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5976" windowHeight="9324" tabRatio="843" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5976" windowHeight="9324" tabRatio="843" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="34" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="35" state="hidden" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="36" state="hidden" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="37" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet3 (2)" sheetId="39" r:id="rId5"/>
-    <sheet name="Sheet2 + warm up period" sheetId="38" r:id="rId6"/>
+    <sheet name="Sheet3 (2)" sheetId="39" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet2 + warm up period" sheetId="38" state="hidden" r:id="rId6"/>
     <sheet name="Sim Runs (2)" sheetId="33" r:id="rId7"/>
-    <sheet name="Sim Runs" sheetId="29" r:id="rId8"/>
+    <sheet name="Sim Runs" sheetId="29" state="hidden" r:id="rId8"/>
     <sheet name="Output" sheetId="27" r:id="rId9"/>
     <sheet name="Interface" sheetId="20" state="hidden" r:id="rId10"/>
     <sheet name="Zone1" sheetId="1" state="hidden" r:id="rId11"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="260">
   <si>
     <t>Resources/Process</t>
   </si>
@@ -855,6 +855,12 @@
   <si>
     <t>Minors</t>
   </si>
+  <si>
+    <t>Num. Pts</t>
+  </si>
+  <si>
+    <t>% Pts in AMU</t>
+  </si>
 </sst>
 </file>
 
@@ -1063,11 +1069,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1684,7 +1690,7 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2099,16 +2105,16 @@
     <xf numFmtId="9" fontId="24" fillId="22" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2117,14 +2123,14 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2132,13 +2138,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,8 +2147,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2180,8 +2186,27 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -2589,14 +2614,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="168" t="s">
+      <c r="U1" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="169"/>
-      <c r="W1" s="170" t="s">
+      <c r="V1" s="171"/>
+      <c r="W1" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="171"/>
+      <c r="X1" s="169"/>
       <c r="Y1" s="172" t="s">
         <v>72</v>
       </c>
@@ -2604,10 +2629,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="170" t="s">
+      <c r="AB1" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="171"/>
+      <c r="AC1" s="169"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -3264,14 +3289,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="168" t="s">
+      <c r="U10" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="169"/>
-      <c r="W10" s="170" t="s">
+      <c r="V10" s="171"/>
+      <c r="W10" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="171"/>
+      <c r="X10" s="169"/>
       <c r="Y10" s="172" t="s">
         <v>72</v>
       </c>
@@ -3279,10 +3304,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="170" t="s">
+      <c r="AB10" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="171"/>
+      <c r="AC10" s="169"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -3871,14 +3896,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="168" t="s">
+      <c r="U18" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="169"/>
-      <c r="W18" s="170" t="s">
+      <c r="V18" s="171"/>
+      <c r="W18" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="171"/>
+      <c r="X18" s="169"/>
       <c r="Y18" s="172" t="s">
         <v>72</v>
       </c>
@@ -3886,10 +3911,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="170" t="s">
+      <c r="AB18" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="171"/>
+      <c r="AC18" s="169"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -4478,14 +4503,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="168" t="s">
+      <c r="U26" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="169"/>
-      <c r="W26" s="170" t="s">
+      <c r="V26" s="171"/>
+      <c r="W26" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="171"/>
+      <c r="X26" s="169"/>
       <c r="Y26" s="172" t="s">
         <v>72</v>
       </c>
@@ -4493,10 +4518,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="170" t="s">
+      <c r="AB26" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="171"/>
+      <c r="AC26" s="169"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -5085,14 +5110,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="168" t="s">
+      <c r="U34" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="169"/>
-      <c r="W34" s="170" t="s">
+      <c r="V34" s="171"/>
+      <c r="W34" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="171"/>
+      <c r="X34" s="169"/>
       <c r="Y34" s="172" t="s">
         <v>72</v>
       </c>
@@ -5100,10 +5125,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="170" t="s">
+      <c r="AB34" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="171"/>
+      <c r="AC34" s="169"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -5692,14 +5717,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="168" t="s">
+      <c r="U42" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="169"/>
-      <c r="W42" s="170" t="s">
+      <c r="V42" s="171"/>
+      <c r="W42" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="171"/>
+      <c r="X42" s="169"/>
       <c r="Y42" s="172" t="s">
         <v>72</v>
       </c>
@@ -5707,10 +5732,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="170" t="s">
+      <c r="AB42" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="171"/>
+      <c r="AC42" s="169"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -6299,14 +6324,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="168" t="s">
+      <c r="U50" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="169"/>
-      <c r="W50" s="170" t="s">
+      <c r="V50" s="171"/>
+      <c r="W50" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="171"/>
+      <c r="X50" s="169"/>
       <c r="Y50" s="172" t="s">
         <v>72</v>
       </c>
@@ -6314,10 +6339,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="170" t="s">
+      <c r="AB50" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="171"/>
+      <c r="AC50" s="169"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -6906,14 +6931,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="168" t="s">
+      <c r="U58" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="169"/>
-      <c r="W58" s="170" t="s">
+      <c r="V58" s="171"/>
+      <c r="W58" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="171"/>
+      <c r="X58" s="169"/>
       <c r="Y58" s="172" t="s">
         <v>72</v>
       </c>
@@ -6921,10 +6946,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="170" t="s">
+      <c r="AB58" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="171"/>
+      <c r="AC58" s="169"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -7454,6 +7479,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="AB50:AC50"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="W58:X58"/>
@@ -7462,30 +7511,6 @@
     <mergeCell ref="U50:V50"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AB10:AC10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8059,7 +8084,7 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -9669,7 +9694,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11293,16 +11318,16 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="170" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="194"/>
-      <c r="D1" s="169"/>
-      <c r="J1" s="168" t="s">
+      <c r="D1" s="171"/>
+      <c r="J1" s="170" t="s">
         <v>152</v>
       </c>
       <c r="K1" s="194"/>
-      <c r="L1" s="169"/>
+      <c r="L1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -11608,11 +11633,11 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="170" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="194"/>
-      <c r="D1" s="169"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -11847,14 +11872,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="168" t="s">
+      <c r="U1" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="169"/>
-      <c r="W1" s="170" t="s">
+      <c r="V1" s="171"/>
+      <c r="W1" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="171"/>
+      <c r="X1" s="169"/>
       <c r="Y1" s="172" t="s">
         <v>72</v>
       </c>
@@ -11862,10 +11887,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="170" t="s">
+      <c r="AB1" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="171"/>
+      <c r="AC1" s="169"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -12370,14 +12395,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="168" t="s">
+      <c r="U10" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="169"/>
-      <c r="W10" s="170" t="s">
+      <c r="V10" s="171"/>
+      <c r="W10" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="171"/>
+      <c r="X10" s="169"/>
       <c r="Y10" s="172" t="s">
         <v>72</v>
       </c>
@@ -12385,10 +12410,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="170" t="s">
+      <c r="AB10" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="171"/>
+      <c r="AC10" s="169"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -12977,14 +13002,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="168" t="s">
+      <c r="U18" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="169"/>
-      <c r="W18" s="170" t="s">
+      <c r="V18" s="171"/>
+      <c r="W18" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="171"/>
+      <c r="X18" s="169"/>
       <c r="Y18" s="172" t="s">
         <v>72</v>
       </c>
@@ -12992,10 +13017,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="170" t="s">
+      <c r="AB18" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="171"/>
+      <c r="AC18" s="169"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -13584,14 +13609,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="168" t="s">
+      <c r="U26" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="169"/>
-      <c r="W26" s="170" t="s">
+      <c r="V26" s="171"/>
+      <c r="W26" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="171"/>
+      <c r="X26" s="169"/>
       <c r="Y26" s="172" t="s">
         <v>72</v>
       </c>
@@ -13599,10 +13624,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="170" t="s">
+      <c r="AB26" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="171"/>
+      <c r="AC26" s="169"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -14191,14 +14216,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="168" t="s">
+      <c r="U34" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="169"/>
-      <c r="W34" s="170" t="s">
+      <c r="V34" s="171"/>
+      <c r="W34" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="171"/>
+      <c r="X34" s="169"/>
       <c r="Y34" s="172" t="s">
         <v>72</v>
       </c>
@@ -14206,10 +14231,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="170" t="s">
+      <c r="AB34" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="171"/>
+      <c r="AC34" s="169"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -14798,14 +14823,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="168" t="s">
+      <c r="U42" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="169"/>
-      <c r="W42" s="170" t="s">
+      <c r="V42" s="171"/>
+      <c r="W42" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="171"/>
+      <c r="X42" s="169"/>
       <c r="Y42" s="172" t="s">
         <v>72</v>
       </c>
@@ -14813,10 +14838,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="170" t="s">
+      <c r="AB42" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="171"/>
+      <c r="AC42" s="169"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -15405,14 +15430,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="168" t="s">
+      <c r="U50" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="169"/>
-      <c r="W50" s="170" t="s">
+      <c r="V50" s="171"/>
+      <c r="W50" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="171"/>
+      <c r="X50" s="169"/>
       <c r="Y50" s="172" t="s">
         <v>72</v>
       </c>
@@ -15420,10 +15445,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="170" t="s">
+      <c r="AB50" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="171"/>
+      <c r="AC50" s="169"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -16012,14 +16037,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="168" t="s">
+      <c r="U58" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="169"/>
-      <c r="W58" s="170" t="s">
+      <c r="V58" s="171"/>
+      <c r="W58" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="171"/>
+      <c r="X58" s="169"/>
       <c r="Y58" s="172" t="s">
         <v>72</v>
       </c>
@@ -16027,10 +16052,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="170" t="s">
+      <c r="AB58" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="171"/>
+      <c r="AC58" s="169"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -16560,6 +16585,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="U50:V50"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="Y50:Z50"/>
@@ -16568,30 +16617,6 @@
     <mergeCell ref="W58:X58"/>
     <mergeCell ref="Y58:Z58"/>
     <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AB10:AC10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16606,7 +16631,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16683,7 +16708,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="159">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -16700,7 +16725,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="159">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12">
         <v>4</v>
@@ -16915,7 +16940,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="159">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -16929,7 +16954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="159">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D3" s="12">
         <v>7</v>
@@ -16943,7 +16968,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="159">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12">
         <v>10</v>
@@ -16957,7 +16982,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="159">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D5" s="12">
         <v>11</v>
@@ -16971,7 +16996,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="159">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -16988,7 +17013,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="159">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12">
         <v>4</v>
@@ -17002,7 +17027,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="159">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12">
         <v>36</v>
@@ -17016,7 +17041,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="159">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D9" s="12">
         <v>100</v>
@@ -17030,7 +17055,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="159">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -17047,7 +17072,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="159">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="D11" s="12">
         <v>23</v>
@@ -17061,7 +17086,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="159">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -17075,7 +17100,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="159">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -17089,7 +17114,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="159">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -17103,7 +17128,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="159">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D15" s="12">
         <v>10</v>
@@ -17117,7 +17142,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="159">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -17131,7 +17156,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="159">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -17145,7 +17170,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="159">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="D18" s="12">
         <v>7</v>
@@ -17159,7 +17184,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="159">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -21312,14 +21337,14 @@
         <f>K4/L4</f>
         <v>0.17075625048378357</v>
       </c>
-      <c r="O4" s="174" t="s">
+      <c r="O4" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
@@ -21365,12 +21390,12 @@
         <f t="shared" ref="N5:N12" si="0">K5/L5</f>
         <v>0.17174261506755209</v>
       </c>
-      <c r="O5" s="174"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87" t="s">
@@ -21416,12 +21441,12 @@
         <f t="shared" si="0"/>
         <v>0.16784888203546647</v>
       </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
@@ -21467,12 +21492,12 @@
         <f t="shared" si="0"/>
         <v>0.16837908296273577</v>
       </c>
-      <c r="O7" s="174"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
@@ -21518,12 +21543,12 @@
         <f t="shared" si="0"/>
         <v>0.16951115916286971</v>
       </c>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
@@ -21569,12 +21594,12 @@
         <f t="shared" si="0"/>
         <v>0.16543891958256599</v>
       </c>
-      <c r="O9" s="174"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
@@ -21620,12 +21645,12 @@
         <f t="shared" si="0"/>
         <v>0.16546982429335372</v>
       </c>
-      <c r="O10" s="174"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87" t="s">
@@ -21671,12 +21696,12 @@
         <f t="shared" si="0"/>
         <v>0.1601354992686119</v>
       </c>
-      <c r="O11" s="174"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87" t="s">
@@ -21722,12 +21747,12 @@
         <f t="shared" si="0"/>
         <v>0.16642623946549237</v>
       </c>
-      <c r="O12" s="174"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="175"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
     </row>
     <row r="13" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87" t="s">
@@ -21773,12 +21798,12 @@
         <f>K13/L13</f>
         <v>0.16610118374425092</v>
       </c>
-      <c r="O13" s="174"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="92" t="s">
@@ -21836,12 +21861,12 @@
         <f t="shared" si="1"/>
         <v>0.16718096560666823</v>
       </c>
-      <c r="O14" s="174"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
     </row>
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="99"/>
@@ -21902,14 +21927,14 @@
         <f>K16/L16</f>
         <v>0.17290223248652811</v>
       </c>
-      <c r="O16" s="176" t="s">
+      <c r="O16" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="176"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="176"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
     </row>
     <row r="17" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87" t="s">
@@ -21955,12 +21980,12 @@
         <f t="shared" ref="N17:N25" si="2">K17/L17</f>
         <v>0.17136942186781168</v>
       </c>
-      <c r="O17" s="176"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="176"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="176"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
     </row>
     <row r="18" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87" t="s">
@@ -22006,12 +22031,12 @@
         <f t="shared" si="2"/>
         <v>0.16918012707647553</v>
       </c>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="176"/>
-      <c r="T18" s="176"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
     </row>
     <row r="19" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
@@ -22057,12 +22082,12 @@
         <f t="shared" si="2"/>
         <v>0.169391013457006</v>
       </c>
-      <c r="O19" s="176"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="176"/>
-      <c r="T19" s="176"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
     </row>
     <row r="20" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87" t="s">
@@ -22108,12 +22133,12 @@
         <f t="shared" si="2"/>
         <v>0.17022416035498431</v>
       </c>
-      <c r="O20" s="176"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="176"/>
-      <c r="S20" s="176"/>
-      <c r="T20" s="176"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
     </row>
     <row r="21" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87" t="s">
@@ -22159,12 +22184,12 @@
         <f t="shared" si="2"/>
         <v>0.1647551146931184</v>
       </c>
-      <c r="O21" s="176"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="176"/>
-      <c r="T21" s="176"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
     </row>
     <row r="22" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="87" t="s">
@@ -22210,12 +22235,12 @@
         <f t="shared" si="2"/>
         <v>0.17322039166925707</v>
       </c>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="176"/>
-      <c r="S22" s="176"/>
-      <c r="T22" s="176"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
     </row>
     <row r="23" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87" t="s">
@@ -22261,12 +22286,12 @@
         <f t="shared" si="2"/>
         <v>0.17410953657602452</v>
       </c>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
     </row>
     <row r="24" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
@@ -22312,12 +22337,12 @@
         <f t="shared" si="2"/>
         <v>0.16644983546338105</v>
       </c>
-      <c r="O24" s="176"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="176"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
     </row>
     <row r="25" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="87" t="s">
@@ -22363,12 +22388,12 @@
         <f t="shared" si="2"/>
         <v>0.16981860285604014</v>
       </c>
-      <c r="O25" s="176"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="176"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="174"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="92" t="s">
@@ -22426,12 +22451,12 @@
         <f t="shared" ref="N26" si="14">AVERAGE(N16:N25)</f>
         <v>0.17014204365006269</v>
       </c>
-      <c r="O26" s="176"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="176"/>
-      <c r="T26" s="176"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="174"/>
     </row>
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="99"/>
@@ -22492,14 +22517,14 @@
         <f>K28/L28</f>
         <v>0.34557926829268293</v>
       </c>
-      <c r="O28" s="176" t="s">
+      <c r="O28" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
     </row>
     <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
@@ -22545,12 +22570,12 @@
         <f t="shared" ref="N29:N36" si="15">K29/L29</f>
         <v>0.3282684149633629</v>
       </c>
-      <c r="O29" s="176"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="176"/>
-      <c r="S29" s="176"/>
-      <c r="T29" s="176"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
     </row>
     <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87" t="s">
@@ -22596,12 +22621,12 @@
         <f t="shared" si="15"/>
         <v>0.34404263418347925</v>
       </c>
-      <c r="O30" s="176"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="176"/>
-      <c r="R30" s="176"/>
-      <c r="S30" s="176"/>
-      <c r="T30" s="176"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
     </row>
     <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="87" t="s">
@@ -22647,12 +22672,12 @@
         <f t="shared" si="15"/>
         <v>0.34176542084472805</v>
       </c>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="176"/>
-      <c r="S31" s="176"/>
-      <c r="T31" s="176"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
     </row>
     <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="87" t="s">
@@ -22698,12 +22723,12 @@
         <f t="shared" si="15"/>
         <v>0.33866976024748646</v>
       </c>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="176"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="176"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
     </row>
     <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87" t="s">
@@ -22749,12 +22774,12 @@
         <f t="shared" si="15"/>
         <v>0.33739899374904714</v>
       </c>
-      <c r="O33" s="176"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="176"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
     </row>
     <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
@@ -22800,12 +22825,12 @@
         <f t="shared" si="15"/>
         <v>0.33531271689673786</v>
       </c>
-      <c r="O34" s="176"/>
-      <c r="P34" s="176"/>
-      <c r="Q34" s="176"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="176"/>
-      <c r="T34" s="176"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="174"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="174"/>
+      <c r="S34" s="174"/>
+      <c r="T34" s="174"/>
     </row>
     <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="87" t="s">
@@ -22851,12 +22876,12 @@
         <f t="shared" si="15"/>
         <v>0.34502114571318726</v>
       </c>
-      <c r="O35" s="176"/>
-      <c r="P35" s="176"/>
-      <c r="Q35" s="176"/>
-      <c r="R35" s="176"/>
-      <c r="S35" s="176"/>
-      <c r="T35" s="176"/>
+      <c r="O35" s="174"/>
+      <c r="P35" s="174"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="174"/>
+      <c r="S35" s="174"/>
+      <c r="T35" s="174"/>
     </row>
     <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="87" t="s">
@@ -22902,12 +22927,12 @@
         <f t="shared" si="15"/>
         <v>0.34201219053352394</v>
       </c>
-      <c r="O36" s="176"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="176"/>
-      <c r="R36" s="176"/>
-      <c r="S36" s="176"/>
-      <c r="T36" s="176"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="87" t="s">
@@ -22953,12 +22978,12 @@
         <f>K37/L37</f>
         <v>0.32024539877300612</v>
       </c>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="176"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
+      <c r="S37" s="174"/>
+      <c r="T37" s="174"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
@@ -23016,12 +23041,12 @@
         <f t="shared" ref="N38" si="27">AVERAGE(N28:N37)</f>
         <v>0.33783159441972421</v>
       </c>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
-      <c r="S38" s="176"/>
-      <c r="T38" s="176"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
+      <c r="S38" s="174"/>
+      <c r="T38" s="174"/>
     </row>
     <row r="39" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="99"/>
@@ -23082,14 +23107,14 @@
         <f t="shared" ref="N40:N49" si="28">K40/L40</f>
         <v>0.22579401788467468</v>
       </c>
-      <c r="O40" s="176" t="s">
+      <c r="O40" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="176"/>
-      <c r="T40" s="176"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="174"/>
+      <c r="S40" s="174"/>
+      <c r="T40" s="174"/>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
@@ -23135,12 +23160,12 @@
         <f t="shared" si="28"/>
         <v>0.23997853912776884</v>
       </c>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="176"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="174"/>
+      <c r="T41" s="174"/>
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="87" t="s">
@@ -23186,12 +23211,12 @@
         <f t="shared" si="28"/>
         <v>0.2376791599601441</v>
       </c>
-      <c r="O42" s="176"/>
-      <c r="P42" s="176"/>
-      <c r="Q42" s="176"/>
-      <c r="R42" s="176"/>
-      <c r="S42" s="176"/>
-      <c r="T42" s="176"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="174"/>
+      <c r="S42" s="174"/>
+      <c r="T42" s="174"/>
     </row>
     <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="87" t="s">
@@ -23237,12 +23262,12 @@
         <f t="shared" si="28"/>
         <v>0.19681832154933906</v>
       </c>
-      <c r="O43" s="176"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="176"/>
-      <c r="T43" s="176"/>
+      <c r="O43" s="174"/>
+      <c r="P43" s="174"/>
+      <c r="Q43" s="174"/>
+      <c r="R43" s="174"/>
+      <c r="S43" s="174"/>
+      <c r="T43" s="174"/>
     </row>
     <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
@@ -23288,12 +23313,12 @@
         <f t="shared" si="28"/>
         <v>0.24446851307442363</v>
       </c>
-      <c r="O44" s="176"/>
-      <c r="P44" s="176"/>
-      <c r="Q44" s="176"/>
-      <c r="R44" s="176"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="176"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
+      <c r="Q44" s="174"/>
+      <c r="R44" s="174"/>
+      <c r="S44" s="174"/>
+      <c r="T44" s="174"/>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="87" t="s">
@@ -23339,12 +23364,12 @@
         <f t="shared" si="28"/>
         <v>0.23399014778325122</v>
       </c>
-      <c r="O45" s="176"/>
-      <c r="P45" s="176"/>
-      <c r="Q45" s="176"/>
-      <c r="R45" s="176"/>
-      <c r="S45" s="176"/>
-      <c r="T45" s="176"/>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="174"/>
+      <c r="S45" s="174"/>
+      <c r="T45" s="174"/>
     </row>
     <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="87" t="s">
@@ -23390,12 +23415,12 @@
         <f t="shared" si="28"/>
         <v>0.21419884463362723</v>
       </c>
-      <c r="O46" s="176"/>
-      <c r="P46" s="176"/>
-      <c r="Q46" s="176"/>
-      <c r="R46" s="176"/>
-      <c r="S46" s="176"/>
-      <c r="T46" s="176"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="174"/>
+      <c r="Q46" s="174"/>
+      <c r="R46" s="174"/>
+      <c r="S46" s="174"/>
+      <c r="T46" s="174"/>
     </row>
     <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
@@ -23441,12 +23466,12 @@
         <f t="shared" si="28"/>
         <v>0.21038881204856308</v>
       </c>
-      <c r="O47" s="176"/>
-      <c r="P47" s="176"/>
-      <c r="Q47" s="176"/>
-      <c r="R47" s="176"/>
-      <c r="S47" s="176"/>
-      <c r="T47" s="176"/>
+      <c r="O47" s="174"/>
+      <c r="P47" s="174"/>
+      <c r="Q47" s="174"/>
+      <c r="R47" s="174"/>
+      <c r="S47" s="174"/>
+      <c r="T47" s="174"/>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
@@ -23492,12 +23517,12 @@
         <f t="shared" si="28"/>
         <v>0.22198424233152297</v>
       </c>
-      <c r="O48" s="176"/>
-      <c r="P48" s="176"/>
-      <c r="Q48" s="176"/>
-      <c r="R48" s="176"/>
-      <c r="S48" s="176"/>
-      <c r="T48" s="176"/>
+      <c r="O48" s="174"/>
+      <c r="P48" s="174"/>
+      <c r="Q48" s="174"/>
+      <c r="R48" s="174"/>
+      <c r="S48" s="174"/>
+      <c r="T48" s="174"/>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="87" t="s">
@@ -23543,12 +23568,12 @@
         <f t="shared" si="28"/>
         <v>0.23042386424168632</v>
       </c>
-      <c r="O49" s="176"/>
-      <c r="P49" s="176"/>
-      <c r="Q49" s="176"/>
-      <c r="R49" s="176"/>
-      <c r="S49" s="176"/>
-      <c r="T49" s="176"/>
+      <c r="O49" s="174"/>
+      <c r="P49" s="174"/>
+      <c r="Q49" s="174"/>
+      <c r="R49" s="174"/>
+      <c r="S49" s="174"/>
+      <c r="T49" s="174"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="92" t="s">
@@ -23606,12 +23631,12 @@
         <f t="shared" ref="N50" si="40">AVERAGE(N40:N49)</f>
         <v>0.22557244626350009</v>
       </c>
-      <c r="O50" s="176"/>
-      <c r="P50" s="176"/>
-      <c r="Q50" s="176"/>
-      <c r="R50" s="176"/>
-      <c r="S50" s="176"/>
-      <c r="T50" s="176"/>
+      <c r="O50" s="174"/>
+      <c r="P50" s="174"/>
+      <c r="Q50" s="174"/>
+      <c r="R50" s="174"/>
+      <c r="S50" s="174"/>
+      <c r="T50" s="174"/>
     </row>
     <row r="51" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="99"/>
@@ -23672,14 +23697,14 @@
         <f t="shared" ref="N52:N61" si="41">K52/L52</f>
         <v>0.17494407158836689</v>
       </c>
-      <c r="O52" s="176" t="s">
+      <c r="O52" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="176"/>
-      <c r="R52" s="176"/>
-      <c r="S52" s="176"/>
-      <c r="T52" s="176"/>
+      <c r="P52" s="174"/>
+      <c r="Q52" s="174"/>
+      <c r="R52" s="174"/>
+      <c r="S52" s="174"/>
+      <c r="T52" s="174"/>
     </row>
     <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="87" t="s">
@@ -23725,12 +23750,12 @@
         <f t="shared" si="41"/>
         <v>0.16611244296651459</v>
       </c>
-      <c r="O53" s="176"/>
-      <c r="P53" s="176"/>
-      <c r="Q53" s="176"/>
-      <c r="R53" s="176"/>
-      <c r="S53" s="176"/>
-      <c r="T53" s="176"/>
+      <c r="O53" s="174"/>
+      <c r="P53" s="174"/>
+      <c r="Q53" s="174"/>
+      <c r="R53" s="174"/>
+      <c r="S53" s="174"/>
+      <c r="T53" s="174"/>
     </row>
     <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="87" t="s">
@@ -23776,12 +23801,12 @@
         <f t="shared" si="41"/>
         <v>0.16603111653447225</v>
       </c>
-      <c r="O54" s="176"/>
-      <c r="P54" s="176"/>
-      <c r="Q54" s="176"/>
-      <c r="R54" s="176"/>
-      <c r="S54" s="176"/>
-      <c r="T54" s="176"/>
+      <c r="O54" s="174"/>
+      <c r="P54" s="174"/>
+      <c r="Q54" s="174"/>
+      <c r="R54" s="174"/>
+      <c r="S54" s="174"/>
+      <c r="T54" s="174"/>
     </row>
     <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="87" t="s">
@@ -23827,12 +23852,12 @@
         <f t="shared" si="41"/>
         <v>0.16517925834743807</v>
       </c>
-      <c r="O55" s="176"/>
-      <c r="P55" s="176"/>
-      <c r="Q55" s="176"/>
-      <c r="R55" s="176"/>
-      <c r="S55" s="176"/>
-      <c r="T55" s="176"/>
+      <c r="O55" s="174"/>
+      <c r="P55" s="174"/>
+      <c r="Q55" s="174"/>
+      <c r="R55" s="174"/>
+      <c r="S55" s="174"/>
+      <c r="T55" s="174"/>
     </row>
     <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="87" t="s">
@@ -23878,12 +23903,12 @@
         <f t="shared" si="41"/>
         <v>0.17454685692248362</v>
       </c>
-      <c r="O56" s="176"/>
-      <c r="P56" s="176"/>
-      <c r="Q56" s="176"/>
-      <c r="R56" s="176"/>
-      <c r="S56" s="176"/>
-      <c r="T56" s="176"/>
+      <c r="O56" s="174"/>
+      <c r="P56" s="174"/>
+      <c r="Q56" s="174"/>
+      <c r="R56" s="174"/>
+      <c r="S56" s="174"/>
+      <c r="T56" s="174"/>
     </row>
     <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="87" t="s">
@@ -23929,12 +23954,12 @@
         <f t="shared" si="41"/>
         <v>0.16843067082920887</v>
       </c>
-      <c r="O57" s="176"/>
-      <c r="P57" s="176"/>
-      <c r="Q57" s="176"/>
-      <c r="R57" s="176"/>
-      <c r="S57" s="176"/>
-      <c r="T57" s="176"/>
+      <c r="O57" s="174"/>
+      <c r="P57" s="174"/>
+      <c r="Q57" s="174"/>
+      <c r="R57" s="174"/>
+      <c r="S57" s="174"/>
+      <c r="T57" s="174"/>
     </row>
     <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="87" t="s">
@@ -23980,12 +24005,12 @@
         <f t="shared" si="41"/>
         <v>0.17035946699721102</v>
       </c>
-      <c r="O58" s="176"/>
-      <c r="P58" s="176"/>
-      <c r="Q58" s="176"/>
-      <c r="R58" s="176"/>
-      <c r="S58" s="176"/>
-      <c r="T58" s="176"/>
+      <c r="O58" s="174"/>
+      <c r="P58" s="174"/>
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174"/>
+      <c r="S58" s="174"/>
+      <c r="T58" s="174"/>
     </row>
     <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="87" t="s">
@@ -24031,12 +24056,12 @@
         <f t="shared" si="41"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="O59" s="176"/>
-      <c r="P59" s="176"/>
-      <c r="Q59" s="176"/>
-      <c r="R59" s="176"/>
-      <c r="S59" s="176"/>
-      <c r="T59" s="176"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="174"/>
+      <c r="S59" s="174"/>
+      <c r="T59" s="174"/>
     </row>
     <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="87" t="s">
@@ -24082,12 +24107,12 @@
         <f t="shared" si="41"/>
         <v>0.1748257164988381</v>
       </c>
-      <c r="O60" s="176"/>
-      <c r="P60" s="176"/>
-      <c r="Q60" s="176"/>
-      <c r="R60" s="176"/>
-      <c r="S60" s="176"/>
-      <c r="T60" s="176"/>
+      <c r="O60" s="174"/>
+      <c r="P60" s="174"/>
+      <c r="Q60" s="174"/>
+      <c r="R60" s="174"/>
+      <c r="S60" s="174"/>
+      <c r="T60" s="174"/>
     </row>
     <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="87" t="s">
@@ -24133,12 +24158,12 @@
         <f t="shared" si="41"/>
         <v>0.17063644022363483</v>
       </c>
-      <c r="O61" s="176"/>
-      <c r="P61" s="176"/>
-      <c r="Q61" s="176"/>
-      <c r="R61" s="176"/>
-      <c r="S61" s="176"/>
-      <c r="T61" s="176"/>
+      <c r="O61" s="174"/>
+      <c r="P61" s="174"/>
+      <c r="Q61" s="174"/>
+      <c r="R61" s="174"/>
+      <c r="S61" s="174"/>
+      <c r="T61" s="174"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="92" t="s">
@@ -24196,12 +24221,12 @@
         <f t="shared" ref="N62" si="53">AVERAGE(N52:N61)</f>
         <v>0.17024946123367396</v>
       </c>
-      <c r="O62" s="176"/>
-      <c r="P62" s="176"/>
-      <c r="Q62" s="176"/>
-      <c r="R62" s="176"/>
-      <c r="S62" s="176"/>
-      <c r="T62" s="176"/>
+      <c r="O62" s="174"/>
+      <c r="P62" s="174"/>
+      <c r="Q62" s="174"/>
+      <c r="R62" s="174"/>
+      <c r="S62" s="174"/>
+      <c r="T62" s="174"/>
     </row>
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="99"/>
@@ -24261,14 +24286,14 @@
       <c r="N64" s="95">
         <v>0.17094479665996598</v>
       </c>
-      <c r="O64" s="176" t="s">
+      <c r="O64" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="P64" s="176"/>
-      <c r="Q64" s="176"/>
-      <c r="R64" s="176"/>
-      <c r="S64" s="176"/>
-      <c r="T64" s="176"/>
+      <c r="P64" s="174"/>
+      <c r="Q64" s="174"/>
+      <c r="R64" s="174"/>
+      <c r="S64" s="174"/>
+      <c r="T64" s="174"/>
     </row>
     <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="87" t="s">
@@ -24313,12 +24338,12 @@
       <c r="N65" s="95">
         <v>0.16858001386855689</v>
       </c>
-      <c r="O65" s="176"/>
-      <c r="P65" s="176"/>
-      <c r="Q65" s="176"/>
-      <c r="R65" s="176"/>
-      <c r="S65" s="176"/>
-      <c r="T65" s="176"/>
+      <c r="O65" s="174"/>
+      <c r="P65" s="174"/>
+      <c r="Q65" s="174"/>
+      <c r="R65" s="174"/>
+      <c r="S65" s="174"/>
+      <c r="T65" s="174"/>
     </row>
     <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="87" t="s">
@@ -24363,12 +24388,12 @@
       <c r="N66" s="95">
         <v>0.16836149552718097</v>
       </c>
-      <c r="O66" s="176"/>
-      <c r="P66" s="176"/>
-      <c r="Q66" s="176"/>
-      <c r="R66" s="176"/>
-      <c r="S66" s="176"/>
-      <c r="T66" s="176"/>
+      <c r="O66" s="174"/>
+      <c r="P66" s="174"/>
+      <c r="Q66" s="174"/>
+      <c r="R66" s="174"/>
+      <c r="S66" s="174"/>
+      <c r="T66" s="174"/>
     </row>
     <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="87" t="s">
@@ -24413,12 +24438,12 @@
       <c r="N67" s="95">
         <v>0.16985921993999539</v>
       </c>
-      <c r="O67" s="176"/>
-      <c r="P67" s="176"/>
-      <c r="Q67" s="176"/>
-      <c r="R67" s="176"/>
-      <c r="S67" s="176"/>
-      <c r="T67" s="176"/>
+      <c r="O67" s="174"/>
+      <c r="P67" s="174"/>
+      <c r="Q67" s="174"/>
+      <c r="R67" s="174"/>
+      <c r="S67" s="174"/>
+      <c r="T67" s="174"/>
     </row>
     <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="87" t="s">
@@ -24463,12 +24488,12 @@
       <c r="N68" s="95">
         <v>0.16540773855403115</v>
       </c>
-      <c r="O68" s="176"/>
-      <c r="P68" s="176"/>
-      <c r="Q68" s="176"/>
-      <c r="R68" s="176"/>
-      <c r="S68" s="176"/>
-      <c r="T68" s="176"/>
+      <c r="O68" s="174"/>
+      <c r="P68" s="174"/>
+      <c r="Q68" s="174"/>
+      <c r="R68" s="174"/>
+      <c r="S68" s="174"/>
+      <c r="T68" s="174"/>
     </row>
     <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="87" t="s">
@@ -24513,12 +24538,12 @@
       <c r="N69" s="95">
         <v>0.17533628800248816</v>
       </c>
-      <c r="O69" s="176"/>
-      <c r="P69" s="176"/>
-      <c r="Q69" s="176"/>
-      <c r="R69" s="176"/>
-      <c r="S69" s="176"/>
-      <c r="T69" s="176"/>
+      <c r="O69" s="174"/>
+      <c r="P69" s="174"/>
+      <c r="Q69" s="174"/>
+      <c r="R69" s="174"/>
+      <c r="S69" s="174"/>
+      <c r="T69" s="174"/>
     </row>
     <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="87" t="s">
@@ -24563,12 +24588,12 @@
       <c r="N70" s="95">
         <v>0.1720009210223348</v>
       </c>
-      <c r="O70" s="176"/>
-      <c r="P70" s="176"/>
-      <c r="Q70" s="176"/>
-      <c r="R70" s="176"/>
-      <c r="S70" s="176"/>
-      <c r="T70" s="176"/>
+      <c r="O70" s="174"/>
+      <c r="P70" s="174"/>
+      <c r="Q70" s="174"/>
+      <c r="R70" s="174"/>
+      <c r="S70" s="174"/>
+      <c r="T70" s="174"/>
     </row>
     <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="87" t="s">
@@ -24613,12 +24638,12 @@
       <c r="N71" s="95">
         <v>0.16873584758335286</v>
       </c>
-      <c r="O71" s="176"/>
-      <c r="P71" s="176"/>
-      <c r="Q71" s="176"/>
-      <c r="R71" s="176"/>
-      <c r="S71" s="176"/>
-      <c r="T71" s="176"/>
+      <c r="O71" s="174"/>
+      <c r="P71" s="174"/>
+      <c r="Q71" s="174"/>
+      <c r="R71" s="174"/>
+      <c r="S71" s="174"/>
+      <c r="T71" s="174"/>
     </row>
     <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="87" t="s">
@@ -24663,12 +24688,12 @@
       <c r="N72" s="95">
         <v>0.17574102964118565</v>
       </c>
-      <c r="O72" s="176"/>
-      <c r="P72" s="176"/>
-      <c r="Q72" s="176"/>
-      <c r="R72" s="176"/>
-      <c r="S72" s="176"/>
-      <c r="T72" s="176"/>
+      <c r="O72" s="174"/>
+      <c r="P72" s="174"/>
+      <c r="Q72" s="174"/>
+      <c r="R72" s="174"/>
+      <c r="S72" s="174"/>
+      <c r="T72" s="174"/>
     </row>
     <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="87" t="s">
@@ -24713,12 +24738,12 @@
       <c r="N73" s="95">
         <v>0.17359730927992661</v>
       </c>
-      <c r="O73" s="176"/>
-      <c r="P73" s="176"/>
-      <c r="Q73" s="176"/>
-      <c r="R73" s="176"/>
-      <c r="S73" s="176"/>
-      <c r="T73" s="176"/>
+      <c r="O73" s="174"/>
+      <c r="P73" s="174"/>
+      <c r="Q73" s="174"/>
+      <c r="R73" s="174"/>
+      <c r="S73" s="174"/>
+      <c r="T73" s="174"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="92" t="s">
@@ -24776,12 +24801,12 @@
         <f t="shared" ref="N74" si="65">AVERAGE(N64:N73)</f>
         <v>0.17085646600790186</v>
       </c>
-      <c r="O74" s="176"/>
-      <c r="P74" s="176"/>
-      <c r="Q74" s="176"/>
-      <c r="R74" s="176"/>
-      <c r="S74" s="176"/>
-      <c r="T74" s="176"/>
+      <c r="O74" s="174"/>
+      <c r="P74" s="174"/>
+      <c r="Q74" s="174"/>
+      <c r="R74" s="174"/>
+      <c r="S74" s="174"/>
+      <c r="T74" s="174"/>
     </row>
     <row r="75" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="99"/>
@@ -24841,14 +24866,14 @@
       <c r="N76" s="95">
         <v>0.34329044117647056</v>
       </c>
-      <c r="O76" s="176" t="s">
+      <c r="O76" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="P76" s="176"/>
-      <c r="Q76" s="176"/>
-      <c r="R76" s="176"/>
-      <c r="S76" s="176"/>
-      <c r="T76" s="176"/>
+      <c r="P76" s="174"/>
+      <c r="Q76" s="174"/>
+      <c r="R76" s="174"/>
+      <c r="S76" s="174"/>
+      <c r="T76" s="174"/>
     </row>
     <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="87" t="s">
@@ -24893,12 +24918,12 @@
       <c r="N77" s="95">
         <v>0.34105068840858394</v>
       </c>
-      <c r="O77" s="176"/>
-      <c r="P77" s="176"/>
-      <c r="Q77" s="176"/>
-      <c r="R77" s="176"/>
-      <c r="S77" s="176"/>
-      <c r="T77" s="176"/>
+      <c r="O77" s="174"/>
+      <c r="P77" s="174"/>
+      <c r="Q77" s="174"/>
+      <c r="R77" s="174"/>
+      <c r="S77" s="174"/>
+      <c r="T77" s="174"/>
     </row>
     <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="87" t="s">
@@ -24943,12 +24968,12 @@
       <c r="N78" s="95">
         <v>0.34692788534837626</v>
       </c>
-      <c r="O78" s="176"/>
-      <c r="P78" s="176"/>
-      <c r="Q78" s="176"/>
-      <c r="R78" s="176"/>
-      <c r="S78" s="176"/>
-      <c r="T78" s="176"/>
+      <c r="O78" s="174"/>
+      <c r="P78" s="174"/>
+      <c r="Q78" s="174"/>
+      <c r="R78" s="174"/>
+      <c r="S78" s="174"/>
+      <c r="T78" s="174"/>
     </row>
     <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="87" t="s">
@@ -24993,12 +25018,12 @@
       <c r="N79" s="95">
         <v>0.34155655693882225</v>
       </c>
-      <c r="O79" s="176"/>
-      <c r="P79" s="176"/>
-      <c r="Q79" s="176"/>
-      <c r="R79" s="176"/>
-      <c r="S79" s="176"/>
-      <c r="T79" s="176"/>
+      <c r="O79" s="174"/>
+      <c r="P79" s="174"/>
+      <c r="Q79" s="174"/>
+      <c r="R79" s="174"/>
+      <c r="S79" s="174"/>
+      <c r="T79" s="174"/>
     </row>
     <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="87" t="s">
@@ -25043,12 +25068,12 @@
       <c r="N80" s="95">
         <v>0.35245394023842702</v>
       </c>
-      <c r="O80" s="176"/>
-      <c r="P80" s="176"/>
-      <c r="Q80" s="176"/>
-      <c r="R80" s="176"/>
-      <c r="S80" s="176"/>
-      <c r="T80" s="176"/>
+      <c r="O80" s="174"/>
+      <c r="P80" s="174"/>
+      <c r="Q80" s="174"/>
+      <c r="R80" s="174"/>
+      <c r="S80" s="174"/>
+      <c r="T80" s="174"/>
     </row>
     <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="87" t="s">
@@ -25093,12 +25118,12 @@
       <c r="N81" s="95">
         <v>0.34468706750730432</v>
       </c>
-      <c r="O81" s="176"/>
-      <c r="P81" s="176"/>
-      <c r="Q81" s="176"/>
-      <c r="R81" s="176"/>
-      <c r="S81" s="176"/>
-      <c r="T81" s="176"/>
+      <c r="O81" s="174"/>
+      <c r="P81" s="174"/>
+      <c r="Q81" s="174"/>
+      <c r="R81" s="174"/>
+      <c r="S81" s="174"/>
+      <c r="T81" s="174"/>
     </row>
     <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="87" t="s">
@@ -25143,12 +25168,12 @@
       <c r="N82" s="95">
         <v>0.34538751176655164</v>
       </c>
-      <c r="O82" s="176"/>
-      <c r="P82" s="176"/>
-      <c r="Q82" s="176"/>
-      <c r="R82" s="176"/>
-      <c r="S82" s="176"/>
-      <c r="T82" s="176"/>
+      <c r="O82" s="174"/>
+      <c r="P82" s="174"/>
+      <c r="Q82" s="174"/>
+      <c r="R82" s="174"/>
+      <c r="S82" s="174"/>
+      <c r="T82" s="174"/>
     </row>
     <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="87" t="s">
@@ -25193,12 +25218,12 @@
       <c r="N83" s="95">
         <v>0.33976684937852236</v>
       </c>
-      <c r="O83" s="176"/>
-      <c r="P83" s="176"/>
-      <c r="Q83" s="176"/>
-      <c r="R83" s="176"/>
-      <c r="S83" s="176"/>
-      <c r="T83" s="176"/>
+      <c r="O83" s="174"/>
+      <c r="P83" s="174"/>
+      <c r="Q83" s="174"/>
+      <c r="R83" s="174"/>
+      <c r="S83" s="174"/>
+      <c r="T83" s="174"/>
     </row>
     <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="87" t="s">
@@ -25243,12 +25268,12 @@
       <c r="N84" s="95">
         <v>0.33929526866926546</v>
       </c>
-      <c r="O84" s="176"/>
-      <c r="P84" s="176"/>
-      <c r="Q84" s="176"/>
-      <c r="R84" s="176"/>
-      <c r="S84" s="176"/>
-      <c r="T84" s="176"/>
+      <c r="O84" s="174"/>
+      <c r="P84" s="174"/>
+      <c r="Q84" s="174"/>
+      <c r="R84" s="174"/>
+      <c r="S84" s="174"/>
+      <c r="T84" s="174"/>
     </row>
     <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="87" t="s">
@@ -25293,12 +25318,12 @@
       <c r="N85" s="95">
         <v>0.33399632802937579</v>
       </c>
-      <c r="O85" s="176"/>
-      <c r="P85" s="176"/>
-      <c r="Q85" s="176"/>
-      <c r="R85" s="176"/>
-      <c r="S85" s="176"/>
-      <c r="T85" s="176"/>
+      <c r="O85" s="174"/>
+      <c r="P85" s="174"/>
+      <c r="Q85" s="174"/>
+      <c r="R85" s="174"/>
+      <c r="S85" s="174"/>
+      <c r="T85" s="174"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="92" t="s">
@@ -25356,12 +25381,12 @@
         <f t="shared" ref="N86" si="77">AVERAGE(N76:N85)</f>
         <v>0.34284125374616992</v>
       </c>
-      <c r="O86" s="176"/>
-      <c r="P86" s="176"/>
-      <c r="Q86" s="176"/>
-      <c r="R86" s="176"/>
-      <c r="S86" s="176"/>
-      <c r="T86" s="176"/>
+      <c r="O86" s="174"/>
+      <c r="P86" s="174"/>
+      <c r="Q86" s="174"/>
+      <c r="R86" s="174"/>
+      <c r="S86" s="174"/>
+      <c r="T86" s="174"/>
     </row>
     <row r="87" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="99"/>
@@ -25422,14 +25447,14 @@
         <f t="shared" ref="N88:N97" si="78">K88/L88</f>
         <v>0.22945286129209513</v>
       </c>
-      <c r="O88" s="176" t="s">
+      <c r="O88" s="174" t="s">
         <v>190</v>
       </c>
-      <c r="P88" s="176"/>
-      <c r="Q88" s="176"/>
-      <c r="R88" s="176"/>
-      <c r="S88" s="176"/>
-      <c r="T88" s="176"/>
+      <c r="P88" s="174"/>
+      <c r="Q88" s="174"/>
+      <c r="R88" s="174"/>
+      <c r="S88" s="174"/>
+      <c r="T88" s="174"/>
     </row>
     <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="87" t="s">
@@ -25475,12 +25500,12 @@
         <f t="shared" si="78"/>
         <v>0.23350953803723282</v>
       </c>
-      <c r="O89" s="176"/>
-      <c r="P89" s="176"/>
-      <c r="Q89" s="176"/>
-      <c r="R89" s="176"/>
-      <c r="S89" s="176"/>
-      <c r="T89" s="176"/>
+      <c r="O89" s="174"/>
+      <c r="P89" s="174"/>
+      <c r="Q89" s="174"/>
+      <c r="R89" s="174"/>
+      <c r="S89" s="174"/>
+      <c r="T89" s="174"/>
     </row>
     <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="87" t="s">
@@ -25526,12 +25551,12 @@
         <f t="shared" si="78"/>
         <v>0.23115193264446995</v>
       </c>
-      <c r="O90" s="176"/>
-      <c r="P90" s="176"/>
-      <c r="Q90" s="176"/>
-      <c r="R90" s="176"/>
-      <c r="S90" s="176"/>
-      <c r="T90" s="176"/>
+      <c r="O90" s="174"/>
+      <c r="P90" s="174"/>
+      <c r="Q90" s="174"/>
+      <c r="R90" s="174"/>
+      <c r="S90" s="174"/>
+      <c r="T90" s="174"/>
     </row>
     <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="87" t="s">
@@ -25577,12 +25602,12 @@
         <f t="shared" si="78"/>
         <v>0.23003170768533898</v>
       </c>
-      <c r="O91" s="176"/>
-      <c r="P91" s="176"/>
-      <c r="Q91" s="176"/>
-      <c r="R91" s="176"/>
-      <c r="S91" s="176"/>
-      <c r="T91" s="176"/>
+      <c r="O91" s="174"/>
+      <c r="P91" s="174"/>
+      <c r="Q91" s="174"/>
+      <c r="R91" s="174"/>
+      <c r="S91" s="174"/>
+      <c r="T91" s="174"/>
     </row>
     <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="87" t="s">
@@ -25628,12 +25653,12 @@
         <f t="shared" si="78"/>
         <v>0.21492696287279367</v>
       </c>
-      <c r="O92" s="176"/>
-      <c r="P92" s="176"/>
-      <c r="Q92" s="176"/>
-      <c r="R92" s="176"/>
-      <c r="S92" s="176"/>
-      <c r="T92" s="176"/>
+      <c r="O92" s="174"/>
+      <c r="P92" s="174"/>
+      <c r="Q92" s="174"/>
+      <c r="R92" s="174"/>
+      <c r="S92" s="174"/>
+      <c r="T92" s="174"/>
     </row>
     <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="87" t="s">
@@ -25679,12 +25704,12 @@
         <f t="shared" si="78"/>
         <v>0.23276529821843533</v>
       </c>
-      <c r="O93" s="176"/>
-      <c r="P93" s="176"/>
-      <c r="Q93" s="176"/>
-      <c r="R93" s="176"/>
-      <c r="S93" s="176"/>
-      <c r="T93" s="176"/>
+      <c r="O93" s="174"/>
+      <c r="P93" s="174"/>
+      <c r="Q93" s="174"/>
+      <c r="R93" s="174"/>
+      <c r="S93" s="174"/>
+      <c r="T93" s="174"/>
     </row>
     <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="87" t="s">
@@ -25730,12 +25755,12 @@
         <f t="shared" si="78"/>
         <v>0.22459686752565389</v>
       </c>
-      <c r="O94" s="176"/>
-      <c r="P94" s="176"/>
-      <c r="Q94" s="176"/>
-      <c r="R94" s="176"/>
-      <c r="S94" s="176"/>
-      <c r="T94" s="176"/>
+      <c r="O94" s="174"/>
+      <c r="P94" s="174"/>
+      <c r="Q94" s="174"/>
+      <c r="R94" s="174"/>
+      <c r="S94" s="174"/>
+      <c r="T94" s="174"/>
     </row>
     <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="87" t="s">
@@ -25781,12 +25806,12 @@
         <f t="shared" si="78"/>
         <v>0.23970326868093655</v>
       </c>
-      <c r="O95" s="176"/>
-      <c r="P95" s="176"/>
-      <c r="Q95" s="176"/>
-      <c r="R95" s="176"/>
-      <c r="S95" s="176"/>
-      <c r="T95" s="176"/>
+      <c r="O95" s="174"/>
+      <c r="P95" s="174"/>
+      <c r="Q95" s="174"/>
+      <c r="R95" s="174"/>
+      <c r="S95" s="174"/>
+      <c r="T95" s="174"/>
     </row>
     <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="87" t="s">
@@ -25832,12 +25857,12 @@
         <f t="shared" si="78"/>
         <v>0.22133476691498349</v>
       </c>
-      <c r="O96" s="176"/>
-      <c r="P96" s="176"/>
-      <c r="Q96" s="176"/>
-      <c r="R96" s="176"/>
-      <c r="S96" s="176"/>
-      <c r="T96" s="176"/>
+      <c r="O96" s="174"/>
+      <c r="P96" s="174"/>
+      <c r="Q96" s="174"/>
+      <c r="R96" s="174"/>
+      <c r="S96" s="174"/>
+      <c r="T96" s="174"/>
     </row>
     <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="87" t="s">
@@ -25883,12 +25908,12 @@
         <f t="shared" si="78"/>
         <v>0.2421839255757206</v>
       </c>
-      <c r="O97" s="176"/>
-      <c r="P97" s="176"/>
-      <c r="Q97" s="176"/>
-      <c r="R97" s="176"/>
-      <c r="S97" s="176"/>
-      <c r="T97" s="176"/>
+      <c r="O97" s="174"/>
+      <c r="P97" s="174"/>
+      <c r="Q97" s="174"/>
+      <c r="R97" s="174"/>
+      <c r="S97" s="174"/>
+      <c r="T97" s="174"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="92" t="s">
@@ -25946,12 +25971,12 @@
         <f t="shared" ref="N98" si="90">AVERAGE(N88:N97)</f>
         <v>0.22996571294476609</v>
       </c>
-      <c r="O98" s="176"/>
-      <c r="P98" s="176"/>
-      <c r="Q98" s="176"/>
-      <c r="R98" s="176"/>
-      <c r="S98" s="176"/>
-      <c r="T98" s="176"/>
+      <c r="O98" s="174"/>
+      <c r="P98" s="174"/>
+      <c r="Q98" s="174"/>
+      <c r="R98" s="174"/>
+      <c r="S98" s="174"/>
+      <c r="T98" s="174"/>
     </row>
     <row r="99" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="99"/>
@@ -26011,14 +26036,14 @@
       <c r="N100" s="95">
         <v>0.17289827255278312</v>
       </c>
-      <c r="O100" s="176" t="s">
+      <c r="O100" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="P100" s="176"/>
-      <c r="Q100" s="176"/>
-      <c r="R100" s="176"/>
-      <c r="S100" s="176"/>
-      <c r="T100" s="176"/>
+      <c r="P100" s="174"/>
+      <c r="Q100" s="174"/>
+      <c r="R100" s="174"/>
+      <c r="S100" s="174"/>
+      <c r="T100" s="174"/>
     </row>
     <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="87" t="s">
@@ -26063,12 +26088,12 @@
       <c r="N101" s="95">
         <v>0.17448736656170802</v>
       </c>
-      <c r="O101" s="176"/>
-      <c r="P101" s="176"/>
-      <c r="Q101" s="176"/>
-      <c r="R101" s="176"/>
-      <c r="S101" s="176"/>
-      <c r="T101" s="176"/>
+      <c r="O101" s="174"/>
+      <c r="P101" s="174"/>
+      <c r="Q101" s="174"/>
+      <c r="R101" s="174"/>
+      <c r="S101" s="174"/>
+      <c r="T101" s="174"/>
     </row>
     <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="87" t="s">
@@ -26113,12 +26138,12 @@
       <c r="N102" s="95">
         <v>0.17573092648306718</v>
       </c>
-      <c r="O102" s="176"/>
-      <c r="P102" s="176"/>
-      <c r="Q102" s="176"/>
-      <c r="R102" s="176"/>
-      <c r="S102" s="176"/>
-      <c r="T102" s="176"/>
+      <c r="O102" s="174"/>
+      <c r="P102" s="174"/>
+      <c r="Q102" s="174"/>
+      <c r="R102" s="174"/>
+      <c r="S102" s="174"/>
+      <c r="T102" s="174"/>
     </row>
     <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="87" t="s">
@@ -26163,12 +26188,12 @@
       <c r="N103" s="95">
         <v>0.177677949035706</v>
       </c>
-      <c r="O103" s="176"/>
-      <c r="P103" s="176"/>
-      <c r="Q103" s="176"/>
-      <c r="R103" s="176"/>
-      <c r="S103" s="176"/>
-      <c r="T103" s="176"/>
+      <c r="O103" s="174"/>
+      <c r="P103" s="174"/>
+      <c r="Q103" s="174"/>
+      <c r="R103" s="174"/>
+      <c r="S103" s="174"/>
+      <c r="T103" s="174"/>
     </row>
     <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="87" t="s">
@@ -26213,12 +26238,12 @@
       <c r="N104" s="95">
         <v>0.17764932562620425</v>
       </c>
-      <c r="O104" s="176"/>
-      <c r="P104" s="176"/>
-      <c r="Q104" s="176"/>
-      <c r="R104" s="176"/>
-      <c r="S104" s="176"/>
-      <c r="T104" s="176"/>
+      <c r="O104" s="174"/>
+      <c r="P104" s="174"/>
+      <c r="Q104" s="174"/>
+      <c r="R104" s="174"/>
+      <c r="S104" s="174"/>
+      <c r="T104" s="174"/>
     </row>
     <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="87" t="s">
@@ -26263,12 +26288,12 @@
       <c r="N105" s="95">
         <v>0.17298124760811329</v>
       </c>
-      <c r="O105" s="176"/>
-      <c r="P105" s="176"/>
-      <c r="Q105" s="176"/>
-      <c r="R105" s="176"/>
-      <c r="S105" s="176"/>
-      <c r="T105" s="176"/>
+      <c r="O105" s="174"/>
+      <c r="P105" s="174"/>
+      <c r="Q105" s="174"/>
+      <c r="R105" s="174"/>
+      <c r="S105" s="174"/>
+      <c r="T105" s="174"/>
     </row>
     <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="87" t="s">
@@ -26313,12 +26338,12 @@
       <c r="N106" s="95">
         <v>0.17508941066708134</v>
       </c>
-      <c r="O106" s="176"/>
-      <c r="P106" s="176"/>
-      <c r="Q106" s="176"/>
-      <c r="R106" s="176"/>
-      <c r="S106" s="176"/>
-      <c r="T106" s="176"/>
+      <c r="O106" s="174"/>
+      <c r="P106" s="174"/>
+      <c r="Q106" s="174"/>
+      <c r="R106" s="174"/>
+      <c r="S106" s="174"/>
+      <c r="T106" s="174"/>
     </row>
     <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="87" t="s">
@@ -26363,12 +26388,12 @@
       <c r="N107" s="95">
         <v>0.17483262325015217</v>
       </c>
-      <c r="O107" s="176"/>
-      <c r="P107" s="176"/>
-      <c r="Q107" s="176"/>
-      <c r="R107" s="176"/>
-      <c r="S107" s="176"/>
-      <c r="T107" s="176"/>
+      <c r="O107" s="174"/>
+      <c r="P107" s="174"/>
+      <c r="Q107" s="174"/>
+      <c r="R107" s="174"/>
+      <c r="S107" s="174"/>
+      <c r="T107" s="174"/>
     </row>
     <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="87" t="s">
@@ -26413,12 +26438,12 @@
       <c r="N108" s="95">
         <v>0.17444050938135786</v>
       </c>
-      <c r="O108" s="176"/>
-      <c r="P108" s="176"/>
-      <c r="Q108" s="176"/>
-      <c r="R108" s="176"/>
-      <c r="S108" s="176"/>
-      <c r="T108" s="176"/>
+      <c r="O108" s="174"/>
+      <c r="P108" s="174"/>
+      <c r="Q108" s="174"/>
+      <c r="R108" s="174"/>
+      <c r="S108" s="174"/>
+      <c r="T108" s="174"/>
     </row>
     <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="87" t="s">
@@ -26463,12 +26488,12 @@
       <c r="N109" s="95">
         <v>0.16989396035039189</v>
       </c>
-      <c r="O109" s="176"/>
-      <c r="P109" s="176"/>
-      <c r="Q109" s="176"/>
-      <c r="R109" s="176"/>
-      <c r="S109" s="176"/>
-      <c r="T109" s="176"/>
+      <c r="O109" s="174"/>
+      <c r="P109" s="174"/>
+      <c r="Q109" s="174"/>
+      <c r="R109" s="174"/>
+      <c r="S109" s="174"/>
+      <c r="T109" s="174"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="92" t="s">
@@ -26526,12 +26551,12 @@
         <f t="shared" ref="N110" si="102">AVERAGE(N100:N109)</f>
         <v>0.17456815915165652</v>
       </c>
-      <c r="O110" s="176"/>
-      <c r="P110" s="176"/>
-      <c r="Q110" s="176"/>
-      <c r="R110" s="176"/>
-      <c r="S110" s="176"/>
-      <c r="T110" s="176"/>
+      <c r="O110" s="174"/>
+      <c r="P110" s="174"/>
+      <c r="Q110" s="174"/>
+      <c r="R110" s="174"/>
+      <c r="S110" s="174"/>
+      <c r="T110" s="174"/>
     </row>
     <row r="111" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="99"/>
@@ -26591,14 +26616,14 @@
       <c r="N112" s="95">
         <v>0.17537800291657071</v>
       </c>
-      <c r="O112" s="176" t="s">
+      <c r="O112" s="174" t="s">
         <v>192</v>
       </c>
-      <c r="P112" s="176"/>
-      <c r="Q112" s="176"/>
-      <c r="R112" s="176"/>
-      <c r="S112" s="176"/>
-      <c r="T112" s="176"/>
+      <c r="P112" s="174"/>
+      <c r="Q112" s="174"/>
+      <c r="R112" s="174"/>
+      <c r="S112" s="174"/>
+      <c r="T112" s="174"/>
     </row>
     <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="87" t="s">
@@ -26643,12 +26668,12 @@
       <c r="N113" s="95">
         <v>0.17761576049018848</v>
       </c>
-      <c r="O113" s="176"/>
-      <c r="P113" s="176"/>
-      <c r="Q113" s="176"/>
-      <c r="R113" s="176"/>
-      <c r="S113" s="176"/>
-      <c r="T113" s="176"/>
+      <c r="O113" s="174"/>
+      <c r="P113" s="174"/>
+      <c r="Q113" s="174"/>
+      <c r="R113" s="174"/>
+      <c r="S113" s="174"/>
+      <c r="T113" s="174"/>
     </row>
     <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="87" t="s">
@@ -26693,12 +26718,12 @@
       <c r="N114" s="95">
         <v>0.17222222222222222</v>
       </c>
-      <c r="O114" s="176"/>
-      <c r="P114" s="176"/>
-      <c r="Q114" s="176"/>
-      <c r="R114" s="176"/>
-      <c r="S114" s="176"/>
-      <c r="T114" s="176"/>
+      <c r="O114" s="174"/>
+      <c r="P114" s="174"/>
+      <c r="Q114" s="174"/>
+      <c r="R114" s="174"/>
+      <c r="S114" s="174"/>
+      <c r="T114" s="174"/>
     </row>
     <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="87" t="s">
@@ -26743,12 +26768,12 @@
       <c r="N115" s="95">
         <v>0.16922606769042708</v>
       </c>
-      <c r="O115" s="176"/>
-      <c r="P115" s="176"/>
-      <c r="Q115" s="176"/>
-      <c r="R115" s="176"/>
-      <c r="S115" s="176"/>
-      <c r="T115" s="176"/>
+      <c r="O115" s="174"/>
+      <c r="P115" s="174"/>
+      <c r="Q115" s="174"/>
+      <c r="R115" s="174"/>
+      <c r="S115" s="174"/>
+      <c r="T115" s="174"/>
     </row>
     <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="87" t="s">
@@ -26793,12 +26818,12 @@
       <c r="N116" s="95">
         <v>0.17563031769573023</v>
       </c>
-      <c r="O116" s="176"/>
-      <c r="P116" s="176"/>
-      <c r="Q116" s="176"/>
-      <c r="R116" s="176"/>
-      <c r="S116" s="176"/>
-      <c r="T116" s="176"/>
+      <c r="O116" s="174"/>
+      <c r="P116" s="174"/>
+      <c r="Q116" s="174"/>
+      <c r="R116" s="174"/>
+      <c r="S116" s="174"/>
+      <c r="T116" s="174"/>
     </row>
     <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="87" t="s">
@@ -26843,12 +26868,12 @@
       <c r="N117" s="95">
         <v>0.16729280073602698</v>
       </c>
-      <c r="O117" s="176"/>
-      <c r="P117" s="176"/>
-      <c r="Q117" s="176"/>
-      <c r="R117" s="176"/>
-      <c r="S117" s="176"/>
-      <c r="T117" s="176"/>
+      <c r="O117" s="174"/>
+      <c r="P117" s="174"/>
+      <c r="Q117" s="174"/>
+      <c r="R117" s="174"/>
+      <c r="S117" s="174"/>
+      <c r="T117" s="174"/>
     </row>
     <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="87" t="s">
@@ -26893,12 +26918,12 @@
       <c r="N118" s="95">
         <v>0.17375161021444269</v>
       </c>
-      <c r="O118" s="176"/>
-      <c r="P118" s="176"/>
-      <c r="Q118" s="176"/>
-      <c r="R118" s="176"/>
-      <c r="S118" s="176"/>
-      <c r="T118" s="176"/>
+      <c r="O118" s="174"/>
+      <c r="P118" s="174"/>
+      <c r="Q118" s="174"/>
+      <c r="R118" s="174"/>
+      <c r="S118" s="174"/>
+      <c r="T118" s="174"/>
     </row>
     <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="87" t="s">
@@ -26943,12 +26968,12 @@
       <c r="N119" s="95">
         <v>0.1726707120362547</v>
       </c>
-      <c r="O119" s="176"/>
-      <c r="P119" s="176"/>
-      <c r="Q119" s="176"/>
-      <c r="R119" s="176"/>
-      <c r="S119" s="176"/>
-      <c r="T119" s="176"/>
+      <c r="O119" s="174"/>
+      <c r="P119" s="174"/>
+      <c r="Q119" s="174"/>
+      <c r="R119" s="174"/>
+      <c r="S119" s="174"/>
+      <c r="T119" s="174"/>
     </row>
     <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="87" t="s">
@@ -26993,12 +27018,12 @@
       <c r="N120" s="95">
         <v>0.17314864144912093</v>
       </c>
-      <c r="O120" s="176"/>
-      <c r="P120" s="176"/>
-      <c r="Q120" s="176"/>
-      <c r="R120" s="176"/>
-      <c r="S120" s="176"/>
-      <c r="T120" s="176"/>
+      <c r="O120" s="174"/>
+      <c r="P120" s="174"/>
+      <c r="Q120" s="174"/>
+      <c r="R120" s="174"/>
+      <c r="S120" s="174"/>
+      <c r="T120" s="174"/>
     </row>
     <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="87" t="s">
@@ -27043,12 +27068,12 @@
       <c r="N121" s="95">
         <v>0.17636066339640272</v>
       </c>
-      <c r="O121" s="176"/>
-      <c r="P121" s="176"/>
-      <c r="Q121" s="176"/>
-      <c r="R121" s="176"/>
-      <c r="S121" s="176"/>
-      <c r="T121" s="176"/>
+      <c r="O121" s="174"/>
+      <c r="P121" s="174"/>
+      <c r="Q121" s="174"/>
+      <c r="R121" s="174"/>
+      <c r="S121" s="174"/>
+      <c r="T121" s="174"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="92" t="s">
@@ -27106,12 +27131,12 @@
         <f t="shared" ref="N122" si="114">AVERAGE(N112:N121)</f>
         <v>0.17332967988473869</v>
       </c>
-      <c r="O122" s="176"/>
-      <c r="P122" s="176"/>
-      <c r="Q122" s="176"/>
-      <c r="R122" s="176"/>
-      <c r="S122" s="176"/>
-      <c r="T122" s="176"/>
+      <c r="O122" s="174"/>
+      <c r="P122" s="174"/>
+      <c r="Q122" s="174"/>
+      <c r="R122" s="174"/>
+      <c r="S122" s="174"/>
+      <c r="T122" s="174"/>
     </row>
     <row r="123" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="99"/>
@@ -27171,14 +27196,14 @@
       <c r="N124" s="95">
         <v>0.17221882640586797</v>
       </c>
-      <c r="O124" s="176" t="s">
+      <c r="O124" s="174" t="s">
         <v>193</v>
       </c>
-      <c r="P124" s="176"/>
-      <c r="Q124" s="176"/>
-      <c r="R124" s="176"/>
-      <c r="S124" s="176"/>
-      <c r="T124" s="176"/>
+      <c r="P124" s="174"/>
+      <c r="Q124" s="174"/>
+      <c r="R124" s="174"/>
+      <c r="S124" s="174"/>
+      <c r="T124" s="174"/>
     </row>
     <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="87" t="s">
@@ -27223,12 +27248,12 @@
       <c r="N125" s="95">
         <v>0.17350717481870082</v>
       </c>
-      <c r="O125" s="176"/>
-      <c r="P125" s="176"/>
-      <c r="Q125" s="176"/>
-      <c r="R125" s="176"/>
-      <c r="S125" s="176"/>
-      <c r="T125" s="176"/>
+      <c r="O125" s="174"/>
+      <c r="P125" s="174"/>
+      <c r="Q125" s="174"/>
+      <c r="R125" s="174"/>
+      <c r="S125" s="174"/>
+      <c r="T125" s="174"/>
     </row>
     <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="87" t="s">
@@ -27273,12 +27298,12 @@
       <c r="N126" s="95">
         <v>0.17092263261893906</v>
       </c>
-      <c r="O126" s="176"/>
-      <c r="P126" s="176"/>
-      <c r="Q126" s="176"/>
-      <c r="R126" s="176"/>
-      <c r="S126" s="176"/>
-      <c r="T126" s="176"/>
+      <c r="O126" s="174"/>
+      <c r="P126" s="174"/>
+      <c r="Q126" s="174"/>
+      <c r="R126" s="174"/>
+      <c r="S126" s="174"/>
+      <c r="T126" s="174"/>
     </row>
     <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="87" t="s">
@@ -27323,12 +27348,12 @@
       <c r="N127" s="95">
         <v>0.17220333745364647</v>
       </c>
-      <c r="O127" s="176"/>
-      <c r="P127" s="176"/>
-      <c r="Q127" s="176"/>
-      <c r="R127" s="176"/>
-      <c r="S127" s="176"/>
-      <c r="T127" s="176"/>
+      <c r="O127" s="174"/>
+      <c r="P127" s="174"/>
+      <c r="Q127" s="174"/>
+      <c r="R127" s="174"/>
+      <c r="S127" s="174"/>
+      <c r="T127" s="174"/>
     </row>
     <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="87" t="s">
@@ -27373,12 +27398,12 @@
       <c r="N128" s="95">
         <v>0.17278668118873503</v>
       </c>
-      <c r="O128" s="176"/>
-      <c r="P128" s="176"/>
-      <c r="Q128" s="176"/>
-      <c r="R128" s="176"/>
-      <c r="S128" s="176"/>
-      <c r="T128" s="176"/>
+      <c r="O128" s="174"/>
+      <c r="P128" s="174"/>
+      <c r="Q128" s="174"/>
+      <c r="R128" s="174"/>
+      <c r="S128" s="174"/>
+      <c r="T128" s="174"/>
     </row>
     <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="87" t="s">
@@ -27423,12 +27448,12 @@
       <c r="N129" s="95">
         <v>0.16994674693216022</v>
       </c>
-      <c r="O129" s="176"/>
-      <c r="P129" s="176"/>
-      <c r="Q129" s="176"/>
-      <c r="R129" s="176"/>
-      <c r="S129" s="176"/>
-      <c r="T129" s="176"/>
+      <c r="O129" s="174"/>
+      <c r="P129" s="174"/>
+      <c r="Q129" s="174"/>
+      <c r="R129" s="174"/>
+      <c r="S129" s="174"/>
+      <c r="T129" s="174"/>
     </row>
     <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="87" t="s">
@@ -27473,12 +27498,12 @@
       <c r="N130" s="95">
         <v>0.16907404591759162</v>
       </c>
-      <c r="O130" s="176"/>
-      <c r="P130" s="176"/>
-      <c r="Q130" s="176"/>
-      <c r="R130" s="176"/>
-      <c r="S130" s="176"/>
-      <c r="T130" s="176"/>
+      <c r="O130" s="174"/>
+      <c r="P130" s="174"/>
+      <c r="Q130" s="174"/>
+      <c r="R130" s="174"/>
+      <c r="S130" s="174"/>
+      <c r="T130" s="174"/>
     </row>
     <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="87" t="s">
@@ -27523,12 +27548,12 @@
       <c r="N131" s="95">
         <v>0.16873793901968351</v>
       </c>
-      <c r="O131" s="176"/>
-      <c r="P131" s="176"/>
-      <c r="Q131" s="176"/>
-      <c r="R131" s="176"/>
-      <c r="S131" s="176"/>
-      <c r="T131" s="176"/>
+      <c r="O131" s="174"/>
+      <c r="P131" s="174"/>
+      <c r="Q131" s="174"/>
+      <c r="R131" s="174"/>
+      <c r="S131" s="174"/>
+      <c r="T131" s="174"/>
     </row>
     <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="87" t="s">
@@ -27573,12 +27598,12 @@
       <c r="N132" s="95">
         <v>0.16885524486327824</v>
       </c>
-      <c r="O132" s="176"/>
-      <c r="P132" s="176"/>
-      <c r="Q132" s="176"/>
-      <c r="R132" s="176"/>
-      <c r="S132" s="176"/>
-      <c r="T132" s="176"/>
+      <c r="O132" s="174"/>
+      <c r="P132" s="174"/>
+      <c r="Q132" s="174"/>
+      <c r="R132" s="174"/>
+      <c r="S132" s="174"/>
+      <c r="T132" s="174"/>
     </row>
     <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="87" t="s">
@@ -27623,12 +27648,12 @@
       <c r="N133" s="95">
         <v>0.1665903890160183</v>
       </c>
-      <c r="O133" s="176"/>
-      <c r="P133" s="176"/>
-      <c r="Q133" s="176"/>
-      <c r="R133" s="176"/>
-      <c r="S133" s="176"/>
-      <c r="T133" s="176"/>
+      <c r="O133" s="174"/>
+      <c r="P133" s="174"/>
+      <c r="Q133" s="174"/>
+      <c r="R133" s="174"/>
+      <c r="S133" s="174"/>
+      <c r="T133" s="174"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="92" t="s">
@@ -27686,12 +27711,12 @@
         <f t="shared" ref="N134" si="126">AVERAGE(N124:N133)</f>
         <v>0.17048430182346214</v>
       </c>
-      <c r="O134" s="176"/>
-      <c r="P134" s="176"/>
-      <c r="Q134" s="176"/>
-      <c r="R134" s="176"/>
-      <c r="S134" s="176"/>
-      <c r="T134" s="176"/>
+      <c r="O134" s="174"/>
+      <c r="P134" s="174"/>
+      <c r="Q134" s="174"/>
+      <c r="R134" s="174"/>
+      <c r="S134" s="174"/>
+      <c r="T134" s="174"/>
     </row>
     <row r="135" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="99"/>
@@ -27751,14 +27776,14 @@
       <c r="N136" s="95">
         <v>0.34263470284436909</v>
       </c>
-      <c r="O136" s="176" t="s">
+      <c r="O136" s="174" t="s">
         <v>194</v>
       </c>
-      <c r="P136" s="176"/>
-      <c r="Q136" s="176"/>
-      <c r="R136" s="176"/>
-      <c r="S136" s="176"/>
-      <c r="T136" s="176"/>
+      <c r="P136" s="174"/>
+      <c r="Q136" s="174"/>
+      <c r="R136" s="174"/>
+      <c r="S136" s="174"/>
+      <c r="T136" s="174"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="87" t="s">
@@ -27803,12 +27828,12 @@
       <c r="N137" s="95">
         <v>0.34725969320897249</v>
       </c>
-      <c r="O137" s="176"/>
-      <c r="P137" s="176"/>
-      <c r="Q137" s="176"/>
-      <c r="R137" s="176"/>
-      <c r="S137" s="176"/>
-      <c r="T137" s="176"/>
+      <c r="O137" s="174"/>
+      <c r="P137" s="174"/>
+      <c r="Q137" s="174"/>
+      <c r="R137" s="174"/>
+      <c r="S137" s="174"/>
+      <c r="T137" s="174"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="87" t="s">
@@ -27853,12 +27878,12 @@
       <c r="N138" s="95">
         <v>0.34692461846770462</v>
       </c>
-      <c r="O138" s="176"/>
-      <c r="P138" s="176"/>
-      <c r="Q138" s="176"/>
-      <c r="R138" s="176"/>
-      <c r="S138" s="176"/>
-      <c r="T138" s="176"/>
+      <c r="O138" s="174"/>
+      <c r="P138" s="174"/>
+      <c r="Q138" s="174"/>
+      <c r="R138" s="174"/>
+      <c r="S138" s="174"/>
+      <c r="T138" s="174"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="87" t="s">
@@ -27903,12 +27928,12 @@
       <c r="N139" s="95">
         <v>0.35268684373069797</v>
       </c>
-      <c r="O139" s="176"/>
-      <c r="P139" s="176"/>
-      <c r="Q139" s="176"/>
-      <c r="R139" s="176"/>
-      <c r="S139" s="176"/>
-      <c r="T139" s="176"/>
+      <c r="O139" s="174"/>
+      <c r="P139" s="174"/>
+      <c r="Q139" s="174"/>
+      <c r="R139" s="174"/>
+      <c r="S139" s="174"/>
+      <c r="T139" s="174"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="87" t="s">
@@ -27953,12 +27978,12 @@
       <c r="N140" s="95">
         <v>0.34479833423305312</v>
       </c>
-      <c r="O140" s="176"/>
-      <c r="P140" s="176"/>
-      <c r="Q140" s="176"/>
-      <c r="R140" s="176"/>
-      <c r="S140" s="176"/>
-      <c r="T140" s="176"/>
+      <c r="O140" s="174"/>
+      <c r="P140" s="174"/>
+      <c r="Q140" s="174"/>
+      <c r="R140" s="174"/>
+      <c r="S140" s="174"/>
+      <c r="T140" s="174"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="87" t="s">
@@ -28003,12 +28028,12 @@
       <c r="N141" s="95">
         <v>0.34943268935909233</v>
       </c>
-      <c r="O141" s="176"/>
-      <c r="P141" s="176"/>
-      <c r="Q141" s="176"/>
-      <c r="R141" s="176"/>
-      <c r="S141" s="176"/>
-      <c r="T141" s="176"/>
+      <c r="O141" s="174"/>
+      <c r="P141" s="174"/>
+      <c r="Q141" s="174"/>
+      <c r="R141" s="174"/>
+      <c r="S141" s="174"/>
+      <c r="T141" s="174"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="87" t="s">
@@ -28053,12 +28078,12 @@
       <c r="N142" s="95">
         <v>0.34471569839307786</v>
       </c>
-      <c r="O142" s="176"/>
-      <c r="P142" s="176"/>
-      <c r="Q142" s="176"/>
-      <c r="R142" s="176"/>
-      <c r="S142" s="176"/>
-      <c r="T142" s="176"/>
+      <c r="O142" s="174"/>
+      <c r="P142" s="174"/>
+      <c r="Q142" s="174"/>
+      <c r="R142" s="174"/>
+      <c r="S142" s="174"/>
+      <c r="T142" s="174"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="87" t="s">
@@ -28103,12 +28128,12 @@
       <c r="N143" s="95">
         <v>0.34220847790013575</v>
       </c>
-      <c r="O143" s="176"/>
-      <c r="P143" s="176"/>
-      <c r="Q143" s="176"/>
-      <c r="R143" s="176"/>
-      <c r="S143" s="176"/>
-      <c r="T143" s="176"/>
+      <c r="O143" s="174"/>
+      <c r="P143" s="174"/>
+      <c r="Q143" s="174"/>
+      <c r="R143" s="174"/>
+      <c r="S143" s="174"/>
+      <c r="T143" s="174"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="87" t="s">
@@ -28153,12 +28178,12 @@
       <c r="N144" s="95">
         <v>0.34444013948082136</v>
       </c>
-      <c r="O144" s="176"/>
-      <c r="P144" s="176"/>
-      <c r="Q144" s="176"/>
-      <c r="R144" s="176"/>
-      <c r="S144" s="176"/>
-      <c r="T144" s="176"/>
+      <c r="O144" s="174"/>
+      <c r="P144" s="174"/>
+      <c r="Q144" s="174"/>
+      <c r="R144" s="174"/>
+      <c r="S144" s="174"/>
+      <c r="T144" s="174"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="87" t="s">
@@ -28203,12 +28228,12 @@
       <c r="N145" s="95">
         <v>0.3416956324618407</v>
       </c>
-      <c r="O145" s="176"/>
-      <c r="P145" s="176"/>
-      <c r="Q145" s="176"/>
-      <c r="R145" s="176"/>
-      <c r="S145" s="176"/>
-      <c r="T145" s="176"/>
+      <c r="O145" s="174"/>
+      <c r="P145" s="174"/>
+      <c r="Q145" s="174"/>
+      <c r="R145" s="174"/>
+      <c r="S145" s="174"/>
+      <c r="T145" s="174"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="92" t="s">
@@ -28266,12 +28291,12 @@
         <f t="shared" ref="N146" si="138">AVERAGE(N136:N145)</f>
         <v>0.34567968300797652</v>
       </c>
-      <c r="O146" s="176"/>
-      <c r="P146" s="176"/>
-      <c r="Q146" s="176"/>
-      <c r="R146" s="176"/>
-      <c r="S146" s="176"/>
-      <c r="T146" s="176"/>
+      <c r="O146" s="174"/>
+      <c r="P146" s="174"/>
+      <c r="Q146" s="174"/>
+      <c r="R146" s="174"/>
+      <c r="S146" s="174"/>
+      <c r="T146" s="174"/>
     </row>
     <row r="147" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="99"/>
@@ -28331,14 +28356,14 @@
       <c r="N148" s="95">
         <v>0.3500538544391445</v>
       </c>
-      <c r="O148" s="176" t="s">
+      <c r="O148" s="174" t="s">
         <v>195</v>
       </c>
-      <c r="P148" s="176"/>
-      <c r="Q148" s="176"/>
-      <c r="R148" s="176"/>
-      <c r="S148" s="176"/>
-      <c r="T148" s="176"/>
+      <c r="P148" s="174"/>
+      <c r="Q148" s="174"/>
+      <c r="R148" s="174"/>
+      <c r="S148" s="174"/>
+      <c r="T148" s="174"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="87" t="s">
@@ -28383,12 +28408,12 @@
       <c r="N149" s="95">
         <v>0.34798728813559321</v>
       </c>
-      <c r="O149" s="176"/>
-      <c r="P149" s="176"/>
-      <c r="Q149" s="176"/>
-      <c r="R149" s="176"/>
-      <c r="S149" s="176"/>
-      <c r="T149" s="176"/>
+      <c r="O149" s="174"/>
+      <c r="P149" s="174"/>
+      <c r="Q149" s="174"/>
+      <c r="R149" s="174"/>
+      <c r="S149" s="174"/>
+      <c r="T149" s="174"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="87" t="s">
@@ -28433,12 +28458,12 @@
       <c r="N150" s="95">
         <v>0.35468737983542259</v>
       </c>
-      <c r="O150" s="176"/>
-      <c r="P150" s="176"/>
-      <c r="Q150" s="176"/>
-      <c r="R150" s="176"/>
-      <c r="S150" s="176"/>
-      <c r="T150" s="176"/>
+      <c r="O150" s="174"/>
+      <c r="P150" s="174"/>
+      <c r="Q150" s="174"/>
+      <c r="R150" s="174"/>
+      <c r="S150" s="174"/>
+      <c r="T150" s="174"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="87" t="s">
@@ -28483,12 +28508,12 @@
       <c r="N151" s="95">
         <v>0.34855842185128982</v>
       </c>
-      <c r="O151" s="176"/>
-      <c r="P151" s="176"/>
-      <c r="Q151" s="176"/>
-      <c r="R151" s="176"/>
-      <c r="S151" s="176"/>
-      <c r="T151" s="176"/>
+      <c r="O151" s="174"/>
+      <c r="P151" s="174"/>
+      <c r="Q151" s="174"/>
+      <c r="R151" s="174"/>
+      <c r="S151" s="174"/>
+      <c r="T151" s="174"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="87" t="s">
@@ -28533,12 +28558,12 @@
       <c r="N152" s="95">
         <v>0.35139927530645287</v>
       </c>
-      <c r="O152" s="176"/>
-      <c r="P152" s="176"/>
-      <c r="Q152" s="176"/>
-      <c r="R152" s="176"/>
-      <c r="S152" s="176"/>
-      <c r="T152" s="176"/>
+      <c r="O152" s="174"/>
+      <c r="P152" s="174"/>
+      <c r="Q152" s="174"/>
+      <c r="R152" s="174"/>
+      <c r="S152" s="174"/>
+      <c r="T152" s="174"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="87" t="s">
@@ -28583,12 +28608,12 @@
       <c r="N153" s="95">
         <v>0.35212888377445339</v>
       </c>
-      <c r="O153" s="176"/>
-      <c r="P153" s="176"/>
-      <c r="Q153" s="176"/>
-      <c r="R153" s="176"/>
-      <c r="S153" s="176"/>
-      <c r="T153" s="176"/>
+      <c r="O153" s="174"/>
+      <c r="P153" s="174"/>
+      <c r="Q153" s="174"/>
+      <c r="R153" s="174"/>
+      <c r="S153" s="174"/>
+      <c r="T153" s="174"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="87" t="s">
@@ -28633,12 +28658,12 @@
       <c r="N154" s="95">
         <v>0.35056179775280899</v>
       </c>
-      <c r="O154" s="176"/>
-      <c r="P154" s="176"/>
-      <c r="Q154" s="176"/>
-      <c r="R154" s="176"/>
-      <c r="S154" s="176"/>
-      <c r="T154" s="176"/>
+      <c r="O154" s="174"/>
+      <c r="P154" s="174"/>
+      <c r="Q154" s="174"/>
+      <c r="R154" s="174"/>
+      <c r="S154" s="174"/>
+      <c r="T154" s="174"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="87" t="s">
@@ -28683,12 +28708,12 @@
       <c r="N155" s="95">
         <v>0.3610292977832894</v>
       </c>
-      <c r="O155" s="176"/>
-      <c r="P155" s="176"/>
-      <c r="Q155" s="176"/>
-      <c r="R155" s="176"/>
-      <c r="S155" s="176"/>
-      <c r="T155" s="176"/>
+      <c r="O155" s="174"/>
+      <c r="P155" s="174"/>
+      <c r="Q155" s="174"/>
+      <c r="R155" s="174"/>
+      <c r="S155" s="174"/>
+      <c r="T155" s="174"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="87" t="s">
@@ -28733,12 +28758,12 @@
       <c r="N156" s="95">
         <v>0.34164742109314855</v>
       </c>
-      <c r="O156" s="176"/>
-      <c r="P156" s="176"/>
-      <c r="Q156" s="176"/>
-      <c r="R156" s="176"/>
-      <c r="S156" s="176"/>
-      <c r="T156" s="176"/>
+      <c r="O156" s="174"/>
+      <c r="P156" s="174"/>
+      <c r="Q156" s="174"/>
+      <c r="R156" s="174"/>
+      <c r="S156" s="174"/>
+      <c r="T156" s="174"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="87" t="s">
@@ -28783,12 +28808,12 @@
       <c r="N157" s="95">
         <v>0.34514896867838046</v>
       </c>
-      <c r="O157" s="176"/>
-      <c r="P157" s="176"/>
-      <c r="Q157" s="176"/>
-      <c r="R157" s="176"/>
-      <c r="S157" s="176"/>
-      <c r="T157" s="176"/>
+      <c r="O157" s="174"/>
+      <c r="P157" s="174"/>
+      <c r="Q157" s="174"/>
+      <c r="R157" s="174"/>
+      <c r="S157" s="174"/>
+      <c r="T157" s="174"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="92" t="s">
@@ -28846,12 +28871,12 @@
         <f t="shared" ref="N158" si="150">AVERAGE(N148:N157)</f>
         <v>0.3503202588649984</v>
       </c>
-      <c r="O158" s="176"/>
-      <c r="P158" s="176"/>
-      <c r="Q158" s="176"/>
-      <c r="R158" s="176"/>
-      <c r="S158" s="176"/>
-      <c r="T158" s="176"/>
+      <c r="O158" s="174"/>
+      <c r="P158" s="174"/>
+      <c r="Q158" s="174"/>
+      <c r="R158" s="174"/>
+      <c r="S158" s="174"/>
+      <c r="T158" s="174"/>
     </row>
     <row r="159" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="99"/>
@@ -28911,14 +28936,14 @@
       <c r="N160" s="95">
         <v>0.35293209876543208</v>
       </c>
-      <c r="O160" s="176" t="s">
+      <c r="O160" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="P160" s="176"/>
-      <c r="Q160" s="176"/>
-      <c r="R160" s="176"/>
-      <c r="S160" s="176"/>
-      <c r="T160" s="176"/>
+      <c r="P160" s="174"/>
+      <c r="Q160" s="174"/>
+      <c r="R160" s="174"/>
+      <c r="S160" s="174"/>
+      <c r="T160" s="174"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="87" t="s">
@@ -28963,12 +28988,12 @@
       <c r="N161" s="95">
         <v>0.34995799282059115</v>
       </c>
-      <c r="O161" s="176"/>
-      <c r="P161" s="176"/>
-      <c r="Q161" s="176"/>
-      <c r="R161" s="176"/>
-      <c r="S161" s="176"/>
-      <c r="T161" s="176"/>
+      <c r="O161" s="174"/>
+      <c r="P161" s="174"/>
+      <c r="Q161" s="174"/>
+      <c r="R161" s="174"/>
+      <c r="S161" s="174"/>
+      <c r="T161" s="174"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="87" t="s">
@@ -29013,12 +29038,12 @@
       <c r="N162" s="95">
         <v>0.35635465699513852</v>
       </c>
-      <c r="O162" s="176"/>
-      <c r="P162" s="176"/>
-      <c r="Q162" s="176"/>
-      <c r="R162" s="176"/>
-      <c r="S162" s="176"/>
-      <c r="T162" s="176"/>
+      <c r="O162" s="174"/>
+      <c r="P162" s="174"/>
+      <c r="Q162" s="174"/>
+      <c r="R162" s="174"/>
+      <c r="S162" s="174"/>
+      <c r="T162" s="174"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="87" t="s">
@@ -29063,12 +29088,12 @@
       <c r="N163" s="95">
         <v>0.35251413724591169</v>
       </c>
-      <c r="O163" s="176"/>
-      <c r="P163" s="176"/>
-      <c r="Q163" s="176"/>
-      <c r="R163" s="176"/>
-      <c r="S163" s="176"/>
-      <c r="T163" s="176"/>
+      <c r="O163" s="174"/>
+      <c r="P163" s="174"/>
+      <c r="Q163" s="174"/>
+      <c r="R163" s="174"/>
+      <c r="S163" s="174"/>
+      <c r="T163" s="174"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="87" t="s">
@@ -29113,12 +29138,12 @@
       <c r="N164" s="95">
         <v>0.35047662976629768</v>
       </c>
-      <c r="O164" s="176"/>
-      <c r="P164" s="176"/>
-      <c r="Q164" s="176"/>
-      <c r="R164" s="176"/>
-      <c r="S164" s="176"/>
-      <c r="T164" s="176"/>
+      <c r="O164" s="174"/>
+      <c r="P164" s="174"/>
+      <c r="Q164" s="174"/>
+      <c r="R164" s="174"/>
+      <c r="S164" s="174"/>
+      <c r="T164" s="174"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="87" t="s">
@@ -29163,12 +29188,12 @@
       <c r="N165" s="95">
         <v>0.3479597325751172</v>
       </c>
-      <c r="O165" s="176"/>
-      <c r="P165" s="176"/>
-      <c r="Q165" s="176"/>
-      <c r="R165" s="176"/>
-      <c r="S165" s="176"/>
-      <c r="T165" s="176"/>
+      <c r="O165" s="174"/>
+      <c r="P165" s="174"/>
+      <c r="Q165" s="174"/>
+      <c r="R165" s="174"/>
+      <c r="S165" s="174"/>
+      <c r="T165" s="174"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="87" t="s">
@@ -29213,12 +29238,12 @@
       <c r="N166" s="95">
         <v>0.34636656936549393</v>
       </c>
-      <c r="O166" s="176"/>
-      <c r="P166" s="176"/>
-      <c r="Q166" s="176"/>
-      <c r="R166" s="176"/>
-      <c r="S166" s="176"/>
-      <c r="T166" s="176"/>
+      <c r="O166" s="174"/>
+      <c r="P166" s="174"/>
+      <c r="Q166" s="174"/>
+      <c r="R166" s="174"/>
+      <c r="S166" s="174"/>
+      <c r="T166" s="174"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="87" t="s">
@@ -29263,12 +29288,12 @@
       <c r="N167" s="95">
         <v>0.34574387086949904</v>
       </c>
-      <c r="O167" s="176"/>
-      <c r="P167" s="176"/>
-      <c r="Q167" s="176"/>
-      <c r="R167" s="176"/>
-      <c r="S167" s="176"/>
-      <c r="T167" s="176"/>
+      <c r="O167" s="174"/>
+      <c r="P167" s="174"/>
+      <c r="Q167" s="174"/>
+      <c r="R167" s="174"/>
+      <c r="S167" s="174"/>
+      <c r="T167" s="174"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="87" t="s">
@@ -29313,12 +29338,12 @@
       <c r="N168" s="95">
         <v>0.34761941868619967</v>
       </c>
-      <c r="O168" s="176"/>
-      <c r="P168" s="176"/>
-      <c r="Q168" s="176"/>
-      <c r="R168" s="176"/>
-      <c r="S168" s="176"/>
-      <c r="T168" s="176"/>
+      <c r="O168" s="174"/>
+      <c r="P168" s="174"/>
+      <c r="Q168" s="174"/>
+      <c r="R168" s="174"/>
+      <c r="S168" s="174"/>
+      <c r="T168" s="174"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="87" t="s">
@@ -29363,12 +29388,12 @@
       <c r="N169" s="95">
         <v>0.35355074672355991</v>
       </c>
-      <c r="O169" s="176"/>
-      <c r="P169" s="176"/>
-      <c r="Q169" s="176"/>
-      <c r="R169" s="176"/>
-      <c r="S169" s="176"/>
-      <c r="T169" s="176"/>
+      <c r="O169" s="174"/>
+      <c r="P169" s="174"/>
+      <c r="Q169" s="174"/>
+      <c r="R169" s="174"/>
+      <c r="S169" s="174"/>
+      <c r="T169" s="174"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="92" t="s">
@@ -29426,12 +29451,12 @@
         <f t="shared" ref="N170" si="162">AVERAGE(N160:N169)</f>
         <v>0.35034758538132416</v>
       </c>
-      <c r="O170" s="176"/>
-      <c r="P170" s="176"/>
-      <c r="Q170" s="176"/>
-      <c r="R170" s="176"/>
-      <c r="S170" s="176"/>
-      <c r="T170" s="176"/>
+      <c r="O170" s="174"/>
+      <c r="P170" s="174"/>
+      <c r="Q170" s="174"/>
+      <c r="R170" s="174"/>
+      <c r="S170" s="174"/>
+      <c r="T170" s="174"/>
     </row>
     <row r="171" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="99"/>
@@ -29491,14 +29516,14 @@
       <c r="N172" s="95">
         <v>0.35771982460189244</v>
       </c>
-      <c r="O172" s="176" t="s">
+      <c r="O172" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="P172" s="176"/>
-      <c r="Q172" s="176"/>
-      <c r="R172" s="176"/>
-      <c r="S172" s="176"/>
-      <c r="T172" s="176"/>
+      <c r="P172" s="174"/>
+      <c r="Q172" s="174"/>
+      <c r="R172" s="174"/>
+      <c r="S172" s="174"/>
+      <c r="T172" s="174"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="87" t="s">
@@ -29543,12 +29568,12 @@
       <c r="N173" s="95">
         <v>0.35524196640846689</v>
       </c>
-      <c r="O173" s="176"/>
-      <c r="P173" s="176"/>
-      <c r="Q173" s="176"/>
-      <c r="R173" s="176"/>
-      <c r="S173" s="176"/>
-      <c r="T173" s="176"/>
+      <c r="O173" s="174"/>
+      <c r="P173" s="174"/>
+      <c r="Q173" s="174"/>
+      <c r="R173" s="174"/>
+      <c r="S173" s="174"/>
+      <c r="T173" s="174"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="87" t="s">
@@ -29593,12 +29618,12 @@
       <c r="N174" s="95">
         <v>0.35232326330317437</v>
       </c>
-      <c r="O174" s="176"/>
-      <c r="P174" s="176"/>
-      <c r="Q174" s="176"/>
-      <c r="R174" s="176"/>
-      <c r="S174" s="176"/>
-      <c r="T174" s="176"/>
+      <c r="O174" s="174"/>
+      <c r="P174" s="174"/>
+      <c r="Q174" s="174"/>
+      <c r="R174" s="174"/>
+      <c r="S174" s="174"/>
+      <c r="T174" s="174"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="87" t="s">
@@ -29643,12 +29668,12 @@
       <c r="N175" s="95">
         <v>0.3594211682703235</v>
       </c>
-      <c r="O175" s="176"/>
-      <c r="P175" s="176"/>
-      <c r="Q175" s="176"/>
-      <c r="R175" s="176"/>
-      <c r="S175" s="176"/>
-      <c r="T175" s="176"/>
+      <c r="O175" s="174"/>
+      <c r="P175" s="174"/>
+      <c r="Q175" s="174"/>
+      <c r="R175" s="174"/>
+      <c r="S175" s="174"/>
+      <c r="T175" s="174"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="87" t="s">
@@ -29693,12 +29718,12 @@
       <c r="N176" s="95">
         <v>0.35236355332267644</v>
       </c>
-      <c r="O176" s="176"/>
-      <c r="P176" s="176"/>
-      <c r="Q176" s="176"/>
-      <c r="R176" s="176"/>
-      <c r="S176" s="176"/>
-      <c r="T176" s="176"/>
+      <c r="O176" s="174"/>
+      <c r="P176" s="174"/>
+      <c r="Q176" s="174"/>
+      <c r="R176" s="174"/>
+      <c r="S176" s="174"/>
+      <c r="T176" s="174"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="87" t="s">
@@ -29743,12 +29768,12 @@
       <c r="N177" s="95">
         <v>0.35865669315879695</v>
       </c>
-      <c r="O177" s="176"/>
-      <c r="P177" s="176"/>
-      <c r="Q177" s="176"/>
-      <c r="R177" s="176"/>
-      <c r="S177" s="176"/>
-      <c r="T177" s="176"/>
+      <c r="O177" s="174"/>
+      <c r="P177" s="174"/>
+      <c r="Q177" s="174"/>
+      <c r="R177" s="174"/>
+      <c r="S177" s="174"/>
+      <c r="T177" s="174"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="87" t="s">
@@ -29793,12 +29818,12 @@
       <c r="N178" s="95">
         <v>0.36151134273451868</v>
       </c>
-      <c r="O178" s="176"/>
-      <c r="P178" s="176"/>
-      <c r="Q178" s="176"/>
-      <c r="R178" s="176"/>
-      <c r="S178" s="176"/>
-      <c r="T178" s="176"/>
+      <c r="O178" s="174"/>
+      <c r="P178" s="174"/>
+      <c r="Q178" s="174"/>
+      <c r="R178" s="174"/>
+      <c r="S178" s="174"/>
+      <c r="T178" s="174"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="87" t="s">
@@ -29843,12 +29868,12 @@
       <c r="N179" s="95">
         <v>0.35809304113802382</v>
       </c>
-      <c r="O179" s="176"/>
-      <c r="P179" s="176"/>
-      <c r="Q179" s="176"/>
-      <c r="R179" s="176"/>
-      <c r="S179" s="176"/>
-      <c r="T179" s="176"/>
+      <c r="O179" s="174"/>
+      <c r="P179" s="174"/>
+      <c r="Q179" s="174"/>
+      <c r="R179" s="174"/>
+      <c r="S179" s="174"/>
+      <c r="T179" s="174"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="87" t="s">
@@ -29893,12 +29918,12 @@
       <c r="N180" s="95">
         <v>0.36541698546289214</v>
       </c>
-      <c r="O180" s="176"/>
-      <c r="P180" s="176"/>
-      <c r="Q180" s="176"/>
-      <c r="R180" s="176"/>
-      <c r="S180" s="176"/>
-      <c r="T180" s="176"/>
+      <c r="O180" s="174"/>
+      <c r="P180" s="174"/>
+      <c r="Q180" s="174"/>
+      <c r="R180" s="174"/>
+      <c r="S180" s="174"/>
+      <c r="T180" s="174"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="87" t="s">
@@ -29943,12 +29968,12 @@
       <c r="N181" s="95">
         <v>0.35931097283351038</v>
       </c>
-      <c r="O181" s="176"/>
-      <c r="P181" s="176"/>
-      <c r="Q181" s="176"/>
-      <c r="R181" s="176"/>
-      <c r="S181" s="176"/>
-      <c r="T181" s="176"/>
+      <c r="O181" s="174"/>
+      <c r="P181" s="174"/>
+      <c r="Q181" s="174"/>
+      <c r="R181" s="174"/>
+      <c r="S181" s="174"/>
+      <c r="T181" s="174"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="92" t="s">
@@ -30006,12 +30031,12 @@
         <f t="shared" ref="N182" si="174">AVERAGE(N172:N181)</f>
         <v>0.35800588112342757</v>
       </c>
-      <c r="O182" s="176"/>
-      <c r="P182" s="176"/>
-      <c r="Q182" s="176"/>
-      <c r="R182" s="176"/>
-      <c r="S182" s="176"/>
-      <c r="T182" s="176"/>
+      <c r="O182" s="174"/>
+      <c r="P182" s="174"/>
+      <c r="Q182" s="174"/>
+      <c r="R182" s="174"/>
+      <c r="S182" s="174"/>
+      <c r="T182" s="174"/>
     </row>
     <row r="183" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="99"/>
@@ -30045,14 +30070,14 @@
       <c r="L184" s="94"/>
       <c r="M184" s="94"/>
       <c r="N184" s="95"/>
-      <c r="O184" s="176" t="s">
+      <c r="O184" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="P184" s="176"/>
-      <c r="Q184" s="176"/>
-      <c r="R184" s="176"/>
-      <c r="S184" s="176"/>
-      <c r="T184" s="176"/>
+      <c r="P184" s="174"/>
+      <c r="Q184" s="174"/>
+      <c r="R184" s="174"/>
+      <c r="S184" s="174"/>
+      <c r="T184" s="174"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="87" t="s">
@@ -30071,12 +30096,12 @@
       <c r="L185" s="94"/>
       <c r="M185" s="94"/>
       <c r="N185" s="95"/>
-      <c r="O185" s="176"/>
-      <c r="P185" s="176"/>
-      <c r="Q185" s="176"/>
-      <c r="R185" s="176"/>
-      <c r="S185" s="176"/>
-      <c r="T185" s="176"/>
+      <c r="O185" s="174"/>
+      <c r="P185" s="174"/>
+      <c r="Q185" s="174"/>
+      <c r="R185" s="174"/>
+      <c r="S185" s="174"/>
+      <c r="T185" s="174"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="87" t="s">
@@ -30095,12 +30120,12 @@
       <c r="L186" s="94"/>
       <c r="M186" s="94"/>
       <c r="N186" s="95"/>
-      <c r="O186" s="176"/>
-      <c r="P186" s="176"/>
-      <c r="Q186" s="176"/>
-      <c r="R186" s="176"/>
-      <c r="S186" s="176"/>
-      <c r="T186" s="176"/>
+      <c r="O186" s="174"/>
+      <c r="P186" s="174"/>
+      <c r="Q186" s="174"/>
+      <c r="R186" s="174"/>
+      <c r="S186" s="174"/>
+      <c r="T186" s="174"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="87" t="s">
@@ -30119,12 +30144,12 @@
       <c r="L187" s="94"/>
       <c r="M187" s="94"/>
       <c r="N187" s="95"/>
-      <c r="O187" s="176"/>
-      <c r="P187" s="176"/>
-      <c r="Q187" s="176"/>
-      <c r="R187" s="176"/>
-      <c r="S187" s="176"/>
-      <c r="T187" s="176"/>
+      <c r="O187" s="174"/>
+      <c r="P187" s="174"/>
+      <c r="Q187" s="174"/>
+      <c r="R187" s="174"/>
+      <c r="S187" s="174"/>
+      <c r="T187" s="174"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="87" t="s">
@@ -30143,12 +30168,12 @@
       <c r="L188" s="94"/>
       <c r="M188" s="94"/>
       <c r="N188" s="95"/>
-      <c r="O188" s="176"/>
-      <c r="P188" s="176"/>
-      <c r="Q188" s="176"/>
-      <c r="R188" s="176"/>
-      <c r="S188" s="176"/>
-      <c r="T188" s="176"/>
+      <c r="O188" s="174"/>
+      <c r="P188" s="174"/>
+      <c r="Q188" s="174"/>
+      <c r="R188" s="174"/>
+      <c r="S188" s="174"/>
+      <c r="T188" s="174"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="87" t="s">
@@ -30167,12 +30192,12 @@
       <c r="L189" s="94"/>
       <c r="M189" s="94"/>
       <c r="N189" s="95"/>
-      <c r="O189" s="176"/>
-      <c r="P189" s="176"/>
-      <c r="Q189" s="176"/>
-      <c r="R189" s="176"/>
-      <c r="S189" s="176"/>
-      <c r="T189" s="176"/>
+      <c r="O189" s="174"/>
+      <c r="P189" s="174"/>
+      <c r="Q189" s="174"/>
+      <c r="R189" s="174"/>
+      <c r="S189" s="174"/>
+      <c r="T189" s="174"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="87" t="s">
@@ -30191,12 +30216,12 @@
       <c r="L190" s="94"/>
       <c r="M190" s="94"/>
       <c r="N190" s="95"/>
-      <c r="O190" s="176"/>
-      <c r="P190" s="176"/>
-      <c r="Q190" s="176"/>
-      <c r="R190" s="176"/>
-      <c r="S190" s="176"/>
-      <c r="T190" s="176"/>
+      <c r="O190" s="174"/>
+      <c r="P190" s="174"/>
+      <c r="Q190" s="174"/>
+      <c r="R190" s="174"/>
+      <c r="S190" s="174"/>
+      <c r="T190" s="174"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="87" t="s">
@@ -30215,12 +30240,12 @@
       <c r="L191" s="94"/>
       <c r="M191" s="94"/>
       <c r="N191" s="95"/>
-      <c r="O191" s="176"/>
-      <c r="P191" s="176"/>
-      <c r="Q191" s="176"/>
-      <c r="R191" s="176"/>
-      <c r="S191" s="176"/>
-      <c r="T191" s="176"/>
+      <c r="O191" s="174"/>
+      <c r="P191" s="174"/>
+      <c r="Q191" s="174"/>
+      <c r="R191" s="174"/>
+      <c r="S191" s="174"/>
+      <c r="T191" s="174"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="87" t="s">
@@ -30239,12 +30264,12 @@
       <c r="L192" s="94"/>
       <c r="M192" s="94"/>
       <c r="N192" s="95"/>
-      <c r="O192" s="176"/>
-      <c r="P192" s="176"/>
-      <c r="Q192" s="176"/>
-      <c r="R192" s="176"/>
-      <c r="S192" s="176"/>
-      <c r="T192" s="176"/>
+      <c r="O192" s="174"/>
+      <c r="P192" s="174"/>
+      <c r="Q192" s="174"/>
+      <c r="R192" s="174"/>
+      <c r="S192" s="174"/>
+      <c r="T192" s="174"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="87" t="s">
@@ -30263,12 +30288,12 @@
       <c r="L193" s="94"/>
       <c r="M193" s="94"/>
       <c r="N193" s="95"/>
-      <c r="O193" s="176"/>
-      <c r="P193" s="176"/>
-      <c r="Q193" s="176"/>
-      <c r="R193" s="176"/>
-      <c r="S193" s="176"/>
-      <c r="T193" s="176"/>
+      <c r="O193" s="174"/>
+      <c r="P193" s="174"/>
+      <c r="Q193" s="174"/>
+      <c r="R193" s="174"/>
+      <c r="S193" s="174"/>
+      <c r="T193" s="174"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="92" t="s">
@@ -30326,12 +30351,12 @@
         <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="176"/>
-      <c r="P194" s="176"/>
-      <c r="Q194" s="176"/>
-      <c r="R194" s="176"/>
-      <c r="S194" s="176"/>
-      <c r="T194" s="176"/>
+      <c r="O194" s="174"/>
+      <c r="P194" s="174"/>
+      <c r="Q194" s="174"/>
+      <c r="R194" s="174"/>
+      <c r="S194" s="174"/>
+      <c r="T194" s="174"/>
     </row>
     <row r="195" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="99"/>
@@ -30391,14 +30416,14 @@
       <c r="N196" s="95">
         <v>0.1693295619600948</v>
       </c>
-      <c r="O196" s="176" t="s">
+      <c r="O196" s="174" t="s">
         <v>227</v>
       </c>
-      <c r="P196" s="176"/>
-      <c r="Q196" s="176"/>
-      <c r="R196" s="176"/>
-      <c r="S196" s="176"/>
-      <c r="T196" s="176"/>
+      <c r="P196" s="174"/>
+      <c r="Q196" s="174"/>
+      <c r="R196" s="174"/>
+      <c r="S196" s="174"/>
+      <c r="T196" s="174"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="87" t="s">
@@ -30443,12 +30468,12 @@
       <c r="N197" s="95">
         <v>0.16636837600186755</v>
       </c>
-      <c r="O197" s="176"/>
-      <c r="P197" s="176"/>
-      <c r="Q197" s="176"/>
-      <c r="R197" s="176"/>
-      <c r="S197" s="176"/>
-      <c r="T197" s="176"/>
+      <c r="O197" s="174"/>
+      <c r="P197" s="174"/>
+      <c r="Q197" s="174"/>
+      <c r="R197" s="174"/>
+      <c r="S197" s="174"/>
+      <c r="T197" s="174"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="87" t="s">
@@ -30493,12 +30518,12 @@
       <c r="N198" s="95">
         <v>0.17503217503217502</v>
       </c>
-      <c r="O198" s="176"/>
-      <c r="P198" s="176"/>
-      <c r="Q198" s="176"/>
-      <c r="R198" s="176"/>
-      <c r="S198" s="176"/>
-      <c r="T198" s="176"/>
+      <c r="O198" s="174"/>
+      <c r="P198" s="174"/>
+      <c r="Q198" s="174"/>
+      <c r="R198" s="174"/>
+      <c r="S198" s="174"/>
+      <c r="T198" s="174"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="87" t="s">
@@ -30543,12 +30568,12 @@
       <c r="N199" s="95">
         <v>0.16419260040690226</v>
       </c>
-      <c r="O199" s="176"/>
-      <c r="P199" s="176"/>
-      <c r="Q199" s="176"/>
-      <c r="R199" s="176"/>
-      <c r="S199" s="176"/>
-      <c r="T199" s="176"/>
+      <c r="O199" s="174"/>
+      <c r="P199" s="174"/>
+      <c r="Q199" s="174"/>
+      <c r="R199" s="174"/>
+      <c r="S199" s="174"/>
+      <c r="T199" s="174"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="87" t="s">
@@ -30593,12 +30618,12 @@
       <c r="N200" s="95">
         <v>0.17125984251968504</v>
       </c>
-      <c r="O200" s="176"/>
-      <c r="P200" s="176"/>
-      <c r="Q200" s="176"/>
-      <c r="R200" s="176"/>
-      <c r="S200" s="176"/>
-      <c r="T200" s="176"/>
+      <c r="O200" s="174"/>
+      <c r="P200" s="174"/>
+      <c r="Q200" s="174"/>
+      <c r="R200" s="174"/>
+      <c r="S200" s="174"/>
+      <c r="T200" s="174"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="87" t="s">
@@ -30643,12 +30668,12 @@
       <c r="N201" s="95">
         <v>0.17140863632839756</v>
       </c>
-      <c r="O201" s="176"/>
-      <c r="P201" s="176"/>
-      <c r="Q201" s="176"/>
-      <c r="R201" s="176"/>
-      <c r="S201" s="176"/>
-      <c r="T201" s="176"/>
+      <c r="O201" s="174"/>
+      <c r="P201" s="174"/>
+      <c r="Q201" s="174"/>
+      <c r="R201" s="174"/>
+      <c r="S201" s="174"/>
+      <c r="T201" s="174"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="87" t="s">
@@ -30693,12 +30718,12 @@
       <c r="N202" s="95">
         <v>0.17007526799969588</v>
       </c>
-      <c r="O202" s="176"/>
-      <c r="P202" s="176"/>
-      <c r="Q202" s="176"/>
-      <c r="R202" s="176"/>
-      <c r="S202" s="176"/>
-      <c r="T202" s="176"/>
+      <c r="O202" s="174"/>
+      <c r="P202" s="174"/>
+      <c r="Q202" s="174"/>
+      <c r="R202" s="174"/>
+      <c r="S202" s="174"/>
+      <c r="T202" s="174"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="87" t="s">
@@ -30743,12 +30768,12 @@
       <c r="N203" s="95">
         <v>0.17179190751445086</v>
       </c>
-      <c r="O203" s="176"/>
-      <c r="P203" s="176"/>
-      <c r="Q203" s="176"/>
-      <c r="R203" s="176"/>
-      <c r="S203" s="176"/>
-      <c r="T203" s="176"/>
+      <c r="O203" s="174"/>
+      <c r="P203" s="174"/>
+      <c r="Q203" s="174"/>
+      <c r="R203" s="174"/>
+      <c r="S203" s="174"/>
+      <c r="T203" s="174"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="87" t="s">
@@ -30793,12 +30818,12 @@
       <c r="N204" s="95">
         <v>0.16879815100154083</v>
       </c>
-      <c r="O204" s="176"/>
-      <c r="P204" s="176"/>
-      <c r="Q204" s="176"/>
-      <c r="R204" s="176"/>
-      <c r="S204" s="176"/>
-      <c r="T204" s="176"/>
+      <c r="O204" s="174"/>
+      <c r="P204" s="174"/>
+      <c r="Q204" s="174"/>
+      <c r="R204" s="174"/>
+      <c r="S204" s="174"/>
+      <c r="T204" s="174"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="87" t="s">
@@ -30843,12 +30868,12 @@
       <c r="N205" s="95">
         <v>0.17239259088463607</v>
       </c>
-      <c r="O205" s="176"/>
-      <c r="P205" s="176"/>
-      <c r="Q205" s="176"/>
-      <c r="R205" s="176"/>
-      <c r="S205" s="176"/>
-      <c r="T205" s="176"/>
+      <c r="O205" s="174"/>
+      <c r="P205" s="174"/>
+      <c r="Q205" s="174"/>
+      <c r="R205" s="174"/>
+      <c r="S205" s="174"/>
+      <c r="T205" s="174"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="92" t="s">
@@ -30906,12 +30931,12 @@
         <f t="shared" si="176"/>
         <v>0.17006491096494461</v>
       </c>
-      <c r="O206" s="176"/>
-      <c r="P206" s="176"/>
-      <c r="Q206" s="176"/>
-      <c r="R206" s="176"/>
-      <c r="S206" s="176"/>
-      <c r="T206" s="176"/>
+      <c r="O206" s="174"/>
+      <c r="P206" s="174"/>
+      <c r="Q206" s="174"/>
+      <c r="R206" s="174"/>
+      <c r="S206" s="174"/>
+      <c r="T206" s="174"/>
     </row>
     <row r="207" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="99"/>
@@ -30971,14 +30996,14 @@
       <c r="N208" s="95">
         <v>0.30560087003806419</v>
       </c>
-      <c r="O208" s="176" t="s">
+      <c r="O208" s="174" t="s">
         <v>226</v>
       </c>
-      <c r="P208" s="176"/>
-      <c r="Q208" s="176"/>
-      <c r="R208" s="176"/>
-      <c r="S208" s="176"/>
-      <c r="T208" s="176"/>
+      <c r="P208" s="174"/>
+      <c r="Q208" s="174"/>
+      <c r="R208" s="174"/>
+      <c r="S208" s="174"/>
+      <c r="T208" s="174"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="87" t="s">
@@ -31023,12 +31048,12 @@
       <c r="N209" s="95">
         <v>0.28359578046170308</v>
       </c>
-      <c r="O209" s="176"/>
-      <c r="P209" s="176"/>
-      <c r="Q209" s="176"/>
-      <c r="R209" s="176"/>
-      <c r="S209" s="176"/>
-      <c r="T209" s="176"/>
+      <c r="O209" s="174"/>
+      <c r="P209" s="174"/>
+      <c r="Q209" s="174"/>
+      <c r="R209" s="174"/>
+      <c r="S209" s="174"/>
+      <c r="T209" s="174"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="87" t="s">
@@ -31073,12 +31098,12 @@
       <c r="N210" s="95">
         <v>0.29491213260686056</v>
       </c>
-      <c r="O210" s="176"/>
-      <c r="P210" s="176"/>
-      <c r="Q210" s="176"/>
-      <c r="R210" s="176"/>
-      <c r="S210" s="176"/>
-      <c r="T210" s="176"/>
+      <c r="O210" s="174"/>
+      <c r="P210" s="174"/>
+      <c r="Q210" s="174"/>
+      <c r="R210" s="174"/>
+      <c r="S210" s="174"/>
+      <c r="T210" s="174"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="87" t="s">
@@ -31123,12 +31148,12 @@
       <c r="N211" s="95">
         <v>0.2988647772028728</v>
       </c>
-      <c r="O211" s="176"/>
-      <c r="P211" s="176"/>
-      <c r="Q211" s="176"/>
-      <c r="R211" s="176"/>
-      <c r="S211" s="176"/>
-      <c r="T211" s="176"/>
+      <c r="O211" s="174"/>
+      <c r="P211" s="174"/>
+      <c r="Q211" s="174"/>
+      <c r="R211" s="174"/>
+      <c r="S211" s="174"/>
+      <c r="T211" s="174"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="87" t="s">
@@ -31173,12 +31198,12 @@
       <c r="N212" s="95">
         <v>0.29959044896066767</v>
       </c>
-      <c r="O212" s="176"/>
-      <c r="P212" s="176"/>
-      <c r="Q212" s="176"/>
-      <c r="R212" s="176"/>
-      <c r="S212" s="176"/>
-      <c r="T212" s="176"/>
+      <c r="O212" s="174"/>
+      <c r="P212" s="174"/>
+      <c r="Q212" s="174"/>
+      <c r="R212" s="174"/>
+      <c r="S212" s="174"/>
+      <c r="T212" s="174"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="87" t="s">
@@ -31223,12 +31248,12 @@
       <c r="N213" s="95">
         <v>0.29011357572985746</v>
       </c>
-      <c r="O213" s="176"/>
-      <c r="P213" s="176"/>
-      <c r="Q213" s="176"/>
-      <c r="R213" s="176"/>
-      <c r="S213" s="176"/>
-      <c r="T213" s="176"/>
+      <c r="O213" s="174"/>
+      <c r="P213" s="174"/>
+      <c r="Q213" s="174"/>
+      <c r="R213" s="174"/>
+      <c r="S213" s="174"/>
+      <c r="T213" s="174"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="87" t="s">
@@ -31273,12 +31298,12 @@
       <c r="N214" s="95">
         <v>0.30063195907312668</v>
       </c>
-      <c r="O214" s="176"/>
-      <c r="P214" s="176"/>
-      <c r="Q214" s="176"/>
-      <c r="R214" s="176"/>
-      <c r="S214" s="176"/>
-      <c r="T214" s="176"/>
+      <c r="O214" s="174"/>
+      <c r="P214" s="174"/>
+      <c r="Q214" s="174"/>
+      <c r="R214" s="174"/>
+      <c r="S214" s="174"/>
+      <c r="T214" s="174"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="87" t="s">
@@ -31323,12 +31348,12 @@
       <c r="N215" s="95">
         <v>0.2763700198442986</v>
       </c>
-      <c r="O215" s="176"/>
-      <c r="P215" s="176"/>
-      <c r="Q215" s="176"/>
-      <c r="R215" s="176"/>
-      <c r="S215" s="176"/>
-      <c r="T215" s="176"/>
+      <c r="O215" s="174"/>
+      <c r="P215" s="174"/>
+      <c r="Q215" s="174"/>
+      <c r="R215" s="174"/>
+      <c r="S215" s="174"/>
+      <c r="T215" s="174"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="87" t="s">
@@ -31373,12 +31398,12 @@
       <c r="N216" s="95">
         <v>0.30558987029030266</v>
       </c>
-      <c r="O216" s="176"/>
-      <c r="P216" s="176"/>
-      <c r="Q216" s="176"/>
-      <c r="R216" s="176"/>
-      <c r="S216" s="176"/>
-      <c r="T216" s="176"/>
+      <c r="O216" s="174"/>
+      <c r="P216" s="174"/>
+      <c r="Q216" s="174"/>
+      <c r="R216" s="174"/>
+      <c r="S216" s="174"/>
+      <c r="T216" s="174"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="87" t="s">
@@ -31423,12 +31448,12 @@
       <c r="N217" s="95">
         <v>0.29750362623101001</v>
       </c>
-      <c r="O217" s="176"/>
-      <c r="P217" s="176"/>
-      <c r="Q217" s="176"/>
-      <c r="R217" s="176"/>
-      <c r="S217" s="176"/>
-      <c r="T217" s="176"/>
+      <c r="O217" s="174"/>
+      <c r="P217" s="174"/>
+      <c r="Q217" s="174"/>
+      <c r="R217" s="174"/>
+      <c r="S217" s="174"/>
+      <c r="T217" s="174"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="92" t="s">
@@ -31486,12 +31511,12 @@
         <f t="shared" si="177"/>
         <v>0.29527730604387636</v>
       </c>
-      <c r="O218" s="176"/>
-      <c r="P218" s="176"/>
-      <c r="Q218" s="176"/>
-      <c r="R218" s="176"/>
-      <c r="S218" s="176"/>
-      <c r="T218" s="176"/>
+      <c r="O218" s="174"/>
+      <c r="P218" s="174"/>
+      <c r="Q218" s="174"/>
+      <c r="R218" s="174"/>
+      <c r="S218" s="174"/>
+      <c r="T218" s="174"/>
     </row>
     <row r="219" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="99"/>
@@ -31551,14 +31576,14 @@
       <c r="N220" s="95">
         <v>0.3031377688690155</v>
       </c>
-      <c r="O220" s="176" t="s">
+      <c r="O220" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="P220" s="176"/>
-      <c r="Q220" s="176"/>
-      <c r="R220" s="176"/>
-      <c r="S220" s="176"/>
-      <c r="T220" s="176"/>
+      <c r="P220" s="174"/>
+      <c r="Q220" s="174"/>
+      <c r="R220" s="174"/>
+      <c r="S220" s="174"/>
+      <c r="T220" s="174"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="87" t="s">
@@ -31603,12 +31628,12 @@
       <c r="N221" s="95">
         <v>0.3118931096092597</v>
       </c>
-      <c r="O221" s="176"/>
-      <c r="P221" s="176"/>
-      <c r="Q221" s="176"/>
-      <c r="R221" s="176"/>
-      <c r="S221" s="176"/>
-      <c r="T221" s="176"/>
+      <c r="O221" s="174"/>
+      <c r="P221" s="174"/>
+      <c r="Q221" s="174"/>
+      <c r="R221" s="174"/>
+      <c r="S221" s="174"/>
+      <c r="T221" s="174"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="87" t="s">
@@ -31653,12 +31678,12 @@
       <c r="N222" s="95">
         <v>0.2965249199817101</v>
       </c>
-      <c r="O222" s="176"/>
-      <c r="P222" s="176"/>
-      <c r="Q222" s="176"/>
-      <c r="R222" s="176"/>
-      <c r="S222" s="176"/>
-      <c r="T222" s="176"/>
+      <c r="O222" s="174"/>
+      <c r="P222" s="174"/>
+      <c r="Q222" s="174"/>
+      <c r="R222" s="174"/>
+      <c r="S222" s="174"/>
+      <c r="T222" s="174"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="87" t="s">
@@ -31703,12 +31728,12 @@
       <c r="N223" s="95">
         <v>0.30286452397234254</v>
       </c>
-      <c r="O223" s="176"/>
-      <c r="P223" s="176"/>
-      <c r="Q223" s="176"/>
-      <c r="R223" s="176"/>
-      <c r="S223" s="176"/>
-      <c r="T223" s="176"/>
+      <c r="O223" s="174"/>
+      <c r="P223" s="174"/>
+      <c r="Q223" s="174"/>
+      <c r="R223" s="174"/>
+      <c r="S223" s="174"/>
+      <c r="T223" s="174"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="87" t="s">
@@ -31753,12 +31778,12 @@
       <c r="N224" s="95">
         <v>0.31905748714406323</v>
       </c>
-      <c r="O224" s="176"/>
-      <c r="P224" s="176"/>
-      <c r="Q224" s="176"/>
-      <c r="R224" s="176"/>
-      <c r="S224" s="176"/>
-      <c r="T224" s="176"/>
+      <c r="O224" s="174"/>
+      <c r="P224" s="174"/>
+      <c r="Q224" s="174"/>
+      <c r="R224" s="174"/>
+      <c r="S224" s="174"/>
+      <c r="T224" s="174"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="87" t="s">
@@ -31803,12 +31828,12 @@
       <c r="N225" s="95">
         <v>0.30671726755218215</v>
       </c>
-      <c r="O225" s="176"/>
-      <c r="P225" s="176"/>
-      <c r="Q225" s="176"/>
-      <c r="R225" s="176"/>
-      <c r="S225" s="176"/>
-      <c r="T225" s="176"/>
+      <c r="O225" s="174"/>
+      <c r="P225" s="174"/>
+      <c r="Q225" s="174"/>
+      <c r="R225" s="174"/>
+      <c r="S225" s="174"/>
+      <c r="T225" s="174"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="87" t="s">
@@ -31853,12 +31878,12 @@
       <c r="N226" s="95">
         <v>0.30987884436160296</v>
       </c>
-      <c r="O226" s="176"/>
-      <c r="P226" s="176"/>
-      <c r="Q226" s="176"/>
-      <c r="R226" s="176"/>
-      <c r="S226" s="176"/>
-      <c r="T226" s="176"/>
+      <c r="O226" s="174"/>
+      <c r="P226" s="174"/>
+      <c r="Q226" s="174"/>
+      <c r="R226" s="174"/>
+      <c r="S226" s="174"/>
+      <c r="T226" s="174"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="87" t="s">
@@ -31903,12 +31928,12 @@
       <c r="N227" s="95">
         <v>0.28989197530864197</v>
       </c>
-      <c r="O227" s="176"/>
-      <c r="P227" s="176"/>
-      <c r="Q227" s="176"/>
-      <c r="R227" s="176"/>
-      <c r="S227" s="176"/>
-      <c r="T227" s="176"/>
+      <c r="O227" s="174"/>
+      <c r="P227" s="174"/>
+      <c r="Q227" s="174"/>
+      <c r="R227" s="174"/>
+      <c r="S227" s="174"/>
+      <c r="T227" s="174"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="87" t="s">
@@ -31953,12 +31978,12 @@
       <c r="N228" s="95">
         <v>0.28455598455598458</v>
       </c>
-      <c r="O228" s="176"/>
-      <c r="P228" s="176"/>
-      <c r="Q228" s="176"/>
-      <c r="R228" s="176"/>
-      <c r="S228" s="176"/>
-      <c r="T228" s="176"/>
+      <c r="O228" s="174"/>
+      <c r="P228" s="174"/>
+      <c r="Q228" s="174"/>
+      <c r="R228" s="174"/>
+      <c r="S228" s="174"/>
+      <c r="T228" s="174"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="87" t="s">
@@ -31977,12 +32002,12 @@
       <c r="L229" s="94"/>
       <c r="M229" s="94"/>
       <c r="N229" s="95"/>
-      <c r="O229" s="176"/>
-      <c r="P229" s="176"/>
-      <c r="Q229" s="176"/>
-      <c r="R229" s="176"/>
-      <c r="S229" s="176"/>
-      <c r="T229" s="176"/>
+      <c r="O229" s="174"/>
+      <c r="P229" s="174"/>
+      <c r="Q229" s="174"/>
+      <c r="R229" s="174"/>
+      <c r="S229" s="174"/>
+      <c r="T229" s="174"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="92" t="s">
@@ -32040,21 +32065,15 @@
         <f t="shared" si="178"/>
         <v>0.30272465348386696</v>
       </c>
-      <c r="O230" s="176"/>
-      <c r="P230" s="176"/>
-      <c r="Q230" s="176"/>
-      <c r="R230" s="176"/>
-      <c r="S230" s="176"/>
-      <c r="T230" s="176"/>
+      <c r="O230" s="174"/>
+      <c r="P230" s="174"/>
+      <c r="Q230" s="174"/>
+      <c r="R230" s="174"/>
+      <c r="S230" s="174"/>
+      <c r="T230" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O220:T230"/>
-    <mergeCell ref="O160:T170"/>
-    <mergeCell ref="O172:T182"/>
     <mergeCell ref="O4:T14"/>
     <mergeCell ref="O100:T110"/>
     <mergeCell ref="O124:T134"/>
@@ -32068,6 +32087,12 @@
     <mergeCell ref="O64:T74"/>
     <mergeCell ref="O76:T86"/>
     <mergeCell ref="O88:T98"/>
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O220:T230"/>
+    <mergeCell ref="O160:T170"/>
+    <mergeCell ref="O172:T182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33871,16 +33896,16 @@
   <sheetData>
     <row r="1" spans="2:51" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" s="139" customFormat="1" ht="112.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="177" t="s">
         <v>198</v>
       </c>
@@ -33893,10 +33918,10 @@
         <v>208</v>
       </c>
       <c r="K2" s="177"/>
-      <c r="L2" s="181" t="s">
+      <c r="L2" s="182" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="181"/>
+      <c r="M2" s="182"/>
       <c r="N2" s="177" t="s">
         <v>210</v>
       </c>
@@ -33909,26 +33934,26 @@
         <v>199</v>
       </c>
       <c r="S2" s="177"/>
-      <c r="T2" s="181" t="s">
+      <c r="T2" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="181"/>
+      <c r="U2" s="182"/>
       <c r="V2" s="177" t="s">
         <v>201</v>
       </c>
       <c r="W2" s="177"/>
-      <c r="X2" s="181" t="s">
+      <c r="X2" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="181"/>
+      <c r="Y2" s="182"/>
       <c r="Z2" s="177" t="s">
         <v>203</v>
       </c>
       <c r="AA2" s="177"/>
-      <c r="AB2" s="181" t="s">
+      <c r="AB2" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="AC2" s="181"/>
+      <c r="AC2" s="182"/>
       <c r="AD2" s="177" t="s">
         <v>205</v>
       </c>
@@ -33972,11 +33997,11 @@
       <c r="AX2" s="177" t="s">
         <v>224</v>
       </c>
-      <c r="AY2" s="184"/>
+      <c r="AY2" s="179"/>
     </row>
     <row r="3" spans="2:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="183"/>
-      <c r="C3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="112" t="s">
         <v>187</v>
       </c>
@@ -36256,15 +36281,12 @@
     <row r="17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="R2:S2"/>
@@ -36276,12 +36298,15 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36355,16 +36380,16 @@
     </row>
     <row r="2" spans="1:27" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="139"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="177" t="s">
         <v>235</v>
       </c>
@@ -36377,10 +36402,10 @@
         <v>237</v>
       </c>
       <c r="K2" s="177"/>
-      <c r="L2" s="181" t="s">
+      <c r="L2" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="181"/>
+      <c r="M2" s="182"/>
       <c r="N2" s="177" t="s">
         <v>239</v>
       </c>
@@ -36393,27 +36418,27 @@
         <v>241</v>
       </c>
       <c r="S2" s="177"/>
-      <c r="T2" s="181" t="s">
+      <c r="T2" s="182" t="s">
         <v>242</v>
       </c>
-      <c r="U2" s="181"/>
+      <c r="U2" s="182"/>
       <c r="V2" s="177" t="s">
         <v>243</v>
       </c>
       <c r="W2" s="177"/>
-      <c r="X2" s="181" t="s">
+      <c r="X2" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="181"/>
+      <c r="Y2" s="182"/>
       <c r="Z2" s="177" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="184"/>
+      <c r="AA2" s="179"/>
     </row>
     <row r="3" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="112" t="s">
         <v>187</v>
       </c>
@@ -37360,12 +37385,6 @@
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="L2:M2"/>
@@ -37374,6 +37393,12 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43452,12 +43477,12 @@
         <f t="shared" ref="N136:N145" si="23">K136/L136</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O136" s="176"/>
-      <c r="P136" s="176"/>
-      <c r="Q136" s="176"/>
-      <c r="R136" s="176"/>
-      <c r="S136" s="176"/>
-      <c r="T136" s="176"/>
+      <c r="O136" s="174"/>
+      <c r="P136" s="174"/>
+      <c r="Q136" s="174"/>
+      <c r="R136" s="174"/>
+      <c r="S136" s="174"/>
+      <c r="T136" s="174"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="87" t="s">
@@ -43479,12 +43504,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O137" s="176"/>
-      <c r="P137" s="176"/>
-      <c r="Q137" s="176"/>
-      <c r="R137" s="176"/>
-      <c r="S137" s="176"/>
-      <c r="T137" s="176"/>
+      <c r="O137" s="174"/>
+      <c r="P137" s="174"/>
+      <c r="Q137" s="174"/>
+      <c r="R137" s="174"/>
+      <c r="S137" s="174"/>
+      <c r="T137" s="174"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="87" t="s">
@@ -43506,12 +43531,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O138" s="176"/>
-      <c r="P138" s="176"/>
-      <c r="Q138" s="176"/>
-      <c r="R138" s="176"/>
-      <c r="S138" s="176"/>
-      <c r="T138" s="176"/>
+      <c r="O138" s="174"/>
+      <c r="P138" s="174"/>
+      <c r="Q138" s="174"/>
+      <c r="R138" s="174"/>
+      <c r="S138" s="174"/>
+      <c r="T138" s="174"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="87" t="s">
@@ -43533,12 +43558,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O139" s="176"/>
-      <c r="P139" s="176"/>
-      <c r="Q139" s="176"/>
-      <c r="R139" s="176"/>
-      <c r="S139" s="176"/>
-      <c r="T139" s="176"/>
+      <c r="O139" s="174"/>
+      <c r="P139" s="174"/>
+      <c r="Q139" s="174"/>
+      <c r="R139" s="174"/>
+      <c r="S139" s="174"/>
+      <c r="T139" s="174"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="87" t="s">
@@ -43560,12 +43585,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O140" s="176"/>
-      <c r="P140" s="176"/>
-      <c r="Q140" s="176"/>
-      <c r="R140" s="176"/>
-      <c r="S140" s="176"/>
-      <c r="T140" s="176"/>
+      <c r="O140" s="174"/>
+      <c r="P140" s="174"/>
+      <c r="Q140" s="174"/>
+      <c r="R140" s="174"/>
+      <c r="S140" s="174"/>
+      <c r="T140" s="174"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="87" t="s">
@@ -43587,12 +43612,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O141" s="176"/>
-      <c r="P141" s="176"/>
-      <c r="Q141" s="176"/>
-      <c r="R141" s="176"/>
-      <c r="S141" s="176"/>
-      <c r="T141" s="176"/>
+      <c r="O141" s="174"/>
+      <c r="P141" s="174"/>
+      <c r="Q141" s="174"/>
+      <c r="R141" s="174"/>
+      <c r="S141" s="174"/>
+      <c r="T141" s="174"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="87" t="s">
@@ -43614,12 +43639,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O142" s="176"/>
-      <c r="P142" s="176"/>
-      <c r="Q142" s="176"/>
-      <c r="R142" s="176"/>
-      <c r="S142" s="176"/>
-      <c r="T142" s="176"/>
+      <c r="O142" s="174"/>
+      <c r="P142" s="174"/>
+      <c r="Q142" s="174"/>
+      <c r="R142" s="174"/>
+      <c r="S142" s="174"/>
+      <c r="T142" s="174"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="87" t="s">
@@ -43641,12 +43666,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O143" s="176"/>
-      <c r="P143" s="176"/>
-      <c r="Q143" s="176"/>
-      <c r="R143" s="176"/>
-      <c r="S143" s="176"/>
-      <c r="T143" s="176"/>
+      <c r="O143" s="174"/>
+      <c r="P143" s="174"/>
+      <c r="Q143" s="174"/>
+      <c r="R143" s="174"/>
+      <c r="S143" s="174"/>
+      <c r="T143" s="174"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="87" t="s">
@@ -43668,12 +43693,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O144" s="176"/>
-      <c r="P144" s="176"/>
-      <c r="Q144" s="176"/>
-      <c r="R144" s="176"/>
-      <c r="S144" s="176"/>
-      <c r="T144" s="176"/>
+      <c r="O144" s="174"/>
+      <c r="P144" s="174"/>
+      <c r="Q144" s="174"/>
+      <c r="R144" s="174"/>
+      <c r="S144" s="174"/>
+      <c r="T144" s="174"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="87" t="s">
@@ -43695,12 +43720,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O145" s="176"/>
-      <c r="P145" s="176"/>
-      <c r="Q145" s="176"/>
-      <c r="R145" s="176"/>
-      <c r="S145" s="176"/>
-      <c r="T145" s="176"/>
+      <c r="O145" s="174"/>
+      <c r="P145" s="174"/>
+      <c r="Q145" s="174"/>
+      <c r="R145" s="174"/>
+      <c r="S145" s="174"/>
+      <c r="T145" s="174"/>
     </row>
     <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="92" t="s">
@@ -43758,12 +43783,12 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O146" s="176"/>
-      <c r="P146" s="176"/>
-      <c r="Q146" s="176"/>
-      <c r="R146" s="176"/>
-      <c r="S146" s="176"/>
-      <c r="T146" s="176"/>
+      <c r="O146" s="174"/>
+      <c r="P146" s="174"/>
+      <c r="Q146" s="174"/>
+      <c r="R146" s="174"/>
+      <c r="S146" s="174"/>
+      <c r="T146" s="174"/>
     </row>
     <row r="147" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="99"/>
@@ -43800,12 +43825,12 @@
         <f t="shared" ref="N148:N157" si="25">K148/L148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O148" s="176"/>
-      <c r="P148" s="176"/>
-      <c r="Q148" s="176"/>
-      <c r="R148" s="176"/>
-      <c r="S148" s="176"/>
-      <c r="T148" s="176"/>
+      <c r="O148" s="174"/>
+      <c r="P148" s="174"/>
+      <c r="Q148" s="174"/>
+      <c r="R148" s="174"/>
+      <c r="S148" s="174"/>
+      <c r="T148" s="174"/>
     </row>
     <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="87" t="s">
@@ -43827,12 +43852,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O149" s="176"/>
-      <c r="P149" s="176"/>
-      <c r="Q149" s="176"/>
-      <c r="R149" s="176"/>
-      <c r="S149" s="176"/>
-      <c r="T149" s="176"/>
+      <c r="O149" s="174"/>
+      <c r="P149" s="174"/>
+      <c r="Q149" s="174"/>
+      <c r="R149" s="174"/>
+      <c r="S149" s="174"/>
+      <c r="T149" s="174"/>
     </row>
     <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="87" t="s">
@@ -43854,12 +43879,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O150" s="176"/>
-      <c r="P150" s="176"/>
-      <c r="Q150" s="176"/>
-      <c r="R150" s="176"/>
-      <c r="S150" s="176"/>
-      <c r="T150" s="176"/>
+      <c r="O150" s="174"/>
+      <c r="P150" s="174"/>
+      <c r="Q150" s="174"/>
+      <c r="R150" s="174"/>
+      <c r="S150" s="174"/>
+      <c r="T150" s="174"/>
     </row>
     <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="87" t="s">
@@ -43881,12 +43906,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O151" s="176"/>
-      <c r="P151" s="176"/>
-      <c r="Q151" s="176"/>
-      <c r="R151" s="176"/>
-      <c r="S151" s="176"/>
-      <c r="T151" s="176"/>
+      <c r="O151" s="174"/>
+      <c r="P151" s="174"/>
+      <c r="Q151" s="174"/>
+      <c r="R151" s="174"/>
+      <c r="S151" s="174"/>
+      <c r="T151" s="174"/>
     </row>
     <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="87" t="s">
@@ -43908,12 +43933,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O152" s="176"/>
-      <c r="P152" s="176"/>
-      <c r="Q152" s="176"/>
-      <c r="R152" s="176"/>
-      <c r="S152" s="176"/>
-      <c r="T152" s="176"/>
+      <c r="O152" s="174"/>
+      <c r="P152" s="174"/>
+      <c r="Q152" s="174"/>
+      <c r="R152" s="174"/>
+      <c r="S152" s="174"/>
+      <c r="T152" s="174"/>
     </row>
     <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="87" t="s">
@@ -43935,12 +43960,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O153" s="176"/>
-      <c r="P153" s="176"/>
-      <c r="Q153" s="176"/>
-      <c r="R153" s="176"/>
-      <c r="S153" s="176"/>
-      <c r="T153" s="176"/>
+      <c r="O153" s="174"/>
+      <c r="P153" s="174"/>
+      <c r="Q153" s="174"/>
+      <c r="R153" s="174"/>
+      <c r="S153" s="174"/>
+      <c r="T153" s="174"/>
     </row>
     <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="87" t="s">
@@ -43962,12 +43987,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O154" s="176"/>
-      <c r="P154" s="176"/>
-      <c r="Q154" s="176"/>
-      <c r="R154" s="176"/>
-      <c r="S154" s="176"/>
-      <c r="T154" s="176"/>
+      <c r="O154" s="174"/>
+      <c r="P154" s="174"/>
+      <c r="Q154" s="174"/>
+      <c r="R154" s="174"/>
+      <c r="S154" s="174"/>
+      <c r="T154" s="174"/>
     </row>
     <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="87" t="s">
@@ -43989,12 +44014,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O155" s="176"/>
-      <c r="P155" s="176"/>
-      <c r="Q155" s="176"/>
-      <c r="R155" s="176"/>
-      <c r="S155" s="176"/>
-      <c r="T155" s="176"/>
+      <c r="O155" s="174"/>
+      <c r="P155" s="174"/>
+      <c r="Q155" s="174"/>
+      <c r="R155" s="174"/>
+      <c r="S155" s="174"/>
+      <c r="T155" s="174"/>
     </row>
     <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="87" t="s">
@@ -44016,12 +44041,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O156" s="176"/>
-      <c r="P156" s="176"/>
-      <c r="Q156" s="176"/>
-      <c r="R156" s="176"/>
-      <c r="S156" s="176"/>
-      <c r="T156" s="176"/>
+      <c r="O156" s="174"/>
+      <c r="P156" s="174"/>
+      <c r="Q156" s="174"/>
+      <c r="R156" s="174"/>
+      <c r="S156" s="174"/>
+      <c r="T156" s="174"/>
     </row>
     <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="87" t="s">
@@ -44043,12 +44068,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O157" s="176"/>
-      <c r="P157" s="176"/>
-      <c r="Q157" s="176"/>
-      <c r="R157" s="176"/>
-      <c r="S157" s="176"/>
-      <c r="T157" s="176"/>
+      <c r="O157" s="174"/>
+      <c r="P157" s="174"/>
+      <c r="Q157" s="174"/>
+      <c r="R157" s="174"/>
+      <c r="S157" s="174"/>
+      <c r="T157" s="174"/>
     </row>
     <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="92" t="s">
@@ -44106,12 +44131,12 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O158" s="176"/>
-      <c r="P158" s="176"/>
-      <c r="Q158" s="176"/>
-      <c r="R158" s="176"/>
-      <c r="S158" s="176"/>
-      <c r="T158" s="176"/>
+      <c r="O158" s="174"/>
+      <c r="P158" s="174"/>
+      <c r="Q158" s="174"/>
+      <c r="R158" s="174"/>
+      <c r="S158" s="174"/>
+      <c r="T158" s="174"/>
     </row>
     <row r="159" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="99"/>
@@ -44148,12 +44173,12 @@
         <f t="shared" ref="N160:N169" si="27">K160/L160</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O160" s="176"/>
-      <c r="P160" s="176"/>
-      <c r="Q160" s="176"/>
-      <c r="R160" s="176"/>
-      <c r="S160" s="176"/>
-      <c r="T160" s="176"/>
+      <c r="O160" s="174"/>
+      <c r="P160" s="174"/>
+      <c r="Q160" s="174"/>
+      <c r="R160" s="174"/>
+      <c r="S160" s="174"/>
+      <c r="T160" s="174"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="87" t="s">
@@ -44175,12 +44200,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O161" s="176"/>
-      <c r="P161" s="176"/>
-      <c r="Q161" s="176"/>
-      <c r="R161" s="176"/>
-      <c r="S161" s="176"/>
-      <c r="T161" s="176"/>
+      <c r="O161" s="174"/>
+      <c r="P161" s="174"/>
+      <c r="Q161" s="174"/>
+      <c r="R161" s="174"/>
+      <c r="S161" s="174"/>
+      <c r="T161" s="174"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="87" t="s">
@@ -44202,12 +44227,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O162" s="176"/>
-      <c r="P162" s="176"/>
-      <c r="Q162" s="176"/>
-      <c r="R162" s="176"/>
-      <c r="S162" s="176"/>
-      <c r="T162" s="176"/>
+      <c r="O162" s="174"/>
+      <c r="P162" s="174"/>
+      <c r="Q162" s="174"/>
+      <c r="R162" s="174"/>
+      <c r="S162" s="174"/>
+      <c r="T162" s="174"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="87" t="s">
@@ -44229,12 +44254,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O163" s="176"/>
-      <c r="P163" s="176"/>
-      <c r="Q163" s="176"/>
-      <c r="R163" s="176"/>
-      <c r="S163" s="176"/>
-      <c r="T163" s="176"/>
+      <c r="O163" s="174"/>
+      <c r="P163" s="174"/>
+      <c r="Q163" s="174"/>
+      <c r="R163" s="174"/>
+      <c r="S163" s="174"/>
+      <c r="T163" s="174"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="87" t="s">
@@ -44256,12 +44281,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O164" s="176"/>
-      <c r="P164" s="176"/>
-      <c r="Q164" s="176"/>
-      <c r="R164" s="176"/>
-      <c r="S164" s="176"/>
-      <c r="T164" s="176"/>
+      <c r="O164" s="174"/>
+      <c r="P164" s="174"/>
+      <c r="Q164" s="174"/>
+      <c r="R164" s="174"/>
+      <c r="S164" s="174"/>
+      <c r="T164" s="174"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="87" t="s">
@@ -44283,12 +44308,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O165" s="176"/>
-      <c r="P165" s="176"/>
-      <c r="Q165" s="176"/>
-      <c r="R165" s="176"/>
-      <c r="S165" s="176"/>
-      <c r="T165" s="176"/>
+      <c r="O165" s="174"/>
+      <c r="P165" s="174"/>
+      <c r="Q165" s="174"/>
+      <c r="R165" s="174"/>
+      <c r="S165" s="174"/>
+      <c r="T165" s="174"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="87" t="s">
@@ -44310,12 +44335,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O166" s="176"/>
-      <c r="P166" s="176"/>
-      <c r="Q166" s="176"/>
-      <c r="R166" s="176"/>
-      <c r="S166" s="176"/>
-      <c r="T166" s="176"/>
+      <c r="O166" s="174"/>
+      <c r="P166" s="174"/>
+      <c r="Q166" s="174"/>
+      <c r="R166" s="174"/>
+      <c r="S166" s="174"/>
+      <c r="T166" s="174"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="87" t="s">
@@ -44337,12 +44362,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O167" s="176"/>
-      <c r="P167" s="176"/>
-      <c r="Q167" s="176"/>
-      <c r="R167" s="176"/>
-      <c r="S167" s="176"/>
-      <c r="T167" s="176"/>
+      <c r="O167" s="174"/>
+      <c r="P167" s="174"/>
+      <c r="Q167" s="174"/>
+      <c r="R167" s="174"/>
+      <c r="S167" s="174"/>
+      <c r="T167" s="174"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="87" t="s">
@@ -44364,12 +44389,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O168" s="176"/>
-      <c r="P168" s="176"/>
-      <c r="Q168" s="176"/>
-      <c r="R168" s="176"/>
-      <c r="S168" s="176"/>
-      <c r="T168" s="176"/>
+      <c r="O168" s="174"/>
+      <c r="P168" s="174"/>
+      <c r="Q168" s="174"/>
+      <c r="R168" s="174"/>
+      <c r="S168" s="174"/>
+      <c r="T168" s="174"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="87" t="s">
@@ -44391,12 +44416,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O169" s="176"/>
-      <c r="P169" s="176"/>
-      <c r="Q169" s="176"/>
-      <c r="R169" s="176"/>
-      <c r="S169" s="176"/>
-      <c r="T169" s="176"/>
+      <c r="O169" s="174"/>
+      <c r="P169" s="174"/>
+      <c r="Q169" s="174"/>
+      <c r="R169" s="174"/>
+      <c r="S169" s="174"/>
+      <c r="T169" s="174"/>
     </row>
     <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="92" t="s">
@@ -44454,12 +44479,12 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O170" s="176"/>
-      <c r="P170" s="176"/>
-      <c r="Q170" s="176"/>
-      <c r="R170" s="176"/>
-      <c r="S170" s="176"/>
-      <c r="T170" s="176"/>
+      <c r="O170" s="174"/>
+      <c r="P170" s="174"/>
+      <c r="Q170" s="174"/>
+      <c r="R170" s="174"/>
+      <c r="S170" s="174"/>
+      <c r="T170" s="174"/>
     </row>
     <row r="171" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="99"/>
@@ -44496,12 +44521,12 @@
         <f t="shared" ref="N172:N181" si="29">K172/L172</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O172" s="176"/>
-      <c r="P172" s="176"/>
-      <c r="Q172" s="176"/>
-      <c r="R172" s="176"/>
-      <c r="S172" s="176"/>
-      <c r="T172" s="176"/>
+      <c r="O172" s="174"/>
+      <c r="P172" s="174"/>
+      <c r="Q172" s="174"/>
+      <c r="R172" s="174"/>
+      <c r="S172" s="174"/>
+      <c r="T172" s="174"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="87" t="s">
@@ -44523,12 +44548,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O173" s="176"/>
-      <c r="P173" s="176"/>
-      <c r="Q173" s="176"/>
-      <c r="R173" s="176"/>
-      <c r="S173" s="176"/>
-      <c r="T173" s="176"/>
+      <c r="O173" s="174"/>
+      <c r="P173" s="174"/>
+      <c r="Q173" s="174"/>
+      <c r="R173" s="174"/>
+      <c r="S173" s="174"/>
+      <c r="T173" s="174"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="87" t="s">
@@ -44550,12 +44575,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O174" s="176"/>
-      <c r="P174" s="176"/>
-      <c r="Q174" s="176"/>
-      <c r="R174" s="176"/>
-      <c r="S174" s="176"/>
-      <c r="T174" s="176"/>
+      <c r="O174" s="174"/>
+      <c r="P174" s="174"/>
+      <c r="Q174" s="174"/>
+      <c r="R174" s="174"/>
+      <c r="S174" s="174"/>
+      <c r="T174" s="174"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="87" t="s">
@@ -44577,12 +44602,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O175" s="176"/>
-      <c r="P175" s="176"/>
-      <c r="Q175" s="176"/>
-      <c r="R175" s="176"/>
-      <c r="S175" s="176"/>
-      <c r="T175" s="176"/>
+      <c r="O175" s="174"/>
+      <c r="P175" s="174"/>
+      <c r="Q175" s="174"/>
+      <c r="R175" s="174"/>
+      <c r="S175" s="174"/>
+      <c r="T175" s="174"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="87" t="s">
@@ -44604,12 +44629,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O176" s="176"/>
-      <c r="P176" s="176"/>
-      <c r="Q176" s="176"/>
-      <c r="R176" s="176"/>
-      <c r="S176" s="176"/>
-      <c r="T176" s="176"/>
+      <c r="O176" s="174"/>
+      <c r="P176" s="174"/>
+      <c r="Q176" s="174"/>
+      <c r="R176" s="174"/>
+      <c r="S176" s="174"/>
+      <c r="T176" s="174"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="87" t="s">
@@ -44631,12 +44656,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O177" s="176"/>
-      <c r="P177" s="176"/>
-      <c r="Q177" s="176"/>
-      <c r="R177" s="176"/>
-      <c r="S177" s="176"/>
-      <c r="T177" s="176"/>
+      <c r="O177" s="174"/>
+      <c r="P177" s="174"/>
+      <c r="Q177" s="174"/>
+      <c r="R177" s="174"/>
+      <c r="S177" s="174"/>
+      <c r="T177" s="174"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="87" t="s">
@@ -44658,12 +44683,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O178" s="176"/>
-      <c r="P178" s="176"/>
-      <c r="Q178" s="176"/>
-      <c r="R178" s="176"/>
-      <c r="S178" s="176"/>
-      <c r="T178" s="176"/>
+      <c r="O178" s="174"/>
+      <c r="P178" s="174"/>
+      <c r="Q178" s="174"/>
+      <c r="R178" s="174"/>
+      <c r="S178" s="174"/>
+      <c r="T178" s="174"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="87" t="s">
@@ -44685,12 +44710,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O179" s="176"/>
-      <c r="P179" s="176"/>
-      <c r="Q179" s="176"/>
-      <c r="R179" s="176"/>
-      <c r="S179" s="176"/>
-      <c r="T179" s="176"/>
+      <c r="O179" s="174"/>
+      <c r="P179" s="174"/>
+      <c r="Q179" s="174"/>
+      <c r="R179" s="174"/>
+      <c r="S179" s="174"/>
+      <c r="T179" s="174"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="87" t="s">
@@ -44712,12 +44737,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O180" s="176"/>
-      <c r="P180" s="176"/>
-      <c r="Q180" s="176"/>
-      <c r="R180" s="176"/>
-      <c r="S180" s="176"/>
-      <c r="T180" s="176"/>
+      <c r="O180" s="174"/>
+      <c r="P180" s="174"/>
+      <c r="Q180" s="174"/>
+      <c r="R180" s="174"/>
+      <c r="S180" s="174"/>
+      <c r="T180" s="174"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="87" t="s">
@@ -44739,12 +44764,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O181" s="176"/>
-      <c r="P181" s="176"/>
-      <c r="Q181" s="176"/>
-      <c r="R181" s="176"/>
-      <c r="S181" s="176"/>
-      <c r="T181" s="176"/>
+      <c r="O181" s="174"/>
+      <c r="P181" s="174"/>
+      <c r="Q181" s="174"/>
+      <c r="R181" s="174"/>
+      <c r="S181" s="174"/>
+      <c r="T181" s="174"/>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="92" t="s">
@@ -44802,12 +44827,12 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O182" s="176"/>
-      <c r="P182" s="176"/>
-      <c r="Q182" s="176"/>
-      <c r="R182" s="176"/>
-      <c r="S182" s="176"/>
-      <c r="T182" s="176"/>
+      <c r="O182" s="174"/>
+      <c r="P182" s="174"/>
+      <c r="Q182" s="174"/>
+      <c r="R182" s="174"/>
+      <c r="S182" s="174"/>
+      <c r="T182" s="174"/>
     </row>
     <row r="183" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="99"/>
@@ -44844,12 +44869,12 @@
         <f t="shared" ref="N184:N193" si="31">K184/L184</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O184" s="176"/>
-      <c r="P184" s="176"/>
-      <c r="Q184" s="176"/>
-      <c r="R184" s="176"/>
-      <c r="S184" s="176"/>
-      <c r="T184" s="176"/>
+      <c r="O184" s="174"/>
+      <c r="P184" s="174"/>
+      <c r="Q184" s="174"/>
+      <c r="R184" s="174"/>
+      <c r="S184" s="174"/>
+      <c r="T184" s="174"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="87" t="s">
@@ -44871,12 +44896,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O185" s="176"/>
-      <c r="P185" s="176"/>
-      <c r="Q185" s="176"/>
-      <c r="R185" s="176"/>
-      <c r="S185" s="176"/>
-      <c r="T185" s="176"/>
+      <c r="O185" s="174"/>
+      <c r="P185" s="174"/>
+      <c r="Q185" s="174"/>
+      <c r="R185" s="174"/>
+      <c r="S185" s="174"/>
+      <c r="T185" s="174"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="87" t="s">
@@ -44898,12 +44923,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O186" s="176"/>
-      <c r="P186" s="176"/>
-      <c r="Q186" s="176"/>
-      <c r="R186" s="176"/>
-      <c r="S186" s="176"/>
-      <c r="T186" s="176"/>
+      <c r="O186" s="174"/>
+      <c r="P186" s="174"/>
+      <c r="Q186" s="174"/>
+      <c r="R186" s="174"/>
+      <c r="S186" s="174"/>
+      <c r="T186" s="174"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="87" t="s">
@@ -44925,12 +44950,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O187" s="176"/>
-      <c r="P187" s="176"/>
-      <c r="Q187" s="176"/>
-      <c r="R187" s="176"/>
-      <c r="S187" s="176"/>
-      <c r="T187" s="176"/>
+      <c r="O187" s="174"/>
+      <c r="P187" s="174"/>
+      <c r="Q187" s="174"/>
+      <c r="R187" s="174"/>
+      <c r="S187" s="174"/>
+      <c r="T187" s="174"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="87" t="s">
@@ -44952,12 +44977,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O188" s="176"/>
-      <c r="P188" s="176"/>
-      <c r="Q188" s="176"/>
-      <c r="R188" s="176"/>
-      <c r="S188" s="176"/>
-      <c r="T188" s="176"/>
+      <c r="O188" s="174"/>
+      <c r="P188" s="174"/>
+      <c r="Q188" s="174"/>
+      <c r="R188" s="174"/>
+      <c r="S188" s="174"/>
+      <c r="T188" s="174"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="87" t="s">
@@ -44979,12 +45004,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O189" s="176"/>
-      <c r="P189" s="176"/>
-      <c r="Q189" s="176"/>
-      <c r="R189" s="176"/>
-      <c r="S189" s="176"/>
-      <c r="T189" s="176"/>
+      <c r="O189" s="174"/>
+      <c r="P189" s="174"/>
+      <c r="Q189" s="174"/>
+      <c r="R189" s="174"/>
+      <c r="S189" s="174"/>
+      <c r="T189" s="174"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="87" t="s">
@@ -45006,12 +45031,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O190" s="176"/>
-      <c r="P190" s="176"/>
-      <c r="Q190" s="176"/>
-      <c r="R190" s="176"/>
-      <c r="S190" s="176"/>
-      <c r="T190" s="176"/>
+      <c r="O190" s="174"/>
+      <c r="P190" s="174"/>
+      <c r="Q190" s="174"/>
+      <c r="R190" s="174"/>
+      <c r="S190" s="174"/>
+      <c r="T190" s="174"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="87" t="s">
@@ -45033,12 +45058,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O191" s="176"/>
-      <c r="P191" s="176"/>
-      <c r="Q191" s="176"/>
-      <c r="R191" s="176"/>
-      <c r="S191" s="176"/>
-      <c r="T191" s="176"/>
+      <c r="O191" s="174"/>
+      <c r="P191" s="174"/>
+      <c r="Q191" s="174"/>
+      <c r="R191" s="174"/>
+      <c r="S191" s="174"/>
+      <c r="T191" s="174"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="87" t="s">
@@ -45060,12 +45085,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O192" s="176"/>
-      <c r="P192" s="176"/>
-      <c r="Q192" s="176"/>
-      <c r="R192" s="176"/>
-      <c r="S192" s="176"/>
-      <c r="T192" s="176"/>
+      <c r="O192" s="174"/>
+      <c r="P192" s="174"/>
+      <c r="Q192" s="174"/>
+      <c r="R192" s="174"/>
+      <c r="S192" s="174"/>
+      <c r="T192" s="174"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="87" t="s">
@@ -45087,12 +45112,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O193" s="176"/>
-      <c r="P193" s="176"/>
-      <c r="Q193" s="176"/>
-      <c r="R193" s="176"/>
-      <c r="S193" s="176"/>
-      <c r="T193" s="176"/>
+      <c r="O193" s="174"/>
+      <c r="P193" s="174"/>
+      <c r="Q193" s="174"/>
+      <c r="R193" s="174"/>
+      <c r="S193" s="174"/>
+      <c r="T193" s="174"/>
     </row>
     <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="92" t="s">
@@ -45150,12 +45175,12 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="176"/>
-      <c r="P194" s="176"/>
-      <c r="Q194" s="176"/>
-      <c r="R194" s="176"/>
-      <c r="S194" s="176"/>
-      <c r="T194" s="176"/>
+      <c r="O194" s="174"/>
+      <c r="P194" s="174"/>
+      <c r="Q194" s="174"/>
+      <c r="R194" s="174"/>
+      <c r="S194" s="174"/>
+      <c r="T194" s="174"/>
     </row>
     <row r="195" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="99"/>
@@ -45192,12 +45217,12 @@
         <f t="shared" ref="N196:N205" si="33">K196/L196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O196" s="176"/>
-      <c r="P196" s="176"/>
-      <c r="Q196" s="176"/>
-      <c r="R196" s="176"/>
-      <c r="S196" s="176"/>
-      <c r="T196" s="176"/>
+      <c r="O196" s="174"/>
+      <c r="P196" s="174"/>
+      <c r="Q196" s="174"/>
+      <c r="R196" s="174"/>
+      <c r="S196" s="174"/>
+      <c r="T196" s="174"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="87" t="s">
@@ -45219,12 +45244,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O197" s="176"/>
-      <c r="P197" s="176"/>
-      <c r="Q197" s="176"/>
-      <c r="R197" s="176"/>
-      <c r="S197" s="176"/>
-      <c r="T197" s="176"/>
+      <c r="O197" s="174"/>
+      <c r="P197" s="174"/>
+      <c r="Q197" s="174"/>
+      <c r="R197" s="174"/>
+      <c r="S197" s="174"/>
+      <c r="T197" s="174"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="87" t="s">
@@ -45246,12 +45271,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O198" s="176"/>
-      <c r="P198" s="176"/>
-      <c r="Q198" s="176"/>
-      <c r="R198" s="176"/>
-      <c r="S198" s="176"/>
-      <c r="T198" s="176"/>
+      <c r="O198" s="174"/>
+      <c r="P198" s="174"/>
+      <c r="Q198" s="174"/>
+      <c r="R198" s="174"/>
+      <c r="S198" s="174"/>
+      <c r="T198" s="174"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="87" t="s">
@@ -45273,12 +45298,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O199" s="176"/>
-      <c r="P199" s="176"/>
-      <c r="Q199" s="176"/>
-      <c r="R199" s="176"/>
-      <c r="S199" s="176"/>
-      <c r="T199" s="176"/>
+      <c r="O199" s="174"/>
+      <c r="P199" s="174"/>
+      <c r="Q199" s="174"/>
+      <c r="R199" s="174"/>
+      <c r="S199" s="174"/>
+      <c r="T199" s="174"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="87" t="s">
@@ -45300,12 +45325,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O200" s="176"/>
-      <c r="P200" s="176"/>
-      <c r="Q200" s="176"/>
-      <c r="R200" s="176"/>
-      <c r="S200" s="176"/>
-      <c r="T200" s="176"/>
+      <c r="O200" s="174"/>
+      <c r="P200" s="174"/>
+      <c r="Q200" s="174"/>
+      <c r="R200" s="174"/>
+      <c r="S200" s="174"/>
+      <c r="T200" s="174"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="87" t="s">
@@ -45327,12 +45352,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O201" s="176"/>
-      <c r="P201" s="176"/>
-      <c r="Q201" s="176"/>
-      <c r="R201" s="176"/>
-      <c r="S201" s="176"/>
-      <c r="T201" s="176"/>
+      <c r="O201" s="174"/>
+      <c r="P201" s="174"/>
+      <c r="Q201" s="174"/>
+      <c r="R201" s="174"/>
+      <c r="S201" s="174"/>
+      <c r="T201" s="174"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="87" t="s">
@@ -45354,12 +45379,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O202" s="176"/>
-      <c r="P202" s="176"/>
-      <c r="Q202" s="176"/>
-      <c r="R202" s="176"/>
-      <c r="S202" s="176"/>
-      <c r="T202" s="176"/>
+      <c r="O202" s="174"/>
+      <c r="P202" s="174"/>
+      <c r="Q202" s="174"/>
+      <c r="R202" s="174"/>
+      <c r="S202" s="174"/>
+      <c r="T202" s="174"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="87" t="s">
@@ -45381,12 +45406,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O203" s="176"/>
-      <c r="P203" s="176"/>
-      <c r="Q203" s="176"/>
-      <c r="R203" s="176"/>
-      <c r="S203" s="176"/>
-      <c r="T203" s="176"/>
+      <c r="O203" s="174"/>
+      <c r="P203" s="174"/>
+      <c r="Q203" s="174"/>
+      <c r="R203" s="174"/>
+      <c r="S203" s="174"/>
+      <c r="T203" s="174"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="87" t="s">
@@ -45408,12 +45433,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O204" s="176"/>
-      <c r="P204" s="176"/>
-      <c r="Q204" s="176"/>
-      <c r="R204" s="176"/>
-      <c r="S204" s="176"/>
-      <c r="T204" s="176"/>
+      <c r="O204" s="174"/>
+      <c r="P204" s="174"/>
+      <c r="Q204" s="174"/>
+      <c r="R204" s="174"/>
+      <c r="S204" s="174"/>
+      <c r="T204" s="174"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="87" t="s">
@@ -45435,12 +45460,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O205" s="176"/>
-      <c r="P205" s="176"/>
-      <c r="Q205" s="176"/>
-      <c r="R205" s="176"/>
-      <c r="S205" s="176"/>
-      <c r="T205" s="176"/>
+      <c r="O205" s="174"/>
+      <c r="P205" s="174"/>
+      <c r="Q205" s="174"/>
+      <c r="R205" s="174"/>
+      <c r="S205" s="174"/>
+      <c r="T205" s="174"/>
     </row>
     <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="92" t="s">
@@ -45498,12 +45523,12 @@
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O206" s="176"/>
-      <c r="P206" s="176"/>
-      <c r="Q206" s="176"/>
-      <c r="R206" s="176"/>
-      <c r="S206" s="176"/>
-      <c r="T206" s="176"/>
+      <c r="O206" s="174"/>
+      <c r="P206" s="174"/>
+      <c r="Q206" s="174"/>
+      <c r="R206" s="174"/>
+      <c r="S206" s="174"/>
+      <c r="T206" s="174"/>
     </row>
     <row r="207" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="99"/>
@@ -45540,12 +45565,12 @@
         <f t="shared" ref="N208:N217" si="35">K208/L208</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O208" s="176"/>
-      <c r="P208" s="176"/>
-      <c r="Q208" s="176"/>
-      <c r="R208" s="176"/>
-      <c r="S208" s="176"/>
-      <c r="T208" s="176"/>
+      <c r="O208" s="174"/>
+      <c r="P208" s="174"/>
+      <c r="Q208" s="174"/>
+      <c r="R208" s="174"/>
+      <c r="S208" s="174"/>
+      <c r="T208" s="174"/>
     </row>
     <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="87" t="s">
@@ -45567,12 +45592,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O209" s="176"/>
-      <c r="P209" s="176"/>
-      <c r="Q209" s="176"/>
-      <c r="R209" s="176"/>
-      <c r="S209" s="176"/>
-      <c r="T209" s="176"/>
+      <c r="O209" s="174"/>
+      <c r="P209" s="174"/>
+      <c r="Q209" s="174"/>
+      <c r="R209" s="174"/>
+      <c r="S209" s="174"/>
+      <c r="T209" s="174"/>
     </row>
     <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="87" t="s">
@@ -45594,12 +45619,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O210" s="176"/>
-      <c r="P210" s="176"/>
-      <c r="Q210" s="176"/>
-      <c r="R210" s="176"/>
-      <c r="S210" s="176"/>
-      <c r="T210" s="176"/>
+      <c r="O210" s="174"/>
+      <c r="P210" s="174"/>
+      <c r="Q210" s="174"/>
+      <c r="R210" s="174"/>
+      <c r="S210" s="174"/>
+      <c r="T210" s="174"/>
     </row>
     <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="87" t="s">
@@ -45621,12 +45646,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O211" s="176"/>
-      <c r="P211" s="176"/>
-      <c r="Q211" s="176"/>
-      <c r="R211" s="176"/>
-      <c r="S211" s="176"/>
-      <c r="T211" s="176"/>
+      <c r="O211" s="174"/>
+      <c r="P211" s="174"/>
+      <c r="Q211" s="174"/>
+      <c r="R211" s="174"/>
+      <c r="S211" s="174"/>
+      <c r="T211" s="174"/>
     </row>
     <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="87" t="s">
@@ -45648,12 +45673,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O212" s="176"/>
-      <c r="P212" s="176"/>
-      <c r="Q212" s="176"/>
-      <c r="R212" s="176"/>
-      <c r="S212" s="176"/>
-      <c r="T212" s="176"/>
+      <c r="O212" s="174"/>
+      <c r="P212" s="174"/>
+      <c r="Q212" s="174"/>
+      <c r="R212" s="174"/>
+      <c r="S212" s="174"/>
+      <c r="T212" s="174"/>
     </row>
     <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="87" t="s">
@@ -45675,12 +45700,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O213" s="176"/>
-      <c r="P213" s="176"/>
-      <c r="Q213" s="176"/>
-      <c r="R213" s="176"/>
-      <c r="S213" s="176"/>
-      <c r="T213" s="176"/>
+      <c r="O213" s="174"/>
+      <c r="P213" s="174"/>
+      <c r="Q213" s="174"/>
+      <c r="R213" s="174"/>
+      <c r="S213" s="174"/>
+      <c r="T213" s="174"/>
     </row>
     <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="87" t="s">
@@ -45702,12 +45727,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O214" s="176"/>
-      <c r="P214" s="176"/>
-      <c r="Q214" s="176"/>
-      <c r="R214" s="176"/>
-      <c r="S214" s="176"/>
-      <c r="T214" s="176"/>
+      <c r="O214" s="174"/>
+      <c r="P214" s="174"/>
+      <c r="Q214" s="174"/>
+      <c r="R214" s="174"/>
+      <c r="S214" s="174"/>
+      <c r="T214" s="174"/>
     </row>
     <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="87" t="s">
@@ -45729,12 +45754,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O215" s="176"/>
-      <c r="P215" s="176"/>
-      <c r="Q215" s="176"/>
-      <c r="R215" s="176"/>
-      <c r="S215" s="176"/>
-      <c r="T215" s="176"/>
+      <c r="O215" s="174"/>
+      <c r="P215" s="174"/>
+      <c r="Q215" s="174"/>
+      <c r="R215" s="174"/>
+      <c r="S215" s="174"/>
+      <c r="T215" s="174"/>
     </row>
     <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="87" t="s">
@@ -45756,12 +45781,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O216" s="176"/>
-      <c r="P216" s="176"/>
-      <c r="Q216" s="176"/>
-      <c r="R216" s="176"/>
-      <c r="S216" s="176"/>
-      <c r="T216" s="176"/>
+      <c r="O216" s="174"/>
+      <c r="P216" s="174"/>
+      <c r="Q216" s="174"/>
+      <c r="R216" s="174"/>
+      <c r="S216" s="174"/>
+      <c r="T216" s="174"/>
     </row>
     <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="87" t="s">
@@ -45783,12 +45808,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O217" s="176"/>
-      <c r="P217" s="176"/>
-      <c r="Q217" s="176"/>
-      <c r="R217" s="176"/>
-      <c r="S217" s="176"/>
-      <c r="T217" s="176"/>
+      <c r="O217" s="174"/>
+      <c r="P217" s="174"/>
+      <c r="Q217" s="174"/>
+      <c r="R217" s="174"/>
+      <c r="S217" s="174"/>
+      <c r="T217" s="174"/>
     </row>
     <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="92" t="s">
@@ -45846,12 +45871,12 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O218" s="176"/>
-      <c r="P218" s="176"/>
-      <c r="Q218" s="176"/>
-      <c r="R218" s="176"/>
-      <c r="S218" s="176"/>
-      <c r="T218" s="176"/>
+      <c r="O218" s="174"/>
+      <c r="P218" s="174"/>
+      <c r="Q218" s="174"/>
+      <c r="R218" s="174"/>
+      <c r="S218" s="174"/>
+      <c r="T218" s="174"/>
     </row>
     <row r="219" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="99"/>
@@ -45888,12 +45913,12 @@
         <f t="shared" ref="N220:N229" si="37">K220/L220</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O220" s="176"/>
-      <c r="P220" s="176"/>
-      <c r="Q220" s="176"/>
-      <c r="R220" s="176"/>
-      <c r="S220" s="176"/>
-      <c r="T220" s="176"/>
+      <c r="O220" s="174"/>
+      <c r="P220" s="174"/>
+      <c r="Q220" s="174"/>
+      <c r="R220" s="174"/>
+      <c r="S220" s="174"/>
+      <c r="T220" s="174"/>
     </row>
     <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="87" t="s">
@@ -45915,12 +45940,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O221" s="176"/>
-      <c r="P221" s="176"/>
-      <c r="Q221" s="176"/>
-      <c r="R221" s="176"/>
-      <c r="S221" s="176"/>
-      <c r="T221" s="176"/>
+      <c r="O221" s="174"/>
+      <c r="P221" s="174"/>
+      <c r="Q221" s="174"/>
+      <c r="R221" s="174"/>
+      <c r="S221" s="174"/>
+      <c r="T221" s="174"/>
     </row>
     <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="87" t="s">
@@ -45942,12 +45967,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O222" s="176"/>
-      <c r="P222" s="176"/>
-      <c r="Q222" s="176"/>
-      <c r="R222" s="176"/>
-      <c r="S222" s="176"/>
-      <c r="T222" s="176"/>
+      <c r="O222" s="174"/>
+      <c r="P222" s="174"/>
+      <c r="Q222" s="174"/>
+      <c r="R222" s="174"/>
+      <c r="S222" s="174"/>
+      <c r="T222" s="174"/>
     </row>
     <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="87" t="s">
@@ -45969,12 +45994,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O223" s="176"/>
-      <c r="P223" s="176"/>
-      <c r="Q223" s="176"/>
-      <c r="R223" s="176"/>
-      <c r="S223" s="176"/>
-      <c r="T223" s="176"/>
+      <c r="O223" s="174"/>
+      <c r="P223" s="174"/>
+      <c r="Q223" s="174"/>
+      <c r="R223" s="174"/>
+      <c r="S223" s="174"/>
+      <c r="T223" s="174"/>
     </row>
     <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="87" t="s">
@@ -45996,12 +46021,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O224" s="176"/>
-      <c r="P224" s="176"/>
-      <c r="Q224" s="176"/>
-      <c r="R224" s="176"/>
-      <c r="S224" s="176"/>
-      <c r="T224" s="176"/>
+      <c r="O224" s="174"/>
+      <c r="P224" s="174"/>
+      <c r="Q224" s="174"/>
+      <c r="R224" s="174"/>
+      <c r="S224" s="174"/>
+      <c r="T224" s="174"/>
     </row>
     <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="87" t="s">
@@ -46023,12 +46048,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O225" s="176"/>
-      <c r="P225" s="176"/>
-      <c r="Q225" s="176"/>
-      <c r="R225" s="176"/>
-      <c r="S225" s="176"/>
-      <c r="T225" s="176"/>
+      <c r="O225" s="174"/>
+      <c r="P225" s="174"/>
+      <c r="Q225" s="174"/>
+      <c r="R225" s="174"/>
+      <c r="S225" s="174"/>
+      <c r="T225" s="174"/>
     </row>
     <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="87" t="s">
@@ -46050,12 +46075,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O226" s="176"/>
-      <c r="P226" s="176"/>
-      <c r="Q226" s="176"/>
-      <c r="R226" s="176"/>
-      <c r="S226" s="176"/>
-      <c r="T226" s="176"/>
+      <c r="O226" s="174"/>
+      <c r="P226" s="174"/>
+      <c r="Q226" s="174"/>
+      <c r="R226" s="174"/>
+      <c r="S226" s="174"/>
+      <c r="T226" s="174"/>
     </row>
     <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="87" t="s">
@@ -46077,12 +46102,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O227" s="176"/>
-      <c r="P227" s="176"/>
-      <c r="Q227" s="176"/>
-      <c r="R227" s="176"/>
-      <c r="S227" s="176"/>
-      <c r="T227" s="176"/>
+      <c r="O227" s="174"/>
+      <c r="P227" s="174"/>
+      <c r="Q227" s="174"/>
+      <c r="R227" s="174"/>
+      <c r="S227" s="174"/>
+      <c r="T227" s="174"/>
     </row>
     <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="87" t="s">
@@ -46104,12 +46129,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O228" s="176"/>
-      <c r="P228" s="176"/>
-      <c r="Q228" s="176"/>
-      <c r="R228" s="176"/>
-      <c r="S228" s="176"/>
-      <c r="T228" s="176"/>
+      <c r="O228" s="174"/>
+      <c r="P228" s="174"/>
+      <c r="Q228" s="174"/>
+      <c r="R228" s="174"/>
+      <c r="S228" s="174"/>
+      <c r="T228" s="174"/>
     </row>
     <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="87" t="s">
@@ -46131,12 +46156,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O229" s="176"/>
-      <c r="P229" s="176"/>
-      <c r="Q229" s="176"/>
-      <c r="R229" s="176"/>
-      <c r="S229" s="176"/>
-      <c r="T229" s="176"/>
+      <c r="O229" s="174"/>
+      <c r="P229" s="174"/>
+      <c r="Q229" s="174"/>
+      <c r="R229" s="174"/>
+      <c r="S229" s="174"/>
+      <c r="T229" s="174"/>
     </row>
     <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="92" t="s">
@@ -46194,12 +46219,12 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O230" s="176"/>
-      <c r="P230" s="176"/>
-      <c r="Q230" s="176"/>
-      <c r="R230" s="176"/>
-      <c r="S230" s="176"/>
-      <c r="T230" s="176"/>
+      <c r="O230" s="174"/>
+      <c r="P230" s="174"/>
+      <c r="Q230" s="174"/>
+      <c r="R230" s="174"/>
+      <c r="S230" s="174"/>
+      <c r="T230" s="174"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="148" t="s">
@@ -49062,6 +49087,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="O267:T277"/>
+    <mergeCell ref="O279:T289"/>
+    <mergeCell ref="O231:T241"/>
+    <mergeCell ref="O243:T253"/>
+    <mergeCell ref="O172:T182"/>
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O255:T265"/>
     <mergeCell ref="O291:T301"/>
     <mergeCell ref="O136:T146"/>
     <mergeCell ref="O4:T14"/>
@@ -49078,15 +49112,6 @@
     <mergeCell ref="O220:T230"/>
     <mergeCell ref="O148:T158"/>
     <mergeCell ref="O160:T170"/>
-    <mergeCell ref="O267:T277"/>
-    <mergeCell ref="O279:T289"/>
-    <mergeCell ref="O231:T241"/>
-    <mergeCell ref="O243:T253"/>
-    <mergeCell ref="O172:T182"/>
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O255:T265"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -49098,113 +49123,93 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>6.4254917636543123</v>
+        <v>6.6401399543547317</v>
       </c>
       <c r="C1" s="68">
-        <v>12.186358894852383</v>
+        <v>12.441239954906758</v>
       </c>
       <c r="D1" s="68">
-        <v>4.8625828565009721</v>
+        <v>5.0088199160595384</v>
       </c>
       <c r="E1" s="68">
-        <v>8.4778366084091576</v>
+        <v>8.4093341708834384</v>
       </c>
       <c r="F1" s="68">
-        <v>13.210281381666467</v>
+        <v>12.96497892429462</v>
       </c>
       <c r="G1" s="68">
-        <v>6.7409322493070629</v>
+        <v>6.6223620380102171</v>
       </c>
       <c r="H1" s="68">
-        <v>12.34382548094811</v>
+        <v>7.751901792309428</v>
       </c>
       <c r="I1" s="68">
-        <v>17.299538003118183</v>
+        <v>10.05273904073211</v>
       </c>
       <c r="J1" s="68">
-        <v>7.5805075588873647</v>
+        <v>5.3382070206255188</v>
       </c>
       <c r="K1" s="84">
-        <v>3132</v>
+        <v>2597</v>
       </c>
       <c r="L1" s="84">
-        <v>12835</v>
+        <v>12695</v>
       </c>
       <c r="M1" s="84">
-        <v>535</v>
+        <v>441</v>
       </c>
       <c r="N1" s="160">
         <f>K1/L1</f>
-        <v>0.24402025710946632</v>
-      </c>
-      <c r="O1" s="64">
+        <v>0.20456872784560851</v>
+      </c>
+      <c r="O1" s="160">
         <f>M1/K1</f>
-        <v>0.17081736909323117</v>
+        <v>0.16981132075471697</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="68">
-        <v>6.332690891600941</v>
-      </c>
-      <c r="C2" s="68">
-        <v>12.050166282902671</v>
-      </c>
-      <c r="D2" s="68">
-        <v>4.7462314522298978</v>
-      </c>
-      <c r="E2" s="68">
-        <v>8.2740111961699707</v>
-      </c>
-      <c r="F2" s="68">
-        <v>12.830618875828915</v>
-      </c>
-      <c r="G2" s="68">
-        <v>6.505147625856404</v>
-      </c>
-      <c r="H2" s="68">
-        <v>13.358826478185811</v>
-      </c>
-      <c r="I2" s="68">
-        <v>18.946172337502823</v>
-      </c>
-      <c r="J2" s="68">
-        <v>7.5843721794790193</v>
-      </c>
-      <c r="K2" s="84">
-        <v>3947</v>
-      </c>
-      <c r="L2" s="84">
-        <v>17367</v>
-      </c>
-      <c r="M2" s="84">
-        <v>710</v>
-      </c>
-      <c r="N2" s="86">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="86" t="e">
         <f>K2/L2</f>
-        <v>0.22727010997869523</v>
-      </c>
-      <c r="O2" s="64">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" s="160" t="e">
         <f>M2/K2</f>
-        <v>0.179883455789207</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
@@ -49221,6 +49226,7 @@
       <c r="L3" s="84"/>
       <c r="M3" s="84"/>
       <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="68"/>
@@ -49236,6 +49242,7 @@
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
       <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="68"/>
@@ -49251,6 +49258,7 @@
       <c r="L5" s="84"/>
       <c r="M5" s="84"/>
       <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="68"/>
@@ -49266,6 +49274,7 @@
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
       <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="68"/>
@@ -49281,6 +49290,7 @@
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
       <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="68"/>
@@ -49296,6 +49306,7 @@
       <c r="L8" s="84"/>
       <c r="M8" s="84"/>
       <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="68"/>
@@ -49311,6 +49322,7 @@
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
       <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="68"/>
@@ -49326,6 +49338,7 @@
       <c r="L10" s="84"/>
       <c r="M10" s="84"/>
       <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="66"/>
@@ -49354,59 +49367,59 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="67">
         <f t="shared" ref="B13:L13" si="0">AVERAGE(B1:B10)</f>
-        <v>6.3790913276276271</v>
+        <v>6.6401399543547317</v>
       </c>
       <c r="C13" s="67">
         <f t="shared" si="0"/>
-        <v>12.118262588877528</v>
+        <v>12.441239954906758</v>
       </c>
       <c r="D13" s="67">
         <f t="shared" si="0"/>
-        <v>4.8044071543654354</v>
+        <v>5.0088199160595384</v>
       </c>
       <c r="E13" s="67">
         <f t="shared" si="0"/>
-        <v>8.3759239022895642</v>
+        <v>8.4093341708834384</v>
       </c>
       <c r="F13" s="67">
         <f t="shared" si="0"/>
-        <v>13.02045012874769</v>
+        <v>12.96497892429462</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>6.6230399375817335</v>
+        <v>6.6223620380102171</v>
       </c>
       <c r="H13" s="67">
         <f t="shared" si="0"/>
-        <v>12.851325979566962</v>
+        <v>7.751901792309428</v>
       </c>
       <c r="I13" s="67">
         <f t="shared" si="0"/>
-        <v>18.122855170310501</v>
+        <v>10.05273904073211</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" si="0"/>
-        <v>7.582439869183192</v>
+        <v>5.3382070206255188</v>
       </c>
       <c r="K13" s="67">
         <f t="shared" si="0"/>
-        <v>3539.5</v>
+        <v>2597</v>
       </c>
       <c r="L13" s="67">
         <f t="shared" si="0"/>
-        <v>15101</v>
+        <v>12695</v>
       </c>
       <c r="M13" s="67">
         <f>AVERAGE(M1:M10)</f>
-        <v>622.5</v>
-      </c>
-      <c r="N13" s="85">
+        <v>441</v>
+      </c>
+      <c r="N13" s="85" t="e">
         <f>AVERAGE(N2:N10)</f>
-        <v>0.22727010997869523</v>
-      </c>
-      <c r="O13" s="85">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="85" t="e">
         <f>AVERAGE(O2:O10)</f>
-        <v>0.179883455789207</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -49449,55 +49462,62 @@
       <c r="N16" s="83" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="76">
         <f>B13-B18</f>
-        <v>-1.8309086723723738</v>
+        <v>-1.5698600456452692</v>
       </c>
       <c r="C17" s="76">
         <f t="shared" ref="C17:K17" si="1">C13-C18</f>
-        <v>-3.0217374111224728</v>
+        <v>-2.698760045093243</v>
       </c>
       <c r="D17" s="76">
         <f t="shared" si="1"/>
-        <v>-1.0155928456345649</v>
+        <v>-0.81118008394046193</v>
       </c>
       <c r="E17" s="76">
         <f t="shared" si="1"/>
-        <v>-2.034076097710436</v>
+        <v>-2.0006658291165618</v>
       </c>
       <c r="F17" s="76">
         <f t="shared" si="1"/>
-        <v>-3.3395498712523093</v>
+        <v>-3.3950210757053796</v>
       </c>
       <c r="G17" s="76">
         <f t="shared" si="1"/>
-        <v>-9.6960062418266268E-2</v>
+        <v>-9.7637961989782696E-2</v>
       </c>
       <c r="H17" s="76">
         <f t="shared" si="1"/>
-        <v>8.391325979566961</v>
+        <v>3.291901792309428</v>
       </c>
       <c r="I17" s="76">
         <f t="shared" si="1"/>
-        <v>13.302855170310501</v>
+        <v>5.2327390407321097</v>
       </c>
       <c r="J17" s="76">
         <f t="shared" si="1"/>
-        <v>3.4924398691831922</v>
+        <v>1.2482070206255189</v>
       </c>
       <c r="K17" s="91">
         <f t="shared" si="1"/>
-        <v>2076.5</v>
+        <v>1134</v>
       </c>
       <c r="L17" s="75"/>
-      <c r="N17" s="76">
-        <f t="shared" ref="N17" si="2">N13-N18</f>
-        <v>6.7270109978695231E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="76" t="e">
+        <f t="shared" ref="N17:O17" si="2">N13-N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="70">
         <v>8.2100000000000009</v>
       </c>
@@ -49530,56 +49550,63 @@
       </c>
       <c r="M18" s="74">
         <f>M13/K13</f>
-        <v>0.17587229834722418</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="N18" s="74">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="71">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="73">
         <f t="shared" ref="B19:D19" si="3">B17/B18</f>
-        <v>-0.22300958250577022</v>
+        <v>-0.19121316024911925</v>
       </c>
       <c r="C19" s="73">
         <f t="shared" si="3"/>
-        <v>-0.19958635476370362</v>
+        <v>-0.17825363573931591</v>
       </c>
       <c r="D19" s="73">
         <f t="shared" si="3"/>
-        <v>-0.17450048894064688</v>
+        <v>-0.139378021295612</v>
       </c>
       <c r="E19" s="73">
         <f>E17/E18</f>
-        <v>-0.19539635904999383</v>
+        <v>-0.19218691922349296</v>
       </c>
       <c r="F19" s="73">
         <f t="shared" ref="F19:K19" si="4">F17/F18</f>
-        <v>-0.20412896523547122</v>
+        <v>-0.20751962565436305</v>
       </c>
       <c r="G19" s="73">
         <f t="shared" si="4"/>
-        <v>-1.4428580717003909E-2</v>
+        <v>-1.452945862943195E-2</v>
       </c>
       <c r="H19" s="73">
         <f t="shared" si="4"/>
-        <v>1.8814632241181528</v>
+        <v>0.73809457226668795</v>
       </c>
       <c r="I19" s="73">
         <f t="shared" si="4"/>
-        <v>2.7599284585706432</v>
+        <v>1.0856305063759564</v>
       </c>
       <c r="J19" s="73">
         <f t="shared" si="4"/>
-        <v>0.85389727852889785</v>
+        <v>0.30518509061748628</v>
       </c>
       <c r="K19" s="73">
         <f t="shared" si="4"/>
-        <v>1.4193438140806562</v>
-      </c>
-      <c r="N19" s="73">
-        <f t="shared" ref="N19" si="5">N17/N18</f>
-        <v>0.42043818736684518</v>
+        <v>0.77511961722488043</v>
+      </c>
+      <c r="N19" s="73" t="e">
+        <f t="shared" ref="N19:O19" si="5">N17/N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="73" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -49592,9 +49619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -49610,67 +49635,47 @@
   <sheetData>
     <row r="1" spans="2:11" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>7.6342235488127725</v>
+        <v>7.769394034644562</v>
       </c>
       <c r="C1" s="68">
-        <v>13.383546355092395</v>
+        <v>13.499374774524455</v>
       </c>
       <c r="D1" s="68">
-        <v>6.0744465882624574</v>
+        <v>6.1580733542353512</v>
       </c>
       <c r="E1" s="68">
-        <v>53.372266117027365</v>
+        <v>52.191827858532683</v>
       </c>
       <c r="F1" s="68">
-        <v>64.838561941836502</v>
+        <v>64.271000228885327</v>
       </c>
       <c r="G1" s="68">
-        <v>66.069868995633186</v>
+        <v>65.175953079178882</v>
       </c>
       <c r="H1" s="68">
-        <v>74.647067384660176</v>
+        <v>75.208913649025064</v>
       </c>
       <c r="I1" s="68">
-        <v>0.91566822408289772</v>
+        <v>0.92724732184443415</v>
       </c>
       <c r="J1" s="68">
-        <v>0.25350418651986861</v>
+        <v>0.26334420121099206</v>
       </c>
       <c r="K1" s="68">
-        <v>5.6205763982051161E-2</v>
+        <v>4.9231485794131349E-2</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="68">
-        <v>7.4917771787957808</v>
-      </c>
-      <c r="C2" s="68">
-        <v>13.170069273549952</v>
-      </c>
-      <c r="D2" s="68">
-        <v>5.9161901448868663</v>
-      </c>
-      <c r="E2" s="68">
-        <v>53.921485140083462</v>
-      </c>
-      <c r="F2" s="68">
-        <v>65.097070844686641</v>
-      </c>
-      <c r="G2" s="68">
-        <v>67.040139236375509</v>
-      </c>
-      <c r="H2" s="68">
-        <v>75.09245159886882</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0.9191794449590065</v>
-      </c>
-      <c r="J2" s="68">
-        <v>0.26112311756028955</v>
-      </c>
-      <c r="K2" s="68">
-        <v>5.4543583410517647E-2</v>
-      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="68"/>
@@ -49795,43 +49800,43 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="67">
         <f>AVERAGE(B1:B10)</f>
-        <v>7.5630003638042762</v>
+        <v>7.769394034644562</v>
       </c>
       <c r="C13" s="67">
         <f t="shared" ref="C13:J13" si="0">AVERAGE(C1:C10)</f>
-        <v>13.276807814321174</v>
+        <v>13.499374774524455</v>
       </c>
       <c r="D13" s="67">
         <f t="shared" si="0"/>
-        <v>5.9953183665746614</v>
+        <v>6.1580733542353512</v>
       </c>
       <c r="E13" s="67">
         <f t="shared" si="0"/>
-        <v>53.646875628555414</v>
+        <v>52.191827858532683</v>
       </c>
       <c r="F13" s="67">
         <f t="shared" si="0"/>
-        <v>64.967816393261572</v>
+        <v>64.271000228885327</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>66.555004116004341</v>
+        <v>65.175953079178882</v>
       </c>
       <c r="H13" s="67">
         <f t="shared" si="0"/>
-        <v>74.869759491764498</v>
+        <v>75.208913649025064</v>
       </c>
       <c r="I13" s="67">
         <f t="shared" si="0"/>
-        <v>0.91742383452095211</v>
+        <v>0.92724732184443415</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" si="0"/>
-        <v>0.25731365204007906</v>
+        <v>0.26334420121099206</v>
       </c>
       <c r="K13" s="67">
         <f>AVERAGE(K1:K10)</f>
-        <v>5.5374673696284404E-2</v>
+        <v>4.9231485794131349E-2</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -49951,10 +49956,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49967,19 +49972,26 @@
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="170" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="171"/>
+      <c r="D1" s="169"/>
       <c r="E1" s="172" t="s">
         <v>72</v>
       </c>
@@ -49987,110 +49999,116 @@
       <c r="G1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="196" t="s">
+      <c r="J1" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="195" t="s">
+      <c r="K1" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="196" t="s">
+      <c r="N1" s="157"/>
+      <c r="O1" s="198" t="s">
         <v>251</v>
       </c>
-      <c r="P1" s="195" t="s">
+      <c r="P1" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="196" t="s">
+      <c r="S1" s="157"/>
+      <c r="T1" s="198" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="157" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="157"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="38">
-        <v>0.16666277267665044</v>
+        <v>0.16666274887755306</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="36">
-        <v>0.27852916886496248</v>
+        <v>0.29237000613997322</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="37">
-        <v>458.05341292876636</v>
+        <v>466.16364207867372</v>
       </c>
       <c r="G2">
         <f>F2/1440</f>
-        <v>0.31809264786719887</v>
-      </c>
-      <c r="J2" t="s">
+        <v>0.32372475144352342</v>
+      </c>
+      <c r="J2" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="K2">
-        <v>1532.8358153622432</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="195">
+        <v>1703.504680983373</v>
+      </c>
+      <c r="L2" s="195">
         <f>K2/60</f>
-        <v>25.547263589370722</v>
-      </c>
-      <c r="M2">
+        <v>28.391744683056217</v>
+      </c>
+      <c r="M2" s="195">
         <f>L2/24</f>
-        <v>1.0644693162237802</v>
-      </c>
-      <c r="O2" t="s">
+        <v>1.182989361794009</v>
+      </c>
+      <c r="N2" s="195"/>
+      <c r="O2" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="P2">
-        <v>59970.105301928706</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" s="195">
+        <v>77405.703289607743</v>
+      </c>
+      <c r="Q2" s="195">
         <f>P2/60</f>
-        <v>999.50175503214507</v>
-      </c>
-      <c r="R2">
+        <v>1290.0950548267958</v>
+      </c>
+      <c r="R2" s="195">
         <f>Q2/24</f>
-        <v>41.645906459672709</v>
-      </c>
-      <c r="T2" t="s">
+        <v>53.753960617783157</v>
+      </c>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="U2">
-        <v>34505.316369522443</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="195">
+        <v>50817.416782690809</v>
+      </c>
+      <c r="V2" s="195">
         <f>U2/60</f>
-        <v>575.08860615870742</v>
-      </c>
-      <c r="W2">
+        <v>846.95694637818019</v>
+      </c>
+      <c r="W2" s="195">
         <f>V2/24</f>
-        <v>23.962025256612808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>35.289872765757508</v>
+      </c>
+      <c r="X2" s="157"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>56</v>
       </c>
@@ -50101,259 +50119,265 @@
         <v>2</v>
       </c>
       <c r="D3" s="36">
-        <v>0.28063541066244457</v>
+        <v>0.29411053193775916</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="37">
-        <v>53.347831063294038</v>
-      </c>
-      <c r="J3" t="s">
+        <v>52.167944171147461</v>
+      </c>
+      <c r="J3" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="K3">
-        <v>27237.247606313962</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="195">
+        <v>27201.426568441981</v>
+      </c>
+      <c r="L3" s="195">
         <f>K3/60</f>
-        <v>453.95412677189938</v>
-      </c>
-      <c r="M3">
+        <v>453.357109474033</v>
+      </c>
+      <c r="M3" s="195">
         <f>L3/24</f>
-        <v>18.914755282162474</v>
-      </c>
-      <c r="O3" t="s">
+        <v>18.889879561418041</v>
+      </c>
+      <c r="N3" s="195"/>
+      <c r="O3" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="195">
+        <v>248610.27610609334</v>
+      </c>
+      <c r="Q3" s="195">
         <f>P3/60</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
+        <v>4143.5046017682225</v>
+      </c>
+      <c r="R3" s="195">
         <f>Q3/24</f>
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
+        <v>172.64602507367593</v>
+      </c>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="U3" s="195">
+        <v>0</v>
+      </c>
+      <c r="V3" s="195">
         <f>U3/60</f>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="195">
         <f>V3/24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="157"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="38">
-        <v>17.990654205607473</v>
+        <v>18.295638126009695</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="36">
-        <v>7.2134732679635383E-2</v>
+        <v>7.3376207389914724E-2</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="37">
-        <v>64.808880750743882</v>
-      </c>
-      <c r="J4" t="s">
+        <v>64.241592312971861</v>
+      </c>
+      <c r="J4" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="195">
+        <v>783.34687369431049</v>
+      </c>
+      <c r="L4" s="195">
         <f t="shared" ref="L4:L14" si="0">K4/60</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
+        <v>13.055781228238509</v>
+      </c>
+      <c r="M4" s="195">
         <f t="shared" ref="M4:M14" si="1">L4/24</f>
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+        <v>0.54399088450993782</v>
+      </c>
+      <c r="N4" s="195"/>
+      <c r="O4" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q14" si="2">P4/60</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R14" si="3">Q4/24</f>
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="P4" s="195">
+        <v>97210.141250079585</v>
+      </c>
+      <c r="Q4" s="195">
+        <f t="shared" ref="Q4:Q15" si="2">P4/60</f>
+        <v>1620.1690208346597</v>
+      </c>
+      <c r="R4" s="195">
+        <f t="shared" ref="R4:R15" si="3">Q4/24</f>
+        <v>67.507042534777483</v>
+      </c>
+      <c r="S4" s="195"/>
+      <c r="T4" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="U4" s="195">
+        <v>0</v>
+      </c>
+      <c r="V4" s="195">
         <f t="shared" ref="V4:V14" si="4">U4/60</f>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="195">
         <f t="shared" ref="W4:W14" si="5">V4/24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="157"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="38">
-        <v>77.383417134970344</v>
+        <v>78.836842743402286</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="36">
-        <v>57.456721171847654</v>
+        <v>62.050547564762141</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="37">
-        <v>7.4194900454069126</v>
-      </c>
-      <c r="J5" t="s">
+        <v>7.4384426517011395</v>
+      </c>
+      <c r="J5" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="195">
+        <v>3570.7656731991397</v>
+      </c>
+      <c r="L5" s="195">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
+        <v>59.512761219985663</v>
+      </c>
+      <c r="M5" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+        <v>2.4796983841660691</v>
+      </c>
+      <c r="N5" s="195"/>
+      <c r="O5" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="195">
+        <v>141859.20044592168</v>
+      </c>
+      <c r="Q5" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
+        <v>2364.320007432028</v>
+      </c>
+      <c r="R5" s="195">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+        <v>98.513333643001161</v>
+      </c>
+      <c r="S5" s="195"/>
+      <c r="T5" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="195">
+        <v>0</v>
+      </c>
+      <c r="V5" s="195">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="195">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="157"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="38">
-        <v>31.069236753392676</v>
+        <v>32.65943823102532</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="36">
-        <v>0.17868879260511619</v>
+        <v>0.17831320959832164</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="37">
-        <v>241.5288359040255</v>
+        <v>243.51699145186248</v>
       </c>
       <c r="G6">
         <f>F6/1440</f>
-        <v>0.16772835826668436</v>
-      </c>
-      <c r="J6" t="s">
+        <v>0.16910902184157117</v>
+      </c>
+      <c r="J6" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="195">
+        <v>6426.0586372872604</v>
+      </c>
+      <c r="L6" s="195">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
+        <v>107.100977288121</v>
+      </c>
+      <c r="M6" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+        <v>4.4625407203383753</v>
+      </c>
+      <c r="N6" s="195"/>
+      <c r="O6" s="201" t="s">
         <v>255</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="P6" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U6" s="195">
+        <v>0</v>
+      </c>
+      <c r="V6" s="195">
+        <f t="shared" ref="V6" si="6">U6/60</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="195">
+        <f t="shared" ref="W6" si="7">V6/24</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="157"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="38">
-        <v>56.395057224932465</v>
+        <v>49.50729424717855</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="36">
-        <v>1.5201790608521532E-3</v>
+        <v>0.52950430438386942</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>77</v>
@@ -50365,419 +50389,447 @@
         <f>F7/1440</f>
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="199" t="s">
         <v>255</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="K7" s="200">
+        <v>0</v>
+      </c>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="P7" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="201" t="s">
         <v>255</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U7" s="200">
+        <v>0</v>
+      </c>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="157"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="36">
-        <v>3.2282175519705224E-4</v>
+        <v>8.2784139805915882E-2</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="37">
-        <v>4.5008884138983387E-5</v>
+        <v>0.4308708608801548</v>
       </c>
       <c r="G8">
         <f>F8/1440</f>
-        <v>3.1256169540960685E-8</v>
-      </c>
-      <c r="J8" t="s">
+        <v>2.992158756112186E-4</v>
+      </c>
+      <c r="J8" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="K8" s="200">
+        <v>0</v>
+      </c>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="P8" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U8" s="200">
+        <v>0</v>
+      </c>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="157"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C9" s="43" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="47">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="200">
+        <v>0</v>
+      </c>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="195"/>
+      <c r="O9" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="201" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="200">
+        <v>0</v>
+      </c>
+      <c r="V9" s="200"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="157"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J10" s="199" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="200">
+        <v>0</v>
+      </c>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="196" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="195">
+        <v>86819.43679929577</v>
+      </c>
+      <c r="Q10" s="195">
+        <f t="shared" si="2"/>
+        <v>1446.9906133215961</v>
+      </c>
+      <c r="R10" s="195">
+        <f t="shared" si="3"/>
+        <v>60.291275555066505</v>
+      </c>
+      <c r="S10" s="195"/>
+      <c r="T10" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" s="200">
+        <v>0</v>
+      </c>
+      <c r="V10" s="200"/>
+      <c r="W10" s="200"/>
+      <c r="X10" s="157"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J11" s="197" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="195">
+        <v>2081.9304235130821</v>
+      </c>
+      <c r="L11" s="195">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
+        <v>34.698840391884701</v>
+      </c>
+      <c r="M11" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+        <v>1.4457850163285293</v>
+      </c>
+      <c r="N11" s="195"/>
+      <c r="O11" s="201" t="s">
+        <v>256</v>
+      </c>
+      <c r="P11" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="R11" s="200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>114</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="S11" s="195"/>
+      <c r="T11" s="196" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="195">
+        <v>0</v>
+      </c>
+      <c r="V11" s="195">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="W11" s="195">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="X11" s="157"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C12" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="169"/>
+      <c r="J12" s="197" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="195">
+        <v>2676.0742434498975</v>
+      </c>
+      <c r="L12" s="195">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
+        <v>44.601237390831628</v>
+      </c>
+      <c r="M12" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+        <v>1.8583848912846512</v>
+      </c>
+      <c r="N12" s="195"/>
+      <c r="O12" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="195">
+        <v>135325.24501570934</v>
+      </c>
+      <c r="Q12" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
+        <v>2255.4207502618224</v>
+      </c>
+      <c r="R12" s="195">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>115</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
+        <v>93.975864594242594</v>
+      </c>
+      <c r="S12" s="195"/>
+      <c r="T12" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="195">
+        <v>0</v>
+      </c>
+      <c r="V12" s="195">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="W12" s="195">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="171"/>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" s="157"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="36">
-        <v>7.1820209650610037E-5</v>
-      </c>
-      <c r="J13" t="s">
+        <v>0.20733255317940519</v>
+      </c>
+      <c r="J13" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="195">
+        <v>1864.5229114643789</v>
+      </c>
+      <c r="L13" s="195">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
+        <v>31.07538185773965</v>
+      </c>
+      <c r="M13" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
+        <v>1.2948075774058188</v>
+      </c>
+      <c r="N13" s="195"/>
+      <c r="O13" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="P13" s="195">
+        <v>64208.521761551383</v>
+      </c>
+      <c r="Q13" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
+        <v>1070.1420293591898</v>
+      </c>
+      <c r="R13" s="195">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
+        <v>44.589251223299577</v>
+      </c>
+      <c r="S13" s="195"/>
+      <c r="T13" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
+      <c r="U13" s="195">
+        <v>0</v>
+      </c>
+      <c r="V13" s="195">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="195">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" s="157"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C14" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="36">
-        <v>3.6489028781554596E-4</v>
-      </c>
-      <c r="J14" t="s">
+        <v>0.35885882327092938</v>
+      </c>
+      <c r="J14" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="195">
+        <v>0</v>
+      </c>
+      <c r="L14" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" s="195"/>
+      <c r="O14" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="P14" s="195">
+        <v>53287.687153210769</v>
+      </c>
+      <c r="Q14" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
+        <v>888.12811922017943</v>
+      </c>
+      <c r="R14" s="195">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>37.005338300840812</v>
+      </c>
+      <c r="S14" s="195"/>
+      <c r="T14" s="196" t="s">
+        <v>258</v>
+      </c>
+      <c r="U14" s="157">
+        <v>5856</v>
+      </c>
+      <c r="V14" s="195"/>
+      <c r="W14" s="195"/>
+      <c r="X14" s="157"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C15" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J15" s="197" t="s">
+        <v>258</v>
+      </c>
+      <c r="K15" s="157">
+        <v>309</v>
+      </c>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="197" t="s">
+        <v>258</v>
+      </c>
+      <c r="P15" s="157">
+        <v>13466</v>
+      </c>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="157"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="157"/>
+      <c r="X15" s="157"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="36">
-        <v>0.31622182659021875</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+        <v>48.008652002045608</v>
+      </c>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C17" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="195">
+        <f>SUM(M2:M14)</f>
+        <v>32.158076397245431</v>
+      </c>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="195">
+        <f>SUM(R2:R14)</f>
+        <v>628.28209154268711</v>
+      </c>
+      <c r="S17" s="157"/>
+      <c r="T17" s="157"/>
+      <c r="U17" s="157"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="195">
+        <f>SUM(W2:W14)</f>
+        <v>35.289872765757508</v>
+      </c>
+      <c r="X17" s="157"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="36">
-        <v>1.9804785724537348E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+        <v>0.14936740970097012</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C19" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="36">
-        <v>2.8071838692906533E-3</v>
+        <v>7.1901210991828182E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
+++ b/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5976" windowHeight="9324" tabRatio="843" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5976" windowHeight="9324" tabRatio="843" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="34" state="hidden" r:id="rId1"/>
@@ -2262,16 +2262,16 @@
     <xf numFmtId="2" fontId="12" fillId="22" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,14 +2280,14 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2295,7 +2295,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,14 +2310,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2750,14 +2750,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="196"/>
-      <c r="W1" s="193" t="s">
+      <c r="V1" s="194"/>
+      <c r="W1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="194"/>
+      <c r="X1" s="196"/>
       <c r="Y1" s="197" t="s">
         <v>72</v>
       </c>
@@ -2765,10 +2765,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="193" t="s">
+      <c r="AB1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="194"/>
+      <c r="AC1" s="196"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -3425,14 +3425,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="196"/>
-      <c r="W10" s="193" t="s">
+      <c r="V10" s="194"/>
+      <c r="W10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="194"/>
+      <c r="X10" s="196"/>
       <c r="Y10" s="197" t="s">
         <v>72</v>
       </c>
@@ -3440,10 +3440,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="193" t="s">
+      <c r="AB10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="194"/>
+      <c r="AC10" s="196"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -4032,14 +4032,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="195" t="s">
+      <c r="U18" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="196"/>
-      <c r="W18" s="193" t="s">
+      <c r="V18" s="194"/>
+      <c r="W18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="194"/>
+      <c r="X18" s="196"/>
       <c r="Y18" s="197" t="s">
         <v>72</v>
       </c>
@@ -4047,10 +4047,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="193" t="s">
+      <c r="AB18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="194"/>
+      <c r="AC18" s="196"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -4639,14 +4639,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="195" t="s">
+      <c r="U26" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="196"/>
-      <c r="W26" s="193" t="s">
+      <c r="V26" s="194"/>
+      <c r="W26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="194"/>
+      <c r="X26" s="196"/>
       <c r="Y26" s="197" t="s">
         <v>72</v>
       </c>
@@ -4654,10 +4654,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="193" t="s">
+      <c r="AB26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="194"/>
+      <c r="AC26" s="196"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -5246,14 +5246,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="195" t="s">
+      <c r="U34" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="196"/>
-      <c r="W34" s="193" t="s">
+      <c r="V34" s="194"/>
+      <c r="W34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="194"/>
+      <c r="X34" s="196"/>
       <c r="Y34" s="197" t="s">
         <v>72</v>
       </c>
@@ -5261,10 +5261,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="193" t="s">
+      <c r="AB34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="194"/>
+      <c r="AC34" s="196"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -5853,14 +5853,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="195" t="s">
+      <c r="U42" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="196"/>
-      <c r="W42" s="193" t="s">
+      <c r="V42" s="194"/>
+      <c r="W42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="194"/>
+      <c r="X42" s="196"/>
       <c r="Y42" s="197" t="s">
         <v>72</v>
       </c>
@@ -5868,10 +5868,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="193" t="s">
+      <c r="AB42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="194"/>
+      <c r="AC42" s="196"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -6460,14 +6460,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="195" t="s">
+      <c r="U50" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="196"/>
-      <c r="W50" s="193" t="s">
+      <c r="V50" s="194"/>
+      <c r="W50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="194"/>
+      <c r="X50" s="196"/>
       <c r="Y50" s="197" t="s">
         <v>72</v>
       </c>
@@ -6475,10 +6475,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="193" t="s">
+      <c r="AB50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="194"/>
+      <c r="AC50" s="196"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -7067,14 +7067,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="195" t="s">
+      <c r="U58" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="196"/>
-      <c r="W58" s="193" t="s">
+      <c r="V58" s="194"/>
+      <c r="W58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="194"/>
+      <c r="X58" s="196"/>
       <c r="Y58" s="197" t="s">
         <v>72</v>
       </c>
@@ -7082,10 +7082,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="193" t="s">
+      <c r="AB58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="194"/>
+      <c r="AC58" s="196"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -7615,6 +7615,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -7623,30 +7647,6 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9829,8 +9829,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10236,7 +10236,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -11482,16 +11482,16 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="193" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="219"/>
-      <c r="D1" s="196"/>
-      <c r="J1" s="195" t="s">
+      <c r="D1" s="194"/>
+      <c r="J1" s="193" t="s">
         <v>152</v>
       </c>
       <c r="K1" s="219"/>
-      <c r="L1" s="196"/>
+      <c r="L1" s="194"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -11797,11 +11797,11 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="193" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="219"/>
-      <c r="D1" s="196"/>
+      <c r="D1" s="194"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -12036,14 +12036,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="196"/>
-      <c r="W1" s="193" t="s">
+      <c r="V1" s="194"/>
+      <c r="W1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="194"/>
+      <c r="X1" s="196"/>
       <c r="Y1" s="197" t="s">
         <v>72</v>
       </c>
@@ -12051,10 +12051,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="193" t="s">
+      <c r="AB1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="194"/>
+      <c r="AC1" s="196"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -12559,14 +12559,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="196"/>
-      <c r="W10" s="193" t="s">
+      <c r="V10" s="194"/>
+      <c r="W10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="194"/>
+      <c r="X10" s="196"/>
       <c r="Y10" s="197" t="s">
         <v>72</v>
       </c>
@@ -12574,10 +12574,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="193" t="s">
+      <c r="AB10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="194"/>
+      <c r="AC10" s="196"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -13166,14 +13166,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="195" t="s">
+      <c r="U18" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="196"/>
-      <c r="W18" s="193" t="s">
+      <c r="V18" s="194"/>
+      <c r="W18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="194"/>
+      <c r="X18" s="196"/>
       <c r="Y18" s="197" t="s">
         <v>72</v>
       </c>
@@ -13181,10 +13181,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="193" t="s">
+      <c r="AB18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="194"/>
+      <c r="AC18" s="196"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -13773,14 +13773,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="195" t="s">
+      <c r="U26" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="196"/>
-      <c r="W26" s="193" t="s">
+      <c r="V26" s="194"/>
+      <c r="W26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="194"/>
+      <c r="X26" s="196"/>
       <c r="Y26" s="197" t="s">
         <v>72</v>
       </c>
@@ -13788,10 +13788,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="193" t="s">
+      <c r="AB26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="194"/>
+      <c r="AC26" s="196"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -14380,14 +14380,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="195" t="s">
+      <c r="U34" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="196"/>
-      <c r="W34" s="193" t="s">
+      <c r="V34" s="194"/>
+      <c r="W34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="194"/>
+      <c r="X34" s="196"/>
       <c r="Y34" s="197" t="s">
         <v>72</v>
       </c>
@@ -14395,10 +14395,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="193" t="s">
+      <c r="AB34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="194"/>
+      <c r="AC34" s="196"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -14987,14 +14987,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="195" t="s">
+      <c r="U42" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="196"/>
-      <c r="W42" s="193" t="s">
+      <c r="V42" s="194"/>
+      <c r="W42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="194"/>
+      <c r="X42" s="196"/>
       <c r="Y42" s="197" t="s">
         <v>72</v>
       </c>
@@ -15002,10 +15002,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="193" t="s">
+      <c r="AB42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="194"/>
+      <c r="AC42" s="196"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -15594,14 +15594,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="195" t="s">
+      <c r="U50" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="196"/>
-      <c r="W50" s="193" t="s">
+      <c r="V50" s="194"/>
+      <c r="W50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="194"/>
+      <c r="X50" s="196"/>
       <c r="Y50" s="197" t="s">
         <v>72</v>
       </c>
@@ -15609,10 +15609,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="193" t="s">
+      <c r="AB50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="194"/>
+      <c r="AC50" s="196"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -16201,14 +16201,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="195" t="s">
+      <c r="U58" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="196"/>
-      <c r="W58" s="193" t="s">
+      <c r="V58" s="194"/>
+      <c r="W58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="194"/>
+      <c r="X58" s="196"/>
       <c r="Y58" s="197" t="s">
         <v>72</v>
       </c>
@@ -16216,10 +16216,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="193" t="s">
+      <c r="AB58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="194"/>
+      <c r="AC58" s="196"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -16749,6 +16749,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -16757,30 +16781,6 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="AB58:AC58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16795,7 +16795,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21499,14 +21499,14 @@
         <f>K4/L4</f>
         <v>0.17075625048378357</v>
       </c>
-      <c r="O4" s="200" t="s">
+      <c r="O4" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
@@ -21552,12 +21552,12 @@
         <f t="shared" ref="N5:N12" si="0">K5/L5</f>
         <v>0.17174261506755209</v>
       </c>
-      <c r="O5" s="200"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
@@ -21603,12 +21603,12 @@
         <f t="shared" si="0"/>
         <v>0.16784888203546647</v>
       </c>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
@@ -21654,12 +21654,12 @@
         <f t="shared" si="0"/>
         <v>0.16837908296273577</v>
       </c>
-      <c r="O7" s="200"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="201"/>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
@@ -21705,12 +21705,12 @@
         <f t="shared" si="0"/>
         <v>0.16951115916286971</v>
       </c>
-      <c r="O8" s="200"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="201"/>
-      <c r="R8" s="201"/>
-      <c r="S8" s="201"/>
-      <c r="T8" s="201"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="86" t="s">
@@ -21756,12 +21756,12 @@
         <f t="shared" si="0"/>
         <v>0.16543891958256599</v>
       </c>
-      <c r="O9" s="200"/>
-      <c r="P9" s="201"/>
-      <c r="Q9" s="201"/>
-      <c r="R9" s="201"/>
-      <c r="S9" s="201"/>
-      <c r="T9" s="201"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="86" t="s">
@@ -21807,12 +21807,12 @@
         <f t="shared" si="0"/>
         <v>0.16546982429335372</v>
       </c>
-      <c r="O10" s="200"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="201"/>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="200"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="200"/>
+      <c r="S10" s="200"/>
+      <c r="T10" s="200"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
@@ -21858,12 +21858,12 @@
         <f t="shared" si="0"/>
         <v>0.1601354992686119</v>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
@@ -21909,12 +21909,12 @@
         <f t="shared" si="0"/>
         <v>0.16642623946549237</v>
       </c>
-      <c r="O12" s="200"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="201"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="201"/>
-      <c r="T12" s="201"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="200"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
     </row>
     <row r="13" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
@@ -21960,12 +21960,12 @@
         <f>K13/L13</f>
         <v>0.16610118374425092</v>
       </c>
-      <c r="O13" s="200"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
@@ -22023,12 +22023,12 @@
         <f t="shared" si="1"/>
         <v>0.16718096560666823</v>
       </c>
-      <c r="O14" s="200"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201"/>
+      <c r="O14" s="199"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
     </row>
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="98"/>
@@ -22089,14 +22089,14 @@
         <f>K16/L16</f>
         <v>0.17290223248652811</v>
       </c>
-      <c r="O16" s="199" t="s">
+      <c r="O16" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="199"/>
-      <c r="T16" s="199"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="201"/>
+      <c r="T16" s="201"/>
     </row>
     <row r="17" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
@@ -22142,12 +22142,12 @@
         <f t="shared" ref="N17:N25" si="2">K17/L17</f>
         <v>0.17136942186781168</v>
       </c>
-      <c r="O17" s="199"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="199"/>
-      <c r="S17" s="199"/>
-      <c r="T17" s="199"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="201"/>
+      <c r="R17" s="201"/>
+      <c r="S17" s="201"/>
+      <c r="T17" s="201"/>
     </row>
     <row r="18" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
@@ -22193,12 +22193,12 @@
         <f t="shared" si="2"/>
         <v>0.16918012707647553</v>
       </c>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
     </row>
     <row r="19" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
@@ -22244,12 +22244,12 @@
         <f t="shared" si="2"/>
         <v>0.169391013457006</v>
       </c>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="201"/>
+      <c r="S19" s="201"/>
+      <c r="T19" s="201"/>
     </row>
     <row r="20" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
@@ -22295,12 +22295,12 @@
         <f t="shared" si="2"/>
         <v>0.17022416035498431</v>
       </c>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="201"/>
+      <c r="S20" s="201"/>
+      <c r="T20" s="201"/>
     </row>
     <row r="21" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
@@ -22346,12 +22346,12 @@
         <f t="shared" si="2"/>
         <v>0.1647551146931184</v>
       </c>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
+      <c r="S21" s="201"/>
+      <c r="T21" s="201"/>
     </row>
     <row r="22" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="86" t="s">
@@ -22397,12 +22397,12 @@
         <f t="shared" si="2"/>
         <v>0.17322039166925707</v>
       </c>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="199"/>
+      <c r="O22" s="201"/>
+      <c r="P22" s="201"/>
+      <c r="Q22" s="201"/>
+      <c r="R22" s="201"/>
+      <c r="S22" s="201"/>
+      <c r="T22" s="201"/>
     </row>
     <row r="23" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
@@ -22448,12 +22448,12 @@
         <f t="shared" si="2"/>
         <v>0.17410953657602452</v>
       </c>
-      <c r="O23" s="199"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="199"/>
-      <c r="S23" s="199"/>
-      <c r="T23" s="199"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+      <c r="T23" s="201"/>
     </row>
     <row r="24" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="86" t="s">
@@ -22499,12 +22499,12 @@
         <f t="shared" si="2"/>
         <v>0.16644983546338105</v>
       </c>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
     </row>
     <row r="25" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -22550,12 +22550,12 @@
         <f t="shared" si="2"/>
         <v>0.16981860285604014</v>
       </c>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
@@ -22613,12 +22613,12 @@
         <f t="shared" ref="N26" si="14">AVERAGE(N16:N25)</f>
         <v>0.17014204365006269</v>
       </c>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+      <c r="S26" s="201"/>
+      <c r="T26" s="201"/>
     </row>
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="98"/>
@@ -22679,14 +22679,14 @@
         <f>K28/L28</f>
         <v>0.34557926829268293</v>
       </c>
-      <c r="O28" s="199" t="s">
+      <c r="O28" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="199"/>
-      <c r="T28" s="199"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+      <c r="T28" s="201"/>
     </row>
     <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
@@ -22732,12 +22732,12 @@
         <f t="shared" ref="N29:N36" si="15">K29/L29</f>
         <v>0.3282684149633629</v>
       </c>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="199"/>
-      <c r="T29" s="199"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
+      <c r="S29" s="201"/>
+      <c r="T29" s="201"/>
     </row>
     <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="86" t="s">
@@ -22783,12 +22783,12 @@
         <f t="shared" si="15"/>
         <v>0.34404263418347925</v>
       </c>
-      <c r="O30" s="199"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="199"/>
-      <c r="S30" s="199"/>
-      <c r="T30" s="199"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+      <c r="T30" s="201"/>
     </row>
     <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="86" t="s">
@@ -22834,12 +22834,12 @@
         <f t="shared" si="15"/>
         <v>0.34176542084472805</v>
       </c>
-      <c r="O31" s="199"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="199"/>
-      <c r="S31" s="199"/>
-      <c r="T31" s="199"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="201"/>
+      <c r="Q31" s="201"/>
+      <c r="R31" s="201"/>
+      <c r="S31" s="201"/>
+      <c r="T31" s="201"/>
     </row>
     <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="86" t="s">
@@ -22885,12 +22885,12 @@
         <f t="shared" si="15"/>
         <v>0.33866976024748646</v>
       </c>
-      <c r="O32" s="199"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="199"/>
-      <c r="S32" s="199"/>
-      <c r="T32" s="199"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="201"/>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="201"/>
     </row>
     <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="86" t="s">
@@ -22936,12 +22936,12 @@
         <f t="shared" si="15"/>
         <v>0.33739899374904714</v>
       </c>
-      <c r="O33" s="199"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="199"/>
-      <c r="S33" s="199"/>
-      <c r="T33" s="199"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="201"/>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="201"/>
+      <c r="T33" s="201"/>
     </row>
     <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="86" t="s">
@@ -22987,12 +22987,12 @@
         <f t="shared" si="15"/>
         <v>0.33531271689673786</v>
       </c>
-      <c r="O34" s="199"/>
-      <c r="P34" s="199"/>
-      <c r="Q34" s="199"/>
-      <c r="R34" s="199"/>
-      <c r="S34" s="199"/>
-      <c r="T34" s="199"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="201"/>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="201"/>
+      <c r="T34" s="201"/>
     </row>
     <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="86" t="s">
@@ -23038,12 +23038,12 @@
         <f t="shared" si="15"/>
         <v>0.34502114571318726</v>
       </c>
-      <c r="O35" s="199"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="199"/>
-      <c r="S35" s="199"/>
-      <c r="T35" s="199"/>
+      <c r="O35" s="201"/>
+      <c r="P35" s="201"/>
+      <c r="Q35" s="201"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="201"/>
+      <c r="T35" s="201"/>
     </row>
     <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="86" t="s">
@@ -23089,12 +23089,12 @@
         <f t="shared" si="15"/>
         <v>0.34201219053352394</v>
       </c>
-      <c r="O36" s="199"/>
-      <c r="P36" s="199"/>
-      <c r="Q36" s="199"/>
-      <c r="R36" s="199"/>
-      <c r="S36" s="199"/>
-      <c r="T36" s="199"/>
+      <c r="O36" s="201"/>
+      <c r="P36" s="201"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="201"/>
+      <c r="T36" s="201"/>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
@@ -23140,12 +23140,12 @@
         <f>K37/L37</f>
         <v>0.32024539877300612</v>
       </c>
-      <c r="O37" s="199"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="199"/>
-      <c r="R37" s="199"/>
-      <c r="S37" s="199"/>
-      <c r="T37" s="199"/>
+      <c r="O37" s="201"/>
+      <c r="P37" s="201"/>
+      <c r="Q37" s="201"/>
+      <c r="R37" s="201"/>
+      <c r="S37" s="201"/>
+      <c r="T37" s="201"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="s">
@@ -23203,12 +23203,12 @@
         <f t="shared" ref="N38" si="27">AVERAGE(N28:N37)</f>
         <v>0.33783159441972421</v>
       </c>
-      <c r="O38" s="199"/>
-      <c r="P38" s="199"/>
-      <c r="Q38" s="199"/>
-      <c r="R38" s="199"/>
-      <c r="S38" s="199"/>
-      <c r="T38" s="199"/>
+      <c r="O38" s="201"/>
+      <c r="P38" s="201"/>
+      <c r="Q38" s="201"/>
+      <c r="R38" s="201"/>
+      <c r="S38" s="201"/>
+      <c r="T38" s="201"/>
     </row>
     <row r="39" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="98"/>
@@ -23269,14 +23269,14 @@
         <f t="shared" ref="N40:N49" si="28">K40/L40</f>
         <v>0.22579401788467468</v>
       </c>
-      <c r="O40" s="199" t="s">
+      <c r="O40" s="201" t="s">
         <v>178</v>
       </c>
-      <c r="P40" s="199"/>
-      <c r="Q40" s="199"/>
-      <c r="R40" s="199"/>
-      <c r="S40" s="199"/>
-      <c r="T40" s="199"/>
+      <c r="P40" s="201"/>
+      <c r="Q40" s="201"/>
+      <c r="R40" s="201"/>
+      <c r="S40" s="201"/>
+      <c r="T40" s="201"/>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
@@ -23322,12 +23322,12 @@
         <f t="shared" si="28"/>
         <v>0.23997853912776884</v>
       </c>
-      <c r="O41" s="199"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="199"/>
-      <c r="R41" s="199"/>
-      <c r="S41" s="199"/>
-      <c r="T41" s="199"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="86" t="s">
@@ -23373,12 +23373,12 @@
         <f t="shared" si="28"/>
         <v>0.2376791599601441</v>
       </c>
-      <c r="O42" s="199"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="199"/>
-      <c r="R42" s="199"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="199"/>
+      <c r="O42" s="201"/>
+      <c r="P42" s="201"/>
+      <c r="Q42" s="201"/>
+      <c r="R42" s="201"/>
+      <c r="S42" s="201"/>
+      <c r="T42" s="201"/>
     </row>
     <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
@@ -23424,12 +23424,12 @@
         <f t="shared" si="28"/>
         <v>0.19681832154933906</v>
       </c>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="199"/>
-      <c r="R43" s="199"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="199"/>
+      <c r="O43" s="201"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="201"/>
+      <c r="R43" s="201"/>
+      <c r="S43" s="201"/>
+      <c r="T43" s="201"/>
     </row>
     <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
@@ -23475,12 +23475,12 @@
         <f t="shared" si="28"/>
         <v>0.24446851307442363</v>
       </c>
-      <c r="O44" s="199"/>
-      <c r="P44" s="199"/>
-      <c r="Q44" s="199"/>
-      <c r="R44" s="199"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="199"/>
+      <c r="O44" s="201"/>
+      <c r="P44" s="201"/>
+      <c r="Q44" s="201"/>
+      <c r="R44" s="201"/>
+      <c r="S44" s="201"/>
+      <c r="T44" s="201"/>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
@@ -23526,12 +23526,12 @@
         <f t="shared" si="28"/>
         <v>0.23399014778325122</v>
       </c>
-      <c r="O45" s="199"/>
-      <c r="P45" s="199"/>
-      <c r="Q45" s="199"/>
-      <c r="R45" s="199"/>
-      <c r="S45" s="199"/>
-      <c r="T45" s="199"/>
+      <c r="O45" s="201"/>
+      <c r="P45" s="201"/>
+      <c r="Q45" s="201"/>
+      <c r="R45" s="201"/>
+      <c r="S45" s="201"/>
+      <c r="T45" s="201"/>
     </row>
     <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86" t="s">
@@ -23577,12 +23577,12 @@
         <f t="shared" si="28"/>
         <v>0.21419884463362723</v>
       </c>
-      <c r="O46" s="199"/>
-      <c r="P46" s="199"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="199"/>
-      <c r="T46" s="199"/>
+      <c r="O46" s="201"/>
+      <c r="P46" s="201"/>
+      <c r="Q46" s="201"/>
+      <c r="R46" s="201"/>
+      <c r="S46" s="201"/>
+      <c r="T46" s="201"/>
     </row>
     <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86" t="s">
@@ -23628,12 +23628,12 @@
         <f t="shared" si="28"/>
         <v>0.21038881204856308</v>
       </c>
-      <c r="O47" s="199"/>
-      <c r="P47" s="199"/>
-      <c r="Q47" s="199"/>
-      <c r="R47" s="199"/>
-      <c r="S47" s="199"/>
-      <c r="T47" s="199"/>
+      <c r="O47" s="201"/>
+      <c r="P47" s="201"/>
+      <c r="Q47" s="201"/>
+      <c r="R47" s="201"/>
+      <c r="S47" s="201"/>
+      <c r="T47" s="201"/>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
@@ -23679,12 +23679,12 @@
         <f t="shared" si="28"/>
         <v>0.22198424233152297</v>
       </c>
-      <c r="O48" s="199"/>
-      <c r="P48" s="199"/>
-      <c r="Q48" s="199"/>
-      <c r="R48" s="199"/>
-      <c r="S48" s="199"/>
-      <c r="T48" s="199"/>
+      <c r="O48" s="201"/>
+      <c r="P48" s="201"/>
+      <c r="Q48" s="201"/>
+      <c r="R48" s="201"/>
+      <c r="S48" s="201"/>
+      <c r="T48" s="201"/>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86" t="s">
@@ -23730,12 +23730,12 @@
         <f t="shared" si="28"/>
         <v>0.23042386424168632</v>
       </c>
-      <c r="O49" s="199"/>
-      <c r="P49" s="199"/>
-      <c r="Q49" s="199"/>
-      <c r="R49" s="199"/>
-      <c r="S49" s="199"/>
-      <c r="T49" s="199"/>
+      <c r="O49" s="201"/>
+      <c r="P49" s="201"/>
+      <c r="Q49" s="201"/>
+      <c r="R49" s="201"/>
+      <c r="S49" s="201"/>
+      <c r="T49" s="201"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="91" t="s">
@@ -23793,12 +23793,12 @@
         <f t="shared" ref="N50" si="40">AVERAGE(N40:N49)</f>
         <v>0.22557244626350009</v>
       </c>
-      <c r="O50" s="199"/>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="199"/>
-      <c r="R50" s="199"/>
-      <c r="S50" s="199"/>
-      <c r="T50" s="199"/>
+      <c r="O50" s="201"/>
+      <c r="P50" s="201"/>
+      <c r="Q50" s="201"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="201"/>
+      <c r="T50" s="201"/>
     </row>
     <row r="51" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="98"/>
@@ -23859,14 +23859,14 @@
         <f t="shared" ref="N52:N61" si="41">K52/L52</f>
         <v>0.17494407158836689</v>
       </c>
-      <c r="O52" s="199" t="s">
+      <c r="O52" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="P52" s="199"/>
-      <c r="Q52" s="199"/>
-      <c r="R52" s="199"/>
-      <c r="S52" s="199"/>
-      <c r="T52" s="199"/>
+      <c r="P52" s="201"/>
+      <c r="Q52" s="201"/>
+      <c r="R52" s="201"/>
+      <c r="S52" s="201"/>
+      <c r="T52" s="201"/>
     </row>
     <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
@@ -23912,12 +23912,12 @@
         <f t="shared" si="41"/>
         <v>0.16611244296651459</v>
       </c>
-      <c r="O53" s="199"/>
-      <c r="P53" s="199"/>
-      <c r="Q53" s="199"/>
-      <c r="R53" s="199"/>
-      <c r="S53" s="199"/>
-      <c r="T53" s="199"/>
+      <c r="O53" s="201"/>
+      <c r="P53" s="201"/>
+      <c r="Q53" s="201"/>
+      <c r="R53" s="201"/>
+      <c r="S53" s="201"/>
+      <c r="T53" s="201"/>
     </row>
     <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
@@ -23963,12 +23963,12 @@
         <f t="shared" si="41"/>
         <v>0.16603111653447225</v>
       </c>
-      <c r="O54" s="199"/>
-      <c r="P54" s="199"/>
-      <c r="Q54" s="199"/>
-      <c r="R54" s="199"/>
-      <c r="S54" s="199"/>
-      <c r="T54" s="199"/>
+      <c r="O54" s="201"/>
+      <c r="P54" s="201"/>
+      <c r="Q54" s="201"/>
+      <c r="R54" s="201"/>
+      <c r="S54" s="201"/>
+      <c r="T54" s="201"/>
     </row>
     <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
@@ -24014,12 +24014,12 @@
         <f t="shared" si="41"/>
         <v>0.16517925834743807</v>
       </c>
-      <c r="O55" s="199"/>
-      <c r="P55" s="199"/>
-      <c r="Q55" s="199"/>
-      <c r="R55" s="199"/>
-      <c r="S55" s="199"/>
-      <c r="T55" s="199"/>
+      <c r="O55" s="201"/>
+      <c r="P55" s="201"/>
+      <c r="Q55" s="201"/>
+      <c r="R55" s="201"/>
+      <c r="S55" s="201"/>
+      <c r="T55" s="201"/>
     </row>
     <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
@@ -24065,12 +24065,12 @@
         <f t="shared" si="41"/>
         <v>0.17454685692248362</v>
       </c>
-      <c r="O56" s="199"/>
-      <c r="P56" s="199"/>
-      <c r="Q56" s="199"/>
-      <c r="R56" s="199"/>
-      <c r="S56" s="199"/>
-      <c r="T56" s="199"/>
+      <c r="O56" s="201"/>
+      <c r="P56" s="201"/>
+      <c r="Q56" s="201"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="201"/>
+      <c r="T56" s="201"/>
     </row>
     <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
@@ -24116,12 +24116,12 @@
         <f t="shared" si="41"/>
         <v>0.16843067082920887</v>
       </c>
-      <c r="O57" s="199"/>
-      <c r="P57" s="199"/>
-      <c r="Q57" s="199"/>
-      <c r="R57" s="199"/>
-      <c r="S57" s="199"/>
-      <c r="T57" s="199"/>
+      <c r="O57" s="201"/>
+      <c r="P57" s="201"/>
+      <c r="Q57" s="201"/>
+      <c r="R57" s="201"/>
+      <c r="S57" s="201"/>
+      <c r="T57" s="201"/>
     </row>
     <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86" t="s">
@@ -24167,12 +24167,12 @@
         <f t="shared" si="41"/>
         <v>0.17035946699721102</v>
       </c>
-      <c r="O58" s="199"/>
-      <c r="P58" s="199"/>
-      <c r="Q58" s="199"/>
-      <c r="R58" s="199"/>
-      <c r="S58" s="199"/>
-      <c r="T58" s="199"/>
+      <c r="O58" s="201"/>
+      <c r="P58" s="201"/>
+      <c r="Q58" s="201"/>
+      <c r="R58" s="201"/>
+      <c r="S58" s="201"/>
+      <c r="T58" s="201"/>
     </row>
     <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86" t="s">
@@ -24218,12 +24218,12 @@
         <f t="shared" si="41"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="O59" s="199"/>
-      <c r="P59" s="199"/>
-      <c r="Q59" s="199"/>
-      <c r="R59" s="199"/>
-      <c r="S59" s="199"/>
-      <c r="T59" s="199"/>
+      <c r="O59" s="201"/>
+      <c r="P59" s="201"/>
+      <c r="Q59" s="201"/>
+      <c r="R59" s="201"/>
+      <c r="S59" s="201"/>
+      <c r="T59" s="201"/>
     </row>
     <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
@@ -24269,12 +24269,12 @@
         <f t="shared" si="41"/>
         <v>0.1748257164988381</v>
       </c>
-      <c r="O60" s="199"/>
-      <c r="P60" s="199"/>
-      <c r="Q60" s="199"/>
-      <c r="R60" s="199"/>
-      <c r="S60" s="199"/>
-      <c r="T60" s="199"/>
+      <c r="O60" s="201"/>
+      <c r="P60" s="201"/>
+      <c r="Q60" s="201"/>
+      <c r="R60" s="201"/>
+      <c r="S60" s="201"/>
+      <c r="T60" s="201"/>
     </row>
     <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="86" t="s">
@@ -24320,12 +24320,12 @@
         <f t="shared" si="41"/>
         <v>0.17063644022363483</v>
       </c>
-      <c r="O61" s="199"/>
-      <c r="P61" s="199"/>
-      <c r="Q61" s="199"/>
-      <c r="R61" s="199"/>
-      <c r="S61" s="199"/>
-      <c r="T61" s="199"/>
+      <c r="O61" s="201"/>
+      <c r="P61" s="201"/>
+      <c r="Q61" s="201"/>
+      <c r="R61" s="201"/>
+      <c r="S61" s="201"/>
+      <c r="T61" s="201"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
@@ -24383,12 +24383,12 @@
         <f t="shared" ref="N62" si="53">AVERAGE(N52:N61)</f>
         <v>0.17024946123367396</v>
       </c>
-      <c r="O62" s="199"/>
-      <c r="P62" s="199"/>
-      <c r="Q62" s="199"/>
-      <c r="R62" s="199"/>
-      <c r="S62" s="199"/>
-      <c r="T62" s="199"/>
+      <c r="O62" s="201"/>
+      <c r="P62" s="201"/>
+      <c r="Q62" s="201"/>
+      <c r="R62" s="201"/>
+      <c r="S62" s="201"/>
+      <c r="T62" s="201"/>
     </row>
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="98"/>
@@ -24448,14 +24448,14 @@
       <c r="N64" s="94">
         <v>0.17094479665996598</v>
       </c>
-      <c r="O64" s="199" t="s">
+      <c r="O64" s="201" t="s">
         <v>183</v>
       </c>
-      <c r="P64" s="199"/>
-      <c r="Q64" s="199"/>
-      <c r="R64" s="199"/>
-      <c r="S64" s="199"/>
-      <c r="T64" s="199"/>
+      <c r="P64" s="201"/>
+      <c r="Q64" s="201"/>
+      <c r="R64" s="201"/>
+      <c r="S64" s="201"/>
+      <c r="T64" s="201"/>
     </row>
     <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
@@ -24500,12 +24500,12 @@
       <c r="N65" s="94">
         <v>0.16858001386855689</v>
       </c>
-      <c r="O65" s="199"/>
-      <c r="P65" s="199"/>
-      <c r="Q65" s="199"/>
-      <c r="R65" s="199"/>
-      <c r="S65" s="199"/>
-      <c r="T65" s="199"/>
+      <c r="O65" s="201"/>
+      <c r="P65" s="201"/>
+      <c r="Q65" s="201"/>
+      <c r="R65" s="201"/>
+      <c r="S65" s="201"/>
+      <c r="T65" s="201"/>
     </row>
     <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
@@ -24550,12 +24550,12 @@
       <c r="N66" s="94">
         <v>0.16836149552718097</v>
       </c>
-      <c r="O66" s="199"/>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="199"/>
-      <c r="R66" s="199"/>
-      <c r="S66" s="199"/>
-      <c r="T66" s="199"/>
+      <c r="O66" s="201"/>
+      <c r="P66" s="201"/>
+      <c r="Q66" s="201"/>
+      <c r="R66" s="201"/>
+      <c r="S66" s="201"/>
+      <c r="T66" s="201"/>
     </row>
     <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
@@ -24600,12 +24600,12 @@
       <c r="N67" s="94">
         <v>0.16985921993999539</v>
       </c>
-      <c r="O67" s="199"/>
-      <c r="P67" s="199"/>
-      <c r="Q67" s="199"/>
-      <c r="R67" s="199"/>
-      <c r="S67" s="199"/>
-      <c r="T67" s="199"/>
+      <c r="O67" s="201"/>
+      <c r="P67" s="201"/>
+      <c r="Q67" s="201"/>
+      <c r="R67" s="201"/>
+      <c r="S67" s="201"/>
+      <c r="T67" s="201"/>
     </row>
     <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
@@ -24650,12 +24650,12 @@
       <c r="N68" s="94">
         <v>0.16540773855403115</v>
       </c>
-      <c r="O68" s="199"/>
-      <c r="P68" s="199"/>
-      <c r="Q68" s="199"/>
-      <c r="R68" s="199"/>
-      <c r="S68" s="199"/>
-      <c r="T68" s="199"/>
+      <c r="O68" s="201"/>
+      <c r="P68" s="201"/>
+      <c r="Q68" s="201"/>
+      <c r="R68" s="201"/>
+      <c r="S68" s="201"/>
+      <c r="T68" s="201"/>
     </row>
     <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="86" t="s">
@@ -24700,12 +24700,12 @@
       <c r="N69" s="94">
         <v>0.17533628800248816</v>
       </c>
-      <c r="O69" s="199"/>
-      <c r="P69" s="199"/>
-      <c r="Q69" s="199"/>
-      <c r="R69" s="199"/>
-      <c r="S69" s="199"/>
-      <c r="T69" s="199"/>
+      <c r="O69" s="201"/>
+      <c r="P69" s="201"/>
+      <c r="Q69" s="201"/>
+      <c r="R69" s="201"/>
+      <c r="S69" s="201"/>
+      <c r="T69" s="201"/>
     </row>
     <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="86" t="s">
@@ -24750,12 +24750,12 @@
       <c r="N70" s="94">
         <v>0.1720009210223348</v>
       </c>
-      <c r="O70" s="199"/>
-      <c r="P70" s="199"/>
-      <c r="Q70" s="199"/>
-      <c r="R70" s="199"/>
-      <c r="S70" s="199"/>
-      <c r="T70" s="199"/>
+      <c r="O70" s="201"/>
+      <c r="P70" s="201"/>
+      <c r="Q70" s="201"/>
+      <c r="R70" s="201"/>
+      <c r="S70" s="201"/>
+      <c r="T70" s="201"/>
     </row>
     <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="86" t="s">
@@ -24800,12 +24800,12 @@
       <c r="N71" s="94">
         <v>0.16873584758335286</v>
       </c>
-      <c r="O71" s="199"/>
-      <c r="P71" s="199"/>
-      <c r="Q71" s="199"/>
-      <c r="R71" s="199"/>
-      <c r="S71" s="199"/>
-      <c r="T71" s="199"/>
+      <c r="O71" s="201"/>
+      <c r="P71" s="201"/>
+      <c r="Q71" s="201"/>
+      <c r="R71" s="201"/>
+      <c r="S71" s="201"/>
+      <c r="T71" s="201"/>
     </row>
     <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="86" t="s">
@@ -24850,12 +24850,12 @@
       <c r="N72" s="94">
         <v>0.17574102964118565</v>
       </c>
-      <c r="O72" s="199"/>
-      <c r="P72" s="199"/>
-      <c r="Q72" s="199"/>
-      <c r="R72" s="199"/>
-      <c r="S72" s="199"/>
-      <c r="T72" s="199"/>
+      <c r="O72" s="201"/>
+      <c r="P72" s="201"/>
+      <c r="Q72" s="201"/>
+      <c r="R72" s="201"/>
+      <c r="S72" s="201"/>
+      <c r="T72" s="201"/>
     </row>
     <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="86" t="s">
@@ -24900,12 +24900,12 @@
       <c r="N73" s="94">
         <v>0.17359730927992661</v>
       </c>
-      <c r="O73" s="199"/>
-      <c r="P73" s="199"/>
-      <c r="Q73" s="199"/>
-      <c r="R73" s="199"/>
-      <c r="S73" s="199"/>
-      <c r="T73" s="199"/>
+      <c r="O73" s="201"/>
+      <c r="P73" s="201"/>
+      <c r="Q73" s="201"/>
+      <c r="R73" s="201"/>
+      <c r="S73" s="201"/>
+      <c r="T73" s="201"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="91" t="s">
@@ -24963,12 +24963,12 @@
         <f t="shared" ref="N74" si="65">AVERAGE(N64:N73)</f>
         <v>0.17085646600790186</v>
       </c>
-      <c r="O74" s="199"/>
-      <c r="P74" s="199"/>
-      <c r="Q74" s="199"/>
-      <c r="R74" s="199"/>
-      <c r="S74" s="199"/>
-      <c r="T74" s="199"/>
+      <c r="O74" s="201"/>
+      <c r="P74" s="201"/>
+      <c r="Q74" s="201"/>
+      <c r="R74" s="201"/>
+      <c r="S74" s="201"/>
+      <c r="T74" s="201"/>
     </row>
     <row r="75" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="98"/>
@@ -25028,14 +25028,14 @@
       <c r="N76" s="94">
         <v>0.34329044117647056</v>
       </c>
-      <c r="O76" s="199" t="s">
+      <c r="O76" s="201" t="s">
         <v>184</v>
       </c>
-      <c r="P76" s="199"/>
-      <c r="Q76" s="199"/>
-      <c r="R76" s="199"/>
-      <c r="S76" s="199"/>
-      <c r="T76" s="199"/>
+      <c r="P76" s="201"/>
+      <c r="Q76" s="201"/>
+      <c r="R76" s="201"/>
+      <c r="S76" s="201"/>
+      <c r="T76" s="201"/>
     </row>
     <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="86" t="s">
@@ -25080,12 +25080,12 @@
       <c r="N77" s="94">
         <v>0.34105068840858394</v>
       </c>
-      <c r="O77" s="199"/>
-      <c r="P77" s="199"/>
-      <c r="Q77" s="199"/>
-      <c r="R77" s="199"/>
-      <c r="S77" s="199"/>
-      <c r="T77" s="199"/>
+      <c r="O77" s="201"/>
+      <c r="P77" s="201"/>
+      <c r="Q77" s="201"/>
+      <c r="R77" s="201"/>
+      <c r="S77" s="201"/>
+      <c r="T77" s="201"/>
     </row>
     <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="86" t="s">
@@ -25130,12 +25130,12 @@
       <c r="N78" s="94">
         <v>0.34692788534837626</v>
       </c>
-      <c r="O78" s="199"/>
-      <c r="P78" s="199"/>
-      <c r="Q78" s="199"/>
-      <c r="R78" s="199"/>
-      <c r="S78" s="199"/>
-      <c r="T78" s="199"/>
+      <c r="O78" s="201"/>
+      <c r="P78" s="201"/>
+      <c r="Q78" s="201"/>
+      <c r="R78" s="201"/>
+      <c r="S78" s="201"/>
+      <c r="T78" s="201"/>
     </row>
     <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="86" t="s">
@@ -25180,12 +25180,12 @@
       <c r="N79" s="94">
         <v>0.34155655693882225</v>
       </c>
-      <c r="O79" s="199"/>
-      <c r="P79" s="199"/>
-      <c r="Q79" s="199"/>
-      <c r="R79" s="199"/>
-      <c r="S79" s="199"/>
-      <c r="T79" s="199"/>
+      <c r="O79" s="201"/>
+      <c r="P79" s="201"/>
+      <c r="Q79" s="201"/>
+      <c r="R79" s="201"/>
+      <c r="S79" s="201"/>
+      <c r="T79" s="201"/>
     </row>
     <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="86" t="s">
@@ -25230,12 +25230,12 @@
       <c r="N80" s="94">
         <v>0.35245394023842702</v>
       </c>
-      <c r="O80" s="199"/>
-      <c r="P80" s="199"/>
-      <c r="Q80" s="199"/>
-      <c r="R80" s="199"/>
-      <c r="S80" s="199"/>
-      <c r="T80" s="199"/>
+      <c r="O80" s="201"/>
+      <c r="P80" s="201"/>
+      <c r="Q80" s="201"/>
+      <c r="R80" s="201"/>
+      <c r="S80" s="201"/>
+      <c r="T80" s="201"/>
     </row>
     <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="86" t="s">
@@ -25280,12 +25280,12 @@
       <c r="N81" s="94">
         <v>0.34468706750730432</v>
       </c>
-      <c r="O81" s="199"/>
-      <c r="P81" s="199"/>
-      <c r="Q81" s="199"/>
-      <c r="R81" s="199"/>
-      <c r="S81" s="199"/>
-      <c r="T81" s="199"/>
+      <c r="O81" s="201"/>
+      <c r="P81" s="201"/>
+      <c r="Q81" s="201"/>
+      <c r="R81" s="201"/>
+      <c r="S81" s="201"/>
+      <c r="T81" s="201"/>
     </row>
     <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="86" t="s">
@@ -25330,12 +25330,12 @@
       <c r="N82" s="94">
         <v>0.34538751176655164</v>
       </c>
-      <c r="O82" s="199"/>
-      <c r="P82" s="199"/>
-      <c r="Q82" s="199"/>
-      <c r="R82" s="199"/>
-      <c r="S82" s="199"/>
-      <c r="T82" s="199"/>
+      <c r="O82" s="201"/>
+      <c r="P82" s="201"/>
+      <c r="Q82" s="201"/>
+      <c r="R82" s="201"/>
+      <c r="S82" s="201"/>
+      <c r="T82" s="201"/>
     </row>
     <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="86" t="s">
@@ -25380,12 +25380,12 @@
       <c r="N83" s="94">
         <v>0.33976684937852236</v>
       </c>
-      <c r="O83" s="199"/>
-      <c r="P83" s="199"/>
-      <c r="Q83" s="199"/>
-      <c r="R83" s="199"/>
-      <c r="S83" s="199"/>
-      <c r="T83" s="199"/>
+      <c r="O83" s="201"/>
+      <c r="P83" s="201"/>
+      <c r="Q83" s="201"/>
+      <c r="R83" s="201"/>
+      <c r="S83" s="201"/>
+      <c r="T83" s="201"/>
     </row>
     <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="86" t="s">
@@ -25430,12 +25430,12 @@
       <c r="N84" s="94">
         <v>0.33929526866926546</v>
       </c>
-      <c r="O84" s="199"/>
-      <c r="P84" s="199"/>
-      <c r="Q84" s="199"/>
-      <c r="R84" s="199"/>
-      <c r="S84" s="199"/>
-      <c r="T84" s="199"/>
+      <c r="O84" s="201"/>
+      <c r="P84" s="201"/>
+      <c r="Q84" s="201"/>
+      <c r="R84" s="201"/>
+      <c r="S84" s="201"/>
+      <c r="T84" s="201"/>
     </row>
     <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="86" t="s">
@@ -25480,12 +25480,12 @@
       <c r="N85" s="94">
         <v>0.33399632802937579</v>
       </c>
-      <c r="O85" s="199"/>
-      <c r="P85" s="199"/>
-      <c r="Q85" s="199"/>
-      <c r="R85" s="199"/>
-      <c r="S85" s="199"/>
-      <c r="T85" s="199"/>
+      <c r="O85" s="201"/>
+      <c r="P85" s="201"/>
+      <c r="Q85" s="201"/>
+      <c r="R85" s="201"/>
+      <c r="S85" s="201"/>
+      <c r="T85" s="201"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="91" t="s">
@@ -25543,12 +25543,12 @@
         <f t="shared" ref="N86" si="77">AVERAGE(N76:N85)</f>
         <v>0.34284125374616992</v>
       </c>
-      <c r="O86" s="199"/>
-      <c r="P86" s="199"/>
-      <c r="Q86" s="199"/>
-      <c r="R86" s="199"/>
-      <c r="S86" s="199"/>
-      <c r="T86" s="199"/>
+      <c r="O86" s="201"/>
+      <c r="P86" s="201"/>
+      <c r="Q86" s="201"/>
+      <c r="R86" s="201"/>
+      <c r="S86" s="201"/>
+      <c r="T86" s="201"/>
     </row>
     <row r="87" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="98"/>
@@ -25609,14 +25609,14 @@
         <f t="shared" ref="N88:N97" si="78">K88/L88</f>
         <v>0.22945286129209513</v>
       </c>
-      <c r="O88" s="199" t="s">
+      <c r="O88" s="201" t="s">
         <v>190</v>
       </c>
-      <c r="P88" s="199"/>
-      <c r="Q88" s="199"/>
-      <c r="R88" s="199"/>
-      <c r="S88" s="199"/>
-      <c r="T88" s="199"/>
+      <c r="P88" s="201"/>
+      <c r="Q88" s="201"/>
+      <c r="R88" s="201"/>
+      <c r="S88" s="201"/>
+      <c r="T88" s="201"/>
     </row>
     <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="86" t="s">
@@ -25662,12 +25662,12 @@
         <f t="shared" si="78"/>
         <v>0.23350953803723282</v>
       </c>
-      <c r="O89" s="199"/>
-      <c r="P89" s="199"/>
-      <c r="Q89" s="199"/>
-      <c r="R89" s="199"/>
-      <c r="S89" s="199"/>
-      <c r="T89" s="199"/>
+      <c r="O89" s="201"/>
+      <c r="P89" s="201"/>
+      <c r="Q89" s="201"/>
+      <c r="R89" s="201"/>
+      <c r="S89" s="201"/>
+      <c r="T89" s="201"/>
     </row>
     <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="86" t="s">
@@ -25713,12 +25713,12 @@
         <f t="shared" si="78"/>
         <v>0.23115193264446995</v>
       </c>
-      <c r="O90" s="199"/>
-      <c r="P90" s="199"/>
-      <c r="Q90" s="199"/>
-      <c r="R90" s="199"/>
-      <c r="S90" s="199"/>
-      <c r="T90" s="199"/>
+      <c r="O90" s="201"/>
+      <c r="P90" s="201"/>
+      <c r="Q90" s="201"/>
+      <c r="R90" s="201"/>
+      <c r="S90" s="201"/>
+      <c r="T90" s="201"/>
     </row>
     <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="86" t="s">
@@ -25764,12 +25764,12 @@
         <f t="shared" si="78"/>
         <v>0.23003170768533898</v>
       </c>
-      <c r="O91" s="199"/>
-      <c r="P91" s="199"/>
-      <c r="Q91" s="199"/>
-      <c r="R91" s="199"/>
-      <c r="S91" s="199"/>
-      <c r="T91" s="199"/>
+      <c r="O91" s="201"/>
+      <c r="P91" s="201"/>
+      <c r="Q91" s="201"/>
+      <c r="R91" s="201"/>
+      <c r="S91" s="201"/>
+      <c r="T91" s="201"/>
     </row>
     <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="86" t="s">
@@ -25815,12 +25815,12 @@
         <f t="shared" si="78"/>
         <v>0.21492696287279367</v>
       </c>
-      <c r="O92" s="199"/>
-      <c r="P92" s="199"/>
-      <c r="Q92" s="199"/>
-      <c r="R92" s="199"/>
-      <c r="S92" s="199"/>
-      <c r="T92" s="199"/>
+      <c r="O92" s="201"/>
+      <c r="P92" s="201"/>
+      <c r="Q92" s="201"/>
+      <c r="R92" s="201"/>
+      <c r="S92" s="201"/>
+      <c r="T92" s="201"/>
     </row>
     <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="86" t="s">
@@ -25866,12 +25866,12 @@
         <f t="shared" si="78"/>
         <v>0.23276529821843533</v>
       </c>
-      <c r="O93" s="199"/>
-      <c r="P93" s="199"/>
-      <c r="Q93" s="199"/>
-      <c r="R93" s="199"/>
-      <c r="S93" s="199"/>
-      <c r="T93" s="199"/>
+      <c r="O93" s="201"/>
+      <c r="P93" s="201"/>
+      <c r="Q93" s="201"/>
+      <c r="R93" s="201"/>
+      <c r="S93" s="201"/>
+      <c r="T93" s="201"/>
     </row>
     <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="86" t="s">
@@ -25917,12 +25917,12 @@
         <f t="shared" si="78"/>
         <v>0.22459686752565389</v>
       </c>
-      <c r="O94" s="199"/>
-      <c r="P94" s="199"/>
-      <c r="Q94" s="199"/>
-      <c r="R94" s="199"/>
-      <c r="S94" s="199"/>
-      <c r="T94" s="199"/>
+      <c r="O94" s="201"/>
+      <c r="P94" s="201"/>
+      <c r="Q94" s="201"/>
+      <c r="R94" s="201"/>
+      <c r="S94" s="201"/>
+      <c r="T94" s="201"/>
     </row>
     <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="86" t="s">
@@ -25968,12 +25968,12 @@
         <f t="shared" si="78"/>
         <v>0.23970326868093655</v>
       </c>
-      <c r="O95" s="199"/>
-      <c r="P95" s="199"/>
-      <c r="Q95" s="199"/>
-      <c r="R95" s="199"/>
-      <c r="S95" s="199"/>
-      <c r="T95" s="199"/>
+      <c r="O95" s="201"/>
+      <c r="P95" s="201"/>
+      <c r="Q95" s="201"/>
+      <c r="R95" s="201"/>
+      <c r="S95" s="201"/>
+      <c r="T95" s="201"/>
     </row>
     <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="86" t="s">
@@ -26019,12 +26019,12 @@
         <f t="shared" si="78"/>
         <v>0.22133476691498349</v>
       </c>
-      <c r="O96" s="199"/>
-      <c r="P96" s="199"/>
-      <c r="Q96" s="199"/>
-      <c r="R96" s="199"/>
-      <c r="S96" s="199"/>
-      <c r="T96" s="199"/>
+      <c r="O96" s="201"/>
+      <c r="P96" s="201"/>
+      <c r="Q96" s="201"/>
+      <c r="R96" s="201"/>
+      <c r="S96" s="201"/>
+      <c r="T96" s="201"/>
     </row>
     <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="86" t="s">
@@ -26070,12 +26070,12 @@
         <f t="shared" si="78"/>
         <v>0.2421839255757206</v>
       </c>
-      <c r="O97" s="199"/>
-      <c r="P97" s="199"/>
-      <c r="Q97" s="199"/>
-      <c r="R97" s="199"/>
-      <c r="S97" s="199"/>
-      <c r="T97" s="199"/>
+      <c r="O97" s="201"/>
+      <c r="P97" s="201"/>
+      <c r="Q97" s="201"/>
+      <c r="R97" s="201"/>
+      <c r="S97" s="201"/>
+      <c r="T97" s="201"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="91" t="s">
@@ -26133,12 +26133,12 @@
         <f t="shared" ref="N98" si="90">AVERAGE(N88:N97)</f>
         <v>0.22996571294476609</v>
       </c>
-      <c r="O98" s="199"/>
-      <c r="P98" s="199"/>
-      <c r="Q98" s="199"/>
-      <c r="R98" s="199"/>
-      <c r="S98" s="199"/>
-      <c r="T98" s="199"/>
+      <c r="O98" s="201"/>
+      <c r="P98" s="201"/>
+      <c r="Q98" s="201"/>
+      <c r="R98" s="201"/>
+      <c r="S98" s="201"/>
+      <c r="T98" s="201"/>
     </row>
     <row r="99" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="98"/>
@@ -26198,14 +26198,14 @@
       <c r="N100" s="94">
         <v>0.17289827255278312</v>
       </c>
-      <c r="O100" s="199" t="s">
+      <c r="O100" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="P100" s="199"/>
-      <c r="Q100" s="199"/>
-      <c r="R100" s="199"/>
-      <c r="S100" s="199"/>
-      <c r="T100" s="199"/>
+      <c r="P100" s="201"/>
+      <c r="Q100" s="201"/>
+      <c r="R100" s="201"/>
+      <c r="S100" s="201"/>
+      <c r="T100" s="201"/>
     </row>
     <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="86" t="s">
@@ -26250,12 +26250,12 @@
       <c r="N101" s="94">
         <v>0.17448736656170802</v>
       </c>
-      <c r="O101" s="199"/>
-      <c r="P101" s="199"/>
-      <c r="Q101" s="199"/>
-      <c r="R101" s="199"/>
-      <c r="S101" s="199"/>
-      <c r="T101" s="199"/>
+      <c r="O101" s="201"/>
+      <c r="P101" s="201"/>
+      <c r="Q101" s="201"/>
+      <c r="R101" s="201"/>
+      <c r="S101" s="201"/>
+      <c r="T101" s="201"/>
     </row>
     <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="86" t="s">
@@ -26300,12 +26300,12 @@
       <c r="N102" s="94">
         <v>0.17573092648306718</v>
       </c>
-      <c r="O102" s="199"/>
-      <c r="P102" s="199"/>
-      <c r="Q102" s="199"/>
-      <c r="R102" s="199"/>
-      <c r="S102" s="199"/>
-      <c r="T102" s="199"/>
+      <c r="O102" s="201"/>
+      <c r="P102" s="201"/>
+      <c r="Q102" s="201"/>
+      <c r="R102" s="201"/>
+      <c r="S102" s="201"/>
+      <c r="T102" s="201"/>
     </row>
     <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="86" t="s">
@@ -26350,12 +26350,12 @@
       <c r="N103" s="94">
         <v>0.177677949035706</v>
       </c>
-      <c r="O103" s="199"/>
-      <c r="P103" s="199"/>
-      <c r="Q103" s="199"/>
-      <c r="R103" s="199"/>
-      <c r="S103" s="199"/>
-      <c r="T103" s="199"/>
+      <c r="O103" s="201"/>
+      <c r="P103" s="201"/>
+      <c r="Q103" s="201"/>
+      <c r="R103" s="201"/>
+      <c r="S103" s="201"/>
+      <c r="T103" s="201"/>
     </row>
     <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="86" t="s">
@@ -26400,12 +26400,12 @@
       <c r="N104" s="94">
         <v>0.17764932562620425</v>
       </c>
-      <c r="O104" s="199"/>
-      <c r="P104" s="199"/>
-      <c r="Q104" s="199"/>
-      <c r="R104" s="199"/>
-      <c r="S104" s="199"/>
-      <c r="T104" s="199"/>
+      <c r="O104" s="201"/>
+      <c r="P104" s="201"/>
+      <c r="Q104" s="201"/>
+      <c r="R104" s="201"/>
+      <c r="S104" s="201"/>
+      <c r="T104" s="201"/>
     </row>
     <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="86" t="s">
@@ -26450,12 +26450,12 @@
       <c r="N105" s="94">
         <v>0.17298124760811329</v>
       </c>
-      <c r="O105" s="199"/>
-      <c r="P105" s="199"/>
-      <c r="Q105" s="199"/>
-      <c r="R105" s="199"/>
-      <c r="S105" s="199"/>
-      <c r="T105" s="199"/>
+      <c r="O105" s="201"/>
+      <c r="P105" s="201"/>
+      <c r="Q105" s="201"/>
+      <c r="R105" s="201"/>
+      <c r="S105" s="201"/>
+      <c r="T105" s="201"/>
     </row>
     <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="86" t="s">
@@ -26500,12 +26500,12 @@
       <c r="N106" s="94">
         <v>0.17508941066708134</v>
       </c>
-      <c r="O106" s="199"/>
-      <c r="P106" s="199"/>
-      <c r="Q106" s="199"/>
-      <c r="R106" s="199"/>
-      <c r="S106" s="199"/>
-      <c r="T106" s="199"/>
+      <c r="O106" s="201"/>
+      <c r="P106" s="201"/>
+      <c r="Q106" s="201"/>
+      <c r="R106" s="201"/>
+      <c r="S106" s="201"/>
+      <c r="T106" s="201"/>
     </row>
     <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="86" t="s">
@@ -26550,12 +26550,12 @@
       <c r="N107" s="94">
         <v>0.17483262325015217</v>
       </c>
-      <c r="O107" s="199"/>
-      <c r="P107" s="199"/>
-      <c r="Q107" s="199"/>
-      <c r="R107" s="199"/>
-      <c r="S107" s="199"/>
-      <c r="T107" s="199"/>
+      <c r="O107" s="201"/>
+      <c r="P107" s="201"/>
+      <c r="Q107" s="201"/>
+      <c r="R107" s="201"/>
+      <c r="S107" s="201"/>
+      <c r="T107" s="201"/>
     </row>
     <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="86" t="s">
@@ -26600,12 +26600,12 @@
       <c r="N108" s="94">
         <v>0.17444050938135786</v>
       </c>
-      <c r="O108" s="199"/>
-      <c r="P108" s="199"/>
-      <c r="Q108" s="199"/>
-      <c r="R108" s="199"/>
-      <c r="S108" s="199"/>
-      <c r="T108" s="199"/>
+      <c r="O108" s="201"/>
+      <c r="P108" s="201"/>
+      <c r="Q108" s="201"/>
+      <c r="R108" s="201"/>
+      <c r="S108" s="201"/>
+      <c r="T108" s="201"/>
     </row>
     <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="86" t="s">
@@ -26650,12 +26650,12 @@
       <c r="N109" s="94">
         <v>0.16989396035039189</v>
       </c>
-      <c r="O109" s="199"/>
-      <c r="P109" s="199"/>
-      <c r="Q109" s="199"/>
-      <c r="R109" s="199"/>
-      <c r="S109" s="199"/>
-      <c r="T109" s="199"/>
+      <c r="O109" s="201"/>
+      <c r="P109" s="201"/>
+      <c r="Q109" s="201"/>
+      <c r="R109" s="201"/>
+      <c r="S109" s="201"/>
+      <c r="T109" s="201"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="91" t="s">
@@ -26713,12 +26713,12 @@
         <f t="shared" ref="N110" si="102">AVERAGE(N100:N109)</f>
         <v>0.17456815915165652</v>
       </c>
-      <c r="O110" s="199"/>
-      <c r="P110" s="199"/>
-      <c r="Q110" s="199"/>
-      <c r="R110" s="199"/>
-      <c r="S110" s="199"/>
-      <c r="T110" s="199"/>
+      <c r="O110" s="201"/>
+      <c r="P110" s="201"/>
+      <c r="Q110" s="201"/>
+      <c r="R110" s="201"/>
+      <c r="S110" s="201"/>
+      <c r="T110" s="201"/>
     </row>
     <row r="111" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="98"/>
@@ -26778,14 +26778,14 @@
       <c r="N112" s="94">
         <v>0.17537800291657071</v>
       </c>
-      <c r="O112" s="199" t="s">
+      <c r="O112" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="P112" s="199"/>
-      <c r="Q112" s="199"/>
-      <c r="R112" s="199"/>
-      <c r="S112" s="199"/>
-      <c r="T112" s="199"/>
+      <c r="P112" s="201"/>
+      <c r="Q112" s="201"/>
+      <c r="R112" s="201"/>
+      <c r="S112" s="201"/>
+      <c r="T112" s="201"/>
     </row>
     <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="86" t="s">
@@ -26830,12 +26830,12 @@
       <c r="N113" s="94">
         <v>0.17761576049018848</v>
       </c>
-      <c r="O113" s="199"/>
-      <c r="P113" s="199"/>
-      <c r="Q113" s="199"/>
-      <c r="R113" s="199"/>
-      <c r="S113" s="199"/>
-      <c r="T113" s="199"/>
+      <c r="O113" s="201"/>
+      <c r="P113" s="201"/>
+      <c r="Q113" s="201"/>
+      <c r="R113" s="201"/>
+      <c r="S113" s="201"/>
+      <c r="T113" s="201"/>
     </row>
     <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="86" t="s">
@@ -26880,12 +26880,12 @@
       <c r="N114" s="94">
         <v>0.17222222222222222</v>
       </c>
-      <c r="O114" s="199"/>
-      <c r="P114" s="199"/>
-      <c r="Q114" s="199"/>
-      <c r="R114" s="199"/>
-      <c r="S114" s="199"/>
-      <c r="T114" s="199"/>
+      <c r="O114" s="201"/>
+      <c r="P114" s="201"/>
+      <c r="Q114" s="201"/>
+      <c r="R114" s="201"/>
+      <c r="S114" s="201"/>
+      <c r="T114" s="201"/>
     </row>
     <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="86" t="s">
@@ -26930,12 +26930,12 @@
       <c r="N115" s="94">
         <v>0.16922606769042708</v>
       </c>
-      <c r="O115" s="199"/>
-      <c r="P115" s="199"/>
-      <c r="Q115" s="199"/>
-      <c r="R115" s="199"/>
-      <c r="S115" s="199"/>
-      <c r="T115" s="199"/>
+      <c r="O115" s="201"/>
+      <c r="P115" s="201"/>
+      <c r="Q115" s="201"/>
+      <c r="R115" s="201"/>
+      <c r="S115" s="201"/>
+      <c r="T115" s="201"/>
     </row>
     <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="86" t="s">
@@ -26980,12 +26980,12 @@
       <c r="N116" s="94">
         <v>0.17563031769573023</v>
       </c>
-      <c r="O116" s="199"/>
-      <c r="P116" s="199"/>
-      <c r="Q116" s="199"/>
-      <c r="R116" s="199"/>
-      <c r="S116" s="199"/>
-      <c r="T116" s="199"/>
+      <c r="O116" s="201"/>
+      <c r="P116" s="201"/>
+      <c r="Q116" s="201"/>
+      <c r="R116" s="201"/>
+      <c r="S116" s="201"/>
+      <c r="T116" s="201"/>
     </row>
     <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="86" t="s">
@@ -27030,12 +27030,12 @@
       <c r="N117" s="94">
         <v>0.16729280073602698</v>
       </c>
-      <c r="O117" s="199"/>
-      <c r="P117" s="199"/>
-      <c r="Q117" s="199"/>
-      <c r="R117" s="199"/>
-      <c r="S117" s="199"/>
-      <c r="T117" s="199"/>
+      <c r="O117" s="201"/>
+      <c r="P117" s="201"/>
+      <c r="Q117" s="201"/>
+      <c r="R117" s="201"/>
+      <c r="S117" s="201"/>
+      <c r="T117" s="201"/>
     </row>
     <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="86" t="s">
@@ -27080,12 +27080,12 @@
       <c r="N118" s="94">
         <v>0.17375161021444269</v>
       </c>
-      <c r="O118" s="199"/>
-      <c r="P118" s="199"/>
-      <c r="Q118" s="199"/>
-      <c r="R118" s="199"/>
-      <c r="S118" s="199"/>
-      <c r="T118" s="199"/>
+      <c r="O118" s="201"/>
+      <c r="P118" s="201"/>
+      <c r="Q118" s="201"/>
+      <c r="R118" s="201"/>
+      <c r="S118" s="201"/>
+      <c r="T118" s="201"/>
     </row>
     <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="86" t="s">
@@ -27130,12 +27130,12 @@
       <c r="N119" s="94">
         <v>0.1726707120362547</v>
       </c>
-      <c r="O119" s="199"/>
-      <c r="P119" s="199"/>
-      <c r="Q119" s="199"/>
-      <c r="R119" s="199"/>
-      <c r="S119" s="199"/>
-      <c r="T119" s="199"/>
+      <c r="O119" s="201"/>
+      <c r="P119" s="201"/>
+      <c r="Q119" s="201"/>
+      <c r="R119" s="201"/>
+      <c r="S119" s="201"/>
+      <c r="T119" s="201"/>
     </row>
     <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="86" t="s">
@@ -27180,12 +27180,12 @@
       <c r="N120" s="94">
         <v>0.17314864144912093</v>
       </c>
-      <c r="O120" s="199"/>
-      <c r="P120" s="199"/>
-      <c r="Q120" s="199"/>
-      <c r="R120" s="199"/>
-      <c r="S120" s="199"/>
-      <c r="T120" s="199"/>
+      <c r="O120" s="201"/>
+      <c r="P120" s="201"/>
+      <c r="Q120" s="201"/>
+      <c r="R120" s="201"/>
+      <c r="S120" s="201"/>
+      <c r="T120" s="201"/>
     </row>
     <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="86" t="s">
@@ -27230,12 +27230,12 @@
       <c r="N121" s="94">
         <v>0.17636066339640272</v>
       </c>
-      <c r="O121" s="199"/>
-      <c r="P121" s="199"/>
-      <c r="Q121" s="199"/>
-      <c r="R121" s="199"/>
-      <c r="S121" s="199"/>
-      <c r="T121" s="199"/>
+      <c r="O121" s="201"/>
+      <c r="P121" s="201"/>
+      <c r="Q121" s="201"/>
+      <c r="R121" s="201"/>
+      <c r="S121" s="201"/>
+      <c r="T121" s="201"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="91" t="s">
@@ -27293,12 +27293,12 @@
         <f t="shared" ref="N122" si="114">AVERAGE(N112:N121)</f>
         <v>0.17332967988473869</v>
       </c>
-      <c r="O122" s="199"/>
-      <c r="P122" s="199"/>
-      <c r="Q122" s="199"/>
-      <c r="R122" s="199"/>
-      <c r="S122" s="199"/>
-      <c r="T122" s="199"/>
+      <c r="O122" s="201"/>
+      <c r="P122" s="201"/>
+      <c r="Q122" s="201"/>
+      <c r="R122" s="201"/>
+      <c r="S122" s="201"/>
+      <c r="T122" s="201"/>
     </row>
     <row r="123" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="98"/>
@@ -27358,14 +27358,14 @@
       <c r="N124" s="94">
         <v>0.17221882640586797</v>
       </c>
-      <c r="O124" s="199" t="s">
+      <c r="O124" s="201" t="s">
         <v>193</v>
       </c>
-      <c r="P124" s="199"/>
-      <c r="Q124" s="199"/>
-      <c r="R124" s="199"/>
-      <c r="S124" s="199"/>
-      <c r="T124" s="199"/>
+      <c r="P124" s="201"/>
+      <c r="Q124" s="201"/>
+      <c r="R124" s="201"/>
+      <c r="S124" s="201"/>
+      <c r="T124" s="201"/>
     </row>
     <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="86" t="s">
@@ -27410,12 +27410,12 @@
       <c r="N125" s="94">
         <v>0.17350717481870082</v>
       </c>
-      <c r="O125" s="199"/>
-      <c r="P125" s="199"/>
-      <c r="Q125" s="199"/>
-      <c r="R125" s="199"/>
-      <c r="S125" s="199"/>
-      <c r="T125" s="199"/>
+      <c r="O125" s="201"/>
+      <c r="P125" s="201"/>
+      <c r="Q125" s="201"/>
+      <c r="R125" s="201"/>
+      <c r="S125" s="201"/>
+      <c r="T125" s="201"/>
     </row>
     <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="86" t="s">
@@ -27460,12 +27460,12 @@
       <c r="N126" s="94">
         <v>0.17092263261893906</v>
       </c>
-      <c r="O126" s="199"/>
-      <c r="P126" s="199"/>
-      <c r="Q126" s="199"/>
-      <c r="R126" s="199"/>
-      <c r="S126" s="199"/>
-      <c r="T126" s="199"/>
+      <c r="O126" s="201"/>
+      <c r="P126" s="201"/>
+      <c r="Q126" s="201"/>
+      <c r="R126" s="201"/>
+      <c r="S126" s="201"/>
+      <c r="T126" s="201"/>
     </row>
     <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="86" t="s">
@@ -27510,12 +27510,12 @@
       <c r="N127" s="94">
         <v>0.17220333745364647</v>
       </c>
-      <c r="O127" s="199"/>
-      <c r="P127" s="199"/>
-      <c r="Q127" s="199"/>
-      <c r="R127" s="199"/>
-      <c r="S127" s="199"/>
-      <c r="T127" s="199"/>
+      <c r="O127" s="201"/>
+      <c r="P127" s="201"/>
+      <c r="Q127" s="201"/>
+      <c r="R127" s="201"/>
+      <c r="S127" s="201"/>
+      <c r="T127" s="201"/>
     </row>
     <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="86" t="s">
@@ -27560,12 +27560,12 @@
       <c r="N128" s="94">
         <v>0.17278668118873503</v>
       </c>
-      <c r="O128" s="199"/>
-      <c r="P128" s="199"/>
-      <c r="Q128" s="199"/>
-      <c r="R128" s="199"/>
-      <c r="S128" s="199"/>
-      <c r="T128" s="199"/>
+      <c r="O128" s="201"/>
+      <c r="P128" s="201"/>
+      <c r="Q128" s="201"/>
+      <c r="R128" s="201"/>
+      <c r="S128" s="201"/>
+      <c r="T128" s="201"/>
     </row>
     <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="86" t="s">
@@ -27610,12 +27610,12 @@
       <c r="N129" s="94">
         <v>0.16994674693216022</v>
       </c>
-      <c r="O129" s="199"/>
-      <c r="P129" s="199"/>
-      <c r="Q129" s="199"/>
-      <c r="R129" s="199"/>
-      <c r="S129" s="199"/>
-      <c r="T129" s="199"/>
+      <c r="O129" s="201"/>
+      <c r="P129" s="201"/>
+      <c r="Q129" s="201"/>
+      <c r="R129" s="201"/>
+      <c r="S129" s="201"/>
+      <c r="T129" s="201"/>
     </row>
     <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="86" t="s">
@@ -27660,12 +27660,12 @@
       <c r="N130" s="94">
         <v>0.16907404591759162</v>
       </c>
-      <c r="O130" s="199"/>
-      <c r="P130" s="199"/>
-      <c r="Q130" s="199"/>
-      <c r="R130" s="199"/>
-      <c r="S130" s="199"/>
-      <c r="T130" s="199"/>
+      <c r="O130" s="201"/>
+      <c r="P130" s="201"/>
+      <c r="Q130" s="201"/>
+      <c r="R130" s="201"/>
+      <c r="S130" s="201"/>
+      <c r="T130" s="201"/>
     </row>
     <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="86" t="s">
@@ -27710,12 +27710,12 @@
       <c r="N131" s="94">
         <v>0.16873793901968351</v>
       </c>
-      <c r="O131" s="199"/>
-      <c r="P131" s="199"/>
-      <c r="Q131" s="199"/>
-      <c r="R131" s="199"/>
-      <c r="S131" s="199"/>
-      <c r="T131" s="199"/>
+      <c r="O131" s="201"/>
+      <c r="P131" s="201"/>
+      <c r="Q131" s="201"/>
+      <c r="R131" s="201"/>
+      <c r="S131" s="201"/>
+      <c r="T131" s="201"/>
     </row>
     <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="86" t="s">
@@ -27760,12 +27760,12 @@
       <c r="N132" s="94">
         <v>0.16885524486327824</v>
       </c>
-      <c r="O132" s="199"/>
-      <c r="P132" s="199"/>
-      <c r="Q132" s="199"/>
-      <c r="R132" s="199"/>
-      <c r="S132" s="199"/>
-      <c r="T132" s="199"/>
+      <c r="O132" s="201"/>
+      <c r="P132" s="201"/>
+      <c r="Q132" s="201"/>
+      <c r="R132" s="201"/>
+      <c r="S132" s="201"/>
+      <c r="T132" s="201"/>
     </row>
     <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="86" t="s">
@@ -27810,12 +27810,12 @@
       <c r="N133" s="94">
         <v>0.1665903890160183</v>
       </c>
-      <c r="O133" s="199"/>
-      <c r="P133" s="199"/>
-      <c r="Q133" s="199"/>
-      <c r="R133" s="199"/>
-      <c r="S133" s="199"/>
-      <c r="T133" s="199"/>
+      <c r="O133" s="201"/>
+      <c r="P133" s="201"/>
+      <c r="Q133" s="201"/>
+      <c r="R133" s="201"/>
+      <c r="S133" s="201"/>
+      <c r="T133" s="201"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="91" t="s">
@@ -27873,12 +27873,12 @@
         <f t="shared" ref="N134" si="126">AVERAGE(N124:N133)</f>
         <v>0.17048430182346214</v>
       </c>
-      <c r="O134" s="199"/>
-      <c r="P134" s="199"/>
-      <c r="Q134" s="199"/>
-      <c r="R134" s="199"/>
-      <c r="S134" s="199"/>
-      <c r="T134" s="199"/>
+      <c r="O134" s="201"/>
+      <c r="P134" s="201"/>
+      <c r="Q134" s="201"/>
+      <c r="R134" s="201"/>
+      <c r="S134" s="201"/>
+      <c r="T134" s="201"/>
     </row>
     <row r="135" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="98"/>
@@ -27938,14 +27938,14 @@
       <c r="N136" s="94">
         <v>0.34263470284436909</v>
       </c>
-      <c r="O136" s="199" t="s">
+      <c r="O136" s="201" t="s">
         <v>194</v>
       </c>
-      <c r="P136" s="199"/>
-      <c r="Q136" s="199"/>
-      <c r="R136" s="199"/>
-      <c r="S136" s="199"/>
-      <c r="T136" s="199"/>
+      <c r="P136" s="201"/>
+      <c r="Q136" s="201"/>
+      <c r="R136" s="201"/>
+      <c r="S136" s="201"/>
+      <c r="T136" s="201"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="86" t="s">
@@ -27990,12 +27990,12 @@
       <c r="N137" s="94">
         <v>0.34725969320897249</v>
       </c>
-      <c r="O137" s="199"/>
-      <c r="P137" s="199"/>
-      <c r="Q137" s="199"/>
-      <c r="R137" s="199"/>
-      <c r="S137" s="199"/>
-      <c r="T137" s="199"/>
+      <c r="O137" s="201"/>
+      <c r="P137" s="201"/>
+      <c r="Q137" s="201"/>
+      <c r="R137" s="201"/>
+      <c r="S137" s="201"/>
+      <c r="T137" s="201"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="86" t="s">
@@ -28040,12 +28040,12 @@
       <c r="N138" s="94">
         <v>0.34692461846770462</v>
       </c>
-      <c r="O138" s="199"/>
-      <c r="P138" s="199"/>
-      <c r="Q138" s="199"/>
-      <c r="R138" s="199"/>
-      <c r="S138" s="199"/>
-      <c r="T138" s="199"/>
+      <c r="O138" s="201"/>
+      <c r="P138" s="201"/>
+      <c r="Q138" s="201"/>
+      <c r="R138" s="201"/>
+      <c r="S138" s="201"/>
+      <c r="T138" s="201"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="86" t="s">
@@ -28090,12 +28090,12 @@
       <c r="N139" s="94">
         <v>0.35268684373069797</v>
       </c>
-      <c r="O139" s="199"/>
-      <c r="P139" s="199"/>
-      <c r="Q139" s="199"/>
-      <c r="R139" s="199"/>
-      <c r="S139" s="199"/>
-      <c r="T139" s="199"/>
+      <c r="O139" s="201"/>
+      <c r="P139" s="201"/>
+      <c r="Q139" s="201"/>
+      <c r="R139" s="201"/>
+      <c r="S139" s="201"/>
+      <c r="T139" s="201"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="86" t="s">
@@ -28140,12 +28140,12 @@
       <c r="N140" s="94">
         <v>0.34479833423305312</v>
       </c>
-      <c r="O140" s="199"/>
-      <c r="P140" s="199"/>
-      <c r="Q140" s="199"/>
-      <c r="R140" s="199"/>
-      <c r="S140" s="199"/>
-      <c r="T140" s="199"/>
+      <c r="O140" s="201"/>
+      <c r="P140" s="201"/>
+      <c r="Q140" s="201"/>
+      <c r="R140" s="201"/>
+      <c r="S140" s="201"/>
+      <c r="T140" s="201"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="86" t="s">
@@ -28190,12 +28190,12 @@
       <c r="N141" s="94">
         <v>0.34943268935909233</v>
       </c>
-      <c r="O141" s="199"/>
-      <c r="P141" s="199"/>
-      <c r="Q141" s="199"/>
-      <c r="R141" s="199"/>
-      <c r="S141" s="199"/>
-      <c r="T141" s="199"/>
+      <c r="O141" s="201"/>
+      <c r="P141" s="201"/>
+      <c r="Q141" s="201"/>
+      <c r="R141" s="201"/>
+      <c r="S141" s="201"/>
+      <c r="T141" s="201"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="86" t="s">
@@ -28240,12 +28240,12 @@
       <c r="N142" s="94">
         <v>0.34471569839307786</v>
       </c>
-      <c r="O142" s="199"/>
-      <c r="P142" s="199"/>
-      <c r="Q142" s="199"/>
-      <c r="R142" s="199"/>
-      <c r="S142" s="199"/>
-      <c r="T142" s="199"/>
+      <c r="O142" s="201"/>
+      <c r="P142" s="201"/>
+      <c r="Q142" s="201"/>
+      <c r="R142" s="201"/>
+      <c r="S142" s="201"/>
+      <c r="T142" s="201"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="86" t="s">
@@ -28290,12 +28290,12 @@
       <c r="N143" s="94">
         <v>0.34220847790013575</v>
       </c>
-      <c r="O143" s="199"/>
-      <c r="P143" s="199"/>
-      <c r="Q143" s="199"/>
-      <c r="R143" s="199"/>
-      <c r="S143" s="199"/>
-      <c r="T143" s="199"/>
+      <c r="O143" s="201"/>
+      <c r="P143" s="201"/>
+      <c r="Q143" s="201"/>
+      <c r="R143" s="201"/>
+      <c r="S143" s="201"/>
+      <c r="T143" s="201"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="86" t="s">
@@ -28340,12 +28340,12 @@
       <c r="N144" s="94">
         <v>0.34444013948082136</v>
       </c>
-      <c r="O144" s="199"/>
-      <c r="P144" s="199"/>
-      <c r="Q144" s="199"/>
-      <c r="R144" s="199"/>
-      <c r="S144" s="199"/>
-      <c r="T144" s="199"/>
+      <c r="O144" s="201"/>
+      <c r="P144" s="201"/>
+      <c r="Q144" s="201"/>
+      <c r="R144" s="201"/>
+      <c r="S144" s="201"/>
+      <c r="T144" s="201"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="86" t="s">
@@ -28390,12 +28390,12 @@
       <c r="N145" s="94">
         <v>0.3416956324618407</v>
       </c>
-      <c r="O145" s="199"/>
-      <c r="P145" s="199"/>
-      <c r="Q145" s="199"/>
-      <c r="R145" s="199"/>
-      <c r="S145" s="199"/>
-      <c r="T145" s="199"/>
+      <c r="O145" s="201"/>
+      <c r="P145" s="201"/>
+      <c r="Q145" s="201"/>
+      <c r="R145" s="201"/>
+      <c r="S145" s="201"/>
+      <c r="T145" s="201"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="91" t="s">
@@ -28453,12 +28453,12 @@
         <f t="shared" ref="N146" si="138">AVERAGE(N136:N145)</f>
         <v>0.34567968300797652</v>
       </c>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-      <c r="Q146" s="199"/>
-      <c r="R146" s="199"/>
-      <c r="S146" s="199"/>
-      <c r="T146" s="199"/>
+      <c r="O146" s="201"/>
+      <c r="P146" s="201"/>
+      <c r="Q146" s="201"/>
+      <c r="R146" s="201"/>
+      <c r="S146" s="201"/>
+      <c r="T146" s="201"/>
     </row>
     <row r="147" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="98"/>
@@ -28518,14 +28518,14 @@
       <c r="N148" s="94">
         <v>0.3500538544391445</v>
       </c>
-      <c r="O148" s="199" t="s">
+      <c r="O148" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="P148" s="199"/>
-      <c r="Q148" s="199"/>
-      <c r="R148" s="199"/>
-      <c r="S148" s="199"/>
-      <c r="T148" s="199"/>
+      <c r="P148" s="201"/>
+      <c r="Q148" s="201"/>
+      <c r="R148" s="201"/>
+      <c r="S148" s="201"/>
+      <c r="T148" s="201"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="86" t="s">
@@ -28570,12 +28570,12 @@
       <c r="N149" s="94">
         <v>0.34798728813559321</v>
       </c>
-      <c r="O149" s="199"/>
-      <c r="P149" s="199"/>
-      <c r="Q149" s="199"/>
-      <c r="R149" s="199"/>
-      <c r="S149" s="199"/>
-      <c r="T149" s="199"/>
+      <c r="O149" s="201"/>
+      <c r="P149" s="201"/>
+      <c r="Q149" s="201"/>
+      <c r="R149" s="201"/>
+      <c r="S149" s="201"/>
+      <c r="T149" s="201"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="86" t="s">
@@ -28620,12 +28620,12 @@
       <c r="N150" s="94">
         <v>0.35468737983542259</v>
       </c>
-      <c r="O150" s="199"/>
-      <c r="P150" s="199"/>
-      <c r="Q150" s="199"/>
-      <c r="R150" s="199"/>
-      <c r="S150" s="199"/>
-      <c r="T150" s="199"/>
+      <c r="O150" s="201"/>
+      <c r="P150" s="201"/>
+      <c r="Q150" s="201"/>
+      <c r="R150" s="201"/>
+      <c r="S150" s="201"/>
+      <c r="T150" s="201"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="86" t="s">
@@ -28670,12 +28670,12 @@
       <c r="N151" s="94">
         <v>0.34855842185128982</v>
       </c>
-      <c r="O151" s="199"/>
-      <c r="P151" s="199"/>
-      <c r="Q151" s="199"/>
-      <c r="R151" s="199"/>
-      <c r="S151" s="199"/>
-      <c r="T151" s="199"/>
+      <c r="O151" s="201"/>
+      <c r="P151" s="201"/>
+      <c r="Q151" s="201"/>
+      <c r="R151" s="201"/>
+      <c r="S151" s="201"/>
+      <c r="T151" s="201"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="86" t="s">
@@ -28720,12 +28720,12 @@
       <c r="N152" s="94">
         <v>0.35139927530645287</v>
       </c>
-      <c r="O152" s="199"/>
-      <c r="P152" s="199"/>
-      <c r="Q152" s="199"/>
-      <c r="R152" s="199"/>
-      <c r="S152" s="199"/>
-      <c r="T152" s="199"/>
+      <c r="O152" s="201"/>
+      <c r="P152" s="201"/>
+      <c r="Q152" s="201"/>
+      <c r="R152" s="201"/>
+      <c r="S152" s="201"/>
+      <c r="T152" s="201"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="86" t="s">
@@ -28770,12 +28770,12 @@
       <c r="N153" s="94">
         <v>0.35212888377445339</v>
       </c>
-      <c r="O153" s="199"/>
-      <c r="P153" s="199"/>
-      <c r="Q153" s="199"/>
-      <c r="R153" s="199"/>
-      <c r="S153" s="199"/>
-      <c r="T153" s="199"/>
+      <c r="O153" s="201"/>
+      <c r="P153" s="201"/>
+      <c r="Q153" s="201"/>
+      <c r="R153" s="201"/>
+      <c r="S153" s="201"/>
+      <c r="T153" s="201"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="86" t="s">
@@ -28820,12 +28820,12 @@
       <c r="N154" s="94">
         <v>0.35056179775280899</v>
       </c>
-      <c r="O154" s="199"/>
-      <c r="P154" s="199"/>
-      <c r="Q154" s="199"/>
-      <c r="R154" s="199"/>
-      <c r="S154" s="199"/>
-      <c r="T154" s="199"/>
+      <c r="O154" s="201"/>
+      <c r="P154" s="201"/>
+      <c r="Q154" s="201"/>
+      <c r="R154" s="201"/>
+      <c r="S154" s="201"/>
+      <c r="T154" s="201"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="86" t="s">
@@ -28870,12 +28870,12 @@
       <c r="N155" s="94">
         <v>0.3610292977832894</v>
       </c>
-      <c r="O155" s="199"/>
-      <c r="P155" s="199"/>
-      <c r="Q155" s="199"/>
-      <c r="R155" s="199"/>
-      <c r="S155" s="199"/>
-      <c r="T155" s="199"/>
+      <c r="O155" s="201"/>
+      <c r="P155" s="201"/>
+      <c r="Q155" s="201"/>
+      <c r="R155" s="201"/>
+      <c r="S155" s="201"/>
+      <c r="T155" s="201"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="86" t="s">
@@ -28920,12 +28920,12 @@
       <c r="N156" s="94">
         <v>0.34164742109314855</v>
       </c>
-      <c r="O156" s="199"/>
-      <c r="P156" s="199"/>
-      <c r="Q156" s="199"/>
-      <c r="R156" s="199"/>
-      <c r="S156" s="199"/>
-      <c r="T156" s="199"/>
+      <c r="O156" s="201"/>
+      <c r="P156" s="201"/>
+      <c r="Q156" s="201"/>
+      <c r="R156" s="201"/>
+      <c r="S156" s="201"/>
+      <c r="T156" s="201"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="86" t="s">
@@ -28970,12 +28970,12 @@
       <c r="N157" s="94">
         <v>0.34514896867838046</v>
       </c>
-      <c r="O157" s="199"/>
-      <c r="P157" s="199"/>
-      <c r="Q157" s="199"/>
-      <c r="R157" s="199"/>
-      <c r="S157" s="199"/>
-      <c r="T157" s="199"/>
+      <c r="O157" s="201"/>
+      <c r="P157" s="201"/>
+      <c r="Q157" s="201"/>
+      <c r="R157" s="201"/>
+      <c r="S157" s="201"/>
+      <c r="T157" s="201"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="91" t="s">
@@ -29033,12 +29033,12 @@
         <f t="shared" ref="N158" si="150">AVERAGE(N148:N157)</f>
         <v>0.3503202588649984</v>
       </c>
-      <c r="O158" s="199"/>
-      <c r="P158" s="199"/>
-      <c r="Q158" s="199"/>
-      <c r="R158" s="199"/>
-      <c r="S158" s="199"/>
-      <c r="T158" s="199"/>
+      <c r="O158" s="201"/>
+      <c r="P158" s="201"/>
+      <c r="Q158" s="201"/>
+      <c r="R158" s="201"/>
+      <c r="S158" s="201"/>
+      <c r="T158" s="201"/>
     </row>
     <row r="159" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="98"/>
@@ -29098,14 +29098,14 @@
       <c r="N160" s="94">
         <v>0.35293209876543208</v>
       </c>
-      <c r="O160" s="199" t="s">
+      <c r="O160" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="P160" s="199"/>
-      <c r="Q160" s="199"/>
-      <c r="R160" s="199"/>
-      <c r="S160" s="199"/>
-      <c r="T160" s="199"/>
+      <c r="P160" s="201"/>
+      <c r="Q160" s="201"/>
+      <c r="R160" s="201"/>
+      <c r="S160" s="201"/>
+      <c r="T160" s="201"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="86" t="s">
@@ -29150,12 +29150,12 @@
       <c r="N161" s="94">
         <v>0.34995799282059115</v>
       </c>
-      <c r="O161" s="199"/>
-      <c r="P161" s="199"/>
-      <c r="Q161" s="199"/>
-      <c r="R161" s="199"/>
-      <c r="S161" s="199"/>
-      <c r="T161" s="199"/>
+      <c r="O161" s="201"/>
+      <c r="P161" s="201"/>
+      <c r="Q161" s="201"/>
+      <c r="R161" s="201"/>
+      <c r="S161" s="201"/>
+      <c r="T161" s="201"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="86" t="s">
@@ -29200,12 +29200,12 @@
       <c r="N162" s="94">
         <v>0.35635465699513852</v>
       </c>
-      <c r="O162" s="199"/>
-      <c r="P162" s="199"/>
-      <c r="Q162" s="199"/>
-      <c r="R162" s="199"/>
-      <c r="S162" s="199"/>
-      <c r="T162" s="199"/>
+      <c r="O162" s="201"/>
+      <c r="P162" s="201"/>
+      <c r="Q162" s="201"/>
+      <c r="R162" s="201"/>
+      <c r="S162" s="201"/>
+      <c r="T162" s="201"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
@@ -29250,12 +29250,12 @@
       <c r="N163" s="94">
         <v>0.35251413724591169</v>
       </c>
-      <c r="O163" s="199"/>
-      <c r="P163" s="199"/>
-      <c r="Q163" s="199"/>
-      <c r="R163" s="199"/>
-      <c r="S163" s="199"/>
-      <c r="T163" s="199"/>
+      <c r="O163" s="201"/>
+      <c r="P163" s="201"/>
+      <c r="Q163" s="201"/>
+      <c r="R163" s="201"/>
+      <c r="S163" s="201"/>
+      <c r="T163" s="201"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
@@ -29300,12 +29300,12 @@
       <c r="N164" s="94">
         <v>0.35047662976629768</v>
       </c>
-      <c r="O164" s="199"/>
-      <c r="P164" s="199"/>
-      <c r="Q164" s="199"/>
-      <c r="R164" s="199"/>
-      <c r="S164" s="199"/>
-      <c r="T164" s="199"/>
+      <c r="O164" s="201"/>
+      <c r="P164" s="201"/>
+      <c r="Q164" s="201"/>
+      <c r="R164" s="201"/>
+      <c r="S164" s="201"/>
+      <c r="T164" s="201"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
@@ -29350,12 +29350,12 @@
       <c r="N165" s="94">
         <v>0.3479597325751172</v>
       </c>
-      <c r="O165" s="199"/>
-      <c r="P165" s="199"/>
-      <c r="Q165" s="199"/>
-      <c r="R165" s="199"/>
-      <c r="S165" s="199"/>
-      <c r="T165" s="199"/>
+      <c r="O165" s="201"/>
+      <c r="P165" s="201"/>
+      <c r="Q165" s="201"/>
+      <c r="R165" s="201"/>
+      <c r="S165" s="201"/>
+      <c r="T165" s="201"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
@@ -29400,12 +29400,12 @@
       <c r="N166" s="94">
         <v>0.34636656936549393</v>
       </c>
-      <c r="O166" s="199"/>
-      <c r="P166" s="199"/>
-      <c r="Q166" s="199"/>
-      <c r="R166" s="199"/>
-      <c r="S166" s="199"/>
-      <c r="T166" s="199"/>
+      <c r="O166" s="201"/>
+      <c r="P166" s="201"/>
+      <c r="Q166" s="201"/>
+      <c r="R166" s="201"/>
+      <c r="S166" s="201"/>
+      <c r="T166" s="201"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="86" t="s">
@@ -29450,12 +29450,12 @@
       <c r="N167" s="94">
         <v>0.34574387086949904</v>
       </c>
-      <c r="O167" s="199"/>
-      <c r="P167" s="199"/>
-      <c r="Q167" s="199"/>
-      <c r="R167" s="199"/>
-      <c r="S167" s="199"/>
-      <c r="T167" s="199"/>
+      <c r="O167" s="201"/>
+      <c r="P167" s="201"/>
+      <c r="Q167" s="201"/>
+      <c r="R167" s="201"/>
+      <c r="S167" s="201"/>
+      <c r="T167" s="201"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
@@ -29500,12 +29500,12 @@
       <c r="N168" s="94">
         <v>0.34761941868619967</v>
       </c>
-      <c r="O168" s="199"/>
-      <c r="P168" s="199"/>
-      <c r="Q168" s="199"/>
-      <c r="R168" s="199"/>
-      <c r="S168" s="199"/>
-      <c r="T168" s="199"/>
+      <c r="O168" s="201"/>
+      <c r="P168" s="201"/>
+      <c r="Q168" s="201"/>
+      <c r="R168" s="201"/>
+      <c r="S168" s="201"/>
+      <c r="T168" s="201"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="86" t="s">
@@ -29550,12 +29550,12 @@
       <c r="N169" s="94">
         <v>0.35355074672355991</v>
       </c>
-      <c r="O169" s="199"/>
-      <c r="P169" s="199"/>
-      <c r="Q169" s="199"/>
-      <c r="R169" s="199"/>
-      <c r="S169" s="199"/>
-      <c r="T169" s="199"/>
+      <c r="O169" s="201"/>
+      <c r="P169" s="201"/>
+      <c r="Q169" s="201"/>
+      <c r="R169" s="201"/>
+      <c r="S169" s="201"/>
+      <c r="T169" s="201"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="91" t="s">
@@ -29613,12 +29613,12 @@
         <f t="shared" ref="N170" si="162">AVERAGE(N160:N169)</f>
         <v>0.35034758538132416</v>
       </c>
-      <c r="O170" s="199"/>
-      <c r="P170" s="199"/>
-      <c r="Q170" s="199"/>
-      <c r="R170" s="199"/>
-      <c r="S170" s="199"/>
-      <c r="T170" s="199"/>
+      <c r="O170" s="201"/>
+      <c r="P170" s="201"/>
+      <c r="Q170" s="201"/>
+      <c r="R170" s="201"/>
+      <c r="S170" s="201"/>
+      <c r="T170" s="201"/>
     </row>
     <row r="171" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="98"/>
@@ -29678,14 +29678,14 @@
       <c r="N172" s="94">
         <v>0.35771982460189244</v>
       </c>
-      <c r="O172" s="199" t="s">
+      <c r="O172" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="P172" s="199"/>
-      <c r="Q172" s="199"/>
-      <c r="R172" s="199"/>
-      <c r="S172" s="199"/>
-      <c r="T172" s="199"/>
+      <c r="P172" s="201"/>
+      <c r="Q172" s="201"/>
+      <c r="R172" s="201"/>
+      <c r="S172" s="201"/>
+      <c r="T172" s="201"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="86" t="s">
@@ -29730,12 +29730,12 @@
       <c r="N173" s="94">
         <v>0.35524196640846689</v>
       </c>
-      <c r="O173" s="199"/>
-      <c r="P173" s="199"/>
-      <c r="Q173" s="199"/>
-      <c r="R173" s="199"/>
-      <c r="S173" s="199"/>
-      <c r="T173" s="199"/>
+      <c r="O173" s="201"/>
+      <c r="P173" s="201"/>
+      <c r="Q173" s="201"/>
+      <c r="R173" s="201"/>
+      <c r="S173" s="201"/>
+      <c r="T173" s="201"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="86" t="s">
@@ -29780,12 +29780,12 @@
       <c r="N174" s="94">
         <v>0.35232326330317437</v>
       </c>
-      <c r="O174" s="199"/>
-      <c r="P174" s="199"/>
-      <c r="Q174" s="199"/>
-      <c r="R174" s="199"/>
-      <c r="S174" s="199"/>
-      <c r="T174" s="199"/>
+      <c r="O174" s="201"/>
+      <c r="P174" s="201"/>
+      <c r="Q174" s="201"/>
+      <c r="R174" s="201"/>
+      <c r="S174" s="201"/>
+      <c r="T174" s="201"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="86" t="s">
@@ -29830,12 +29830,12 @@
       <c r="N175" s="94">
         <v>0.3594211682703235</v>
       </c>
-      <c r="O175" s="199"/>
-      <c r="P175" s="199"/>
-      <c r="Q175" s="199"/>
-      <c r="R175" s="199"/>
-      <c r="S175" s="199"/>
-      <c r="T175" s="199"/>
+      <c r="O175" s="201"/>
+      <c r="P175" s="201"/>
+      <c r="Q175" s="201"/>
+      <c r="R175" s="201"/>
+      <c r="S175" s="201"/>
+      <c r="T175" s="201"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="86" t="s">
@@ -29880,12 +29880,12 @@
       <c r="N176" s="94">
         <v>0.35236355332267644</v>
       </c>
-      <c r="O176" s="199"/>
-      <c r="P176" s="199"/>
-      <c r="Q176" s="199"/>
-      <c r="R176" s="199"/>
-      <c r="S176" s="199"/>
-      <c r="T176" s="199"/>
+      <c r="O176" s="201"/>
+      <c r="P176" s="201"/>
+      <c r="Q176" s="201"/>
+      <c r="R176" s="201"/>
+      <c r="S176" s="201"/>
+      <c r="T176" s="201"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="86" t="s">
@@ -29930,12 +29930,12 @@
       <c r="N177" s="94">
         <v>0.35865669315879695</v>
       </c>
-      <c r="O177" s="199"/>
-      <c r="P177" s="199"/>
-      <c r="Q177" s="199"/>
-      <c r="R177" s="199"/>
-      <c r="S177" s="199"/>
-      <c r="T177" s="199"/>
+      <c r="O177" s="201"/>
+      <c r="P177" s="201"/>
+      <c r="Q177" s="201"/>
+      <c r="R177" s="201"/>
+      <c r="S177" s="201"/>
+      <c r="T177" s="201"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="86" t="s">
@@ -29980,12 +29980,12 @@
       <c r="N178" s="94">
         <v>0.36151134273451868</v>
       </c>
-      <c r="O178" s="199"/>
-      <c r="P178" s="199"/>
-      <c r="Q178" s="199"/>
-      <c r="R178" s="199"/>
-      <c r="S178" s="199"/>
-      <c r="T178" s="199"/>
+      <c r="O178" s="201"/>
+      <c r="P178" s="201"/>
+      <c r="Q178" s="201"/>
+      <c r="R178" s="201"/>
+      <c r="S178" s="201"/>
+      <c r="T178" s="201"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="86" t="s">
@@ -30030,12 +30030,12 @@
       <c r="N179" s="94">
         <v>0.35809304113802382</v>
       </c>
-      <c r="O179" s="199"/>
-      <c r="P179" s="199"/>
-      <c r="Q179" s="199"/>
-      <c r="R179" s="199"/>
-      <c r="S179" s="199"/>
-      <c r="T179" s="199"/>
+      <c r="O179" s="201"/>
+      <c r="P179" s="201"/>
+      <c r="Q179" s="201"/>
+      <c r="R179" s="201"/>
+      <c r="S179" s="201"/>
+      <c r="T179" s="201"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="86" t="s">
@@ -30080,12 +30080,12 @@
       <c r="N180" s="94">
         <v>0.36541698546289214</v>
       </c>
-      <c r="O180" s="199"/>
-      <c r="P180" s="199"/>
-      <c r="Q180" s="199"/>
-      <c r="R180" s="199"/>
-      <c r="S180" s="199"/>
-      <c r="T180" s="199"/>
+      <c r="O180" s="201"/>
+      <c r="P180" s="201"/>
+      <c r="Q180" s="201"/>
+      <c r="R180" s="201"/>
+      <c r="S180" s="201"/>
+      <c r="T180" s="201"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="86" t="s">
@@ -30130,12 +30130,12 @@
       <c r="N181" s="94">
         <v>0.35931097283351038</v>
       </c>
-      <c r="O181" s="199"/>
-      <c r="P181" s="199"/>
-      <c r="Q181" s="199"/>
-      <c r="R181" s="199"/>
-      <c r="S181" s="199"/>
-      <c r="T181" s="199"/>
+      <c r="O181" s="201"/>
+      <c r="P181" s="201"/>
+      <c r="Q181" s="201"/>
+      <c r="R181" s="201"/>
+      <c r="S181" s="201"/>
+      <c r="T181" s="201"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="91" t="s">
@@ -30193,12 +30193,12 @@
         <f t="shared" ref="N182" si="174">AVERAGE(N172:N181)</f>
         <v>0.35800588112342757</v>
       </c>
-      <c r="O182" s="199"/>
-      <c r="P182" s="199"/>
-      <c r="Q182" s="199"/>
-      <c r="R182" s="199"/>
-      <c r="S182" s="199"/>
-      <c r="T182" s="199"/>
+      <c r="O182" s="201"/>
+      <c r="P182" s="201"/>
+      <c r="Q182" s="201"/>
+      <c r="R182" s="201"/>
+      <c r="S182" s="201"/>
+      <c r="T182" s="201"/>
     </row>
     <row r="183" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="98"/>
@@ -30232,14 +30232,14 @@
       <c r="L184" s="93"/>
       <c r="M184" s="93"/>
       <c r="N184" s="94"/>
-      <c r="O184" s="199" t="s">
+      <c r="O184" s="201" t="s">
         <v>216</v>
       </c>
-      <c r="P184" s="199"/>
-      <c r="Q184" s="199"/>
-      <c r="R184" s="199"/>
-      <c r="S184" s="199"/>
-      <c r="T184" s="199"/>
+      <c r="P184" s="201"/>
+      <c r="Q184" s="201"/>
+      <c r="R184" s="201"/>
+      <c r="S184" s="201"/>
+      <c r="T184" s="201"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="86" t="s">
@@ -30258,12 +30258,12 @@
       <c r="L185" s="93"/>
       <c r="M185" s="93"/>
       <c r="N185" s="94"/>
-      <c r="O185" s="199"/>
-      <c r="P185" s="199"/>
-      <c r="Q185" s="199"/>
-      <c r="R185" s="199"/>
-      <c r="S185" s="199"/>
-      <c r="T185" s="199"/>
+      <c r="O185" s="201"/>
+      <c r="P185" s="201"/>
+      <c r="Q185" s="201"/>
+      <c r="R185" s="201"/>
+      <c r="S185" s="201"/>
+      <c r="T185" s="201"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="86" t="s">
@@ -30282,12 +30282,12 @@
       <c r="L186" s="93"/>
       <c r="M186" s="93"/>
       <c r="N186" s="94"/>
-      <c r="O186" s="199"/>
-      <c r="P186" s="199"/>
-      <c r="Q186" s="199"/>
-      <c r="R186" s="199"/>
-      <c r="S186" s="199"/>
-      <c r="T186" s="199"/>
+      <c r="O186" s="201"/>
+      <c r="P186" s="201"/>
+      <c r="Q186" s="201"/>
+      <c r="R186" s="201"/>
+      <c r="S186" s="201"/>
+      <c r="T186" s="201"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="86" t="s">
@@ -30306,12 +30306,12 @@
       <c r="L187" s="93"/>
       <c r="M187" s="93"/>
       <c r="N187" s="94"/>
-      <c r="O187" s="199"/>
-      <c r="P187" s="199"/>
-      <c r="Q187" s="199"/>
-      <c r="R187" s="199"/>
-      <c r="S187" s="199"/>
-      <c r="T187" s="199"/>
+      <c r="O187" s="201"/>
+      <c r="P187" s="201"/>
+      <c r="Q187" s="201"/>
+      <c r="R187" s="201"/>
+      <c r="S187" s="201"/>
+      <c r="T187" s="201"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="86" t="s">
@@ -30330,12 +30330,12 @@
       <c r="L188" s="93"/>
       <c r="M188" s="93"/>
       <c r="N188" s="94"/>
-      <c r="O188" s="199"/>
-      <c r="P188" s="199"/>
-      <c r="Q188" s="199"/>
-      <c r="R188" s="199"/>
-      <c r="S188" s="199"/>
-      <c r="T188" s="199"/>
+      <c r="O188" s="201"/>
+      <c r="P188" s="201"/>
+      <c r="Q188" s="201"/>
+      <c r="R188" s="201"/>
+      <c r="S188" s="201"/>
+      <c r="T188" s="201"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="86" t="s">
@@ -30354,12 +30354,12 @@
       <c r="L189" s="93"/>
       <c r="M189" s="93"/>
       <c r="N189" s="94"/>
-      <c r="O189" s="199"/>
-      <c r="P189" s="199"/>
-      <c r="Q189" s="199"/>
-      <c r="R189" s="199"/>
-      <c r="S189" s="199"/>
-      <c r="T189" s="199"/>
+      <c r="O189" s="201"/>
+      <c r="P189" s="201"/>
+      <c r="Q189" s="201"/>
+      <c r="R189" s="201"/>
+      <c r="S189" s="201"/>
+      <c r="T189" s="201"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="86" t="s">
@@ -30378,12 +30378,12 @@
       <c r="L190" s="93"/>
       <c r="M190" s="93"/>
       <c r="N190" s="94"/>
-      <c r="O190" s="199"/>
-      <c r="P190" s="199"/>
-      <c r="Q190" s="199"/>
-      <c r="R190" s="199"/>
-      <c r="S190" s="199"/>
-      <c r="T190" s="199"/>
+      <c r="O190" s="201"/>
+      <c r="P190" s="201"/>
+      <c r="Q190" s="201"/>
+      <c r="R190" s="201"/>
+      <c r="S190" s="201"/>
+      <c r="T190" s="201"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="86" t="s">
@@ -30402,12 +30402,12 @@
       <c r="L191" s="93"/>
       <c r="M191" s="93"/>
       <c r="N191" s="94"/>
-      <c r="O191" s="199"/>
-      <c r="P191" s="199"/>
-      <c r="Q191" s="199"/>
-      <c r="R191" s="199"/>
-      <c r="S191" s="199"/>
-      <c r="T191" s="199"/>
+      <c r="O191" s="201"/>
+      <c r="P191" s="201"/>
+      <c r="Q191" s="201"/>
+      <c r="R191" s="201"/>
+      <c r="S191" s="201"/>
+      <c r="T191" s="201"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="86" t="s">
@@ -30426,12 +30426,12 @@
       <c r="L192" s="93"/>
       <c r="M192" s="93"/>
       <c r="N192" s="94"/>
-      <c r="O192" s="199"/>
-      <c r="P192" s="199"/>
-      <c r="Q192" s="199"/>
-      <c r="R192" s="199"/>
-      <c r="S192" s="199"/>
-      <c r="T192" s="199"/>
+      <c r="O192" s="201"/>
+      <c r="P192" s="201"/>
+      <c r="Q192" s="201"/>
+      <c r="R192" s="201"/>
+      <c r="S192" s="201"/>
+      <c r="T192" s="201"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="86" t="s">
@@ -30450,12 +30450,12 @@
       <c r="L193" s="93"/>
       <c r="M193" s="93"/>
       <c r="N193" s="94"/>
-      <c r="O193" s="199"/>
-      <c r="P193" s="199"/>
-      <c r="Q193" s="199"/>
-      <c r="R193" s="199"/>
-      <c r="S193" s="199"/>
-      <c r="T193" s="199"/>
+      <c r="O193" s="201"/>
+      <c r="P193" s="201"/>
+      <c r="Q193" s="201"/>
+      <c r="R193" s="201"/>
+      <c r="S193" s="201"/>
+      <c r="T193" s="201"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="91" t="s">
@@ -30513,12 +30513,12 @@
         <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="199"/>
-      <c r="P194" s="199"/>
-      <c r="Q194" s="199"/>
-      <c r="R194" s="199"/>
-      <c r="S194" s="199"/>
-      <c r="T194" s="199"/>
+      <c r="O194" s="201"/>
+      <c r="P194" s="201"/>
+      <c r="Q194" s="201"/>
+      <c r="R194" s="201"/>
+      <c r="S194" s="201"/>
+      <c r="T194" s="201"/>
     </row>
     <row r="195" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="98"/>
@@ -30578,14 +30578,14 @@
       <c r="N196" s="94">
         <v>0.1693295619600948</v>
       </c>
-      <c r="O196" s="199" t="s">
+      <c r="O196" s="201" t="s">
         <v>227</v>
       </c>
-      <c r="P196" s="199"/>
-      <c r="Q196" s="199"/>
-      <c r="R196" s="199"/>
-      <c r="S196" s="199"/>
-      <c r="T196" s="199"/>
+      <c r="P196" s="201"/>
+      <c r="Q196" s="201"/>
+      <c r="R196" s="201"/>
+      <c r="S196" s="201"/>
+      <c r="T196" s="201"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="86" t="s">
@@ -30630,12 +30630,12 @@
       <c r="N197" s="94">
         <v>0.16636837600186755</v>
       </c>
-      <c r="O197" s="199"/>
-      <c r="P197" s="199"/>
-      <c r="Q197" s="199"/>
-      <c r="R197" s="199"/>
-      <c r="S197" s="199"/>
-      <c r="T197" s="199"/>
+      <c r="O197" s="201"/>
+      <c r="P197" s="201"/>
+      <c r="Q197" s="201"/>
+      <c r="R197" s="201"/>
+      <c r="S197" s="201"/>
+      <c r="T197" s="201"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="86" t="s">
@@ -30680,12 +30680,12 @@
       <c r="N198" s="94">
         <v>0.17503217503217502</v>
       </c>
-      <c r="O198" s="199"/>
-      <c r="P198" s="199"/>
-      <c r="Q198" s="199"/>
-      <c r="R198" s="199"/>
-      <c r="S198" s="199"/>
-      <c r="T198" s="199"/>
+      <c r="O198" s="201"/>
+      <c r="P198" s="201"/>
+      <c r="Q198" s="201"/>
+      <c r="R198" s="201"/>
+      <c r="S198" s="201"/>
+      <c r="T198" s="201"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="86" t="s">
@@ -30730,12 +30730,12 @@
       <c r="N199" s="94">
         <v>0.16419260040690226</v>
       </c>
-      <c r="O199" s="199"/>
-      <c r="P199" s="199"/>
-      <c r="Q199" s="199"/>
-      <c r="R199" s="199"/>
-      <c r="S199" s="199"/>
-      <c r="T199" s="199"/>
+      <c r="O199" s="201"/>
+      <c r="P199" s="201"/>
+      <c r="Q199" s="201"/>
+      <c r="R199" s="201"/>
+      <c r="S199" s="201"/>
+      <c r="T199" s="201"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="86" t="s">
@@ -30780,12 +30780,12 @@
       <c r="N200" s="94">
         <v>0.17125984251968504</v>
       </c>
-      <c r="O200" s="199"/>
-      <c r="P200" s="199"/>
-      <c r="Q200" s="199"/>
-      <c r="R200" s="199"/>
-      <c r="S200" s="199"/>
-      <c r="T200" s="199"/>
+      <c r="O200" s="201"/>
+      <c r="P200" s="201"/>
+      <c r="Q200" s="201"/>
+      <c r="R200" s="201"/>
+      <c r="S200" s="201"/>
+      <c r="T200" s="201"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="86" t="s">
@@ -30830,12 +30830,12 @@
       <c r="N201" s="94">
         <v>0.17140863632839756</v>
       </c>
-      <c r="O201" s="199"/>
-      <c r="P201" s="199"/>
-      <c r="Q201" s="199"/>
-      <c r="R201" s="199"/>
-      <c r="S201" s="199"/>
-      <c r="T201" s="199"/>
+      <c r="O201" s="201"/>
+      <c r="P201" s="201"/>
+      <c r="Q201" s="201"/>
+      <c r="R201" s="201"/>
+      <c r="S201" s="201"/>
+      <c r="T201" s="201"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="86" t="s">
@@ -30880,12 +30880,12 @@
       <c r="N202" s="94">
         <v>0.17007526799969588</v>
       </c>
-      <c r="O202" s="199"/>
-      <c r="P202" s="199"/>
-      <c r="Q202" s="199"/>
-      <c r="R202" s="199"/>
-      <c r="S202" s="199"/>
-      <c r="T202" s="199"/>
+      <c r="O202" s="201"/>
+      <c r="P202" s="201"/>
+      <c r="Q202" s="201"/>
+      <c r="R202" s="201"/>
+      <c r="S202" s="201"/>
+      <c r="T202" s="201"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="86" t="s">
@@ -30930,12 +30930,12 @@
       <c r="N203" s="94">
         <v>0.17179190751445086</v>
       </c>
-      <c r="O203" s="199"/>
-      <c r="P203" s="199"/>
-      <c r="Q203" s="199"/>
-      <c r="R203" s="199"/>
-      <c r="S203" s="199"/>
-      <c r="T203" s="199"/>
+      <c r="O203" s="201"/>
+      <c r="P203" s="201"/>
+      <c r="Q203" s="201"/>
+      <c r="R203" s="201"/>
+      <c r="S203" s="201"/>
+      <c r="T203" s="201"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="86" t="s">
@@ -30980,12 +30980,12 @@
       <c r="N204" s="94">
         <v>0.16879815100154083</v>
       </c>
-      <c r="O204" s="199"/>
-      <c r="P204" s="199"/>
-      <c r="Q204" s="199"/>
-      <c r="R204" s="199"/>
-      <c r="S204" s="199"/>
-      <c r="T204" s="199"/>
+      <c r="O204" s="201"/>
+      <c r="P204" s="201"/>
+      <c r="Q204" s="201"/>
+      <c r="R204" s="201"/>
+      <c r="S204" s="201"/>
+      <c r="T204" s="201"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="86" t="s">
@@ -31030,12 +31030,12 @@
       <c r="N205" s="94">
         <v>0.17239259088463607</v>
       </c>
-      <c r="O205" s="199"/>
-      <c r="P205" s="199"/>
-      <c r="Q205" s="199"/>
-      <c r="R205" s="199"/>
-      <c r="S205" s="199"/>
-      <c r="T205" s="199"/>
+      <c r="O205" s="201"/>
+      <c r="P205" s="201"/>
+      <c r="Q205" s="201"/>
+      <c r="R205" s="201"/>
+      <c r="S205" s="201"/>
+      <c r="T205" s="201"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
@@ -31093,12 +31093,12 @@
         <f t="shared" si="176"/>
         <v>0.17006491096494461</v>
       </c>
-      <c r="O206" s="199"/>
-      <c r="P206" s="199"/>
-      <c r="Q206" s="199"/>
-      <c r="R206" s="199"/>
-      <c r="S206" s="199"/>
-      <c r="T206" s="199"/>
+      <c r="O206" s="201"/>
+      <c r="P206" s="201"/>
+      <c r="Q206" s="201"/>
+      <c r="R206" s="201"/>
+      <c r="S206" s="201"/>
+      <c r="T206" s="201"/>
     </row>
     <row r="207" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="98"/>
@@ -31158,14 +31158,14 @@
       <c r="N208" s="94">
         <v>0.30560087003806419</v>
       </c>
-      <c r="O208" s="199" t="s">
+      <c r="O208" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="P208" s="199"/>
-      <c r="Q208" s="199"/>
-      <c r="R208" s="199"/>
-      <c r="S208" s="199"/>
-      <c r="T208" s="199"/>
+      <c r="P208" s="201"/>
+      <c r="Q208" s="201"/>
+      <c r="R208" s="201"/>
+      <c r="S208" s="201"/>
+      <c r="T208" s="201"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="86" t="s">
@@ -31210,12 +31210,12 @@
       <c r="N209" s="94">
         <v>0.28359578046170308</v>
       </c>
-      <c r="O209" s="199"/>
-      <c r="P209" s="199"/>
-      <c r="Q209" s="199"/>
-      <c r="R209" s="199"/>
-      <c r="S209" s="199"/>
-      <c r="T209" s="199"/>
+      <c r="O209" s="201"/>
+      <c r="P209" s="201"/>
+      <c r="Q209" s="201"/>
+      <c r="R209" s="201"/>
+      <c r="S209" s="201"/>
+      <c r="T209" s="201"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="86" t="s">
@@ -31260,12 +31260,12 @@
       <c r="N210" s="94">
         <v>0.29491213260686056</v>
       </c>
-      <c r="O210" s="199"/>
-      <c r="P210" s="199"/>
-      <c r="Q210" s="199"/>
-      <c r="R210" s="199"/>
-      <c r="S210" s="199"/>
-      <c r="T210" s="199"/>
+      <c r="O210" s="201"/>
+      <c r="P210" s="201"/>
+      <c r="Q210" s="201"/>
+      <c r="R210" s="201"/>
+      <c r="S210" s="201"/>
+      <c r="T210" s="201"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="86" t="s">
@@ -31310,12 +31310,12 @@
       <c r="N211" s="94">
         <v>0.2988647772028728</v>
       </c>
-      <c r="O211" s="199"/>
-      <c r="P211" s="199"/>
-      <c r="Q211" s="199"/>
-      <c r="R211" s="199"/>
-      <c r="S211" s="199"/>
-      <c r="T211" s="199"/>
+      <c r="O211" s="201"/>
+      <c r="P211" s="201"/>
+      <c r="Q211" s="201"/>
+      <c r="R211" s="201"/>
+      <c r="S211" s="201"/>
+      <c r="T211" s="201"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="86" t="s">
@@ -31360,12 +31360,12 @@
       <c r="N212" s="94">
         <v>0.29959044896066767</v>
       </c>
-      <c r="O212" s="199"/>
-      <c r="P212" s="199"/>
-      <c r="Q212" s="199"/>
-      <c r="R212" s="199"/>
-      <c r="S212" s="199"/>
-      <c r="T212" s="199"/>
+      <c r="O212" s="201"/>
+      <c r="P212" s="201"/>
+      <c r="Q212" s="201"/>
+      <c r="R212" s="201"/>
+      <c r="S212" s="201"/>
+      <c r="T212" s="201"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="86" t="s">
@@ -31410,12 +31410,12 @@
       <c r="N213" s="94">
         <v>0.29011357572985746</v>
       </c>
-      <c r="O213" s="199"/>
-      <c r="P213" s="199"/>
-      <c r="Q213" s="199"/>
-      <c r="R213" s="199"/>
-      <c r="S213" s="199"/>
-      <c r="T213" s="199"/>
+      <c r="O213" s="201"/>
+      <c r="P213" s="201"/>
+      <c r="Q213" s="201"/>
+      <c r="R213" s="201"/>
+      <c r="S213" s="201"/>
+      <c r="T213" s="201"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="86" t="s">
@@ -31460,12 +31460,12 @@
       <c r="N214" s="94">
         <v>0.30063195907312668</v>
       </c>
-      <c r="O214" s="199"/>
-      <c r="P214" s="199"/>
-      <c r="Q214" s="199"/>
-      <c r="R214" s="199"/>
-      <c r="S214" s="199"/>
-      <c r="T214" s="199"/>
+      <c r="O214" s="201"/>
+      <c r="P214" s="201"/>
+      <c r="Q214" s="201"/>
+      <c r="R214" s="201"/>
+      <c r="S214" s="201"/>
+      <c r="T214" s="201"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="86" t="s">
@@ -31510,12 +31510,12 @@
       <c r="N215" s="94">
         <v>0.2763700198442986</v>
       </c>
-      <c r="O215" s="199"/>
-      <c r="P215" s="199"/>
-      <c r="Q215" s="199"/>
-      <c r="R215" s="199"/>
-      <c r="S215" s="199"/>
-      <c r="T215" s="199"/>
+      <c r="O215" s="201"/>
+      <c r="P215" s="201"/>
+      <c r="Q215" s="201"/>
+      <c r="R215" s="201"/>
+      <c r="S215" s="201"/>
+      <c r="T215" s="201"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="86" t="s">
@@ -31560,12 +31560,12 @@
       <c r="N216" s="94">
         <v>0.30558987029030266</v>
       </c>
-      <c r="O216" s="199"/>
-      <c r="P216" s="199"/>
-      <c r="Q216" s="199"/>
-      <c r="R216" s="199"/>
-      <c r="S216" s="199"/>
-      <c r="T216" s="199"/>
+      <c r="O216" s="201"/>
+      <c r="P216" s="201"/>
+      <c r="Q216" s="201"/>
+      <c r="R216" s="201"/>
+      <c r="S216" s="201"/>
+      <c r="T216" s="201"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
@@ -31610,12 +31610,12 @@
       <c r="N217" s="94">
         <v>0.29750362623101001</v>
       </c>
-      <c r="O217" s="199"/>
-      <c r="P217" s="199"/>
-      <c r="Q217" s="199"/>
-      <c r="R217" s="199"/>
-      <c r="S217" s="199"/>
-      <c r="T217" s="199"/>
+      <c r="O217" s="201"/>
+      <c r="P217" s="201"/>
+      <c r="Q217" s="201"/>
+      <c r="R217" s="201"/>
+      <c r="S217" s="201"/>
+      <c r="T217" s="201"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="91" t="s">
@@ -31673,12 +31673,12 @@
         <f t="shared" si="177"/>
         <v>0.29527730604387636</v>
       </c>
-      <c r="O218" s="199"/>
-      <c r="P218" s="199"/>
-      <c r="Q218" s="199"/>
-      <c r="R218" s="199"/>
-      <c r="S218" s="199"/>
-      <c r="T218" s="199"/>
+      <c r="O218" s="201"/>
+      <c r="P218" s="201"/>
+      <c r="Q218" s="201"/>
+      <c r="R218" s="201"/>
+      <c r="S218" s="201"/>
+      <c r="T218" s="201"/>
     </row>
     <row r="219" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="98"/>
@@ -31738,14 +31738,14 @@
       <c r="N220" s="94">
         <v>0.3031377688690155</v>
       </c>
-      <c r="O220" s="199" t="s">
+      <c r="O220" s="201" t="s">
         <v>217</v>
       </c>
-      <c r="P220" s="199"/>
-      <c r="Q220" s="199"/>
-      <c r="R220" s="199"/>
-      <c r="S220" s="199"/>
-      <c r="T220" s="199"/>
+      <c r="P220" s="201"/>
+      <c r="Q220" s="201"/>
+      <c r="R220" s="201"/>
+      <c r="S220" s="201"/>
+      <c r="T220" s="201"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
@@ -31790,12 +31790,12 @@
       <c r="N221" s="94">
         <v>0.3118931096092597</v>
       </c>
-      <c r="O221" s="199"/>
-      <c r="P221" s="199"/>
-      <c r="Q221" s="199"/>
-      <c r="R221" s="199"/>
-      <c r="S221" s="199"/>
-      <c r="T221" s="199"/>
+      <c r="O221" s="201"/>
+      <c r="P221" s="201"/>
+      <c r="Q221" s="201"/>
+      <c r="R221" s="201"/>
+      <c r="S221" s="201"/>
+      <c r="T221" s="201"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
@@ -31840,12 +31840,12 @@
       <c r="N222" s="94">
         <v>0.2965249199817101</v>
       </c>
-      <c r="O222" s="199"/>
-      <c r="P222" s="199"/>
-      <c r="Q222" s="199"/>
-      <c r="R222" s="199"/>
-      <c r="S222" s="199"/>
-      <c r="T222" s="199"/>
+      <c r="O222" s="201"/>
+      <c r="P222" s="201"/>
+      <c r="Q222" s="201"/>
+      <c r="R222" s="201"/>
+      <c r="S222" s="201"/>
+      <c r="T222" s="201"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
@@ -31890,12 +31890,12 @@
       <c r="N223" s="94">
         <v>0.30286452397234254</v>
       </c>
-      <c r="O223" s="199"/>
-      <c r="P223" s="199"/>
-      <c r="Q223" s="199"/>
-      <c r="R223" s="199"/>
-      <c r="S223" s="199"/>
-      <c r="T223" s="199"/>
+      <c r="O223" s="201"/>
+      <c r="P223" s="201"/>
+      <c r="Q223" s="201"/>
+      <c r="R223" s="201"/>
+      <c r="S223" s="201"/>
+      <c r="T223" s="201"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
@@ -31940,12 +31940,12 @@
       <c r="N224" s="94">
         <v>0.31905748714406323</v>
       </c>
-      <c r="O224" s="199"/>
-      <c r="P224" s="199"/>
-      <c r="Q224" s="199"/>
-      <c r="R224" s="199"/>
-      <c r="S224" s="199"/>
-      <c r="T224" s="199"/>
+      <c r="O224" s="201"/>
+      <c r="P224" s="201"/>
+      <c r="Q224" s="201"/>
+      <c r="R224" s="201"/>
+      <c r="S224" s="201"/>
+      <c r="T224" s="201"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
@@ -31990,12 +31990,12 @@
       <c r="N225" s="94">
         <v>0.30671726755218215</v>
       </c>
-      <c r="O225" s="199"/>
-      <c r="P225" s="199"/>
-      <c r="Q225" s="199"/>
-      <c r="R225" s="199"/>
-      <c r="S225" s="199"/>
-      <c r="T225" s="199"/>
+      <c r="O225" s="201"/>
+      <c r="P225" s="201"/>
+      <c r="Q225" s="201"/>
+      <c r="R225" s="201"/>
+      <c r="S225" s="201"/>
+      <c r="T225" s="201"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="86" t="s">
@@ -32040,12 +32040,12 @@
       <c r="N226" s="94">
         <v>0.30987884436160296</v>
       </c>
-      <c r="O226" s="199"/>
-      <c r="P226" s="199"/>
-      <c r="Q226" s="199"/>
-      <c r="R226" s="199"/>
-      <c r="S226" s="199"/>
-      <c r="T226" s="199"/>
+      <c r="O226" s="201"/>
+      <c r="P226" s="201"/>
+      <c r="Q226" s="201"/>
+      <c r="R226" s="201"/>
+      <c r="S226" s="201"/>
+      <c r="T226" s="201"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="86" t="s">
@@ -32090,12 +32090,12 @@
       <c r="N227" s="94">
         <v>0.28989197530864197</v>
       </c>
-      <c r="O227" s="199"/>
-      <c r="P227" s="199"/>
-      <c r="Q227" s="199"/>
-      <c r="R227" s="199"/>
-      <c r="S227" s="199"/>
-      <c r="T227" s="199"/>
+      <c r="O227" s="201"/>
+      <c r="P227" s="201"/>
+      <c r="Q227" s="201"/>
+      <c r="R227" s="201"/>
+      <c r="S227" s="201"/>
+      <c r="T227" s="201"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="86" t="s">
@@ -32140,12 +32140,12 @@
       <c r="N228" s="94">
         <v>0.28455598455598458</v>
       </c>
-      <c r="O228" s="199"/>
-      <c r="P228" s="199"/>
-      <c r="Q228" s="199"/>
-      <c r="R228" s="199"/>
-      <c r="S228" s="199"/>
-      <c r="T228" s="199"/>
+      <c r="O228" s="201"/>
+      <c r="P228" s="201"/>
+      <c r="Q228" s="201"/>
+      <c r="R228" s="201"/>
+      <c r="S228" s="201"/>
+      <c r="T228" s="201"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="86" t="s">
@@ -32164,12 +32164,12 @@
       <c r="L229" s="93"/>
       <c r="M229" s="93"/>
       <c r="N229" s="94"/>
-      <c r="O229" s="199"/>
-      <c r="P229" s="199"/>
-      <c r="Q229" s="199"/>
-      <c r="R229" s="199"/>
-      <c r="S229" s="199"/>
-      <c r="T229" s="199"/>
+      <c r="O229" s="201"/>
+      <c r="P229" s="201"/>
+      <c r="Q229" s="201"/>
+      <c r="R229" s="201"/>
+      <c r="S229" s="201"/>
+      <c r="T229" s="201"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
@@ -32227,15 +32227,21 @@
         <f t="shared" si="178"/>
         <v>0.30272465348386696</v>
       </c>
-      <c r="O230" s="199"/>
-      <c r="P230" s="199"/>
-      <c r="Q230" s="199"/>
-      <c r="R230" s="199"/>
-      <c r="S230" s="199"/>
-      <c r="T230" s="199"/>
+      <c r="O230" s="201"/>
+      <c r="P230" s="201"/>
+      <c r="Q230" s="201"/>
+      <c r="R230" s="201"/>
+      <c r="S230" s="201"/>
+      <c r="T230" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O220:T230"/>
+    <mergeCell ref="O160:T170"/>
+    <mergeCell ref="O172:T182"/>
     <mergeCell ref="O4:T14"/>
     <mergeCell ref="O100:T110"/>
     <mergeCell ref="O124:T134"/>
@@ -32249,12 +32255,6 @@
     <mergeCell ref="O64:T74"/>
     <mergeCell ref="O76:T86"/>
     <mergeCell ref="O88:T98"/>
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O220:T230"/>
-    <mergeCell ref="O160:T170"/>
-    <mergeCell ref="O172:T182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34058,16 +34058,16 @@
   <sheetData>
     <row r="1" spans="2:51" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" s="138" customFormat="1" ht="112.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="207"/>
+      <c r="E2" s="206"/>
       <c r="F2" s="202" t="s">
         <v>198</v>
       </c>
@@ -34080,10 +34080,10 @@
         <v>208</v>
       </c>
       <c r="K2" s="202"/>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="206" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="207"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="202" t="s">
         <v>210</v>
       </c>
@@ -34096,26 +34096,26 @@
         <v>199</v>
       </c>
       <c r="S2" s="202"/>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="207"/>
+      <c r="U2" s="206"/>
       <c r="V2" s="202" t="s">
         <v>201</v>
       </c>
       <c r="W2" s="202"/>
-      <c r="X2" s="207" t="s">
+      <c r="X2" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="207"/>
+      <c r="Y2" s="206"/>
       <c r="Z2" s="202" t="s">
         <v>203</v>
       </c>
       <c r="AA2" s="202"/>
-      <c r="AB2" s="207" t="s">
+      <c r="AB2" s="206" t="s">
         <v>204</v>
       </c>
-      <c r="AC2" s="207"/>
+      <c r="AC2" s="206"/>
       <c r="AD2" s="202" t="s">
         <v>205</v>
       </c>
@@ -34159,11 +34159,11 @@
       <c r="AX2" s="202" t="s">
         <v>224</v>
       </c>
-      <c r="AY2" s="204"/>
+      <c r="AY2" s="209"/>
     </row>
     <row r="3" spans="2:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="206"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="205"/>
       <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
@@ -36443,12 +36443,15 @@
     <row r="17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="R2:S2"/>
@@ -36460,15 +36463,12 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36542,16 +36542,16 @@
     </row>
     <row r="2" spans="1:27" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="138"/>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="207"/>
+      <c r="E2" s="206"/>
       <c r="F2" s="202" t="s">
         <v>235</v>
       </c>
@@ -36564,10 +36564,10 @@
         <v>237</v>
       </c>
       <c r="K2" s="202"/>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="206" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="207"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="202" t="s">
         <v>239</v>
       </c>
@@ -36580,27 +36580,27 @@
         <v>241</v>
       </c>
       <c r="S2" s="202"/>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>242</v>
       </c>
-      <c r="U2" s="207"/>
+      <c r="U2" s="206"/>
       <c r="V2" s="202" t="s">
         <v>243</v>
       </c>
       <c r="W2" s="202"/>
-      <c r="X2" s="207" t="s">
+      <c r="X2" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="207"/>
+      <c r="Y2" s="206"/>
       <c r="Z2" s="202" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="204"/>
+      <c r="AA2" s="209"/>
     </row>
     <row r="3" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="88"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="205"/>
       <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
@@ -37547,6 +37547,12 @@
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="L2:M2"/>
@@ -37555,12 +37561,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43639,12 +43639,12 @@
         <f t="shared" ref="N136:N145" si="23">K136/L136</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O136" s="199"/>
-      <c r="P136" s="199"/>
-      <c r="Q136" s="199"/>
-      <c r="R136" s="199"/>
-      <c r="S136" s="199"/>
-      <c r="T136" s="199"/>
+      <c r="O136" s="201"/>
+      <c r="P136" s="201"/>
+      <c r="Q136" s="201"/>
+      <c r="R136" s="201"/>
+      <c r="S136" s="201"/>
+      <c r="T136" s="201"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="86" t="s">
@@ -43666,12 +43666,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O137" s="199"/>
-      <c r="P137" s="199"/>
-      <c r="Q137" s="199"/>
-      <c r="R137" s="199"/>
-      <c r="S137" s="199"/>
-      <c r="T137" s="199"/>
+      <c r="O137" s="201"/>
+      <c r="P137" s="201"/>
+      <c r="Q137" s="201"/>
+      <c r="R137" s="201"/>
+      <c r="S137" s="201"/>
+      <c r="T137" s="201"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="86" t="s">
@@ -43693,12 +43693,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O138" s="199"/>
-      <c r="P138" s="199"/>
-      <c r="Q138" s="199"/>
-      <c r="R138" s="199"/>
-      <c r="S138" s="199"/>
-      <c r="T138" s="199"/>
+      <c r="O138" s="201"/>
+      <c r="P138" s="201"/>
+      <c r="Q138" s="201"/>
+      <c r="R138" s="201"/>
+      <c r="S138" s="201"/>
+      <c r="T138" s="201"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="86" t="s">
@@ -43720,12 +43720,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O139" s="199"/>
-      <c r="P139" s="199"/>
-      <c r="Q139" s="199"/>
-      <c r="R139" s="199"/>
-      <c r="S139" s="199"/>
-      <c r="T139" s="199"/>
+      <c r="O139" s="201"/>
+      <c r="P139" s="201"/>
+      <c r="Q139" s="201"/>
+      <c r="R139" s="201"/>
+      <c r="S139" s="201"/>
+      <c r="T139" s="201"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="86" t="s">
@@ -43747,12 +43747,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O140" s="199"/>
-      <c r="P140" s="199"/>
-      <c r="Q140" s="199"/>
-      <c r="R140" s="199"/>
-      <c r="S140" s="199"/>
-      <c r="T140" s="199"/>
+      <c r="O140" s="201"/>
+      <c r="P140" s="201"/>
+      <c r="Q140" s="201"/>
+      <c r="R140" s="201"/>
+      <c r="S140" s="201"/>
+      <c r="T140" s="201"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="86" t="s">
@@ -43774,12 +43774,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O141" s="199"/>
-      <c r="P141" s="199"/>
-      <c r="Q141" s="199"/>
-      <c r="R141" s="199"/>
-      <c r="S141" s="199"/>
-      <c r="T141" s="199"/>
+      <c r="O141" s="201"/>
+      <c r="P141" s="201"/>
+      <c r="Q141" s="201"/>
+      <c r="R141" s="201"/>
+      <c r="S141" s="201"/>
+      <c r="T141" s="201"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="86" t="s">
@@ -43801,12 +43801,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O142" s="199"/>
-      <c r="P142" s="199"/>
-      <c r="Q142" s="199"/>
-      <c r="R142" s="199"/>
-      <c r="S142" s="199"/>
-      <c r="T142" s="199"/>
+      <c r="O142" s="201"/>
+      <c r="P142" s="201"/>
+      <c r="Q142" s="201"/>
+      <c r="R142" s="201"/>
+      <c r="S142" s="201"/>
+      <c r="T142" s="201"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="86" t="s">
@@ -43828,12 +43828,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O143" s="199"/>
-      <c r="P143" s="199"/>
-      <c r="Q143" s="199"/>
-      <c r="R143" s="199"/>
-      <c r="S143" s="199"/>
-      <c r="T143" s="199"/>
+      <c r="O143" s="201"/>
+      <c r="P143" s="201"/>
+      <c r="Q143" s="201"/>
+      <c r="R143" s="201"/>
+      <c r="S143" s="201"/>
+      <c r="T143" s="201"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="86" t="s">
@@ -43855,12 +43855,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O144" s="199"/>
-      <c r="P144" s="199"/>
-      <c r="Q144" s="199"/>
-      <c r="R144" s="199"/>
-      <c r="S144" s="199"/>
-      <c r="T144" s="199"/>
+      <c r="O144" s="201"/>
+      <c r="P144" s="201"/>
+      <c r="Q144" s="201"/>
+      <c r="R144" s="201"/>
+      <c r="S144" s="201"/>
+      <c r="T144" s="201"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="86" t="s">
@@ -43882,12 +43882,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O145" s="199"/>
-      <c r="P145" s="199"/>
-      <c r="Q145" s="199"/>
-      <c r="R145" s="199"/>
-      <c r="S145" s="199"/>
-      <c r="T145" s="199"/>
+      <c r="O145" s="201"/>
+      <c r="P145" s="201"/>
+      <c r="Q145" s="201"/>
+      <c r="R145" s="201"/>
+      <c r="S145" s="201"/>
+      <c r="T145" s="201"/>
     </row>
     <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="91" t="s">
@@ -43945,12 +43945,12 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-      <c r="Q146" s="199"/>
-      <c r="R146" s="199"/>
-      <c r="S146" s="199"/>
-      <c r="T146" s="199"/>
+      <c r="O146" s="201"/>
+      <c r="P146" s="201"/>
+      <c r="Q146" s="201"/>
+      <c r="R146" s="201"/>
+      <c r="S146" s="201"/>
+      <c r="T146" s="201"/>
     </row>
     <row r="147" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="98"/>
@@ -43987,12 +43987,12 @@
         <f t="shared" ref="N148:N157" si="25">K148/L148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O148" s="199"/>
-      <c r="P148" s="199"/>
-      <c r="Q148" s="199"/>
-      <c r="R148" s="199"/>
-      <c r="S148" s="199"/>
-      <c r="T148" s="199"/>
+      <c r="O148" s="201"/>
+      <c r="P148" s="201"/>
+      <c r="Q148" s="201"/>
+      <c r="R148" s="201"/>
+      <c r="S148" s="201"/>
+      <c r="T148" s="201"/>
     </row>
     <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="86" t="s">
@@ -44014,12 +44014,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O149" s="199"/>
-      <c r="P149" s="199"/>
-      <c r="Q149" s="199"/>
-      <c r="R149" s="199"/>
-      <c r="S149" s="199"/>
-      <c r="T149" s="199"/>
+      <c r="O149" s="201"/>
+      <c r="P149" s="201"/>
+      <c r="Q149" s="201"/>
+      <c r="R149" s="201"/>
+      <c r="S149" s="201"/>
+      <c r="T149" s="201"/>
     </row>
     <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="86" t="s">
@@ -44041,12 +44041,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O150" s="199"/>
-      <c r="P150" s="199"/>
-      <c r="Q150" s="199"/>
-      <c r="R150" s="199"/>
-      <c r="S150" s="199"/>
-      <c r="T150" s="199"/>
+      <c r="O150" s="201"/>
+      <c r="P150" s="201"/>
+      <c r="Q150" s="201"/>
+      <c r="R150" s="201"/>
+      <c r="S150" s="201"/>
+      <c r="T150" s="201"/>
     </row>
     <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="86" t="s">
@@ -44068,12 +44068,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O151" s="199"/>
-      <c r="P151" s="199"/>
-      <c r="Q151" s="199"/>
-      <c r="R151" s="199"/>
-      <c r="S151" s="199"/>
-      <c r="T151" s="199"/>
+      <c r="O151" s="201"/>
+      <c r="P151" s="201"/>
+      <c r="Q151" s="201"/>
+      <c r="R151" s="201"/>
+      <c r="S151" s="201"/>
+      <c r="T151" s="201"/>
     </row>
     <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="86" t="s">
@@ -44095,12 +44095,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O152" s="199"/>
-      <c r="P152" s="199"/>
-      <c r="Q152" s="199"/>
-      <c r="R152" s="199"/>
-      <c r="S152" s="199"/>
-      <c r="T152" s="199"/>
+      <c r="O152" s="201"/>
+      <c r="P152" s="201"/>
+      <c r="Q152" s="201"/>
+      <c r="R152" s="201"/>
+      <c r="S152" s="201"/>
+      <c r="T152" s="201"/>
     </row>
     <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="86" t="s">
@@ -44122,12 +44122,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O153" s="199"/>
-      <c r="P153" s="199"/>
-      <c r="Q153" s="199"/>
-      <c r="R153" s="199"/>
-      <c r="S153" s="199"/>
-      <c r="T153" s="199"/>
+      <c r="O153" s="201"/>
+      <c r="P153" s="201"/>
+      <c r="Q153" s="201"/>
+      <c r="R153" s="201"/>
+      <c r="S153" s="201"/>
+      <c r="T153" s="201"/>
     </row>
     <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="86" t="s">
@@ -44149,12 +44149,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O154" s="199"/>
-      <c r="P154" s="199"/>
-      <c r="Q154" s="199"/>
-      <c r="R154" s="199"/>
-      <c r="S154" s="199"/>
-      <c r="T154" s="199"/>
+      <c r="O154" s="201"/>
+      <c r="P154" s="201"/>
+      <c r="Q154" s="201"/>
+      <c r="R154" s="201"/>
+      <c r="S154" s="201"/>
+      <c r="T154" s="201"/>
     </row>
     <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="86" t="s">
@@ -44176,12 +44176,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O155" s="199"/>
-      <c r="P155" s="199"/>
-      <c r="Q155" s="199"/>
-      <c r="R155" s="199"/>
-      <c r="S155" s="199"/>
-      <c r="T155" s="199"/>
+      <c r="O155" s="201"/>
+      <c r="P155" s="201"/>
+      <c r="Q155" s="201"/>
+      <c r="R155" s="201"/>
+      <c r="S155" s="201"/>
+      <c r="T155" s="201"/>
     </row>
     <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="86" t="s">
@@ -44203,12 +44203,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O156" s="199"/>
-      <c r="P156" s="199"/>
-      <c r="Q156" s="199"/>
-      <c r="R156" s="199"/>
-      <c r="S156" s="199"/>
-      <c r="T156" s="199"/>
+      <c r="O156" s="201"/>
+      <c r="P156" s="201"/>
+      <c r="Q156" s="201"/>
+      <c r="R156" s="201"/>
+      <c r="S156" s="201"/>
+      <c r="T156" s="201"/>
     </row>
     <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="86" t="s">
@@ -44230,12 +44230,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O157" s="199"/>
-      <c r="P157" s="199"/>
-      <c r="Q157" s="199"/>
-      <c r="R157" s="199"/>
-      <c r="S157" s="199"/>
-      <c r="T157" s="199"/>
+      <c r="O157" s="201"/>
+      <c r="P157" s="201"/>
+      <c r="Q157" s="201"/>
+      <c r="R157" s="201"/>
+      <c r="S157" s="201"/>
+      <c r="T157" s="201"/>
     </row>
     <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="91" t="s">
@@ -44293,12 +44293,12 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O158" s="199"/>
-      <c r="P158" s="199"/>
-      <c r="Q158" s="199"/>
-      <c r="R158" s="199"/>
-      <c r="S158" s="199"/>
-      <c r="T158" s="199"/>
+      <c r="O158" s="201"/>
+      <c r="P158" s="201"/>
+      <c r="Q158" s="201"/>
+      <c r="R158" s="201"/>
+      <c r="S158" s="201"/>
+      <c r="T158" s="201"/>
     </row>
     <row r="159" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="98"/>
@@ -44335,12 +44335,12 @@
         <f t="shared" ref="N160:N169" si="27">K160/L160</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O160" s="199"/>
-      <c r="P160" s="199"/>
-      <c r="Q160" s="199"/>
-      <c r="R160" s="199"/>
-      <c r="S160" s="199"/>
-      <c r="T160" s="199"/>
+      <c r="O160" s="201"/>
+      <c r="P160" s="201"/>
+      <c r="Q160" s="201"/>
+      <c r="R160" s="201"/>
+      <c r="S160" s="201"/>
+      <c r="T160" s="201"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="86" t="s">
@@ -44362,12 +44362,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O161" s="199"/>
-      <c r="P161" s="199"/>
-      <c r="Q161" s="199"/>
-      <c r="R161" s="199"/>
-      <c r="S161" s="199"/>
-      <c r="T161" s="199"/>
+      <c r="O161" s="201"/>
+      <c r="P161" s="201"/>
+      <c r="Q161" s="201"/>
+      <c r="R161" s="201"/>
+      <c r="S161" s="201"/>
+      <c r="T161" s="201"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="86" t="s">
@@ -44389,12 +44389,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O162" s="199"/>
-      <c r="P162" s="199"/>
-      <c r="Q162" s="199"/>
-      <c r="R162" s="199"/>
-      <c r="S162" s="199"/>
-      <c r="T162" s="199"/>
+      <c r="O162" s="201"/>
+      <c r="P162" s="201"/>
+      <c r="Q162" s="201"/>
+      <c r="R162" s="201"/>
+      <c r="S162" s="201"/>
+      <c r="T162" s="201"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
@@ -44416,12 +44416,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O163" s="199"/>
-      <c r="P163" s="199"/>
-      <c r="Q163" s="199"/>
-      <c r="R163" s="199"/>
-      <c r="S163" s="199"/>
-      <c r="T163" s="199"/>
+      <c r="O163" s="201"/>
+      <c r="P163" s="201"/>
+      <c r="Q163" s="201"/>
+      <c r="R163" s="201"/>
+      <c r="S163" s="201"/>
+      <c r="T163" s="201"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
@@ -44443,12 +44443,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O164" s="199"/>
-      <c r="P164" s="199"/>
-      <c r="Q164" s="199"/>
-      <c r="R164" s="199"/>
-      <c r="S164" s="199"/>
-      <c r="T164" s="199"/>
+      <c r="O164" s="201"/>
+      <c r="P164" s="201"/>
+      <c r="Q164" s="201"/>
+      <c r="R164" s="201"/>
+      <c r="S164" s="201"/>
+      <c r="T164" s="201"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
@@ -44470,12 +44470,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O165" s="199"/>
-      <c r="P165" s="199"/>
-      <c r="Q165" s="199"/>
-      <c r="R165" s="199"/>
-      <c r="S165" s="199"/>
-      <c r="T165" s="199"/>
+      <c r="O165" s="201"/>
+      <c r="P165" s="201"/>
+      <c r="Q165" s="201"/>
+      <c r="R165" s="201"/>
+      <c r="S165" s="201"/>
+      <c r="T165" s="201"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
@@ -44497,12 +44497,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O166" s="199"/>
-      <c r="P166" s="199"/>
-      <c r="Q166" s="199"/>
-      <c r="R166" s="199"/>
-      <c r="S166" s="199"/>
-      <c r="T166" s="199"/>
+      <c r="O166" s="201"/>
+      <c r="P166" s="201"/>
+      <c r="Q166" s="201"/>
+      <c r="R166" s="201"/>
+      <c r="S166" s="201"/>
+      <c r="T166" s="201"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="86" t="s">
@@ -44524,12 +44524,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O167" s="199"/>
-      <c r="P167" s="199"/>
-      <c r="Q167" s="199"/>
-      <c r="R167" s="199"/>
-      <c r="S167" s="199"/>
-      <c r="T167" s="199"/>
+      <c r="O167" s="201"/>
+      <c r="P167" s="201"/>
+      <c r="Q167" s="201"/>
+      <c r="R167" s="201"/>
+      <c r="S167" s="201"/>
+      <c r="T167" s="201"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
@@ -44551,12 +44551,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O168" s="199"/>
-      <c r="P168" s="199"/>
-      <c r="Q168" s="199"/>
-      <c r="R168" s="199"/>
-      <c r="S168" s="199"/>
-      <c r="T168" s="199"/>
+      <c r="O168" s="201"/>
+      <c r="P168" s="201"/>
+      <c r="Q168" s="201"/>
+      <c r="R168" s="201"/>
+      <c r="S168" s="201"/>
+      <c r="T168" s="201"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="86" t="s">
@@ -44578,12 +44578,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O169" s="199"/>
-      <c r="P169" s="199"/>
-      <c r="Q169" s="199"/>
-      <c r="R169" s="199"/>
-      <c r="S169" s="199"/>
-      <c r="T169" s="199"/>
+      <c r="O169" s="201"/>
+      <c r="P169" s="201"/>
+      <c r="Q169" s="201"/>
+      <c r="R169" s="201"/>
+      <c r="S169" s="201"/>
+      <c r="T169" s="201"/>
     </row>
     <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="91" t="s">
@@ -44641,12 +44641,12 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O170" s="199"/>
-      <c r="P170" s="199"/>
-      <c r="Q170" s="199"/>
-      <c r="R170" s="199"/>
-      <c r="S170" s="199"/>
-      <c r="T170" s="199"/>
+      <c r="O170" s="201"/>
+      <c r="P170" s="201"/>
+      <c r="Q170" s="201"/>
+      <c r="R170" s="201"/>
+      <c r="S170" s="201"/>
+      <c r="T170" s="201"/>
     </row>
     <row r="171" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="98"/>
@@ -44683,12 +44683,12 @@
         <f t="shared" ref="N172:N181" si="29">K172/L172</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O172" s="199"/>
-      <c r="P172" s="199"/>
-      <c r="Q172" s="199"/>
-      <c r="R172" s="199"/>
-      <c r="S172" s="199"/>
-      <c r="T172" s="199"/>
+      <c r="O172" s="201"/>
+      <c r="P172" s="201"/>
+      <c r="Q172" s="201"/>
+      <c r="R172" s="201"/>
+      <c r="S172" s="201"/>
+      <c r="T172" s="201"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="86" t="s">
@@ -44710,12 +44710,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O173" s="199"/>
-      <c r="P173" s="199"/>
-      <c r="Q173" s="199"/>
-      <c r="R173" s="199"/>
-      <c r="S173" s="199"/>
-      <c r="T173" s="199"/>
+      <c r="O173" s="201"/>
+      <c r="P173" s="201"/>
+      <c r="Q173" s="201"/>
+      <c r="R173" s="201"/>
+      <c r="S173" s="201"/>
+      <c r="T173" s="201"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="86" t="s">
@@ -44737,12 +44737,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O174" s="199"/>
-      <c r="P174" s="199"/>
-      <c r="Q174" s="199"/>
-      <c r="R174" s="199"/>
-      <c r="S174" s="199"/>
-      <c r="T174" s="199"/>
+      <c r="O174" s="201"/>
+      <c r="P174" s="201"/>
+      <c r="Q174" s="201"/>
+      <c r="R174" s="201"/>
+      <c r="S174" s="201"/>
+      <c r="T174" s="201"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="86" t="s">
@@ -44764,12 +44764,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O175" s="199"/>
-      <c r="P175" s="199"/>
-      <c r="Q175" s="199"/>
-      <c r="R175" s="199"/>
-      <c r="S175" s="199"/>
-      <c r="T175" s="199"/>
+      <c r="O175" s="201"/>
+      <c r="P175" s="201"/>
+      <c r="Q175" s="201"/>
+      <c r="R175" s="201"/>
+      <c r="S175" s="201"/>
+      <c r="T175" s="201"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="86" t="s">
@@ -44791,12 +44791,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O176" s="199"/>
-      <c r="P176" s="199"/>
-      <c r="Q176" s="199"/>
-      <c r="R176" s="199"/>
-      <c r="S176" s="199"/>
-      <c r="T176" s="199"/>
+      <c r="O176" s="201"/>
+      <c r="P176" s="201"/>
+      <c r="Q176" s="201"/>
+      <c r="R176" s="201"/>
+      <c r="S176" s="201"/>
+      <c r="T176" s="201"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="86" t="s">
@@ -44818,12 +44818,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O177" s="199"/>
-      <c r="P177" s="199"/>
-      <c r="Q177" s="199"/>
-      <c r="R177" s="199"/>
-      <c r="S177" s="199"/>
-      <c r="T177" s="199"/>
+      <c r="O177" s="201"/>
+      <c r="P177" s="201"/>
+      <c r="Q177" s="201"/>
+      <c r="R177" s="201"/>
+      <c r="S177" s="201"/>
+      <c r="T177" s="201"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="86" t="s">
@@ -44845,12 +44845,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O178" s="199"/>
-      <c r="P178" s="199"/>
-      <c r="Q178" s="199"/>
-      <c r="R178" s="199"/>
-      <c r="S178" s="199"/>
-      <c r="T178" s="199"/>
+      <c r="O178" s="201"/>
+      <c r="P178" s="201"/>
+      <c r="Q178" s="201"/>
+      <c r="R178" s="201"/>
+      <c r="S178" s="201"/>
+      <c r="T178" s="201"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="86" t="s">
@@ -44872,12 +44872,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O179" s="199"/>
-      <c r="P179" s="199"/>
-      <c r="Q179" s="199"/>
-      <c r="R179" s="199"/>
-      <c r="S179" s="199"/>
-      <c r="T179" s="199"/>
+      <c r="O179" s="201"/>
+      <c r="P179" s="201"/>
+      <c r="Q179" s="201"/>
+      <c r="R179" s="201"/>
+      <c r="S179" s="201"/>
+      <c r="T179" s="201"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="86" t="s">
@@ -44899,12 +44899,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O180" s="199"/>
-      <c r="P180" s="199"/>
-      <c r="Q180" s="199"/>
-      <c r="R180" s="199"/>
-      <c r="S180" s="199"/>
-      <c r="T180" s="199"/>
+      <c r="O180" s="201"/>
+      <c r="P180" s="201"/>
+      <c r="Q180" s="201"/>
+      <c r="R180" s="201"/>
+      <c r="S180" s="201"/>
+      <c r="T180" s="201"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="86" t="s">
@@ -44926,12 +44926,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O181" s="199"/>
-      <c r="P181" s="199"/>
-      <c r="Q181" s="199"/>
-      <c r="R181" s="199"/>
-      <c r="S181" s="199"/>
-      <c r="T181" s="199"/>
+      <c r="O181" s="201"/>
+      <c r="P181" s="201"/>
+      <c r="Q181" s="201"/>
+      <c r="R181" s="201"/>
+      <c r="S181" s="201"/>
+      <c r="T181" s="201"/>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="91" t="s">
@@ -44989,12 +44989,12 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O182" s="199"/>
-      <c r="P182" s="199"/>
-      <c r="Q182" s="199"/>
-      <c r="R182" s="199"/>
-      <c r="S182" s="199"/>
-      <c r="T182" s="199"/>
+      <c r="O182" s="201"/>
+      <c r="P182" s="201"/>
+      <c r="Q182" s="201"/>
+      <c r="R182" s="201"/>
+      <c r="S182" s="201"/>
+      <c r="T182" s="201"/>
     </row>
     <row r="183" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="98"/>
@@ -45031,12 +45031,12 @@
         <f t="shared" ref="N184:N193" si="31">K184/L184</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O184" s="199"/>
-      <c r="P184" s="199"/>
-      <c r="Q184" s="199"/>
-      <c r="R184" s="199"/>
-      <c r="S184" s="199"/>
-      <c r="T184" s="199"/>
+      <c r="O184" s="201"/>
+      <c r="P184" s="201"/>
+      <c r="Q184" s="201"/>
+      <c r="R184" s="201"/>
+      <c r="S184" s="201"/>
+      <c r="T184" s="201"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="86" t="s">
@@ -45058,12 +45058,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O185" s="199"/>
-      <c r="P185" s="199"/>
-      <c r="Q185" s="199"/>
-      <c r="R185" s="199"/>
-      <c r="S185" s="199"/>
-      <c r="T185" s="199"/>
+      <c r="O185" s="201"/>
+      <c r="P185" s="201"/>
+      <c r="Q185" s="201"/>
+      <c r="R185" s="201"/>
+      <c r="S185" s="201"/>
+      <c r="T185" s="201"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="86" t="s">
@@ -45085,12 +45085,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O186" s="199"/>
-      <c r="P186" s="199"/>
-      <c r="Q186" s="199"/>
-      <c r="R186" s="199"/>
-      <c r="S186" s="199"/>
-      <c r="T186" s="199"/>
+      <c r="O186" s="201"/>
+      <c r="P186" s="201"/>
+      <c r="Q186" s="201"/>
+      <c r="R186" s="201"/>
+      <c r="S186" s="201"/>
+      <c r="T186" s="201"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="86" t="s">
@@ -45112,12 +45112,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O187" s="199"/>
-      <c r="P187" s="199"/>
-      <c r="Q187" s="199"/>
-      <c r="R187" s="199"/>
-      <c r="S187" s="199"/>
-      <c r="T187" s="199"/>
+      <c r="O187" s="201"/>
+      <c r="P187" s="201"/>
+      <c r="Q187" s="201"/>
+      <c r="R187" s="201"/>
+      <c r="S187" s="201"/>
+      <c r="T187" s="201"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="86" t="s">
@@ -45139,12 +45139,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O188" s="199"/>
-      <c r="P188" s="199"/>
-      <c r="Q188" s="199"/>
-      <c r="R188" s="199"/>
-      <c r="S188" s="199"/>
-      <c r="T188" s="199"/>
+      <c r="O188" s="201"/>
+      <c r="P188" s="201"/>
+      <c r="Q188" s="201"/>
+      <c r="R188" s="201"/>
+      <c r="S188" s="201"/>
+      <c r="T188" s="201"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="86" t="s">
@@ -45166,12 +45166,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O189" s="199"/>
-      <c r="P189" s="199"/>
-      <c r="Q189" s="199"/>
-      <c r="R189" s="199"/>
-      <c r="S189" s="199"/>
-      <c r="T189" s="199"/>
+      <c r="O189" s="201"/>
+      <c r="P189" s="201"/>
+      <c r="Q189" s="201"/>
+      <c r="R189" s="201"/>
+      <c r="S189" s="201"/>
+      <c r="T189" s="201"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="86" t="s">
@@ -45193,12 +45193,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O190" s="199"/>
-      <c r="P190" s="199"/>
-      <c r="Q190" s="199"/>
-      <c r="R190" s="199"/>
-      <c r="S190" s="199"/>
-      <c r="T190" s="199"/>
+      <c r="O190" s="201"/>
+      <c r="P190" s="201"/>
+      <c r="Q190" s="201"/>
+      <c r="R190" s="201"/>
+      <c r="S190" s="201"/>
+      <c r="T190" s="201"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="86" t="s">
@@ -45220,12 +45220,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O191" s="199"/>
-      <c r="P191" s="199"/>
-      <c r="Q191" s="199"/>
-      <c r="R191" s="199"/>
-      <c r="S191" s="199"/>
-      <c r="T191" s="199"/>
+      <c r="O191" s="201"/>
+      <c r="P191" s="201"/>
+      <c r="Q191" s="201"/>
+      <c r="R191" s="201"/>
+      <c r="S191" s="201"/>
+      <c r="T191" s="201"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="86" t="s">
@@ -45247,12 +45247,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O192" s="199"/>
-      <c r="P192" s="199"/>
-      <c r="Q192" s="199"/>
-      <c r="R192" s="199"/>
-      <c r="S192" s="199"/>
-      <c r="T192" s="199"/>
+      <c r="O192" s="201"/>
+      <c r="P192" s="201"/>
+      <c r="Q192" s="201"/>
+      <c r="R192" s="201"/>
+      <c r="S192" s="201"/>
+      <c r="T192" s="201"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="86" t="s">
@@ -45274,12 +45274,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O193" s="199"/>
-      <c r="P193" s="199"/>
-      <c r="Q193" s="199"/>
-      <c r="R193" s="199"/>
-      <c r="S193" s="199"/>
-      <c r="T193" s="199"/>
+      <c r="O193" s="201"/>
+      <c r="P193" s="201"/>
+      <c r="Q193" s="201"/>
+      <c r="R193" s="201"/>
+      <c r="S193" s="201"/>
+      <c r="T193" s="201"/>
     </row>
     <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="91" t="s">
@@ -45337,12 +45337,12 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="199"/>
-      <c r="P194" s="199"/>
-      <c r="Q194" s="199"/>
-      <c r="R194" s="199"/>
-      <c r="S194" s="199"/>
-      <c r="T194" s="199"/>
+      <c r="O194" s="201"/>
+      <c r="P194" s="201"/>
+      <c r="Q194" s="201"/>
+      <c r="R194" s="201"/>
+      <c r="S194" s="201"/>
+      <c r="T194" s="201"/>
     </row>
     <row r="195" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="98"/>
@@ -45379,12 +45379,12 @@
         <f t="shared" ref="N196:N205" si="33">K196/L196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O196" s="199"/>
-      <c r="P196" s="199"/>
-      <c r="Q196" s="199"/>
-      <c r="R196" s="199"/>
-      <c r="S196" s="199"/>
-      <c r="T196" s="199"/>
+      <c r="O196" s="201"/>
+      <c r="P196" s="201"/>
+      <c r="Q196" s="201"/>
+      <c r="R196" s="201"/>
+      <c r="S196" s="201"/>
+      <c r="T196" s="201"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="86" t="s">
@@ -45406,12 +45406,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O197" s="199"/>
-      <c r="P197" s="199"/>
-      <c r="Q197" s="199"/>
-      <c r="R197" s="199"/>
-      <c r="S197" s="199"/>
-      <c r="T197" s="199"/>
+      <c r="O197" s="201"/>
+      <c r="P197" s="201"/>
+      <c r="Q197" s="201"/>
+      <c r="R197" s="201"/>
+      <c r="S197" s="201"/>
+      <c r="T197" s="201"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="86" t="s">
@@ -45433,12 +45433,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O198" s="199"/>
-      <c r="P198" s="199"/>
-      <c r="Q198" s="199"/>
-      <c r="R198" s="199"/>
-      <c r="S198" s="199"/>
-      <c r="T198" s="199"/>
+      <c r="O198" s="201"/>
+      <c r="P198" s="201"/>
+      <c r="Q198" s="201"/>
+      <c r="R198" s="201"/>
+      <c r="S198" s="201"/>
+      <c r="T198" s="201"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="86" t="s">
@@ -45460,12 +45460,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O199" s="199"/>
-      <c r="P199" s="199"/>
-      <c r="Q199" s="199"/>
-      <c r="R199" s="199"/>
-      <c r="S199" s="199"/>
-      <c r="T199" s="199"/>
+      <c r="O199" s="201"/>
+      <c r="P199" s="201"/>
+      <c r="Q199" s="201"/>
+      <c r="R199" s="201"/>
+      <c r="S199" s="201"/>
+      <c r="T199" s="201"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="86" t="s">
@@ -45487,12 +45487,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O200" s="199"/>
-      <c r="P200" s="199"/>
-      <c r="Q200" s="199"/>
-      <c r="R200" s="199"/>
-      <c r="S200" s="199"/>
-      <c r="T200" s="199"/>
+      <c r="O200" s="201"/>
+      <c r="P200" s="201"/>
+      <c r="Q200" s="201"/>
+      <c r="R200" s="201"/>
+      <c r="S200" s="201"/>
+      <c r="T200" s="201"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="86" t="s">
@@ -45514,12 +45514,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O201" s="199"/>
-      <c r="P201" s="199"/>
-      <c r="Q201" s="199"/>
-      <c r="R201" s="199"/>
-      <c r="S201" s="199"/>
-      <c r="T201" s="199"/>
+      <c r="O201" s="201"/>
+      <c r="P201" s="201"/>
+      <c r="Q201" s="201"/>
+      <c r="R201" s="201"/>
+      <c r="S201" s="201"/>
+      <c r="T201" s="201"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="86" t="s">
@@ -45541,12 +45541,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O202" s="199"/>
-      <c r="P202" s="199"/>
-      <c r="Q202" s="199"/>
-      <c r="R202" s="199"/>
-      <c r="S202" s="199"/>
-      <c r="T202" s="199"/>
+      <c r="O202" s="201"/>
+      <c r="P202" s="201"/>
+      <c r="Q202" s="201"/>
+      <c r="R202" s="201"/>
+      <c r="S202" s="201"/>
+      <c r="T202" s="201"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="86" t="s">
@@ -45568,12 +45568,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O203" s="199"/>
-      <c r="P203" s="199"/>
-      <c r="Q203" s="199"/>
-      <c r="R203" s="199"/>
-      <c r="S203" s="199"/>
-      <c r="T203" s="199"/>
+      <c r="O203" s="201"/>
+      <c r="P203" s="201"/>
+      <c r="Q203" s="201"/>
+      <c r="R203" s="201"/>
+      <c r="S203" s="201"/>
+      <c r="T203" s="201"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="86" t="s">
@@ -45595,12 +45595,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O204" s="199"/>
-      <c r="P204" s="199"/>
-      <c r="Q204" s="199"/>
-      <c r="R204" s="199"/>
-      <c r="S204" s="199"/>
-      <c r="T204" s="199"/>
+      <c r="O204" s="201"/>
+      <c r="P204" s="201"/>
+      <c r="Q204" s="201"/>
+      <c r="R204" s="201"/>
+      <c r="S204" s="201"/>
+      <c r="T204" s="201"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="86" t="s">
@@ -45622,12 +45622,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O205" s="199"/>
-      <c r="P205" s="199"/>
-      <c r="Q205" s="199"/>
-      <c r="R205" s="199"/>
-      <c r="S205" s="199"/>
-      <c r="T205" s="199"/>
+      <c r="O205" s="201"/>
+      <c r="P205" s="201"/>
+      <c r="Q205" s="201"/>
+      <c r="R205" s="201"/>
+      <c r="S205" s="201"/>
+      <c r="T205" s="201"/>
     </row>
     <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
@@ -45685,12 +45685,12 @@
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O206" s="199"/>
-      <c r="P206" s="199"/>
-      <c r="Q206" s="199"/>
-      <c r="R206" s="199"/>
-      <c r="S206" s="199"/>
-      <c r="T206" s="199"/>
+      <c r="O206" s="201"/>
+      <c r="P206" s="201"/>
+      <c r="Q206" s="201"/>
+      <c r="R206" s="201"/>
+      <c r="S206" s="201"/>
+      <c r="T206" s="201"/>
     </row>
     <row r="207" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="98"/>
@@ -45727,12 +45727,12 @@
         <f t="shared" ref="N208:N217" si="35">K208/L208</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O208" s="199"/>
-      <c r="P208" s="199"/>
-      <c r="Q208" s="199"/>
-      <c r="R208" s="199"/>
-      <c r="S208" s="199"/>
-      <c r="T208" s="199"/>
+      <c r="O208" s="201"/>
+      <c r="P208" s="201"/>
+      <c r="Q208" s="201"/>
+      <c r="R208" s="201"/>
+      <c r="S208" s="201"/>
+      <c r="T208" s="201"/>
     </row>
     <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="86" t="s">
@@ -45754,12 +45754,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O209" s="199"/>
-      <c r="P209" s="199"/>
-      <c r="Q209" s="199"/>
-      <c r="R209" s="199"/>
-      <c r="S209" s="199"/>
-      <c r="T209" s="199"/>
+      <c r="O209" s="201"/>
+      <c r="P209" s="201"/>
+      <c r="Q209" s="201"/>
+      <c r="R209" s="201"/>
+      <c r="S209" s="201"/>
+      <c r="T209" s="201"/>
     </row>
     <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="86" t="s">
@@ -45781,12 +45781,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O210" s="199"/>
-      <c r="P210" s="199"/>
-      <c r="Q210" s="199"/>
-      <c r="R210" s="199"/>
-      <c r="S210" s="199"/>
-      <c r="T210" s="199"/>
+      <c r="O210" s="201"/>
+      <c r="P210" s="201"/>
+      <c r="Q210" s="201"/>
+      <c r="R210" s="201"/>
+      <c r="S210" s="201"/>
+      <c r="T210" s="201"/>
     </row>
     <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="86" t="s">
@@ -45808,12 +45808,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O211" s="199"/>
-      <c r="P211" s="199"/>
-      <c r="Q211" s="199"/>
-      <c r="R211" s="199"/>
-      <c r="S211" s="199"/>
-      <c r="T211" s="199"/>
+      <c r="O211" s="201"/>
+      <c r="P211" s="201"/>
+      <c r="Q211" s="201"/>
+      <c r="R211" s="201"/>
+      <c r="S211" s="201"/>
+      <c r="T211" s="201"/>
     </row>
     <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="86" t="s">
@@ -45835,12 +45835,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O212" s="199"/>
-      <c r="P212" s="199"/>
-      <c r="Q212" s="199"/>
-      <c r="R212" s="199"/>
-      <c r="S212" s="199"/>
-      <c r="T212" s="199"/>
+      <c r="O212" s="201"/>
+      <c r="P212" s="201"/>
+      <c r="Q212" s="201"/>
+      <c r="R212" s="201"/>
+      <c r="S212" s="201"/>
+      <c r="T212" s="201"/>
     </row>
     <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="86" t="s">
@@ -45862,12 +45862,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O213" s="199"/>
-      <c r="P213" s="199"/>
-      <c r="Q213" s="199"/>
-      <c r="R213" s="199"/>
-      <c r="S213" s="199"/>
-      <c r="T213" s="199"/>
+      <c r="O213" s="201"/>
+      <c r="P213" s="201"/>
+      <c r="Q213" s="201"/>
+      <c r="R213" s="201"/>
+      <c r="S213" s="201"/>
+      <c r="T213" s="201"/>
     </row>
     <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="86" t="s">
@@ -45889,12 +45889,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O214" s="199"/>
-      <c r="P214" s="199"/>
-      <c r="Q214" s="199"/>
-      <c r="R214" s="199"/>
-      <c r="S214" s="199"/>
-      <c r="T214" s="199"/>
+      <c r="O214" s="201"/>
+      <c r="P214" s="201"/>
+      <c r="Q214" s="201"/>
+      <c r="R214" s="201"/>
+      <c r="S214" s="201"/>
+      <c r="T214" s="201"/>
     </row>
     <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="86" t="s">
@@ -45916,12 +45916,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O215" s="199"/>
-      <c r="P215" s="199"/>
-      <c r="Q215" s="199"/>
-      <c r="R215" s="199"/>
-      <c r="S215" s="199"/>
-      <c r="T215" s="199"/>
+      <c r="O215" s="201"/>
+      <c r="P215" s="201"/>
+      <c r="Q215" s="201"/>
+      <c r="R215" s="201"/>
+      <c r="S215" s="201"/>
+      <c r="T215" s="201"/>
     </row>
     <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="86" t="s">
@@ -45943,12 +45943,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O216" s="199"/>
-      <c r="P216" s="199"/>
-      <c r="Q216" s="199"/>
-      <c r="R216" s="199"/>
-      <c r="S216" s="199"/>
-      <c r="T216" s="199"/>
+      <c r="O216" s="201"/>
+      <c r="P216" s="201"/>
+      <c r="Q216" s="201"/>
+      <c r="R216" s="201"/>
+      <c r="S216" s="201"/>
+      <c r="T216" s="201"/>
     </row>
     <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
@@ -45970,12 +45970,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O217" s="199"/>
-      <c r="P217" s="199"/>
-      <c r="Q217" s="199"/>
-      <c r="R217" s="199"/>
-      <c r="S217" s="199"/>
-      <c r="T217" s="199"/>
+      <c r="O217" s="201"/>
+      <c r="P217" s="201"/>
+      <c r="Q217" s="201"/>
+      <c r="R217" s="201"/>
+      <c r="S217" s="201"/>
+      <c r="T217" s="201"/>
     </row>
     <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="91" t="s">
@@ -46033,12 +46033,12 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O218" s="199"/>
-      <c r="P218" s="199"/>
-      <c r="Q218" s="199"/>
-      <c r="R218" s="199"/>
-      <c r="S218" s="199"/>
-      <c r="T218" s="199"/>
+      <c r="O218" s="201"/>
+      <c r="P218" s="201"/>
+      <c r="Q218" s="201"/>
+      <c r="R218" s="201"/>
+      <c r="S218" s="201"/>
+      <c r="T218" s="201"/>
     </row>
     <row r="219" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="98"/>
@@ -46075,12 +46075,12 @@
         <f t="shared" ref="N220:N229" si="37">K220/L220</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O220" s="199"/>
-      <c r="P220" s="199"/>
-      <c r="Q220" s="199"/>
-      <c r="R220" s="199"/>
-      <c r="S220" s="199"/>
-      <c r="T220" s="199"/>
+      <c r="O220" s="201"/>
+      <c r="P220" s="201"/>
+      <c r="Q220" s="201"/>
+      <c r="R220" s="201"/>
+      <c r="S220" s="201"/>
+      <c r="T220" s="201"/>
     </row>
     <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
@@ -46102,12 +46102,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O221" s="199"/>
-      <c r="P221" s="199"/>
-      <c r="Q221" s="199"/>
-      <c r="R221" s="199"/>
-      <c r="S221" s="199"/>
-      <c r="T221" s="199"/>
+      <c r="O221" s="201"/>
+      <c r="P221" s="201"/>
+      <c r="Q221" s="201"/>
+      <c r="R221" s="201"/>
+      <c r="S221" s="201"/>
+      <c r="T221" s="201"/>
     </row>
     <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
@@ -46129,12 +46129,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O222" s="199"/>
-      <c r="P222" s="199"/>
-      <c r="Q222" s="199"/>
-      <c r="R222" s="199"/>
-      <c r="S222" s="199"/>
-      <c r="T222" s="199"/>
+      <c r="O222" s="201"/>
+      <c r="P222" s="201"/>
+      <c r="Q222" s="201"/>
+      <c r="R222" s="201"/>
+      <c r="S222" s="201"/>
+      <c r="T222" s="201"/>
     </row>
     <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
@@ -46156,12 +46156,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O223" s="199"/>
-      <c r="P223" s="199"/>
-      <c r="Q223" s="199"/>
-      <c r="R223" s="199"/>
-      <c r="S223" s="199"/>
-      <c r="T223" s="199"/>
+      <c r="O223" s="201"/>
+      <c r="P223" s="201"/>
+      <c r="Q223" s="201"/>
+      <c r="R223" s="201"/>
+      <c r="S223" s="201"/>
+      <c r="T223" s="201"/>
     </row>
     <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
@@ -46183,12 +46183,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O224" s="199"/>
-      <c r="P224" s="199"/>
-      <c r="Q224" s="199"/>
-      <c r="R224" s="199"/>
-      <c r="S224" s="199"/>
-      <c r="T224" s="199"/>
+      <c r="O224" s="201"/>
+      <c r="P224" s="201"/>
+      <c r="Q224" s="201"/>
+      <c r="R224" s="201"/>
+      <c r="S224" s="201"/>
+      <c r="T224" s="201"/>
     </row>
     <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
@@ -46210,12 +46210,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O225" s="199"/>
-      <c r="P225" s="199"/>
-      <c r="Q225" s="199"/>
-      <c r="R225" s="199"/>
-      <c r="S225" s="199"/>
-      <c r="T225" s="199"/>
+      <c r="O225" s="201"/>
+      <c r="P225" s="201"/>
+      <c r="Q225" s="201"/>
+      <c r="R225" s="201"/>
+      <c r="S225" s="201"/>
+      <c r="T225" s="201"/>
     </row>
     <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="86" t="s">
@@ -46237,12 +46237,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O226" s="199"/>
-      <c r="P226" s="199"/>
-      <c r="Q226" s="199"/>
-      <c r="R226" s="199"/>
-      <c r="S226" s="199"/>
-      <c r="T226" s="199"/>
+      <c r="O226" s="201"/>
+      <c r="P226" s="201"/>
+      <c r="Q226" s="201"/>
+      <c r="R226" s="201"/>
+      <c r="S226" s="201"/>
+      <c r="T226" s="201"/>
     </row>
     <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="86" t="s">
@@ -46264,12 +46264,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O227" s="199"/>
-      <c r="P227" s="199"/>
-      <c r="Q227" s="199"/>
-      <c r="R227" s="199"/>
-      <c r="S227" s="199"/>
-      <c r="T227" s="199"/>
+      <c r="O227" s="201"/>
+      <c r="P227" s="201"/>
+      <c r="Q227" s="201"/>
+      <c r="R227" s="201"/>
+      <c r="S227" s="201"/>
+      <c r="T227" s="201"/>
     </row>
     <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="86" t="s">
@@ -46291,12 +46291,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O228" s="199"/>
-      <c r="P228" s="199"/>
-      <c r="Q228" s="199"/>
-      <c r="R228" s="199"/>
-      <c r="S228" s="199"/>
-      <c r="T228" s="199"/>
+      <c r="O228" s="201"/>
+      <c r="P228" s="201"/>
+      <c r="Q228" s="201"/>
+      <c r="R228" s="201"/>
+      <c r="S228" s="201"/>
+      <c r="T228" s="201"/>
     </row>
     <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="86" t="s">
@@ -46318,12 +46318,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O229" s="199"/>
-      <c r="P229" s="199"/>
-      <c r="Q229" s="199"/>
-      <c r="R229" s="199"/>
-      <c r="S229" s="199"/>
-      <c r="T229" s="199"/>
+      <c r="O229" s="201"/>
+      <c r="P229" s="201"/>
+      <c r="Q229" s="201"/>
+      <c r="R229" s="201"/>
+      <c r="S229" s="201"/>
+      <c r="T229" s="201"/>
     </row>
     <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
@@ -46381,12 +46381,12 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O230" s="199"/>
-      <c r="P230" s="199"/>
-      <c r="Q230" s="199"/>
-      <c r="R230" s="199"/>
-      <c r="S230" s="199"/>
-      <c r="T230" s="199"/>
+      <c r="O230" s="201"/>
+      <c r="P230" s="201"/>
+      <c r="Q230" s="201"/>
+      <c r="R230" s="201"/>
+      <c r="S230" s="201"/>
+      <c r="T230" s="201"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="147" t="s">
@@ -49249,15 +49249,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O267:T277"/>
-    <mergeCell ref="O279:T289"/>
-    <mergeCell ref="O231:T241"/>
-    <mergeCell ref="O243:T253"/>
-    <mergeCell ref="O172:T182"/>
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O255:T265"/>
     <mergeCell ref="O291:T301"/>
     <mergeCell ref="O136:T146"/>
     <mergeCell ref="O4:T14"/>
@@ -49274,6 +49265,15 @@
     <mergeCell ref="O220:T230"/>
     <mergeCell ref="O148:T158"/>
     <mergeCell ref="O160:T170"/>
+    <mergeCell ref="O267:T277"/>
+    <mergeCell ref="O279:T289"/>
+    <mergeCell ref="O231:T241"/>
+    <mergeCell ref="O243:T253"/>
+    <mergeCell ref="O172:T182"/>
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O255:T265"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -49285,7 +49285,7 @@
   <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49309,51 +49309,51 @@
   <sheetData>
     <row r="1" spans="2:16" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>6.0224418176316208</v>
+        <v>7.318548596294737</v>
       </c>
       <c r="C1" s="68">
-        <v>11.208959377388336</v>
+        <v>13.625960786532396</v>
       </c>
       <c r="D1" s="68">
-        <v>4.4164800901016106</v>
+        <v>5.6154092871583865</v>
       </c>
       <c r="E1" s="68">
-        <v>7.46794907610255</v>
+        <v>9.497147970516048</v>
       </c>
       <c r="F1" s="68">
-        <v>11.724102580855158</v>
+        <v>14.532446592272391</v>
       </c>
       <c r="G1" s="68">
-        <v>5.8005763719316921</v>
+        <v>7.6840587636928488</v>
       </c>
       <c r="H1" s="68">
-        <v>9.2192730977261714</v>
+        <v>16.786169047877468</v>
       </c>
       <c r="I1" s="68">
-        <v>9.4197900947194935</v>
+        <v>16.761540137280459</v>
       </c>
       <c r="J1" s="68">
-        <v>9.0946951099345359</v>
+        <v>16.810240322762816</v>
       </c>
       <c r="K1" s="84">
-        <v>3763</v>
+        <v>2096</v>
       </c>
       <c r="L1" s="84">
-        <v>12787</v>
+        <v>12907</v>
       </c>
       <c r="M1" s="84">
-        <v>796</v>
+        <v>415</v>
       </c>
       <c r="N1" s="192">
-        <v>72.760687202718799</v>
+        <v>77.676528338321845</v>
       </c>
       <c r="O1" s="159">
         <f>K1/L1</f>
-        <v>0.29428325643231407</v>
+        <v>0.16239250019369333</v>
       </c>
       <c r="P1" s="159">
         <f t="shared" ref="P1:P7" si="0">M1/K1</f>
-        <v>0.2115333510496944</v>
+        <v>0.19799618320610687</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
@@ -49613,51 +49613,51 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="186">
         <f t="shared" ref="B13:L13" si="5">AVERAGE(B1:B10)</f>
-        <v>5.8876283699436236</v>
+        <v>6.5356817592751817</v>
       </c>
       <c r="C13" s="186">
         <f t="shared" si="5"/>
-        <v>11.049283867836177</v>
+        <v>12.257784572408209</v>
       </c>
       <c r="D13" s="186">
         <f t="shared" si="5"/>
-        <v>4.3206670621422187</v>
+        <v>4.9201316606706058</v>
       </c>
       <c r="E13" s="186">
         <f t="shared" si="5"/>
-        <v>7.3961696693943093</v>
+        <v>8.4107691166010596</v>
       </c>
       <c r="F13" s="186">
         <f t="shared" si="5"/>
-        <v>11.683813291731873</v>
+        <v>13.08798529744049</v>
       </c>
       <c r="G13" s="186">
         <f t="shared" si="5"/>
-        <v>5.7079471850756773</v>
+        <v>6.6496883809562561</v>
       </c>
       <c r="H13" s="186">
         <f t="shared" si="5"/>
-        <v>9.2370902915283217</v>
+        <v>13.020538266603969</v>
       </c>
       <c r="I13" s="186">
         <f t="shared" si="5"/>
-        <v>9.4119344896890027</v>
+        <v>13.082809510969486</v>
       </c>
       <c r="J13" s="186">
         <f t="shared" si="5"/>
-        <v>9.1308372928452304</v>
+        <v>12.988609899259369</v>
       </c>
       <c r="K13" s="186">
         <f t="shared" si="5"/>
-        <v>3778.5</v>
+        <v>2945</v>
       </c>
       <c r="L13" s="186">
         <f t="shared" si="5"/>
-        <v>12812</v>
+        <v>12872</v>
       </c>
       <c r="M13" s="186">
         <f>AVERAGE(M1:M10)</f>
-        <v>800</v>
+        <v>609.5</v>
       </c>
       <c r="N13" s="186" t="e">
         <f>AVERAGE(N1:N10)</f>
@@ -49754,43 +49754,43 @@
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="76">
         <f>B13-B18</f>
-        <v>-2.3223716300563773</v>
+        <v>-1.6743182407248192</v>
       </c>
       <c r="C17" s="76">
         <f t="shared" ref="C17:K17" si="6">C13-C18</f>
-        <v>-4.0907161321638235</v>
+        <v>-2.8822154275917917</v>
       </c>
       <c r="D17" s="76">
         <f t="shared" si="6"/>
-        <v>-1.4993329378577815</v>
+        <v>-0.89986833932939447</v>
       </c>
       <c r="E17" s="76">
         <f t="shared" si="6"/>
-        <v>-3.0138303306056908</v>
+        <v>-1.9992308833989405</v>
       </c>
       <c r="F17" s="76">
         <f t="shared" si="6"/>
-        <v>-4.6761867082681263</v>
+        <v>-3.2720147025595097</v>
       </c>
       <c r="G17" s="76">
         <f t="shared" si="6"/>
-        <v>-1.0120528149243224</v>
+        <v>-7.0311619043743612E-2</v>
       </c>
       <c r="H17" s="76">
         <f t="shared" si="6"/>
-        <v>4.7770902915283218</v>
+        <v>8.5605382666039702</v>
       </c>
       <c r="I17" s="76">
         <f t="shared" si="6"/>
-        <v>4.5919344896890024</v>
+        <v>8.2628095109694861</v>
       </c>
       <c r="J17" s="76">
         <f t="shared" si="6"/>
-        <v>5.0408372928452305</v>
+        <v>8.8986098992593696</v>
       </c>
       <c r="K17" s="90">
         <f t="shared" si="6"/>
-        <v>2315.5</v>
+        <v>1482</v>
       </c>
       <c r="L17" s="75"/>
       <c r="O17" s="76" t="e">
@@ -49835,7 +49835,7 @@
       </c>
       <c r="M18" s="74">
         <f>M13/K13</f>
-        <v>0.2117242291914781</v>
+        <v>0.20696095076400678</v>
       </c>
       <c r="O18" s="74">
         <v>0.16</v>
@@ -49847,43 +49847,43 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="73">
         <f t="shared" ref="B19:D19" si="8">B17/B18</f>
-        <v>-0.28287108770479624</v>
+        <v>-0.20393644832214605</v>
       </c>
       <c r="C19" s="73">
         <f t="shared" si="8"/>
-        <v>-0.27019261110725384</v>
+        <v>-0.19037090010513816</v>
       </c>
       <c r="D19" s="73">
         <f t="shared" si="8"/>
-        <v>-0.2576173432745329</v>
+        <v>-0.1546165531493805</v>
       </c>
       <c r="E19" s="73">
         <f>E17/E18</f>
-        <v>-0.28951300005818353</v>
+        <v>-0.19204907621507594</v>
       </c>
       <c r="F19" s="73">
         <f t="shared" ref="F19:K19" si="9">F17/F18</f>
-        <v>-0.28583048339047229</v>
+        <v>-0.20000089868945659</v>
       </c>
       <c r="G19" s="73">
         <f t="shared" si="9"/>
-        <v>-0.15060309745897654</v>
+        <v>-1.0463038548176134E-2</v>
       </c>
       <c r="H19" s="73">
         <f t="shared" si="9"/>
-        <v>1.0710964779211485</v>
+        <v>1.9194031987901279</v>
       </c>
       <c r="I19" s="73">
         <f t="shared" si="9"/>
-        <v>0.95268350408485525</v>
+        <v>1.7142758321513456</v>
       </c>
       <c r="J19" s="73">
         <f t="shared" si="9"/>
-        <v>1.2324785557078803</v>
+        <v>2.1756992418727066</v>
       </c>
       <c r="K19" s="73">
         <f t="shared" si="9"/>
-        <v>1.5827067669172932</v>
+        <v>1.0129870129870129</v>
       </c>
       <c r="O19" s="73" t="e">
         <f t="shared" ref="O19:P19" si="10">O17/O18</f>
@@ -49920,34 +49920,34 @@
   <sheetData>
     <row r="1" spans="2:11" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>7.2173614316468475</v>
+        <v>8.5469780578722254</v>
       </c>
       <c r="C1" s="68">
-        <v>12.391799544244034</v>
+        <v>14.793453717827486</v>
       </c>
       <c r="D1" s="68">
-        <v>5.6151400037696595</v>
+        <v>6.8602929453154315</v>
       </c>
       <c r="E1" s="68">
-        <v>55.636946320247226</v>
+        <v>46.664370191755658</v>
       </c>
       <c r="F1" s="68">
-        <v>69.832913710231168</v>
+        <v>56.934557979334102</v>
       </c>
       <c r="G1" s="68">
-        <v>70.173860911270978</v>
+        <v>58.00524934383202</v>
       </c>
       <c r="H1" s="68">
-        <v>80.713322343773413</v>
+        <v>67.181804927832047</v>
       </c>
       <c r="I1" s="68">
-        <v>0.88816825720374315</v>
+        <v>0.88673497646081423</v>
       </c>
       <c r="J1" s="68">
-        <v>0.24395441489854536</v>
+        <v>0.24669989845841411</v>
       </c>
       <c r="K1" s="68">
-        <v>7.1203557861576949E-2</v>
+        <v>9.0602787778085475E-2</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
@@ -50205,43 +50205,43 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="67">
         <f>AVERAGE(B1:B10)</f>
-        <v>7.6146591563098545</v>
+        <v>7.8046043886277658</v>
       </c>
       <c r="C13" s="67">
         <f t="shared" ref="C13:J13" si="0">AVERAGE(C1:C10)</f>
-        <v>13.14337184737427</v>
+        <v>13.486465300743337</v>
       </c>
       <c r="D13" s="67">
         <f t="shared" si="0"/>
-        <v>6.0217706858081561</v>
+        <v>6.1996496774575531</v>
       </c>
       <c r="E13" s="67">
         <f t="shared" si="0"/>
-        <v>52.995104783771083</v>
+        <v>51.71330819398657</v>
       </c>
       <c r="F13" s="67">
         <f t="shared" si="0"/>
-        <v>65.783045403221138</v>
+        <v>63.940423155950121</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>66.254908419655479</v>
+        <v>64.51653533859276</v>
       </c>
       <c r="H13" s="67">
         <f t="shared" si="0"/>
-        <v>76.153853359220562</v>
+        <v>74.220779442657516</v>
       </c>
       <c r="I13" s="67">
         <f t="shared" si="0"/>
-        <v>0.90859837864159887</v>
+        <v>0.90839362424975179</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" si="0"/>
-        <v>0.25379111507246727</v>
+        <v>0.2541833270095914</v>
       </c>
       <c r="K13" s="67">
         <f>AVERAGE(K1:K10)</f>
-        <v>5.8750869174158601E-2</v>
+        <v>6.1522187733659819E-2</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -50363,8 +50363,8 @@
   </sheetPr>
   <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50393,14 +50393,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="193" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="194"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="197" t="s">
         <v>72</v>
       </c>
@@ -50451,43 +50451,43 @@
         <v>103</v>
       </c>
       <c r="Z1" s="167">
-        <v>22237.417331796682</v>
+        <v>22459.369148532081</v>
       </c>
       <c r="AA1" s="167">
-        <v>43352.543888941473</v>
+        <v>26405.003439548949</v>
       </c>
       <c r="AB1" s="167">
-        <v>14288.256018975269</v>
+        <v>11639.359033707809</v>
       </c>
       <c r="AC1" s="167">
-        <v>21381.884739695837</v>
+        <v>15418.33047602413</v>
       </c>
       <c r="AD1" s="167">
-        <v>46990.349931653356</v>
+        <v>37193.426007694587</v>
       </c>
       <c r="AE1" s="167">
-        <v>91228.214644125532</v>
+        <v>82037.546189104207</v>
       </c>
       <c r="AF1" s="167">
-        <v>52192.090616048947</v>
+        <v>99676.696138241197</v>
       </c>
       <c r="AG1" s="167">
-        <v>117815.67324816351</v>
+        <v>85524.88147097308</v>
       </c>
       <c r="AH1" s="167">
         <v>0</v>
       </c>
       <c r="AI1" s="167">
-        <v>44981.310755158564</v>
+        <v>51474.596540509403</v>
       </c>
       <c r="AJ1" s="167">
-        <v>27592.672610145062</v>
+        <v>22388.970517963327</v>
       </c>
       <c r="AK1" s="167">
-        <v>19436.121751555984</v>
+        <v>17353.376336803733</v>
       </c>
       <c r="AL1" s="185">
-        <v>3763</v>
+        <v>2096</v>
       </c>
       <c r="AO1" s="156" t="s">
         <v>263</v>
@@ -50520,67 +50520,67 @@
         <v>64</v>
       </c>
       <c r="B2" s="38">
-        <v>0.16665103336147308</v>
+        <v>0.16666277685718911</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="36">
-        <v>0.27748395561123357</v>
+        <v>0.28899765373610636</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="37">
-        <v>433.04168589881084</v>
+        <v>512.81868347233353</v>
       </c>
       <c r="G2">
         <f>F2/1440</f>
-        <v>0.30072339298528533</v>
+        <v>0.35612408574467608</v>
       </c>
       <c r="J2" s="169" t="s">
         <v>254</v>
       </c>
       <c r="K2" s="167">
-        <v>1825.9992032125799</v>
+        <v>1977.1741813059366</v>
       </c>
       <c r="L2" s="167">
         <f>K2/60</f>
-        <v>30.433320053543</v>
+        <v>32.952903021765607</v>
       </c>
       <c r="M2" s="167">
         <f>L2/24</f>
-        <v>1.2680550022309582</v>
+        <v>1.3730376259069004</v>
       </c>
       <c r="N2" s="167"/>
       <c r="O2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="P2" s="167">
-        <v>73044.831006579348</v>
+        <v>74363.514621700364</v>
       </c>
       <c r="Q2" s="167">
         <f>P2/60</f>
-        <v>1217.4138501096559</v>
+        <v>1239.3919103616727</v>
       </c>
       <c r="R2" s="167">
         <f>Q2/24</f>
-        <v>50.72557708790233</v>
+        <v>51.641329598403026</v>
       </c>
       <c r="S2" s="167"/>
       <c r="T2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="U2" s="167">
-        <v>49942.640488375968</v>
+        <v>48919.803360076192</v>
       </c>
       <c r="V2" s="167">
         <f>U2/60</f>
-        <v>832.37734147293281</v>
+        <v>815.3300560012699</v>
       </c>
       <c r="W2" s="167">
         <f>V2/24</f>
-        <v>34.682389228038865</v>
+        <v>33.972085666719579</v>
       </c>
       <c r="X2" s="156"/>
       <c r="Y2" s="184">
@@ -50677,57 +50677,57 @@
         <v>2</v>
       </c>
       <c r="D3" s="36">
-        <v>0.28330247988895291</v>
+        <v>0.29247010037106325</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="37">
-        <v>55.657247454524651</v>
+        <v>46.642947320096404</v>
       </c>
       <c r="J3" s="169" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="167">
-        <v>31033.683886998602</v>
+        <v>29926.780628803215</v>
       </c>
       <c r="L3" s="167">
         <f>K3/60</f>
-        <v>517.22806478331006</v>
+        <v>498.77967714672025</v>
       </c>
       <c r="M3" s="167">
         <f>L3/24</f>
-        <v>21.551169365971251</v>
+        <v>20.78248654778001</v>
       </c>
       <c r="N3" s="167"/>
       <c r="O3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="P3" s="167">
-        <v>234891.32790972348</v>
+        <v>245016.13165681515</v>
       </c>
       <c r="Q3" s="167">
         <f>P3/60</f>
-        <v>3914.855465162058</v>
+        <v>4083.6021942802527</v>
       </c>
       <c r="R3" s="167">
         <f>Q3/24</f>
-        <v>163.11897771508575</v>
+        <v>170.15009142834387</v>
       </c>
       <c r="S3" s="167"/>
       <c r="T3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="U3" s="167">
-        <v>154316.34799685632</v>
+        <v>153757.62044133557</v>
       </c>
       <c r="V3" s="167">
         <f>U3/60</f>
-        <v>2571.9391332809387</v>
+        <v>2562.6270073555929</v>
       </c>
       <c r="W3" s="167">
         <f>V3/24</f>
-        <v>107.16413055337244</v>
+        <v>106.77612530648304</v>
       </c>
       <c r="X3" s="156"/>
       <c r="Y3" s="184">
@@ -50786,63 +50786,63 @@
         <v>83</v>
       </c>
       <c r="B4" s="38">
-        <v>18.55300859598854</v>
+        <v>18.481375358166186</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="36">
-        <v>7.2773218088270628E-2</v>
+        <v>7.228403394551719E-2</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="37">
-        <v>69.846716998398534</v>
+        <v>56.908423226991047</v>
       </c>
       <c r="J4" s="169" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="167">
-        <v>1097.7330465930504</v>
+        <v>1578.748450698964</v>
       </c>
       <c r="L4" s="167">
         <f t="shared" ref="L4:L14" si="0">K4/60</f>
-        <v>18.29555077655084</v>
+        <v>26.312474178316066</v>
       </c>
       <c r="M4" s="167">
         <f t="shared" ref="M4:M14" si="1">L4/24</f>
-        <v>0.76231461568961834</v>
+        <v>1.0963530907631693</v>
       </c>
       <c r="N4" s="167"/>
       <c r="O4" s="168" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="167">
-        <v>90973.316420973657</v>
+        <v>96494.633645765905</v>
       </c>
       <c r="Q4" s="167">
         <f t="shared" ref="Q4:Q14" si="2">P4/60</f>
-        <v>1516.221940349561</v>
+        <v>1608.2438940960985</v>
       </c>
       <c r="R4" s="167">
         <f t="shared" ref="R4:R14" si="3">Q4/24</f>
-        <v>63.175914181231711</v>
+        <v>67.010162254004101</v>
       </c>
       <c r="S4" s="167"/>
       <c r="T4" s="168" t="s">
         <v>17</v>
       </c>
       <c r="U4" s="167">
-        <v>3727.7855527629936</v>
+        <v>3639.799975351928</v>
       </c>
       <c r="V4" s="167">
         <f t="shared" ref="V4:V13" si="4">U4/60</f>
-        <v>62.129759212716557</v>
+        <v>60.663332922532135</v>
       </c>
       <c r="W4" s="167">
         <f t="shared" ref="W4:W13" si="5">V4/24</f>
-        <v>2.5887399671965232</v>
+        <v>2.5276388717721723</v>
       </c>
       <c r="X4" s="156"/>
       <c r="Y4" s="184">
@@ -50901,63 +50901,63 @@
         <v>84</v>
       </c>
       <c r="B5" s="38">
-        <v>74.819779437923515</v>
+        <v>80.169705870354463</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="36">
-        <v>60.603294952798002</v>
+        <v>62.239687525282939</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="37">
-        <v>7.4420076220608289</v>
+        <v>7.4638015575425465</v>
       </c>
       <c r="J5" s="169" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="167">
-        <v>4080.9912637735297</v>
+        <v>4164.3259169834973</v>
       </c>
       <c r="L5" s="167">
         <f t="shared" si="0"/>
-        <v>68.016521062892167</v>
+        <v>69.405431949724957</v>
       </c>
       <c r="M5" s="167">
         <f t="shared" si="1"/>
-        <v>2.8340217109538401</v>
+        <v>2.8918929979052064</v>
       </c>
       <c r="N5" s="167"/>
       <c r="O5" s="168" t="s">
         <v>112</v>
       </c>
       <c r="P5" s="167">
-        <v>135011.34021762546</v>
+        <v>141849.6573238596</v>
       </c>
       <c r="Q5" s="167">
         <f t="shared" si="2"/>
-        <v>2250.1890036270911</v>
+        <v>2364.16095539766</v>
       </c>
       <c r="R5" s="167">
         <f t="shared" si="3"/>
-        <v>93.7578751511288</v>
+        <v>98.506706474902501</v>
       </c>
       <c r="S5" s="167"/>
       <c r="T5" s="168" t="s">
         <v>111</v>
       </c>
       <c r="U5" s="167">
-        <v>141236.45935484773</v>
+        <v>141497.99664044369</v>
       </c>
       <c r="V5" s="167">
         <f t="shared" si="4"/>
-        <v>2353.9409892474623</v>
+        <v>2358.299944007395</v>
       </c>
       <c r="W5" s="167">
         <f t="shared" si="5"/>
-        <v>98.080874551977601</v>
+        <v>98.262497666974795</v>
       </c>
       <c r="X5" s="156"/>
       <c r="Y5" s="184">
@@ -50982,37 +50982,37 @@
         <v>85</v>
       </c>
       <c r="B6" s="38">
-        <v>32.88881221426719</v>
+        <v>32.574033868866778</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="36">
-        <v>0.17919186288830641</v>
+        <v>0.17871527169437937</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="37">
-        <v>306.84131716672317</v>
+        <v>436.83125908593325</v>
       </c>
       <c r="G6">
         <f>F6/1440</f>
-        <v>0.21308424803244666</v>
+        <v>0.30335504103189809</v>
       </c>
       <c r="J6" s="169" t="s">
         <v>112</v>
       </c>
       <c r="K6" s="167">
-        <v>7450.4920813596054</v>
+        <v>7317.3042510483529</v>
       </c>
       <c r="L6" s="167">
         <f t="shared" si="0"/>
-        <v>124.17486802266009</v>
+        <v>121.95507085080588</v>
       </c>
       <c r="M6" s="167">
         <f t="shared" si="1"/>
-        <v>5.1739528342775039</v>
+        <v>5.0814612854502448</v>
       </c>
       <c r="N6" s="167"/>
       <c r="O6" s="172" t="s">
@@ -51028,15 +51028,15 @@
         <v>112</v>
       </c>
       <c r="U6" s="167">
-        <v>27693.799554178418</v>
+        <v>26122.972747605592</v>
       </c>
       <c r="V6" s="167">
         <f t="shared" ref="V6" si="6">U6/60</f>
-        <v>461.56332590297365</v>
+        <v>435.38287912675986</v>
       </c>
       <c r="W6" s="167">
         <f t="shared" ref="W6" si="7">V6/24</f>
-        <v>19.231805245957236</v>
+        <v>18.140953296948329</v>
       </c>
       <c r="X6" s="156"/>
       <c r="Y6" s="184">
@@ -51090,13 +51090,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="38">
-        <v>1503.8226369638489</v>
+        <v>138.55741449976497</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="36">
-        <v>0.51170629256496669</v>
+        <v>0.52246471153598051</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>77</v>
@@ -51170,15 +51170,15 @@
       </c>
       <c r="AQ7" s="176">
         <f>AQ2*$AG$11</f>
-        <v>118101.2730274105</v>
+        <v>101955.8771388153</v>
       </c>
       <c r="AR7" s="176">
         <f>AR2*$AI$11</f>
-        <v>44540.934459506127</v>
+        <v>47787.57735218155</v>
       </c>
       <c r="AS7" s="176">
         <f>AS2*$AB$11</f>
-        <v>14042.130293407512</v>
+        <v>12717.681800773782</v>
       </c>
       <c r="AT7" s="176">
         <f>AT2*$AJ$11</f>
@@ -51195,11 +51195,11 @@
       <c r="AW7" s="156"/>
       <c r="AX7" s="181">
         <f>SUM(AO7:AU7)+AE11+AF11</f>
-        <v>320612.19266872323</v>
+        <v>325535.95971375518</v>
       </c>
       <c r="AY7" s="179">
         <f>AX7/(1*$AY$2*60*125)</f>
-        <v>2.5146054326958684</v>
+        <v>2.5532232134412172</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
@@ -51207,17 +51207,17 @@
         <v>7</v>
       </c>
       <c r="D8" s="36">
-        <v>8.0190431049707717E-2</v>
+        <v>8.22131670559553E-2</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="37">
-        <v>26.340629173947178</v>
+        <v>8.7771583979080461</v>
       </c>
       <c r="G8">
         <f>F8/1440</f>
-        <v>1.8292103593018874E-2</v>
+        <v>6.095248887436143E-3</v>
       </c>
       <c r="J8" s="173" t="s">
         <v>261</v>
@@ -51277,7 +51277,7 @@
       </c>
       <c r="AP8" s="176">
         <f>AP3*$AA$11</f>
-        <v>43305.500395195566</v>
+        <v>34831.730170499301</v>
       </c>
       <c r="AQ8" s="176">
         <f t="shared" ref="AQ8:AQ9" si="12">AQ3*$AG$11</f>
@@ -51285,11 +51285,11 @@
       </c>
       <c r="AR8" s="176">
         <f>AR3*$AI$11</f>
-        <v>44540.934459506127</v>
+        <v>47787.57735218155</v>
       </c>
       <c r="AS8" s="176">
         <f>AS3*$AB$11</f>
-        <v>14042.130293407512</v>
+        <v>12717.681800773782</v>
       </c>
       <c r="AT8" s="176">
         <f>AT3*$AJ$11</f>
@@ -51306,11 +51306,11 @@
       <c r="AW8" s="180"/>
       <c r="AX8" s="181">
         <f>SUM(AO8:AU8)+AF11</f>
-        <v>154247.81055249707</v>
+        <v>171438.53748893863</v>
       </c>
       <c r="AY8" s="178">
         <f>AX8/(2*$AY$2*60*125)</f>
-        <v>0.60489337471567484</v>
+        <v>0.67230799015270049</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
@@ -51374,44 +51374,44 @@
       </c>
       <c r="AO9" s="176">
         <f>AO4*$Z$11</f>
-        <v>22337.369600995851</v>
+        <v>22448.345509363549</v>
       </c>
       <c r="AP9" s="176">
         <f>AP4*$AA$11</f>
-        <v>43305.500395195566</v>
+        <v>34831.730170499301</v>
       </c>
       <c r="AQ9" s="176">
         <f t="shared" si="12"/>
-        <v>118101.2730274105</v>
+        <v>101955.8771388153</v>
       </c>
       <c r="AR9" s="176">
         <f>AR4*$AI$11</f>
-        <v>44540.934459506127</v>
+        <v>47787.57735218155</v>
       </c>
       <c r="AS9" s="176">
         <f>AS4*$AB$11</f>
-        <v>14042.130293407512</v>
+        <v>12717.681800773782</v>
       </c>
       <c r="AT9" s="176">
         <f>AT4*$AJ$11</f>
-        <v>27379.246613202245</v>
+        <v>24777.39556711138</v>
       </c>
       <c r="AU9" s="176">
         <f>AU4*$AK$11</f>
-        <v>17951.548872797921</v>
+        <v>16910.176165421795</v>
       </c>
       <c r="AV9" s="176">
         <f>($AC$11+$AD$11)*AV4</f>
-        <v>67025.380811908864</v>
+        <v>59145.141718093626</v>
       </c>
       <c r="AW9" s="180"/>
       <c r="AX9" s="177">
         <f>SUM(AO9:AV9)</f>
-        <v>354683.38407442457</v>
+        <v>320573.92542226025</v>
       </c>
       <c r="AY9" s="178">
         <f>AX9/(3*$AY$2*60*125)</f>
-        <v>0.92727682110960674</v>
+        <v>0.83810176580983076</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
@@ -51428,15 +51428,15 @@
         <v>16</v>
       </c>
       <c r="P10" s="167">
-        <v>82593.201809394115</v>
+        <v>85658.662873684487</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>1376.5533634899018</v>
+        <v>1427.6443812280747</v>
       </c>
       <c r="R10" s="167">
         <f t="shared" si="3"/>
-        <v>57.356390145412576</v>
+        <v>59.485182551169778</v>
       </c>
       <c r="S10" s="167"/>
       <c r="T10" s="172" t="s">
@@ -51471,15 +51471,15 @@
         <v>16</v>
       </c>
       <c r="K11" s="167">
-        <v>2326.8028724856777</v>
+        <v>2355.5282888140277</v>
       </c>
       <c r="L11" s="167">
         <f t="shared" si="0"/>
-        <v>38.780047874761294</v>
+        <v>39.258804813567131</v>
       </c>
       <c r="M11" s="167">
         <f t="shared" si="1"/>
-        <v>1.6158353281150539</v>
+        <v>1.6357835338986304</v>
       </c>
       <c r="N11" s="167"/>
       <c r="O11" s="172" t="s">
@@ -51501,49 +51501,49 @@
         <v>16</v>
       </c>
       <c r="U11" s="167">
-        <v>30583.095309289132</v>
+        <v>29952.646009238364</v>
       </c>
       <c r="V11" s="167">
         <f t="shared" si="4"/>
-        <v>509.71825515481885</v>
+        <v>499.21076682063938</v>
       </c>
       <c r="W11" s="167">
         <f t="shared" si="5"/>
-        <v>21.238260631450785</v>
+        <v>20.800448617526641</v>
       </c>
       <c r="X11" s="156"/>
       <c r="Y11" s="168"/>
       <c r="Z11" s="167">
         <f>AVERAGE(Z1:Z10)</f>
-        <v>22337.369600995851</v>
+        <v>22448.345509363549</v>
       </c>
       <c r="AA11" s="167">
         <f t="shared" ref="AA11:AL11" si="13">AVERAGE(AA1:AA10)</f>
-        <v>43305.500395195566</v>
+        <v>34831.730170499301</v>
       </c>
       <c r="AB11" s="167">
         <f t="shared" si="13"/>
-        <v>14042.130293407512</v>
+        <v>12717.681800773782</v>
       </c>
       <c r="AC11" s="167">
         <f t="shared" si="13"/>
-        <v>21017.432659532315</v>
+        <v>18035.655527696465</v>
       </c>
       <c r="AD11" s="167">
         <f t="shared" si="13"/>
-        <v>46007.948152376543</v>
+        <v>41109.486190397161</v>
       </c>
       <c r="AE11" s="167">
         <f t="shared" si="13"/>
-        <v>91568.609484011191</v>
+        <v>86973.275256500521</v>
       </c>
       <c r="AF11" s="167">
         <f t="shared" si="13"/>
-        <v>52359.24540438789</v>
+        <v>76101.548165484011</v>
       </c>
       <c r="AG11" s="167">
         <f t="shared" si="13"/>
-        <v>118101.2730274105</v>
+        <v>101955.8771388153</v>
       </c>
       <c r="AH11" s="167">
         <f t="shared" si="13"/>
@@ -51551,69 +51551,69 @@
       </c>
       <c r="AI11" s="167">
         <f t="shared" si="13"/>
-        <v>44540.934459506127</v>
+        <v>47787.57735218155</v>
       </c>
       <c r="AJ11" s="167">
         <f t="shared" si="13"/>
-        <v>27379.246613202245</v>
+        <v>24777.39556711138</v>
       </c>
       <c r="AK11" s="167">
         <f t="shared" si="13"/>
-        <v>17951.548872797921</v>
+        <v>16910.176165421795</v>
       </c>
       <c r="AL11" s="185">
         <f t="shared" si="13"/>
-        <v>3778.5</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="196"/>
       <c r="J12" s="169" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="167">
-        <v>2927.8175491928178</v>
+        <v>3041.1456681152304</v>
       </c>
       <c r="L12" s="167">
         <f t="shared" si="0"/>
-        <v>48.796959153213628</v>
+        <v>50.685761135253841</v>
       </c>
       <c r="M12" s="167">
         <f t="shared" si="1"/>
-        <v>2.033206631383901</v>
+        <v>2.1119067139689101</v>
       </c>
       <c r="N12" s="167"/>
       <c r="O12" s="168" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="167">
-        <v>128640.16739490587</v>
+        <v>133197.90767538687</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>2144.0027899150978</v>
+        <v>2219.9651279231143</v>
       </c>
       <c r="R12" s="167">
         <f t="shared" si="3"/>
-        <v>89.33344957979574</v>
+        <v>92.498546996796435</v>
       </c>
       <c r="S12" s="167"/>
       <c r="T12" s="168" t="s">
         <v>19</v>
       </c>
       <c r="U12" s="167">
-        <v>38720.018125092509</v>
+        <v>37951.072982958824</v>
       </c>
       <c r="V12" s="167">
         <f t="shared" si="4"/>
-        <v>645.33363541820847</v>
+        <v>632.5178830493137</v>
       </c>
       <c r="W12" s="167">
         <f t="shared" si="5"/>
-        <v>26.888901475758686</v>
+        <v>26.354911793721403</v>
       </c>
       <c r="X12" s="156"/>
       <c r="Y12" s="168"/>
@@ -51660,51 +51660,51 @@
         <v>4</v>
       </c>
       <c r="D13" s="36">
-        <v>0.5685023076924115</v>
+        <v>0.49688807344275088</v>
       </c>
       <c r="J13" s="169" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="167">
-        <v>2009.4460387043857</v>
+        <v>2014.3482478634555</v>
       </c>
       <c r="L13" s="167">
         <f t="shared" si="0"/>
-        <v>33.490767311739759</v>
+        <v>33.572470797724257</v>
       </c>
       <c r="M13" s="167">
         <f t="shared" si="1"/>
-        <v>1.3954486379891566</v>
+        <v>1.3988529499051774</v>
       </c>
       <c r="N13" s="167"/>
       <c r="O13" s="168" t="s">
         <v>19</v>
       </c>
       <c r="P13" s="167">
-        <v>61194.760778336335</v>
+        <v>63523.192987584647</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>1019.9126796389389</v>
+        <v>1058.7198831264109</v>
       </c>
       <c r="R13" s="167">
         <f t="shared" si="3"/>
-        <v>42.496361651622458</v>
+        <v>44.113328463600453</v>
       </c>
       <c r="S13" s="167"/>
       <c r="T13" s="168" t="s">
         <v>18</v>
       </c>
       <c r="U13" s="167">
-        <v>61.403620216094168</v>
+        <v>108.36243521062988</v>
       </c>
       <c r="V13" s="167">
         <f t="shared" si="4"/>
-        <v>1.0233936702682362</v>
+        <v>1.8060405868438314</v>
       </c>
       <c r="W13" s="167">
         <f t="shared" si="5"/>
-        <v>4.2641402927843179E-2</v>
+        <v>7.5251691118492975E-2</v>
       </c>
       <c r="X13" s="156"/>
       <c r="Y13" s="168"/>
@@ -51718,7 +51718,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="36">
-        <v>0.26263410232561035</v>
+        <v>0.2361447564603604</v>
       </c>
       <c r="J14" s="169" t="s">
         <v>18</v>
@@ -51739,66 +51739,40 @@
         <v>18</v>
       </c>
       <c r="P14" s="167">
-        <v>50634.764051296384</v>
+        <v>52820.894998603035</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>843.91273418827302</v>
+        <v>880.34824997671728</v>
       </c>
       <c r="R14" s="167">
         <f t="shared" si="3"/>
-        <v>35.163030591178043</v>
+        <v>36.68117708236322</v>
       </c>
       <c r="S14" s="167"/>
       <c r="T14" s="168" t="s">
         <v>258</v>
       </c>
       <c r="U14" s="156">
-        <v>5803</v>
+        <v>5765</v>
       </c>
       <c r="V14" s="167"/>
       <c r="W14" s="167"/>
       <c r="X14" s="156"/>
       <c r="Y14" s="168"/>
-      <c r="Z14" s="167">
-        <v>34354.087862107059</v>
-      </c>
-      <c r="AA14" s="167">
-        <v>46196.67336203008</v>
-      </c>
-      <c r="AB14" s="167">
-        <v>21895.802897065529</v>
-      </c>
-      <c r="AC14" s="167">
-        <v>31206.99612988457</v>
-      </c>
-      <c r="AD14" s="167">
-        <v>67856.483809257188</v>
-      </c>
-      <c r="AE14" s="167">
-        <v>43474.257590334368</v>
-      </c>
-      <c r="AF14" s="167">
-        <v>81224.08001264419</v>
-      </c>
-      <c r="AG14" s="167">
-        <v>152861.04731405765</v>
-      </c>
-      <c r="AH14" s="167">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="167">
-        <v>67887.152074668935</v>
-      </c>
-      <c r="AJ14" s="167">
-        <v>43514.063550430074</v>
-      </c>
-      <c r="AK14" s="167">
-        <v>25456.123635416941</v>
-      </c>
-      <c r="AL14" s="185">
-        <v>4284.5</v>
-      </c>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="167"/>
+      <c r="AH14" s="167"/>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="167"/>
+      <c r="AL14" s="185"/>
       <c r="AW14" s="180"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
@@ -51821,7 +51795,7 @@
         <v>258</v>
       </c>
       <c r="P15" s="156">
-        <v>12378</v>
+        <v>14268</v>
       </c>
       <c r="Q15" s="156"/>
       <c r="R15" s="156"/>
@@ -51832,54 +51806,18 @@
       <c r="W15" s="156"/>
       <c r="X15" s="156"/>
       <c r="Y15" s="169"/>
-      <c r="Z15" s="167">
-        <f>Z14/60/24</f>
-        <v>23.857005459796568</v>
-      </c>
-      <c r="AA15" s="167">
-        <f>AA14/60/24</f>
-        <v>32.081023168076449</v>
-      </c>
-      <c r="AB15" s="167">
-        <f t="shared" ref="AA15:AL15" si="14">AB14/60/24</f>
-        <v>15.205418678517729</v>
-      </c>
-      <c r="AC15" s="167">
-        <f t="shared" si="14"/>
-        <v>21.671525090197619</v>
-      </c>
-      <c r="AD15" s="167">
-        <f t="shared" si="14"/>
-        <v>47.122558200873044</v>
-      </c>
-      <c r="AE15" s="167">
-        <f t="shared" si="14"/>
-        <v>30.190456659954421</v>
-      </c>
-      <c r="AF15" s="167">
-        <f t="shared" si="14"/>
-        <v>56.405611119891802</v>
-      </c>
-      <c r="AG15" s="167">
-        <f t="shared" si="14"/>
-        <v>106.1535050792067</v>
-      </c>
-      <c r="AH15" s="167">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="167">
-        <f t="shared" si="14"/>
-        <v>47.143855607408987</v>
-      </c>
-      <c r="AJ15" s="167">
-        <f t="shared" si="14"/>
-        <v>30.218099687798659</v>
-      </c>
-      <c r="AK15" s="167">
-        <f t="shared" si="14"/>
-        <v>17.67786363570621</v>
-      </c>
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="167"/>
+      <c r="AD15" s="167"/>
+      <c r="AE15" s="167"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="167"/>
+      <c r="AH15" s="167"/>
+      <c r="AI15" s="167"/>
+      <c r="AJ15" s="167"/>
+      <c r="AK15" s="167"/>
       <c r="AL15" s="167"/>
       <c r="AW15" s="180"/>
     </row>
@@ -51888,7 +51826,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="36">
-        <v>51.120173411379554</v>
+        <v>46.058988118153181</v>
       </c>
       <c r="J16" s="156"/>
       <c r="K16" s="156"/>
@@ -51920,182 +51858,110 @@
       <c r="J17" s="156"/>
       <c r="K17" s="167">
         <f>SUM(K2:K14)</f>
-        <v>52752.965942320254</v>
+        <v>52375.355633632687</v>
       </c>
       <c r="L17" s="167">
-        <f t="shared" ref="L17" si="15">SUM(L2:L14)</f>
-        <v>879.21609903867079</v>
+        <f t="shared" ref="L17" si="14">SUM(L2:L14)</f>
+        <v>872.922593893878</v>
       </c>
       <c r="M17" s="167">
         <f>SUM(M2:M14)</f>
-        <v>36.634004126611281</v>
+        <v>36.37177474557825</v>
       </c>
       <c r="N17" s="156"/>
       <c r="O17" s="156"/>
       <c r="P17" s="167">
         <f>SUM(P2:P14)</f>
-        <v>856983.70958883467</v>
+        <v>892924.5957834</v>
       </c>
       <c r="Q17" s="167">
-        <f t="shared" ref="Q17" si="16">SUM(Q2:Q14)</f>
-        <v>14283.061826480576</v>
+        <f t="shared" ref="Q17" si="15">SUM(Q2:Q14)</f>
+        <v>14882.076596390001</v>
       </c>
       <c r="R17" s="167">
         <f>SUM(R2:R14)</f>
-        <v>595.12757610335757</v>
+        <v>620.08652484958327</v>
       </c>
       <c r="S17" s="156"/>
       <c r="T17" s="156"/>
       <c r="U17" s="167">
-        <f t="shared" ref="U17:V17" si="17">SUM(U2:U13)</f>
-        <v>446281.55000161921</v>
+        <f t="shared" ref="U17:V17" si="16">SUM(U2:U13)</f>
+        <v>441950.27459222073</v>
       </c>
       <c r="V17" s="167">
-        <f t="shared" si="17"/>
-        <v>7438.0258333603188</v>
+        <f t="shared" si="16"/>
+        <v>7365.8379098703463</v>
       </c>
       <c r="W17" s="167">
         <f>SUM(W2:W13)</f>
-        <v>309.91774305667997</v>
+        <v>306.90991291126443</v>
       </c>
       <c r="X17" s="156"/>
       <c r="Y17" s="156"/>
-      <c r="Z17" s="167">
-        <v>25237.453738158078</v>
-      </c>
-      <c r="AA17" s="167">
-        <v>49252.268508745241</v>
-      </c>
-      <c r="AB17" s="167">
-        <v>21015.343503187105</v>
-      </c>
-      <c r="AC17">
-        <v>33854.489696409102</v>
-      </c>
-      <c r="AD17">
-        <v>56120.024835505283</v>
-      </c>
-      <c r="AE17">
-        <v>11032.946968709546</v>
-      </c>
-      <c r="AF17">
-        <v>31067.521924492787</v>
-      </c>
-      <c r="AG17">
-        <v>52660.543178957982</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>31515.15165893994</v>
-      </c>
-      <c r="AJ17">
-        <v>31138.663314363723</v>
-      </c>
-      <c r="AK17">
-        <v>22541.373017017955</v>
-      </c>
-      <c r="AL17">
-        <v>4611.5</v>
-      </c>
+      <c r="Z17" s="167"/>
+      <c r="AA17" s="167"/>
+      <c r="AB17" s="167"/>
     </row>
     <row r="18" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="36">
-        <v>9.1359835494513625E-2</v>
+        <v>7.7722908934646312E-2</v>
       </c>
       <c r="K18" s="156">
-        <f t="shared" ref="K18:L18" si="18">K17/$K$15</f>
-        <v>151.58898259287429</v>
+        <f t="shared" ref="K18:L18" si="17">K17/$K$15</f>
+        <v>150.5038954989445</v>
       </c>
       <c r="L18" s="156">
-        <f t="shared" si="18"/>
-        <v>2.5264830432145713</v>
+        <f t="shared" si="17"/>
+        <v>2.5083982583157414</v>
       </c>
       <c r="M18" s="156">
         <f>M17/$K$15</f>
-        <v>0.10527012680060713</v>
+        <v>0.10451659409648922</v>
       </c>
       <c r="N18" s="156"/>
       <c r="O18" s="156"/>
       <c r="P18" s="156">
-        <f t="shared" ref="P18:Q18" si="19">P17/$P$15</f>
-        <v>69.234424752693059</v>
+        <f t="shared" ref="P18:Q18" si="18">P17/$P$15</f>
+        <v>62.582323786333056</v>
       </c>
       <c r="Q18" s="156">
-        <f t="shared" si="19"/>
-        <v>1.1539070792115509</v>
+        <f t="shared" si="18"/>
+        <v>1.0430387297722177</v>
       </c>
       <c r="R18" s="156">
         <f>R17/$P$15</f>
-        <v>4.8079461633814637E-2</v>
+        <v>4.3459947073842396E-2</v>
       </c>
       <c r="S18" s="156"/>
       <c r="T18" s="156"/>
       <c r="U18" s="156">
-        <f t="shared" ref="U18:V18" si="20">U17/$U$14</f>
-        <v>76.905316216029505</v>
+        <f t="shared" ref="U18:V18" si="19">U17/$U$14</f>
+        <v>76.660932279656677</v>
       </c>
       <c r="V18" s="156">
-        <f t="shared" si="20"/>
-        <v>1.2817552702671582</v>
+        <f t="shared" si="19"/>
+        <v>1.2776822046609446</v>
       </c>
       <c r="W18" s="156">
         <f>W17/$U$14</f>
-        <v>5.3406469594464927E-2</v>
+        <v>5.3236758527539361E-2</v>
       </c>
       <c r="Y18" s="156"/>
-      <c r="Z18" s="167">
-        <f>Z17/60/24</f>
-        <v>17.526009540387552</v>
-      </c>
-      <c r="AA18" s="167">
-        <f>AA17/60/24</f>
-        <v>34.202964242184194</v>
-      </c>
-      <c r="AB18" s="167">
-        <f t="shared" ref="AB18" si="21">AB17/60/24</f>
-        <v>14.593988543879933</v>
-      </c>
-      <c r="AC18" s="167">
-        <f t="shared" ref="AC18" si="22">AC17/60/24</f>
-        <v>23.510062289172989</v>
-      </c>
-      <c r="AD18" s="167">
-        <f t="shared" ref="AD18" si="23">AD17/60/24</f>
-        <v>38.972239469100892</v>
-      </c>
-      <c r="AE18" s="167">
-        <f t="shared" ref="AE18" si="24">AE17/60/24</f>
-        <v>7.6617687282705189</v>
-      </c>
-      <c r="AF18" s="167">
-        <f t="shared" ref="AF18" si="25">AF17/60/24</f>
-        <v>21.574668003119992</v>
-      </c>
-      <c r="AG18" s="167">
-        <f t="shared" ref="AG18" si="26">AG17/60/24</f>
-        <v>36.569821652054152</v>
-      </c>
-      <c r="AH18" s="167">
-        <f t="shared" ref="AH18" si="27">AH17/60/24</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="167">
-        <f t="shared" ref="AI18" si="28">AI17/60/24</f>
-        <v>21.885521985374961</v>
-      </c>
-      <c r="AJ18" s="167">
-        <f t="shared" ref="AJ18" si="29">AJ17/60/24</f>
-        <v>21.624071746085917</v>
-      </c>
-      <c r="AK18" s="167">
-        <f t="shared" ref="AK18" si="30">AK17/60/24</f>
-        <v>15.653731261818024</v>
-      </c>
+      <c r="Z18" s="167"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="167"/>
+      <c r="AC18" s="167"/>
+      <c r="AD18" s="167"/>
+      <c r="AE18" s="167"/>
+      <c r="AF18" s="167"/>
+      <c r="AG18" s="167"/>
+      <c r="AH18" s="167"/>
+      <c r="AI18" s="167"/>
+      <c r="AJ18" s="167"/>
+      <c r="AK18" s="167"/>
       <c r="AL18" s="167"/>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.3">
@@ -52103,7 +51969,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="36">
-        <v>1.8918099681336609E-2</v>
+        <v>1.6880045300195774E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
+++ b/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5976" windowHeight="9324" tabRatio="843" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384" tabRatio="843" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="34" state="hidden" r:id="rId1"/>
@@ -9829,9 +9829,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16795,7 +16793,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17082,7 +17080,9 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -49284,8 +49284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49309,100 +49309,74 @@
   <sheetData>
     <row r="1" spans="2:16" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>7.318548596294737</v>
+        <v>7.4290995365560804</v>
       </c>
       <c r="C1" s="68">
-        <v>13.625960786532396</v>
+        <v>13.912210254582837</v>
       </c>
       <c r="D1" s="68">
-        <v>5.6154092871583865</v>
+        <v>5.5595245735048717</v>
       </c>
       <c r="E1" s="68">
-        <v>9.497147970516048</v>
+        <v>9.2790035374952051</v>
       </c>
       <c r="F1" s="68">
-        <v>14.532446592272391</v>
+        <v>13.921257239105683</v>
       </c>
       <c r="G1" s="68">
-        <v>7.6840587636928488</v>
+        <v>7.4886092990853745</v>
       </c>
       <c r="H1" s="68">
-        <v>16.786169047877468</v>
+        <v>4.3209787010548917</v>
       </c>
       <c r="I1" s="68">
-        <v>16.761540137280459</v>
+        <v>4.9014125197762093</v>
       </c>
       <c r="J1" s="68">
-        <v>16.810240322762816</v>
+        <v>3.7410730295753551</v>
       </c>
       <c r="K1" s="84">
-        <v>2096</v>
+        <v>2197</v>
       </c>
       <c r="L1" s="84">
-        <v>12907</v>
+        <v>12920</v>
       </c>
       <c r="M1" s="84">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="N1" s="192">
-        <v>77.676528338321845</v>
+        <v>64.483303105962506</v>
       </c>
       <c r="O1" s="159">
         <f>K1/L1</f>
-        <v>0.16239250019369333</v>
+        <v>0.17004643962848298</v>
       </c>
       <c r="P1" s="159">
         <f t="shared" ref="P1:P7" si="0">M1/K1</f>
-        <v>0.19799618320610687</v>
+        <v>0.17796995903504778</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="68">
-        <v>5.7528149222556264</v>
-      </c>
-      <c r="C2" s="68">
-        <v>10.88960835828402</v>
-      </c>
-      <c r="D2" s="68">
-        <v>4.224854034182826</v>
-      </c>
-      <c r="E2" s="68">
-        <v>7.3243902626860695</v>
-      </c>
-      <c r="F2" s="68">
-        <v>11.643524002608586</v>
-      </c>
-      <c r="G2" s="68">
-        <v>5.6153179982196626</v>
-      </c>
-      <c r="H2" s="68">
-        <v>9.2549074853304703</v>
-      </c>
-      <c r="I2" s="68">
-        <v>9.4040788846585119</v>
-      </c>
-      <c r="J2" s="68">
-        <v>9.1669794757559249</v>
-      </c>
-      <c r="K2" s="84">
-        <v>3794</v>
-      </c>
-      <c r="L2" s="84">
-        <v>12837</v>
-      </c>
-      <c r="M2" s="84">
-        <v>804</v>
-      </c>
-      <c r="N2" s="192">
-        <v>71.8121525376188</v>
-      </c>
-      <c r="O2" s="159">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="159" t="e">
         <f t="shared" ref="O2:O7" si="1">K2/L2</f>
-        <v>0.29555192023058346</v>
-      </c>
-      <c r="P2" s="159">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2" s="159" t="e">
         <f t="shared" si="0"/>
-        <v>0.21191354770690565</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -49418,10 +49392,7 @@
       <c r="K3" s="84"/>
       <c r="L3" s="84"/>
       <c r="M3" s="84"/>
-      <c r="N3" s="192" t="e">
-        <f>K3/L3</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N3" s="192"/>
       <c r="O3" s="159" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49444,10 +49415,7 @@
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
-      <c r="N4" s="192" t="e">
-        <f>K4/L4</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N4" s="192"/>
       <c r="O4" s="159" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49470,10 +49438,7 @@
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
       <c r="M5" s="84"/>
-      <c r="N5" s="192" t="e">
-        <f t="shared" ref="N5" si="2">K5/L5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N5" s="192"/>
       <c r="O5" s="159" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49496,10 +49461,7 @@
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
-      <c r="N6" s="192" t="e">
-        <f t="shared" ref="N6" si="3">K6/L6</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N6" s="192"/>
       <c r="O6" s="159" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49522,10 +49484,7 @@
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
-      <c r="N7" s="192" t="e">
-        <f t="shared" ref="N7" si="4">K7/L7</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N7" s="192"/>
       <c r="O7" s="159" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -49553,21 +49512,53 @@
       <c r="P8" s="159"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
+      <c r="B9" s="68">
+        <v>7.1543488441325058</v>
+      </c>
+      <c r="C9" s="68">
+        <v>13.354340058327084</v>
+      </c>
+      <c r="D9" s="68">
+        <v>5.4497545554077211</v>
+      </c>
+      <c r="E9" s="68">
+        <v>8.9773243974963179</v>
+      </c>
+      <c r="F9" s="68">
+        <v>13.633949898521392</v>
+      </c>
+      <c r="G9" s="68">
+        <v>7.2265288328715735</v>
+      </c>
+      <c r="H9" s="68">
+        <v>9.3571601166914604</v>
+      </c>
+      <c r="I9" s="68">
+        <v>12.59335305097259</v>
+      </c>
+      <c r="J9" s="68">
+        <v>5.9567194839218383</v>
+      </c>
+      <c r="K9" s="84">
+        <v>2586</v>
+      </c>
+      <c r="L9" s="84">
+        <v>12790</v>
+      </c>
+      <c r="M9" s="84">
+        <v>491</v>
+      </c>
+      <c r="N9" s="192">
+        <v>90.915137034946497</v>
+      </c>
+      <c r="O9" s="159">
+        <f t="shared" ref="O9" si="2">K9/L9</f>
+        <v>0.20218921032056295</v>
+      </c>
+      <c r="P9" s="159">
+        <f t="shared" ref="P9" si="3">M9/K9</f>
+        <v>0.18986852281515854</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="68"/>
@@ -49612,60 +49603,60 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="186">
-        <f t="shared" ref="B13:L13" si="5">AVERAGE(B1:B10)</f>
-        <v>6.5356817592751817</v>
+        <f t="shared" ref="B13:L13" si="4">AVERAGE(B1:B10)</f>
+        <v>7.2917241903442935</v>
       </c>
       <c r="C13" s="186">
-        <f t="shared" si="5"/>
-        <v>12.257784572408209</v>
+        <f t="shared" si="4"/>
+        <v>13.63327515645496</v>
       </c>
       <c r="D13" s="186">
-        <f t="shared" si="5"/>
-        <v>4.9201316606706058</v>
+        <f t="shared" si="4"/>
+        <v>5.504639564456296</v>
       </c>
       <c r="E13" s="186">
-        <f t="shared" si="5"/>
-        <v>8.4107691166010596</v>
+        <f t="shared" si="4"/>
+        <v>9.1281639674957624</v>
       </c>
       <c r="F13" s="186">
-        <f t="shared" si="5"/>
-        <v>13.08798529744049</v>
+        <f t="shared" si="4"/>
+        <v>13.777603568813538</v>
       </c>
       <c r="G13" s="186">
-        <f t="shared" si="5"/>
-        <v>6.6496883809562561</v>
+        <f t="shared" si="4"/>
+        <v>7.357569065978474</v>
       </c>
       <c r="H13" s="186">
-        <f t="shared" si="5"/>
-        <v>13.020538266603969</v>
+        <f t="shared" si="4"/>
+        <v>6.8390694088731756</v>
       </c>
       <c r="I13" s="186">
-        <f t="shared" si="5"/>
-        <v>13.082809510969486</v>
+        <f t="shared" si="4"/>
+        <v>8.7473827853744002</v>
       </c>
       <c r="J13" s="186">
-        <f t="shared" si="5"/>
-        <v>12.988609899259369</v>
+        <f t="shared" si="4"/>
+        <v>4.8488962567485965</v>
       </c>
       <c r="K13" s="186">
-        <f t="shared" si="5"/>
-        <v>2945</v>
+        <f t="shared" si="4"/>
+        <v>2391.5</v>
       </c>
       <c r="L13" s="186">
-        <f t="shared" si="5"/>
-        <v>12872</v>
+        <f t="shared" si="4"/>
+        <v>12855</v>
       </c>
       <c r="M13" s="186">
         <f>AVERAGE(M1:M10)</f>
-        <v>609.5</v>
-      </c>
-      <c r="N13" s="186" t="e">
+        <v>441</v>
+      </c>
+      <c r="N13" s="186">
         <f>AVERAGE(N1:N10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="187" t="e">
+        <v>77.699220070454501</v>
+      </c>
+      <c r="O13" s="187">
         <f>AVERAGE(N2:N10)</f>
-        <v>#DIV/0!</v>
+        <v>90.915137034946497</v>
       </c>
       <c r="P13" s="187" t="e">
         <f>AVERAGE(P2:P10)</f>
@@ -49754,51 +49745,51 @@
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="76">
         <f>B13-B18</f>
-        <v>-1.6743182407248192</v>
+        <v>-0.91827580965570732</v>
       </c>
       <c r="C17" s="76">
-        <f t="shared" ref="C17:K17" si="6">C13-C18</f>
-        <v>-2.8822154275917917</v>
+        <f t="shared" ref="C17:K17" si="5">C13-C18</f>
+        <v>-1.5067248435450402</v>
       </c>
       <c r="D17" s="76">
+        <f t="shared" si="5"/>
+        <v>-0.3153604355437043</v>
+      </c>
+      <c r="E17" s="76">
+        <f t="shared" si="5"/>
+        <v>-1.2818360325042377</v>
+      </c>
+      <c r="F17" s="76">
+        <f t="shared" si="5"/>
+        <v>-2.5823964311864618</v>
+      </c>
+      <c r="G17" s="76">
+        <f t="shared" si="5"/>
+        <v>0.63756906597847429</v>
+      </c>
+      <c r="H17" s="76">
+        <f t="shared" si="5"/>
+        <v>2.3790694088731756</v>
+      </c>
+      <c r="I17" s="76">
+        <f t="shared" si="5"/>
+        <v>3.9273827853743999</v>
+      </c>
+      <c r="J17" s="76">
+        <f t="shared" si="5"/>
+        <v>0.75889625674859662</v>
+      </c>
+      <c r="K17" s="90">
+        <f t="shared" si="5"/>
+        <v>928.5</v>
+      </c>
+      <c r="L17" s="75"/>
+      <c r="O17" s="76">
+        <f t="shared" ref="O17:P17" si="6">O13-O18</f>
+        <v>90.7551370349465</v>
+      </c>
+      <c r="P17" s="76" t="e">
         <f t="shared" si="6"/>
-        <v>-0.89986833932939447</v>
-      </c>
-      <c r="E17" s="76">
-        <f t="shared" si="6"/>
-        <v>-1.9992308833989405</v>
-      </c>
-      <c r="F17" s="76">
-        <f t="shared" si="6"/>
-        <v>-3.2720147025595097</v>
-      </c>
-      <c r="G17" s="76">
-        <f t="shared" si="6"/>
-        <v>-7.0311619043743612E-2</v>
-      </c>
-      <c r="H17" s="76">
-        <f t="shared" si="6"/>
-        <v>8.5605382666039702</v>
-      </c>
-      <c r="I17" s="76">
-        <f t="shared" si="6"/>
-        <v>8.2628095109694861</v>
-      </c>
-      <c r="J17" s="76">
-        <f t="shared" si="6"/>
-        <v>8.8986098992593696</v>
-      </c>
-      <c r="K17" s="90">
-        <f t="shared" si="6"/>
-        <v>1482</v>
-      </c>
-      <c r="L17" s="75"/>
-      <c r="O17" s="76" t="e">
-        <f t="shared" ref="O17:P17" si="7">O13-O18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="76" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49835,7 +49826,7 @@
       </c>
       <c r="M18" s="74">
         <f>M13/K13</f>
-        <v>0.20696095076400678</v>
+        <v>0.18440309429228519</v>
       </c>
       <c r="O18" s="74">
         <v>0.16</v>
@@ -49846,51 +49837,51 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="73">
-        <f t="shared" ref="B19:D19" si="8">B17/B18</f>
-        <v>-0.20393644832214605</v>
+        <f t="shared" ref="B19:D19" si="7">B17/B18</f>
+        <v>-0.11184845428205935</v>
       </c>
       <c r="C19" s="73">
-        <f t="shared" si="8"/>
-        <v>-0.19037090010513816</v>
+        <f t="shared" si="7"/>
+        <v>-9.9519474474573322E-2</v>
       </c>
       <c r="D19" s="73">
-        <f t="shared" si="8"/>
-        <v>-0.1546165531493805</v>
+        <f t="shared" si="7"/>
+        <v>-5.41856418459973E-2</v>
       </c>
       <c r="E19" s="73">
         <f>E17/E18</f>
-        <v>-0.19204907621507594</v>
+        <v>-0.12313506556236674</v>
       </c>
       <c r="F19" s="73">
-        <f t="shared" ref="F19:K19" si="9">F17/F18</f>
-        <v>-0.20000089868945659</v>
+        <f t="shared" ref="F19:K19" si="8">F17/F18</f>
+        <v>-0.15784819261530941</v>
       </c>
       <c r="G19" s="73">
+        <f t="shared" si="8"/>
+        <v>9.4876349103939633E-2</v>
+      </c>
+      <c r="H19" s="73">
+        <f t="shared" si="8"/>
+        <v>0.53342363427649675</v>
+      </c>
+      <c r="I19" s="73">
+        <f t="shared" si="8"/>
+        <v>0.81480970650921158</v>
+      </c>
+      <c r="J19" s="73">
+        <f t="shared" si="8"/>
+        <v>0.18554920702899674</v>
+      </c>
+      <c r="K19" s="73">
+        <f t="shared" si="8"/>
+        <v>0.63465481886534514</v>
+      </c>
+      <c r="O19" s="73">
+        <f t="shared" ref="O19:P19" si="9">O17/O18</f>
+        <v>567.21960646841558</v>
+      </c>
+      <c r="P19" s="73" t="e">
         <f t="shared" si="9"/>
-        <v>-1.0463038548176134E-2</v>
-      </c>
-      <c r="H19" s="73">
-        <f t="shared" si="9"/>
-        <v>1.9194031987901279</v>
-      </c>
-      <c r="I19" s="73">
-        <f t="shared" si="9"/>
-        <v>1.7142758321513456</v>
-      </c>
-      <c r="J19" s="73">
-        <f t="shared" si="9"/>
-        <v>2.1756992418727066</v>
-      </c>
-      <c r="K19" s="73">
-        <f t="shared" si="9"/>
-        <v>1.0129870129870129</v>
-      </c>
-      <c r="O19" s="73" t="e">
-        <f t="shared" ref="O19:P19" si="10">O17/O18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="73" t="e">
-        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49920,66 +49911,66 @@
   <sheetData>
     <row r="1" spans="2:11" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>8.5469780578722254</v>
+        <v>8.5817210911332928</v>
       </c>
       <c r="C1" s="68">
-        <v>14.793453717827486</v>
+        <v>15.026918935278815</v>
       </c>
       <c r="D1" s="68">
-        <v>6.8602929453154315</v>
+        <v>6.7230792993433282</v>
       </c>
       <c r="E1" s="68">
-        <v>46.664370191755658</v>
+        <v>46.781411359724615</v>
       </c>
       <c r="F1" s="68">
-        <v>56.934557979334102</v>
+        <v>57.767324460761813</v>
       </c>
       <c r="G1" s="68">
-        <v>58.00524934383202</v>
+        <v>59.083518107908347</v>
       </c>
       <c r="H1" s="68">
-        <v>67.181804927832047</v>
+        <v>69.287614543304755</v>
       </c>
       <c r="I1" s="68">
-        <v>0.88673497646081423</v>
+        <v>0.90886858619416755</v>
       </c>
       <c r="J1" s="68">
-        <v>0.24669989845841411</v>
+        <v>0.26047434477667036</v>
       </c>
       <c r="K1" s="68">
-        <v>9.0602787778085475E-2</v>
+        <v>6.9905869324473971E-2</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="68">
-        <v>6.9293265793787384</v>
+        <v>8.3063571667846006</v>
       </c>
       <c r="C2" s="68">
-        <v>12.037196976688206</v>
+        <v>14.457679296893254</v>
       </c>
       <c r="D2" s="68">
-        <v>5.4099689712464674</v>
+        <v>6.6151437103713819</v>
       </c>
       <c r="E2" s="68">
-        <v>58.316127552190864</v>
+        <v>48.611583361668366</v>
       </c>
       <c r="F2" s="68">
-        <v>71.384333065718536</v>
+        <v>60.176790571169533</v>
       </c>
       <c r="G2" s="68">
-        <v>72.767857142857139</v>
+        <v>60.814911140008668</v>
       </c>
       <c r="H2" s="68">
-        <v>81.431334622823982</v>
+        <v>71.453337185784463</v>
       </c>
       <c r="I2" s="68">
-        <v>0.89088634573506931</v>
+        <v>0.9060160798447463</v>
       </c>
       <c r="J2" s="68">
-        <v>0.24005003938284761</v>
+        <v>0.25561408372608818</v>
       </c>
       <c r="K2" s="68">
-        <v>7.0379465319927725E-2</v>
+        <v>6.9540707882820435E-2</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -50205,43 +50196,43 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="67">
         <f>AVERAGE(B1:B10)</f>
-        <v>7.8046043886277658</v>
+        <v>8.006286334437327</v>
       </c>
       <c r="C13" s="67">
         <f t="shared" ref="C13:J13" si="0">AVERAGE(C1:C10)</f>
-        <v>13.486465300743337</v>
+        <v>13.865600663265676</v>
       </c>
       <c r="D13" s="67">
         <f t="shared" si="0"/>
-        <v>6.1996496774575531</v>
+        <v>6.3522155479079538</v>
       </c>
       <c r="E13" s="67">
         <f t="shared" si="0"/>
-        <v>51.71330819398657</v>
+        <v>50.343664905050346</v>
       </c>
       <c r="F13" s="67">
         <f t="shared" si="0"/>
-        <v>63.940423155950121</v>
+        <v>62.458312296932796</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>64.51653533859276</v>
+        <v>62.963010018768173</v>
       </c>
       <c r="H13" s="67">
         <f t="shared" si="0"/>
-        <v>74.220779442657516</v>
+        <v>73.096181182433682</v>
       </c>
       <c r="I13" s="67">
         <f t="shared" si="0"/>
-        <v>0.90839362424975179</v>
+        <v>0.91371695908447059</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" si="0"/>
-        <v>0.2541833270095914</v>
+        <v>0.25837453996123372</v>
       </c>
       <c r="K13" s="67">
         <f>AVERAGE(K1:K10)</f>
-        <v>6.1522187733659819E-2</v>
+        <v>5.8445662606414275E-2</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -50363,8 +50354,8 @@
   </sheetPr>
   <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50376,16 +50367,20 @@
     <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="9" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10.109375" bestFit="1" customWidth="1"/>
@@ -50451,43 +50446,43 @@
         <v>103</v>
       </c>
       <c r="Z1" s="167">
-        <v>22459.369148532081</v>
+        <v>14472.951480567162</v>
       </c>
       <c r="AA1" s="167">
-        <v>26405.003439548949</v>
+        <v>22606.634951736305</v>
       </c>
       <c r="AB1" s="167">
-        <v>11639.359033707809</v>
+        <v>9572.6787571040913</v>
       </c>
       <c r="AC1" s="167">
-        <v>15418.33047602413</v>
+        <v>15844.888519323036</v>
       </c>
       <c r="AD1" s="167">
-        <v>37193.426007694587</v>
+        <v>24777.495151911797</v>
       </c>
       <c r="AE1" s="167">
-        <v>82037.546189104207</v>
+        <v>17012.954676921509</v>
       </c>
       <c r="AF1" s="167">
-        <v>99676.696138241197</v>
+        <v>51514.520058104608</v>
       </c>
       <c r="AG1" s="167">
-        <v>85524.88147097308</v>
+        <v>46910.282310058799</v>
       </c>
       <c r="AH1" s="167">
         <v>0</v>
       </c>
       <c r="AI1" s="167">
-        <v>51474.596540509403</v>
+        <v>18156.380496702055</v>
       </c>
       <c r="AJ1" s="167">
-        <v>22388.970517963327</v>
+        <v>16635.551611852447</v>
       </c>
       <c r="AK1" s="167">
-        <v>17353.376336803733</v>
+        <v>19248.650784593519</v>
       </c>
       <c r="AL1" s="185">
-        <v>2096</v>
+        <v>2197</v>
       </c>
       <c r="AO1" s="156" t="s">
         <v>263</v>
@@ -50520,111 +50515,72 @@
         <v>64</v>
       </c>
       <c r="B2" s="38">
-        <v>0.16666277685718911</v>
+        <v>0.16666278247764607</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="36">
-        <v>0.28899765373610636</v>
+        <v>0.29574374063844855</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="37">
-        <v>512.81868347233353</v>
+        <v>514.90326546799758</v>
       </c>
       <c r="G2">
         <f>F2/1440</f>
-        <v>0.35612408574467608</v>
+        <v>0.35757171213055389</v>
       </c>
       <c r="J2" s="169" t="s">
         <v>254</v>
       </c>
       <c r="K2" s="167">
-        <v>1977.1741813059366</v>
+        <v>1908.1325514390669</v>
       </c>
       <c r="L2" s="167">
         <f>K2/60</f>
-        <v>32.952903021765607</v>
+        <v>31.802209190651116</v>
       </c>
       <c r="M2" s="167">
         <f>L2/24</f>
-        <v>1.3730376259069004</v>
+        <v>1.3250920496104632</v>
       </c>
       <c r="N2" s="167"/>
       <c r="O2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="P2" s="167">
-        <v>74363.514621700364</v>
+        <v>75890.106841206609</v>
       </c>
       <c r="Q2" s="167">
         <f>P2/60</f>
-        <v>1239.3919103616727</v>
+        <v>1264.83511402011</v>
       </c>
       <c r="R2" s="167">
         <f>Q2/24</f>
-        <v>51.641329598403026</v>
+        <v>52.701463084171252</v>
       </c>
       <c r="S2" s="167"/>
       <c r="T2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="U2" s="167">
-        <v>48919.803360076192</v>
+        <v>49138.480067727731</v>
       </c>
       <c r="V2" s="167">
         <f>U2/60</f>
-        <v>815.3300560012699</v>
+        <v>818.97466779546221</v>
       </c>
       <c r="W2" s="167">
         <f>V2/24</f>
-        <v>33.972085666719579</v>
+        <v>34.123944491477594</v>
       </c>
       <c r="X2" s="156"/>
       <c r="Y2" s="184">
         <v>2</v>
       </c>
-      <c r="Z2" s="167">
-        <v>22437.321870195017</v>
-      </c>
-      <c r="AA2" s="167">
-        <v>43258.456901449659</v>
-      </c>
-      <c r="AB2" s="167">
-        <v>13796.004567839755</v>
-      </c>
-      <c r="AC2" s="167">
-        <v>20652.980579368796</v>
-      </c>
-      <c r="AD2" s="167">
-        <v>45025.546373099729</v>
-      </c>
-      <c r="AE2" s="167">
-        <v>91909.004323896836</v>
-      </c>
-      <c r="AF2" s="167">
-        <v>52526.400192726833</v>
-      </c>
-      <c r="AG2" s="167">
-        <v>118386.8728066575</v>
-      </c>
-      <c r="AH2" s="167">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="167">
-        <v>44100.558163853697</v>
-      </c>
-      <c r="AJ2" s="167">
-        <v>27165.820616259429</v>
-      </c>
-      <c r="AK2" s="167">
-        <v>16466.975994039858</v>
-      </c>
-      <c r="AL2" s="185">
-        <v>3794</v>
-      </c>
       <c r="AN2" s="175" t="s">
         <v>4</v>
       </c>
@@ -50663,7 +50619,7 @@
         <v>267</v>
       </c>
       <c r="AY2" s="183">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -50677,57 +50633,57 @@
         <v>2</v>
       </c>
       <c r="D3" s="36">
-        <v>0.29247010037106325</v>
+        <v>0.29864270645105434</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="37">
-        <v>46.642947320096404</v>
+        <v>46.759949535497192</v>
       </c>
       <c r="J3" s="169" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="167">
-        <v>29926.780628803215</v>
+        <v>29942.776414506705</v>
       </c>
       <c r="L3" s="167">
         <f>K3/60</f>
-        <v>498.77967714672025</v>
+        <v>499.04627357511174</v>
       </c>
       <c r="M3" s="167">
         <f>L3/24</f>
-        <v>20.78248654778001</v>
+        <v>20.793594732296324</v>
       </c>
       <c r="N3" s="167"/>
       <c r="O3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="P3" s="167">
-        <v>245016.13165681515</v>
+        <v>251573.13751412791</v>
       </c>
       <c r="Q3" s="167">
         <f>P3/60</f>
-        <v>4083.6021942802527</v>
+        <v>4192.8856252354653</v>
       </c>
       <c r="R3" s="167">
         <f>Q3/24</f>
-        <v>170.15009142834387</v>
+        <v>174.7035677181444</v>
       </c>
       <c r="S3" s="167"/>
       <c r="T3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="U3" s="167">
-        <v>153757.62044133557</v>
+        <v>151872.58204802225</v>
       </c>
       <c r="V3" s="167">
         <f>U3/60</f>
-        <v>2562.6270073555929</v>
+        <v>2531.2097008003707</v>
       </c>
       <c r="W3" s="167">
         <f>V3/24</f>
-        <v>106.77612530648304</v>
+        <v>105.46707086668211</v>
       </c>
       <c r="X3" s="156"/>
       <c r="Y3" s="184">
@@ -50786,63 +50742,63 @@
         <v>83</v>
       </c>
       <c r="B4" s="38">
-        <v>18.481375358166186</v>
+        <v>19.876453488372086</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="36">
-        <v>7.228403394551719E-2</v>
+        <v>7.1261966518101155E-2</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="37">
-        <v>56.908423226991047</v>
+        <v>57.740825688073393</v>
       </c>
       <c r="J4" s="169" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="167">
-        <v>1578.748450698964</v>
+        <v>1416.0413029557349</v>
       </c>
       <c r="L4" s="167">
         <f t="shared" ref="L4:L14" si="0">K4/60</f>
-        <v>26.312474178316066</v>
+        <v>23.600688382595582</v>
       </c>
       <c r="M4" s="167">
         <f t="shared" ref="M4:M14" si="1">L4/24</f>
-        <v>1.0963530907631693</v>
+        <v>0.98336201594148254</v>
       </c>
       <c r="N4" s="167"/>
       <c r="O4" s="168" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="167">
-        <v>96494.633645765905</v>
+        <v>97617.405061876882</v>
       </c>
       <c r="Q4" s="167">
         <f t="shared" ref="Q4:Q14" si="2">P4/60</f>
-        <v>1608.2438940960985</v>
+        <v>1626.9567510312813</v>
       </c>
       <c r="R4" s="167">
         <f t="shared" ref="R4:R14" si="3">Q4/24</f>
-        <v>67.010162254004101</v>
+        <v>67.789864626303384</v>
       </c>
       <c r="S4" s="167"/>
       <c r="T4" s="168" t="s">
         <v>17</v>
       </c>
       <c r="U4" s="167">
-        <v>3639.799975351928</v>
+        <v>3499.844418734157</v>
       </c>
       <c r="V4" s="167">
         <f t="shared" ref="V4:V13" si="4">U4/60</f>
-        <v>60.663332922532135</v>
+        <v>58.330740312235953</v>
       </c>
       <c r="W4" s="167">
         <f t="shared" ref="W4:W13" si="5">V4/24</f>
-        <v>2.5276388717721723</v>
+        <v>2.4304475130098315</v>
       </c>
       <c r="X4" s="156"/>
       <c r="Y4" s="184">
@@ -50901,63 +50857,63 @@
         <v>84</v>
       </c>
       <c r="B5" s="38">
-        <v>80.169705870354463</v>
+        <v>81.110184854379199</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="36">
-        <v>62.239687525282939</v>
+        <v>63.875555163678627</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="37">
-        <v>7.4638015575425465</v>
+        <v>7.4379447765442768</v>
       </c>
       <c r="J5" s="169" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="167">
-        <v>4164.3259169834973</v>
+        <v>4108.9171549239618</v>
       </c>
       <c r="L5" s="167">
         <f t="shared" si="0"/>
-        <v>69.405431949724957</v>
+        <v>68.481952582066029</v>
       </c>
       <c r="M5" s="167">
         <f t="shared" si="1"/>
-        <v>2.8918929979052064</v>
+        <v>2.853414690919418</v>
       </c>
       <c r="N5" s="167"/>
       <c r="O5" s="168" t="s">
         <v>112</v>
       </c>
       <c r="P5" s="167">
-        <v>141849.6573238596</v>
+        <v>144540.0778769257</v>
       </c>
       <c r="Q5" s="167">
         <f t="shared" si="2"/>
-        <v>2364.16095539766</v>
+        <v>2409.0012979487615</v>
       </c>
       <c r="R5" s="167">
         <f t="shared" si="3"/>
-        <v>98.506706474902501</v>
+        <v>100.3750540811984</v>
       </c>
       <c r="S5" s="167"/>
       <c r="T5" s="168" t="s">
         <v>111</v>
       </c>
       <c r="U5" s="167">
-        <v>141497.99664044369</v>
+        <v>137996.61834764987</v>
       </c>
       <c r="V5" s="167">
         <f t="shared" si="4"/>
-        <v>2358.299944007395</v>
+        <v>2299.943639127498</v>
       </c>
       <c r="W5" s="167">
         <f t="shared" si="5"/>
-        <v>98.262497666974795</v>
+        <v>95.830984963645747</v>
       </c>
       <c r="X5" s="156"/>
       <c r="Y5" s="184">
@@ -50982,37 +50938,37 @@
         <v>85</v>
       </c>
       <c r="B6" s="38">
-        <v>32.574033868866778</v>
+        <v>32.153994393833287</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="36">
-        <v>0.17871527169437937</v>
+        <v>0.17937457394675033</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="37">
-        <v>436.83125908593325</v>
+        <v>283.35386355455478</v>
       </c>
       <c r="G6">
         <f>F6/1440</f>
-        <v>0.30335504103189809</v>
+        <v>0.1967735163573297</v>
       </c>
       <c r="J6" s="169" t="s">
         <v>112</v>
       </c>
       <c r="K6" s="167">
-        <v>7317.3042510483529</v>
+        <v>7262.5465877209272</v>
       </c>
       <c r="L6" s="167">
         <f t="shared" si="0"/>
-        <v>121.95507085080588</v>
+        <v>121.04244312868212</v>
       </c>
       <c r="M6" s="167">
         <f t="shared" si="1"/>
-        <v>5.0814612854502448</v>
+        <v>5.0434351303617548</v>
       </c>
       <c r="N6" s="167"/>
       <c r="O6" s="172" t="s">
@@ -51028,15 +50984,15 @@
         <v>112</v>
       </c>
       <c r="U6" s="167">
-        <v>26122.972747605592</v>
+        <v>26473.200008212665</v>
       </c>
       <c r="V6" s="167">
         <f t="shared" ref="V6" si="6">U6/60</f>
-        <v>435.38287912675986</v>
+        <v>441.22000013687773</v>
       </c>
       <c r="W6" s="167">
         <f t="shared" ref="W6" si="7">V6/24</f>
-        <v>18.140953296948329</v>
+        <v>18.384166672369904</v>
       </c>
       <c r="X6" s="156"/>
       <c r="Y6" s="184">
@@ -51090,13 +51046,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="38">
-        <v>138.55741449976497</v>
+        <v>34.958728714415614</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="36">
-        <v>0.52246471153598051</v>
+        <v>0.5220112581079025</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>77</v>
@@ -51170,15 +51126,15 @@
       </c>
       <c r="AQ7" s="176">
         <f>AQ2*$AG$11</f>
-        <v>101955.8771388153</v>
+        <v>64760.587693955531</v>
       </c>
       <c r="AR7" s="176">
         <f>AR2*$AI$11</f>
-        <v>47787.57735218155</v>
+        <v>25534.844668734848</v>
       </c>
       <c r="AS7" s="176">
         <f>AS2*$AB$11</f>
-        <v>12717.681800773782</v>
+        <v>10513.442555499609</v>
       </c>
       <c r="AT7" s="176">
         <f>AT2*$AJ$11</f>
@@ -51195,11 +51151,11 @@
       <c r="AW7" s="156"/>
       <c r="AX7" s="181">
         <f>SUM(AO7:AU7)+AE11+AF11</f>
-        <v>325535.95971375518</v>
+        <v>182164.77506029891</v>
       </c>
       <c r="AY7" s="179">
         <f>AX7/(1*$AY$2*60*125)</f>
-        <v>2.5532232134412172</v>
+        <v>1.7349026196218944</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
@@ -51207,17 +51163,17 @@
         <v>7</v>
       </c>
       <c r="D8" s="36">
-        <v>8.22131670559553E-2</v>
+        <v>8.3727659668181964E-2</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="37">
-        <v>8.7771583979080461</v>
+        <v>0.68185500519292774</v>
       </c>
       <c r="G8">
         <f>F8/1440</f>
-        <v>6.095248887436143E-3</v>
+        <v>4.7351042027286649E-4</v>
       </c>
       <c r="J8" s="173" t="s">
         <v>261</v>
@@ -51277,7 +51233,7 @@
       </c>
       <c r="AP8" s="176">
         <f>AP3*$AA$11</f>
-        <v>34831.730170499301</v>
+        <v>25269.392645293046</v>
       </c>
       <c r="AQ8" s="176">
         <f t="shared" ref="AQ8:AQ9" si="12">AQ3*$AG$11</f>
@@ -51285,11 +51241,11 @@
       </c>
       <c r="AR8" s="176">
         <f>AR3*$AI$11</f>
-        <v>47787.57735218155</v>
+        <v>25534.844668734848</v>
       </c>
       <c r="AS8" s="176">
         <f>AS3*$AB$11</f>
-        <v>12717.681800773782</v>
+        <v>10513.442555499609</v>
       </c>
       <c r="AT8" s="176">
         <f>AT3*$AJ$11</f>
@@ -51306,11 +51262,11 @@
       <c r="AW8" s="180"/>
       <c r="AX8" s="181">
         <f>SUM(AO8:AU8)+AF11</f>
-        <v>171438.53748893863</v>
+        <v>121706.11288177322</v>
       </c>
       <c r="AY8" s="178">
         <f>AX8/(2*$AY$2*60*125)</f>
-        <v>0.67230799015270049</v>
+        <v>0.57955291848463442</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
@@ -51356,62 +51312,88 @@
       <c r="Y9" s="184">
         <v>9</v>
       </c>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="185"/>
+      <c r="Z9" s="167">
+        <v>22477.371681435907</v>
+      </c>
+      <c r="AA9" s="167">
+        <v>27932.150338849791</v>
+      </c>
+      <c r="AB9" s="167">
+        <v>11454.206353895128</v>
+      </c>
+      <c r="AC9" s="167">
+        <v>18178.958606963773</v>
+      </c>
+      <c r="AD9" s="167">
+        <v>38871.220311945362</v>
+      </c>
+      <c r="AE9" s="167">
+        <v>24921.979582804917</v>
+      </c>
+      <c r="AF9" s="167">
+        <v>69262.345966386827</v>
+      </c>
+      <c r="AG9" s="167">
+        <v>82610.893077852263</v>
+      </c>
+      <c r="AH9" s="167">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="167">
+        <v>32913.308840767641</v>
+      </c>
+      <c r="AJ9" s="167">
+        <v>50091.107807221517</v>
+      </c>
+      <c r="AK9" s="167">
+        <v>148563.29089924216</v>
+      </c>
+      <c r="AL9" s="185">
+        <v>2586</v>
+      </c>
       <c r="AN9" s="175" t="s">
         <v>5</v>
       </c>
       <c r="AO9" s="176">
         <f>AO4*$Z$11</f>
-        <v>22448.345509363549</v>
+        <v>18475.161581001536</v>
       </c>
       <c r="AP9" s="176">
         <f>AP4*$AA$11</f>
-        <v>34831.730170499301</v>
+        <v>25269.392645293046</v>
       </c>
       <c r="AQ9" s="176">
         <f t="shared" si="12"/>
-        <v>101955.8771388153</v>
+        <v>64760.587693955531</v>
       </c>
       <c r="AR9" s="176">
         <f>AR4*$AI$11</f>
-        <v>47787.57735218155</v>
+        <v>25534.844668734848</v>
       </c>
       <c r="AS9" s="176">
         <f>AS4*$AB$11</f>
-        <v>12717.681800773782</v>
+        <v>10513.442555499609</v>
       </c>
       <c r="AT9" s="176">
         <f>AT4*$AJ$11</f>
-        <v>24777.39556711138</v>
+        <v>33363.329709536978</v>
       </c>
       <c r="AU9" s="176">
         <f>AU4*$AK$11</f>
-        <v>16910.176165421795</v>
+        <v>83905.970841917835</v>
       </c>
       <c r="AV9" s="176">
         <f>($AC$11+$AD$11)*AV4</f>
-        <v>59145.141718093626</v>
+        <v>48836.281295071982</v>
       </c>
       <c r="AW9" s="180"/>
       <c r="AX9" s="177">
         <f>SUM(AO9:AV9)</f>
-        <v>320573.92542226025</v>
+        <v>310659.0109910114</v>
       </c>
       <c r="AY9" s="178">
         <f>AX9/(3*$AY$2*60*125)</f>
-        <v>0.83810176580983076</v>
+        <v>0.98621908251114732</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
@@ -51428,15 +51410,15 @@
         <v>16</v>
       </c>
       <c r="P10" s="167">
-        <v>85658.662873684487</v>
+        <v>87349.34216803161</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>1427.6443812280747</v>
+        <v>1455.8223694671935</v>
       </c>
       <c r="R10" s="167">
         <f t="shared" si="3"/>
-        <v>59.485182551169778</v>
+        <v>60.659265394466395</v>
       </c>
       <c r="S10" s="167"/>
       <c r="T10" s="172" t="s">
@@ -51471,15 +51453,15 @@
         <v>16</v>
       </c>
       <c r="K11" s="167">
-        <v>2355.5282888140277</v>
+        <v>2222.4206490866632</v>
       </c>
       <c r="L11" s="167">
         <f t="shared" si="0"/>
-        <v>39.258804813567131</v>
+        <v>37.040344151444387</v>
       </c>
       <c r="M11" s="167">
         <f t="shared" si="1"/>
-        <v>1.6357835338986304</v>
+        <v>1.5433476729768494</v>
       </c>
       <c r="N11" s="167"/>
       <c r="O11" s="172" t="s">
@@ -51501,49 +51483,49 @@
         <v>16</v>
       </c>
       <c r="U11" s="167">
-        <v>29952.646009238364</v>
+        <v>29325.763442954256</v>
       </c>
       <c r="V11" s="167">
         <f t="shared" si="4"/>
-        <v>499.21076682063938</v>
+        <v>488.76272404923759</v>
       </c>
       <c r="W11" s="167">
         <f t="shared" si="5"/>
-        <v>20.800448617526641</v>
+        <v>20.365113502051567</v>
       </c>
       <c r="X11" s="156"/>
       <c r="Y11" s="168"/>
       <c r="Z11" s="167">
         <f>AVERAGE(Z1:Z10)</f>
-        <v>22448.345509363549</v>
+        <v>18475.161581001536</v>
       </c>
       <c r="AA11" s="167">
         <f t="shared" ref="AA11:AL11" si="13">AVERAGE(AA1:AA10)</f>
-        <v>34831.730170499301</v>
+        <v>25269.392645293046</v>
       </c>
       <c r="AB11" s="167">
         <f t="shared" si="13"/>
-        <v>12717.681800773782</v>
+        <v>10513.442555499609</v>
       </c>
       <c r="AC11" s="167">
         <f t="shared" si="13"/>
-        <v>18035.655527696465</v>
+        <v>17011.923563143406</v>
       </c>
       <c r="AD11" s="167">
         <f t="shared" si="13"/>
-        <v>41109.486190397161</v>
+        <v>31824.35773192858</v>
       </c>
       <c r="AE11" s="167">
         <f t="shared" si="13"/>
-        <v>86973.275256500521</v>
+        <v>20967.467129863213</v>
       </c>
       <c r="AF11" s="167">
         <f t="shared" si="13"/>
-        <v>76101.548165484011</v>
+        <v>60388.433012245718</v>
       </c>
       <c r="AG11" s="167">
         <f t="shared" si="13"/>
-        <v>101955.8771388153</v>
+        <v>64760.587693955531</v>
       </c>
       <c r="AH11" s="167">
         <f t="shared" si="13"/>
@@ -51551,19 +51533,19 @@
       </c>
       <c r="AI11" s="167">
         <f t="shared" si="13"/>
-        <v>47787.57735218155</v>
+        <v>25534.844668734848</v>
       </c>
       <c r="AJ11" s="167">
         <f t="shared" si="13"/>
-        <v>24777.39556711138</v>
+        <v>33363.329709536978</v>
       </c>
       <c r="AK11" s="167">
         <f t="shared" si="13"/>
-        <v>16910.176165421795</v>
+        <v>83905.970841917835</v>
       </c>
       <c r="AL11" s="185">
         <f t="shared" si="13"/>
-        <v>2945</v>
+        <v>2391.5</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
@@ -51575,45 +51557,45 @@
         <v>17</v>
       </c>
       <c r="K12" s="167">
-        <v>3041.1456681152304</v>
+        <v>2955.6581735760792</v>
       </c>
       <c r="L12" s="167">
         <f t="shared" si="0"/>
-        <v>50.685761135253841</v>
+        <v>49.260969559601321</v>
       </c>
       <c r="M12" s="167">
         <f t="shared" si="1"/>
-        <v>2.1119067139689101</v>
+        <v>2.0525403983167219</v>
       </c>
       <c r="N12" s="167"/>
       <c r="O12" s="168" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="167">
-        <v>133197.90767538687</v>
+        <v>137067.88661127014</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>2219.9651279231143</v>
+        <v>2284.4647768545024</v>
       </c>
       <c r="R12" s="167">
         <f t="shared" si="3"/>
-        <v>92.498546996796435</v>
+        <v>95.186032368937603</v>
       </c>
       <c r="S12" s="167"/>
       <c r="T12" s="168" t="s">
         <v>19</v>
       </c>
       <c r="U12" s="167">
-        <v>37951.072982958824</v>
+        <v>37607.717511190684</v>
       </c>
       <c r="V12" s="167">
         <f t="shared" si="4"/>
-        <v>632.5178830493137</v>
+        <v>626.79529185317801</v>
       </c>
       <c r="W12" s="167">
         <f t="shared" si="5"/>
-        <v>26.354911793721403</v>
+        <v>26.116470493882417</v>
       </c>
       <c r="X12" s="156"/>
       <c r="Y12" s="168"/>
@@ -51660,51 +51642,51 @@
         <v>4</v>
       </c>
       <c r="D13" s="36">
-        <v>0.49688807344275088</v>
+        <v>0.35770545079533922</v>
       </c>
       <c r="J13" s="169" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="167">
-        <v>2014.3482478634555</v>
+        <v>1936.8437710628521</v>
       </c>
       <c r="L13" s="167">
         <f t="shared" si="0"/>
-        <v>33.572470797724257</v>
+        <v>32.2807295177142</v>
       </c>
       <c r="M13" s="167">
         <f t="shared" si="1"/>
-        <v>1.3988529499051774</v>
+        <v>1.345030396571425</v>
       </c>
       <c r="N13" s="167"/>
       <c r="O13" s="168" t="s">
         <v>19</v>
       </c>
       <c r="P13" s="167">
-        <v>63523.192987584647</v>
+        <v>64859.68649390871</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>1058.7198831264109</v>
+        <v>1080.9947748984785</v>
       </c>
       <c r="R13" s="167">
         <f t="shared" si="3"/>
-        <v>44.113328463600453</v>
+        <v>45.041448954103267</v>
       </c>
       <c r="S13" s="167"/>
       <c r="T13" s="168" t="s">
         <v>18</v>
       </c>
       <c r="U13" s="167">
-        <v>108.36243521062988</v>
+        <v>48.431205452280665</v>
       </c>
       <c r="V13" s="167">
         <f t="shared" si="4"/>
-        <v>1.8060405868438314</v>
+        <v>0.80718675753801106</v>
       </c>
       <c r="W13" s="167">
         <f t="shared" si="5"/>
-        <v>7.5251691118492975E-2</v>
+        <v>3.3632781564083794E-2</v>
       </c>
       <c r="X13" s="156"/>
       <c r="Y13" s="168"/>
@@ -51718,7 +51700,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="36">
-        <v>0.2361447564603604</v>
+        <v>0.1612547245071593</v>
       </c>
       <c r="J14" s="169" t="s">
         <v>18</v>
@@ -51739,40 +51721,66 @@
         <v>18</v>
       </c>
       <c r="P14" s="167">
-        <v>52820.894998603035</v>
+        <v>54772.027248051403</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>880.34824997671728</v>
+        <v>912.8671208008567</v>
       </c>
       <c r="R14" s="167">
         <f t="shared" si="3"/>
-        <v>36.68117708236322</v>
+        <v>38.036130033369027</v>
       </c>
       <c r="S14" s="167"/>
       <c r="T14" s="168" t="s">
         <v>258</v>
       </c>
       <c r="U14" s="156">
-        <v>5765</v>
+        <v>5718</v>
       </c>
       <c r="V14" s="167"/>
       <c r="W14" s="167"/>
       <c r="X14" s="156"/>
       <c r="Y14" s="168"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="167"/>
-      <c r="AL14" s="185"/>
+      <c r="Z14" s="167">
+        <v>13564.899767855928</v>
+      </c>
+      <c r="AA14" s="167">
+        <v>48451.581006017281</v>
+      </c>
+      <c r="AB14" s="167">
+        <v>11333.492946806178</v>
+      </c>
+      <c r="AC14" s="167">
+        <v>16076.594692398337</v>
+      </c>
+      <c r="AD14" s="167">
+        <v>31271.092095995129</v>
+      </c>
+      <c r="AE14" s="167">
+        <v>13308.28501167484</v>
+      </c>
+      <c r="AF14" s="167">
+        <v>30901.856443803863</v>
+      </c>
+      <c r="AG14" s="167">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="167">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="167">
+        <v>19935.449197617028</v>
+      </c>
+      <c r="AJ14" s="167">
+        <v>18774.361893287652</v>
+      </c>
+      <c r="AK14" s="167">
+        <v>38710.379474175614</v>
+      </c>
+      <c r="AL14" s="185">
+        <v>2186.2857142857142</v>
+      </c>
       <c r="AW14" s="180"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
@@ -51786,7 +51794,7 @@
         <v>258</v>
       </c>
       <c r="K15" s="156">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="156"/>
@@ -51795,7 +51803,7 @@
         <v>258</v>
       </c>
       <c r="P15" s="156">
-        <v>14268</v>
+        <v>14153</v>
       </c>
       <c r="Q15" s="156"/>
       <c r="R15" s="156"/>
@@ -51806,19 +51814,45 @@
       <c r="W15" s="156"/>
       <c r="X15" s="156"/>
       <c r="Y15" s="169"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="167"/>
-      <c r="AD15" s="167"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="167"/>
-      <c r="AK15" s="167"/>
-      <c r="AL15" s="167"/>
+      <c r="Z15" s="167">
+        <v>27596.432957786019</v>
+      </c>
+      <c r="AA15" s="167">
+        <v>68740.152468240689</v>
+      </c>
+      <c r="AB15" s="167">
+        <v>16605.119889451977</v>
+      </c>
+      <c r="AC15" s="167">
+        <v>19865.797401599113</v>
+      </c>
+      <c r="AD15" s="167">
+        <v>60375.441401554308</v>
+      </c>
+      <c r="AE15" s="167">
+        <v>21317.631801080308</v>
+      </c>
+      <c r="AF15" s="167">
+        <v>45094.317425706082</v>
+      </c>
+      <c r="AG15" s="167">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="167">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="167">
+        <v>34823.015038285332</v>
+      </c>
+      <c r="AJ15" s="167">
+        <v>62116.485974991236</v>
+      </c>
+      <c r="AK15" s="167">
+        <v>168646.71305802467</v>
+      </c>
+      <c r="AL15" s="185">
+        <v>2717.7142857142858</v>
+      </c>
       <c r="AW15" s="180"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
@@ -51826,7 +51860,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="36">
-        <v>46.058988118153181</v>
+        <v>31.388154888086948</v>
       </c>
       <c r="J16" s="156"/>
       <c r="K16" s="156"/>
@@ -51848,7 +51882,7 @@
       <c r="AA16" s="156"/>
       <c r="AB16" s="156"/>
     </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C17" s="43" t="s">
         <v>71</v>
       </c>
@@ -51858,43 +51892,43 @@
       <c r="J17" s="156"/>
       <c r="K17" s="167">
         <f>SUM(K2:K14)</f>
-        <v>52375.355633632687</v>
+        <v>51753.336605271987</v>
       </c>
       <c r="L17" s="167">
         <f t="shared" ref="L17" si="14">SUM(L2:L14)</f>
-        <v>872.922593893878</v>
+        <v>862.55561008786651</v>
       </c>
       <c r="M17" s="167">
         <f>SUM(M2:M14)</f>
-        <v>36.37177474557825</v>
+        <v>35.939817086994438</v>
       </c>
       <c r="N17" s="156"/>
       <c r="O17" s="156"/>
       <c r="P17" s="167">
         <f>SUM(P2:P14)</f>
-        <v>892924.5957834</v>
+        <v>913669.66981539899</v>
       </c>
       <c r="Q17" s="167">
         <f t="shared" ref="Q17" si="15">SUM(Q2:Q14)</f>
-        <v>14882.076596390001</v>
+        <v>15227.827830256649</v>
       </c>
       <c r="R17" s="167">
         <f>SUM(R2:R14)</f>
-        <v>620.08652484958327</v>
+        <v>634.49282626069373</v>
       </c>
       <c r="S17" s="156"/>
       <c r="T17" s="156"/>
       <c r="U17" s="167">
         <f t="shared" ref="U17:V17" si="16">SUM(U2:U13)</f>
-        <v>441950.27459222073</v>
+        <v>435962.63704994397</v>
       </c>
       <c r="V17" s="167">
         <f t="shared" si="16"/>
-        <v>7365.8379098703463</v>
+        <v>7266.043950832398</v>
       </c>
       <c r="W17" s="167">
         <f>SUM(W2:W13)</f>
-        <v>306.90991291126443</v>
+        <v>302.75183128468331</v>
       </c>
       <c r="X17" s="156"/>
       <c r="Y17" s="156"/>
@@ -51902,74 +51936,64 @@
       <c r="AA17" s="167"/>
       <c r="AB17" s="167"/>
     </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="36">
-        <v>7.7722908934646312E-2</v>
+        <v>6.0705166870574791E-2</v>
       </c>
       <c r="K18" s="156">
         <f t="shared" ref="K18:L18" si="17">K17/$K$15</f>
-        <v>150.5038954989445</v>
+        <v>150.88436328067635</v>
       </c>
       <c r="L18" s="156">
         <f t="shared" si="17"/>
-        <v>2.5083982583157414</v>
+        <v>2.5147393880112725</v>
       </c>
       <c r="M18" s="156">
         <f>M17/$K$15</f>
-        <v>0.10451659409648922</v>
+        <v>0.10478080783380303</v>
       </c>
       <c r="N18" s="156"/>
       <c r="O18" s="156"/>
       <c r="P18" s="156">
         <f t="shared" ref="P18:Q18" si="18">P17/$P$15</f>
-        <v>62.582323786333056</v>
+        <v>64.556607773291816</v>
       </c>
       <c r="Q18" s="156">
         <f t="shared" si="18"/>
-        <v>1.0430387297722177</v>
+        <v>1.0759434628881968</v>
       </c>
       <c r="R18" s="156">
         <f>R17/$P$15</f>
-        <v>4.3459947073842396E-2</v>
+        <v>4.4830977620341536E-2</v>
       </c>
       <c r="S18" s="156"/>
       <c r="T18" s="156"/>
       <c r="U18" s="156">
         <f t="shared" ref="U18:V18" si="19">U17/$U$14</f>
-        <v>76.660932279656677</v>
+        <v>76.243902946824761</v>
       </c>
       <c r="V18" s="156">
         <f t="shared" si="19"/>
-        <v>1.2776822046609446</v>
+        <v>1.2707317157804123</v>
       </c>
       <c r="W18" s="156">
         <f>W17/$U$14</f>
-        <v>5.3236758527539361E-2</v>
+        <v>5.2947154824183856E-2</v>
       </c>
       <c r="Y18" s="156"/>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="167"/>
-      <c r="AD18" s="167"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="167"/>
-      <c r="AG18" s="167"/>
-      <c r="AH18" s="167"/>
-      <c r="AI18" s="167"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="167"/>
-      <c r="AL18" s="167"/>
-    </row>
-    <row r="19" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C19" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="36">
-        <v>1.6880045300195774E-2</v>
+        <v>1.5459872122206489E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
+++ b/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384" tabRatio="843" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9384" tabRatio="843" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="34" state="hidden" r:id="rId1"/>
@@ -2262,16 +2262,16 @@
     <xf numFmtId="2" fontId="12" fillId="22" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,14 +2280,14 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2295,13 +2295,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2310,8 +2304,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2750,14 +2750,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="193" t="s">
+      <c r="U1" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="194"/>
-      <c r="W1" s="195" t="s">
+      <c r="V1" s="196"/>
+      <c r="W1" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="196"/>
+      <c r="X1" s="194"/>
       <c r="Y1" s="197" t="s">
         <v>72</v>
       </c>
@@ -2765,10 +2765,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="195" t="s">
+      <c r="AB1" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="196"/>
+      <c r="AC1" s="194"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -3425,14 +3425,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="193" t="s">
+      <c r="U10" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="194"/>
-      <c r="W10" s="195" t="s">
+      <c r="V10" s="196"/>
+      <c r="W10" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="196"/>
+      <c r="X10" s="194"/>
       <c r="Y10" s="197" t="s">
         <v>72</v>
       </c>
@@ -3440,10 +3440,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="195" t="s">
+      <c r="AB10" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="196"/>
+      <c r="AC10" s="194"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -4032,14 +4032,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="193" t="s">
+      <c r="U18" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="194"/>
-      <c r="W18" s="195" t="s">
+      <c r="V18" s="196"/>
+      <c r="W18" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="196"/>
+      <c r="X18" s="194"/>
       <c r="Y18" s="197" t="s">
         <v>72</v>
       </c>
@@ -4047,10 +4047,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="195" t="s">
+      <c r="AB18" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="196"/>
+      <c r="AC18" s="194"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -4639,14 +4639,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="193" t="s">
+      <c r="U26" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="194"/>
-      <c r="W26" s="195" t="s">
+      <c r="V26" s="196"/>
+      <c r="W26" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="196"/>
+      <c r="X26" s="194"/>
       <c r="Y26" s="197" t="s">
         <v>72</v>
       </c>
@@ -4654,10 +4654,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="195" t="s">
+      <c r="AB26" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="196"/>
+      <c r="AC26" s="194"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -5246,14 +5246,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="193" t="s">
+      <c r="U34" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="194"/>
-      <c r="W34" s="195" t="s">
+      <c r="V34" s="196"/>
+      <c r="W34" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="196"/>
+      <c r="X34" s="194"/>
       <c r="Y34" s="197" t="s">
         <v>72</v>
       </c>
@@ -5261,10 +5261,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="195" t="s">
+      <c r="AB34" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="196"/>
+      <c r="AC34" s="194"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -5853,14 +5853,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="193" t="s">
+      <c r="U42" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="194"/>
-      <c r="W42" s="195" t="s">
+      <c r="V42" s="196"/>
+      <c r="W42" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="196"/>
+      <c r="X42" s="194"/>
       <c r="Y42" s="197" t="s">
         <v>72</v>
       </c>
@@ -5868,10 +5868,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="195" t="s">
+      <c r="AB42" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="196"/>
+      <c r="AC42" s="194"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -6460,14 +6460,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="193" t="s">
+      <c r="U50" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="194"/>
-      <c r="W50" s="195" t="s">
+      <c r="V50" s="196"/>
+      <c r="W50" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="196"/>
+      <c r="X50" s="194"/>
       <c r="Y50" s="197" t="s">
         <v>72</v>
       </c>
@@ -6475,10 +6475,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="195" t="s">
+      <c r="AB50" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="196"/>
+      <c r="AC50" s="194"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -7067,14 +7067,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="193" t="s">
+      <c r="U58" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="194"/>
-      <c r="W58" s="195" t="s">
+      <c r="V58" s="196"/>
+      <c r="W58" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="196"/>
+      <c r="X58" s="194"/>
       <c r="Y58" s="197" t="s">
         <v>72</v>
       </c>
@@ -7082,10 +7082,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="195" t="s">
+      <c r="AB58" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="196"/>
+      <c r="AC58" s="194"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -7615,6 +7615,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="AB50:AC50"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="W58:X58"/>
@@ -7623,30 +7647,6 @@
     <mergeCell ref="U50:V50"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AB10:AC10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9829,7 +9829,9 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9951,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
         <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
       </c>
       <c r="F4" s="61">
         <v>0</v>
@@ -11480,16 +11482,16 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="195" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="219"/>
-      <c r="D1" s="194"/>
-      <c r="J1" s="193" t="s">
+      <c r="D1" s="196"/>
+      <c r="J1" s="195" t="s">
         <v>152</v>
       </c>
       <c r="K1" s="219"/>
-      <c r="L1" s="194"/>
+      <c r="L1" s="196"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -11795,11 +11797,11 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="195" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="219"/>
-      <c r="D1" s="194"/>
+      <c r="D1" s="196"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -12034,14 +12036,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="193" t="s">
+      <c r="U1" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="194"/>
-      <c r="W1" s="195" t="s">
+      <c r="V1" s="196"/>
+      <c r="W1" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="196"/>
+      <c r="X1" s="194"/>
       <c r="Y1" s="197" t="s">
         <v>72</v>
       </c>
@@ -12049,10 +12051,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="195" t="s">
+      <c r="AB1" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="196"/>
+      <c r="AC1" s="194"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -12557,14 +12559,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="193" t="s">
+      <c r="U10" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="194"/>
-      <c r="W10" s="195" t="s">
+      <c r="V10" s="196"/>
+      <c r="W10" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="196"/>
+      <c r="X10" s="194"/>
       <c r="Y10" s="197" t="s">
         <v>72</v>
       </c>
@@ -12572,10 +12574,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="195" t="s">
+      <c r="AB10" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="196"/>
+      <c r="AC10" s="194"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -13164,14 +13166,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="193" t="s">
+      <c r="U18" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="194"/>
-      <c r="W18" s="195" t="s">
+      <c r="V18" s="196"/>
+      <c r="W18" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="196"/>
+      <c r="X18" s="194"/>
       <c r="Y18" s="197" t="s">
         <v>72</v>
       </c>
@@ -13179,10 +13181,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="195" t="s">
+      <c r="AB18" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="196"/>
+      <c r="AC18" s="194"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -13771,14 +13773,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="193" t="s">
+      <c r="U26" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="194"/>
-      <c r="W26" s="195" t="s">
+      <c r="V26" s="196"/>
+      <c r="W26" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="196"/>
+      <c r="X26" s="194"/>
       <c r="Y26" s="197" t="s">
         <v>72</v>
       </c>
@@ -13786,10 +13788,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="195" t="s">
+      <c r="AB26" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="196"/>
+      <c r="AC26" s="194"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -14378,14 +14380,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="193" t="s">
+      <c r="U34" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="194"/>
-      <c r="W34" s="195" t="s">
+      <c r="V34" s="196"/>
+      <c r="W34" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="196"/>
+      <c r="X34" s="194"/>
       <c r="Y34" s="197" t="s">
         <v>72</v>
       </c>
@@ -14393,10 +14395,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="195" t="s">
+      <c r="AB34" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="196"/>
+      <c r="AC34" s="194"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -14985,14 +14987,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="193" t="s">
+      <c r="U42" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="194"/>
-      <c r="W42" s="195" t="s">
+      <c r="V42" s="196"/>
+      <c r="W42" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="196"/>
+      <c r="X42" s="194"/>
       <c r="Y42" s="197" t="s">
         <v>72</v>
       </c>
@@ -15000,10 +15002,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="195" t="s">
+      <c r="AB42" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="196"/>
+      <c r="AC42" s="194"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -15592,14 +15594,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="193" t="s">
+      <c r="U50" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="194"/>
-      <c r="W50" s="195" t="s">
+      <c r="V50" s="196"/>
+      <c r="W50" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="196"/>
+      <c r="X50" s="194"/>
       <c r="Y50" s="197" t="s">
         <v>72</v>
       </c>
@@ -15607,10 +15609,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="195" t="s">
+      <c r="AB50" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="196"/>
+      <c r="AC50" s="194"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -16199,14 +16201,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="193" t="s">
+      <c r="U58" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="194"/>
-      <c r="W58" s="195" t="s">
+      <c r="V58" s="196"/>
+      <c r="W58" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="196"/>
+      <c r="X58" s="194"/>
       <c r="Y58" s="197" t="s">
         <v>72</v>
       </c>
@@ -16214,10 +16216,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="195" t="s">
+      <c r="AB58" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="196"/>
+      <c r="AC58" s="194"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -16747,6 +16749,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
     <mergeCell ref="U50:V50"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="Y50:Z50"/>
@@ -16755,30 +16781,6 @@
     <mergeCell ref="W58:X58"/>
     <mergeCell ref="Y58:Z58"/>
     <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AB10:AC10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17080,7 +17082,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -21499,14 +21501,14 @@
         <f>K4/L4</f>
         <v>0.17075625048378357</v>
       </c>
-      <c r="O4" s="199" t="s">
+      <c r="O4" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
@@ -21552,12 +21554,12 @@
         <f t="shared" ref="N5:N12" si="0">K5/L5</f>
         <v>0.17174261506755209</v>
       </c>
-      <c r="O5" s="199"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
@@ -21603,12 +21605,12 @@
         <f t="shared" si="0"/>
         <v>0.16784888203546647</v>
       </c>
-      <c r="O6" s="199"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
@@ -21654,12 +21656,12 @@
         <f t="shared" si="0"/>
         <v>0.16837908296273577</v>
       </c>
-      <c r="O7" s="199"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
@@ -21705,12 +21707,12 @@
         <f t="shared" si="0"/>
         <v>0.16951115916286971</v>
       </c>
-      <c r="O8" s="199"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="201"/>
+      <c r="T8" s="201"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="86" t="s">
@@ -21756,12 +21758,12 @@
         <f t="shared" si="0"/>
         <v>0.16543891958256599</v>
       </c>
-      <c r="O9" s="199"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="201"/>
+      <c r="S9" s="201"/>
+      <c r="T9" s="201"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="86" t="s">
@@ -21807,12 +21809,12 @@
         <f t="shared" si="0"/>
         <v>0.16546982429335372</v>
       </c>
-      <c r="O10" s="199"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="201"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="201"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
@@ -21858,12 +21860,12 @@
         <f t="shared" si="0"/>
         <v>0.1601354992686119</v>
       </c>
-      <c r="O11" s="199"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
@@ -21909,12 +21911,12 @@
         <f t="shared" si="0"/>
         <v>0.16642623946549237</v>
       </c>
-      <c r="O12" s="199"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="201"/>
+      <c r="T12" s="201"/>
     </row>
     <row r="13" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
@@ -21960,12 +21962,12 @@
         <f>K13/L13</f>
         <v>0.16610118374425092</v>
       </c>
-      <c r="O13" s="199"/>
-      <c r="P13" s="200"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
-      <c r="T13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="201"/>
+      <c r="S13" s="201"/>
+      <c r="T13" s="201"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
@@ -22023,12 +22025,12 @@
         <f t="shared" si="1"/>
         <v>0.16718096560666823</v>
       </c>
-      <c r="O14" s="199"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="200"/>
-      <c r="T14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="201"/>
+      <c r="S14" s="201"/>
+      <c r="T14" s="201"/>
     </row>
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="98"/>
@@ -22089,14 +22091,14 @@
         <f>K16/L16</f>
         <v>0.17290223248652811</v>
       </c>
-      <c r="O16" s="201" t="s">
+      <c r="O16" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="201"/>
-      <c r="R16" s="201"/>
-      <c r="S16" s="201"/>
-      <c r="T16" s="201"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="199"/>
+      <c r="R16" s="199"/>
+      <c r="S16" s="199"/>
+      <c r="T16" s="199"/>
     </row>
     <row r="17" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
@@ -22142,12 +22144,12 @@
         <f t="shared" ref="N17:N25" si="2">K17/L17</f>
         <v>0.17136942186781168</v>
       </c>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="201"/>
-      <c r="R17" s="201"/>
-      <c r="S17" s="201"/>
-      <c r="T17" s="201"/>
+      <c r="O17" s="199"/>
+      <c r="P17" s="199"/>
+      <c r="Q17" s="199"/>
+      <c r="R17" s="199"/>
+      <c r="S17" s="199"/>
+      <c r="T17" s="199"/>
     </row>
     <row r="18" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
@@ -22193,12 +22195,12 @@
         <f t="shared" si="2"/>
         <v>0.16918012707647553</v>
       </c>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="201"/>
-      <c r="S18" s="201"/>
-      <c r="T18" s="201"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199"/>
     </row>
     <row r="19" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
@@ -22244,12 +22246,12 @@
         <f t="shared" si="2"/>
         <v>0.169391013457006</v>
       </c>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="201"/>
-      <c r="R19" s="201"/>
-      <c r="S19" s="201"/>
-      <c r="T19" s="201"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="199"/>
+      <c r="S19" s="199"/>
+      <c r="T19" s="199"/>
     </row>
     <row r="20" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
@@ -22295,12 +22297,12 @@
         <f t="shared" si="2"/>
         <v>0.17022416035498431</v>
       </c>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="201"/>
-      <c r="R20" s="201"/>
-      <c r="S20" s="201"/>
-      <c r="T20" s="201"/>
+      <c r="O20" s="199"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199"/>
+      <c r="R20" s="199"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199"/>
     </row>
     <row r="21" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
@@ -22346,12 +22348,12 @@
         <f t="shared" si="2"/>
         <v>0.1647551146931184</v>
       </c>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-      <c r="R21" s="201"/>
-      <c r="S21" s="201"/>
-      <c r="T21" s="201"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
     </row>
     <row r="22" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="86" t="s">
@@ -22397,12 +22399,12 @@
         <f t="shared" si="2"/>
         <v>0.17322039166925707</v>
       </c>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="201"/>
-      <c r="R22" s="201"/>
-      <c r="S22" s="201"/>
-      <c r="T22" s="201"/>
+      <c r="O22" s="199"/>
+      <c r="P22" s="199"/>
+      <c r="Q22" s="199"/>
+      <c r="R22" s="199"/>
+      <c r="S22" s="199"/>
+      <c r="T22" s="199"/>
     </row>
     <row r="23" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
@@ -22448,12 +22450,12 @@
         <f t="shared" si="2"/>
         <v>0.17410953657602452</v>
       </c>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="201"/>
-      <c r="R23" s="201"/>
-      <c r="S23" s="201"/>
-      <c r="T23" s="201"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="199"/>
+      <c r="S23" s="199"/>
+      <c r="T23" s="199"/>
     </row>
     <row r="24" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="86" t="s">
@@ -22499,12 +22501,12 @@
         <f t="shared" si="2"/>
         <v>0.16644983546338105</v>
       </c>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="201"/>
-      <c r="R24" s="201"/>
-      <c r="S24" s="201"/>
-      <c r="T24" s="201"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
     </row>
     <row r="25" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -22550,12 +22552,12 @@
         <f t="shared" si="2"/>
         <v>0.16981860285604014</v>
       </c>
-      <c r="O25" s="201"/>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="201"/>
-      <c r="R25" s="201"/>
-      <c r="S25" s="201"/>
-      <c r="T25" s="201"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="199"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="199"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
@@ -22613,12 +22615,12 @@
         <f t="shared" ref="N26" si="14">AVERAGE(N16:N25)</f>
         <v>0.17014204365006269</v>
       </c>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="201"/>
-      <c r="R26" s="201"/>
-      <c r="S26" s="201"/>
-      <c r="T26" s="201"/>
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
+      <c r="T26" s="199"/>
     </row>
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="98"/>
@@ -22679,14 +22681,14 @@
         <f>K28/L28</f>
         <v>0.34557926829268293</v>
       </c>
-      <c r="O28" s="201" t="s">
+      <c r="O28" s="199" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="201"/>
-      <c r="Q28" s="201"/>
-      <c r="R28" s="201"/>
-      <c r="S28" s="201"/>
-      <c r="T28" s="201"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
+      <c r="T28" s="199"/>
     </row>
     <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
@@ -22732,12 +22734,12 @@
         <f t="shared" ref="N29:N36" si="15">K29/L29</f>
         <v>0.3282684149633629</v>
       </c>
-      <c r="O29" s="201"/>
-      <c r="P29" s="201"/>
-      <c r="Q29" s="201"/>
-      <c r="R29" s="201"/>
-      <c r="S29" s="201"/>
-      <c r="T29" s="201"/>
+      <c r="O29" s="199"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="199"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="199"/>
+      <c r="T29" s="199"/>
     </row>
     <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="86" t="s">
@@ -22783,12 +22785,12 @@
         <f t="shared" si="15"/>
         <v>0.34404263418347925</v>
       </c>
-      <c r="O30" s="201"/>
-      <c r="P30" s="201"/>
-      <c r="Q30" s="201"/>
-      <c r="R30" s="201"/>
-      <c r="S30" s="201"/>
-      <c r="T30" s="201"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
+      <c r="R30" s="199"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199"/>
     </row>
     <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="86" t="s">
@@ -22834,12 +22836,12 @@
         <f t="shared" si="15"/>
         <v>0.34176542084472805</v>
       </c>
-      <c r="O31" s="201"/>
-      <c r="P31" s="201"/>
-      <c r="Q31" s="201"/>
-      <c r="R31" s="201"/>
-      <c r="S31" s="201"/>
-      <c r="T31" s="201"/>
+      <c r="O31" s="199"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="199"/>
+      <c r="S31" s="199"/>
+      <c r="T31" s="199"/>
     </row>
     <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="86" t="s">
@@ -22885,12 +22887,12 @@
         <f t="shared" si="15"/>
         <v>0.33866976024748646</v>
       </c>
-      <c r="O32" s="201"/>
-      <c r="P32" s="201"/>
-      <c r="Q32" s="201"/>
-      <c r="R32" s="201"/>
-      <c r="S32" s="201"/>
-      <c r="T32" s="201"/>
+      <c r="O32" s="199"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="199"/>
+      <c r="R32" s="199"/>
+      <c r="S32" s="199"/>
+      <c r="T32" s="199"/>
     </row>
     <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="86" t="s">
@@ -22936,12 +22938,12 @@
         <f t="shared" si="15"/>
         <v>0.33739899374904714</v>
       </c>
-      <c r="O33" s="201"/>
-      <c r="P33" s="201"/>
-      <c r="Q33" s="201"/>
-      <c r="R33" s="201"/>
-      <c r="S33" s="201"/>
-      <c r="T33" s="201"/>
+      <c r="O33" s="199"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="199"/>
+      <c r="R33" s="199"/>
+      <c r="S33" s="199"/>
+      <c r="T33" s="199"/>
     </row>
     <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="86" t="s">
@@ -22987,12 +22989,12 @@
         <f t="shared" si="15"/>
         <v>0.33531271689673786</v>
       </c>
-      <c r="O34" s="201"/>
-      <c r="P34" s="201"/>
-      <c r="Q34" s="201"/>
-      <c r="R34" s="201"/>
-      <c r="S34" s="201"/>
-      <c r="T34" s="201"/>
+      <c r="O34" s="199"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="199"/>
+      <c r="R34" s="199"/>
+      <c r="S34" s="199"/>
+      <c r="T34" s="199"/>
     </row>
     <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="86" t="s">
@@ -23038,12 +23040,12 @@
         <f t="shared" si="15"/>
         <v>0.34502114571318726</v>
       </c>
-      <c r="O35" s="201"/>
-      <c r="P35" s="201"/>
-      <c r="Q35" s="201"/>
-      <c r="R35" s="201"/>
-      <c r="S35" s="201"/>
-      <c r="T35" s="201"/>
+      <c r="O35" s="199"/>
+      <c r="P35" s="199"/>
+      <c r="Q35" s="199"/>
+      <c r="R35" s="199"/>
+      <c r="S35" s="199"/>
+      <c r="T35" s="199"/>
     </row>
     <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="86" t="s">
@@ -23089,12 +23091,12 @@
         <f t="shared" si="15"/>
         <v>0.34201219053352394</v>
       </c>
-      <c r="O36" s="201"/>
-      <c r="P36" s="201"/>
-      <c r="Q36" s="201"/>
-      <c r="R36" s="201"/>
-      <c r="S36" s="201"/>
-      <c r="T36" s="201"/>
+      <c r="O36" s="199"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="199"/>
+      <c r="R36" s="199"/>
+      <c r="S36" s="199"/>
+      <c r="T36" s="199"/>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
@@ -23140,12 +23142,12 @@
         <f>K37/L37</f>
         <v>0.32024539877300612</v>
       </c>
-      <c r="O37" s="201"/>
-      <c r="P37" s="201"/>
-      <c r="Q37" s="201"/>
-      <c r="R37" s="201"/>
-      <c r="S37" s="201"/>
-      <c r="T37" s="201"/>
+      <c r="O37" s="199"/>
+      <c r="P37" s="199"/>
+      <c r="Q37" s="199"/>
+      <c r="R37" s="199"/>
+      <c r="S37" s="199"/>
+      <c r="T37" s="199"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="s">
@@ -23203,12 +23205,12 @@
         <f t="shared" ref="N38" si="27">AVERAGE(N28:N37)</f>
         <v>0.33783159441972421</v>
       </c>
-      <c r="O38" s="201"/>
-      <c r="P38" s="201"/>
-      <c r="Q38" s="201"/>
-      <c r="R38" s="201"/>
-      <c r="S38" s="201"/>
-      <c r="T38" s="201"/>
+      <c r="O38" s="199"/>
+      <c r="P38" s="199"/>
+      <c r="Q38" s="199"/>
+      <c r="R38" s="199"/>
+      <c r="S38" s="199"/>
+      <c r="T38" s="199"/>
     </row>
     <row r="39" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="98"/>
@@ -23269,14 +23271,14 @@
         <f t="shared" ref="N40:N49" si="28">K40/L40</f>
         <v>0.22579401788467468</v>
       </c>
-      <c r="O40" s="201" t="s">
+      <c r="O40" s="199" t="s">
         <v>178</v>
       </c>
-      <c r="P40" s="201"/>
-      <c r="Q40" s="201"/>
-      <c r="R40" s="201"/>
-      <c r="S40" s="201"/>
-      <c r="T40" s="201"/>
+      <c r="P40" s="199"/>
+      <c r="Q40" s="199"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="199"/>
+      <c r="T40" s="199"/>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
@@ -23322,12 +23324,12 @@
         <f t="shared" si="28"/>
         <v>0.23997853912776884</v>
       </c>
-      <c r="O41" s="201"/>
-      <c r="P41" s="201"/>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="201"/>
-      <c r="S41" s="201"/>
-      <c r="T41" s="201"/>
+      <c r="O41" s="199"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="199"/>
+      <c r="R41" s="199"/>
+      <c r="S41" s="199"/>
+      <c r="T41" s="199"/>
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="86" t="s">
@@ -23373,12 +23375,12 @@
         <f t="shared" si="28"/>
         <v>0.2376791599601441</v>
       </c>
-      <c r="O42" s="201"/>
-      <c r="P42" s="201"/>
-      <c r="Q42" s="201"/>
-      <c r="R42" s="201"/>
-      <c r="S42" s="201"/>
-      <c r="T42" s="201"/>
+      <c r="O42" s="199"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="199"/>
+      <c r="R42" s="199"/>
+      <c r="S42" s="199"/>
+      <c r="T42" s="199"/>
     </row>
     <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
@@ -23424,12 +23426,12 @@
         <f t="shared" si="28"/>
         <v>0.19681832154933906</v>
       </c>
-      <c r="O43" s="201"/>
-      <c r="P43" s="201"/>
-      <c r="Q43" s="201"/>
-      <c r="R43" s="201"/>
-      <c r="S43" s="201"/>
-      <c r="T43" s="201"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="199"/>
+      <c r="Q43" s="199"/>
+      <c r="R43" s="199"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="199"/>
     </row>
     <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
@@ -23475,12 +23477,12 @@
         <f t="shared" si="28"/>
         <v>0.24446851307442363</v>
       </c>
-      <c r="O44" s="201"/>
-      <c r="P44" s="201"/>
-      <c r="Q44" s="201"/>
-      <c r="R44" s="201"/>
-      <c r="S44" s="201"/>
-      <c r="T44" s="201"/>
+      <c r="O44" s="199"/>
+      <c r="P44" s="199"/>
+      <c r="Q44" s="199"/>
+      <c r="R44" s="199"/>
+      <c r="S44" s="199"/>
+      <c r="T44" s="199"/>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
@@ -23526,12 +23528,12 @@
         <f t="shared" si="28"/>
         <v>0.23399014778325122</v>
       </c>
-      <c r="O45" s="201"/>
-      <c r="P45" s="201"/>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="201"/>
-      <c r="S45" s="201"/>
-      <c r="T45" s="201"/>
+      <c r="O45" s="199"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="199"/>
+      <c r="R45" s="199"/>
+      <c r="S45" s="199"/>
+      <c r="T45" s="199"/>
     </row>
     <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86" t="s">
@@ -23577,12 +23579,12 @@
         <f t="shared" si="28"/>
         <v>0.21419884463362723</v>
       </c>
-      <c r="O46" s="201"/>
-      <c r="P46" s="201"/>
-      <c r="Q46" s="201"/>
-      <c r="R46" s="201"/>
-      <c r="S46" s="201"/>
-      <c r="T46" s="201"/>
+      <c r="O46" s="199"/>
+      <c r="P46" s="199"/>
+      <c r="Q46" s="199"/>
+      <c r="R46" s="199"/>
+      <c r="S46" s="199"/>
+      <c r="T46" s="199"/>
     </row>
     <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86" t="s">
@@ -23628,12 +23630,12 @@
         <f t="shared" si="28"/>
         <v>0.21038881204856308</v>
       </c>
-      <c r="O47" s="201"/>
-      <c r="P47" s="201"/>
-      <c r="Q47" s="201"/>
-      <c r="R47" s="201"/>
-      <c r="S47" s="201"/>
-      <c r="T47" s="201"/>
+      <c r="O47" s="199"/>
+      <c r="P47" s="199"/>
+      <c r="Q47" s="199"/>
+      <c r="R47" s="199"/>
+      <c r="S47" s="199"/>
+      <c r="T47" s="199"/>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
@@ -23679,12 +23681,12 @@
         <f t="shared" si="28"/>
         <v>0.22198424233152297</v>
       </c>
-      <c r="O48" s="201"/>
-      <c r="P48" s="201"/>
-      <c r="Q48" s="201"/>
-      <c r="R48" s="201"/>
-      <c r="S48" s="201"/>
-      <c r="T48" s="201"/>
+      <c r="O48" s="199"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="199"/>
+      <c r="R48" s="199"/>
+      <c r="S48" s="199"/>
+      <c r="T48" s="199"/>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86" t="s">
@@ -23730,12 +23732,12 @@
         <f t="shared" si="28"/>
         <v>0.23042386424168632</v>
       </c>
-      <c r="O49" s="201"/>
-      <c r="P49" s="201"/>
-      <c r="Q49" s="201"/>
-      <c r="R49" s="201"/>
-      <c r="S49" s="201"/>
-      <c r="T49" s="201"/>
+      <c r="O49" s="199"/>
+      <c r="P49" s="199"/>
+      <c r="Q49" s="199"/>
+      <c r="R49" s="199"/>
+      <c r="S49" s="199"/>
+      <c r="T49" s="199"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="91" t="s">
@@ -23793,12 +23795,12 @@
         <f t="shared" ref="N50" si="40">AVERAGE(N40:N49)</f>
         <v>0.22557244626350009</v>
       </c>
-      <c r="O50" s="201"/>
-      <c r="P50" s="201"/>
-      <c r="Q50" s="201"/>
-      <c r="R50" s="201"/>
-      <c r="S50" s="201"/>
-      <c r="T50" s="201"/>
+      <c r="O50" s="199"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="199"/>
+      <c r="R50" s="199"/>
+      <c r="S50" s="199"/>
+      <c r="T50" s="199"/>
     </row>
     <row r="51" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="98"/>
@@ -23859,14 +23861,14 @@
         <f t="shared" ref="N52:N61" si="41">K52/L52</f>
         <v>0.17494407158836689</v>
       </c>
-      <c r="O52" s="201" t="s">
+      <c r="O52" s="199" t="s">
         <v>181</v>
       </c>
-      <c r="P52" s="201"/>
-      <c r="Q52" s="201"/>
-      <c r="R52" s="201"/>
-      <c r="S52" s="201"/>
-      <c r="T52" s="201"/>
+      <c r="P52" s="199"/>
+      <c r="Q52" s="199"/>
+      <c r="R52" s="199"/>
+      <c r="S52" s="199"/>
+      <c r="T52" s="199"/>
     </row>
     <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
@@ -23912,12 +23914,12 @@
         <f t="shared" si="41"/>
         <v>0.16611244296651459</v>
       </c>
-      <c r="O53" s="201"/>
-      <c r="P53" s="201"/>
-      <c r="Q53" s="201"/>
-      <c r="R53" s="201"/>
-      <c r="S53" s="201"/>
-      <c r="T53" s="201"/>
+      <c r="O53" s="199"/>
+      <c r="P53" s="199"/>
+      <c r="Q53" s="199"/>
+      <c r="R53" s="199"/>
+      <c r="S53" s="199"/>
+      <c r="T53" s="199"/>
     </row>
     <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
@@ -23963,12 +23965,12 @@
         <f t="shared" si="41"/>
         <v>0.16603111653447225</v>
       </c>
-      <c r="O54" s="201"/>
-      <c r="P54" s="201"/>
-      <c r="Q54" s="201"/>
-      <c r="R54" s="201"/>
-      <c r="S54" s="201"/>
-      <c r="T54" s="201"/>
+      <c r="O54" s="199"/>
+      <c r="P54" s="199"/>
+      <c r="Q54" s="199"/>
+      <c r="R54" s="199"/>
+      <c r="S54" s="199"/>
+      <c r="T54" s="199"/>
     </row>
     <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
@@ -24014,12 +24016,12 @@
         <f t="shared" si="41"/>
         <v>0.16517925834743807</v>
       </c>
-      <c r="O55" s="201"/>
-      <c r="P55" s="201"/>
-      <c r="Q55" s="201"/>
-      <c r="R55" s="201"/>
-      <c r="S55" s="201"/>
-      <c r="T55" s="201"/>
+      <c r="O55" s="199"/>
+      <c r="P55" s="199"/>
+      <c r="Q55" s="199"/>
+      <c r="R55" s="199"/>
+      <c r="S55" s="199"/>
+      <c r="T55" s="199"/>
     </row>
     <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
@@ -24065,12 +24067,12 @@
         <f t="shared" si="41"/>
         <v>0.17454685692248362</v>
       </c>
-      <c r="O56" s="201"/>
-      <c r="P56" s="201"/>
-      <c r="Q56" s="201"/>
-      <c r="R56" s="201"/>
-      <c r="S56" s="201"/>
-      <c r="T56" s="201"/>
+      <c r="O56" s="199"/>
+      <c r="P56" s="199"/>
+      <c r="Q56" s="199"/>
+      <c r="R56" s="199"/>
+      <c r="S56" s="199"/>
+      <c r="T56" s="199"/>
     </row>
     <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
@@ -24116,12 +24118,12 @@
         <f t="shared" si="41"/>
         <v>0.16843067082920887</v>
       </c>
-      <c r="O57" s="201"/>
-      <c r="P57" s="201"/>
-      <c r="Q57" s="201"/>
-      <c r="R57" s="201"/>
-      <c r="S57" s="201"/>
-      <c r="T57" s="201"/>
+      <c r="O57" s="199"/>
+      <c r="P57" s="199"/>
+      <c r="Q57" s="199"/>
+      <c r="R57" s="199"/>
+      <c r="S57" s="199"/>
+      <c r="T57" s="199"/>
     </row>
     <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86" t="s">
@@ -24167,12 +24169,12 @@
         <f t="shared" si="41"/>
         <v>0.17035946699721102</v>
       </c>
-      <c r="O58" s="201"/>
-      <c r="P58" s="201"/>
-      <c r="Q58" s="201"/>
-      <c r="R58" s="201"/>
-      <c r="S58" s="201"/>
-      <c r="T58" s="201"/>
+      <c r="O58" s="199"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="199"/>
+      <c r="R58" s="199"/>
+      <c r="S58" s="199"/>
+      <c r="T58" s="199"/>
     </row>
     <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86" t="s">
@@ -24218,12 +24220,12 @@
         <f t="shared" si="41"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="O59" s="201"/>
-      <c r="P59" s="201"/>
-      <c r="Q59" s="201"/>
-      <c r="R59" s="201"/>
-      <c r="S59" s="201"/>
-      <c r="T59" s="201"/>
+      <c r="O59" s="199"/>
+      <c r="P59" s="199"/>
+      <c r="Q59" s="199"/>
+      <c r="R59" s="199"/>
+      <c r="S59" s="199"/>
+      <c r="T59" s="199"/>
     </row>
     <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
@@ -24269,12 +24271,12 @@
         <f t="shared" si="41"/>
         <v>0.1748257164988381</v>
       </c>
-      <c r="O60" s="201"/>
-      <c r="P60" s="201"/>
-      <c r="Q60" s="201"/>
-      <c r="R60" s="201"/>
-      <c r="S60" s="201"/>
-      <c r="T60" s="201"/>
+      <c r="O60" s="199"/>
+      <c r="P60" s="199"/>
+      <c r="Q60" s="199"/>
+      <c r="R60" s="199"/>
+      <c r="S60" s="199"/>
+      <c r="T60" s="199"/>
     </row>
     <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="86" t="s">
@@ -24320,12 +24322,12 @@
         <f t="shared" si="41"/>
         <v>0.17063644022363483</v>
       </c>
-      <c r="O61" s="201"/>
-      <c r="P61" s="201"/>
-      <c r="Q61" s="201"/>
-      <c r="R61" s="201"/>
-      <c r="S61" s="201"/>
-      <c r="T61" s="201"/>
+      <c r="O61" s="199"/>
+      <c r="P61" s="199"/>
+      <c r="Q61" s="199"/>
+      <c r="R61" s="199"/>
+      <c r="S61" s="199"/>
+      <c r="T61" s="199"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
@@ -24383,12 +24385,12 @@
         <f t="shared" ref="N62" si="53">AVERAGE(N52:N61)</f>
         <v>0.17024946123367396</v>
       </c>
-      <c r="O62" s="201"/>
-      <c r="P62" s="201"/>
-      <c r="Q62" s="201"/>
-      <c r="R62" s="201"/>
-      <c r="S62" s="201"/>
-      <c r="T62" s="201"/>
+      <c r="O62" s="199"/>
+      <c r="P62" s="199"/>
+      <c r="Q62" s="199"/>
+      <c r="R62" s="199"/>
+      <c r="S62" s="199"/>
+      <c r="T62" s="199"/>
     </row>
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="98"/>
@@ -24448,14 +24450,14 @@
       <c r="N64" s="94">
         <v>0.17094479665996598</v>
       </c>
-      <c r="O64" s="201" t="s">
+      <c r="O64" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="P64" s="201"/>
-      <c r="Q64" s="201"/>
-      <c r="R64" s="201"/>
-      <c r="S64" s="201"/>
-      <c r="T64" s="201"/>
+      <c r="P64" s="199"/>
+      <c r="Q64" s="199"/>
+      <c r="R64" s="199"/>
+      <c r="S64" s="199"/>
+      <c r="T64" s="199"/>
     </row>
     <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
@@ -24500,12 +24502,12 @@
       <c r="N65" s="94">
         <v>0.16858001386855689</v>
       </c>
-      <c r="O65" s="201"/>
-      <c r="P65" s="201"/>
-      <c r="Q65" s="201"/>
-      <c r="R65" s="201"/>
-      <c r="S65" s="201"/>
-      <c r="T65" s="201"/>
+      <c r="O65" s="199"/>
+      <c r="P65" s="199"/>
+      <c r="Q65" s="199"/>
+      <c r="R65" s="199"/>
+      <c r="S65" s="199"/>
+      <c r="T65" s="199"/>
     </row>
     <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
@@ -24550,12 +24552,12 @@
       <c r="N66" s="94">
         <v>0.16836149552718097</v>
       </c>
-      <c r="O66" s="201"/>
-      <c r="P66" s="201"/>
-      <c r="Q66" s="201"/>
-      <c r="R66" s="201"/>
-      <c r="S66" s="201"/>
-      <c r="T66" s="201"/>
+      <c r="O66" s="199"/>
+      <c r="P66" s="199"/>
+      <c r="Q66" s="199"/>
+      <c r="R66" s="199"/>
+      <c r="S66" s="199"/>
+      <c r="T66" s="199"/>
     </row>
     <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
@@ -24600,12 +24602,12 @@
       <c r="N67" s="94">
         <v>0.16985921993999539</v>
       </c>
-      <c r="O67" s="201"/>
-      <c r="P67" s="201"/>
-      <c r="Q67" s="201"/>
-      <c r="R67" s="201"/>
-      <c r="S67" s="201"/>
-      <c r="T67" s="201"/>
+      <c r="O67" s="199"/>
+      <c r="P67" s="199"/>
+      <c r="Q67" s="199"/>
+      <c r="R67" s="199"/>
+      <c r="S67" s="199"/>
+      <c r="T67" s="199"/>
     </row>
     <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
@@ -24650,12 +24652,12 @@
       <c r="N68" s="94">
         <v>0.16540773855403115</v>
       </c>
-      <c r="O68" s="201"/>
-      <c r="P68" s="201"/>
-      <c r="Q68" s="201"/>
-      <c r="R68" s="201"/>
-      <c r="S68" s="201"/>
-      <c r="T68" s="201"/>
+      <c r="O68" s="199"/>
+      <c r="P68" s="199"/>
+      <c r="Q68" s="199"/>
+      <c r="R68" s="199"/>
+      <c r="S68" s="199"/>
+      <c r="T68" s="199"/>
     </row>
     <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="86" t="s">
@@ -24700,12 +24702,12 @@
       <c r="N69" s="94">
         <v>0.17533628800248816</v>
       </c>
-      <c r="O69" s="201"/>
-      <c r="P69" s="201"/>
-      <c r="Q69" s="201"/>
-      <c r="R69" s="201"/>
-      <c r="S69" s="201"/>
-      <c r="T69" s="201"/>
+      <c r="O69" s="199"/>
+      <c r="P69" s="199"/>
+      <c r="Q69" s="199"/>
+      <c r="R69" s="199"/>
+      <c r="S69" s="199"/>
+      <c r="T69" s="199"/>
     </row>
     <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="86" t="s">
@@ -24750,12 +24752,12 @@
       <c r="N70" s="94">
         <v>0.1720009210223348</v>
       </c>
-      <c r="O70" s="201"/>
-      <c r="P70" s="201"/>
-      <c r="Q70" s="201"/>
-      <c r="R70" s="201"/>
-      <c r="S70" s="201"/>
-      <c r="T70" s="201"/>
+      <c r="O70" s="199"/>
+      <c r="P70" s="199"/>
+      <c r="Q70" s="199"/>
+      <c r="R70" s="199"/>
+      <c r="S70" s="199"/>
+      <c r="T70" s="199"/>
     </row>
     <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="86" t="s">
@@ -24800,12 +24802,12 @@
       <c r="N71" s="94">
         <v>0.16873584758335286</v>
       </c>
-      <c r="O71" s="201"/>
-      <c r="P71" s="201"/>
-      <c r="Q71" s="201"/>
-      <c r="R71" s="201"/>
-      <c r="S71" s="201"/>
-      <c r="T71" s="201"/>
+      <c r="O71" s="199"/>
+      <c r="P71" s="199"/>
+      <c r="Q71" s="199"/>
+      <c r="R71" s="199"/>
+      <c r="S71" s="199"/>
+      <c r="T71" s="199"/>
     </row>
     <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="86" t="s">
@@ -24850,12 +24852,12 @@
       <c r="N72" s="94">
         <v>0.17574102964118565</v>
       </c>
-      <c r="O72" s="201"/>
-      <c r="P72" s="201"/>
-      <c r="Q72" s="201"/>
-      <c r="R72" s="201"/>
-      <c r="S72" s="201"/>
-      <c r="T72" s="201"/>
+      <c r="O72" s="199"/>
+      <c r="P72" s="199"/>
+      <c r="Q72" s="199"/>
+      <c r="R72" s="199"/>
+      <c r="S72" s="199"/>
+      <c r="T72" s="199"/>
     </row>
     <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="86" t="s">
@@ -24900,12 +24902,12 @@
       <c r="N73" s="94">
         <v>0.17359730927992661</v>
       </c>
-      <c r="O73" s="201"/>
-      <c r="P73" s="201"/>
-      <c r="Q73" s="201"/>
-      <c r="R73" s="201"/>
-      <c r="S73" s="201"/>
-      <c r="T73" s="201"/>
+      <c r="O73" s="199"/>
+      <c r="P73" s="199"/>
+      <c r="Q73" s="199"/>
+      <c r="R73" s="199"/>
+      <c r="S73" s="199"/>
+      <c r="T73" s="199"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="91" t="s">
@@ -24963,12 +24965,12 @@
         <f t="shared" ref="N74" si="65">AVERAGE(N64:N73)</f>
         <v>0.17085646600790186</v>
       </c>
-      <c r="O74" s="201"/>
-      <c r="P74" s="201"/>
-      <c r="Q74" s="201"/>
-      <c r="R74" s="201"/>
-      <c r="S74" s="201"/>
-      <c r="T74" s="201"/>
+      <c r="O74" s="199"/>
+      <c r="P74" s="199"/>
+      <c r="Q74" s="199"/>
+      <c r="R74" s="199"/>
+      <c r="S74" s="199"/>
+      <c r="T74" s="199"/>
     </row>
     <row r="75" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="98"/>
@@ -25028,14 +25030,14 @@
       <c r="N76" s="94">
         <v>0.34329044117647056</v>
       </c>
-      <c r="O76" s="201" t="s">
+      <c r="O76" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="P76" s="201"/>
-      <c r="Q76" s="201"/>
-      <c r="R76" s="201"/>
-      <c r="S76" s="201"/>
-      <c r="T76" s="201"/>
+      <c r="P76" s="199"/>
+      <c r="Q76" s="199"/>
+      <c r="R76" s="199"/>
+      <c r="S76" s="199"/>
+      <c r="T76" s="199"/>
     </row>
     <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="86" t="s">
@@ -25080,12 +25082,12 @@
       <c r="N77" s="94">
         <v>0.34105068840858394</v>
       </c>
-      <c r="O77" s="201"/>
-      <c r="P77" s="201"/>
-      <c r="Q77" s="201"/>
-      <c r="R77" s="201"/>
-      <c r="S77" s="201"/>
-      <c r="T77" s="201"/>
+      <c r="O77" s="199"/>
+      <c r="P77" s="199"/>
+      <c r="Q77" s="199"/>
+      <c r="R77" s="199"/>
+      <c r="S77" s="199"/>
+      <c r="T77" s="199"/>
     </row>
     <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="86" t="s">
@@ -25130,12 +25132,12 @@
       <c r="N78" s="94">
         <v>0.34692788534837626</v>
       </c>
-      <c r="O78" s="201"/>
-      <c r="P78" s="201"/>
-      <c r="Q78" s="201"/>
-      <c r="R78" s="201"/>
-      <c r="S78" s="201"/>
-      <c r="T78" s="201"/>
+      <c r="O78" s="199"/>
+      <c r="P78" s="199"/>
+      <c r="Q78" s="199"/>
+      <c r="R78" s="199"/>
+      <c r="S78" s="199"/>
+      <c r="T78" s="199"/>
     </row>
     <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="86" t="s">
@@ -25180,12 +25182,12 @@
       <c r="N79" s="94">
         <v>0.34155655693882225</v>
       </c>
-      <c r="O79" s="201"/>
-      <c r="P79" s="201"/>
-      <c r="Q79" s="201"/>
-      <c r="R79" s="201"/>
-      <c r="S79" s="201"/>
-      <c r="T79" s="201"/>
+      <c r="O79" s="199"/>
+      <c r="P79" s="199"/>
+      <c r="Q79" s="199"/>
+      <c r="R79" s="199"/>
+      <c r="S79" s="199"/>
+      <c r="T79" s="199"/>
     </row>
     <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="86" t="s">
@@ -25230,12 +25232,12 @@
       <c r="N80" s="94">
         <v>0.35245394023842702</v>
       </c>
-      <c r="O80" s="201"/>
-      <c r="P80" s="201"/>
-      <c r="Q80" s="201"/>
-      <c r="R80" s="201"/>
-      <c r="S80" s="201"/>
-      <c r="T80" s="201"/>
+      <c r="O80" s="199"/>
+      <c r="P80" s="199"/>
+      <c r="Q80" s="199"/>
+      <c r="R80" s="199"/>
+      <c r="S80" s="199"/>
+      <c r="T80" s="199"/>
     </row>
     <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="86" t="s">
@@ -25280,12 +25282,12 @@
       <c r="N81" s="94">
         <v>0.34468706750730432</v>
       </c>
-      <c r="O81" s="201"/>
-      <c r="P81" s="201"/>
-      <c r="Q81" s="201"/>
-      <c r="R81" s="201"/>
-      <c r="S81" s="201"/>
-      <c r="T81" s="201"/>
+      <c r="O81" s="199"/>
+      <c r="P81" s="199"/>
+      <c r="Q81" s="199"/>
+      <c r="R81" s="199"/>
+      <c r="S81" s="199"/>
+      <c r="T81" s="199"/>
     </row>
     <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="86" t="s">
@@ -25330,12 +25332,12 @@
       <c r="N82" s="94">
         <v>0.34538751176655164</v>
       </c>
-      <c r="O82" s="201"/>
-      <c r="P82" s="201"/>
-      <c r="Q82" s="201"/>
-      <c r="R82" s="201"/>
-      <c r="S82" s="201"/>
-      <c r="T82" s="201"/>
+      <c r="O82" s="199"/>
+      <c r="P82" s="199"/>
+      <c r="Q82" s="199"/>
+      <c r="R82" s="199"/>
+      <c r="S82" s="199"/>
+      <c r="T82" s="199"/>
     </row>
     <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="86" t="s">
@@ -25380,12 +25382,12 @@
       <c r="N83" s="94">
         <v>0.33976684937852236</v>
       </c>
-      <c r="O83" s="201"/>
-      <c r="P83" s="201"/>
-      <c r="Q83" s="201"/>
-      <c r="R83" s="201"/>
-      <c r="S83" s="201"/>
-      <c r="T83" s="201"/>
+      <c r="O83" s="199"/>
+      <c r="P83" s="199"/>
+      <c r="Q83" s="199"/>
+      <c r="R83" s="199"/>
+      <c r="S83" s="199"/>
+      <c r="T83" s="199"/>
     </row>
     <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="86" t="s">
@@ -25430,12 +25432,12 @@
       <c r="N84" s="94">
         <v>0.33929526866926546</v>
       </c>
-      <c r="O84" s="201"/>
-      <c r="P84" s="201"/>
-      <c r="Q84" s="201"/>
-      <c r="R84" s="201"/>
-      <c r="S84" s="201"/>
-      <c r="T84" s="201"/>
+      <c r="O84" s="199"/>
+      <c r="P84" s="199"/>
+      <c r="Q84" s="199"/>
+      <c r="R84" s="199"/>
+      <c r="S84" s="199"/>
+      <c r="T84" s="199"/>
     </row>
     <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="86" t="s">
@@ -25480,12 +25482,12 @@
       <c r="N85" s="94">
         <v>0.33399632802937579</v>
       </c>
-      <c r="O85" s="201"/>
-      <c r="P85" s="201"/>
-      <c r="Q85" s="201"/>
-      <c r="R85" s="201"/>
-      <c r="S85" s="201"/>
-      <c r="T85" s="201"/>
+      <c r="O85" s="199"/>
+      <c r="P85" s="199"/>
+      <c r="Q85" s="199"/>
+      <c r="R85" s="199"/>
+      <c r="S85" s="199"/>
+      <c r="T85" s="199"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="91" t="s">
@@ -25543,12 +25545,12 @@
         <f t="shared" ref="N86" si="77">AVERAGE(N76:N85)</f>
         <v>0.34284125374616992</v>
       </c>
-      <c r="O86" s="201"/>
-      <c r="P86" s="201"/>
-      <c r="Q86" s="201"/>
-      <c r="R86" s="201"/>
-      <c r="S86" s="201"/>
-      <c r="T86" s="201"/>
+      <c r="O86" s="199"/>
+      <c r="P86" s="199"/>
+      <c r="Q86" s="199"/>
+      <c r="R86" s="199"/>
+      <c r="S86" s="199"/>
+      <c r="T86" s="199"/>
     </row>
     <row r="87" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="98"/>
@@ -25609,14 +25611,14 @@
         <f t="shared" ref="N88:N97" si="78">K88/L88</f>
         <v>0.22945286129209513</v>
       </c>
-      <c r="O88" s="201" t="s">
+      <c r="O88" s="199" t="s">
         <v>190</v>
       </c>
-      <c r="P88" s="201"/>
-      <c r="Q88" s="201"/>
-      <c r="R88" s="201"/>
-      <c r="S88" s="201"/>
-      <c r="T88" s="201"/>
+      <c r="P88" s="199"/>
+      <c r="Q88" s="199"/>
+      <c r="R88" s="199"/>
+      <c r="S88" s="199"/>
+      <c r="T88" s="199"/>
     </row>
     <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="86" t="s">
@@ -25662,12 +25664,12 @@
         <f t="shared" si="78"/>
         <v>0.23350953803723282</v>
       </c>
-      <c r="O89" s="201"/>
-      <c r="P89" s="201"/>
-      <c r="Q89" s="201"/>
-      <c r="R89" s="201"/>
-      <c r="S89" s="201"/>
-      <c r="T89" s="201"/>
+      <c r="O89" s="199"/>
+      <c r="P89" s="199"/>
+      <c r="Q89" s="199"/>
+      <c r="R89" s="199"/>
+      <c r="S89" s="199"/>
+      <c r="T89" s="199"/>
     </row>
     <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="86" t="s">
@@ -25713,12 +25715,12 @@
         <f t="shared" si="78"/>
         <v>0.23115193264446995</v>
       </c>
-      <c r="O90" s="201"/>
-      <c r="P90" s="201"/>
-      <c r="Q90" s="201"/>
-      <c r="R90" s="201"/>
-      <c r="S90" s="201"/>
-      <c r="T90" s="201"/>
+      <c r="O90" s="199"/>
+      <c r="P90" s="199"/>
+      <c r="Q90" s="199"/>
+      <c r="R90" s="199"/>
+      <c r="S90" s="199"/>
+      <c r="T90" s="199"/>
     </row>
     <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="86" t="s">
@@ -25764,12 +25766,12 @@
         <f t="shared" si="78"/>
         <v>0.23003170768533898</v>
       </c>
-      <c r="O91" s="201"/>
-      <c r="P91" s="201"/>
-      <c r="Q91" s="201"/>
-      <c r="R91" s="201"/>
-      <c r="S91" s="201"/>
-      <c r="T91" s="201"/>
+      <c r="O91" s="199"/>
+      <c r="P91" s="199"/>
+      <c r="Q91" s="199"/>
+      <c r="R91" s="199"/>
+      <c r="S91" s="199"/>
+      <c r="T91" s="199"/>
     </row>
     <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="86" t="s">
@@ -25815,12 +25817,12 @@
         <f t="shared" si="78"/>
         <v>0.21492696287279367</v>
       </c>
-      <c r="O92" s="201"/>
-      <c r="P92" s="201"/>
-      <c r="Q92" s="201"/>
-      <c r="R92" s="201"/>
-      <c r="S92" s="201"/>
-      <c r="T92" s="201"/>
+      <c r="O92" s="199"/>
+      <c r="P92" s="199"/>
+      <c r="Q92" s="199"/>
+      <c r="R92" s="199"/>
+      <c r="S92" s="199"/>
+      <c r="T92" s="199"/>
     </row>
     <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="86" t="s">
@@ -25866,12 +25868,12 @@
         <f t="shared" si="78"/>
         <v>0.23276529821843533</v>
       </c>
-      <c r="O93" s="201"/>
-      <c r="P93" s="201"/>
-      <c r="Q93" s="201"/>
-      <c r="R93" s="201"/>
-      <c r="S93" s="201"/>
-      <c r="T93" s="201"/>
+      <c r="O93" s="199"/>
+      <c r="P93" s="199"/>
+      <c r="Q93" s="199"/>
+      <c r="R93" s="199"/>
+      <c r="S93" s="199"/>
+      <c r="T93" s="199"/>
     </row>
     <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="86" t="s">
@@ -25917,12 +25919,12 @@
         <f t="shared" si="78"/>
         <v>0.22459686752565389</v>
       </c>
-      <c r="O94" s="201"/>
-      <c r="P94" s="201"/>
-      <c r="Q94" s="201"/>
-      <c r="R94" s="201"/>
-      <c r="S94" s="201"/>
-      <c r="T94" s="201"/>
+      <c r="O94" s="199"/>
+      <c r="P94" s="199"/>
+      <c r="Q94" s="199"/>
+      <c r="R94" s="199"/>
+      <c r="S94" s="199"/>
+      <c r="T94" s="199"/>
     </row>
     <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="86" t="s">
@@ -25968,12 +25970,12 @@
         <f t="shared" si="78"/>
         <v>0.23970326868093655</v>
       </c>
-      <c r="O95" s="201"/>
-      <c r="P95" s="201"/>
-      <c r="Q95" s="201"/>
-      <c r="R95" s="201"/>
-      <c r="S95" s="201"/>
-      <c r="T95" s="201"/>
+      <c r="O95" s="199"/>
+      <c r="P95" s="199"/>
+      <c r="Q95" s="199"/>
+      <c r="R95" s="199"/>
+      <c r="S95" s="199"/>
+      <c r="T95" s="199"/>
     </row>
     <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="86" t="s">
@@ -26019,12 +26021,12 @@
         <f t="shared" si="78"/>
         <v>0.22133476691498349</v>
       </c>
-      <c r="O96" s="201"/>
-      <c r="P96" s="201"/>
-      <c r="Q96" s="201"/>
-      <c r="R96" s="201"/>
-      <c r="S96" s="201"/>
-      <c r="T96" s="201"/>
+      <c r="O96" s="199"/>
+      <c r="P96" s="199"/>
+      <c r="Q96" s="199"/>
+      <c r="R96" s="199"/>
+      <c r="S96" s="199"/>
+      <c r="T96" s="199"/>
     </row>
     <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="86" t="s">
@@ -26070,12 +26072,12 @@
         <f t="shared" si="78"/>
         <v>0.2421839255757206</v>
       </c>
-      <c r="O97" s="201"/>
-      <c r="P97" s="201"/>
-      <c r="Q97" s="201"/>
-      <c r="R97" s="201"/>
-      <c r="S97" s="201"/>
-      <c r="T97" s="201"/>
+      <c r="O97" s="199"/>
+      <c r="P97" s="199"/>
+      <c r="Q97" s="199"/>
+      <c r="R97" s="199"/>
+      <c r="S97" s="199"/>
+      <c r="T97" s="199"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="91" t="s">
@@ -26133,12 +26135,12 @@
         <f t="shared" ref="N98" si="90">AVERAGE(N88:N97)</f>
         <v>0.22996571294476609</v>
       </c>
-      <c r="O98" s="201"/>
-      <c r="P98" s="201"/>
-      <c r="Q98" s="201"/>
-      <c r="R98" s="201"/>
-      <c r="S98" s="201"/>
-      <c r="T98" s="201"/>
+      <c r="O98" s="199"/>
+      <c r="P98" s="199"/>
+      <c r="Q98" s="199"/>
+      <c r="R98" s="199"/>
+      <c r="S98" s="199"/>
+      <c r="T98" s="199"/>
     </row>
     <row r="99" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="98"/>
@@ -26198,14 +26200,14 @@
       <c r="N100" s="94">
         <v>0.17289827255278312</v>
       </c>
-      <c r="O100" s="201" t="s">
+      <c r="O100" s="199" t="s">
         <v>191</v>
       </c>
-      <c r="P100" s="201"/>
-      <c r="Q100" s="201"/>
-      <c r="R100" s="201"/>
-      <c r="S100" s="201"/>
-      <c r="T100" s="201"/>
+      <c r="P100" s="199"/>
+      <c r="Q100" s="199"/>
+      <c r="R100" s="199"/>
+      <c r="S100" s="199"/>
+      <c r="T100" s="199"/>
     </row>
     <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="86" t="s">
@@ -26250,12 +26252,12 @@
       <c r="N101" s="94">
         <v>0.17448736656170802</v>
       </c>
-      <c r="O101" s="201"/>
-      <c r="P101" s="201"/>
-      <c r="Q101" s="201"/>
-      <c r="R101" s="201"/>
-      <c r="S101" s="201"/>
-      <c r="T101" s="201"/>
+      <c r="O101" s="199"/>
+      <c r="P101" s="199"/>
+      <c r="Q101" s="199"/>
+      <c r="R101" s="199"/>
+      <c r="S101" s="199"/>
+      <c r="T101" s="199"/>
     </row>
     <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="86" t="s">
@@ -26300,12 +26302,12 @@
       <c r="N102" s="94">
         <v>0.17573092648306718</v>
       </c>
-      <c r="O102" s="201"/>
-      <c r="P102" s="201"/>
-      <c r="Q102" s="201"/>
-      <c r="R102" s="201"/>
-      <c r="S102" s="201"/>
-      <c r="T102" s="201"/>
+      <c r="O102" s="199"/>
+      <c r="P102" s="199"/>
+      <c r="Q102" s="199"/>
+      <c r="R102" s="199"/>
+      <c r="S102" s="199"/>
+      <c r="T102" s="199"/>
     </row>
     <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="86" t="s">
@@ -26350,12 +26352,12 @@
       <c r="N103" s="94">
         <v>0.177677949035706</v>
       </c>
-      <c r="O103" s="201"/>
-      <c r="P103" s="201"/>
-      <c r="Q103" s="201"/>
-      <c r="R103" s="201"/>
-      <c r="S103" s="201"/>
-      <c r="T103" s="201"/>
+      <c r="O103" s="199"/>
+      <c r="P103" s="199"/>
+      <c r="Q103" s="199"/>
+      <c r="R103" s="199"/>
+      <c r="S103" s="199"/>
+      <c r="T103" s="199"/>
     </row>
     <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="86" t="s">
@@ -26400,12 +26402,12 @@
       <c r="N104" s="94">
         <v>0.17764932562620425</v>
       </c>
-      <c r="O104" s="201"/>
-      <c r="P104" s="201"/>
-      <c r="Q104" s="201"/>
-      <c r="R104" s="201"/>
-      <c r="S104" s="201"/>
-      <c r="T104" s="201"/>
+      <c r="O104" s="199"/>
+      <c r="P104" s="199"/>
+      <c r="Q104" s="199"/>
+      <c r="R104" s="199"/>
+      <c r="S104" s="199"/>
+      <c r="T104" s="199"/>
     </row>
     <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="86" t="s">
@@ -26450,12 +26452,12 @@
       <c r="N105" s="94">
         <v>0.17298124760811329</v>
       </c>
-      <c r="O105" s="201"/>
-      <c r="P105" s="201"/>
-      <c r="Q105" s="201"/>
-      <c r="R105" s="201"/>
-      <c r="S105" s="201"/>
-      <c r="T105" s="201"/>
+      <c r="O105" s="199"/>
+      <c r="P105" s="199"/>
+      <c r="Q105" s="199"/>
+      <c r="R105" s="199"/>
+      <c r="S105" s="199"/>
+      <c r="T105" s="199"/>
     </row>
     <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="86" t="s">
@@ -26500,12 +26502,12 @@
       <c r="N106" s="94">
         <v>0.17508941066708134</v>
       </c>
-      <c r="O106" s="201"/>
-      <c r="P106" s="201"/>
-      <c r="Q106" s="201"/>
-      <c r="R106" s="201"/>
-      <c r="S106" s="201"/>
-      <c r="T106" s="201"/>
+      <c r="O106" s="199"/>
+      <c r="P106" s="199"/>
+      <c r="Q106" s="199"/>
+      <c r="R106" s="199"/>
+      <c r="S106" s="199"/>
+      <c r="T106" s="199"/>
     </row>
     <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="86" t="s">
@@ -26550,12 +26552,12 @@
       <c r="N107" s="94">
         <v>0.17483262325015217</v>
       </c>
-      <c r="O107" s="201"/>
-      <c r="P107" s="201"/>
-      <c r="Q107" s="201"/>
-      <c r="R107" s="201"/>
-      <c r="S107" s="201"/>
-      <c r="T107" s="201"/>
+      <c r="O107" s="199"/>
+      <c r="P107" s="199"/>
+      <c r="Q107" s="199"/>
+      <c r="R107" s="199"/>
+      <c r="S107" s="199"/>
+      <c r="T107" s="199"/>
     </row>
     <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="86" t="s">
@@ -26600,12 +26602,12 @@
       <c r="N108" s="94">
         <v>0.17444050938135786</v>
       </c>
-      <c r="O108" s="201"/>
-      <c r="P108" s="201"/>
-      <c r="Q108" s="201"/>
-      <c r="R108" s="201"/>
-      <c r="S108" s="201"/>
-      <c r="T108" s="201"/>
+      <c r="O108" s="199"/>
+      <c r="P108" s="199"/>
+      <c r="Q108" s="199"/>
+      <c r="R108" s="199"/>
+      <c r="S108" s="199"/>
+      <c r="T108" s="199"/>
     </row>
     <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="86" t="s">
@@ -26650,12 +26652,12 @@
       <c r="N109" s="94">
         <v>0.16989396035039189</v>
       </c>
-      <c r="O109" s="201"/>
-      <c r="P109" s="201"/>
-      <c r="Q109" s="201"/>
-      <c r="R109" s="201"/>
-      <c r="S109" s="201"/>
-      <c r="T109" s="201"/>
+      <c r="O109" s="199"/>
+      <c r="P109" s="199"/>
+      <c r="Q109" s="199"/>
+      <c r="R109" s="199"/>
+      <c r="S109" s="199"/>
+      <c r="T109" s="199"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="91" t="s">
@@ -26713,12 +26715,12 @@
         <f t="shared" ref="N110" si="102">AVERAGE(N100:N109)</f>
         <v>0.17456815915165652</v>
       </c>
-      <c r="O110" s="201"/>
-      <c r="P110" s="201"/>
-      <c r="Q110" s="201"/>
-      <c r="R110" s="201"/>
-      <c r="S110" s="201"/>
-      <c r="T110" s="201"/>
+      <c r="O110" s="199"/>
+      <c r="P110" s="199"/>
+      <c r="Q110" s="199"/>
+      <c r="R110" s="199"/>
+      <c r="S110" s="199"/>
+      <c r="T110" s="199"/>
     </row>
     <row r="111" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="98"/>
@@ -26778,14 +26780,14 @@
       <c r="N112" s="94">
         <v>0.17537800291657071</v>
       </c>
-      <c r="O112" s="201" t="s">
+      <c r="O112" s="199" t="s">
         <v>192</v>
       </c>
-      <c r="P112" s="201"/>
-      <c r="Q112" s="201"/>
-      <c r="R112" s="201"/>
-      <c r="S112" s="201"/>
-      <c r="T112" s="201"/>
+      <c r="P112" s="199"/>
+      <c r="Q112" s="199"/>
+      <c r="R112" s="199"/>
+      <c r="S112" s="199"/>
+      <c r="T112" s="199"/>
     </row>
     <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="86" t="s">
@@ -26830,12 +26832,12 @@
       <c r="N113" s="94">
         <v>0.17761576049018848</v>
       </c>
-      <c r="O113" s="201"/>
-      <c r="P113" s="201"/>
-      <c r="Q113" s="201"/>
-      <c r="R113" s="201"/>
-      <c r="S113" s="201"/>
-      <c r="T113" s="201"/>
+      <c r="O113" s="199"/>
+      <c r="P113" s="199"/>
+      <c r="Q113" s="199"/>
+      <c r="R113" s="199"/>
+      <c r="S113" s="199"/>
+      <c r="T113" s="199"/>
     </row>
     <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="86" t="s">
@@ -26880,12 +26882,12 @@
       <c r="N114" s="94">
         <v>0.17222222222222222</v>
       </c>
-      <c r="O114" s="201"/>
-      <c r="P114" s="201"/>
-      <c r="Q114" s="201"/>
-      <c r="R114" s="201"/>
-      <c r="S114" s="201"/>
-      <c r="T114" s="201"/>
+      <c r="O114" s="199"/>
+      <c r="P114" s="199"/>
+      <c r="Q114" s="199"/>
+      <c r="R114" s="199"/>
+      <c r="S114" s="199"/>
+      <c r="T114" s="199"/>
     </row>
     <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="86" t="s">
@@ -26930,12 +26932,12 @@
       <c r="N115" s="94">
         <v>0.16922606769042708</v>
       </c>
-      <c r="O115" s="201"/>
-      <c r="P115" s="201"/>
-      <c r="Q115" s="201"/>
-      <c r="R115" s="201"/>
-      <c r="S115" s="201"/>
-      <c r="T115" s="201"/>
+      <c r="O115" s="199"/>
+      <c r="P115" s="199"/>
+      <c r="Q115" s="199"/>
+      <c r="R115" s="199"/>
+      <c r="S115" s="199"/>
+      <c r="T115" s="199"/>
     </row>
     <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="86" t="s">
@@ -26980,12 +26982,12 @@
       <c r="N116" s="94">
         <v>0.17563031769573023</v>
       </c>
-      <c r="O116" s="201"/>
-      <c r="P116" s="201"/>
-      <c r="Q116" s="201"/>
-      <c r="R116" s="201"/>
-      <c r="S116" s="201"/>
-      <c r="T116" s="201"/>
+      <c r="O116" s="199"/>
+      <c r="P116" s="199"/>
+      <c r="Q116" s="199"/>
+      <c r="R116" s="199"/>
+      <c r="S116" s="199"/>
+      <c r="T116" s="199"/>
     </row>
     <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="86" t="s">
@@ -27030,12 +27032,12 @@
       <c r="N117" s="94">
         <v>0.16729280073602698</v>
       </c>
-      <c r="O117" s="201"/>
-      <c r="P117" s="201"/>
-      <c r="Q117" s="201"/>
-      <c r="R117" s="201"/>
-      <c r="S117" s="201"/>
-      <c r="T117" s="201"/>
+      <c r="O117" s="199"/>
+      <c r="P117" s="199"/>
+      <c r="Q117" s="199"/>
+      <c r="R117" s="199"/>
+      <c r="S117" s="199"/>
+      <c r="T117" s="199"/>
     </row>
     <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="86" t="s">
@@ -27080,12 +27082,12 @@
       <c r="N118" s="94">
         <v>0.17375161021444269</v>
       </c>
-      <c r="O118" s="201"/>
-      <c r="P118" s="201"/>
-      <c r="Q118" s="201"/>
-      <c r="R118" s="201"/>
-      <c r="S118" s="201"/>
-      <c r="T118" s="201"/>
+      <c r="O118" s="199"/>
+      <c r="P118" s="199"/>
+      <c r="Q118" s="199"/>
+      <c r="R118" s="199"/>
+      <c r="S118" s="199"/>
+      <c r="T118" s="199"/>
     </row>
     <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="86" t="s">
@@ -27130,12 +27132,12 @@
       <c r="N119" s="94">
         <v>0.1726707120362547</v>
       </c>
-      <c r="O119" s="201"/>
-      <c r="P119" s="201"/>
-      <c r="Q119" s="201"/>
-      <c r="R119" s="201"/>
-      <c r="S119" s="201"/>
-      <c r="T119" s="201"/>
+      <c r="O119" s="199"/>
+      <c r="P119" s="199"/>
+      <c r="Q119" s="199"/>
+      <c r="R119" s="199"/>
+      <c r="S119" s="199"/>
+      <c r="T119" s="199"/>
     </row>
     <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="86" t="s">
@@ -27180,12 +27182,12 @@
       <c r="N120" s="94">
         <v>0.17314864144912093</v>
       </c>
-      <c r="O120" s="201"/>
-      <c r="P120" s="201"/>
-      <c r="Q120" s="201"/>
-      <c r="R120" s="201"/>
-      <c r="S120" s="201"/>
-      <c r="T120" s="201"/>
+      <c r="O120" s="199"/>
+      <c r="P120" s="199"/>
+      <c r="Q120" s="199"/>
+      <c r="R120" s="199"/>
+      <c r="S120" s="199"/>
+      <c r="T120" s="199"/>
     </row>
     <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="86" t="s">
@@ -27230,12 +27232,12 @@
       <c r="N121" s="94">
         <v>0.17636066339640272</v>
       </c>
-      <c r="O121" s="201"/>
-      <c r="P121" s="201"/>
-      <c r="Q121" s="201"/>
-      <c r="R121" s="201"/>
-      <c r="S121" s="201"/>
-      <c r="T121" s="201"/>
+      <c r="O121" s="199"/>
+      <c r="P121" s="199"/>
+      <c r="Q121" s="199"/>
+      <c r="R121" s="199"/>
+      <c r="S121" s="199"/>
+      <c r="T121" s="199"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="91" t="s">
@@ -27293,12 +27295,12 @@
         <f t="shared" ref="N122" si="114">AVERAGE(N112:N121)</f>
         <v>0.17332967988473869</v>
       </c>
-      <c r="O122" s="201"/>
-      <c r="P122" s="201"/>
-      <c r="Q122" s="201"/>
-      <c r="R122" s="201"/>
-      <c r="S122" s="201"/>
-      <c r="T122" s="201"/>
+      <c r="O122" s="199"/>
+      <c r="P122" s="199"/>
+      <c r="Q122" s="199"/>
+      <c r="R122" s="199"/>
+      <c r="S122" s="199"/>
+      <c r="T122" s="199"/>
     </row>
     <row r="123" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="98"/>
@@ -27358,14 +27360,14 @@
       <c r="N124" s="94">
         <v>0.17221882640586797</v>
       </c>
-      <c r="O124" s="201" t="s">
+      <c r="O124" s="199" t="s">
         <v>193</v>
       </c>
-      <c r="P124" s="201"/>
-      <c r="Q124" s="201"/>
-      <c r="R124" s="201"/>
-      <c r="S124" s="201"/>
-      <c r="T124" s="201"/>
+      <c r="P124" s="199"/>
+      <c r="Q124" s="199"/>
+      <c r="R124" s="199"/>
+      <c r="S124" s="199"/>
+      <c r="T124" s="199"/>
     </row>
     <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="86" t="s">
@@ -27410,12 +27412,12 @@
       <c r="N125" s="94">
         <v>0.17350717481870082</v>
       </c>
-      <c r="O125" s="201"/>
-      <c r="P125" s="201"/>
-      <c r="Q125" s="201"/>
-      <c r="R125" s="201"/>
-      <c r="S125" s="201"/>
-      <c r="T125" s="201"/>
+      <c r="O125" s="199"/>
+      <c r="P125" s="199"/>
+      <c r="Q125" s="199"/>
+      <c r="R125" s="199"/>
+      <c r="S125" s="199"/>
+      <c r="T125" s="199"/>
     </row>
     <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="86" t="s">
@@ -27460,12 +27462,12 @@
       <c r="N126" s="94">
         <v>0.17092263261893906</v>
       </c>
-      <c r="O126" s="201"/>
-      <c r="P126" s="201"/>
-      <c r="Q126" s="201"/>
-      <c r="R126" s="201"/>
-      <c r="S126" s="201"/>
-      <c r="T126" s="201"/>
+      <c r="O126" s="199"/>
+      <c r="P126" s="199"/>
+      <c r="Q126" s="199"/>
+      <c r="R126" s="199"/>
+      <c r="S126" s="199"/>
+      <c r="T126" s="199"/>
     </row>
     <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="86" t="s">
@@ -27510,12 +27512,12 @@
       <c r="N127" s="94">
         <v>0.17220333745364647</v>
       </c>
-      <c r="O127" s="201"/>
-      <c r="P127" s="201"/>
-      <c r="Q127" s="201"/>
-      <c r="R127" s="201"/>
-      <c r="S127" s="201"/>
-      <c r="T127" s="201"/>
+      <c r="O127" s="199"/>
+      <c r="P127" s="199"/>
+      <c r="Q127" s="199"/>
+      <c r="R127" s="199"/>
+      <c r="S127" s="199"/>
+      <c r="T127" s="199"/>
     </row>
     <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="86" t="s">
@@ -27560,12 +27562,12 @@
       <c r="N128" s="94">
         <v>0.17278668118873503</v>
       </c>
-      <c r="O128" s="201"/>
-      <c r="P128" s="201"/>
-      <c r="Q128" s="201"/>
-      <c r="R128" s="201"/>
-      <c r="S128" s="201"/>
-      <c r="T128" s="201"/>
+      <c r="O128" s="199"/>
+      <c r="P128" s="199"/>
+      <c r="Q128" s="199"/>
+      <c r="R128" s="199"/>
+      <c r="S128" s="199"/>
+      <c r="T128" s="199"/>
     </row>
     <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="86" t="s">
@@ -27610,12 +27612,12 @@
       <c r="N129" s="94">
         <v>0.16994674693216022</v>
       </c>
-      <c r="O129" s="201"/>
-      <c r="P129" s="201"/>
-      <c r="Q129" s="201"/>
-      <c r="R129" s="201"/>
-      <c r="S129" s="201"/>
-      <c r="T129" s="201"/>
+      <c r="O129" s="199"/>
+      <c r="P129" s="199"/>
+      <c r="Q129" s="199"/>
+      <c r="R129" s="199"/>
+      <c r="S129" s="199"/>
+      <c r="T129" s="199"/>
     </row>
     <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="86" t="s">
@@ -27660,12 +27662,12 @@
       <c r="N130" s="94">
         <v>0.16907404591759162</v>
       </c>
-      <c r="O130" s="201"/>
-      <c r="P130" s="201"/>
-      <c r="Q130" s="201"/>
-      <c r="R130" s="201"/>
-      <c r="S130" s="201"/>
-      <c r="T130" s="201"/>
+      <c r="O130" s="199"/>
+      <c r="P130" s="199"/>
+      <c r="Q130" s="199"/>
+      <c r="R130" s="199"/>
+      <c r="S130" s="199"/>
+      <c r="T130" s="199"/>
     </row>
     <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="86" t="s">
@@ -27710,12 +27712,12 @@
       <c r="N131" s="94">
         <v>0.16873793901968351</v>
       </c>
-      <c r="O131" s="201"/>
-      <c r="P131" s="201"/>
-      <c r="Q131" s="201"/>
-      <c r="R131" s="201"/>
-      <c r="S131" s="201"/>
-      <c r="T131" s="201"/>
+      <c r="O131" s="199"/>
+      <c r="P131" s="199"/>
+      <c r="Q131" s="199"/>
+      <c r="R131" s="199"/>
+      <c r="S131" s="199"/>
+      <c r="T131" s="199"/>
     </row>
     <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="86" t="s">
@@ -27760,12 +27762,12 @@
       <c r="N132" s="94">
         <v>0.16885524486327824</v>
       </c>
-      <c r="O132" s="201"/>
-      <c r="P132" s="201"/>
-      <c r="Q132" s="201"/>
-      <c r="R132" s="201"/>
-      <c r="S132" s="201"/>
-      <c r="T132" s="201"/>
+      <c r="O132" s="199"/>
+      <c r="P132" s="199"/>
+      <c r="Q132" s="199"/>
+      <c r="R132" s="199"/>
+      <c r="S132" s="199"/>
+      <c r="T132" s="199"/>
     </row>
     <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="86" t="s">
@@ -27810,12 +27812,12 @@
       <c r="N133" s="94">
         <v>0.1665903890160183</v>
       </c>
-      <c r="O133" s="201"/>
-      <c r="P133" s="201"/>
-      <c r="Q133" s="201"/>
-      <c r="R133" s="201"/>
-      <c r="S133" s="201"/>
-      <c r="T133" s="201"/>
+      <c r="O133" s="199"/>
+      <c r="P133" s="199"/>
+      <c r="Q133" s="199"/>
+      <c r="R133" s="199"/>
+      <c r="S133" s="199"/>
+      <c r="T133" s="199"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="91" t="s">
@@ -27873,12 +27875,12 @@
         <f t="shared" ref="N134" si="126">AVERAGE(N124:N133)</f>
         <v>0.17048430182346214</v>
       </c>
-      <c r="O134" s="201"/>
-      <c r="P134" s="201"/>
-      <c r="Q134" s="201"/>
-      <c r="R134" s="201"/>
-      <c r="S134" s="201"/>
-      <c r="T134" s="201"/>
+      <c r="O134" s="199"/>
+      <c r="P134" s="199"/>
+      <c r="Q134" s="199"/>
+      <c r="R134" s="199"/>
+      <c r="S134" s="199"/>
+      <c r="T134" s="199"/>
     </row>
     <row r="135" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="98"/>
@@ -27938,14 +27940,14 @@
       <c r="N136" s="94">
         <v>0.34263470284436909</v>
       </c>
-      <c r="O136" s="201" t="s">
+      <c r="O136" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="P136" s="201"/>
-      <c r="Q136" s="201"/>
-      <c r="R136" s="201"/>
-      <c r="S136" s="201"/>
-      <c r="T136" s="201"/>
+      <c r="P136" s="199"/>
+      <c r="Q136" s="199"/>
+      <c r="R136" s="199"/>
+      <c r="S136" s="199"/>
+      <c r="T136" s="199"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="86" t="s">
@@ -27990,12 +27992,12 @@
       <c r="N137" s="94">
         <v>0.34725969320897249</v>
       </c>
-      <c r="O137" s="201"/>
-      <c r="P137" s="201"/>
-      <c r="Q137" s="201"/>
-      <c r="R137" s="201"/>
-      <c r="S137" s="201"/>
-      <c r="T137" s="201"/>
+      <c r="O137" s="199"/>
+      <c r="P137" s="199"/>
+      <c r="Q137" s="199"/>
+      <c r="R137" s="199"/>
+      <c r="S137" s="199"/>
+      <c r="T137" s="199"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="86" t="s">
@@ -28040,12 +28042,12 @@
       <c r="N138" s="94">
         <v>0.34692461846770462</v>
       </c>
-      <c r="O138" s="201"/>
-      <c r="P138" s="201"/>
-      <c r="Q138" s="201"/>
-      <c r="R138" s="201"/>
-      <c r="S138" s="201"/>
-      <c r="T138" s="201"/>
+      <c r="O138" s="199"/>
+      <c r="P138" s="199"/>
+      <c r="Q138" s="199"/>
+      <c r="R138" s="199"/>
+      <c r="S138" s="199"/>
+      <c r="T138" s="199"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="86" t="s">
@@ -28090,12 +28092,12 @@
       <c r="N139" s="94">
         <v>0.35268684373069797</v>
       </c>
-      <c r="O139" s="201"/>
-      <c r="P139" s="201"/>
-      <c r="Q139" s="201"/>
-      <c r="R139" s="201"/>
-      <c r="S139" s="201"/>
-      <c r="T139" s="201"/>
+      <c r="O139" s="199"/>
+      <c r="P139" s="199"/>
+      <c r="Q139" s="199"/>
+      <c r="R139" s="199"/>
+      <c r="S139" s="199"/>
+      <c r="T139" s="199"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="86" t="s">
@@ -28140,12 +28142,12 @@
       <c r="N140" s="94">
         <v>0.34479833423305312</v>
       </c>
-      <c r="O140" s="201"/>
-      <c r="P140" s="201"/>
-      <c r="Q140" s="201"/>
-      <c r="R140" s="201"/>
-      <c r="S140" s="201"/>
-      <c r="T140" s="201"/>
+      <c r="O140" s="199"/>
+      <c r="P140" s="199"/>
+      <c r="Q140" s="199"/>
+      <c r="R140" s="199"/>
+      <c r="S140" s="199"/>
+      <c r="T140" s="199"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="86" t="s">
@@ -28190,12 +28192,12 @@
       <c r="N141" s="94">
         <v>0.34943268935909233</v>
       </c>
-      <c r="O141" s="201"/>
-      <c r="P141" s="201"/>
-      <c r="Q141" s="201"/>
-      <c r="R141" s="201"/>
-      <c r="S141" s="201"/>
-      <c r="T141" s="201"/>
+      <c r="O141" s="199"/>
+      <c r="P141" s="199"/>
+      <c r="Q141" s="199"/>
+      <c r="R141" s="199"/>
+      <c r="S141" s="199"/>
+      <c r="T141" s="199"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="86" t="s">
@@ -28240,12 +28242,12 @@
       <c r="N142" s="94">
         <v>0.34471569839307786</v>
       </c>
-      <c r="O142" s="201"/>
-      <c r="P142" s="201"/>
-      <c r="Q142" s="201"/>
-      <c r="R142" s="201"/>
-      <c r="S142" s="201"/>
-      <c r="T142" s="201"/>
+      <c r="O142" s="199"/>
+      <c r="P142" s="199"/>
+      <c r="Q142" s="199"/>
+      <c r="R142" s="199"/>
+      <c r="S142" s="199"/>
+      <c r="T142" s="199"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="86" t="s">
@@ -28290,12 +28292,12 @@
       <c r="N143" s="94">
         <v>0.34220847790013575</v>
       </c>
-      <c r="O143" s="201"/>
-      <c r="P143" s="201"/>
-      <c r="Q143" s="201"/>
-      <c r="R143" s="201"/>
-      <c r="S143" s="201"/>
-      <c r="T143" s="201"/>
+      <c r="O143" s="199"/>
+      <c r="P143" s="199"/>
+      <c r="Q143" s="199"/>
+      <c r="R143" s="199"/>
+      <c r="S143" s="199"/>
+      <c r="T143" s="199"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="86" t="s">
@@ -28340,12 +28342,12 @@
       <c r="N144" s="94">
         <v>0.34444013948082136</v>
       </c>
-      <c r="O144" s="201"/>
-      <c r="P144" s="201"/>
-      <c r="Q144" s="201"/>
-      <c r="R144" s="201"/>
-      <c r="S144" s="201"/>
-      <c r="T144" s="201"/>
+      <c r="O144" s="199"/>
+      <c r="P144" s="199"/>
+      <c r="Q144" s="199"/>
+      <c r="R144" s="199"/>
+      <c r="S144" s="199"/>
+      <c r="T144" s="199"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="86" t="s">
@@ -28390,12 +28392,12 @@
       <c r="N145" s="94">
         <v>0.3416956324618407</v>
       </c>
-      <c r="O145" s="201"/>
-      <c r="P145" s="201"/>
-      <c r="Q145" s="201"/>
-      <c r="R145" s="201"/>
-      <c r="S145" s="201"/>
-      <c r="T145" s="201"/>
+      <c r="O145" s="199"/>
+      <c r="P145" s="199"/>
+      <c r="Q145" s="199"/>
+      <c r="R145" s="199"/>
+      <c r="S145" s="199"/>
+      <c r="T145" s="199"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="91" t="s">
@@ -28453,12 +28455,12 @@
         <f t="shared" ref="N146" si="138">AVERAGE(N136:N145)</f>
         <v>0.34567968300797652</v>
       </c>
-      <c r="O146" s="201"/>
-      <c r="P146" s="201"/>
-      <c r="Q146" s="201"/>
-      <c r="R146" s="201"/>
-      <c r="S146" s="201"/>
-      <c r="T146" s="201"/>
+      <c r="O146" s="199"/>
+      <c r="P146" s="199"/>
+      <c r="Q146" s="199"/>
+      <c r="R146" s="199"/>
+      <c r="S146" s="199"/>
+      <c r="T146" s="199"/>
     </row>
     <row r="147" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="98"/>
@@ -28518,14 +28520,14 @@
       <c r="N148" s="94">
         <v>0.3500538544391445</v>
       </c>
-      <c r="O148" s="201" t="s">
+      <c r="O148" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="P148" s="201"/>
-      <c r="Q148" s="201"/>
-      <c r="R148" s="201"/>
-      <c r="S148" s="201"/>
-      <c r="T148" s="201"/>
+      <c r="P148" s="199"/>
+      <c r="Q148" s="199"/>
+      <c r="R148" s="199"/>
+      <c r="S148" s="199"/>
+      <c r="T148" s="199"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="86" t="s">
@@ -28570,12 +28572,12 @@
       <c r="N149" s="94">
         <v>0.34798728813559321</v>
       </c>
-      <c r="O149" s="201"/>
-      <c r="P149" s="201"/>
-      <c r="Q149" s="201"/>
-      <c r="R149" s="201"/>
-      <c r="S149" s="201"/>
-      <c r="T149" s="201"/>
+      <c r="O149" s="199"/>
+      <c r="P149" s="199"/>
+      <c r="Q149" s="199"/>
+      <c r="R149" s="199"/>
+      <c r="S149" s="199"/>
+      <c r="T149" s="199"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="86" t="s">
@@ -28620,12 +28622,12 @@
       <c r="N150" s="94">
         <v>0.35468737983542259</v>
       </c>
-      <c r="O150" s="201"/>
-      <c r="P150" s="201"/>
-      <c r="Q150" s="201"/>
-      <c r="R150" s="201"/>
-      <c r="S150" s="201"/>
-      <c r="T150" s="201"/>
+      <c r="O150" s="199"/>
+      <c r="P150" s="199"/>
+      <c r="Q150" s="199"/>
+      <c r="R150" s="199"/>
+      <c r="S150" s="199"/>
+      <c r="T150" s="199"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="86" t="s">
@@ -28670,12 +28672,12 @@
       <c r="N151" s="94">
         <v>0.34855842185128982</v>
       </c>
-      <c r="O151" s="201"/>
-      <c r="P151" s="201"/>
-      <c r="Q151" s="201"/>
-      <c r="R151" s="201"/>
-      <c r="S151" s="201"/>
-      <c r="T151" s="201"/>
+      <c r="O151" s="199"/>
+      <c r="P151" s="199"/>
+      <c r="Q151" s="199"/>
+      <c r="R151" s="199"/>
+      <c r="S151" s="199"/>
+      <c r="T151" s="199"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="86" t="s">
@@ -28720,12 +28722,12 @@
       <c r="N152" s="94">
         <v>0.35139927530645287</v>
       </c>
-      <c r="O152" s="201"/>
-      <c r="P152" s="201"/>
-      <c r="Q152" s="201"/>
-      <c r="R152" s="201"/>
-      <c r="S152" s="201"/>
-      <c r="T152" s="201"/>
+      <c r="O152" s="199"/>
+      <c r="P152" s="199"/>
+      <c r="Q152" s="199"/>
+      <c r="R152" s="199"/>
+      <c r="S152" s="199"/>
+      <c r="T152" s="199"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="86" t="s">
@@ -28770,12 +28772,12 @@
       <c r="N153" s="94">
         <v>0.35212888377445339</v>
       </c>
-      <c r="O153" s="201"/>
-      <c r="P153" s="201"/>
-      <c r="Q153" s="201"/>
-      <c r="R153" s="201"/>
-      <c r="S153" s="201"/>
-      <c r="T153" s="201"/>
+      <c r="O153" s="199"/>
+      <c r="P153" s="199"/>
+      <c r="Q153" s="199"/>
+      <c r="R153" s="199"/>
+      <c r="S153" s="199"/>
+      <c r="T153" s="199"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="86" t="s">
@@ -28820,12 +28822,12 @@
       <c r="N154" s="94">
         <v>0.35056179775280899</v>
       </c>
-      <c r="O154" s="201"/>
-      <c r="P154" s="201"/>
-      <c r="Q154" s="201"/>
-      <c r="R154" s="201"/>
-      <c r="S154" s="201"/>
-      <c r="T154" s="201"/>
+      <c r="O154" s="199"/>
+      <c r="P154" s="199"/>
+      <c r="Q154" s="199"/>
+      <c r="R154" s="199"/>
+      <c r="S154" s="199"/>
+      <c r="T154" s="199"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="86" t="s">
@@ -28870,12 +28872,12 @@
       <c r="N155" s="94">
         <v>0.3610292977832894</v>
       </c>
-      <c r="O155" s="201"/>
-      <c r="P155" s="201"/>
-      <c r="Q155" s="201"/>
-      <c r="R155" s="201"/>
-      <c r="S155" s="201"/>
-      <c r="T155" s="201"/>
+      <c r="O155" s="199"/>
+      <c r="P155" s="199"/>
+      <c r="Q155" s="199"/>
+      <c r="R155" s="199"/>
+      <c r="S155" s="199"/>
+      <c r="T155" s="199"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="86" t="s">
@@ -28920,12 +28922,12 @@
       <c r="N156" s="94">
         <v>0.34164742109314855</v>
       </c>
-      <c r="O156" s="201"/>
-      <c r="P156" s="201"/>
-      <c r="Q156" s="201"/>
-      <c r="R156" s="201"/>
-      <c r="S156" s="201"/>
-      <c r="T156" s="201"/>
+      <c r="O156" s="199"/>
+      <c r="P156" s="199"/>
+      <c r="Q156" s="199"/>
+      <c r="R156" s="199"/>
+      <c r="S156" s="199"/>
+      <c r="T156" s="199"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="86" t="s">
@@ -28970,12 +28972,12 @@
       <c r="N157" s="94">
         <v>0.34514896867838046</v>
       </c>
-      <c r="O157" s="201"/>
-      <c r="P157" s="201"/>
-      <c r="Q157" s="201"/>
-      <c r="R157" s="201"/>
-      <c r="S157" s="201"/>
-      <c r="T157" s="201"/>
+      <c r="O157" s="199"/>
+      <c r="P157" s="199"/>
+      <c r="Q157" s="199"/>
+      <c r="R157" s="199"/>
+      <c r="S157" s="199"/>
+      <c r="T157" s="199"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="91" t="s">
@@ -29033,12 +29035,12 @@
         <f t="shared" ref="N158" si="150">AVERAGE(N148:N157)</f>
         <v>0.3503202588649984</v>
       </c>
-      <c r="O158" s="201"/>
-      <c r="P158" s="201"/>
-      <c r="Q158" s="201"/>
-      <c r="R158" s="201"/>
-      <c r="S158" s="201"/>
-      <c r="T158" s="201"/>
+      <c r="O158" s="199"/>
+      <c r="P158" s="199"/>
+      <c r="Q158" s="199"/>
+      <c r="R158" s="199"/>
+      <c r="S158" s="199"/>
+      <c r="T158" s="199"/>
     </row>
     <row r="159" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="98"/>
@@ -29098,14 +29100,14 @@
       <c r="N160" s="94">
         <v>0.35293209876543208</v>
       </c>
-      <c r="O160" s="201" t="s">
+      <c r="O160" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="P160" s="201"/>
-      <c r="Q160" s="201"/>
-      <c r="R160" s="201"/>
-      <c r="S160" s="201"/>
-      <c r="T160" s="201"/>
+      <c r="P160" s="199"/>
+      <c r="Q160" s="199"/>
+      <c r="R160" s="199"/>
+      <c r="S160" s="199"/>
+      <c r="T160" s="199"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="86" t="s">
@@ -29150,12 +29152,12 @@
       <c r="N161" s="94">
         <v>0.34995799282059115</v>
       </c>
-      <c r="O161" s="201"/>
-      <c r="P161" s="201"/>
-      <c r="Q161" s="201"/>
-      <c r="R161" s="201"/>
-      <c r="S161" s="201"/>
-      <c r="T161" s="201"/>
+      <c r="O161" s="199"/>
+      <c r="P161" s="199"/>
+      <c r="Q161" s="199"/>
+      <c r="R161" s="199"/>
+      <c r="S161" s="199"/>
+      <c r="T161" s="199"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="86" t="s">
@@ -29200,12 +29202,12 @@
       <c r="N162" s="94">
         <v>0.35635465699513852</v>
       </c>
-      <c r="O162" s="201"/>
-      <c r="P162" s="201"/>
-      <c r="Q162" s="201"/>
-      <c r="R162" s="201"/>
-      <c r="S162" s="201"/>
-      <c r="T162" s="201"/>
+      <c r="O162" s="199"/>
+      <c r="P162" s="199"/>
+      <c r="Q162" s="199"/>
+      <c r="R162" s="199"/>
+      <c r="S162" s="199"/>
+      <c r="T162" s="199"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
@@ -29250,12 +29252,12 @@
       <c r="N163" s="94">
         <v>0.35251413724591169</v>
       </c>
-      <c r="O163" s="201"/>
-      <c r="P163" s="201"/>
-      <c r="Q163" s="201"/>
-      <c r="R163" s="201"/>
-      <c r="S163" s="201"/>
-      <c r="T163" s="201"/>
+      <c r="O163" s="199"/>
+      <c r="P163" s="199"/>
+      <c r="Q163" s="199"/>
+      <c r="R163" s="199"/>
+      <c r="S163" s="199"/>
+      <c r="T163" s="199"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
@@ -29300,12 +29302,12 @@
       <c r="N164" s="94">
         <v>0.35047662976629768</v>
       </c>
-      <c r="O164" s="201"/>
-      <c r="P164" s="201"/>
-      <c r="Q164" s="201"/>
-      <c r="R164" s="201"/>
-      <c r="S164" s="201"/>
-      <c r="T164" s="201"/>
+      <c r="O164" s="199"/>
+      <c r="P164" s="199"/>
+      <c r="Q164" s="199"/>
+      <c r="R164" s="199"/>
+      <c r="S164" s="199"/>
+      <c r="T164" s="199"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
@@ -29350,12 +29352,12 @@
       <c r="N165" s="94">
         <v>0.3479597325751172</v>
       </c>
-      <c r="O165" s="201"/>
-      <c r="P165" s="201"/>
-      <c r="Q165" s="201"/>
-      <c r="R165" s="201"/>
-      <c r="S165" s="201"/>
-      <c r="T165" s="201"/>
+      <c r="O165" s="199"/>
+      <c r="P165" s="199"/>
+      <c r="Q165" s="199"/>
+      <c r="R165" s="199"/>
+      <c r="S165" s="199"/>
+      <c r="T165" s="199"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
@@ -29400,12 +29402,12 @@
       <c r="N166" s="94">
         <v>0.34636656936549393</v>
       </c>
-      <c r="O166" s="201"/>
-      <c r="P166" s="201"/>
-      <c r="Q166" s="201"/>
-      <c r="R166" s="201"/>
-      <c r="S166" s="201"/>
-      <c r="T166" s="201"/>
+      <c r="O166" s="199"/>
+      <c r="P166" s="199"/>
+      <c r="Q166" s="199"/>
+      <c r="R166" s="199"/>
+      <c r="S166" s="199"/>
+      <c r="T166" s="199"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="86" t="s">
@@ -29450,12 +29452,12 @@
       <c r="N167" s="94">
         <v>0.34574387086949904</v>
       </c>
-      <c r="O167" s="201"/>
-      <c r="P167" s="201"/>
-      <c r="Q167" s="201"/>
-      <c r="R167" s="201"/>
-      <c r="S167" s="201"/>
-      <c r="T167" s="201"/>
+      <c r="O167" s="199"/>
+      <c r="P167" s="199"/>
+      <c r="Q167" s="199"/>
+      <c r="R167" s="199"/>
+      <c r="S167" s="199"/>
+      <c r="T167" s="199"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
@@ -29500,12 +29502,12 @@
       <c r="N168" s="94">
         <v>0.34761941868619967</v>
       </c>
-      <c r="O168" s="201"/>
-      <c r="P168" s="201"/>
-      <c r="Q168" s="201"/>
-      <c r="R168" s="201"/>
-      <c r="S168" s="201"/>
-      <c r="T168" s="201"/>
+      <c r="O168" s="199"/>
+      <c r="P168" s="199"/>
+      <c r="Q168" s="199"/>
+      <c r="R168" s="199"/>
+      <c r="S168" s="199"/>
+      <c r="T168" s="199"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="86" t="s">
@@ -29550,12 +29552,12 @@
       <c r="N169" s="94">
         <v>0.35355074672355991</v>
       </c>
-      <c r="O169" s="201"/>
-      <c r="P169" s="201"/>
-      <c r="Q169" s="201"/>
-      <c r="R169" s="201"/>
-      <c r="S169" s="201"/>
-      <c r="T169" s="201"/>
+      <c r="O169" s="199"/>
+      <c r="P169" s="199"/>
+      <c r="Q169" s="199"/>
+      <c r="R169" s="199"/>
+      <c r="S169" s="199"/>
+      <c r="T169" s="199"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="91" t="s">
@@ -29613,12 +29615,12 @@
         <f t="shared" ref="N170" si="162">AVERAGE(N160:N169)</f>
         <v>0.35034758538132416</v>
       </c>
-      <c r="O170" s="201"/>
-      <c r="P170" s="201"/>
-      <c r="Q170" s="201"/>
-      <c r="R170" s="201"/>
-      <c r="S170" s="201"/>
-      <c r="T170" s="201"/>
+      <c r="O170" s="199"/>
+      <c r="P170" s="199"/>
+      <c r="Q170" s="199"/>
+      <c r="R170" s="199"/>
+      <c r="S170" s="199"/>
+      <c r="T170" s="199"/>
     </row>
     <row r="171" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="98"/>
@@ -29678,14 +29680,14 @@
       <c r="N172" s="94">
         <v>0.35771982460189244</v>
       </c>
-      <c r="O172" s="201" t="s">
+      <c r="O172" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="P172" s="201"/>
-      <c r="Q172" s="201"/>
-      <c r="R172" s="201"/>
-      <c r="S172" s="201"/>
-      <c r="T172" s="201"/>
+      <c r="P172" s="199"/>
+      <c r="Q172" s="199"/>
+      <c r="R172" s="199"/>
+      <c r="S172" s="199"/>
+      <c r="T172" s="199"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="86" t="s">
@@ -29730,12 +29732,12 @@
       <c r="N173" s="94">
         <v>0.35524196640846689</v>
       </c>
-      <c r="O173" s="201"/>
-      <c r="P173" s="201"/>
-      <c r="Q173" s="201"/>
-      <c r="R173" s="201"/>
-      <c r="S173" s="201"/>
-      <c r="T173" s="201"/>
+      <c r="O173" s="199"/>
+      <c r="P173" s="199"/>
+      <c r="Q173" s="199"/>
+      <c r="R173" s="199"/>
+      <c r="S173" s="199"/>
+      <c r="T173" s="199"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="86" t="s">
@@ -29780,12 +29782,12 @@
       <c r="N174" s="94">
         <v>0.35232326330317437</v>
       </c>
-      <c r="O174" s="201"/>
-      <c r="P174" s="201"/>
-      <c r="Q174" s="201"/>
-      <c r="R174" s="201"/>
-      <c r="S174" s="201"/>
-      <c r="T174" s="201"/>
+      <c r="O174" s="199"/>
+      <c r="P174" s="199"/>
+      <c r="Q174" s="199"/>
+      <c r="R174" s="199"/>
+      <c r="S174" s="199"/>
+      <c r="T174" s="199"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="86" t="s">
@@ -29830,12 +29832,12 @@
       <c r="N175" s="94">
         <v>0.3594211682703235</v>
       </c>
-      <c r="O175" s="201"/>
-      <c r="P175" s="201"/>
-      <c r="Q175" s="201"/>
-      <c r="R175" s="201"/>
-      <c r="S175" s="201"/>
-      <c r="T175" s="201"/>
+      <c r="O175" s="199"/>
+      <c r="P175" s="199"/>
+      <c r="Q175" s="199"/>
+      <c r="R175" s="199"/>
+      <c r="S175" s="199"/>
+      <c r="T175" s="199"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="86" t="s">
@@ -29880,12 +29882,12 @@
       <c r="N176" s="94">
         <v>0.35236355332267644</v>
       </c>
-      <c r="O176" s="201"/>
-      <c r="P176" s="201"/>
-      <c r="Q176" s="201"/>
-      <c r="R176" s="201"/>
-      <c r="S176" s="201"/>
-      <c r="T176" s="201"/>
+      <c r="O176" s="199"/>
+      <c r="P176" s="199"/>
+      <c r="Q176" s="199"/>
+      <c r="R176" s="199"/>
+      <c r="S176" s="199"/>
+      <c r="T176" s="199"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="86" t="s">
@@ -29930,12 +29932,12 @@
       <c r="N177" s="94">
         <v>0.35865669315879695</v>
       </c>
-      <c r="O177" s="201"/>
-      <c r="P177" s="201"/>
-      <c r="Q177" s="201"/>
-      <c r="R177" s="201"/>
-      <c r="S177" s="201"/>
-      <c r="T177" s="201"/>
+      <c r="O177" s="199"/>
+      <c r="P177" s="199"/>
+      <c r="Q177" s="199"/>
+      <c r="R177" s="199"/>
+      <c r="S177" s="199"/>
+      <c r="T177" s="199"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="86" t="s">
@@ -29980,12 +29982,12 @@
       <c r="N178" s="94">
         <v>0.36151134273451868</v>
       </c>
-      <c r="O178" s="201"/>
-      <c r="P178" s="201"/>
-      <c r="Q178" s="201"/>
-      <c r="R178" s="201"/>
-      <c r="S178" s="201"/>
-      <c r="T178" s="201"/>
+      <c r="O178" s="199"/>
+      <c r="P178" s="199"/>
+      <c r="Q178" s="199"/>
+      <c r="R178" s="199"/>
+      <c r="S178" s="199"/>
+      <c r="T178" s="199"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="86" t="s">
@@ -30030,12 +30032,12 @@
       <c r="N179" s="94">
         <v>0.35809304113802382</v>
       </c>
-      <c r="O179" s="201"/>
-      <c r="P179" s="201"/>
-      <c r="Q179" s="201"/>
-      <c r="R179" s="201"/>
-      <c r="S179" s="201"/>
-      <c r="T179" s="201"/>
+      <c r="O179" s="199"/>
+      <c r="P179" s="199"/>
+      <c r="Q179" s="199"/>
+      <c r="R179" s="199"/>
+      <c r="S179" s="199"/>
+      <c r="T179" s="199"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="86" t="s">
@@ -30080,12 +30082,12 @@
       <c r="N180" s="94">
         <v>0.36541698546289214</v>
       </c>
-      <c r="O180" s="201"/>
-      <c r="P180" s="201"/>
-      <c r="Q180" s="201"/>
-      <c r="R180" s="201"/>
-      <c r="S180" s="201"/>
-      <c r="T180" s="201"/>
+      <c r="O180" s="199"/>
+      <c r="P180" s="199"/>
+      <c r="Q180" s="199"/>
+      <c r="R180" s="199"/>
+      <c r="S180" s="199"/>
+      <c r="T180" s="199"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="86" t="s">
@@ -30130,12 +30132,12 @@
       <c r="N181" s="94">
         <v>0.35931097283351038</v>
       </c>
-      <c r="O181" s="201"/>
-      <c r="P181" s="201"/>
-      <c r="Q181" s="201"/>
-      <c r="R181" s="201"/>
-      <c r="S181" s="201"/>
-      <c r="T181" s="201"/>
+      <c r="O181" s="199"/>
+      <c r="P181" s="199"/>
+      <c r="Q181" s="199"/>
+      <c r="R181" s="199"/>
+      <c r="S181" s="199"/>
+      <c r="T181" s="199"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="91" t="s">
@@ -30193,12 +30195,12 @@
         <f t="shared" ref="N182" si="174">AVERAGE(N172:N181)</f>
         <v>0.35800588112342757</v>
       </c>
-      <c r="O182" s="201"/>
-      <c r="P182" s="201"/>
-      <c r="Q182" s="201"/>
-      <c r="R182" s="201"/>
-      <c r="S182" s="201"/>
-      <c r="T182" s="201"/>
+      <c r="O182" s="199"/>
+      <c r="P182" s="199"/>
+      <c r="Q182" s="199"/>
+      <c r="R182" s="199"/>
+      <c r="S182" s="199"/>
+      <c r="T182" s="199"/>
     </row>
     <row r="183" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="98"/>
@@ -30232,14 +30234,14 @@
       <c r="L184" s="93"/>
       <c r="M184" s="93"/>
       <c r="N184" s="94"/>
-      <c r="O184" s="201" t="s">
+      <c r="O184" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="P184" s="201"/>
-      <c r="Q184" s="201"/>
-      <c r="R184" s="201"/>
-      <c r="S184" s="201"/>
-      <c r="T184" s="201"/>
+      <c r="P184" s="199"/>
+      <c r="Q184" s="199"/>
+      <c r="R184" s="199"/>
+      <c r="S184" s="199"/>
+      <c r="T184" s="199"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="86" t="s">
@@ -30258,12 +30260,12 @@
       <c r="L185" s="93"/>
       <c r="M185" s="93"/>
       <c r="N185" s="94"/>
-      <c r="O185" s="201"/>
-      <c r="P185" s="201"/>
-      <c r="Q185" s="201"/>
-      <c r="R185" s="201"/>
-      <c r="S185" s="201"/>
-      <c r="T185" s="201"/>
+      <c r="O185" s="199"/>
+      <c r="P185" s="199"/>
+      <c r="Q185" s="199"/>
+      <c r="R185" s="199"/>
+      <c r="S185" s="199"/>
+      <c r="T185" s="199"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="86" t="s">
@@ -30282,12 +30284,12 @@
       <c r="L186" s="93"/>
       <c r="M186" s="93"/>
       <c r="N186" s="94"/>
-      <c r="O186" s="201"/>
-      <c r="P186" s="201"/>
-      <c r="Q186" s="201"/>
-      <c r="R186" s="201"/>
-      <c r="S186" s="201"/>
-      <c r="T186" s="201"/>
+      <c r="O186" s="199"/>
+      <c r="P186" s="199"/>
+      <c r="Q186" s="199"/>
+      <c r="R186" s="199"/>
+      <c r="S186" s="199"/>
+      <c r="T186" s="199"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="86" t="s">
@@ -30306,12 +30308,12 @@
       <c r="L187" s="93"/>
       <c r="M187" s="93"/>
       <c r="N187" s="94"/>
-      <c r="O187" s="201"/>
-      <c r="P187" s="201"/>
-      <c r="Q187" s="201"/>
-      <c r="R187" s="201"/>
-      <c r="S187" s="201"/>
-      <c r="T187" s="201"/>
+      <c r="O187" s="199"/>
+      <c r="P187" s="199"/>
+      <c r="Q187" s="199"/>
+      <c r="R187" s="199"/>
+      <c r="S187" s="199"/>
+      <c r="T187" s="199"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="86" t="s">
@@ -30330,12 +30332,12 @@
       <c r="L188" s="93"/>
       <c r="M188" s="93"/>
       <c r="N188" s="94"/>
-      <c r="O188" s="201"/>
-      <c r="P188" s="201"/>
-      <c r="Q188" s="201"/>
-      <c r="R188" s="201"/>
-      <c r="S188" s="201"/>
-      <c r="T188" s="201"/>
+      <c r="O188" s="199"/>
+      <c r="P188" s="199"/>
+      <c r="Q188" s="199"/>
+      <c r="R188" s="199"/>
+      <c r="S188" s="199"/>
+      <c r="T188" s="199"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="86" t="s">
@@ -30354,12 +30356,12 @@
       <c r="L189" s="93"/>
       <c r="M189" s="93"/>
       <c r="N189" s="94"/>
-      <c r="O189" s="201"/>
-      <c r="P189" s="201"/>
-      <c r="Q189" s="201"/>
-      <c r="R189" s="201"/>
-      <c r="S189" s="201"/>
-      <c r="T189" s="201"/>
+      <c r="O189" s="199"/>
+      <c r="P189" s="199"/>
+      <c r="Q189" s="199"/>
+      <c r="R189" s="199"/>
+      <c r="S189" s="199"/>
+      <c r="T189" s="199"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="86" t="s">
@@ -30378,12 +30380,12 @@
       <c r="L190" s="93"/>
       <c r="M190" s="93"/>
       <c r="N190" s="94"/>
-      <c r="O190" s="201"/>
-      <c r="P190" s="201"/>
-      <c r="Q190" s="201"/>
-      <c r="R190" s="201"/>
-      <c r="S190" s="201"/>
-      <c r="T190" s="201"/>
+      <c r="O190" s="199"/>
+      <c r="P190" s="199"/>
+      <c r="Q190" s="199"/>
+      <c r="R190" s="199"/>
+      <c r="S190" s="199"/>
+      <c r="T190" s="199"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="86" t="s">
@@ -30402,12 +30404,12 @@
       <c r="L191" s="93"/>
       <c r="M191" s="93"/>
       <c r="N191" s="94"/>
-      <c r="O191" s="201"/>
-      <c r="P191" s="201"/>
-      <c r="Q191" s="201"/>
-      <c r="R191" s="201"/>
-      <c r="S191" s="201"/>
-      <c r="T191" s="201"/>
+      <c r="O191" s="199"/>
+      <c r="P191" s="199"/>
+      <c r="Q191" s="199"/>
+      <c r="R191" s="199"/>
+      <c r="S191" s="199"/>
+      <c r="T191" s="199"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="86" t="s">
@@ -30426,12 +30428,12 @@
       <c r="L192" s="93"/>
       <c r="M192" s="93"/>
       <c r="N192" s="94"/>
-      <c r="O192" s="201"/>
-      <c r="P192" s="201"/>
-      <c r="Q192" s="201"/>
-      <c r="R192" s="201"/>
-      <c r="S192" s="201"/>
-      <c r="T192" s="201"/>
+      <c r="O192" s="199"/>
+      <c r="P192" s="199"/>
+      <c r="Q192" s="199"/>
+      <c r="R192" s="199"/>
+      <c r="S192" s="199"/>
+      <c r="T192" s="199"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="86" t="s">
@@ -30450,12 +30452,12 @@
       <c r="L193" s="93"/>
       <c r="M193" s="93"/>
       <c r="N193" s="94"/>
-      <c r="O193" s="201"/>
-      <c r="P193" s="201"/>
-      <c r="Q193" s="201"/>
-      <c r="R193" s="201"/>
-      <c r="S193" s="201"/>
-      <c r="T193" s="201"/>
+      <c r="O193" s="199"/>
+      <c r="P193" s="199"/>
+      <c r="Q193" s="199"/>
+      <c r="R193" s="199"/>
+      <c r="S193" s="199"/>
+      <c r="T193" s="199"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="91" t="s">
@@ -30513,12 +30515,12 @@
         <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="201"/>
-      <c r="P194" s="201"/>
-      <c r="Q194" s="201"/>
-      <c r="R194" s="201"/>
-      <c r="S194" s="201"/>
-      <c r="T194" s="201"/>
+      <c r="O194" s="199"/>
+      <c r="P194" s="199"/>
+      <c r="Q194" s="199"/>
+      <c r="R194" s="199"/>
+      <c r="S194" s="199"/>
+      <c r="T194" s="199"/>
     </row>
     <row r="195" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="98"/>
@@ -30578,14 +30580,14 @@
       <c r="N196" s="94">
         <v>0.1693295619600948</v>
       </c>
-      <c r="O196" s="201" t="s">
+      <c r="O196" s="199" t="s">
         <v>227</v>
       </c>
-      <c r="P196" s="201"/>
-      <c r="Q196" s="201"/>
-      <c r="R196" s="201"/>
-      <c r="S196" s="201"/>
-      <c r="T196" s="201"/>
+      <c r="P196" s="199"/>
+      <c r="Q196" s="199"/>
+      <c r="R196" s="199"/>
+      <c r="S196" s="199"/>
+      <c r="T196" s="199"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="86" t="s">
@@ -30630,12 +30632,12 @@
       <c r="N197" s="94">
         <v>0.16636837600186755</v>
       </c>
-      <c r="O197" s="201"/>
-      <c r="P197" s="201"/>
-      <c r="Q197" s="201"/>
-      <c r="R197" s="201"/>
-      <c r="S197" s="201"/>
-      <c r="T197" s="201"/>
+      <c r="O197" s="199"/>
+      <c r="P197" s="199"/>
+      <c r="Q197" s="199"/>
+      <c r="R197" s="199"/>
+      <c r="S197" s="199"/>
+      <c r="T197" s="199"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="86" t="s">
@@ -30680,12 +30682,12 @@
       <c r="N198" s="94">
         <v>0.17503217503217502</v>
       </c>
-      <c r="O198" s="201"/>
-      <c r="P198" s="201"/>
-      <c r="Q198" s="201"/>
-      <c r="R198" s="201"/>
-      <c r="S198" s="201"/>
-      <c r="T198" s="201"/>
+      <c r="O198" s="199"/>
+      <c r="P198" s="199"/>
+      <c r="Q198" s="199"/>
+      <c r="R198" s="199"/>
+      <c r="S198" s="199"/>
+      <c r="T198" s="199"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="86" t="s">
@@ -30730,12 +30732,12 @@
       <c r="N199" s="94">
         <v>0.16419260040690226</v>
       </c>
-      <c r="O199" s="201"/>
-      <c r="P199" s="201"/>
-      <c r="Q199" s="201"/>
-      <c r="R199" s="201"/>
-      <c r="S199" s="201"/>
-      <c r="T199" s="201"/>
+      <c r="O199" s="199"/>
+      <c r="P199" s="199"/>
+      <c r="Q199" s="199"/>
+      <c r="R199" s="199"/>
+      <c r="S199" s="199"/>
+      <c r="T199" s="199"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="86" t="s">
@@ -30780,12 +30782,12 @@
       <c r="N200" s="94">
         <v>0.17125984251968504</v>
       </c>
-      <c r="O200" s="201"/>
-      <c r="P200" s="201"/>
-      <c r="Q200" s="201"/>
-      <c r="R200" s="201"/>
-      <c r="S200" s="201"/>
-      <c r="T200" s="201"/>
+      <c r="O200" s="199"/>
+      <c r="P200" s="199"/>
+      <c r="Q200" s="199"/>
+      <c r="R200" s="199"/>
+      <c r="S200" s="199"/>
+      <c r="T200" s="199"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="86" t="s">
@@ -30830,12 +30832,12 @@
       <c r="N201" s="94">
         <v>0.17140863632839756</v>
       </c>
-      <c r="O201" s="201"/>
-      <c r="P201" s="201"/>
-      <c r="Q201" s="201"/>
-      <c r="R201" s="201"/>
-      <c r="S201" s="201"/>
-      <c r="T201" s="201"/>
+      <c r="O201" s="199"/>
+      <c r="P201" s="199"/>
+      <c r="Q201" s="199"/>
+      <c r="R201" s="199"/>
+      <c r="S201" s="199"/>
+      <c r="T201" s="199"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="86" t="s">
@@ -30880,12 +30882,12 @@
       <c r="N202" s="94">
         <v>0.17007526799969588</v>
       </c>
-      <c r="O202" s="201"/>
-      <c r="P202" s="201"/>
-      <c r="Q202" s="201"/>
-      <c r="R202" s="201"/>
-      <c r="S202" s="201"/>
-      <c r="T202" s="201"/>
+      <c r="O202" s="199"/>
+      <c r="P202" s="199"/>
+      <c r="Q202" s="199"/>
+      <c r="R202" s="199"/>
+      <c r="S202" s="199"/>
+      <c r="T202" s="199"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="86" t="s">
@@ -30930,12 +30932,12 @@
       <c r="N203" s="94">
         <v>0.17179190751445086</v>
       </c>
-      <c r="O203" s="201"/>
-      <c r="P203" s="201"/>
-      <c r="Q203" s="201"/>
-      <c r="R203" s="201"/>
-      <c r="S203" s="201"/>
-      <c r="T203" s="201"/>
+      <c r="O203" s="199"/>
+      <c r="P203" s="199"/>
+      <c r="Q203" s="199"/>
+      <c r="R203" s="199"/>
+      <c r="S203" s="199"/>
+      <c r="T203" s="199"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="86" t="s">
@@ -30980,12 +30982,12 @@
       <c r="N204" s="94">
         <v>0.16879815100154083</v>
       </c>
-      <c r="O204" s="201"/>
-      <c r="P204" s="201"/>
-      <c r="Q204" s="201"/>
-      <c r="R204" s="201"/>
-      <c r="S204" s="201"/>
-      <c r="T204" s="201"/>
+      <c r="O204" s="199"/>
+      <c r="P204" s="199"/>
+      <c r="Q204" s="199"/>
+      <c r="R204" s="199"/>
+      <c r="S204" s="199"/>
+      <c r="T204" s="199"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="86" t="s">
@@ -31030,12 +31032,12 @@
       <c r="N205" s="94">
         <v>0.17239259088463607</v>
       </c>
-      <c r="O205" s="201"/>
-      <c r="P205" s="201"/>
-      <c r="Q205" s="201"/>
-      <c r="R205" s="201"/>
-      <c r="S205" s="201"/>
-      <c r="T205" s="201"/>
+      <c r="O205" s="199"/>
+      <c r="P205" s="199"/>
+      <c r="Q205" s="199"/>
+      <c r="R205" s="199"/>
+      <c r="S205" s="199"/>
+      <c r="T205" s="199"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
@@ -31093,12 +31095,12 @@
         <f t="shared" si="176"/>
         <v>0.17006491096494461</v>
       </c>
-      <c r="O206" s="201"/>
-      <c r="P206" s="201"/>
-      <c r="Q206" s="201"/>
-      <c r="R206" s="201"/>
-      <c r="S206" s="201"/>
-      <c r="T206" s="201"/>
+      <c r="O206" s="199"/>
+      <c r="P206" s="199"/>
+      <c r="Q206" s="199"/>
+      <c r="R206" s="199"/>
+      <c r="S206" s="199"/>
+      <c r="T206" s="199"/>
     </row>
     <row r="207" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="98"/>
@@ -31158,14 +31160,14 @@
       <c r="N208" s="94">
         <v>0.30560087003806419</v>
       </c>
-      <c r="O208" s="201" t="s">
+      <c r="O208" s="199" t="s">
         <v>226</v>
       </c>
-      <c r="P208" s="201"/>
-      <c r="Q208" s="201"/>
-      <c r="R208" s="201"/>
-      <c r="S208" s="201"/>
-      <c r="T208" s="201"/>
+      <c r="P208" s="199"/>
+      <c r="Q208" s="199"/>
+      <c r="R208" s="199"/>
+      <c r="S208" s="199"/>
+      <c r="T208" s="199"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="86" t="s">
@@ -31210,12 +31212,12 @@
       <c r="N209" s="94">
         <v>0.28359578046170308</v>
       </c>
-      <c r="O209" s="201"/>
-      <c r="P209" s="201"/>
-      <c r="Q209" s="201"/>
-      <c r="R209" s="201"/>
-      <c r="S209" s="201"/>
-      <c r="T209" s="201"/>
+      <c r="O209" s="199"/>
+      <c r="P209" s="199"/>
+      <c r="Q209" s="199"/>
+      <c r="R209" s="199"/>
+      <c r="S209" s="199"/>
+      <c r="T209" s="199"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="86" t="s">
@@ -31260,12 +31262,12 @@
       <c r="N210" s="94">
         <v>0.29491213260686056</v>
       </c>
-      <c r="O210" s="201"/>
-      <c r="P210" s="201"/>
-      <c r="Q210" s="201"/>
-      <c r="R210" s="201"/>
-      <c r="S210" s="201"/>
-      <c r="T210" s="201"/>
+      <c r="O210" s="199"/>
+      <c r="P210" s="199"/>
+      <c r="Q210" s="199"/>
+      <c r="R210" s="199"/>
+      <c r="S210" s="199"/>
+      <c r="T210" s="199"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="86" t="s">
@@ -31310,12 +31312,12 @@
       <c r="N211" s="94">
         <v>0.2988647772028728</v>
       </c>
-      <c r="O211" s="201"/>
-      <c r="P211" s="201"/>
-      <c r="Q211" s="201"/>
-      <c r="R211" s="201"/>
-      <c r="S211" s="201"/>
-      <c r="T211" s="201"/>
+      <c r="O211" s="199"/>
+      <c r="P211" s="199"/>
+      <c r="Q211" s="199"/>
+      <c r="R211" s="199"/>
+      <c r="S211" s="199"/>
+      <c r="T211" s="199"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="86" t="s">
@@ -31360,12 +31362,12 @@
       <c r="N212" s="94">
         <v>0.29959044896066767</v>
       </c>
-      <c r="O212" s="201"/>
-      <c r="P212" s="201"/>
-      <c r="Q212" s="201"/>
-      <c r="R212" s="201"/>
-      <c r="S212" s="201"/>
-      <c r="T212" s="201"/>
+      <c r="O212" s="199"/>
+      <c r="P212" s="199"/>
+      <c r="Q212" s="199"/>
+      <c r="R212" s="199"/>
+      <c r="S212" s="199"/>
+      <c r="T212" s="199"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="86" t="s">
@@ -31410,12 +31412,12 @@
       <c r="N213" s="94">
         <v>0.29011357572985746</v>
       </c>
-      <c r="O213" s="201"/>
-      <c r="P213" s="201"/>
-      <c r="Q213" s="201"/>
-      <c r="R213" s="201"/>
-      <c r="S213" s="201"/>
-      <c r="T213" s="201"/>
+      <c r="O213" s="199"/>
+      <c r="P213" s="199"/>
+      <c r="Q213" s="199"/>
+      <c r="R213" s="199"/>
+      <c r="S213" s="199"/>
+      <c r="T213" s="199"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="86" t="s">
@@ -31460,12 +31462,12 @@
       <c r="N214" s="94">
         <v>0.30063195907312668</v>
       </c>
-      <c r="O214" s="201"/>
-      <c r="P214" s="201"/>
-      <c r="Q214" s="201"/>
-      <c r="R214" s="201"/>
-      <c r="S214" s="201"/>
-      <c r="T214" s="201"/>
+      <c r="O214" s="199"/>
+      <c r="P214" s="199"/>
+      <c r="Q214" s="199"/>
+      <c r="R214" s="199"/>
+      <c r="S214" s="199"/>
+      <c r="T214" s="199"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="86" t="s">
@@ -31510,12 +31512,12 @@
       <c r="N215" s="94">
         <v>0.2763700198442986</v>
       </c>
-      <c r="O215" s="201"/>
-      <c r="P215" s="201"/>
-      <c r="Q215" s="201"/>
-      <c r="R215" s="201"/>
-      <c r="S215" s="201"/>
-      <c r="T215" s="201"/>
+      <c r="O215" s="199"/>
+      <c r="P215" s="199"/>
+      <c r="Q215" s="199"/>
+      <c r="R215" s="199"/>
+      <c r="S215" s="199"/>
+      <c r="T215" s="199"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="86" t="s">
@@ -31560,12 +31562,12 @@
       <c r="N216" s="94">
         <v>0.30558987029030266</v>
       </c>
-      <c r="O216" s="201"/>
-      <c r="P216" s="201"/>
-      <c r="Q216" s="201"/>
-      <c r="R216" s="201"/>
-      <c r="S216" s="201"/>
-      <c r="T216" s="201"/>
+      <c r="O216" s="199"/>
+      <c r="P216" s="199"/>
+      <c r="Q216" s="199"/>
+      <c r="R216" s="199"/>
+      <c r="S216" s="199"/>
+      <c r="T216" s="199"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
@@ -31610,12 +31612,12 @@
       <c r="N217" s="94">
         <v>0.29750362623101001</v>
       </c>
-      <c r="O217" s="201"/>
-      <c r="P217" s="201"/>
-      <c r="Q217" s="201"/>
-      <c r="R217" s="201"/>
-      <c r="S217" s="201"/>
-      <c r="T217" s="201"/>
+      <c r="O217" s="199"/>
+      <c r="P217" s="199"/>
+      <c r="Q217" s="199"/>
+      <c r="R217" s="199"/>
+      <c r="S217" s="199"/>
+      <c r="T217" s="199"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="91" t="s">
@@ -31673,12 +31675,12 @@
         <f t="shared" si="177"/>
         <v>0.29527730604387636</v>
       </c>
-      <c r="O218" s="201"/>
-      <c r="P218" s="201"/>
-      <c r="Q218" s="201"/>
-      <c r="R218" s="201"/>
-      <c r="S218" s="201"/>
-      <c r="T218" s="201"/>
+      <c r="O218" s="199"/>
+      <c r="P218" s="199"/>
+      <c r="Q218" s="199"/>
+      <c r="R218" s="199"/>
+      <c r="S218" s="199"/>
+      <c r="T218" s="199"/>
     </row>
     <row r="219" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="98"/>
@@ -31738,14 +31740,14 @@
       <c r="N220" s="94">
         <v>0.3031377688690155</v>
       </c>
-      <c r="O220" s="201" t="s">
+      <c r="O220" s="199" t="s">
         <v>217</v>
       </c>
-      <c r="P220" s="201"/>
-      <c r="Q220" s="201"/>
-      <c r="R220" s="201"/>
-      <c r="S220" s="201"/>
-      <c r="T220" s="201"/>
+      <c r="P220" s="199"/>
+      <c r="Q220" s="199"/>
+      <c r="R220" s="199"/>
+      <c r="S220" s="199"/>
+      <c r="T220" s="199"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
@@ -31790,12 +31792,12 @@
       <c r="N221" s="94">
         <v>0.3118931096092597</v>
       </c>
-      <c r="O221" s="201"/>
-      <c r="P221" s="201"/>
-      <c r="Q221" s="201"/>
-      <c r="R221" s="201"/>
-      <c r="S221" s="201"/>
-      <c r="T221" s="201"/>
+      <c r="O221" s="199"/>
+      <c r="P221" s="199"/>
+      <c r="Q221" s="199"/>
+      <c r="R221" s="199"/>
+      <c r="S221" s="199"/>
+      <c r="T221" s="199"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
@@ -31840,12 +31842,12 @@
       <c r="N222" s="94">
         <v>0.2965249199817101</v>
       </c>
-      <c r="O222" s="201"/>
-      <c r="P222" s="201"/>
-      <c r="Q222" s="201"/>
-      <c r="R222" s="201"/>
-      <c r="S222" s="201"/>
-      <c r="T222" s="201"/>
+      <c r="O222" s="199"/>
+      <c r="P222" s="199"/>
+      <c r="Q222" s="199"/>
+      <c r="R222" s="199"/>
+      <c r="S222" s="199"/>
+      <c r="T222" s="199"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
@@ -31890,12 +31892,12 @@
       <c r="N223" s="94">
         <v>0.30286452397234254</v>
       </c>
-      <c r="O223" s="201"/>
-      <c r="P223" s="201"/>
-      <c r="Q223" s="201"/>
-      <c r="R223" s="201"/>
-      <c r="S223" s="201"/>
-      <c r="T223" s="201"/>
+      <c r="O223" s="199"/>
+      <c r="P223" s="199"/>
+      <c r="Q223" s="199"/>
+      <c r="R223" s="199"/>
+      <c r="S223" s="199"/>
+      <c r="T223" s="199"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
@@ -31940,12 +31942,12 @@
       <c r="N224" s="94">
         <v>0.31905748714406323</v>
       </c>
-      <c r="O224" s="201"/>
-      <c r="P224" s="201"/>
-      <c r="Q224" s="201"/>
-      <c r="R224" s="201"/>
-      <c r="S224" s="201"/>
-      <c r="T224" s="201"/>
+      <c r="O224" s="199"/>
+      <c r="P224" s="199"/>
+      <c r="Q224" s="199"/>
+      <c r="R224" s="199"/>
+      <c r="S224" s="199"/>
+      <c r="T224" s="199"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
@@ -31990,12 +31992,12 @@
       <c r="N225" s="94">
         <v>0.30671726755218215</v>
       </c>
-      <c r="O225" s="201"/>
-      <c r="P225" s="201"/>
-      <c r="Q225" s="201"/>
-      <c r="R225" s="201"/>
-      <c r="S225" s="201"/>
-      <c r="T225" s="201"/>
+      <c r="O225" s="199"/>
+      <c r="P225" s="199"/>
+      <c r="Q225" s="199"/>
+      <c r="R225" s="199"/>
+      <c r="S225" s="199"/>
+      <c r="T225" s="199"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="86" t="s">
@@ -32040,12 +32042,12 @@
       <c r="N226" s="94">
         <v>0.30987884436160296</v>
       </c>
-      <c r="O226" s="201"/>
-      <c r="P226" s="201"/>
-      <c r="Q226" s="201"/>
-      <c r="R226" s="201"/>
-      <c r="S226" s="201"/>
-      <c r="T226" s="201"/>
+      <c r="O226" s="199"/>
+      <c r="P226" s="199"/>
+      <c r="Q226" s="199"/>
+      <c r="R226" s="199"/>
+      <c r="S226" s="199"/>
+      <c r="T226" s="199"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="86" t="s">
@@ -32090,12 +32092,12 @@
       <c r="N227" s="94">
         <v>0.28989197530864197</v>
       </c>
-      <c r="O227" s="201"/>
-      <c r="P227" s="201"/>
-      <c r="Q227" s="201"/>
-      <c r="R227" s="201"/>
-      <c r="S227" s="201"/>
-      <c r="T227" s="201"/>
+      <c r="O227" s="199"/>
+      <c r="P227" s="199"/>
+      <c r="Q227" s="199"/>
+      <c r="R227" s="199"/>
+      <c r="S227" s="199"/>
+      <c r="T227" s="199"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="86" t="s">
@@ -32140,12 +32142,12 @@
       <c r="N228" s="94">
         <v>0.28455598455598458</v>
       </c>
-      <c r="O228" s="201"/>
-      <c r="P228" s="201"/>
-      <c r="Q228" s="201"/>
-      <c r="R228" s="201"/>
-      <c r="S228" s="201"/>
-      <c r="T228" s="201"/>
+      <c r="O228" s="199"/>
+      <c r="P228" s="199"/>
+      <c r="Q228" s="199"/>
+      <c r="R228" s="199"/>
+      <c r="S228" s="199"/>
+      <c r="T228" s="199"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="86" t="s">
@@ -32164,12 +32166,12 @@
       <c r="L229" s="93"/>
       <c r="M229" s="93"/>
       <c r="N229" s="94"/>
-      <c r="O229" s="201"/>
-      <c r="P229" s="201"/>
-      <c r="Q229" s="201"/>
-      <c r="R229" s="201"/>
-      <c r="S229" s="201"/>
-      <c r="T229" s="201"/>
+      <c r="O229" s="199"/>
+      <c r="P229" s="199"/>
+      <c r="Q229" s="199"/>
+      <c r="R229" s="199"/>
+      <c r="S229" s="199"/>
+      <c r="T229" s="199"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
@@ -32227,21 +32229,15 @@
         <f t="shared" si="178"/>
         <v>0.30272465348386696</v>
       </c>
-      <c r="O230" s="201"/>
-      <c r="P230" s="201"/>
-      <c r="Q230" s="201"/>
-      <c r="R230" s="201"/>
-      <c r="S230" s="201"/>
-      <c r="T230" s="201"/>
+      <c r="O230" s="199"/>
+      <c r="P230" s="199"/>
+      <c r="Q230" s="199"/>
+      <c r="R230" s="199"/>
+      <c r="S230" s="199"/>
+      <c r="T230" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O220:T230"/>
-    <mergeCell ref="O160:T170"/>
-    <mergeCell ref="O172:T182"/>
     <mergeCell ref="O4:T14"/>
     <mergeCell ref="O100:T110"/>
     <mergeCell ref="O124:T134"/>
@@ -32255,6 +32251,12 @@
     <mergeCell ref="O64:T74"/>
     <mergeCell ref="O76:T86"/>
     <mergeCell ref="O88:T98"/>
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O220:T230"/>
+    <mergeCell ref="O160:T170"/>
+    <mergeCell ref="O172:T182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34058,16 +34060,16 @@
   <sheetData>
     <row r="1" spans="2:51" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" s="138" customFormat="1" ht="112.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="205" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="206"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="202" t="s">
         <v>198</v>
       </c>
@@ -34080,10 +34082,10 @@
         <v>208</v>
       </c>
       <c r="K2" s="202"/>
-      <c r="L2" s="206" t="s">
+      <c r="L2" s="207" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="206"/>
+      <c r="M2" s="207"/>
       <c r="N2" s="202" t="s">
         <v>210</v>
       </c>
@@ -34096,26 +34098,26 @@
         <v>199</v>
       </c>
       <c r="S2" s="202"/>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="206"/>
+      <c r="U2" s="207"/>
       <c r="V2" s="202" t="s">
         <v>201</v>
       </c>
       <c r="W2" s="202"/>
-      <c r="X2" s="206" t="s">
+      <c r="X2" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="206"/>
+      <c r="Y2" s="207"/>
       <c r="Z2" s="202" t="s">
         <v>203</v>
       </c>
       <c r="AA2" s="202"/>
-      <c r="AB2" s="206" t="s">
+      <c r="AB2" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="AC2" s="206"/>
+      <c r="AC2" s="207"/>
       <c r="AD2" s="202" t="s">
         <v>205</v>
       </c>
@@ -34159,11 +34161,11 @@
       <c r="AX2" s="202" t="s">
         <v>224</v>
       </c>
-      <c r="AY2" s="209"/>
+      <c r="AY2" s="204"/>
     </row>
     <row r="3" spans="2:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="208"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
@@ -36443,15 +36445,12 @@
     <row r="17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="R2:S2"/>
@@ -36463,12 +36462,15 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36542,16 +36544,16 @@
     </row>
     <row r="2" spans="1:27" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="138"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="205" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="206"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="202" t="s">
         <v>235</v>
       </c>
@@ -36564,10 +36566,10 @@
         <v>237</v>
       </c>
       <c r="K2" s="202"/>
-      <c r="L2" s="206" t="s">
+      <c r="L2" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="206"/>
+      <c r="M2" s="207"/>
       <c r="N2" s="202" t="s">
         <v>239</v>
       </c>
@@ -36580,27 +36582,27 @@
         <v>241</v>
       </c>
       <c r="S2" s="202"/>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="U2" s="206"/>
+      <c r="U2" s="207"/>
       <c r="V2" s="202" t="s">
         <v>243</v>
       </c>
       <c r="W2" s="202"/>
-      <c r="X2" s="206" t="s">
+      <c r="X2" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="206"/>
+      <c r="Y2" s="207"/>
       <c r="Z2" s="202" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="209"/>
+      <c r="AA2" s="204"/>
     </row>
     <row r="3" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="88"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
@@ -37547,12 +37549,6 @@
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="L2:M2"/>
@@ -37561,6 +37557,12 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43639,12 +43641,12 @@
         <f t="shared" ref="N136:N145" si="23">K136/L136</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O136" s="201"/>
-      <c r="P136" s="201"/>
-      <c r="Q136" s="201"/>
-      <c r="R136" s="201"/>
-      <c r="S136" s="201"/>
-      <c r="T136" s="201"/>
+      <c r="O136" s="199"/>
+      <c r="P136" s="199"/>
+      <c r="Q136" s="199"/>
+      <c r="R136" s="199"/>
+      <c r="S136" s="199"/>
+      <c r="T136" s="199"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="86" t="s">
@@ -43666,12 +43668,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O137" s="201"/>
-      <c r="P137" s="201"/>
-      <c r="Q137" s="201"/>
-      <c r="R137" s="201"/>
-      <c r="S137" s="201"/>
-      <c r="T137" s="201"/>
+      <c r="O137" s="199"/>
+      <c r="P137" s="199"/>
+      <c r="Q137" s="199"/>
+      <c r="R137" s="199"/>
+      <c r="S137" s="199"/>
+      <c r="T137" s="199"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="86" t="s">
@@ -43693,12 +43695,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O138" s="201"/>
-      <c r="P138" s="201"/>
-      <c r="Q138" s="201"/>
-      <c r="R138" s="201"/>
-      <c r="S138" s="201"/>
-      <c r="T138" s="201"/>
+      <c r="O138" s="199"/>
+      <c r="P138" s="199"/>
+      <c r="Q138" s="199"/>
+      <c r="R138" s="199"/>
+      <c r="S138" s="199"/>
+      <c r="T138" s="199"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="86" t="s">
@@ -43720,12 +43722,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O139" s="201"/>
-      <c r="P139" s="201"/>
-      <c r="Q139" s="201"/>
-      <c r="R139" s="201"/>
-      <c r="S139" s="201"/>
-      <c r="T139" s="201"/>
+      <c r="O139" s="199"/>
+      <c r="P139" s="199"/>
+      <c r="Q139" s="199"/>
+      <c r="R139" s="199"/>
+      <c r="S139" s="199"/>
+      <c r="T139" s="199"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="86" t="s">
@@ -43747,12 +43749,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O140" s="201"/>
-      <c r="P140" s="201"/>
-      <c r="Q140" s="201"/>
-      <c r="R140" s="201"/>
-      <c r="S140" s="201"/>
-      <c r="T140" s="201"/>
+      <c r="O140" s="199"/>
+      <c r="P140" s="199"/>
+      <c r="Q140" s="199"/>
+      <c r="R140" s="199"/>
+      <c r="S140" s="199"/>
+      <c r="T140" s="199"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="86" t="s">
@@ -43774,12 +43776,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O141" s="201"/>
-      <c r="P141" s="201"/>
-      <c r="Q141" s="201"/>
-      <c r="R141" s="201"/>
-      <c r="S141" s="201"/>
-      <c r="T141" s="201"/>
+      <c r="O141" s="199"/>
+      <c r="P141" s="199"/>
+      <c r="Q141" s="199"/>
+      <c r="R141" s="199"/>
+      <c r="S141" s="199"/>
+      <c r="T141" s="199"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="86" t="s">
@@ -43801,12 +43803,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O142" s="201"/>
-      <c r="P142" s="201"/>
-      <c r="Q142" s="201"/>
-      <c r="R142" s="201"/>
-      <c r="S142" s="201"/>
-      <c r="T142" s="201"/>
+      <c r="O142" s="199"/>
+      <c r="P142" s="199"/>
+      <c r="Q142" s="199"/>
+      <c r="R142" s="199"/>
+      <c r="S142" s="199"/>
+      <c r="T142" s="199"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="86" t="s">
@@ -43828,12 +43830,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O143" s="201"/>
-      <c r="P143" s="201"/>
-      <c r="Q143" s="201"/>
-      <c r="R143" s="201"/>
-      <c r="S143" s="201"/>
-      <c r="T143" s="201"/>
+      <c r="O143" s="199"/>
+      <c r="P143" s="199"/>
+      <c r="Q143" s="199"/>
+      <c r="R143" s="199"/>
+      <c r="S143" s="199"/>
+      <c r="T143" s="199"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="86" t="s">
@@ -43855,12 +43857,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O144" s="201"/>
-      <c r="P144" s="201"/>
-      <c r="Q144" s="201"/>
-      <c r="R144" s="201"/>
-      <c r="S144" s="201"/>
-      <c r="T144" s="201"/>
+      <c r="O144" s="199"/>
+      <c r="P144" s="199"/>
+      <c r="Q144" s="199"/>
+      <c r="R144" s="199"/>
+      <c r="S144" s="199"/>
+      <c r="T144" s="199"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="86" t="s">
@@ -43882,12 +43884,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O145" s="201"/>
-      <c r="P145" s="201"/>
-      <c r="Q145" s="201"/>
-      <c r="R145" s="201"/>
-      <c r="S145" s="201"/>
-      <c r="T145" s="201"/>
+      <c r="O145" s="199"/>
+      <c r="P145" s="199"/>
+      <c r="Q145" s="199"/>
+      <c r="R145" s="199"/>
+      <c r="S145" s="199"/>
+      <c r="T145" s="199"/>
     </row>
     <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="91" t="s">
@@ -43945,12 +43947,12 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O146" s="201"/>
-      <c r="P146" s="201"/>
-      <c r="Q146" s="201"/>
-      <c r="R146" s="201"/>
-      <c r="S146" s="201"/>
-      <c r="T146" s="201"/>
+      <c r="O146" s="199"/>
+      <c r="P146" s="199"/>
+      <c r="Q146" s="199"/>
+      <c r="R146" s="199"/>
+      <c r="S146" s="199"/>
+      <c r="T146" s="199"/>
     </row>
     <row r="147" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="98"/>
@@ -43987,12 +43989,12 @@
         <f t="shared" ref="N148:N157" si="25">K148/L148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O148" s="201"/>
-      <c r="P148" s="201"/>
-      <c r="Q148" s="201"/>
-      <c r="R148" s="201"/>
-      <c r="S148" s="201"/>
-      <c r="T148" s="201"/>
+      <c r="O148" s="199"/>
+      <c r="P148" s="199"/>
+      <c r="Q148" s="199"/>
+      <c r="R148" s="199"/>
+      <c r="S148" s="199"/>
+      <c r="T148" s="199"/>
     </row>
     <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="86" t="s">
@@ -44014,12 +44016,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O149" s="201"/>
-      <c r="P149" s="201"/>
-      <c r="Q149" s="201"/>
-      <c r="R149" s="201"/>
-      <c r="S149" s="201"/>
-      <c r="T149" s="201"/>
+      <c r="O149" s="199"/>
+      <c r="P149" s="199"/>
+      <c r="Q149" s="199"/>
+      <c r="R149" s="199"/>
+      <c r="S149" s="199"/>
+      <c r="T149" s="199"/>
     </row>
     <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="86" t="s">
@@ -44041,12 +44043,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O150" s="201"/>
-      <c r="P150" s="201"/>
-      <c r="Q150" s="201"/>
-      <c r="R150" s="201"/>
-      <c r="S150" s="201"/>
-      <c r="T150" s="201"/>
+      <c r="O150" s="199"/>
+      <c r="P150" s="199"/>
+      <c r="Q150" s="199"/>
+      <c r="R150" s="199"/>
+      <c r="S150" s="199"/>
+      <c r="T150" s="199"/>
     </row>
     <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="86" t="s">
@@ -44068,12 +44070,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O151" s="201"/>
-      <c r="P151" s="201"/>
-      <c r="Q151" s="201"/>
-      <c r="R151" s="201"/>
-      <c r="S151" s="201"/>
-      <c r="T151" s="201"/>
+      <c r="O151" s="199"/>
+      <c r="P151" s="199"/>
+      <c r="Q151" s="199"/>
+      <c r="R151" s="199"/>
+      <c r="S151" s="199"/>
+      <c r="T151" s="199"/>
     </row>
     <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="86" t="s">
@@ -44095,12 +44097,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O152" s="201"/>
-      <c r="P152" s="201"/>
-      <c r="Q152" s="201"/>
-      <c r="R152" s="201"/>
-      <c r="S152" s="201"/>
-      <c r="T152" s="201"/>
+      <c r="O152" s="199"/>
+      <c r="P152" s="199"/>
+      <c r="Q152" s="199"/>
+      <c r="R152" s="199"/>
+      <c r="S152" s="199"/>
+      <c r="T152" s="199"/>
     </row>
     <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="86" t="s">
@@ -44122,12 +44124,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O153" s="201"/>
-      <c r="P153" s="201"/>
-      <c r="Q153" s="201"/>
-      <c r="R153" s="201"/>
-      <c r="S153" s="201"/>
-      <c r="T153" s="201"/>
+      <c r="O153" s="199"/>
+      <c r="P153" s="199"/>
+      <c r="Q153" s="199"/>
+      <c r="R153" s="199"/>
+      <c r="S153" s="199"/>
+      <c r="T153" s="199"/>
     </row>
     <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="86" t="s">
@@ -44149,12 +44151,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O154" s="201"/>
-      <c r="P154" s="201"/>
-      <c r="Q154" s="201"/>
-      <c r="R154" s="201"/>
-      <c r="S154" s="201"/>
-      <c r="T154" s="201"/>
+      <c r="O154" s="199"/>
+      <c r="P154" s="199"/>
+      <c r="Q154" s="199"/>
+      <c r="R154" s="199"/>
+      <c r="S154" s="199"/>
+      <c r="T154" s="199"/>
     </row>
     <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="86" t="s">
@@ -44176,12 +44178,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O155" s="201"/>
-      <c r="P155" s="201"/>
-      <c r="Q155" s="201"/>
-      <c r="R155" s="201"/>
-      <c r="S155" s="201"/>
-      <c r="T155" s="201"/>
+      <c r="O155" s="199"/>
+      <c r="P155" s="199"/>
+      <c r="Q155" s="199"/>
+      <c r="R155" s="199"/>
+      <c r="S155" s="199"/>
+      <c r="T155" s="199"/>
     </row>
     <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="86" t="s">
@@ -44203,12 +44205,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O156" s="201"/>
-      <c r="P156" s="201"/>
-      <c r="Q156" s="201"/>
-      <c r="R156" s="201"/>
-      <c r="S156" s="201"/>
-      <c r="T156" s="201"/>
+      <c r="O156" s="199"/>
+      <c r="P156" s="199"/>
+      <c r="Q156" s="199"/>
+      <c r="R156" s="199"/>
+      <c r="S156" s="199"/>
+      <c r="T156" s="199"/>
     </row>
     <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="86" t="s">
@@ -44230,12 +44232,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O157" s="201"/>
-      <c r="P157" s="201"/>
-      <c r="Q157" s="201"/>
-      <c r="R157" s="201"/>
-      <c r="S157" s="201"/>
-      <c r="T157" s="201"/>
+      <c r="O157" s="199"/>
+      <c r="P157" s="199"/>
+      <c r="Q157" s="199"/>
+      <c r="R157" s="199"/>
+      <c r="S157" s="199"/>
+      <c r="T157" s="199"/>
     </row>
     <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="91" t="s">
@@ -44293,12 +44295,12 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O158" s="201"/>
-      <c r="P158" s="201"/>
-      <c r="Q158" s="201"/>
-      <c r="R158" s="201"/>
-      <c r="S158" s="201"/>
-      <c r="T158" s="201"/>
+      <c r="O158" s="199"/>
+      <c r="P158" s="199"/>
+      <c r="Q158" s="199"/>
+      <c r="R158" s="199"/>
+      <c r="S158" s="199"/>
+      <c r="T158" s="199"/>
     </row>
     <row r="159" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="98"/>
@@ -44335,12 +44337,12 @@
         <f t="shared" ref="N160:N169" si="27">K160/L160</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O160" s="201"/>
-      <c r="P160" s="201"/>
-      <c r="Q160" s="201"/>
-      <c r="R160" s="201"/>
-      <c r="S160" s="201"/>
-      <c r="T160" s="201"/>
+      <c r="O160" s="199"/>
+      <c r="P160" s="199"/>
+      <c r="Q160" s="199"/>
+      <c r="R160" s="199"/>
+      <c r="S160" s="199"/>
+      <c r="T160" s="199"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="86" t="s">
@@ -44362,12 +44364,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O161" s="201"/>
-      <c r="P161" s="201"/>
-      <c r="Q161" s="201"/>
-      <c r="R161" s="201"/>
-      <c r="S161" s="201"/>
-      <c r="T161" s="201"/>
+      <c r="O161" s="199"/>
+      <c r="P161" s="199"/>
+      <c r="Q161" s="199"/>
+      <c r="R161" s="199"/>
+      <c r="S161" s="199"/>
+      <c r="T161" s="199"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="86" t="s">
@@ -44389,12 +44391,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O162" s="201"/>
-      <c r="P162" s="201"/>
-      <c r="Q162" s="201"/>
-      <c r="R162" s="201"/>
-      <c r="S162" s="201"/>
-      <c r="T162" s="201"/>
+      <c r="O162" s="199"/>
+      <c r="P162" s="199"/>
+      <c r="Q162" s="199"/>
+      <c r="R162" s="199"/>
+      <c r="S162" s="199"/>
+      <c r="T162" s="199"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
@@ -44416,12 +44418,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O163" s="201"/>
-      <c r="P163" s="201"/>
-      <c r="Q163" s="201"/>
-      <c r="R163" s="201"/>
-      <c r="S163" s="201"/>
-      <c r="T163" s="201"/>
+      <c r="O163" s="199"/>
+      <c r="P163" s="199"/>
+      <c r="Q163" s="199"/>
+      <c r="R163" s="199"/>
+      <c r="S163" s="199"/>
+      <c r="T163" s="199"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
@@ -44443,12 +44445,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O164" s="201"/>
-      <c r="P164" s="201"/>
-      <c r="Q164" s="201"/>
-      <c r="R164" s="201"/>
-      <c r="S164" s="201"/>
-      <c r="T164" s="201"/>
+      <c r="O164" s="199"/>
+      <c r="P164" s="199"/>
+      <c r="Q164" s="199"/>
+      <c r="R164" s="199"/>
+      <c r="S164" s="199"/>
+      <c r="T164" s="199"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
@@ -44470,12 +44472,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O165" s="201"/>
-      <c r="P165" s="201"/>
-      <c r="Q165" s="201"/>
-      <c r="R165" s="201"/>
-      <c r="S165" s="201"/>
-      <c r="T165" s="201"/>
+      <c r="O165" s="199"/>
+      <c r="P165" s="199"/>
+      <c r="Q165" s="199"/>
+      <c r="R165" s="199"/>
+      <c r="S165" s="199"/>
+      <c r="T165" s="199"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
@@ -44497,12 +44499,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O166" s="201"/>
-      <c r="P166" s="201"/>
-      <c r="Q166" s="201"/>
-      <c r="R166" s="201"/>
-      <c r="S166" s="201"/>
-      <c r="T166" s="201"/>
+      <c r="O166" s="199"/>
+      <c r="P166" s="199"/>
+      <c r="Q166" s="199"/>
+      <c r="R166" s="199"/>
+      <c r="S166" s="199"/>
+      <c r="T166" s="199"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="86" t="s">
@@ -44524,12 +44526,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O167" s="201"/>
-      <c r="P167" s="201"/>
-      <c r="Q167" s="201"/>
-      <c r="R167" s="201"/>
-      <c r="S167" s="201"/>
-      <c r="T167" s="201"/>
+      <c r="O167" s="199"/>
+      <c r="P167" s="199"/>
+      <c r="Q167" s="199"/>
+      <c r="R167" s="199"/>
+      <c r="S167" s="199"/>
+      <c r="T167" s="199"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
@@ -44551,12 +44553,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O168" s="201"/>
-      <c r="P168" s="201"/>
-      <c r="Q168" s="201"/>
-      <c r="R168" s="201"/>
-      <c r="S168" s="201"/>
-      <c r="T168" s="201"/>
+      <c r="O168" s="199"/>
+      <c r="P168" s="199"/>
+      <c r="Q168" s="199"/>
+      <c r="R168" s="199"/>
+      <c r="S168" s="199"/>
+      <c r="T168" s="199"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="86" t="s">
@@ -44578,12 +44580,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O169" s="201"/>
-      <c r="P169" s="201"/>
-      <c r="Q169" s="201"/>
-      <c r="R169" s="201"/>
-      <c r="S169" s="201"/>
-      <c r="T169" s="201"/>
+      <c r="O169" s="199"/>
+      <c r="P169" s="199"/>
+      <c r="Q169" s="199"/>
+      <c r="R169" s="199"/>
+      <c r="S169" s="199"/>
+      <c r="T169" s="199"/>
     </row>
     <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="91" t="s">
@@ -44641,12 +44643,12 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O170" s="201"/>
-      <c r="P170" s="201"/>
-      <c r="Q170" s="201"/>
-      <c r="R170" s="201"/>
-      <c r="S170" s="201"/>
-      <c r="T170" s="201"/>
+      <c r="O170" s="199"/>
+      <c r="P170" s="199"/>
+      <c r="Q170" s="199"/>
+      <c r="R170" s="199"/>
+      <c r="S170" s="199"/>
+      <c r="T170" s="199"/>
     </row>
     <row r="171" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="98"/>
@@ -44683,12 +44685,12 @@
         <f t="shared" ref="N172:N181" si="29">K172/L172</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O172" s="201"/>
-      <c r="P172" s="201"/>
-      <c r="Q172" s="201"/>
-      <c r="R172" s="201"/>
-      <c r="S172" s="201"/>
-      <c r="T172" s="201"/>
+      <c r="O172" s="199"/>
+      <c r="P172" s="199"/>
+      <c r="Q172" s="199"/>
+      <c r="R172" s="199"/>
+      <c r="S172" s="199"/>
+      <c r="T172" s="199"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="86" t="s">
@@ -44710,12 +44712,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O173" s="201"/>
-      <c r="P173" s="201"/>
-      <c r="Q173" s="201"/>
-      <c r="R173" s="201"/>
-      <c r="S173" s="201"/>
-      <c r="T173" s="201"/>
+      <c r="O173" s="199"/>
+      <c r="P173" s="199"/>
+      <c r="Q173" s="199"/>
+      <c r="R173" s="199"/>
+      <c r="S173" s="199"/>
+      <c r="T173" s="199"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="86" t="s">
@@ -44737,12 +44739,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O174" s="201"/>
-      <c r="P174" s="201"/>
-      <c r="Q174" s="201"/>
-      <c r="R174" s="201"/>
-      <c r="S174" s="201"/>
-      <c r="T174" s="201"/>
+      <c r="O174" s="199"/>
+      <c r="P174" s="199"/>
+      <c r="Q174" s="199"/>
+      <c r="R174" s="199"/>
+      <c r="S174" s="199"/>
+      <c r="T174" s="199"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="86" t="s">
@@ -44764,12 +44766,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O175" s="201"/>
-      <c r="P175" s="201"/>
-      <c r="Q175" s="201"/>
-      <c r="R175" s="201"/>
-      <c r="S175" s="201"/>
-      <c r="T175" s="201"/>
+      <c r="O175" s="199"/>
+      <c r="P175" s="199"/>
+      <c r="Q175" s="199"/>
+      <c r="R175" s="199"/>
+      <c r="S175" s="199"/>
+      <c r="T175" s="199"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="86" t="s">
@@ -44791,12 +44793,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O176" s="201"/>
-      <c r="P176" s="201"/>
-      <c r="Q176" s="201"/>
-      <c r="R176" s="201"/>
-      <c r="S176" s="201"/>
-      <c r="T176" s="201"/>
+      <c r="O176" s="199"/>
+      <c r="P176" s="199"/>
+      <c r="Q176" s="199"/>
+      <c r="R176" s="199"/>
+      <c r="S176" s="199"/>
+      <c r="T176" s="199"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="86" t="s">
@@ -44818,12 +44820,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O177" s="201"/>
-      <c r="P177" s="201"/>
-      <c r="Q177" s="201"/>
-      <c r="R177" s="201"/>
-      <c r="S177" s="201"/>
-      <c r="T177" s="201"/>
+      <c r="O177" s="199"/>
+      <c r="P177" s="199"/>
+      <c r="Q177" s="199"/>
+      <c r="R177" s="199"/>
+      <c r="S177" s="199"/>
+      <c r="T177" s="199"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="86" t="s">
@@ -44845,12 +44847,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O178" s="201"/>
-      <c r="P178" s="201"/>
-      <c r="Q178" s="201"/>
-      <c r="R178" s="201"/>
-      <c r="S178" s="201"/>
-      <c r="T178" s="201"/>
+      <c r="O178" s="199"/>
+      <c r="P178" s="199"/>
+      <c r="Q178" s="199"/>
+      <c r="R178" s="199"/>
+      <c r="S178" s="199"/>
+      <c r="T178" s="199"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="86" t="s">
@@ -44872,12 +44874,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O179" s="201"/>
-      <c r="P179" s="201"/>
-      <c r="Q179" s="201"/>
-      <c r="R179" s="201"/>
-      <c r="S179" s="201"/>
-      <c r="T179" s="201"/>
+      <c r="O179" s="199"/>
+      <c r="P179" s="199"/>
+      <c r="Q179" s="199"/>
+      <c r="R179" s="199"/>
+      <c r="S179" s="199"/>
+      <c r="T179" s="199"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="86" t="s">
@@ -44899,12 +44901,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O180" s="201"/>
-      <c r="P180" s="201"/>
-      <c r="Q180" s="201"/>
-      <c r="R180" s="201"/>
-      <c r="S180" s="201"/>
-      <c r="T180" s="201"/>
+      <c r="O180" s="199"/>
+      <c r="P180" s="199"/>
+      <c r="Q180" s="199"/>
+      <c r="R180" s="199"/>
+      <c r="S180" s="199"/>
+      <c r="T180" s="199"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="86" t="s">
@@ -44926,12 +44928,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O181" s="201"/>
-      <c r="P181" s="201"/>
-      <c r="Q181" s="201"/>
-      <c r="R181" s="201"/>
-      <c r="S181" s="201"/>
-      <c r="T181" s="201"/>
+      <c r="O181" s="199"/>
+      <c r="P181" s="199"/>
+      <c r="Q181" s="199"/>
+      <c r="R181" s="199"/>
+      <c r="S181" s="199"/>
+      <c r="T181" s="199"/>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="91" t="s">
@@ -44989,12 +44991,12 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O182" s="201"/>
-      <c r="P182" s="201"/>
-      <c r="Q182" s="201"/>
-      <c r="R182" s="201"/>
-      <c r="S182" s="201"/>
-      <c r="T182" s="201"/>
+      <c r="O182" s="199"/>
+      <c r="P182" s="199"/>
+      <c r="Q182" s="199"/>
+      <c r="R182" s="199"/>
+      <c r="S182" s="199"/>
+      <c r="T182" s="199"/>
     </row>
     <row r="183" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="98"/>
@@ -45031,12 +45033,12 @@
         <f t="shared" ref="N184:N193" si="31">K184/L184</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O184" s="201"/>
-      <c r="P184" s="201"/>
-      <c r="Q184" s="201"/>
-      <c r="R184" s="201"/>
-      <c r="S184" s="201"/>
-      <c r="T184" s="201"/>
+      <c r="O184" s="199"/>
+      <c r="P184" s="199"/>
+      <c r="Q184" s="199"/>
+      <c r="R184" s="199"/>
+      <c r="S184" s="199"/>
+      <c r="T184" s="199"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="86" t="s">
@@ -45058,12 +45060,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O185" s="201"/>
-      <c r="P185" s="201"/>
-      <c r="Q185" s="201"/>
-      <c r="R185" s="201"/>
-      <c r="S185" s="201"/>
-      <c r="T185" s="201"/>
+      <c r="O185" s="199"/>
+      <c r="P185" s="199"/>
+      <c r="Q185" s="199"/>
+      <c r="R185" s="199"/>
+      <c r="S185" s="199"/>
+      <c r="T185" s="199"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="86" t="s">
@@ -45085,12 +45087,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O186" s="201"/>
-      <c r="P186" s="201"/>
-      <c r="Q186" s="201"/>
-      <c r="R186" s="201"/>
-      <c r="S186" s="201"/>
-      <c r="T186" s="201"/>
+      <c r="O186" s="199"/>
+      <c r="P186" s="199"/>
+      <c r="Q186" s="199"/>
+      <c r="R186" s="199"/>
+      <c r="S186" s="199"/>
+      <c r="T186" s="199"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="86" t="s">
@@ -45112,12 +45114,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O187" s="201"/>
-      <c r="P187" s="201"/>
-      <c r="Q187" s="201"/>
-      <c r="R187" s="201"/>
-      <c r="S187" s="201"/>
-      <c r="T187" s="201"/>
+      <c r="O187" s="199"/>
+      <c r="P187" s="199"/>
+      <c r="Q187" s="199"/>
+      <c r="R187" s="199"/>
+      <c r="S187" s="199"/>
+      <c r="T187" s="199"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="86" t="s">
@@ -45139,12 +45141,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O188" s="201"/>
-      <c r="P188" s="201"/>
-      <c r="Q188" s="201"/>
-      <c r="R188" s="201"/>
-      <c r="S188" s="201"/>
-      <c r="T188" s="201"/>
+      <c r="O188" s="199"/>
+      <c r="P188" s="199"/>
+      <c r="Q188" s="199"/>
+      <c r="R188" s="199"/>
+      <c r="S188" s="199"/>
+      <c r="T188" s="199"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="86" t="s">
@@ -45166,12 +45168,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O189" s="201"/>
-      <c r="P189" s="201"/>
-      <c r="Q189" s="201"/>
-      <c r="R189" s="201"/>
-      <c r="S189" s="201"/>
-      <c r="T189" s="201"/>
+      <c r="O189" s="199"/>
+      <c r="P189" s="199"/>
+      <c r="Q189" s="199"/>
+      <c r="R189" s="199"/>
+      <c r="S189" s="199"/>
+      <c r="T189" s="199"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="86" t="s">
@@ -45193,12 +45195,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O190" s="201"/>
-      <c r="P190" s="201"/>
-      <c r="Q190" s="201"/>
-      <c r="R190" s="201"/>
-      <c r="S190" s="201"/>
-      <c r="T190" s="201"/>
+      <c r="O190" s="199"/>
+      <c r="P190" s="199"/>
+      <c r="Q190" s="199"/>
+      <c r="R190" s="199"/>
+      <c r="S190" s="199"/>
+      <c r="T190" s="199"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="86" t="s">
@@ -45220,12 +45222,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O191" s="201"/>
-      <c r="P191" s="201"/>
-      <c r="Q191" s="201"/>
-      <c r="R191" s="201"/>
-      <c r="S191" s="201"/>
-      <c r="T191" s="201"/>
+      <c r="O191" s="199"/>
+      <c r="P191" s="199"/>
+      <c r="Q191" s="199"/>
+      <c r="R191" s="199"/>
+      <c r="S191" s="199"/>
+      <c r="T191" s="199"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="86" t="s">
@@ -45247,12 +45249,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O192" s="201"/>
-      <c r="P192" s="201"/>
-      <c r="Q192" s="201"/>
-      <c r="R192" s="201"/>
-      <c r="S192" s="201"/>
-      <c r="T192" s="201"/>
+      <c r="O192" s="199"/>
+      <c r="P192" s="199"/>
+      <c r="Q192" s="199"/>
+      <c r="R192" s="199"/>
+      <c r="S192" s="199"/>
+      <c r="T192" s="199"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="86" t="s">
@@ -45274,12 +45276,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O193" s="201"/>
-      <c r="P193" s="201"/>
-      <c r="Q193" s="201"/>
-      <c r="R193" s="201"/>
-      <c r="S193" s="201"/>
-      <c r="T193" s="201"/>
+      <c r="O193" s="199"/>
+      <c r="P193" s="199"/>
+      <c r="Q193" s="199"/>
+      <c r="R193" s="199"/>
+      <c r="S193" s="199"/>
+      <c r="T193" s="199"/>
     </row>
     <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="91" t="s">
@@ -45337,12 +45339,12 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="201"/>
-      <c r="P194" s="201"/>
-      <c r="Q194" s="201"/>
-      <c r="R194" s="201"/>
-      <c r="S194" s="201"/>
-      <c r="T194" s="201"/>
+      <c r="O194" s="199"/>
+      <c r="P194" s="199"/>
+      <c r="Q194" s="199"/>
+      <c r="R194" s="199"/>
+      <c r="S194" s="199"/>
+      <c r="T194" s="199"/>
     </row>
     <row r="195" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="98"/>
@@ -45379,12 +45381,12 @@
         <f t="shared" ref="N196:N205" si="33">K196/L196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O196" s="201"/>
-      <c r="P196" s="201"/>
-      <c r="Q196" s="201"/>
-      <c r="R196" s="201"/>
-      <c r="S196" s="201"/>
-      <c r="T196" s="201"/>
+      <c r="O196" s="199"/>
+      <c r="P196" s="199"/>
+      <c r="Q196" s="199"/>
+      <c r="R196" s="199"/>
+      <c r="S196" s="199"/>
+      <c r="T196" s="199"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="86" t="s">
@@ -45406,12 +45408,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O197" s="201"/>
-      <c r="P197" s="201"/>
-      <c r="Q197" s="201"/>
-      <c r="R197" s="201"/>
-      <c r="S197" s="201"/>
-      <c r="T197" s="201"/>
+      <c r="O197" s="199"/>
+      <c r="P197" s="199"/>
+      <c r="Q197" s="199"/>
+      <c r="R197" s="199"/>
+      <c r="S197" s="199"/>
+      <c r="T197" s="199"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="86" t="s">
@@ -45433,12 +45435,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O198" s="201"/>
-      <c r="P198" s="201"/>
-      <c r="Q198" s="201"/>
-      <c r="R198" s="201"/>
-      <c r="S198" s="201"/>
-      <c r="T198" s="201"/>
+      <c r="O198" s="199"/>
+      <c r="P198" s="199"/>
+      <c r="Q198" s="199"/>
+      <c r="R198" s="199"/>
+      <c r="S198" s="199"/>
+      <c r="T198" s="199"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="86" t="s">
@@ -45460,12 +45462,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O199" s="201"/>
-      <c r="P199" s="201"/>
-      <c r="Q199" s="201"/>
-      <c r="R199" s="201"/>
-      <c r="S199" s="201"/>
-      <c r="T199" s="201"/>
+      <c r="O199" s="199"/>
+      <c r="P199" s="199"/>
+      <c r="Q199" s="199"/>
+      <c r="R199" s="199"/>
+      <c r="S199" s="199"/>
+      <c r="T199" s="199"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="86" t="s">
@@ -45487,12 +45489,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O200" s="201"/>
-      <c r="P200" s="201"/>
-      <c r="Q200" s="201"/>
-      <c r="R200" s="201"/>
-      <c r="S200" s="201"/>
-      <c r="T200" s="201"/>
+      <c r="O200" s="199"/>
+      <c r="P200" s="199"/>
+      <c r="Q200" s="199"/>
+      <c r="R200" s="199"/>
+      <c r="S200" s="199"/>
+      <c r="T200" s="199"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="86" t="s">
@@ -45514,12 +45516,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O201" s="201"/>
-      <c r="P201" s="201"/>
-      <c r="Q201" s="201"/>
-      <c r="R201" s="201"/>
-      <c r="S201" s="201"/>
-      <c r="T201" s="201"/>
+      <c r="O201" s="199"/>
+      <c r="P201" s="199"/>
+      <c r="Q201" s="199"/>
+      <c r="R201" s="199"/>
+      <c r="S201" s="199"/>
+      <c r="T201" s="199"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="86" t="s">
@@ -45541,12 +45543,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O202" s="201"/>
-      <c r="P202" s="201"/>
-      <c r="Q202" s="201"/>
-      <c r="R202" s="201"/>
-      <c r="S202" s="201"/>
-      <c r="T202" s="201"/>
+      <c r="O202" s="199"/>
+      <c r="P202" s="199"/>
+      <c r="Q202" s="199"/>
+      <c r="R202" s="199"/>
+      <c r="S202" s="199"/>
+      <c r="T202" s="199"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="86" t="s">
@@ -45568,12 +45570,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O203" s="201"/>
-      <c r="P203" s="201"/>
-      <c r="Q203" s="201"/>
-      <c r="R203" s="201"/>
-      <c r="S203" s="201"/>
-      <c r="T203" s="201"/>
+      <c r="O203" s="199"/>
+      <c r="P203" s="199"/>
+      <c r="Q203" s="199"/>
+      <c r="R203" s="199"/>
+      <c r="S203" s="199"/>
+      <c r="T203" s="199"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="86" t="s">
@@ -45595,12 +45597,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O204" s="201"/>
-      <c r="P204" s="201"/>
-      <c r="Q204" s="201"/>
-      <c r="R204" s="201"/>
-      <c r="S204" s="201"/>
-      <c r="T204" s="201"/>
+      <c r="O204" s="199"/>
+      <c r="P204" s="199"/>
+      <c r="Q204" s="199"/>
+      <c r="R204" s="199"/>
+      <c r="S204" s="199"/>
+      <c r="T204" s="199"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="86" t="s">
@@ -45622,12 +45624,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O205" s="201"/>
-      <c r="P205" s="201"/>
-      <c r="Q205" s="201"/>
-      <c r="R205" s="201"/>
-      <c r="S205" s="201"/>
-      <c r="T205" s="201"/>
+      <c r="O205" s="199"/>
+      <c r="P205" s="199"/>
+      <c r="Q205" s="199"/>
+      <c r="R205" s="199"/>
+      <c r="S205" s="199"/>
+      <c r="T205" s="199"/>
     </row>
     <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
@@ -45685,12 +45687,12 @@
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O206" s="201"/>
-      <c r="P206" s="201"/>
-      <c r="Q206" s="201"/>
-      <c r="R206" s="201"/>
-      <c r="S206" s="201"/>
-      <c r="T206" s="201"/>
+      <c r="O206" s="199"/>
+      <c r="P206" s="199"/>
+      <c r="Q206" s="199"/>
+      <c r="R206" s="199"/>
+      <c r="S206" s="199"/>
+      <c r="T206" s="199"/>
     </row>
     <row r="207" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="98"/>
@@ -45727,12 +45729,12 @@
         <f t="shared" ref="N208:N217" si="35">K208/L208</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O208" s="201"/>
-      <c r="P208" s="201"/>
-      <c r="Q208" s="201"/>
-      <c r="R208" s="201"/>
-      <c r="S208" s="201"/>
-      <c r="T208" s="201"/>
+      <c r="O208" s="199"/>
+      <c r="P208" s="199"/>
+      <c r="Q208" s="199"/>
+      <c r="R208" s="199"/>
+      <c r="S208" s="199"/>
+      <c r="T208" s="199"/>
     </row>
     <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="86" t="s">
@@ -45754,12 +45756,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O209" s="201"/>
-      <c r="P209" s="201"/>
-      <c r="Q209" s="201"/>
-      <c r="R209" s="201"/>
-      <c r="S209" s="201"/>
-      <c r="T209" s="201"/>
+      <c r="O209" s="199"/>
+      <c r="P209" s="199"/>
+      <c r="Q209" s="199"/>
+      <c r="R209" s="199"/>
+      <c r="S209" s="199"/>
+      <c r="T209" s="199"/>
     </row>
     <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="86" t="s">
@@ -45781,12 +45783,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O210" s="201"/>
-      <c r="P210" s="201"/>
-      <c r="Q210" s="201"/>
-      <c r="R210" s="201"/>
-      <c r="S210" s="201"/>
-      <c r="T210" s="201"/>
+      <c r="O210" s="199"/>
+      <c r="P210" s="199"/>
+      <c r="Q210" s="199"/>
+      <c r="R210" s="199"/>
+      <c r="S210" s="199"/>
+      <c r="T210" s="199"/>
     </row>
     <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="86" t="s">
@@ -45808,12 +45810,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O211" s="201"/>
-      <c r="P211" s="201"/>
-      <c r="Q211" s="201"/>
-      <c r="R211" s="201"/>
-      <c r="S211" s="201"/>
-      <c r="T211" s="201"/>
+      <c r="O211" s="199"/>
+      <c r="P211" s="199"/>
+      <c r="Q211" s="199"/>
+      <c r="R211" s="199"/>
+      <c r="S211" s="199"/>
+      <c r="T211" s="199"/>
     </row>
     <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="86" t="s">
@@ -45835,12 +45837,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O212" s="201"/>
-      <c r="P212" s="201"/>
-      <c r="Q212" s="201"/>
-      <c r="R212" s="201"/>
-      <c r="S212" s="201"/>
-      <c r="T212" s="201"/>
+      <c r="O212" s="199"/>
+      <c r="P212" s="199"/>
+      <c r="Q212" s="199"/>
+      <c r="R212" s="199"/>
+      <c r="S212" s="199"/>
+      <c r="T212" s="199"/>
     </row>
     <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="86" t="s">
@@ -45862,12 +45864,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O213" s="201"/>
-      <c r="P213" s="201"/>
-      <c r="Q213" s="201"/>
-      <c r="R213" s="201"/>
-      <c r="S213" s="201"/>
-      <c r="T213" s="201"/>
+      <c r="O213" s="199"/>
+      <c r="P213" s="199"/>
+      <c r="Q213" s="199"/>
+      <c r="R213" s="199"/>
+      <c r="S213" s="199"/>
+      <c r="T213" s="199"/>
     </row>
     <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="86" t="s">
@@ -45889,12 +45891,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O214" s="201"/>
-      <c r="P214" s="201"/>
-      <c r="Q214" s="201"/>
-      <c r="R214" s="201"/>
-      <c r="S214" s="201"/>
-      <c r="T214" s="201"/>
+      <c r="O214" s="199"/>
+      <c r="P214" s="199"/>
+      <c r="Q214" s="199"/>
+      <c r="R214" s="199"/>
+      <c r="S214" s="199"/>
+      <c r="T214" s="199"/>
     </row>
     <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="86" t="s">
@@ -45916,12 +45918,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O215" s="201"/>
-      <c r="P215" s="201"/>
-      <c r="Q215" s="201"/>
-      <c r="R215" s="201"/>
-      <c r="S215" s="201"/>
-      <c r="T215" s="201"/>
+      <c r="O215" s="199"/>
+      <c r="P215" s="199"/>
+      <c r="Q215" s="199"/>
+      <c r="R215" s="199"/>
+      <c r="S215" s="199"/>
+      <c r="T215" s="199"/>
     </row>
     <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="86" t="s">
@@ -45943,12 +45945,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O216" s="201"/>
-      <c r="P216" s="201"/>
-      <c r="Q216" s="201"/>
-      <c r="R216" s="201"/>
-      <c r="S216" s="201"/>
-      <c r="T216" s="201"/>
+      <c r="O216" s="199"/>
+      <c r="P216" s="199"/>
+      <c r="Q216" s="199"/>
+      <c r="R216" s="199"/>
+      <c r="S216" s="199"/>
+      <c r="T216" s="199"/>
     </row>
     <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
@@ -45970,12 +45972,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O217" s="201"/>
-      <c r="P217" s="201"/>
-      <c r="Q217" s="201"/>
-      <c r="R217" s="201"/>
-      <c r="S217" s="201"/>
-      <c r="T217" s="201"/>
+      <c r="O217" s="199"/>
+      <c r="P217" s="199"/>
+      <c r="Q217" s="199"/>
+      <c r="R217" s="199"/>
+      <c r="S217" s="199"/>
+      <c r="T217" s="199"/>
     </row>
     <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="91" t="s">
@@ -46033,12 +46035,12 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O218" s="201"/>
-      <c r="P218" s="201"/>
-      <c r="Q218" s="201"/>
-      <c r="R218" s="201"/>
-      <c r="S218" s="201"/>
-      <c r="T218" s="201"/>
+      <c r="O218" s="199"/>
+      <c r="P218" s="199"/>
+      <c r="Q218" s="199"/>
+      <c r="R218" s="199"/>
+      <c r="S218" s="199"/>
+      <c r="T218" s="199"/>
     </row>
     <row r="219" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="98"/>
@@ -46075,12 +46077,12 @@
         <f t="shared" ref="N220:N229" si="37">K220/L220</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O220" s="201"/>
-      <c r="P220" s="201"/>
-      <c r="Q220" s="201"/>
-      <c r="R220" s="201"/>
-      <c r="S220" s="201"/>
-      <c r="T220" s="201"/>
+      <c r="O220" s="199"/>
+      <c r="P220" s="199"/>
+      <c r="Q220" s="199"/>
+      <c r="R220" s="199"/>
+      <c r="S220" s="199"/>
+      <c r="T220" s="199"/>
     </row>
     <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
@@ -46102,12 +46104,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O221" s="201"/>
-      <c r="P221" s="201"/>
-      <c r="Q221" s="201"/>
-      <c r="R221" s="201"/>
-      <c r="S221" s="201"/>
-      <c r="T221" s="201"/>
+      <c r="O221" s="199"/>
+      <c r="P221" s="199"/>
+      <c r="Q221" s="199"/>
+      <c r="R221" s="199"/>
+      <c r="S221" s="199"/>
+      <c r="T221" s="199"/>
     </row>
     <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
@@ -46129,12 +46131,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O222" s="201"/>
-      <c r="P222" s="201"/>
-      <c r="Q222" s="201"/>
-      <c r="R222" s="201"/>
-      <c r="S222" s="201"/>
-      <c r="T222" s="201"/>
+      <c r="O222" s="199"/>
+      <c r="P222" s="199"/>
+      <c r="Q222" s="199"/>
+      <c r="R222" s="199"/>
+      <c r="S222" s="199"/>
+      <c r="T222" s="199"/>
     </row>
     <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
@@ -46156,12 +46158,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O223" s="201"/>
-      <c r="P223" s="201"/>
-      <c r="Q223" s="201"/>
-      <c r="R223" s="201"/>
-      <c r="S223" s="201"/>
-      <c r="T223" s="201"/>
+      <c r="O223" s="199"/>
+      <c r="P223" s="199"/>
+      <c r="Q223" s="199"/>
+      <c r="R223" s="199"/>
+      <c r="S223" s="199"/>
+      <c r="T223" s="199"/>
     </row>
     <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
@@ -46183,12 +46185,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O224" s="201"/>
-      <c r="P224" s="201"/>
-      <c r="Q224" s="201"/>
-      <c r="R224" s="201"/>
-      <c r="S224" s="201"/>
-      <c r="T224" s="201"/>
+      <c r="O224" s="199"/>
+      <c r="P224" s="199"/>
+      <c r="Q224" s="199"/>
+      <c r="R224" s="199"/>
+      <c r="S224" s="199"/>
+      <c r="T224" s="199"/>
     </row>
     <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
@@ -46210,12 +46212,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O225" s="201"/>
-      <c r="P225" s="201"/>
-      <c r="Q225" s="201"/>
-      <c r="R225" s="201"/>
-      <c r="S225" s="201"/>
-      <c r="T225" s="201"/>
+      <c r="O225" s="199"/>
+      <c r="P225" s="199"/>
+      <c r="Q225" s="199"/>
+      <c r="R225" s="199"/>
+      <c r="S225" s="199"/>
+      <c r="T225" s="199"/>
     </row>
     <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="86" t="s">
@@ -46237,12 +46239,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O226" s="201"/>
-      <c r="P226" s="201"/>
-      <c r="Q226" s="201"/>
-      <c r="R226" s="201"/>
-      <c r="S226" s="201"/>
-      <c r="T226" s="201"/>
+      <c r="O226" s="199"/>
+      <c r="P226" s="199"/>
+      <c r="Q226" s="199"/>
+      <c r="R226" s="199"/>
+      <c r="S226" s="199"/>
+      <c r="T226" s="199"/>
     </row>
     <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="86" t="s">
@@ -46264,12 +46266,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O227" s="201"/>
-      <c r="P227" s="201"/>
-      <c r="Q227" s="201"/>
-      <c r="R227" s="201"/>
-      <c r="S227" s="201"/>
-      <c r="T227" s="201"/>
+      <c r="O227" s="199"/>
+      <c r="P227" s="199"/>
+      <c r="Q227" s="199"/>
+      <c r="R227" s="199"/>
+      <c r="S227" s="199"/>
+      <c r="T227" s="199"/>
     </row>
     <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="86" t="s">
@@ -46291,12 +46293,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O228" s="201"/>
-      <c r="P228" s="201"/>
-      <c r="Q228" s="201"/>
-      <c r="R228" s="201"/>
-      <c r="S228" s="201"/>
-      <c r="T228" s="201"/>
+      <c r="O228" s="199"/>
+      <c r="P228" s="199"/>
+      <c r="Q228" s="199"/>
+      <c r="R228" s="199"/>
+      <c r="S228" s="199"/>
+      <c r="T228" s="199"/>
     </row>
     <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="86" t="s">
@@ -46318,12 +46320,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O229" s="201"/>
-      <c r="P229" s="201"/>
-      <c r="Q229" s="201"/>
-      <c r="R229" s="201"/>
-      <c r="S229" s="201"/>
-      <c r="T229" s="201"/>
+      <c r="O229" s="199"/>
+      <c r="P229" s="199"/>
+      <c r="Q229" s="199"/>
+      <c r="R229" s="199"/>
+      <c r="S229" s="199"/>
+      <c r="T229" s="199"/>
     </row>
     <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
@@ -46381,12 +46383,12 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O230" s="201"/>
-      <c r="P230" s="201"/>
-      <c r="Q230" s="201"/>
-      <c r="R230" s="201"/>
-      <c r="S230" s="201"/>
-      <c r="T230" s="201"/>
+      <c r="O230" s="199"/>
+      <c r="P230" s="199"/>
+      <c r="Q230" s="199"/>
+      <c r="R230" s="199"/>
+      <c r="S230" s="199"/>
+      <c r="T230" s="199"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="147" t="s">
@@ -49249,6 +49251,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="O267:T277"/>
+    <mergeCell ref="O279:T289"/>
+    <mergeCell ref="O231:T241"/>
+    <mergeCell ref="O243:T253"/>
+    <mergeCell ref="O172:T182"/>
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O255:T265"/>
     <mergeCell ref="O291:T301"/>
     <mergeCell ref="O136:T146"/>
     <mergeCell ref="O4:T14"/>
@@ -49265,15 +49276,6 @@
     <mergeCell ref="O220:T230"/>
     <mergeCell ref="O148:T158"/>
     <mergeCell ref="O160:T170"/>
-    <mergeCell ref="O267:T277"/>
-    <mergeCell ref="O279:T289"/>
-    <mergeCell ref="O231:T241"/>
-    <mergeCell ref="O243:T253"/>
-    <mergeCell ref="O172:T182"/>
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O255:T265"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -49284,8 +49286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49309,51 +49311,51 @@
   <sheetData>
     <row r="1" spans="2:16" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>7.4290995365560804</v>
+        <v>7.270648059077625</v>
       </c>
       <c r="C1" s="68">
-        <v>13.912210254582837</v>
+        <v>13.532488674005615</v>
       </c>
       <c r="D1" s="68">
-        <v>5.5595245735048717</v>
+        <v>5.4990008683771494</v>
       </c>
       <c r="E1" s="68">
-        <v>9.2790035374952051</v>
+        <v>9.2769747064110852</v>
       </c>
       <c r="F1" s="68">
-        <v>13.921257239105683</v>
+        <v>14.110551432327497</v>
       </c>
       <c r="G1" s="68">
-        <v>7.4886092990853745</v>
+        <v>7.3567954192208367</v>
       </c>
       <c r="H1" s="68">
-        <v>4.3209787010548917</v>
+        <v>6.0314226994217437</v>
       </c>
       <c r="I1" s="68">
-        <v>4.9014125197762093</v>
+        <v>6.67159840717615</v>
       </c>
       <c r="J1" s="68">
-        <v>3.7410730295753551</v>
+        <v>5.3541265371302718</v>
       </c>
       <c r="K1" s="84">
-        <v>2197</v>
+        <v>2165</v>
       </c>
       <c r="L1" s="84">
-        <v>12920</v>
+        <v>12779</v>
       </c>
       <c r="M1" s="84">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N1" s="192">
-        <v>64.483303105962506</v>
+        <v>70.590064229332654</v>
       </c>
       <c r="O1" s="159">
         <f>K1/L1</f>
-        <v>0.17004643962848298</v>
+        <v>0.16941857735347055</v>
       </c>
       <c r="P1" s="159">
         <f t="shared" ref="P1:P7" si="0">M1/K1</f>
-        <v>0.17796995903504778</v>
+        <v>0.17967667436489607</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
@@ -49604,62 +49606,62 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="186">
         <f t="shared" ref="B13:L13" si="4">AVERAGE(B1:B10)</f>
-        <v>7.2917241903442935</v>
+        <v>7.2124984516050654</v>
       </c>
       <c r="C13" s="186">
         <f t="shared" si="4"/>
-        <v>13.63327515645496</v>
+        <v>13.443414366166349</v>
       </c>
       <c r="D13" s="186">
         <f t="shared" si="4"/>
-        <v>5.504639564456296</v>
+        <v>5.4743777118924353</v>
       </c>
       <c r="E13" s="186">
         <f t="shared" si="4"/>
-        <v>9.1281639674957624</v>
+        <v>9.1271495519537016</v>
       </c>
       <c r="F13" s="186">
         <f t="shared" si="4"/>
-        <v>13.777603568813538</v>
+        <v>13.872250665424446</v>
       </c>
       <c r="G13" s="186">
         <f t="shared" si="4"/>
-        <v>7.357569065978474</v>
+        <v>7.2916621260462051</v>
       </c>
       <c r="H13" s="186">
         <f t="shared" si="4"/>
-        <v>6.8390694088731756</v>
+        <v>7.6942914080566016</v>
       </c>
       <c r="I13" s="186">
         <f t="shared" si="4"/>
-        <v>8.7473827853744002</v>
+        <v>9.6324757290743701</v>
       </c>
       <c r="J13" s="186">
         <f t="shared" si="4"/>
-        <v>4.8488962567485965</v>
+        <v>5.6554230105260554</v>
       </c>
       <c r="K13" s="186">
         <f t="shared" si="4"/>
-        <v>2391.5</v>
+        <v>2375.5</v>
       </c>
       <c r="L13" s="186">
         <f t="shared" si="4"/>
-        <v>12855</v>
+        <v>12784.5</v>
       </c>
       <c r="M13" s="186">
         <f>AVERAGE(M1:M10)</f>
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N13" s="186">
         <f>AVERAGE(N1:N10)</f>
-        <v>77.699220070454501</v>
-      </c>
-      <c r="O13" s="187">
-        <f>AVERAGE(N2:N10)</f>
-        <v>90.915137034946497</v>
+        <v>80.752600632139576</v>
+      </c>
+      <c r="O13" s="187" t="e">
+        <f>AVERAGE(O1:O10)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P13" s="187" t="e">
-        <f>AVERAGE(P2:P10)</f>
+        <f>AVERAGE(P1:P10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -49745,48 +49747,48 @@
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="76">
         <f>B13-B18</f>
-        <v>-0.91827580965570732</v>
+        <v>-0.99750154839493543</v>
       </c>
       <c r="C17" s="76">
         <f t="shared" ref="C17:K17" si="5">C13-C18</f>
-        <v>-1.5067248435450402</v>
+        <v>-1.6965856338336511</v>
       </c>
       <c r="D17" s="76">
         <f t="shared" si="5"/>
-        <v>-0.3153604355437043</v>
+        <v>-0.34562228810756501</v>
       </c>
       <c r="E17" s="76">
         <f t="shared" si="5"/>
-        <v>-1.2818360325042377</v>
+        <v>-1.2828504480462986</v>
       </c>
       <c r="F17" s="76">
         <f t="shared" si="5"/>
-        <v>-2.5823964311864618</v>
+        <v>-2.4877493345755539</v>
       </c>
       <c r="G17" s="76">
         <f t="shared" si="5"/>
-        <v>0.63756906597847429</v>
+        <v>0.57166212604620537</v>
       </c>
       <c r="H17" s="76">
         <f t="shared" si="5"/>
-        <v>2.3790694088731756</v>
+        <v>3.2342914080566016</v>
       </c>
       <c r="I17" s="76">
         <f t="shared" si="5"/>
-        <v>3.9273827853743999</v>
+        <v>4.8124757290743698</v>
       </c>
       <c r="J17" s="76">
         <f t="shared" si="5"/>
-        <v>0.75889625674859662</v>
+        <v>1.5654230105260556</v>
       </c>
       <c r="K17" s="90">
         <f t="shared" si="5"/>
-        <v>928.5</v>
+        <v>912.5</v>
       </c>
       <c r="L17" s="75"/>
-      <c r="O17" s="76">
+      <c r="O17" s="76" t="e">
         <f t="shared" ref="O17:P17" si="6">O13-O18</f>
-        <v>90.7551370349465</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P17" s="76" t="e">
         <f t="shared" si="6"/>
@@ -49826,7 +49828,7 @@
       </c>
       <c r="M18" s="74">
         <f>M13/K13</f>
-        <v>0.18440309429228519</v>
+        <v>0.18522416333403494</v>
       </c>
       <c r="O18" s="74">
         <v>0.16</v>
@@ -49838,47 +49840,47 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="73">
         <f t="shared" ref="B19:D19" si="7">B17/B18</f>
-        <v>-0.11184845428205935</v>
+        <v>-0.1214983615584574</v>
       </c>
       <c r="C19" s="73">
         <f t="shared" si="7"/>
-        <v>-9.9519474474573322E-2</v>
+        <v>-0.11205981729416453</v>
       </c>
       <c r="D19" s="73">
         <f t="shared" si="7"/>
-        <v>-5.41856418459973E-2</v>
+        <v>-5.9385272870715634E-2</v>
       </c>
       <c r="E19" s="73">
         <f>E17/E18</f>
-        <v>-0.12313506556236674</v>
+        <v>-0.12323251182000947</v>
       </c>
       <c r="F19" s="73">
         <f t="shared" ref="F19:K19" si="8">F17/F18</f>
-        <v>-0.15784819261530941</v>
+        <v>-0.15206291776134193</v>
       </c>
       <c r="G19" s="73">
         <f t="shared" si="8"/>
-        <v>9.4876349103939633E-2</v>
+        <v>8.5068768756875801E-2</v>
       </c>
       <c r="H19" s="73">
         <f t="shared" si="8"/>
-        <v>0.53342363427649675</v>
+        <v>0.72517744575260124</v>
       </c>
       <c r="I19" s="73">
         <f t="shared" si="8"/>
-        <v>0.81480970650921158</v>
+        <v>0.99843894794074062</v>
       </c>
       <c r="J19" s="73">
         <f t="shared" si="8"/>
-        <v>0.18554920702899674</v>
+        <v>0.38274401235355882</v>
       </c>
       <c r="K19" s="73">
         <f t="shared" si="8"/>
-        <v>0.63465481886534514</v>
-      </c>
-      <c r="O19" s="73">
+        <v>0.62371838687628156</v>
+      </c>
+      <c r="O19" s="73" t="e">
         <f t="shared" ref="O19:P19" si="9">O17/O18</f>
-        <v>567.21960646841558</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P19" s="73" t="e">
         <f t="shared" si="9"/>
@@ -49911,34 +49913,34 @@
   <sheetData>
     <row r="1" spans="2:11" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68">
-        <v>8.5817210911332928</v>
+        <v>8.4713999886416183</v>
       </c>
       <c r="C1" s="68">
-        <v>15.026918935278815</v>
+        <v>14.712937267001022</v>
       </c>
       <c r="D1" s="68">
-        <v>6.7230792993433282</v>
+        <v>6.7054971711063907</v>
       </c>
       <c r="E1" s="68">
-        <v>46.781411359724615</v>
+        <v>46.754285714285714</v>
       </c>
       <c r="F1" s="68">
-        <v>57.767324460761813</v>
+        <v>58.679008113358478</v>
       </c>
       <c r="G1" s="68">
-        <v>59.083518107908347</v>
+        <v>59.170209646679375</v>
       </c>
       <c r="H1" s="68">
-        <v>69.287614543304755</v>
+        <v>70.19935502785107</v>
       </c>
       <c r="I1" s="68">
-        <v>0.90886858619416755</v>
+        <v>0.91793087450707489</v>
       </c>
       <c r="J1" s="68">
-        <v>0.26047434477667036</v>
+        <v>0.26388308977035491</v>
       </c>
       <c r="K1" s="68">
-        <v>6.9905869324473971E-2</v>
+        <v>6.3048016701461373E-2</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
@@ -50196,43 +50198,43 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="67">
         <f>AVERAGE(B1:B10)</f>
-        <v>8.006286334437327</v>
+        <v>7.9905261769385163</v>
       </c>
       <c r="C13" s="67">
         <f t="shared" ref="C13:J13" si="0">AVERAGE(C1:C10)</f>
-        <v>13.865600663265676</v>
+        <v>13.82074613922599</v>
       </c>
       <c r="D13" s="67">
         <f t="shared" si="0"/>
-        <v>6.3522155479079538</v>
+        <v>6.3497038153026768</v>
       </c>
       <c r="E13" s="67">
         <f t="shared" si="0"/>
-        <v>50.343664905050346</v>
+        <v>50.339789812844792</v>
       </c>
       <c r="F13" s="67">
         <f t="shared" si="0"/>
-        <v>62.458312296932796</v>
+        <v>62.588552818732317</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>62.963010018768173</v>
+        <v>62.975394524306886</v>
       </c>
       <c r="H13" s="67">
         <f t="shared" si="0"/>
-        <v>73.096181182433682</v>
+        <v>73.226429823083166</v>
       </c>
       <c r="I13" s="67">
         <f t="shared" si="0"/>
-        <v>0.91371695908447059</v>
+        <v>0.9150115717006001</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" si="0"/>
-        <v>0.25837453996123372</v>
+        <v>0.25886150353176013</v>
       </c>
       <c r="K13" s="67">
         <f>AVERAGE(K1:K10)</f>
-        <v>5.8445662606414275E-2</v>
+        <v>5.7465969374555344E-2</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -50388,14 +50390,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="195" t="s">
+      <c r="B1" s="196"/>
+      <c r="C1" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="196"/>
+      <c r="D1" s="194"/>
       <c r="E1" s="197" t="s">
         <v>72</v>
       </c>
@@ -50446,43 +50448,43 @@
         <v>103</v>
       </c>
       <c r="Z1" s="167">
-        <v>14472.951480567162</v>
+        <v>12556.381133585237</v>
       </c>
       <c r="AA1" s="167">
-        <v>22606.634951736305</v>
+        <v>22229.755795650417</v>
       </c>
       <c r="AB1" s="167">
-        <v>9572.6787571040913</v>
+        <v>10409.492887069937</v>
       </c>
       <c r="AC1" s="167">
-        <v>15844.888519323036</v>
+        <v>15900.522117462242</v>
       </c>
       <c r="AD1" s="167">
-        <v>24777.495151911797</v>
+        <v>27039.055808493868</v>
       </c>
       <c r="AE1" s="167">
-        <v>17012.954676921509</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="167">
-        <v>51514.520058104608</v>
+        <v>117968.73085088097</v>
       </c>
       <c r="AG1" s="167">
-        <v>46910.282310058799</v>
+        <v>48896.5671249968</v>
       </c>
       <c r="AH1" s="167">
         <v>0</v>
       </c>
       <c r="AI1" s="167">
-        <v>18156.380496702055</v>
+        <v>28319.093387313187</v>
       </c>
       <c r="AJ1" s="167">
-        <v>16635.551611852447</v>
+        <v>22731.938806587132</v>
       </c>
       <c r="AK1" s="167">
-        <v>19248.650784593519</v>
+        <v>32688.590286086546</v>
       </c>
       <c r="AL1" s="185">
-        <v>2197</v>
+        <v>2165</v>
       </c>
       <c r="AO1" s="156" t="s">
         <v>263</v>
@@ -50515,67 +50517,67 @@
         <v>64</v>
       </c>
       <c r="B2" s="38">
-        <v>0.16666278247764607</v>
+        <v>0.16666275898181326</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="36">
-        <v>0.29574374063844855</v>
+        <v>0.2944436057462349</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="37">
-        <v>514.90326546799758</v>
+        <v>508.28399931849708</v>
       </c>
       <c r="G2">
         <f>F2/1440</f>
-        <v>0.35757171213055389</v>
+        <v>0.35297499952673406</v>
       </c>
       <c r="J2" s="169" t="s">
         <v>254</v>
       </c>
       <c r="K2" s="167">
-        <v>1908.1325514390669</v>
+        <v>1805.2537440613378</v>
       </c>
       <c r="L2" s="167">
         <f>K2/60</f>
-        <v>31.802209190651116</v>
+        <v>30.087562401022296</v>
       </c>
       <c r="M2" s="167">
         <f>L2/24</f>
-        <v>1.3250920496104632</v>
+        <v>1.253648433375929</v>
       </c>
       <c r="N2" s="167"/>
       <c r="O2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="P2" s="167">
-        <v>75890.106841206609</v>
+        <v>77629.387174621224</v>
       </c>
       <c r="Q2" s="167">
         <f>P2/60</f>
-        <v>1264.83511402011</v>
+        <v>1293.8231195770204</v>
       </c>
       <c r="R2" s="167">
         <f>Q2/24</f>
-        <v>52.701463084171252</v>
+        <v>53.909296649042517</v>
       </c>
       <c r="S2" s="167"/>
       <c r="T2" s="168" t="s">
         <v>254</v>
       </c>
       <c r="U2" s="167">
-        <v>49138.480067727731</v>
+        <v>51491.526285088621</v>
       </c>
       <c r="V2" s="167">
         <f>U2/60</f>
-        <v>818.97466779546221</v>
+        <v>858.19210475147702</v>
       </c>
       <c r="W2" s="167">
         <f>V2/24</f>
-        <v>34.123944491477594</v>
+        <v>35.758004364644876</v>
       </c>
       <c r="X2" s="156"/>
       <c r="Y2" s="184">
@@ -50633,57 +50635,57 @@
         <v>2</v>
       </c>
       <c r="D3" s="36">
-        <v>0.29864270645105434</v>
+        <v>0.29983406807765228</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="37">
-        <v>46.759949535497192</v>
+        <v>46.732922092757597</v>
       </c>
       <c r="J3" s="169" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="167">
-        <v>29942.776414506705</v>
+        <v>28457.301438931609</v>
       </c>
       <c r="L3" s="167">
         <f>K3/60</f>
-        <v>499.04627357511174</v>
+        <v>474.28835731552681</v>
       </c>
       <c r="M3" s="167">
         <f>L3/24</f>
-        <v>20.793594732296324</v>
+        <v>19.76201488814695</v>
       </c>
       <c r="N3" s="167"/>
       <c r="O3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="P3" s="167">
-        <v>251573.13751412791</v>
+        <v>254529.62648199638</v>
       </c>
       <c r="Q3" s="167">
         <f>P3/60</f>
-        <v>4192.8856252354653</v>
+        <v>4242.1604413666064</v>
       </c>
       <c r="R3" s="167">
         <f>Q3/24</f>
-        <v>174.7035677181444</v>
+        <v>176.75668505694193</v>
       </c>
       <c r="S3" s="167"/>
       <c r="T3" s="168" t="s">
         <v>79</v>
       </c>
       <c r="U3" s="167">
-        <v>151872.58204802225</v>
+        <v>154563.48783193273</v>
       </c>
       <c r="V3" s="167">
         <f>U3/60</f>
-        <v>2531.2097008003707</v>
+        <v>2576.0581305322121</v>
       </c>
       <c r="W3" s="167">
         <f>V3/24</f>
-        <v>105.46707086668211</v>
+        <v>107.33575543884217</v>
       </c>
       <c r="X3" s="156"/>
       <c r="Y3" s="184">
@@ -50711,7 +50713,7 @@
       </c>
       <c r="AP3" s="176">
         <f>AMAU!D4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="176">
         <v>0</v>
@@ -50742,63 +50744,63 @@
         <v>83</v>
       </c>
       <c r="B4" s="38">
-        <v>19.876453488372086</v>
+        <v>18.9453125</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="36">
-        <v>7.1261966518101155E-2</v>
+        <v>7.2488443207600006E-2</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="37">
-        <v>57.740825688073393</v>
+        <v>58.652198743575099</v>
       </c>
       <c r="J4" s="169" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="167">
-        <v>1416.0413029557349</v>
+        <v>602.79482656507753</v>
       </c>
       <c r="L4" s="167">
         <f t="shared" ref="L4:L14" si="0">K4/60</f>
-        <v>23.600688382595582</v>
+        <v>10.046580442751292</v>
       </c>
       <c r="M4" s="167">
         <f t="shared" ref="M4:M14" si="1">L4/24</f>
-        <v>0.98336201594148254</v>
+        <v>0.41860751844797051</v>
       </c>
       <c r="N4" s="167"/>
       <c r="O4" s="168" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="167">
-        <v>97617.405061876882</v>
+        <v>98228.583441353403</v>
       </c>
       <c r="Q4" s="167">
         <f t="shared" ref="Q4:Q14" si="2">P4/60</f>
-        <v>1626.9567510312813</v>
+        <v>1637.1430573558901</v>
       </c>
       <c r="R4" s="167">
         <f t="shared" ref="R4:R14" si="3">Q4/24</f>
-        <v>67.789864626303384</v>
+        <v>68.214294056495419</v>
       </c>
       <c r="S4" s="167"/>
       <c r="T4" s="168" t="s">
         <v>17</v>
       </c>
       <c r="U4" s="167">
-        <v>3499.844418734157</v>
+        <v>3172.1184960845858</v>
       </c>
       <c r="V4" s="167">
         <f t="shared" ref="V4:V13" si="4">U4/60</f>
-        <v>58.330740312235953</v>
+        <v>52.868641601409763</v>
       </c>
       <c r="W4" s="167">
         <f t="shared" ref="W4:W13" si="5">V4/24</f>
-        <v>2.4304475130098315</v>
+        <v>2.2028600667254068</v>
       </c>
       <c r="X4" s="156"/>
       <c r="Y4" s="184">
@@ -50857,63 +50859,63 @@
         <v>84</v>
       </c>
       <c r="B5" s="38">
-        <v>81.110184854379199</v>
+        <v>80.203175103821849</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="36">
-        <v>63.875555163678627</v>
+        <v>63.659567945499617</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="37">
-        <v>7.4379447765442768</v>
+        <v>7.449188000851013</v>
       </c>
       <c r="J5" s="169" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="167">
-        <v>4108.9171549239618</v>
+        <v>3593.9213993749581</v>
       </c>
       <c r="L5" s="167">
         <f t="shared" si="0"/>
-        <v>68.481952582066029</v>
+        <v>59.898689989582635</v>
       </c>
       <c r="M5" s="167">
         <f t="shared" si="1"/>
-        <v>2.853414690919418</v>
+        <v>2.4957787495659431</v>
       </c>
       <c r="N5" s="167"/>
       <c r="O5" s="168" t="s">
         <v>112</v>
       </c>
       <c r="P5" s="167">
-        <v>144540.0778769257</v>
+        <v>142045.08667954244</v>
       </c>
       <c r="Q5" s="167">
         <f t="shared" si="2"/>
-        <v>2409.0012979487615</v>
+        <v>2367.4181113257073</v>
       </c>
       <c r="R5" s="167">
         <f t="shared" si="3"/>
-        <v>100.3750540811984</v>
+        <v>98.642421305237804</v>
       </c>
       <c r="S5" s="167"/>
       <c r="T5" s="168" t="s">
         <v>111</v>
       </c>
       <c r="U5" s="167">
-        <v>137996.61834764987</v>
+        <v>144003.00013277913</v>
       </c>
       <c r="V5" s="167">
         <f t="shared" si="4"/>
-        <v>2299.943639127498</v>
+        <v>2400.0500022129854</v>
       </c>
       <c r="W5" s="167">
         <f t="shared" si="5"/>
-        <v>95.830984963645747</v>
+        <v>100.00208342554106</v>
       </c>
       <c r="X5" s="156"/>
       <c r="Y5" s="184">
@@ -50938,37 +50940,37 @@
         <v>85</v>
       </c>
       <c r="B6" s="38">
-        <v>32.153994393833287</v>
+        <v>32.673755186722012</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="36">
-        <v>0.17937457394675033</v>
+        <v>0.17827091213886181</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="37">
-        <v>283.35386355455478</v>
+        <v>287.5415589474556</v>
       </c>
       <c r="G6">
         <f>F6/1440</f>
-        <v>0.1967735163573297</v>
+        <v>0.19968163815795528</v>
       </c>
       <c r="J6" s="169" t="s">
         <v>112</v>
       </c>
       <c r="K6" s="167">
-        <v>7262.5465877209272</v>
+        <v>6606.0999149491545</v>
       </c>
       <c r="L6" s="167">
         <f t="shared" si="0"/>
-        <v>121.04244312868212</v>
+        <v>110.10166524915257</v>
       </c>
       <c r="M6" s="167">
         <f t="shared" si="1"/>
-        <v>5.0434351303617548</v>
+        <v>4.5875693853813573</v>
       </c>
       <c r="N6" s="167"/>
       <c r="O6" s="172" t="s">
@@ -50984,15 +50986,15 @@
         <v>112</v>
       </c>
       <c r="U6" s="167">
-        <v>26473.200008212665</v>
+        <v>28342.369832267286</v>
       </c>
       <c r="V6" s="167">
         <f t="shared" ref="V6" si="6">U6/60</f>
-        <v>441.22000013687773</v>
+        <v>472.3728305377881</v>
       </c>
       <c r="W6" s="167">
         <f t="shared" ref="W6" si="7">V6/24</f>
-        <v>18.384166672369904</v>
+        <v>19.682201272407838</v>
       </c>
       <c r="X6" s="156"/>
       <c r="Y6" s="184">
@@ -51046,13 +51048,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="38">
-        <v>34.958728714415614</v>
+        <v>35.062986413401994</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="36">
-        <v>0.5220112581079025</v>
+        <v>0.5317146094153693</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>77</v>
@@ -51126,15 +51128,15 @@
       </c>
       <c r="AQ7" s="176">
         <f>AQ2*$AG$11</f>
-        <v>64760.587693955531</v>
+        <v>65753.730101424531</v>
       </c>
       <c r="AR7" s="176">
         <f>AR2*$AI$11</f>
-        <v>25534.844668734848</v>
+        <v>30616.201114040414</v>
       </c>
       <c r="AS7" s="176">
         <f>AS2*$AB$11</f>
-        <v>10513.442555499609</v>
+        <v>10931.849620482531</v>
       </c>
       <c r="AT7" s="176">
         <f>AT2*$AJ$11</f>
@@ -51151,11 +51153,11 @@
       <c r="AW7" s="156"/>
       <c r="AX7" s="181">
         <f>SUM(AO7:AU7)+AE11+AF11</f>
-        <v>182164.77506029891</v>
+        <v>213378.30903598387</v>
       </c>
       <c r="AY7" s="179">
         <f>AX7/(1*$AY$2*60*125)</f>
-        <v>1.7349026196218944</v>
+        <v>2.032174371771275</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
@@ -51163,17 +51165,17 @@
         <v>7</v>
       </c>
       <c r="D8" s="36">
-        <v>8.3727659668181964E-2</v>
+        <v>8.4356080405164457E-2</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="37">
-        <v>0.68185500519292774</v>
+        <v>0.97261116926446056</v>
       </c>
       <c r="G8">
         <f>F8/1440</f>
-        <v>4.7351042027286649E-4</v>
+        <v>6.7542442310031985E-4</v>
       </c>
       <c r="J8" s="173" t="s">
         <v>261</v>
@@ -51233,7 +51235,7 @@
       </c>
       <c r="AP8" s="176">
         <f>AP3*$AA$11</f>
-        <v>25269.392645293046</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="176">
         <f t="shared" ref="AQ8:AQ9" si="12">AQ3*$AG$11</f>
@@ -51241,11 +51243,11 @@
       </c>
       <c r="AR8" s="176">
         <f>AR3*$AI$11</f>
-        <v>25534.844668734848</v>
+        <v>30616.201114040414</v>
       </c>
       <c r="AS8" s="176">
         <f>AS3*$AB$11</f>
-        <v>10513.442555499609</v>
+        <v>10931.849620482531</v>
       </c>
       <c r="AT8" s="176">
         <f>AT3*$AJ$11</f>
@@ -51262,11 +51264,11 @@
       <c r="AW8" s="180"/>
       <c r="AX8" s="181">
         <f>SUM(AO8:AU8)+AF11</f>
-        <v>121706.11288177322</v>
+        <v>135163.58914315683</v>
       </c>
       <c r="AY8" s="178">
         <f>AX8/(2*$AY$2*60*125)</f>
-        <v>0.57955291848463442</v>
+        <v>0.64363613877693726</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
@@ -51356,44 +51358,44 @@
       </c>
       <c r="AO9" s="176">
         <f>AO4*$Z$11</f>
-        <v>18475.161581001536</v>
+        <v>17516.876407510572</v>
       </c>
       <c r="AP9" s="176">
         <f>AP4*$AA$11</f>
-        <v>25269.392645293046</v>
+        <v>25080.953067250106</v>
       </c>
       <c r="AQ9" s="176">
         <f t="shared" si="12"/>
-        <v>64760.587693955531</v>
+        <v>65753.730101424531</v>
       </c>
       <c r="AR9" s="176">
         <f>AR4*$AI$11</f>
-        <v>25534.844668734848</v>
+        <v>30616.201114040414</v>
       </c>
       <c r="AS9" s="176">
         <f>AS4*$AB$11</f>
-        <v>10513.442555499609</v>
+        <v>10931.849620482531</v>
       </c>
       <c r="AT9" s="176">
         <f>AT4*$AJ$11</f>
-        <v>33363.329709536978</v>
+        <v>36411.523306904324</v>
       </c>
       <c r="AU9" s="176">
         <f>AU4*$AK$11</f>
-        <v>83905.970841917835</v>
+        <v>90625.940592664352</v>
       </c>
       <c r="AV9" s="176">
         <f>($AC$11+$AD$11)*AV4</f>
-        <v>48836.281295071982</v>
+        <v>49994.878422432623</v>
       </c>
       <c r="AW9" s="180"/>
       <c r="AX9" s="177">
         <f>SUM(AO9:AV9)</f>
-        <v>310659.0109910114</v>
+        <v>326931.95263270946</v>
       </c>
       <c r="AY9" s="178">
         <f>AX9/(3*$AY$2*60*125)</f>
-        <v>0.98621908251114732</v>
+        <v>1.0378792147070142</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
@@ -51410,15 +51412,15 @@
         <v>16</v>
       </c>
       <c r="P10" s="167">
-        <v>87349.34216803161</v>
+        <v>87168.461405863054</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>1455.8223694671935</v>
+        <v>1452.8076900977176</v>
       </c>
       <c r="R10" s="167">
         <f t="shared" si="3"/>
-        <v>60.659265394466395</v>
+        <v>60.533653754071565</v>
       </c>
       <c r="S10" s="167"/>
       <c r="T10" s="172" t="s">
@@ -51453,15 +51455,15 @@
         <v>16</v>
       </c>
       <c r="K11" s="167">
-        <v>2222.4206490866632</v>
+        <v>2210.2160265552811</v>
       </c>
       <c r="L11" s="167">
         <f t="shared" si="0"/>
-        <v>37.040344151444387</v>
+        <v>36.836933775921352</v>
       </c>
       <c r="M11" s="167">
         <f t="shared" si="1"/>
-        <v>1.5433476729768494</v>
+        <v>1.5348722406633897</v>
       </c>
       <c r="N11" s="167"/>
       <c r="O11" s="172" t="s">
@@ -51483,49 +51485,49 @@
         <v>16</v>
       </c>
       <c r="U11" s="167">
-        <v>29325.763442954256</v>
+        <v>30144.33483060915</v>
       </c>
       <c r="V11" s="167">
         <f t="shared" si="4"/>
-        <v>488.76272404923759</v>
+        <v>502.4055805101525</v>
       </c>
       <c r="W11" s="167">
         <f t="shared" si="5"/>
-        <v>20.365113502051567</v>
+        <v>20.933565854589688</v>
       </c>
       <c r="X11" s="156"/>
       <c r="Y11" s="168"/>
       <c r="Z11" s="167">
         <f>AVERAGE(Z1:Z10)</f>
-        <v>18475.161581001536</v>
+        <v>17516.876407510572</v>
       </c>
       <c r="AA11" s="167">
         <f t="shared" ref="AA11:AL11" si="13">AVERAGE(AA1:AA10)</f>
-        <v>25269.392645293046</v>
+        <v>25080.953067250106</v>
       </c>
       <c r="AB11" s="167">
         <f t="shared" si="13"/>
-        <v>10513.442555499609</v>
+        <v>10931.849620482531</v>
       </c>
       <c r="AC11" s="167">
         <f t="shared" si="13"/>
-        <v>17011.923563143406</v>
+        <v>17039.740362213008</v>
       </c>
       <c r="AD11" s="167">
         <f t="shared" si="13"/>
-        <v>31824.35773192858</v>
+        <v>32955.138060219615</v>
       </c>
       <c r="AE11" s="167">
         <f t="shared" si="13"/>
-        <v>20967.467129863213</v>
+        <v>12460.989791402459</v>
       </c>
       <c r="AF11" s="167">
         <f t="shared" si="13"/>
-        <v>60388.433012245718</v>
+        <v>93615.538408633904</v>
       </c>
       <c r="AG11" s="167">
         <f t="shared" si="13"/>
-        <v>64760.587693955531</v>
+        <v>65753.730101424531</v>
       </c>
       <c r="AH11" s="167">
         <f t="shared" si="13"/>
@@ -51533,69 +51535,69 @@
       </c>
       <c r="AI11" s="167">
         <f t="shared" si="13"/>
-        <v>25534.844668734848</v>
+        <v>30616.201114040414</v>
       </c>
       <c r="AJ11" s="167">
         <f t="shared" si="13"/>
-        <v>33363.329709536978</v>
+        <v>36411.523306904324</v>
       </c>
       <c r="AK11" s="167">
         <f t="shared" si="13"/>
-        <v>83905.970841917835</v>
+        <v>90625.940592664352</v>
       </c>
       <c r="AL11" s="185">
         <f t="shared" si="13"/>
-        <v>2391.5</v>
+        <v>2375.5</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="C12" s="195" t="s">
+      <c r="C12" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="196"/>
+      <c r="D12" s="194"/>
       <c r="J12" s="169" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="167">
-        <v>2955.6581735760792</v>
+        <v>2779.7207490890287</v>
       </c>
       <c r="L12" s="167">
         <f t="shared" si="0"/>
-        <v>49.260969559601321</v>
+        <v>46.328679151483811</v>
       </c>
       <c r="M12" s="167">
         <f t="shared" si="1"/>
-        <v>2.0525403983167219</v>
+        <v>1.9303616313118255</v>
       </c>
       <c r="N12" s="167"/>
       <c r="O12" s="168" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="167">
-        <v>137067.88661127014</v>
+        <v>138146.29352153745</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>2284.4647768545024</v>
+        <v>2302.4382253589574</v>
       </c>
       <c r="R12" s="167">
         <f t="shared" si="3"/>
-        <v>95.186032368937603</v>
+        <v>95.934926056623226</v>
       </c>
       <c r="S12" s="167"/>
       <c r="T12" s="168" t="s">
         <v>19</v>
       </c>
       <c r="U12" s="167">
-        <v>37607.717511190684</v>
+        <v>38710.302933685016</v>
       </c>
       <c r="V12" s="167">
         <f t="shared" si="4"/>
-        <v>626.79529185317801</v>
+        <v>645.17171556141693</v>
       </c>
       <c r="W12" s="167">
         <f t="shared" si="5"/>
-        <v>26.116470493882417</v>
+        <v>26.882154815059039</v>
       </c>
       <c r="X12" s="156"/>
       <c r="Y12" s="168"/>
@@ -51642,51 +51644,51 @@
         <v>4</v>
       </c>
       <c r="D13" s="36">
-        <v>0.35770545079533922</v>
+        <v>0.53983951415679354</v>
       </c>
       <c r="J13" s="169" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="167">
-        <v>1936.8437710628521</v>
+        <v>1933.1461073993705</v>
       </c>
       <c r="L13" s="167">
         <f t="shared" si="0"/>
-        <v>32.2807295177142</v>
+        <v>32.219101789989509</v>
       </c>
       <c r="M13" s="167">
         <f t="shared" si="1"/>
-        <v>1.345030396571425</v>
+        <v>1.3424625745828962</v>
       </c>
       <c r="N13" s="167"/>
       <c r="O13" s="168" t="s">
         <v>19</v>
       </c>
       <c r="P13" s="167">
-        <v>64859.68649390871</v>
+        <v>65631.613743428607</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>1080.9947748984785</v>
+        <v>1093.8602290571434</v>
       </c>
       <c r="R13" s="167">
         <f t="shared" si="3"/>
-        <v>45.041448954103267</v>
+        <v>45.577509544047643</v>
       </c>
       <c r="S13" s="167"/>
       <c r="T13" s="168" t="s">
         <v>18</v>
       </c>
       <c r="U13" s="167">
-        <v>48.431205452280665</v>
+        <v>47.741935051744804</v>
       </c>
       <c r="V13" s="167">
         <f t="shared" si="4"/>
-        <v>0.80718675753801106</v>
+        <v>0.79569891752908006</v>
       </c>
       <c r="W13" s="167">
         <f t="shared" si="5"/>
-        <v>3.3632781564083794E-2</v>
+        <v>3.3154121563711669E-2</v>
       </c>
       <c r="X13" s="156"/>
       <c r="Y13" s="168"/>
@@ -51700,7 +51702,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="36">
-        <v>0.1612547245071593</v>
+        <v>0.37688964721842627</v>
       </c>
       <c r="J14" s="169" t="s">
         <v>18</v>
@@ -51721,22 +51723,22 @@
         <v>18</v>
       </c>
       <c r="P14" s="167">
-        <v>54772.027248051403</v>
+        <v>55102.641797703691</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>912.8671208008567</v>
+        <v>918.37736329506151</v>
       </c>
       <c r="R14" s="167">
         <f t="shared" si="3"/>
-        <v>38.036130033369027</v>
+        <v>38.265723470627563</v>
       </c>
       <c r="S14" s="167"/>
       <c r="T14" s="168" t="s">
         <v>258</v>
       </c>
       <c r="U14" s="156">
-        <v>5718</v>
+        <v>5785</v>
       </c>
       <c r="V14" s="167"/>
       <c r="W14" s="167"/>
@@ -51794,7 +51796,7 @@
         <v>258</v>
       </c>
       <c r="K15" s="156">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="156"/>
@@ -51803,7 +51805,7 @@
         <v>258</v>
       </c>
       <c r="P15" s="156">
-        <v>14153</v>
+        <v>14045</v>
       </c>
       <c r="Q15" s="156"/>
       <c r="R15" s="156"/>
@@ -51860,7 +51862,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="36">
-        <v>31.388154888086948</v>
+        <v>51.424345010801702</v>
       </c>
       <c r="J16" s="156"/>
       <c r="K16" s="156"/>
@@ -51892,43 +51894,43 @@
       <c r="J17" s="156"/>
       <c r="K17" s="167">
         <f>SUM(K2:K14)</f>
-        <v>51753.336605271987</v>
+        <v>47988.454206925817</v>
       </c>
       <c r="L17" s="167">
         <f t="shared" ref="L17" si="14">SUM(L2:L14)</f>
-        <v>862.55561008786651</v>
+        <v>799.80757011543028</v>
       </c>
       <c r="M17" s="167">
         <f>SUM(M2:M14)</f>
-        <v>35.939817086994438</v>
+        <v>33.325315421476262</v>
       </c>
       <c r="N17" s="156"/>
       <c r="O17" s="156"/>
       <c r="P17" s="167">
         <f>SUM(P2:P14)</f>
-        <v>913669.66981539899</v>
+        <v>918481.69424604625</v>
       </c>
       <c r="Q17" s="167">
         <f t="shared" ref="Q17" si="15">SUM(Q2:Q14)</f>
-        <v>15227.827830256649</v>
+        <v>15308.028237434104</v>
       </c>
       <c r="R17" s="167">
         <f>SUM(R2:R14)</f>
-        <v>634.49282626069373</v>
+        <v>637.83450989308767</v>
       </c>
       <c r="S17" s="156"/>
       <c r="T17" s="156"/>
       <c r="U17" s="167">
         <f t="shared" ref="U17:V17" si="16">SUM(U2:U13)</f>
-        <v>435962.63704994397</v>
+        <v>450474.88227749825</v>
       </c>
       <c r="V17" s="167">
         <f t="shared" si="16"/>
-        <v>7266.043950832398</v>
+        <v>7507.9147046249709</v>
       </c>
       <c r="W17" s="167">
         <f>SUM(W2:W13)</f>
-        <v>302.75183128468331</v>
+        <v>312.82977935937379</v>
       </c>
       <c r="X17" s="156"/>
       <c r="Y17" s="156"/>
@@ -51941,47 +51943,47 @@
         <v>6</v>
       </c>
       <c r="D18" s="36">
-        <v>6.0705166870574791E-2</v>
+        <v>6.5827764636907399E-2</v>
       </c>
       <c r="K18" s="156">
         <f t="shared" ref="K18:L18" si="17">K17/$K$15</f>
-        <v>150.88436328067635</v>
+        <v>150.43402572704017</v>
       </c>
       <c r="L18" s="156">
         <f t="shared" si="17"/>
-        <v>2.5147393880112725</v>
+        <v>2.5072337621173362</v>
       </c>
       <c r="M18" s="156">
         <f>M17/$K$15</f>
-        <v>0.10478080783380303</v>
+        <v>0.10446807342155567</v>
       </c>
       <c r="N18" s="156"/>
       <c r="O18" s="156"/>
       <c r="P18" s="156">
         <f t="shared" ref="P18:Q18" si="18">P17/$P$15</f>
-        <v>64.556607773291816</v>
+        <v>65.395635047778299</v>
       </c>
       <c r="Q18" s="156">
         <f t="shared" si="18"/>
-        <v>1.0759434628881968</v>
+        <v>1.0899272507963049</v>
       </c>
       <c r="R18" s="156">
         <f>R17/$P$15</f>
-        <v>4.4830977620341536E-2</v>
+        <v>4.5413635449846043E-2</v>
       </c>
       <c r="S18" s="156"/>
       <c r="T18" s="156"/>
       <c r="U18" s="156">
         <f t="shared" ref="U18:V18" si="19">U17/$U$14</f>
-        <v>76.243902946824761</v>
+        <v>77.869469710889931</v>
       </c>
       <c r="V18" s="156">
         <f t="shared" si="19"/>
-        <v>1.2707317157804123</v>
+        <v>1.2978244951814988</v>
       </c>
       <c r="W18" s="156">
         <f>W17/$U$14</f>
-        <v>5.2947154824183856E-2</v>
+        <v>5.4076020632562449E-2</v>
       </c>
       <c r="Y18" s="156"/>
       <c r="Z18" s="156"/>
@@ -51993,7 +51995,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="36">
-        <v>1.5459872122206489E-2</v>
+        <v>2.5038365357701046E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
+++ b/Tallagh Model-baseline 1-11-2012/Model - Scenarios (laptop)/control.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="283">
   <si>
     <t>Resources/Process</t>
   </si>
@@ -908,6 +908,27 @@
   </si>
   <si>
     <t>AMU Utilisation</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Acceptance hrs</t>
+  </si>
+  <si>
+    <t>Work weekends</t>
+  </si>
+  <si>
+    <t>Work holidays</t>
+  </si>
+  <si>
+    <t>SSU Capacity</t>
+  </si>
+  <si>
+    <t>Misallocation_to_ED_AMAU</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1797,7 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2262,16 +2283,16 @@
     <xf numFmtId="2" fontId="12" fillId="22" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,14 +2301,14 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2295,7 +2316,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,14 +2331,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2342,6 +2363,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2750,14 +2777,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="196"/>
-      <c r="W1" s="193" t="s">
+      <c r="V1" s="194"/>
+      <c r="W1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="194"/>
+      <c r="X1" s="196"/>
       <c r="Y1" s="197" t="s">
         <v>72</v>
       </c>
@@ -2765,10 +2792,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="193" t="s">
+      <c r="AB1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="194"/>
+      <c r="AC1" s="196"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -3425,14 +3452,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="196"/>
-      <c r="W10" s="193" t="s">
+      <c r="V10" s="194"/>
+      <c r="W10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="194"/>
+      <c r="X10" s="196"/>
       <c r="Y10" s="197" t="s">
         <v>72</v>
       </c>
@@ -3440,10 +3467,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="193" t="s">
+      <c r="AB10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="194"/>
+      <c r="AC10" s="196"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -4032,14 +4059,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="195" t="s">
+      <c r="U18" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="196"/>
-      <c r="W18" s="193" t="s">
+      <c r="V18" s="194"/>
+      <c r="W18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="194"/>
+      <c r="X18" s="196"/>
       <c r="Y18" s="197" t="s">
         <v>72</v>
       </c>
@@ -4047,10 +4074,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="193" t="s">
+      <c r="AB18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="194"/>
+      <c r="AC18" s="196"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -4639,14 +4666,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="195" t="s">
+      <c r="U26" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="196"/>
-      <c r="W26" s="193" t="s">
+      <c r="V26" s="194"/>
+      <c r="W26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="194"/>
+      <c r="X26" s="196"/>
       <c r="Y26" s="197" t="s">
         <v>72</v>
       </c>
@@ -4654,10 +4681,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="193" t="s">
+      <c r="AB26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="194"/>
+      <c r="AC26" s="196"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -5246,14 +5273,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="195" t="s">
+      <c r="U34" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="196"/>
-      <c r="W34" s="193" t="s">
+      <c r="V34" s="194"/>
+      <c r="W34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="194"/>
+      <c r="X34" s="196"/>
       <c r="Y34" s="197" t="s">
         <v>72</v>
       </c>
@@ -5261,10 +5288,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="193" t="s">
+      <c r="AB34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="194"/>
+      <c r="AC34" s="196"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -5853,14 +5880,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="195" t="s">
+      <c r="U42" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="196"/>
-      <c r="W42" s="193" t="s">
+      <c r="V42" s="194"/>
+      <c r="W42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="194"/>
+      <c r="X42" s="196"/>
       <c r="Y42" s="197" t="s">
         <v>72</v>
       </c>
@@ -5868,10 +5895,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="193" t="s">
+      <c r="AB42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="194"/>
+      <c r="AC42" s="196"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -6460,14 +6487,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="195" t="s">
+      <c r="U50" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="196"/>
-      <c r="W50" s="193" t="s">
+      <c r="V50" s="194"/>
+      <c r="W50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="194"/>
+      <c r="X50" s="196"/>
       <c r="Y50" s="197" t="s">
         <v>72</v>
       </c>
@@ -6475,10 +6502,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="193" t="s">
+      <c r="AB50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="194"/>
+      <c r="AC50" s="196"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -7067,14 +7094,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="195" t="s">
+      <c r="U58" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="196"/>
-      <c r="W58" s="193" t="s">
+      <c r="V58" s="194"/>
+      <c r="W58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="194"/>
+      <c r="X58" s="196"/>
       <c r="Y58" s="197" t="s">
         <v>72</v>
       </c>
@@ -7082,10 +7109,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="193" t="s">
+      <c r="AB58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="194"/>
+      <c r="AC58" s="196"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -7615,6 +7642,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -7623,30 +7674,6 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11482,16 +11509,16 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="193" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="219"/>
-      <c r="D1" s="196"/>
-      <c r="J1" s="195" t="s">
+      <c r="D1" s="194"/>
+      <c r="J1" s="193" t="s">
         <v>152</v>
       </c>
       <c r="K1" s="219"/>
-      <c r="L1" s="196"/>
+      <c r="L1" s="194"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -11797,11 +11824,11 @@
       <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="193" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="219"/>
-      <c r="D1" s="196"/>
+      <c r="D1" s="194"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -12036,14 +12063,14 @@
       <c r="T1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="196"/>
-      <c r="W1" s="193" t="s">
+      <c r="V1" s="194"/>
+      <c r="W1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="194"/>
+      <c r="X1" s="196"/>
       <c r="Y1" s="197" t="s">
         <v>72</v>
       </c>
@@ -12051,10 +12078,10 @@
       <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="193" t="s">
+      <c r="AB1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="194"/>
+      <c r="AC1" s="196"/>
       <c r="AD1" t="s">
         <v>153</v>
       </c>
@@ -12559,14 +12586,14 @@
       <c r="T10" s="68">
         <v>0.28274342377083045</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="196"/>
-      <c r="W10" s="193" t="s">
+      <c r="V10" s="194"/>
+      <c r="W10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="194"/>
+      <c r="X10" s="196"/>
       <c r="Y10" s="197" t="s">
         <v>72</v>
       </c>
@@ -12574,10 +12601,10 @@
       <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="193" t="s">
+      <c r="AB10" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="194"/>
+      <c r="AC10" s="196"/>
       <c r="AD10" t="s">
         <v>153</v>
       </c>
@@ -13166,14 +13193,14 @@
       <c r="T18" s="68">
         <v>8.8705989940557842E-3</v>
       </c>
-      <c r="U18" s="195" t="s">
+      <c r="U18" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="196"/>
-      <c r="W18" s="193" t="s">
+      <c r="V18" s="194"/>
+      <c r="W18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="194"/>
+      <c r="X18" s="196"/>
       <c r="Y18" s="197" t="s">
         <v>72</v>
       </c>
@@ -13181,10 +13208,10 @@
       <c r="AA18" t="s">
         <v>122</v>
       </c>
-      <c r="AB18" s="193" t="s">
+      <c r="AB18" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" s="194"/>
+      <c r="AC18" s="196"/>
       <c r="AD18" t="s">
         <v>153</v>
       </c>
@@ -13773,14 +13800,14 @@
       <c r="T26" s="68">
         <v>9.1654827918060579E-5</v>
       </c>
-      <c r="U26" s="195" t="s">
+      <c r="U26" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V26" s="196"/>
-      <c r="W26" s="193" t="s">
+      <c r="V26" s="194"/>
+      <c r="W26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X26" s="194"/>
+      <c r="X26" s="196"/>
       <c r="Y26" s="197" t="s">
         <v>72</v>
       </c>
@@ -13788,10 +13815,10 @@
       <c r="AA26" t="s">
         <v>122</v>
       </c>
-      <c r="AB26" s="193" t="s">
+      <c r="AB26" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC26" s="194"/>
+      <c r="AC26" s="196"/>
       <c r="AD26" t="s">
         <v>153</v>
       </c>
@@ -14380,14 +14407,14 @@
       <c r="T34" s="68">
         <v>1.6580775263275824E-3</v>
       </c>
-      <c r="U34" s="195" t="s">
+      <c r="U34" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V34" s="196"/>
-      <c r="W34" s="193" t="s">
+      <c r="V34" s="194"/>
+      <c r="W34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X34" s="194"/>
+      <c r="X34" s="196"/>
       <c r="Y34" s="197" t="s">
         <v>72</v>
       </c>
@@ -14395,10 +14422,10 @@
       <c r="AA34" t="s">
         <v>122</v>
       </c>
-      <c r="AB34" s="193" t="s">
+      <c r="AB34" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC34" s="194"/>
+      <c r="AC34" s="196"/>
       <c r="AD34" t="s">
         <v>153</v>
       </c>
@@ -14987,14 +15014,14 @@
       <c r="T42" s="68">
         <v>4.8399581113691206E-2</v>
       </c>
-      <c r="U42" s="195" t="s">
+      <c r="U42" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V42" s="196"/>
-      <c r="W42" s="193" t="s">
+      <c r="V42" s="194"/>
+      <c r="W42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X42" s="194"/>
+      <c r="X42" s="196"/>
       <c r="Y42" s="197" t="s">
         <v>72</v>
       </c>
@@ -15002,10 +15029,10 @@
       <c r="AA42" t="s">
         <v>122</v>
       </c>
-      <c r="AB42" s="193" t="s">
+      <c r="AB42" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="194"/>
+      <c r="AC42" s="196"/>
       <c r="AD42" t="s">
         <v>153</v>
       </c>
@@ -15594,14 +15621,14 @@
       <c r="T50" s="68">
         <v>3.4685745335989858E-2</v>
       </c>
-      <c r="U50" s="195" t="s">
+      <c r="U50" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V50" s="196"/>
-      <c r="W50" s="193" t="s">
+      <c r="V50" s="194"/>
+      <c r="W50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="194"/>
+      <c r="X50" s="196"/>
       <c r="Y50" s="197" t="s">
         <v>72</v>
       </c>
@@ -15609,10 +15636,10 @@
       <c r="AA50" t="s">
         <v>122</v>
       </c>
-      <c r="AB50" s="193" t="s">
+      <c r="AB50" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="194"/>
+      <c r="AC50" s="196"/>
       <c r="AD50" t="s">
         <v>153</v>
       </c>
@@ -16201,14 +16228,14 @@
       <c r="T58" s="68">
         <v>4.0882926165979244E-2</v>
       </c>
-      <c r="U58" s="195" t="s">
+      <c r="U58" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="V58" s="196"/>
-      <c r="W58" s="193" t="s">
+      <c r="V58" s="194"/>
+      <c r="W58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="X58" s="194"/>
+      <c r="X58" s="196"/>
       <c r="Y58" s="197" t="s">
         <v>72</v>
       </c>
@@ -16216,10 +16243,10 @@
       <c r="AA58" t="s">
         <v>122</v>
       </c>
-      <c r="AB58" s="193" t="s">
+      <c r="AB58" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="AC58" s="194"/>
+      <c r="AC58" s="196"/>
       <c r="AD58" t="s">
         <v>153</v>
       </c>
@@ -16749,6 +16776,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -16757,30 +16808,6 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="AB58:AC58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17080,26 +17107,47 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" s="220" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="220"/>
+      <c r="L1" s="220" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" s="220"/>
+      <c r="Q1" s="220" t="s">
+        <v>281</v>
+      </c>
+      <c r="R1" s="220"/>
+      <c r="S1" s="221" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" s="221"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -17112,8 +17160,31 @@
       <c r="F2" s="157">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" s="220">
+        <v>0</v>
+      </c>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220">
+        <v>0</v>
+      </c>
+      <c r="O2" s="220"/>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="S2" s="64">
+        <v>0</v>
+      </c>
+      <c r="T2" s="64">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -17126,8 +17197,20 @@
       <c r="F3" s="157">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="64">
+        <v>9</v>
+      </c>
+      <c r="J3" s="64">
+        <v>18</v>
+      </c>
+      <c r="S3" s="64">
+        <v>1</v>
+      </c>
+      <c r="T3" s="64">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -17141,7 +17224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -17155,7 +17238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -17172,7 +17255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -17186,7 +17269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -17200,7 +17283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -17214,7 +17297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -17231,7 +17314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -17245,7 +17328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -17259,7 +17342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>113</v>
       </c>
@@ -17273,7 +17356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -17287,7 +17370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>81</v>
       </c>
@@ -17301,7 +17384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>112</v>
       </c>
@@ -17358,6 +17441,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -21501,14 +21593,14 @@
         <f>K4/L4</f>
         <v>0.17075625048378357</v>
       </c>
-      <c r="O4" s="200" t="s">
+      <c r="O4" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
@@ -21554,12 +21646,12 @@
         <f t="shared" ref="N5:N12" si="0">K5/L5</f>
         <v>0.17174261506755209</v>
       </c>
-      <c r="O5" s="200"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
@@ -21605,12 +21697,12 @@
         <f t="shared" si="0"/>
         <v>0.16784888203546647</v>
       </c>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
-      <c r="T6" s="201"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
@@ -21656,12 +21748,12 @@
         <f t="shared" si="0"/>
         <v>0.16837908296273577</v>
       </c>
-      <c r="O7" s="200"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="201"/>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
@@ -21707,12 +21799,12 @@
         <f t="shared" si="0"/>
         <v>0.16951115916286971</v>
       </c>
-      <c r="O8" s="200"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="201"/>
-      <c r="R8" s="201"/>
-      <c r="S8" s="201"/>
-      <c r="T8" s="201"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="86" t="s">
@@ -21758,12 +21850,12 @@
         <f t="shared" si="0"/>
         <v>0.16543891958256599</v>
       </c>
-      <c r="O9" s="200"/>
-      <c r="P9" s="201"/>
-      <c r="Q9" s="201"/>
-      <c r="R9" s="201"/>
-      <c r="S9" s="201"/>
-      <c r="T9" s="201"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="86" t="s">
@@ -21809,12 +21901,12 @@
         <f t="shared" si="0"/>
         <v>0.16546982429335372</v>
       </c>
-      <c r="O10" s="200"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="201"/>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="200"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="200"/>
+      <c r="S10" s="200"/>
+      <c r="T10" s="200"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
@@ -21860,12 +21952,12 @@
         <f t="shared" si="0"/>
         <v>0.1601354992686119</v>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
@@ -21911,12 +22003,12 @@
         <f t="shared" si="0"/>
         <v>0.16642623946549237</v>
       </c>
-      <c r="O12" s="200"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="201"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="201"/>
-      <c r="T12" s="201"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="200"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
     </row>
     <row r="13" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
@@ -21962,12 +22054,12 @@
         <f>K13/L13</f>
         <v>0.16610118374425092</v>
       </c>
-      <c r="O13" s="200"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
@@ -22025,12 +22117,12 @@
         <f t="shared" si="1"/>
         <v>0.16718096560666823</v>
       </c>
-      <c r="O14" s="200"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201"/>
+      <c r="O14" s="199"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
     </row>
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="98"/>
@@ -22091,14 +22183,14 @@
         <f>K16/L16</f>
         <v>0.17290223248652811</v>
       </c>
-      <c r="O16" s="199" t="s">
+      <c r="O16" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="199"/>
-      <c r="T16" s="199"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="201"/>
+      <c r="T16" s="201"/>
     </row>
     <row r="17" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
@@ -22144,12 +22236,12 @@
         <f t="shared" ref="N17:N25" si="2">K17/L17</f>
         <v>0.17136942186781168</v>
       </c>
-      <c r="O17" s="199"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="199"/>
-      <c r="S17" s="199"/>
-      <c r="T17" s="199"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="201"/>
+      <c r="R17" s="201"/>
+      <c r="S17" s="201"/>
+      <c r="T17" s="201"/>
     </row>
     <row r="18" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
@@ -22195,12 +22287,12 @@
         <f t="shared" si="2"/>
         <v>0.16918012707647553</v>
       </c>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
     </row>
     <row r="19" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
@@ -22246,12 +22338,12 @@
         <f t="shared" si="2"/>
         <v>0.169391013457006</v>
       </c>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="201"/>
+      <c r="S19" s="201"/>
+      <c r="T19" s="201"/>
     </row>
     <row r="20" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
@@ -22297,12 +22389,12 @@
         <f t="shared" si="2"/>
         <v>0.17022416035498431</v>
       </c>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="201"/>
+      <c r="S20" s="201"/>
+      <c r="T20" s="201"/>
     </row>
     <row r="21" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
@@ -22348,12 +22440,12 @@
         <f t="shared" si="2"/>
         <v>0.1647551146931184</v>
       </c>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
+      <c r="S21" s="201"/>
+      <c r="T21" s="201"/>
     </row>
     <row r="22" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="86" t="s">
@@ -22399,12 +22491,12 @@
         <f t="shared" si="2"/>
         <v>0.17322039166925707</v>
       </c>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="199"/>
+      <c r="O22" s="201"/>
+      <c r="P22" s="201"/>
+      <c r="Q22" s="201"/>
+      <c r="R22" s="201"/>
+      <c r="S22" s="201"/>
+      <c r="T22" s="201"/>
     </row>
     <row r="23" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
@@ -22450,12 +22542,12 @@
         <f t="shared" si="2"/>
         <v>0.17410953657602452</v>
       </c>
-      <c r="O23" s="199"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="199"/>
-      <c r="S23" s="199"/>
-      <c r="T23" s="199"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+      <c r="T23" s="201"/>
     </row>
     <row r="24" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="86" t="s">
@@ -22501,12 +22593,12 @@
         <f t="shared" si="2"/>
         <v>0.16644983546338105</v>
       </c>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
     </row>
     <row r="25" spans="1:20" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -22552,12 +22644,12 @@
         <f t="shared" si="2"/>
         <v>0.16981860285604014</v>
       </c>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
@@ -22615,12 +22707,12 @@
         <f t="shared" ref="N26" si="14">AVERAGE(N16:N25)</f>
         <v>0.17014204365006269</v>
       </c>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+      <c r="S26" s="201"/>
+      <c r="T26" s="201"/>
     </row>
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="98"/>
@@ -22681,14 +22773,14 @@
         <f>K28/L28</f>
         <v>0.34557926829268293</v>
       </c>
-      <c r="O28" s="199" t="s">
+      <c r="O28" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="199"/>
-      <c r="T28" s="199"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+      <c r="T28" s="201"/>
     </row>
     <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
@@ -22734,12 +22826,12 @@
         <f t="shared" ref="N29:N36" si="15">K29/L29</f>
         <v>0.3282684149633629</v>
       </c>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="199"/>
-      <c r="T29" s="199"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
+      <c r="S29" s="201"/>
+      <c r="T29" s="201"/>
     </row>
     <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="86" t="s">
@@ -22785,12 +22877,12 @@
         <f t="shared" si="15"/>
         <v>0.34404263418347925</v>
       </c>
-      <c r="O30" s="199"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="199"/>
-      <c r="S30" s="199"/>
-      <c r="T30" s="199"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+      <c r="T30" s="201"/>
     </row>
     <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="86" t="s">
@@ -22836,12 +22928,12 @@
         <f t="shared" si="15"/>
         <v>0.34176542084472805</v>
       </c>
-      <c r="O31" s="199"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="199"/>
-      <c r="S31" s="199"/>
-      <c r="T31" s="199"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="201"/>
+      <c r="Q31" s="201"/>
+      <c r="R31" s="201"/>
+      <c r="S31" s="201"/>
+      <c r="T31" s="201"/>
     </row>
     <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="86" t="s">
@@ -22887,12 +22979,12 @@
         <f t="shared" si="15"/>
         <v>0.33866976024748646</v>
       </c>
-      <c r="O32" s="199"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="199"/>
-      <c r="S32" s="199"/>
-      <c r="T32" s="199"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="201"/>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="201"/>
     </row>
     <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="86" t="s">
@@ -22938,12 +23030,12 @@
         <f t="shared" si="15"/>
         <v>0.33739899374904714</v>
       </c>
-      <c r="O33" s="199"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="199"/>
-      <c r="S33" s="199"/>
-      <c r="T33" s="199"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="201"/>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="201"/>
+      <c r="T33" s="201"/>
     </row>
     <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="86" t="s">
@@ -22989,12 +23081,12 @@
         <f t="shared" si="15"/>
         <v>0.33531271689673786</v>
       </c>
-      <c r="O34" s="199"/>
-      <c r="P34" s="199"/>
-      <c r="Q34" s="199"/>
-      <c r="R34" s="199"/>
-      <c r="S34" s="199"/>
-      <c r="T34" s="199"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="201"/>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="201"/>
+      <c r="T34" s="201"/>
     </row>
     <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="86" t="s">
@@ -23040,12 +23132,12 @@
         <f t="shared" si="15"/>
         <v>0.34502114571318726</v>
       </c>
-      <c r="O35" s="199"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="199"/>
-      <c r="S35" s="199"/>
-      <c r="T35" s="199"/>
+      <c r="O35" s="201"/>
+      <c r="P35" s="201"/>
+      <c r="Q35" s="201"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="201"/>
+      <c r="T35" s="201"/>
     </row>
     <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="86" t="s">
@@ -23091,12 +23183,12 @@
         <f t="shared" si="15"/>
         <v>0.34201219053352394</v>
       </c>
-      <c r="O36" s="199"/>
-      <c r="P36" s="199"/>
-      <c r="Q36" s="199"/>
-      <c r="R36" s="199"/>
-      <c r="S36" s="199"/>
-      <c r="T36" s="199"/>
+      <c r="O36" s="201"/>
+      <c r="P36" s="201"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="201"/>
+      <c r="S36" s="201"/>
+      <c r="T36" s="201"/>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
@@ -23142,12 +23234,12 @@
         <f>K37/L37</f>
         <v>0.32024539877300612</v>
       </c>
-      <c r="O37" s="199"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="199"/>
-      <c r="R37" s="199"/>
-      <c r="S37" s="199"/>
-      <c r="T37" s="199"/>
+      <c r="O37" s="201"/>
+      <c r="P37" s="201"/>
+      <c r="Q37" s="201"/>
+      <c r="R37" s="201"/>
+      <c r="S37" s="201"/>
+      <c r="T37" s="201"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="s">
@@ -23205,12 +23297,12 @@
         <f t="shared" ref="N38" si="27">AVERAGE(N28:N37)</f>
         <v>0.33783159441972421</v>
       </c>
-      <c r="O38" s="199"/>
-      <c r="P38" s="199"/>
-      <c r="Q38" s="199"/>
-      <c r="R38" s="199"/>
-      <c r="S38" s="199"/>
-      <c r="T38" s="199"/>
+      <c r="O38" s="201"/>
+      <c r="P38" s="201"/>
+      <c r="Q38" s="201"/>
+      <c r="R38" s="201"/>
+      <c r="S38" s="201"/>
+      <c r="T38" s="201"/>
     </row>
     <row r="39" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="98"/>
@@ -23271,14 +23363,14 @@
         <f t="shared" ref="N40:N49" si="28">K40/L40</f>
         <v>0.22579401788467468</v>
       </c>
-      <c r="O40" s="199" t="s">
+      <c r="O40" s="201" t="s">
         <v>178</v>
       </c>
-      <c r="P40" s="199"/>
-      <c r="Q40" s="199"/>
-      <c r="R40" s="199"/>
-      <c r="S40" s="199"/>
-      <c r="T40" s="199"/>
+      <c r="P40" s="201"/>
+      <c r="Q40" s="201"/>
+      <c r="R40" s="201"/>
+      <c r="S40" s="201"/>
+      <c r="T40" s="201"/>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
@@ -23324,12 +23416,12 @@
         <f t="shared" si="28"/>
         <v>0.23997853912776884</v>
       </c>
-      <c r="O41" s="199"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="199"/>
-      <c r="R41" s="199"/>
-      <c r="S41" s="199"/>
-      <c r="T41" s="199"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="86" t="s">
@@ -23375,12 +23467,12 @@
         <f t="shared" si="28"/>
         <v>0.2376791599601441</v>
       </c>
-      <c r="O42" s="199"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="199"/>
-      <c r="R42" s="199"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="199"/>
+      <c r="O42" s="201"/>
+      <c r="P42" s="201"/>
+      <c r="Q42" s="201"/>
+      <c r="R42" s="201"/>
+      <c r="S42" s="201"/>
+      <c r="T42" s="201"/>
     </row>
     <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
@@ -23426,12 +23518,12 @@
         <f t="shared" si="28"/>
         <v>0.19681832154933906</v>
       </c>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="199"/>
-      <c r="R43" s="199"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="199"/>
+      <c r="O43" s="201"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="201"/>
+      <c r="R43" s="201"/>
+      <c r="S43" s="201"/>
+      <c r="T43" s="201"/>
     </row>
     <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
@@ -23477,12 +23569,12 @@
         <f t="shared" si="28"/>
         <v>0.24446851307442363</v>
       </c>
-      <c r="O44" s="199"/>
-      <c r="P44" s="199"/>
-      <c r="Q44" s="199"/>
-      <c r="R44" s="199"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="199"/>
+      <c r="O44" s="201"/>
+      <c r="P44" s="201"/>
+      <c r="Q44" s="201"/>
+      <c r="R44" s="201"/>
+      <c r="S44" s="201"/>
+      <c r="T44" s="201"/>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
@@ -23528,12 +23620,12 @@
         <f t="shared" si="28"/>
         <v>0.23399014778325122</v>
       </c>
-      <c r="O45" s="199"/>
-      <c r="P45" s="199"/>
-      <c r="Q45" s="199"/>
-      <c r="R45" s="199"/>
-      <c r="S45" s="199"/>
-      <c r="T45" s="199"/>
+      <c r="O45" s="201"/>
+      <c r="P45" s="201"/>
+      <c r="Q45" s="201"/>
+      <c r="R45" s="201"/>
+      <c r="S45" s="201"/>
+      <c r="T45" s="201"/>
     </row>
     <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86" t="s">
@@ -23579,12 +23671,12 @@
         <f t="shared" si="28"/>
         <v>0.21419884463362723</v>
       </c>
-      <c r="O46" s="199"/>
-      <c r="P46" s="199"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="199"/>
-      <c r="T46" s="199"/>
+      <c r="O46" s="201"/>
+      <c r="P46" s="201"/>
+      <c r="Q46" s="201"/>
+      <c r="R46" s="201"/>
+      <c r="S46" s="201"/>
+      <c r="T46" s="201"/>
     </row>
     <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86" t="s">
@@ -23630,12 +23722,12 @@
         <f t="shared" si="28"/>
         <v>0.21038881204856308</v>
       </c>
-      <c r="O47" s="199"/>
-      <c r="P47" s="199"/>
-      <c r="Q47" s="199"/>
-      <c r="R47" s="199"/>
-      <c r="S47" s="199"/>
-      <c r="T47" s="199"/>
+      <c r="O47" s="201"/>
+      <c r="P47" s="201"/>
+      <c r="Q47" s="201"/>
+      <c r="R47" s="201"/>
+      <c r="S47" s="201"/>
+      <c r="T47" s="201"/>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
@@ -23681,12 +23773,12 @@
         <f t="shared" si="28"/>
         <v>0.22198424233152297</v>
       </c>
-      <c r="O48" s="199"/>
-      <c r="P48" s="199"/>
-      <c r="Q48" s="199"/>
-      <c r="R48" s="199"/>
-      <c r="S48" s="199"/>
-      <c r="T48" s="199"/>
+      <c r="O48" s="201"/>
+      <c r="P48" s="201"/>
+      <c r="Q48" s="201"/>
+      <c r="R48" s="201"/>
+      <c r="S48" s="201"/>
+      <c r="T48" s="201"/>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86" t="s">
@@ -23732,12 +23824,12 @@
         <f t="shared" si="28"/>
         <v>0.23042386424168632</v>
       </c>
-      <c r="O49" s="199"/>
-      <c r="P49" s="199"/>
-      <c r="Q49" s="199"/>
-      <c r="R49" s="199"/>
-      <c r="S49" s="199"/>
-      <c r="T49" s="199"/>
+      <c r="O49" s="201"/>
+      <c r="P49" s="201"/>
+      <c r="Q49" s="201"/>
+      <c r="R49" s="201"/>
+      <c r="S49" s="201"/>
+      <c r="T49" s="201"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="91" t="s">
@@ -23795,12 +23887,12 @@
         <f t="shared" ref="N50" si="40">AVERAGE(N40:N49)</f>
         <v>0.22557244626350009</v>
       </c>
-      <c r="O50" s="199"/>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="199"/>
-      <c r="R50" s="199"/>
-      <c r="S50" s="199"/>
-      <c r="T50" s="199"/>
+      <c r="O50" s="201"/>
+      <c r="P50" s="201"/>
+      <c r="Q50" s="201"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="201"/>
+      <c r="T50" s="201"/>
     </row>
     <row r="51" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="98"/>
@@ -23861,14 +23953,14 @@
         <f t="shared" ref="N52:N61" si="41">K52/L52</f>
         <v>0.17494407158836689</v>
       </c>
-      <c r="O52" s="199" t="s">
+      <c r="O52" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="P52" s="199"/>
-      <c r="Q52" s="199"/>
-      <c r="R52" s="199"/>
-      <c r="S52" s="199"/>
-      <c r="T52" s="199"/>
+      <c r="P52" s="201"/>
+      <c r="Q52" s="201"/>
+      <c r="R52" s="201"/>
+      <c r="S52" s="201"/>
+      <c r="T52" s="201"/>
     </row>
     <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
@@ -23914,12 +24006,12 @@
         <f t="shared" si="41"/>
         <v>0.16611244296651459</v>
       </c>
-      <c r="O53" s="199"/>
-      <c r="P53" s="199"/>
-      <c r="Q53" s="199"/>
-      <c r="R53" s="199"/>
-      <c r="S53" s="199"/>
-      <c r="T53" s="199"/>
+      <c r="O53" s="201"/>
+      <c r="P53" s="201"/>
+      <c r="Q53" s="201"/>
+      <c r="R53" s="201"/>
+      <c r="S53" s="201"/>
+      <c r="T53" s="201"/>
     </row>
     <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
@@ -23965,12 +24057,12 @@
         <f t="shared" si="41"/>
         <v>0.16603111653447225</v>
       </c>
-      <c r="O54" s="199"/>
-      <c r="P54" s="199"/>
-      <c r="Q54" s="199"/>
-      <c r="R54" s="199"/>
-      <c r="S54" s="199"/>
-      <c r="T54" s="199"/>
+      <c r="O54" s="201"/>
+      <c r="P54" s="201"/>
+      <c r="Q54" s="201"/>
+      <c r="R54" s="201"/>
+      <c r="S54" s="201"/>
+      <c r="T54" s="201"/>
     </row>
     <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
@@ -24016,12 +24108,12 @@
         <f t="shared" si="41"/>
         <v>0.16517925834743807</v>
       </c>
-      <c r="O55" s="199"/>
-      <c r="P55" s="199"/>
-      <c r="Q55" s="199"/>
-      <c r="R55" s="199"/>
-      <c r="S55" s="199"/>
-      <c r="T55" s="199"/>
+      <c r="O55" s="201"/>
+      <c r="P55" s="201"/>
+      <c r="Q55" s="201"/>
+      <c r="R55" s="201"/>
+      <c r="S55" s="201"/>
+      <c r="T55" s="201"/>
     </row>
     <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
@@ -24067,12 +24159,12 @@
         <f t="shared" si="41"/>
         <v>0.17454685692248362</v>
       </c>
-      <c r="O56" s="199"/>
-      <c r="P56" s="199"/>
-      <c r="Q56" s="199"/>
-      <c r="R56" s="199"/>
-      <c r="S56" s="199"/>
-      <c r="T56" s="199"/>
+      <c r="O56" s="201"/>
+      <c r="P56" s="201"/>
+      <c r="Q56" s="201"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="201"/>
+      <c r="T56" s="201"/>
     </row>
     <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
@@ -24118,12 +24210,12 @@
         <f t="shared" si="41"/>
         <v>0.16843067082920887</v>
       </c>
-      <c r="O57" s="199"/>
-      <c r="P57" s="199"/>
-      <c r="Q57" s="199"/>
-      <c r="R57" s="199"/>
-      <c r="S57" s="199"/>
-      <c r="T57" s="199"/>
+      <c r="O57" s="201"/>
+      <c r="P57" s="201"/>
+      <c r="Q57" s="201"/>
+      <c r="R57" s="201"/>
+      <c r="S57" s="201"/>
+      <c r="T57" s="201"/>
     </row>
     <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86" t="s">
@@ -24169,12 +24261,12 @@
         <f t="shared" si="41"/>
         <v>0.17035946699721102</v>
       </c>
-      <c r="O58" s="199"/>
-      <c r="P58" s="199"/>
-      <c r="Q58" s="199"/>
-      <c r="R58" s="199"/>
-      <c r="S58" s="199"/>
-      <c r="T58" s="199"/>
+      <c r="O58" s="201"/>
+      <c r="P58" s="201"/>
+      <c r="Q58" s="201"/>
+      <c r="R58" s="201"/>
+      <c r="S58" s="201"/>
+      <c r="T58" s="201"/>
     </row>
     <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86" t="s">
@@ -24220,12 +24312,12 @@
         <f t="shared" si="41"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="O59" s="199"/>
-      <c r="P59" s="199"/>
-      <c r="Q59" s="199"/>
-      <c r="R59" s="199"/>
-      <c r="S59" s="199"/>
-      <c r="T59" s="199"/>
+      <c r="O59" s="201"/>
+      <c r="P59" s="201"/>
+      <c r="Q59" s="201"/>
+      <c r="R59" s="201"/>
+      <c r="S59" s="201"/>
+      <c r="T59" s="201"/>
     </row>
     <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
@@ -24271,12 +24363,12 @@
         <f t="shared" si="41"/>
         <v>0.1748257164988381</v>
       </c>
-      <c r="O60" s="199"/>
-      <c r="P60" s="199"/>
-      <c r="Q60" s="199"/>
-      <c r="R60" s="199"/>
-      <c r="S60" s="199"/>
-      <c r="T60" s="199"/>
+      <c r="O60" s="201"/>
+      <c r="P60" s="201"/>
+      <c r="Q60" s="201"/>
+      <c r="R60" s="201"/>
+      <c r="S60" s="201"/>
+      <c r="T60" s="201"/>
     </row>
     <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="86" t="s">
@@ -24322,12 +24414,12 @@
         <f t="shared" si="41"/>
         <v>0.17063644022363483</v>
       </c>
-      <c r="O61" s="199"/>
-      <c r="P61" s="199"/>
-      <c r="Q61" s="199"/>
-      <c r="R61" s="199"/>
-      <c r="S61" s="199"/>
-      <c r="T61" s="199"/>
+      <c r="O61" s="201"/>
+      <c r="P61" s="201"/>
+      <c r="Q61" s="201"/>
+      <c r="R61" s="201"/>
+      <c r="S61" s="201"/>
+      <c r="T61" s="201"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
@@ -24385,12 +24477,12 @@
         <f t="shared" ref="N62" si="53">AVERAGE(N52:N61)</f>
         <v>0.17024946123367396</v>
       </c>
-      <c r="O62" s="199"/>
-      <c r="P62" s="199"/>
-      <c r="Q62" s="199"/>
-      <c r="R62" s="199"/>
-      <c r="S62" s="199"/>
-      <c r="T62" s="199"/>
+      <c r="O62" s="201"/>
+      <c r="P62" s="201"/>
+      <c r="Q62" s="201"/>
+      <c r="R62" s="201"/>
+      <c r="S62" s="201"/>
+      <c r="T62" s="201"/>
     </row>
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="98"/>
@@ -24450,14 +24542,14 @@
       <c r="N64" s="94">
         <v>0.17094479665996598</v>
       </c>
-      <c r="O64" s="199" t="s">
+      <c r="O64" s="201" t="s">
         <v>183</v>
       </c>
-      <c r="P64" s="199"/>
-      <c r="Q64" s="199"/>
-      <c r="R64" s="199"/>
-      <c r="S64" s="199"/>
-      <c r="T64" s="199"/>
+      <c r="P64" s="201"/>
+      <c r="Q64" s="201"/>
+      <c r="R64" s="201"/>
+      <c r="S64" s="201"/>
+      <c r="T64" s="201"/>
     </row>
     <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
@@ -24502,12 +24594,12 @@
       <c r="N65" s="94">
         <v>0.16858001386855689</v>
       </c>
-      <c r="O65" s="199"/>
-      <c r="P65" s="199"/>
-      <c r="Q65" s="199"/>
-      <c r="R65" s="199"/>
-      <c r="S65" s="199"/>
-      <c r="T65" s="199"/>
+      <c r="O65" s="201"/>
+      <c r="P65" s="201"/>
+      <c r="Q65" s="201"/>
+      <c r="R65" s="201"/>
+      <c r="S65" s="201"/>
+      <c r="T65" s="201"/>
     </row>
     <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
@@ -24552,12 +24644,12 @@
       <c r="N66" s="94">
         <v>0.16836149552718097</v>
       </c>
-      <c r="O66" s="199"/>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="199"/>
-      <c r="R66" s="199"/>
-      <c r="S66" s="199"/>
-      <c r="T66" s="199"/>
+      <c r="O66" s="201"/>
+      <c r="P66" s="201"/>
+      <c r="Q66" s="201"/>
+      <c r="R66" s="201"/>
+      <c r="S66" s="201"/>
+      <c r="T66" s="201"/>
     </row>
     <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
@@ -24602,12 +24694,12 @@
       <c r="N67" s="94">
         <v>0.16985921993999539</v>
       </c>
-      <c r="O67" s="199"/>
-      <c r="P67" s="199"/>
-      <c r="Q67" s="199"/>
-      <c r="R67" s="199"/>
-      <c r="S67" s="199"/>
-      <c r="T67" s="199"/>
+      <c r="O67" s="201"/>
+      <c r="P67" s="201"/>
+      <c r="Q67" s="201"/>
+      <c r="R67" s="201"/>
+      <c r="S67" s="201"/>
+      <c r="T67" s="201"/>
     </row>
     <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
@@ -24652,12 +24744,12 @@
       <c r="N68" s="94">
         <v>0.16540773855403115</v>
       </c>
-      <c r="O68" s="199"/>
-      <c r="P68" s="199"/>
-      <c r="Q68" s="199"/>
-      <c r="R68" s="199"/>
-      <c r="S68" s="199"/>
-      <c r="T68" s="199"/>
+      <c r="O68" s="201"/>
+      <c r="P68" s="201"/>
+      <c r="Q68" s="201"/>
+      <c r="R68" s="201"/>
+      <c r="S68" s="201"/>
+      <c r="T68" s="201"/>
     </row>
     <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="86" t="s">
@@ -24702,12 +24794,12 @@
       <c r="N69" s="94">
         <v>0.17533628800248816</v>
       </c>
-      <c r="O69" s="199"/>
-      <c r="P69" s="199"/>
-      <c r="Q69" s="199"/>
-      <c r="R69" s="199"/>
-      <c r="S69" s="199"/>
-      <c r="T69" s="199"/>
+      <c r="O69" s="201"/>
+      <c r="P69" s="201"/>
+      <c r="Q69" s="201"/>
+      <c r="R69" s="201"/>
+      <c r="S69" s="201"/>
+      <c r="T69" s="201"/>
     </row>
     <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="86" t="s">
@@ -24752,12 +24844,12 @@
       <c r="N70" s="94">
         <v>0.1720009210223348</v>
       </c>
-      <c r="O70" s="199"/>
-      <c r="P70" s="199"/>
-      <c r="Q70" s="199"/>
-      <c r="R70" s="199"/>
-      <c r="S70" s="199"/>
-      <c r="T70" s="199"/>
+      <c r="O70" s="201"/>
+      <c r="P70" s="201"/>
+      <c r="Q70" s="201"/>
+      <c r="R70" s="201"/>
+      <c r="S70" s="201"/>
+      <c r="T70" s="201"/>
     </row>
     <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="86" t="s">
@@ -24802,12 +24894,12 @@
       <c r="N71" s="94">
         <v>0.16873584758335286</v>
       </c>
-      <c r="O71" s="199"/>
-      <c r="P71" s="199"/>
-      <c r="Q71" s="199"/>
-      <c r="R71" s="199"/>
-      <c r="S71" s="199"/>
-      <c r="T71" s="199"/>
+      <c r="O71" s="201"/>
+      <c r="P71" s="201"/>
+      <c r="Q71" s="201"/>
+      <c r="R71" s="201"/>
+      <c r="S71" s="201"/>
+      <c r="T71" s="201"/>
     </row>
     <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="86" t="s">
@@ -24852,12 +24944,12 @@
       <c r="N72" s="94">
         <v>0.17574102964118565</v>
       </c>
-      <c r="O72" s="199"/>
-      <c r="P72" s="199"/>
-      <c r="Q72" s="199"/>
-      <c r="R72" s="199"/>
-      <c r="S72" s="199"/>
-      <c r="T72" s="199"/>
+      <c r="O72" s="201"/>
+      <c r="P72" s="201"/>
+      <c r="Q72" s="201"/>
+      <c r="R72" s="201"/>
+      <c r="S72" s="201"/>
+      <c r="T72" s="201"/>
     </row>
     <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="86" t="s">
@@ -24902,12 +24994,12 @@
       <c r="N73" s="94">
         <v>0.17359730927992661</v>
       </c>
-      <c r="O73" s="199"/>
-      <c r="P73" s="199"/>
-      <c r="Q73" s="199"/>
-      <c r="R73" s="199"/>
-      <c r="S73" s="199"/>
-      <c r="T73" s="199"/>
+      <c r="O73" s="201"/>
+      <c r="P73" s="201"/>
+      <c r="Q73" s="201"/>
+      <c r="R73" s="201"/>
+      <c r="S73" s="201"/>
+      <c r="T73" s="201"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="91" t="s">
@@ -24965,12 +25057,12 @@
         <f t="shared" ref="N74" si="65">AVERAGE(N64:N73)</f>
         <v>0.17085646600790186</v>
       </c>
-      <c r="O74" s="199"/>
-      <c r="P74" s="199"/>
-      <c r="Q74" s="199"/>
-      <c r="R74" s="199"/>
-      <c r="S74" s="199"/>
-      <c r="T74" s="199"/>
+      <c r="O74" s="201"/>
+      <c r="P74" s="201"/>
+      <c r="Q74" s="201"/>
+      <c r="R74" s="201"/>
+      <c r="S74" s="201"/>
+      <c r="T74" s="201"/>
     </row>
     <row r="75" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="98"/>
@@ -25030,14 +25122,14 @@
       <c r="N76" s="94">
         <v>0.34329044117647056</v>
       </c>
-      <c r="O76" s="199" t="s">
+      <c r="O76" s="201" t="s">
         <v>184</v>
       </c>
-      <c r="P76" s="199"/>
-      <c r="Q76" s="199"/>
-      <c r="R76" s="199"/>
-      <c r="S76" s="199"/>
-      <c r="T76" s="199"/>
+      <c r="P76" s="201"/>
+      <c r="Q76" s="201"/>
+      <c r="R76" s="201"/>
+      <c r="S76" s="201"/>
+      <c r="T76" s="201"/>
     </row>
     <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="86" t="s">
@@ -25082,12 +25174,12 @@
       <c r="N77" s="94">
         <v>0.34105068840858394</v>
       </c>
-      <c r="O77" s="199"/>
-      <c r="P77" s="199"/>
-      <c r="Q77" s="199"/>
-      <c r="R77" s="199"/>
-      <c r="S77" s="199"/>
-      <c r="T77" s="199"/>
+      <c r="O77" s="201"/>
+      <c r="P77" s="201"/>
+      <c r="Q77" s="201"/>
+      <c r="R77" s="201"/>
+      <c r="S77" s="201"/>
+      <c r="T77" s="201"/>
     </row>
     <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="86" t="s">
@@ -25132,12 +25224,12 @@
       <c r="N78" s="94">
         <v>0.34692788534837626</v>
       </c>
-      <c r="O78" s="199"/>
-      <c r="P78" s="199"/>
-      <c r="Q78" s="199"/>
-      <c r="R78" s="199"/>
-      <c r="S78" s="199"/>
-      <c r="T78" s="199"/>
+      <c r="O78" s="201"/>
+      <c r="P78" s="201"/>
+      <c r="Q78" s="201"/>
+      <c r="R78" s="201"/>
+      <c r="S78" s="201"/>
+      <c r="T78" s="201"/>
     </row>
     <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="86" t="s">
@@ -25182,12 +25274,12 @@
       <c r="N79" s="94">
         <v>0.34155655693882225</v>
       </c>
-      <c r="O79" s="199"/>
-      <c r="P79" s="199"/>
-      <c r="Q79" s="199"/>
-      <c r="R79" s="199"/>
-      <c r="S79" s="199"/>
-      <c r="T79" s="199"/>
+      <c r="O79" s="201"/>
+      <c r="P79" s="201"/>
+      <c r="Q79" s="201"/>
+      <c r="R79" s="201"/>
+      <c r="S79" s="201"/>
+      <c r="T79" s="201"/>
     </row>
     <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="86" t="s">
@@ -25232,12 +25324,12 @@
       <c r="N80" s="94">
         <v>0.35245394023842702</v>
       </c>
-      <c r="O80" s="199"/>
-      <c r="P80" s="199"/>
-      <c r="Q80" s="199"/>
-      <c r="R80" s="199"/>
-      <c r="S80" s="199"/>
-      <c r="T80" s="199"/>
+      <c r="O80" s="201"/>
+      <c r="P80" s="201"/>
+      <c r="Q80" s="201"/>
+      <c r="R80" s="201"/>
+      <c r="S80" s="201"/>
+      <c r="T80" s="201"/>
     </row>
     <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="86" t="s">
@@ -25282,12 +25374,12 @@
       <c r="N81" s="94">
         <v>0.34468706750730432</v>
       </c>
-      <c r="O81" s="199"/>
-      <c r="P81" s="199"/>
-      <c r="Q81" s="199"/>
-      <c r="R81" s="199"/>
-      <c r="S81" s="199"/>
-      <c r="T81" s="199"/>
+      <c r="O81" s="201"/>
+      <c r="P81" s="201"/>
+      <c r="Q81" s="201"/>
+      <c r="R81" s="201"/>
+      <c r="S81" s="201"/>
+      <c r="T81" s="201"/>
     </row>
     <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="86" t="s">
@@ -25332,12 +25424,12 @@
       <c r="N82" s="94">
         <v>0.34538751176655164</v>
       </c>
-      <c r="O82" s="199"/>
-      <c r="P82" s="199"/>
-      <c r="Q82" s="199"/>
-      <c r="R82" s="199"/>
-      <c r="S82" s="199"/>
-      <c r="T82" s="199"/>
+      <c r="O82" s="201"/>
+      <c r="P82" s="201"/>
+      <c r="Q82" s="201"/>
+      <c r="R82" s="201"/>
+      <c r="S82" s="201"/>
+      <c r="T82" s="201"/>
     </row>
     <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="86" t="s">
@@ -25382,12 +25474,12 @@
       <c r="N83" s="94">
         <v>0.33976684937852236</v>
       </c>
-      <c r="O83" s="199"/>
-      <c r="P83" s="199"/>
-      <c r="Q83" s="199"/>
-      <c r="R83" s="199"/>
-      <c r="S83" s="199"/>
-      <c r="T83" s="199"/>
+      <c r="O83" s="201"/>
+      <c r="P83" s="201"/>
+      <c r="Q83" s="201"/>
+      <c r="R83" s="201"/>
+      <c r="S83" s="201"/>
+      <c r="T83" s="201"/>
     </row>
     <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="86" t="s">
@@ -25432,12 +25524,12 @@
       <c r="N84" s="94">
         <v>0.33929526866926546</v>
       </c>
-      <c r="O84" s="199"/>
-      <c r="P84" s="199"/>
-      <c r="Q84" s="199"/>
-      <c r="R84" s="199"/>
-      <c r="S84" s="199"/>
-      <c r="T84" s="199"/>
+      <c r="O84" s="201"/>
+      <c r="P84" s="201"/>
+      <c r="Q84" s="201"/>
+      <c r="R84" s="201"/>
+      <c r="S84" s="201"/>
+      <c r="T84" s="201"/>
     </row>
     <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="86" t="s">
@@ -25482,12 +25574,12 @@
       <c r="N85" s="94">
         <v>0.33399632802937579</v>
       </c>
-      <c r="O85" s="199"/>
-      <c r="P85" s="199"/>
-      <c r="Q85" s="199"/>
-      <c r="R85" s="199"/>
-      <c r="S85" s="199"/>
-      <c r="T85" s="199"/>
+      <c r="O85" s="201"/>
+      <c r="P85" s="201"/>
+      <c r="Q85" s="201"/>
+      <c r="R85" s="201"/>
+      <c r="S85" s="201"/>
+      <c r="T85" s="201"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="91" t="s">
@@ -25545,12 +25637,12 @@
         <f t="shared" ref="N86" si="77">AVERAGE(N76:N85)</f>
         <v>0.34284125374616992</v>
       </c>
-      <c r="O86" s="199"/>
-      <c r="P86" s="199"/>
-      <c r="Q86" s="199"/>
-      <c r="R86" s="199"/>
-      <c r="S86" s="199"/>
-      <c r="T86" s="199"/>
+      <c r="O86" s="201"/>
+      <c r="P86" s="201"/>
+      <c r="Q86" s="201"/>
+      <c r="R86" s="201"/>
+      <c r="S86" s="201"/>
+      <c r="T86" s="201"/>
     </row>
     <row r="87" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="98"/>
@@ -25611,14 +25703,14 @@
         <f t="shared" ref="N88:N97" si="78">K88/L88</f>
         <v>0.22945286129209513</v>
       </c>
-      <c r="O88" s="199" t="s">
+      <c r="O88" s="201" t="s">
         <v>190</v>
       </c>
-      <c r="P88" s="199"/>
-      <c r="Q88" s="199"/>
-      <c r="R88" s="199"/>
-      <c r="S88" s="199"/>
-      <c r="T88" s="199"/>
+      <c r="P88" s="201"/>
+      <c r="Q88" s="201"/>
+      <c r="R88" s="201"/>
+      <c r="S88" s="201"/>
+      <c r="T88" s="201"/>
     </row>
     <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="86" t="s">
@@ -25664,12 +25756,12 @@
         <f t="shared" si="78"/>
         <v>0.23350953803723282</v>
       </c>
-      <c r="O89" s="199"/>
-      <c r="P89" s="199"/>
-      <c r="Q89" s="199"/>
-      <c r="R89" s="199"/>
-      <c r="S89" s="199"/>
-      <c r="T89" s="199"/>
+      <c r="O89" s="201"/>
+      <c r="P89" s="201"/>
+      <c r="Q89" s="201"/>
+      <c r="R89" s="201"/>
+      <c r="S89" s="201"/>
+      <c r="T89" s="201"/>
     </row>
     <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="86" t="s">
@@ -25715,12 +25807,12 @@
         <f t="shared" si="78"/>
         <v>0.23115193264446995</v>
       </c>
-      <c r="O90" s="199"/>
-      <c r="P90" s="199"/>
-      <c r="Q90" s="199"/>
-      <c r="R90" s="199"/>
-      <c r="S90" s="199"/>
-      <c r="T90" s="199"/>
+      <c r="O90" s="201"/>
+      <c r="P90" s="201"/>
+      <c r="Q90" s="201"/>
+      <c r="R90" s="201"/>
+      <c r="S90" s="201"/>
+      <c r="T90" s="201"/>
     </row>
     <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="86" t="s">
@@ -25766,12 +25858,12 @@
         <f t="shared" si="78"/>
         <v>0.23003170768533898</v>
       </c>
-      <c r="O91" s="199"/>
-      <c r="P91" s="199"/>
-      <c r="Q91" s="199"/>
-      <c r="R91" s="199"/>
-      <c r="S91" s="199"/>
-      <c r="T91" s="199"/>
+      <c r="O91" s="201"/>
+      <c r="P91" s="201"/>
+      <c r="Q91" s="201"/>
+      <c r="R91" s="201"/>
+      <c r="S91" s="201"/>
+      <c r="T91" s="201"/>
     </row>
     <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="86" t="s">
@@ -25817,12 +25909,12 @@
         <f t="shared" si="78"/>
         <v>0.21492696287279367</v>
       </c>
-      <c r="O92" s="199"/>
-      <c r="P92" s="199"/>
-      <c r="Q92" s="199"/>
-      <c r="R92" s="199"/>
-      <c r="S92" s="199"/>
-      <c r="T92" s="199"/>
+      <c r="O92" s="201"/>
+      <c r="P92" s="201"/>
+      <c r="Q92" s="201"/>
+      <c r="R92" s="201"/>
+      <c r="S92" s="201"/>
+      <c r="T92" s="201"/>
     </row>
     <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="86" t="s">
@@ -25868,12 +25960,12 @@
         <f t="shared" si="78"/>
         <v>0.23276529821843533</v>
       </c>
-      <c r="O93" s="199"/>
-      <c r="P93" s="199"/>
-      <c r="Q93" s="199"/>
-      <c r="R93" s="199"/>
-      <c r="S93" s="199"/>
-      <c r="T93" s="199"/>
+      <c r="O93" s="201"/>
+      <c r="P93" s="201"/>
+      <c r="Q93" s="201"/>
+      <c r="R93" s="201"/>
+      <c r="S93" s="201"/>
+      <c r="T93" s="201"/>
     </row>
     <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="86" t="s">
@@ -25919,12 +26011,12 @@
         <f t="shared" si="78"/>
         <v>0.22459686752565389</v>
       </c>
-      <c r="O94" s="199"/>
-      <c r="P94" s="199"/>
-      <c r="Q94" s="199"/>
-      <c r="R94" s="199"/>
-      <c r="S94" s="199"/>
-      <c r="T94" s="199"/>
+      <c r="O94" s="201"/>
+      <c r="P94" s="201"/>
+      <c r="Q94" s="201"/>
+      <c r="R94" s="201"/>
+      <c r="S94" s="201"/>
+      <c r="T94" s="201"/>
     </row>
     <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="86" t="s">
@@ -25970,12 +26062,12 @@
         <f t="shared" si="78"/>
         <v>0.23970326868093655</v>
       </c>
-      <c r="O95" s="199"/>
-      <c r="P95" s="199"/>
-      <c r="Q95" s="199"/>
-      <c r="R95" s="199"/>
-      <c r="S95" s="199"/>
-      <c r="T95" s="199"/>
+      <c r="O95" s="201"/>
+      <c r="P95" s="201"/>
+      <c r="Q95" s="201"/>
+      <c r="R95" s="201"/>
+      <c r="S95" s="201"/>
+      <c r="T95" s="201"/>
     </row>
     <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="86" t="s">
@@ -26021,12 +26113,12 @@
         <f t="shared" si="78"/>
         <v>0.22133476691498349</v>
       </c>
-      <c r="O96" s="199"/>
-      <c r="P96" s="199"/>
-      <c r="Q96" s="199"/>
-      <c r="R96" s="199"/>
-      <c r="S96" s="199"/>
-      <c r="T96" s="199"/>
+      <c r="O96" s="201"/>
+      <c r="P96" s="201"/>
+      <c r="Q96" s="201"/>
+      <c r="R96" s="201"/>
+      <c r="S96" s="201"/>
+      <c r="T96" s="201"/>
     </row>
     <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="86" t="s">
@@ -26072,12 +26164,12 @@
         <f t="shared" si="78"/>
         <v>0.2421839255757206</v>
       </c>
-      <c r="O97" s="199"/>
-      <c r="P97" s="199"/>
-      <c r="Q97" s="199"/>
-      <c r="R97" s="199"/>
-      <c r="S97" s="199"/>
-      <c r="T97" s="199"/>
+      <c r="O97" s="201"/>
+      <c r="P97" s="201"/>
+      <c r="Q97" s="201"/>
+      <c r="R97" s="201"/>
+      <c r="S97" s="201"/>
+      <c r="T97" s="201"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="91" t="s">
@@ -26135,12 +26227,12 @@
         <f t="shared" ref="N98" si="90">AVERAGE(N88:N97)</f>
         <v>0.22996571294476609</v>
       </c>
-      <c r="O98" s="199"/>
-      <c r="P98" s="199"/>
-      <c r="Q98" s="199"/>
-      <c r="R98" s="199"/>
-      <c r="S98" s="199"/>
-      <c r="T98" s="199"/>
+      <c r="O98" s="201"/>
+      <c r="P98" s="201"/>
+      <c r="Q98" s="201"/>
+      <c r="R98" s="201"/>
+      <c r="S98" s="201"/>
+      <c r="T98" s="201"/>
     </row>
     <row r="99" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="98"/>
@@ -26200,14 +26292,14 @@
       <c r="N100" s="94">
         <v>0.17289827255278312</v>
       </c>
-      <c r="O100" s="199" t="s">
+      <c r="O100" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="P100" s="199"/>
-      <c r="Q100" s="199"/>
-      <c r="R100" s="199"/>
-      <c r="S100" s="199"/>
-      <c r="T100" s="199"/>
+      <c r="P100" s="201"/>
+      <c r="Q100" s="201"/>
+      <c r="R100" s="201"/>
+      <c r="S100" s="201"/>
+      <c r="T100" s="201"/>
     </row>
     <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="86" t="s">
@@ -26252,12 +26344,12 @@
       <c r="N101" s="94">
         <v>0.17448736656170802</v>
       </c>
-      <c r="O101" s="199"/>
-      <c r="P101" s="199"/>
-      <c r="Q101" s="199"/>
-      <c r="R101" s="199"/>
-      <c r="S101" s="199"/>
-      <c r="T101" s="199"/>
+      <c r="O101" s="201"/>
+      <c r="P101" s="201"/>
+      <c r="Q101" s="201"/>
+      <c r="R101" s="201"/>
+      <c r="S101" s="201"/>
+      <c r="T101" s="201"/>
     </row>
     <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="86" t="s">
@@ -26302,12 +26394,12 @@
       <c r="N102" s="94">
         <v>0.17573092648306718</v>
       </c>
-      <c r="O102" s="199"/>
-      <c r="P102" s="199"/>
-      <c r="Q102" s="199"/>
-      <c r="R102" s="199"/>
-      <c r="S102" s="199"/>
-      <c r="T102" s="199"/>
+      <c r="O102" s="201"/>
+      <c r="P102" s="201"/>
+      <c r="Q102" s="201"/>
+      <c r="R102" s="201"/>
+      <c r="S102" s="201"/>
+      <c r="T102" s="201"/>
     </row>
     <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="86" t="s">
@@ -26352,12 +26444,12 @@
       <c r="N103" s="94">
         <v>0.177677949035706</v>
       </c>
-      <c r="O103" s="199"/>
-      <c r="P103" s="199"/>
-      <c r="Q103" s="199"/>
-      <c r="R103" s="199"/>
-      <c r="S103" s="199"/>
-      <c r="T103" s="199"/>
+      <c r="O103" s="201"/>
+      <c r="P103" s="201"/>
+      <c r="Q103" s="201"/>
+      <c r="R103" s="201"/>
+      <c r="S103" s="201"/>
+      <c r="T103" s="201"/>
     </row>
     <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="86" t="s">
@@ -26402,12 +26494,12 @@
       <c r="N104" s="94">
         <v>0.17764932562620425</v>
       </c>
-      <c r="O104" s="199"/>
-      <c r="P104" s="199"/>
-      <c r="Q104" s="199"/>
-      <c r="R104" s="199"/>
-      <c r="S104" s="199"/>
-      <c r="T104" s="199"/>
+      <c r="O104" s="201"/>
+      <c r="P104" s="201"/>
+      <c r="Q104" s="201"/>
+      <c r="R104" s="201"/>
+      <c r="S104" s="201"/>
+      <c r="T104" s="201"/>
     </row>
     <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="86" t="s">
@@ -26452,12 +26544,12 @@
       <c r="N105" s="94">
         <v>0.17298124760811329</v>
       </c>
-      <c r="O105" s="199"/>
-      <c r="P105" s="199"/>
-      <c r="Q105" s="199"/>
-      <c r="R105" s="199"/>
-      <c r="S105" s="199"/>
-      <c r="T105" s="199"/>
+      <c r="O105" s="201"/>
+      <c r="P105" s="201"/>
+      <c r="Q105" s="201"/>
+      <c r="R105" s="201"/>
+      <c r="S105" s="201"/>
+      <c r="T105" s="201"/>
     </row>
     <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="86" t="s">
@@ -26502,12 +26594,12 @@
       <c r="N106" s="94">
         <v>0.17508941066708134</v>
       </c>
-      <c r="O106" s="199"/>
-      <c r="P106" s="199"/>
-      <c r="Q106" s="199"/>
-      <c r="R106" s="199"/>
-      <c r="S106" s="199"/>
-      <c r="T106" s="199"/>
+      <c r="O106" s="201"/>
+      <c r="P106" s="201"/>
+      <c r="Q106" s="201"/>
+      <c r="R106" s="201"/>
+      <c r="S106" s="201"/>
+      <c r="T106" s="201"/>
     </row>
     <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="86" t="s">
@@ -26552,12 +26644,12 @@
       <c r="N107" s="94">
         <v>0.17483262325015217</v>
       </c>
-      <c r="O107" s="199"/>
-      <c r="P107" s="199"/>
-      <c r="Q107" s="199"/>
-      <c r="R107" s="199"/>
-      <c r="S107" s="199"/>
-      <c r="T107" s="199"/>
+      <c r="O107" s="201"/>
+      <c r="P107" s="201"/>
+      <c r="Q107" s="201"/>
+      <c r="R107" s="201"/>
+      <c r="S107" s="201"/>
+      <c r="T107" s="201"/>
     </row>
     <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="86" t="s">
@@ -26602,12 +26694,12 @@
       <c r="N108" s="94">
         <v>0.17444050938135786</v>
       </c>
-      <c r="O108" s="199"/>
-      <c r="P108" s="199"/>
-      <c r="Q108" s="199"/>
-      <c r="R108" s="199"/>
-      <c r="S108" s="199"/>
-      <c r="T108" s="199"/>
+      <c r="O108" s="201"/>
+      <c r="P108" s="201"/>
+      <c r="Q108" s="201"/>
+      <c r="R108" s="201"/>
+      <c r="S108" s="201"/>
+      <c r="T108" s="201"/>
     </row>
     <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="86" t="s">
@@ -26652,12 +26744,12 @@
       <c r="N109" s="94">
         <v>0.16989396035039189</v>
       </c>
-      <c r="O109" s="199"/>
-      <c r="P109" s="199"/>
-      <c r="Q109" s="199"/>
-      <c r="R109" s="199"/>
-      <c r="S109" s="199"/>
-      <c r="T109" s="199"/>
+      <c r="O109" s="201"/>
+      <c r="P109" s="201"/>
+      <c r="Q109" s="201"/>
+      <c r="R109" s="201"/>
+      <c r="S109" s="201"/>
+      <c r="T109" s="201"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="91" t="s">
@@ -26715,12 +26807,12 @@
         <f t="shared" ref="N110" si="102">AVERAGE(N100:N109)</f>
         <v>0.17456815915165652</v>
       </c>
-      <c r="O110" s="199"/>
-      <c r="P110" s="199"/>
-      <c r="Q110" s="199"/>
-      <c r="R110" s="199"/>
-      <c r="S110" s="199"/>
-      <c r="T110" s="199"/>
+      <c r="O110" s="201"/>
+      <c r="P110" s="201"/>
+      <c r="Q110" s="201"/>
+      <c r="R110" s="201"/>
+      <c r="S110" s="201"/>
+      <c r="T110" s="201"/>
     </row>
     <row r="111" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="98"/>
@@ -26780,14 +26872,14 @@
       <c r="N112" s="94">
         <v>0.17537800291657071</v>
       </c>
-      <c r="O112" s="199" t="s">
+      <c r="O112" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="P112" s="199"/>
-      <c r="Q112" s="199"/>
-      <c r="R112" s="199"/>
-      <c r="S112" s="199"/>
-      <c r="T112" s="199"/>
+      <c r="P112" s="201"/>
+      <c r="Q112" s="201"/>
+      <c r="R112" s="201"/>
+      <c r="S112" s="201"/>
+      <c r="T112" s="201"/>
     </row>
     <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="86" t="s">
@@ -26832,12 +26924,12 @@
       <c r="N113" s="94">
         <v>0.17761576049018848</v>
       </c>
-      <c r="O113" s="199"/>
-      <c r="P113" s="199"/>
-      <c r="Q113" s="199"/>
-      <c r="R113" s="199"/>
-      <c r="S113" s="199"/>
-      <c r="T113" s="199"/>
+      <c r="O113" s="201"/>
+      <c r="P113" s="201"/>
+      <c r="Q113" s="201"/>
+      <c r="R113" s="201"/>
+      <c r="S113" s="201"/>
+      <c r="T113" s="201"/>
     </row>
     <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="86" t="s">
@@ -26882,12 +26974,12 @@
       <c r="N114" s="94">
         <v>0.17222222222222222</v>
       </c>
-      <c r="O114" s="199"/>
-      <c r="P114" s="199"/>
-      <c r="Q114" s="199"/>
-      <c r="R114" s="199"/>
-      <c r="S114" s="199"/>
-      <c r="T114" s="199"/>
+      <c r="O114" s="201"/>
+      <c r="P114" s="201"/>
+      <c r="Q114" s="201"/>
+      <c r="R114" s="201"/>
+      <c r="S114" s="201"/>
+      <c r="T114" s="201"/>
     </row>
     <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="86" t="s">
@@ -26932,12 +27024,12 @@
       <c r="N115" s="94">
         <v>0.16922606769042708</v>
       </c>
-      <c r="O115" s="199"/>
-      <c r="P115" s="199"/>
-      <c r="Q115" s="199"/>
-      <c r="R115" s="199"/>
-      <c r="S115" s="199"/>
-      <c r="T115" s="199"/>
+      <c r="O115" s="201"/>
+      <c r="P115" s="201"/>
+      <c r="Q115" s="201"/>
+      <c r="R115" s="201"/>
+      <c r="S115" s="201"/>
+      <c r="T115" s="201"/>
     </row>
     <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="86" t="s">
@@ -26982,12 +27074,12 @@
       <c r="N116" s="94">
         <v>0.17563031769573023</v>
       </c>
-      <c r="O116" s="199"/>
-      <c r="P116" s="199"/>
-      <c r="Q116" s="199"/>
-      <c r="R116" s="199"/>
-      <c r="S116" s="199"/>
-      <c r="T116" s="199"/>
+      <c r="O116" s="201"/>
+      <c r="P116" s="201"/>
+      <c r="Q116" s="201"/>
+      <c r="R116" s="201"/>
+      <c r="S116" s="201"/>
+      <c r="T116" s="201"/>
     </row>
     <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="86" t="s">
@@ -27032,12 +27124,12 @@
       <c r="N117" s="94">
         <v>0.16729280073602698</v>
       </c>
-      <c r="O117" s="199"/>
-      <c r="P117" s="199"/>
-      <c r="Q117" s="199"/>
-      <c r="R117" s="199"/>
-      <c r="S117" s="199"/>
-      <c r="T117" s="199"/>
+      <c r="O117" s="201"/>
+      <c r="P117" s="201"/>
+      <c r="Q117" s="201"/>
+      <c r="R117" s="201"/>
+      <c r="S117" s="201"/>
+      <c r="T117" s="201"/>
     </row>
     <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="86" t="s">
@@ -27082,12 +27174,12 @@
       <c r="N118" s="94">
         <v>0.17375161021444269</v>
       </c>
-      <c r="O118" s="199"/>
-      <c r="P118" s="199"/>
-      <c r="Q118" s="199"/>
-      <c r="R118" s="199"/>
-      <c r="S118" s="199"/>
-      <c r="T118" s="199"/>
+      <c r="O118" s="201"/>
+      <c r="P118" s="201"/>
+      <c r="Q118" s="201"/>
+      <c r="R118" s="201"/>
+      <c r="S118" s="201"/>
+      <c r="T118" s="201"/>
     </row>
     <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="86" t="s">
@@ -27132,12 +27224,12 @@
       <c r="N119" s="94">
         <v>0.1726707120362547</v>
       </c>
-      <c r="O119" s="199"/>
-      <c r="P119" s="199"/>
-      <c r="Q119" s="199"/>
-      <c r="R119" s="199"/>
-      <c r="S119" s="199"/>
-      <c r="T119" s="199"/>
+      <c r="O119" s="201"/>
+      <c r="P119" s="201"/>
+      <c r="Q119" s="201"/>
+      <c r="R119" s="201"/>
+      <c r="S119" s="201"/>
+      <c r="T119" s="201"/>
     </row>
     <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="86" t="s">
@@ -27182,12 +27274,12 @@
       <c r="N120" s="94">
         <v>0.17314864144912093</v>
       </c>
-      <c r="O120" s="199"/>
-      <c r="P120" s="199"/>
-      <c r="Q120" s="199"/>
-      <c r="R120" s="199"/>
-      <c r="S120" s="199"/>
-      <c r="T120" s="199"/>
+      <c r="O120" s="201"/>
+      <c r="P120" s="201"/>
+      <c r="Q120" s="201"/>
+      <c r="R120" s="201"/>
+      <c r="S120" s="201"/>
+      <c r="T120" s="201"/>
     </row>
     <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="86" t="s">
@@ -27232,12 +27324,12 @@
       <c r="N121" s="94">
         <v>0.17636066339640272</v>
       </c>
-      <c r="O121" s="199"/>
-      <c r="P121" s="199"/>
-      <c r="Q121" s="199"/>
-      <c r="R121" s="199"/>
-      <c r="S121" s="199"/>
-      <c r="T121" s="199"/>
+      <c r="O121" s="201"/>
+      <c r="P121" s="201"/>
+      <c r="Q121" s="201"/>
+      <c r="R121" s="201"/>
+      <c r="S121" s="201"/>
+      <c r="T121" s="201"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="91" t="s">
@@ -27295,12 +27387,12 @@
         <f t="shared" ref="N122" si="114">AVERAGE(N112:N121)</f>
         <v>0.17332967988473869</v>
       </c>
-      <c r="O122" s="199"/>
-      <c r="P122" s="199"/>
-      <c r="Q122" s="199"/>
-      <c r="R122" s="199"/>
-      <c r="S122" s="199"/>
-      <c r="T122" s="199"/>
+      <c r="O122" s="201"/>
+      <c r="P122" s="201"/>
+      <c r="Q122" s="201"/>
+      <c r="R122" s="201"/>
+      <c r="S122" s="201"/>
+      <c r="T122" s="201"/>
     </row>
     <row r="123" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="98"/>
@@ -27360,14 +27452,14 @@
       <c r="N124" s="94">
         <v>0.17221882640586797</v>
       </c>
-      <c r="O124" s="199" t="s">
+      <c r="O124" s="201" t="s">
         <v>193</v>
       </c>
-      <c r="P124" s="199"/>
-      <c r="Q124" s="199"/>
-      <c r="R124" s="199"/>
-      <c r="S124" s="199"/>
-      <c r="T124" s="199"/>
+      <c r="P124" s="201"/>
+      <c r="Q124" s="201"/>
+      <c r="R124" s="201"/>
+      <c r="S124" s="201"/>
+      <c r="T124" s="201"/>
     </row>
     <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="86" t="s">
@@ -27412,12 +27504,12 @@
       <c r="N125" s="94">
         <v>0.17350717481870082</v>
       </c>
-      <c r="O125" s="199"/>
-      <c r="P125" s="199"/>
-      <c r="Q125" s="199"/>
-      <c r="R125" s="199"/>
-      <c r="S125" s="199"/>
-      <c r="T125" s="199"/>
+      <c r="O125" s="201"/>
+      <c r="P125" s="201"/>
+      <c r="Q125" s="201"/>
+      <c r="R125" s="201"/>
+      <c r="S125" s="201"/>
+      <c r="T125" s="201"/>
     </row>
     <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="86" t="s">
@@ -27462,12 +27554,12 @@
       <c r="N126" s="94">
         <v>0.17092263261893906</v>
       </c>
-      <c r="O126" s="199"/>
-      <c r="P126" s="199"/>
-      <c r="Q126" s="199"/>
-      <c r="R126" s="199"/>
-      <c r="S126" s="199"/>
-      <c r="T126" s="199"/>
+      <c r="O126" s="201"/>
+      <c r="P126" s="201"/>
+      <c r="Q126" s="201"/>
+      <c r="R126" s="201"/>
+      <c r="S126" s="201"/>
+      <c r="T126" s="201"/>
     </row>
     <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="86" t="s">
@@ -27512,12 +27604,12 @@
       <c r="N127" s="94">
         <v>0.17220333745364647</v>
       </c>
-      <c r="O127" s="199"/>
-      <c r="P127" s="199"/>
-      <c r="Q127" s="199"/>
-      <c r="R127" s="199"/>
-      <c r="S127" s="199"/>
-      <c r="T127" s="199"/>
+      <c r="O127" s="201"/>
+      <c r="P127" s="201"/>
+      <c r="Q127" s="201"/>
+      <c r="R127" s="201"/>
+      <c r="S127" s="201"/>
+      <c r="T127" s="201"/>
     </row>
     <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="86" t="s">
@@ -27562,12 +27654,12 @@
       <c r="N128" s="94">
         <v>0.17278668118873503</v>
       </c>
-      <c r="O128" s="199"/>
-      <c r="P128" s="199"/>
-      <c r="Q128" s="199"/>
-      <c r="R128" s="199"/>
-      <c r="S128" s="199"/>
-      <c r="T128" s="199"/>
+      <c r="O128" s="201"/>
+      <c r="P128" s="201"/>
+      <c r="Q128" s="201"/>
+      <c r="R128" s="201"/>
+      <c r="S128" s="201"/>
+      <c r="T128" s="201"/>
     </row>
     <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="86" t="s">
@@ -27612,12 +27704,12 @@
       <c r="N129" s="94">
         <v>0.16994674693216022</v>
       </c>
-      <c r="O129" s="199"/>
-      <c r="P129" s="199"/>
-      <c r="Q129" s="199"/>
-      <c r="R129" s="199"/>
-      <c r="S129" s="199"/>
-      <c r="T129" s="199"/>
+      <c r="O129" s="201"/>
+      <c r="P129" s="201"/>
+      <c r="Q129" s="201"/>
+      <c r="R129" s="201"/>
+      <c r="S129" s="201"/>
+      <c r="T129" s="201"/>
     </row>
     <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="86" t="s">
@@ -27662,12 +27754,12 @@
       <c r="N130" s="94">
         <v>0.16907404591759162</v>
       </c>
-      <c r="O130" s="199"/>
-      <c r="P130" s="199"/>
-      <c r="Q130" s="199"/>
-      <c r="R130" s="199"/>
-      <c r="S130" s="199"/>
-      <c r="T130" s="199"/>
+      <c r="O130" s="201"/>
+      <c r="P130" s="201"/>
+      <c r="Q130" s="201"/>
+      <c r="R130" s="201"/>
+      <c r="S130" s="201"/>
+      <c r="T130" s="201"/>
     </row>
     <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="86" t="s">
@@ -27712,12 +27804,12 @@
       <c r="N131" s="94">
         <v>0.16873793901968351</v>
       </c>
-      <c r="O131" s="199"/>
-      <c r="P131" s="199"/>
-      <c r="Q131" s="199"/>
-      <c r="R131" s="199"/>
-      <c r="S131" s="199"/>
-      <c r="T131" s="199"/>
+      <c r="O131" s="201"/>
+      <c r="P131" s="201"/>
+      <c r="Q131" s="201"/>
+      <c r="R131" s="201"/>
+      <c r="S131" s="201"/>
+      <c r="T131" s="201"/>
     </row>
     <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="86" t="s">
@@ -27762,12 +27854,12 @@
       <c r="N132" s="94">
         <v>0.16885524486327824</v>
       </c>
-      <c r="O132" s="199"/>
-      <c r="P132" s="199"/>
-      <c r="Q132" s="199"/>
-      <c r="R132" s="199"/>
-      <c r="S132" s="199"/>
-      <c r="T132" s="199"/>
+      <c r="O132" s="201"/>
+      <c r="P132" s="201"/>
+      <c r="Q132" s="201"/>
+      <c r="R132" s="201"/>
+      <c r="S132" s="201"/>
+      <c r="T132" s="201"/>
     </row>
     <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="86" t="s">
@@ -27812,12 +27904,12 @@
       <c r="N133" s="94">
         <v>0.1665903890160183</v>
       </c>
-      <c r="O133" s="199"/>
-      <c r="P133" s="199"/>
-      <c r="Q133" s="199"/>
-      <c r="R133" s="199"/>
-      <c r="S133" s="199"/>
-      <c r="T133" s="199"/>
+      <c r="O133" s="201"/>
+      <c r="P133" s="201"/>
+      <c r="Q133" s="201"/>
+      <c r="R133" s="201"/>
+      <c r="S133" s="201"/>
+      <c r="T133" s="201"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="91" t="s">
@@ -27875,12 +27967,12 @@
         <f t="shared" ref="N134" si="126">AVERAGE(N124:N133)</f>
         <v>0.17048430182346214</v>
       </c>
-      <c r="O134" s="199"/>
-      <c r="P134" s="199"/>
-      <c r="Q134" s="199"/>
-      <c r="R134" s="199"/>
-      <c r="S134" s="199"/>
-      <c r="T134" s="199"/>
+      <c r="O134" s="201"/>
+      <c r="P134" s="201"/>
+      <c r="Q134" s="201"/>
+      <c r="R134" s="201"/>
+      <c r="S134" s="201"/>
+      <c r="T134" s="201"/>
     </row>
     <row r="135" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="98"/>
@@ -27940,14 +28032,14 @@
       <c r="N136" s="94">
         <v>0.34263470284436909</v>
       </c>
-      <c r="O136" s="199" t="s">
+      <c r="O136" s="201" t="s">
         <v>194</v>
       </c>
-      <c r="P136" s="199"/>
-      <c r="Q136" s="199"/>
-      <c r="R136" s="199"/>
-      <c r="S136" s="199"/>
-      <c r="T136" s="199"/>
+      <c r="P136" s="201"/>
+      <c r="Q136" s="201"/>
+      <c r="R136" s="201"/>
+      <c r="S136" s="201"/>
+      <c r="T136" s="201"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="86" t="s">
@@ -27992,12 +28084,12 @@
       <c r="N137" s="94">
         <v>0.34725969320897249</v>
       </c>
-      <c r="O137" s="199"/>
-      <c r="P137" s="199"/>
-      <c r="Q137" s="199"/>
-      <c r="R137" s="199"/>
-      <c r="S137" s="199"/>
-      <c r="T137" s="199"/>
+      <c r="O137" s="201"/>
+      <c r="P137" s="201"/>
+      <c r="Q137" s="201"/>
+      <c r="R137" s="201"/>
+      <c r="S137" s="201"/>
+      <c r="T137" s="201"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="86" t="s">
@@ -28042,12 +28134,12 @@
       <c r="N138" s="94">
         <v>0.34692461846770462</v>
       </c>
-      <c r="O138" s="199"/>
-      <c r="P138" s="199"/>
-      <c r="Q138" s="199"/>
-      <c r="R138" s="199"/>
-      <c r="S138" s="199"/>
-      <c r="T138" s="199"/>
+      <c r="O138" s="201"/>
+      <c r="P138" s="201"/>
+      <c r="Q138" s="201"/>
+      <c r="R138" s="201"/>
+      <c r="S138" s="201"/>
+      <c r="T138" s="201"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="86" t="s">
@@ -28092,12 +28184,12 @@
       <c r="N139" s="94">
         <v>0.35268684373069797</v>
       </c>
-      <c r="O139" s="199"/>
-      <c r="P139" s="199"/>
-      <c r="Q139" s="199"/>
-      <c r="R139" s="199"/>
-      <c r="S139" s="199"/>
-      <c r="T139" s="199"/>
+      <c r="O139" s="201"/>
+      <c r="P139" s="201"/>
+      <c r="Q139" s="201"/>
+      <c r="R139" s="201"/>
+      <c r="S139" s="201"/>
+      <c r="T139" s="201"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="86" t="s">
@@ -28142,12 +28234,12 @@
       <c r="N140" s="94">
         <v>0.34479833423305312</v>
       </c>
-      <c r="O140" s="199"/>
-      <c r="P140" s="199"/>
-      <c r="Q140" s="199"/>
-      <c r="R140" s="199"/>
-      <c r="S140" s="199"/>
-      <c r="T140" s="199"/>
+      <c r="O140" s="201"/>
+      <c r="P140" s="201"/>
+      <c r="Q140" s="201"/>
+      <c r="R140" s="201"/>
+      <c r="S140" s="201"/>
+      <c r="T140" s="201"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="86" t="s">
@@ -28192,12 +28284,12 @@
       <c r="N141" s="94">
         <v>0.34943268935909233</v>
       </c>
-      <c r="O141" s="199"/>
-      <c r="P141" s="199"/>
-      <c r="Q141" s="199"/>
-      <c r="R141" s="199"/>
-      <c r="S141" s="199"/>
-      <c r="T141" s="199"/>
+      <c r="O141" s="201"/>
+      <c r="P141" s="201"/>
+      <c r="Q141" s="201"/>
+      <c r="R141" s="201"/>
+      <c r="S141" s="201"/>
+      <c r="T141" s="201"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="86" t="s">
@@ -28242,12 +28334,12 @@
       <c r="N142" s="94">
         <v>0.34471569839307786</v>
       </c>
-      <c r="O142" s="199"/>
-      <c r="P142" s="199"/>
-      <c r="Q142" s="199"/>
-      <c r="R142" s="199"/>
-      <c r="S142" s="199"/>
-      <c r="T142" s="199"/>
+      <c r="O142" s="201"/>
+      <c r="P142" s="201"/>
+      <c r="Q142" s="201"/>
+      <c r="R142" s="201"/>
+      <c r="S142" s="201"/>
+      <c r="T142" s="201"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="86" t="s">
@@ -28292,12 +28384,12 @@
       <c r="N143" s="94">
         <v>0.34220847790013575</v>
       </c>
-      <c r="O143" s="199"/>
-      <c r="P143" s="199"/>
-      <c r="Q143" s="199"/>
-      <c r="R143" s="199"/>
-      <c r="S143" s="199"/>
-      <c r="T143" s="199"/>
+      <c r="O143" s="201"/>
+      <c r="P143" s="201"/>
+      <c r="Q143" s="201"/>
+      <c r="R143" s="201"/>
+      <c r="S143" s="201"/>
+      <c r="T143" s="201"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="86" t="s">
@@ -28342,12 +28434,12 @@
       <c r="N144" s="94">
         <v>0.34444013948082136</v>
       </c>
-      <c r="O144" s="199"/>
-      <c r="P144" s="199"/>
-      <c r="Q144" s="199"/>
-      <c r="R144" s="199"/>
-      <c r="S144" s="199"/>
-      <c r="T144" s="199"/>
+      <c r="O144" s="201"/>
+      <c r="P144" s="201"/>
+      <c r="Q144" s="201"/>
+      <c r="R144" s="201"/>
+      <c r="S144" s="201"/>
+      <c r="T144" s="201"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="86" t="s">
@@ -28392,12 +28484,12 @@
       <c r="N145" s="94">
         <v>0.3416956324618407</v>
       </c>
-      <c r="O145" s="199"/>
-      <c r="P145" s="199"/>
-      <c r="Q145" s="199"/>
-      <c r="R145" s="199"/>
-      <c r="S145" s="199"/>
-      <c r="T145" s="199"/>
+      <c r="O145" s="201"/>
+      <c r="P145" s="201"/>
+      <c r="Q145" s="201"/>
+      <c r="R145" s="201"/>
+      <c r="S145" s="201"/>
+      <c r="T145" s="201"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="91" t="s">
@@ -28455,12 +28547,12 @@
         <f t="shared" ref="N146" si="138">AVERAGE(N136:N145)</f>
         <v>0.34567968300797652</v>
       </c>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-      <c r="Q146" s="199"/>
-      <c r="R146" s="199"/>
-      <c r="S146" s="199"/>
-      <c r="T146" s="199"/>
+      <c r="O146" s="201"/>
+      <c r="P146" s="201"/>
+      <c r="Q146" s="201"/>
+      <c r="R146" s="201"/>
+      <c r="S146" s="201"/>
+      <c r="T146" s="201"/>
     </row>
     <row r="147" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="98"/>
@@ -28520,14 +28612,14 @@
       <c r="N148" s="94">
         <v>0.3500538544391445</v>
       </c>
-      <c r="O148" s="199" t="s">
+      <c r="O148" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="P148" s="199"/>
-      <c r="Q148" s="199"/>
-      <c r="R148" s="199"/>
-      <c r="S148" s="199"/>
-      <c r="T148" s="199"/>
+      <c r="P148" s="201"/>
+      <c r="Q148" s="201"/>
+      <c r="R148" s="201"/>
+      <c r="S148" s="201"/>
+      <c r="T148" s="201"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="86" t="s">
@@ -28572,12 +28664,12 @@
       <c r="N149" s="94">
         <v>0.34798728813559321</v>
       </c>
-      <c r="O149" s="199"/>
-      <c r="P149" s="199"/>
-      <c r="Q149" s="199"/>
-      <c r="R149" s="199"/>
-      <c r="S149" s="199"/>
-      <c r="T149" s="199"/>
+      <c r="O149" s="201"/>
+      <c r="P149" s="201"/>
+      <c r="Q149" s="201"/>
+      <c r="R149" s="201"/>
+      <c r="S149" s="201"/>
+      <c r="T149" s="201"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="86" t="s">
@@ -28622,12 +28714,12 @@
       <c r="N150" s="94">
         <v>0.35468737983542259</v>
       </c>
-      <c r="O150" s="199"/>
-      <c r="P150" s="199"/>
-      <c r="Q150" s="199"/>
-      <c r="R150" s="199"/>
-      <c r="S150" s="199"/>
-      <c r="T150" s="199"/>
+      <c r="O150" s="201"/>
+      <c r="P150" s="201"/>
+      <c r="Q150" s="201"/>
+      <c r="R150" s="201"/>
+      <c r="S150" s="201"/>
+      <c r="T150" s="201"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="86" t="s">
@@ -28672,12 +28764,12 @@
       <c r="N151" s="94">
         <v>0.34855842185128982</v>
       </c>
-      <c r="O151" s="199"/>
-      <c r="P151" s="199"/>
-      <c r="Q151" s="199"/>
-      <c r="R151" s="199"/>
-      <c r="S151" s="199"/>
-      <c r="T151" s="199"/>
+      <c r="O151" s="201"/>
+      <c r="P151" s="201"/>
+      <c r="Q151" s="201"/>
+      <c r="R151" s="201"/>
+      <c r="S151" s="201"/>
+      <c r="T151" s="201"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="86" t="s">
@@ -28722,12 +28814,12 @@
       <c r="N152" s="94">
         <v>0.35139927530645287</v>
       </c>
-      <c r="O152" s="199"/>
-      <c r="P152" s="199"/>
-      <c r="Q152" s="199"/>
-      <c r="R152" s="199"/>
-      <c r="S152" s="199"/>
-      <c r="T152" s="199"/>
+      <c r="O152" s="201"/>
+      <c r="P152" s="201"/>
+      <c r="Q152" s="201"/>
+      <c r="R152" s="201"/>
+      <c r="S152" s="201"/>
+      <c r="T152" s="201"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="86" t="s">
@@ -28772,12 +28864,12 @@
       <c r="N153" s="94">
         <v>0.35212888377445339</v>
       </c>
-      <c r="O153" s="199"/>
-      <c r="P153" s="199"/>
-      <c r="Q153" s="199"/>
-      <c r="R153" s="199"/>
-      <c r="S153" s="199"/>
-      <c r="T153" s="199"/>
+      <c r="O153" s="201"/>
+      <c r="P153" s="201"/>
+      <c r="Q153" s="201"/>
+      <c r="R153" s="201"/>
+      <c r="S153" s="201"/>
+      <c r="T153" s="201"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="86" t="s">
@@ -28822,12 +28914,12 @@
       <c r="N154" s="94">
         <v>0.35056179775280899</v>
       </c>
-      <c r="O154" s="199"/>
-      <c r="P154" s="199"/>
-      <c r="Q154" s="199"/>
-      <c r="R154" s="199"/>
-      <c r="S154" s="199"/>
-      <c r="T154" s="199"/>
+      <c r="O154" s="201"/>
+      <c r="P154" s="201"/>
+      <c r="Q154" s="201"/>
+      <c r="R154" s="201"/>
+      <c r="S154" s="201"/>
+      <c r="T154" s="201"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="86" t="s">
@@ -28872,12 +28964,12 @@
       <c r="N155" s="94">
         <v>0.3610292977832894</v>
       </c>
-      <c r="O155" s="199"/>
-      <c r="P155" s="199"/>
-      <c r="Q155" s="199"/>
-      <c r="R155" s="199"/>
-      <c r="S155" s="199"/>
-      <c r="T155" s="199"/>
+      <c r="O155" s="201"/>
+      <c r="P155" s="201"/>
+      <c r="Q155" s="201"/>
+      <c r="R155" s="201"/>
+      <c r="S155" s="201"/>
+      <c r="T155" s="201"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="86" t="s">
@@ -28922,12 +29014,12 @@
       <c r="N156" s="94">
         <v>0.34164742109314855</v>
       </c>
-      <c r="O156" s="199"/>
-      <c r="P156" s="199"/>
-      <c r="Q156" s="199"/>
-      <c r="R156" s="199"/>
-      <c r="S156" s="199"/>
-      <c r="T156" s="199"/>
+      <c r="O156" s="201"/>
+      <c r="P156" s="201"/>
+      <c r="Q156" s="201"/>
+      <c r="R156" s="201"/>
+      <c r="S156" s="201"/>
+      <c r="T156" s="201"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="86" t="s">
@@ -28972,12 +29064,12 @@
       <c r="N157" s="94">
         <v>0.34514896867838046</v>
       </c>
-      <c r="O157" s="199"/>
-      <c r="P157" s="199"/>
-      <c r="Q157" s="199"/>
-      <c r="R157" s="199"/>
-      <c r="S157" s="199"/>
-      <c r="T157" s="199"/>
+      <c r="O157" s="201"/>
+      <c r="P157" s="201"/>
+      <c r="Q157" s="201"/>
+      <c r="R157" s="201"/>
+      <c r="S157" s="201"/>
+      <c r="T157" s="201"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="91" t="s">
@@ -29035,12 +29127,12 @@
         <f t="shared" ref="N158" si="150">AVERAGE(N148:N157)</f>
         <v>0.3503202588649984</v>
       </c>
-      <c r="O158" s="199"/>
-      <c r="P158" s="199"/>
-      <c r="Q158" s="199"/>
-      <c r="R158" s="199"/>
-      <c r="S158" s="199"/>
-      <c r="T158" s="199"/>
+      <c r="O158" s="201"/>
+      <c r="P158" s="201"/>
+      <c r="Q158" s="201"/>
+      <c r="R158" s="201"/>
+      <c r="S158" s="201"/>
+      <c r="T158" s="201"/>
     </row>
     <row r="159" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="98"/>
@@ -29100,14 +29192,14 @@
       <c r="N160" s="94">
         <v>0.35293209876543208</v>
       </c>
-      <c r="O160" s="199" t="s">
+      <c r="O160" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="P160" s="199"/>
-      <c r="Q160" s="199"/>
-      <c r="R160" s="199"/>
-      <c r="S160" s="199"/>
-      <c r="T160" s="199"/>
+      <c r="P160" s="201"/>
+      <c r="Q160" s="201"/>
+      <c r="R160" s="201"/>
+      <c r="S160" s="201"/>
+      <c r="T160" s="201"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="86" t="s">
@@ -29152,12 +29244,12 @@
       <c r="N161" s="94">
         <v>0.34995799282059115</v>
       </c>
-      <c r="O161" s="199"/>
-      <c r="P161" s="199"/>
-      <c r="Q161" s="199"/>
-      <c r="R161" s="199"/>
-      <c r="S161" s="199"/>
-      <c r="T161" s="199"/>
+      <c r="O161" s="201"/>
+      <c r="P161" s="201"/>
+      <c r="Q161" s="201"/>
+      <c r="R161" s="201"/>
+      <c r="S161" s="201"/>
+      <c r="T161" s="201"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="86" t="s">
@@ -29202,12 +29294,12 @@
       <c r="N162" s="94">
         <v>0.35635465699513852</v>
       </c>
-      <c r="O162" s="199"/>
-      <c r="P162" s="199"/>
-      <c r="Q162" s="199"/>
-      <c r="R162" s="199"/>
-      <c r="S162" s="199"/>
-      <c r="T162" s="199"/>
+      <c r="O162" s="201"/>
+      <c r="P162" s="201"/>
+      <c r="Q162" s="201"/>
+      <c r="R162" s="201"/>
+      <c r="S162" s="201"/>
+      <c r="T162" s="201"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
@@ -29252,12 +29344,12 @@
       <c r="N163" s="94">
         <v>0.35251413724591169</v>
       </c>
-      <c r="O163" s="199"/>
-      <c r="P163" s="199"/>
-      <c r="Q163" s="199"/>
-      <c r="R163" s="199"/>
-      <c r="S163" s="199"/>
-      <c r="T163" s="199"/>
+      <c r="O163" s="201"/>
+      <c r="P163" s="201"/>
+      <c r="Q163" s="201"/>
+      <c r="R163" s="201"/>
+      <c r="S163" s="201"/>
+      <c r="T163" s="201"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
@@ -29302,12 +29394,12 @@
       <c r="N164" s="94">
         <v>0.35047662976629768</v>
       </c>
-      <c r="O164" s="199"/>
-      <c r="P164" s="199"/>
-      <c r="Q164" s="199"/>
-      <c r="R164" s="199"/>
-      <c r="S164" s="199"/>
-      <c r="T164" s="199"/>
+      <c r="O164" s="201"/>
+      <c r="P164" s="201"/>
+      <c r="Q164" s="201"/>
+      <c r="R164" s="201"/>
+      <c r="S164" s="201"/>
+      <c r="T164" s="201"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
@@ -29352,12 +29444,12 @@
       <c r="N165" s="94">
         <v>0.3479597325751172</v>
       </c>
-      <c r="O165" s="199"/>
-      <c r="P165" s="199"/>
-      <c r="Q165" s="199"/>
-      <c r="R165" s="199"/>
-      <c r="S165" s="199"/>
-      <c r="T165" s="199"/>
+      <c r="O165" s="201"/>
+      <c r="P165" s="201"/>
+      <c r="Q165" s="201"/>
+      <c r="R165" s="201"/>
+      <c r="S165" s="201"/>
+      <c r="T165" s="201"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
@@ -29402,12 +29494,12 @@
       <c r="N166" s="94">
         <v>0.34636656936549393</v>
       </c>
-      <c r="O166" s="199"/>
-      <c r="P166" s="199"/>
-      <c r="Q166" s="199"/>
-      <c r="R166" s="199"/>
-      <c r="S166" s="199"/>
-      <c r="T166" s="199"/>
+      <c r="O166" s="201"/>
+      <c r="P166" s="201"/>
+      <c r="Q166" s="201"/>
+      <c r="R166" s="201"/>
+      <c r="S166" s="201"/>
+      <c r="T166" s="201"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="86" t="s">
@@ -29452,12 +29544,12 @@
       <c r="N167" s="94">
         <v>0.34574387086949904</v>
       </c>
-      <c r="O167" s="199"/>
-      <c r="P167" s="199"/>
-      <c r="Q167" s="199"/>
-      <c r="R167" s="199"/>
-      <c r="S167" s="199"/>
-      <c r="T167" s="199"/>
+      <c r="O167" s="201"/>
+      <c r="P167" s="201"/>
+      <c r="Q167" s="201"/>
+      <c r="R167" s="201"/>
+      <c r="S167" s="201"/>
+      <c r="T167" s="201"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
@@ -29502,12 +29594,12 @@
       <c r="N168" s="94">
         <v>0.34761941868619967</v>
       </c>
-      <c r="O168" s="199"/>
-      <c r="P168" s="199"/>
-      <c r="Q168" s="199"/>
-      <c r="R168" s="199"/>
-      <c r="S168" s="199"/>
-      <c r="T168" s="199"/>
+      <c r="O168" s="201"/>
+      <c r="P168" s="201"/>
+      <c r="Q168" s="201"/>
+      <c r="R168" s="201"/>
+      <c r="S168" s="201"/>
+      <c r="T168" s="201"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="86" t="s">
@@ -29552,12 +29644,12 @@
       <c r="N169" s="94">
         <v>0.35355074672355991</v>
       </c>
-      <c r="O169" s="199"/>
-      <c r="P169" s="199"/>
-      <c r="Q169" s="199"/>
-      <c r="R169" s="199"/>
-      <c r="S169" s="199"/>
-      <c r="T169" s="199"/>
+      <c r="O169" s="201"/>
+      <c r="P169" s="201"/>
+      <c r="Q169" s="201"/>
+      <c r="R169" s="201"/>
+      <c r="S169" s="201"/>
+      <c r="T169" s="201"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="91" t="s">
@@ -29615,12 +29707,12 @@
         <f t="shared" ref="N170" si="162">AVERAGE(N160:N169)</f>
         <v>0.35034758538132416</v>
       </c>
-      <c r="O170" s="199"/>
-      <c r="P170" s="199"/>
-      <c r="Q170" s="199"/>
-      <c r="R170" s="199"/>
-      <c r="S170" s="199"/>
-      <c r="T170" s="199"/>
+      <c r="O170" s="201"/>
+      <c r="P170" s="201"/>
+      <c r="Q170" s="201"/>
+      <c r="R170" s="201"/>
+      <c r="S170" s="201"/>
+      <c r="T170" s="201"/>
     </row>
     <row r="171" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="98"/>
@@ -29680,14 +29772,14 @@
       <c r="N172" s="94">
         <v>0.35771982460189244</v>
       </c>
-      <c r="O172" s="199" t="s">
+      <c r="O172" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="P172" s="199"/>
-      <c r="Q172" s="199"/>
-      <c r="R172" s="199"/>
-      <c r="S172" s="199"/>
-      <c r="T172" s="199"/>
+      <c r="P172" s="201"/>
+      <c r="Q172" s="201"/>
+      <c r="R172" s="201"/>
+      <c r="S172" s="201"/>
+      <c r="T172" s="201"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="86" t="s">
@@ -29732,12 +29824,12 @@
       <c r="N173" s="94">
         <v>0.35524196640846689</v>
       </c>
-      <c r="O173" s="199"/>
-      <c r="P173" s="199"/>
-      <c r="Q173" s="199"/>
-      <c r="R173" s="199"/>
-      <c r="S173" s="199"/>
-      <c r="T173" s="199"/>
+      <c r="O173" s="201"/>
+      <c r="P173" s="201"/>
+      <c r="Q173" s="201"/>
+      <c r="R173" s="201"/>
+      <c r="S173" s="201"/>
+      <c r="T173" s="201"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="86" t="s">
@@ -29782,12 +29874,12 @@
       <c r="N174" s="94">
         <v>0.35232326330317437</v>
       </c>
-      <c r="O174" s="199"/>
-      <c r="P174" s="199"/>
-      <c r="Q174" s="199"/>
-      <c r="R174" s="199"/>
-      <c r="S174" s="199"/>
-      <c r="T174" s="199"/>
+      <c r="O174" s="201"/>
+      <c r="P174" s="201"/>
+      <c r="Q174" s="201"/>
+      <c r="R174" s="201"/>
+      <c r="S174" s="201"/>
+      <c r="T174" s="201"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="86" t="s">
@@ -29832,12 +29924,12 @@
       <c r="N175" s="94">
         <v>0.3594211682703235</v>
       </c>
-      <c r="O175" s="199"/>
-      <c r="P175" s="199"/>
-      <c r="Q175" s="199"/>
-      <c r="R175" s="199"/>
-      <c r="S175" s="199"/>
-      <c r="T175" s="199"/>
+      <c r="O175" s="201"/>
+      <c r="P175" s="201"/>
+      <c r="Q175" s="201"/>
+      <c r="R175" s="201"/>
+      <c r="S175" s="201"/>
+      <c r="T175" s="201"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="86" t="s">
@@ -29882,12 +29974,12 @@
       <c r="N176" s="94">
         <v>0.35236355332267644</v>
       </c>
-      <c r="O176" s="199"/>
-      <c r="P176" s="199"/>
-      <c r="Q176" s="199"/>
-      <c r="R176" s="199"/>
-      <c r="S176" s="199"/>
-      <c r="T176" s="199"/>
+      <c r="O176" s="201"/>
+      <c r="P176" s="201"/>
+      <c r="Q176" s="201"/>
+      <c r="R176" s="201"/>
+      <c r="S176" s="201"/>
+      <c r="T176" s="201"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="86" t="s">
@@ -29932,12 +30024,12 @@
       <c r="N177" s="94">
         <v>0.35865669315879695</v>
       </c>
-      <c r="O177" s="199"/>
-      <c r="P177" s="199"/>
-      <c r="Q177" s="199"/>
-      <c r="R177" s="199"/>
-      <c r="S177" s="199"/>
-      <c r="T177" s="199"/>
+      <c r="O177" s="201"/>
+      <c r="P177" s="201"/>
+      <c r="Q177" s="201"/>
+      <c r="R177" s="201"/>
+      <c r="S177" s="201"/>
+      <c r="T177" s="201"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="86" t="s">
@@ -29982,12 +30074,12 @@
       <c r="N178" s="94">
         <v>0.36151134273451868</v>
       </c>
-      <c r="O178" s="199"/>
-      <c r="P178" s="199"/>
-      <c r="Q178" s="199"/>
-      <c r="R178" s="199"/>
-      <c r="S178" s="199"/>
-      <c r="T178" s="199"/>
+      <c r="O178" s="201"/>
+      <c r="P178" s="201"/>
+      <c r="Q178" s="201"/>
+      <c r="R178" s="201"/>
+      <c r="S178" s="201"/>
+      <c r="T178" s="201"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="86" t="s">
@@ -30032,12 +30124,12 @@
       <c r="N179" s="94">
         <v>0.35809304113802382</v>
       </c>
-      <c r="O179" s="199"/>
-      <c r="P179" s="199"/>
-      <c r="Q179" s="199"/>
-      <c r="R179" s="199"/>
-      <c r="S179" s="199"/>
-      <c r="T179" s="199"/>
+      <c r="O179" s="201"/>
+      <c r="P179" s="201"/>
+      <c r="Q179" s="201"/>
+      <c r="R179" s="201"/>
+      <c r="S179" s="201"/>
+      <c r="T179" s="201"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="86" t="s">
@@ -30082,12 +30174,12 @@
       <c r="N180" s="94">
         <v>0.36541698546289214</v>
       </c>
-      <c r="O180" s="199"/>
-      <c r="P180" s="199"/>
-      <c r="Q180" s="199"/>
-      <c r="R180" s="199"/>
-      <c r="S180" s="199"/>
-      <c r="T180" s="199"/>
+      <c r="O180" s="201"/>
+      <c r="P180" s="201"/>
+      <c r="Q180" s="201"/>
+      <c r="R180" s="201"/>
+      <c r="S180" s="201"/>
+      <c r="T180" s="201"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="86" t="s">
@@ -30132,12 +30224,12 @@
       <c r="N181" s="94">
         <v>0.35931097283351038</v>
       </c>
-      <c r="O181" s="199"/>
-      <c r="P181" s="199"/>
-      <c r="Q181" s="199"/>
-      <c r="R181" s="199"/>
-      <c r="S181" s="199"/>
-      <c r="T181" s="199"/>
+      <c r="O181" s="201"/>
+      <c r="P181" s="201"/>
+      <c r="Q181" s="201"/>
+      <c r="R181" s="201"/>
+      <c r="S181" s="201"/>
+      <c r="T181" s="201"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="91" t="s">
@@ -30195,12 +30287,12 @@
         <f t="shared" ref="N182" si="174">AVERAGE(N172:N181)</f>
         <v>0.35800588112342757</v>
       </c>
-      <c r="O182" s="199"/>
-      <c r="P182" s="199"/>
-      <c r="Q182" s="199"/>
-      <c r="R182" s="199"/>
-      <c r="S182" s="199"/>
-      <c r="T182" s="199"/>
+      <c r="O182" s="201"/>
+      <c r="P182" s="201"/>
+      <c r="Q182" s="201"/>
+      <c r="R182" s="201"/>
+      <c r="S182" s="201"/>
+      <c r="T182" s="201"/>
     </row>
     <row r="183" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="98"/>
@@ -30234,14 +30326,14 @@
       <c r="L184" s="93"/>
       <c r="M184" s="93"/>
       <c r="N184" s="94"/>
-      <c r="O184" s="199" t="s">
+      <c r="O184" s="201" t="s">
         <v>216</v>
       </c>
-      <c r="P184" s="199"/>
-      <c r="Q184" s="199"/>
-      <c r="R184" s="199"/>
-      <c r="S184" s="199"/>
-      <c r="T184" s="199"/>
+      <c r="P184" s="201"/>
+      <c r="Q184" s="201"/>
+      <c r="R184" s="201"/>
+      <c r="S184" s="201"/>
+      <c r="T184" s="201"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="86" t="s">
@@ -30260,12 +30352,12 @@
       <c r="L185" s="93"/>
       <c r="M185" s="93"/>
       <c r="N185" s="94"/>
-      <c r="O185" s="199"/>
-      <c r="P185" s="199"/>
-      <c r="Q185" s="199"/>
-      <c r="R185" s="199"/>
-      <c r="S185" s="199"/>
-      <c r="T185" s="199"/>
+      <c r="O185" s="201"/>
+      <c r="P185" s="201"/>
+      <c r="Q185" s="201"/>
+      <c r="R185" s="201"/>
+      <c r="S185" s="201"/>
+      <c r="T185" s="201"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="86" t="s">
@@ -30284,12 +30376,12 @@
       <c r="L186" s="93"/>
       <c r="M186" s="93"/>
       <c r="N186" s="94"/>
-      <c r="O186" s="199"/>
-      <c r="P186" s="199"/>
-      <c r="Q186" s="199"/>
-      <c r="R186" s="199"/>
-      <c r="S186" s="199"/>
-      <c r="T186" s="199"/>
+      <c r="O186" s="201"/>
+      <c r="P186" s="201"/>
+      <c r="Q186" s="201"/>
+      <c r="R186" s="201"/>
+      <c r="S186" s="201"/>
+      <c r="T186" s="201"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="86" t="s">
@@ -30308,12 +30400,12 @@
       <c r="L187" s="93"/>
       <c r="M187" s="93"/>
       <c r="N187" s="94"/>
-      <c r="O187" s="199"/>
-      <c r="P187" s="199"/>
-      <c r="Q187" s="199"/>
-      <c r="R187" s="199"/>
-      <c r="S187" s="199"/>
-      <c r="T187" s="199"/>
+      <c r="O187" s="201"/>
+      <c r="P187" s="201"/>
+      <c r="Q187" s="201"/>
+      <c r="R187" s="201"/>
+      <c r="S187" s="201"/>
+      <c r="T187" s="201"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="86" t="s">
@@ -30332,12 +30424,12 @@
       <c r="L188" s="93"/>
       <c r="M188" s="93"/>
       <c r="N188" s="94"/>
-      <c r="O188" s="199"/>
-      <c r="P188" s="199"/>
-      <c r="Q188" s="199"/>
-      <c r="R188" s="199"/>
-      <c r="S188" s="199"/>
-      <c r="T188" s="199"/>
+      <c r="O188" s="201"/>
+      <c r="P188" s="201"/>
+      <c r="Q188" s="201"/>
+      <c r="R188" s="201"/>
+      <c r="S188" s="201"/>
+      <c r="T188" s="201"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="86" t="s">
@@ -30356,12 +30448,12 @@
       <c r="L189" s="93"/>
       <c r="M189" s="93"/>
       <c r="N189" s="94"/>
-      <c r="O189" s="199"/>
-      <c r="P189" s="199"/>
-      <c r="Q189" s="199"/>
-      <c r="R189" s="199"/>
-      <c r="S189" s="199"/>
-      <c r="T189" s="199"/>
+      <c r="O189" s="201"/>
+      <c r="P189" s="201"/>
+      <c r="Q189" s="201"/>
+      <c r="R189" s="201"/>
+      <c r="S189" s="201"/>
+      <c r="T189" s="201"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="86" t="s">
@@ -30380,12 +30472,12 @@
       <c r="L190" s="93"/>
       <c r="M190" s="93"/>
       <c r="N190" s="94"/>
-      <c r="O190" s="199"/>
-      <c r="P190" s="199"/>
-      <c r="Q190" s="199"/>
-      <c r="R190" s="199"/>
-      <c r="S190" s="199"/>
-      <c r="T190" s="199"/>
+      <c r="O190" s="201"/>
+      <c r="P190" s="201"/>
+      <c r="Q190" s="201"/>
+      <c r="R190" s="201"/>
+      <c r="S190" s="201"/>
+      <c r="T190" s="201"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="86" t="s">
@@ -30404,12 +30496,12 @@
       <c r="L191" s="93"/>
       <c r="M191" s="93"/>
       <c r="N191" s="94"/>
-      <c r="O191" s="199"/>
-      <c r="P191" s="199"/>
-      <c r="Q191" s="199"/>
-      <c r="R191" s="199"/>
-      <c r="S191" s="199"/>
-      <c r="T191" s="199"/>
+      <c r="O191" s="201"/>
+      <c r="P191" s="201"/>
+      <c r="Q191" s="201"/>
+      <c r="R191" s="201"/>
+      <c r="S191" s="201"/>
+      <c r="T191" s="201"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="86" t="s">
@@ -30428,12 +30520,12 @@
       <c r="L192" s="93"/>
       <c r="M192" s="93"/>
       <c r="N192" s="94"/>
-      <c r="O192" s="199"/>
-      <c r="P192" s="199"/>
-      <c r="Q192" s="199"/>
-      <c r="R192" s="199"/>
-      <c r="S192" s="199"/>
-      <c r="T192" s="199"/>
+      <c r="O192" s="201"/>
+      <c r="P192" s="201"/>
+      <c r="Q192" s="201"/>
+      <c r="R192" s="201"/>
+      <c r="S192" s="201"/>
+      <c r="T192" s="201"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="86" t="s">
@@ -30452,12 +30544,12 @@
       <c r="L193" s="93"/>
       <c r="M193" s="93"/>
       <c r="N193" s="94"/>
-      <c r="O193" s="199"/>
-      <c r="P193" s="199"/>
-      <c r="Q193" s="199"/>
-      <c r="R193" s="199"/>
-      <c r="S193" s="199"/>
-      <c r="T193" s="199"/>
+      <c r="O193" s="201"/>
+      <c r="P193" s="201"/>
+      <c r="Q193" s="201"/>
+      <c r="R193" s="201"/>
+      <c r="S193" s="201"/>
+      <c r="T193" s="201"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="91" t="s">
@@ -30515,12 +30607,12 @@
         <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="199"/>
-      <c r="P194" s="199"/>
-      <c r="Q194" s="199"/>
-      <c r="R194" s="199"/>
-      <c r="S194" s="199"/>
-      <c r="T194" s="199"/>
+      <c r="O194" s="201"/>
+      <c r="P194" s="201"/>
+      <c r="Q194" s="201"/>
+      <c r="R194" s="201"/>
+      <c r="S194" s="201"/>
+      <c r="T194" s="201"/>
     </row>
     <row r="195" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="98"/>
@@ -30580,14 +30672,14 @@
       <c r="N196" s="94">
         <v>0.1693295619600948</v>
       </c>
-      <c r="O196" s="199" t="s">
+      <c r="O196" s="201" t="s">
         <v>227</v>
       </c>
-      <c r="P196" s="199"/>
-      <c r="Q196" s="199"/>
-      <c r="R196" s="199"/>
-      <c r="S196" s="199"/>
-      <c r="T196" s="199"/>
+      <c r="P196" s="201"/>
+      <c r="Q196" s="201"/>
+      <c r="R196" s="201"/>
+      <c r="S196" s="201"/>
+      <c r="T196" s="201"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="86" t="s">
@@ -30632,12 +30724,12 @@
       <c r="N197" s="94">
         <v>0.16636837600186755</v>
       </c>
-      <c r="O197" s="199"/>
-      <c r="P197" s="199"/>
-      <c r="Q197" s="199"/>
-      <c r="R197" s="199"/>
-      <c r="S197" s="199"/>
-      <c r="T197" s="199"/>
+      <c r="O197" s="201"/>
+      <c r="P197" s="201"/>
+      <c r="Q197" s="201"/>
+      <c r="R197" s="201"/>
+      <c r="S197" s="201"/>
+      <c r="T197" s="201"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="86" t="s">
@@ -30682,12 +30774,12 @@
       <c r="N198" s="94">
         <v>0.17503217503217502</v>
       </c>
-      <c r="O198" s="199"/>
-      <c r="P198" s="199"/>
-      <c r="Q198" s="199"/>
-      <c r="R198" s="199"/>
-      <c r="S198" s="199"/>
-      <c r="T198" s="199"/>
+      <c r="O198" s="201"/>
+      <c r="P198" s="201"/>
+      <c r="Q198" s="201"/>
+      <c r="R198" s="201"/>
+      <c r="S198" s="201"/>
+      <c r="T198" s="201"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="86" t="s">
@@ -30732,12 +30824,12 @@
       <c r="N199" s="94">
         <v>0.16419260040690226</v>
       </c>
-      <c r="O199" s="199"/>
-      <c r="P199" s="199"/>
-      <c r="Q199" s="199"/>
-      <c r="R199" s="199"/>
-      <c r="S199" s="199"/>
-      <c r="T199" s="199"/>
+      <c r="O199" s="201"/>
+      <c r="P199" s="201"/>
+      <c r="Q199" s="201"/>
+      <c r="R199" s="201"/>
+      <c r="S199" s="201"/>
+      <c r="T199" s="201"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="86" t="s">
@@ -30782,12 +30874,12 @@
       <c r="N200" s="94">
         <v>0.17125984251968504</v>
       </c>
-      <c r="O200" s="199"/>
-      <c r="P200" s="199"/>
-      <c r="Q200" s="199"/>
-      <c r="R200" s="199"/>
-      <c r="S200" s="199"/>
-      <c r="T200" s="199"/>
+      <c r="O200" s="201"/>
+      <c r="P200" s="201"/>
+      <c r="Q200" s="201"/>
+      <c r="R200" s="201"/>
+      <c r="S200" s="201"/>
+      <c r="T200" s="201"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="86" t="s">
@@ -30832,12 +30924,12 @@
       <c r="N201" s="94">
         <v>0.17140863632839756</v>
       </c>
-      <c r="O201" s="199"/>
-      <c r="P201" s="199"/>
-      <c r="Q201" s="199"/>
-      <c r="R201" s="199"/>
-      <c r="S201" s="199"/>
-      <c r="T201" s="199"/>
+      <c r="O201" s="201"/>
+      <c r="P201" s="201"/>
+      <c r="Q201" s="201"/>
+      <c r="R201" s="201"/>
+      <c r="S201" s="201"/>
+      <c r="T201" s="201"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="86" t="s">
@@ -30882,12 +30974,12 @@
       <c r="N202" s="94">
         <v>0.17007526799969588</v>
       </c>
-      <c r="O202" s="199"/>
-      <c r="P202" s="199"/>
-      <c r="Q202" s="199"/>
-      <c r="R202" s="199"/>
-      <c r="S202" s="199"/>
-      <c r="T202" s="199"/>
+      <c r="O202" s="201"/>
+      <c r="P202" s="201"/>
+      <c r="Q202" s="201"/>
+      <c r="R202" s="201"/>
+      <c r="S202" s="201"/>
+      <c r="T202" s="201"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="86" t="s">
@@ -30932,12 +31024,12 @@
       <c r="N203" s="94">
         <v>0.17179190751445086</v>
       </c>
-      <c r="O203" s="199"/>
-      <c r="P203" s="199"/>
-      <c r="Q203" s="199"/>
-      <c r="R203" s="199"/>
-      <c r="S203" s="199"/>
-      <c r="T203" s="199"/>
+      <c r="O203" s="201"/>
+      <c r="P203" s="201"/>
+      <c r="Q203" s="201"/>
+      <c r="R203" s="201"/>
+      <c r="S203" s="201"/>
+      <c r="T203" s="201"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="86" t="s">
@@ -30982,12 +31074,12 @@
       <c r="N204" s="94">
         <v>0.16879815100154083</v>
       </c>
-      <c r="O204" s="199"/>
-      <c r="P204" s="199"/>
-      <c r="Q204" s="199"/>
-      <c r="R204" s="199"/>
-      <c r="S204" s="199"/>
-      <c r="T204" s="199"/>
+      <c r="O204" s="201"/>
+      <c r="P204" s="201"/>
+      <c r="Q204" s="201"/>
+      <c r="R204" s="201"/>
+      <c r="S204" s="201"/>
+      <c r="T204" s="201"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="86" t="s">
@@ -31032,12 +31124,12 @@
       <c r="N205" s="94">
         <v>0.17239259088463607</v>
       </c>
-      <c r="O205" s="199"/>
-      <c r="P205" s="199"/>
-      <c r="Q205" s="199"/>
-      <c r="R205" s="199"/>
-      <c r="S205" s="199"/>
-      <c r="T205" s="199"/>
+      <c r="O205" s="201"/>
+      <c r="P205" s="201"/>
+      <c r="Q205" s="201"/>
+      <c r="R205" s="201"/>
+      <c r="S205" s="201"/>
+      <c r="T205" s="201"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
@@ -31095,12 +31187,12 @@
         <f t="shared" si="176"/>
         <v>0.17006491096494461</v>
       </c>
-      <c r="O206" s="199"/>
-      <c r="P206" s="199"/>
-      <c r="Q206" s="199"/>
-      <c r="R206" s="199"/>
-      <c r="S206" s="199"/>
-      <c r="T206" s="199"/>
+      <c r="O206" s="201"/>
+      <c r="P206" s="201"/>
+      <c r="Q206" s="201"/>
+      <c r="R206" s="201"/>
+      <c r="S206" s="201"/>
+      <c r="T206" s="201"/>
     </row>
     <row r="207" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="98"/>
@@ -31160,14 +31252,14 @@
       <c r="N208" s="94">
         <v>0.30560087003806419</v>
       </c>
-      <c r="O208" s="199" t="s">
+      <c r="O208" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="P208" s="199"/>
-      <c r="Q208" s="199"/>
-      <c r="R208" s="199"/>
-      <c r="S208" s="199"/>
-      <c r="T208" s="199"/>
+      <c r="P208" s="201"/>
+      <c r="Q208" s="201"/>
+      <c r="R208" s="201"/>
+      <c r="S208" s="201"/>
+      <c r="T208" s="201"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="86" t="s">
@@ -31212,12 +31304,12 @@
       <c r="N209" s="94">
         <v>0.28359578046170308</v>
       </c>
-      <c r="O209" s="199"/>
-      <c r="P209" s="199"/>
-      <c r="Q209" s="199"/>
-      <c r="R209" s="199"/>
-      <c r="S209" s="199"/>
-      <c r="T209" s="199"/>
+      <c r="O209" s="201"/>
+      <c r="P209" s="201"/>
+      <c r="Q209" s="201"/>
+      <c r="R209" s="201"/>
+      <c r="S209" s="201"/>
+      <c r="T209" s="201"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="86" t="s">
@@ -31262,12 +31354,12 @@
       <c r="N210" s="94">
         <v>0.29491213260686056</v>
       </c>
-      <c r="O210" s="199"/>
-      <c r="P210" s="199"/>
-      <c r="Q210" s="199"/>
-      <c r="R210" s="199"/>
-      <c r="S210" s="199"/>
-      <c r="T210" s="199"/>
+      <c r="O210" s="201"/>
+      <c r="P210" s="201"/>
+      <c r="Q210" s="201"/>
+      <c r="R210" s="201"/>
+      <c r="S210" s="201"/>
+      <c r="T210" s="201"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="86" t="s">
@@ -31312,12 +31404,12 @@
       <c r="N211" s="94">
         <v>0.2988647772028728</v>
       </c>
-      <c r="O211" s="199"/>
-      <c r="P211" s="199"/>
-      <c r="Q211" s="199"/>
-      <c r="R211" s="199"/>
-      <c r="S211" s="199"/>
-      <c r="T211" s="199"/>
+      <c r="O211" s="201"/>
+      <c r="P211" s="201"/>
+      <c r="Q211" s="201"/>
+      <c r="R211" s="201"/>
+      <c r="S211" s="201"/>
+      <c r="T211" s="201"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="86" t="s">
@@ -31362,12 +31454,12 @@
       <c r="N212" s="94">
         <v>0.29959044896066767</v>
       </c>
-      <c r="O212" s="199"/>
-      <c r="P212" s="199"/>
-      <c r="Q212" s="199"/>
-      <c r="R212" s="199"/>
-      <c r="S212" s="199"/>
-      <c r="T212" s="199"/>
+      <c r="O212" s="201"/>
+      <c r="P212" s="201"/>
+      <c r="Q212" s="201"/>
+      <c r="R212" s="201"/>
+      <c r="S212" s="201"/>
+      <c r="T212" s="201"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="86" t="s">
@@ -31412,12 +31504,12 @@
       <c r="N213" s="94">
         <v>0.29011357572985746</v>
       </c>
-      <c r="O213" s="199"/>
-      <c r="P213" s="199"/>
-      <c r="Q213" s="199"/>
-      <c r="R213" s="199"/>
-      <c r="S213" s="199"/>
-      <c r="T213" s="199"/>
+      <c r="O213" s="201"/>
+      <c r="P213" s="201"/>
+      <c r="Q213" s="201"/>
+      <c r="R213" s="201"/>
+      <c r="S213" s="201"/>
+      <c r="T213" s="201"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="86" t="s">
@@ -31462,12 +31554,12 @@
       <c r="N214" s="94">
         <v>0.30063195907312668</v>
       </c>
-      <c r="O214" s="199"/>
-      <c r="P214" s="199"/>
-      <c r="Q214" s="199"/>
-      <c r="R214" s="199"/>
-      <c r="S214" s="199"/>
-      <c r="T214" s="199"/>
+      <c r="O214" s="201"/>
+      <c r="P214" s="201"/>
+      <c r="Q214" s="201"/>
+      <c r="R214" s="201"/>
+      <c r="S214" s="201"/>
+      <c r="T214" s="201"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="86" t="s">
@@ -31512,12 +31604,12 @@
       <c r="N215" s="94">
         <v>0.2763700198442986</v>
       </c>
-      <c r="O215" s="199"/>
-      <c r="P215" s="199"/>
-      <c r="Q215" s="199"/>
-      <c r="R215" s="199"/>
-      <c r="S215" s="199"/>
-      <c r="T215" s="199"/>
+      <c r="O215" s="201"/>
+      <c r="P215" s="201"/>
+      <c r="Q215" s="201"/>
+      <c r="R215" s="201"/>
+      <c r="S215" s="201"/>
+      <c r="T215" s="201"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="86" t="s">
@@ -31562,12 +31654,12 @@
       <c r="N216" s="94">
         <v>0.30558987029030266</v>
       </c>
-      <c r="O216" s="199"/>
-      <c r="P216" s="199"/>
-      <c r="Q216" s="199"/>
-      <c r="R216" s="199"/>
-      <c r="S216" s="199"/>
-      <c r="T216" s="199"/>
+      <c r="O216" s="201"/>
+      <c r="P216" s="201"/>
+      <c r="Q216" s="201"/>
+      <c r="R216" s="201"/>
+      <c r="S216" s="201"/>
+      <c r="T216" s="201"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
@@ -31612,12 +31704,12 @@
       <c r="N217" s="94">
         <v>0.29750362623101001</v>
       </c>
-      <c r="O217" s="199"/>
-      <c r="P217" s="199"/>
-      <c r="Q217" s="199"/>
-      <c r="R217" s="199"/>
-      <c r="S217" s="199"/>
-      <c r="T217" s="199"/>
+      <c r="O217" s="201"/>
+      <c r="P217" s="201"/>
+      <c r="Q217" s="201"/>
+      <c r="R217" s="201"/>
+      <c r="S217" s="201"/>
+      <c r="T217" s="201"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="91" t="s">
@@ -31675,12 +31767,12 @@
         <f t="shared" si="177"/>
         <v>0.29527730604387636</v>
       </c>
-      <c r="O218" s="199"/>
-      <c r="P218" s="199"/>
-      <c r="Q218" s="199"/>
-      <c r="R218" s="199"/>
-      <c r="S218" s="199"/>
-      <c r="T218" s="199"/>
+      <c r="O218" s="201"/>
+      <c r="P218" s="201"/>
+      <c r="Q218" s="201"/>
+      <c r="R218" s="201"/>
+      <c r="S218" s="201"/>
+      <c r="T218" s="201"/>
     </row>
     <row r="219" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="98"/>
@@ -31740,14 +31832,14 @@
       <c r="N220" s="94">
         <v>0.3031377688690155</v>
       </c>
-      <c r="O220" s="199" t="s">
+      <c r="O220" s="201" t="s">
         <v>217</v>
       </c>
-      <c r="P220" s="199"/>
-      <c r="Q220" s="199"/>
-      <c r="R220" s="199"/>
-      <c r="S220" s="199"/>
-      <c r="T220" s="199"/>
+      <c r="P220" s="201"/>
+      <c r="Q220" s="201"/>
+      <c r="R220" s="201"/>
+      <c r="S220" s="201"/>
+      <c r="T220" s="201"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
@@ -31792,12 +31884,12 @@
       <c r="N221" s="94">
         <v>0.3118931096092597</v>
       </c>
-      <c r="O221" s="199"/>
-      <c r="P221" s="199"/>
-      <c r="Q221" s="199"/>
-      <c r="R221" s="199"/>
-      <c r="S221" s="199"/>
-      <c r="T221" s="199"/>
+      <c r="O221" s="201"/>
+      <c r="P221" s="201"/>
+      <c r="Q221" s="201"/>
+      <c r="R221" s="201"/>
+      <c r="S221" s="201"/>
+      <c r="T221" s="201"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
@@ -31842,12 +31934,12 @@
       <c r="N222" s="94">
         <v>0.2965249199817101</v>
       </c>
-      <c r="O222" s="199"/>
-      <c r="P222" s="199"/>
-      <c r="Q222" s="199"/>
-      <c r="R222" s="199"/>
-      <c r="S222" s="199"/>
-      <c r="T222" s="199"/>
+      <c r="O222" s="201"/>
+      <c r="P222" s="201"/>
+      <c r="Q222" s="201"/>
+      <c r="R222" s="201"/>
+      <c r="S222" s="201"/>
+      <c r="T222" s="201"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
@@ -31892,12 +31984,12 @@
       <c r="N223" s="94">
         <v>0.30286452397234254</v>
       </c>
-      <c r="O223" s="199"/>
-      <c r="P223" s="199"/>
-      <c r="Q223" s="199"/>
-      <c r="R223" s="199"/>
-      <c r="S223" s="199"/>
-      <c r="T223" s="199"/>
+      <c r="O223" s="201"/>
+      <c r="P223" s="201"/>
+      <c r="Q223" s="201"/>
+      <c r="R223" s="201"/>
+      <c r="S223" s="201"/>
+      <c r="T223" s="201"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
@@ -31942,12 +32034,12 @@
       <c r="N224" s="94">
         <v>0.31905748714406323</v>
       </c>
-      <c r="O224" s="199"/>
-      <c r="P224" s="199"/>
-      <c r="Q224" s="199"/>
-      <c r="R224" s="199"/>
-      <c r="S224" s="199"/>
-      <c r="T224" s="199"/>
+      <c r="O224" s="201"/>
+      <c r="P224" s="201"/>
+      <c r="Q224" s="201"/>
+      <c r="R224" s="201"/>
+      <c r="S224" s="201"/>
+      <c r="T224" s="201"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
@@ -31992,12 +32084,12 @@
       <c r="N225" s="94">
         <v>0.30671726755218215</v>
       </c>
-      <c r="O225" s="199"/>
-      <c r="P225" s="199"/>
-      <c r="Q225" s="199"/>
-      <c r="R225" s="199"/>
-      <c r="S225" s="199"/>
-      <c r="T225" s="199"/>
+      <c r="O225" s="201"/>
+      <c r="P225" s="201"/>
+      <c r="Q225" s="201"/>
+      <c r="R225" s="201"/>
+      <c r="S225" s="201"/>
+      <c r="T225" s="201"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="86" t="s">
@@ -32042,12 +32134,12 @@
       <c r="N226" s="94">
         <v>0.30987884436160296</v>
       </c>
-      <c r="O226" s="199"/>
-      <c r="P226" s="199"/>
-      <c r="Q226" s="199"/>
-      <c r="R226" s="199"/>
-      <c r="S226" s="199"/>
-      <c r="T226" s="199"/>
+      <c r="O226" s="201"/>
+      <c r="P226" s="201"/>
+      <c r="Q226" s="201"/>
+      <c r="R226" s="201"/>
+      <c r="S226" s="201"/>
+      <c r="T226" s="201"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="86" t="s">
@@ -32092,12 +32184,12 @@
       <c r="N227" s="94">
         <v>0.28989197530864197</v>
       </c>
-      <c r="O227" s="199"/>
-      <c r="P227" s="199"/>
-      <c r="Q227" s="199"/>
-      <c r="R227" s="199"/>
-      <c r="S227" s="199"/>
-      <c r="T227" s="199"/>
+      <c r="O227" s="201"/>
+      <c r="P227" s="201"/>
+      <c r="Q227" s="201"/>
+      <c r="R227" s="201"/>
+      <c r="S227" s="201"/>
+      <c r="T227" s="201"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="86" t="s">
@@ -32142,12 +32234,12 @@
       <c r="N228" s="94">
         <v>0.28455598455598458</v>
       </c>
-      <c r="O228" s="199"/>
-      <c r="P228" s="199"/>
-      <c r="Q228" s="199"/>
-      <c r="R228" s="199"/>
-      <c r="S228" s="199"/>
-      <c r="T228" s="199"/>
+      <c r="O228" s="201"/>
+      <c r="P228" s="201"/>
+      <c r="Q228" s="201"/>
+      <c r="R228" s="201"/>
+      <c r="S228" s="201"/>
+      <c r="T228" s="201"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="86" t="s">
@@ -32166,12 +32258,12 @@
       <c r="L229" s="93"/>
       <c r="M229" s="93"/>
       <c r="N229" s="94"/>
-      <c r="O229" s="199"/>
-      <c r="P229" s="199"/>
-      <c r="Q229" s="199"/>
-      <c r="R229" s="199"/>
-      <c r="S229" s="199"/>
-      <c r="T229" s="199"/>
+      <c r="O229" s="201"/>
+      <c r="P229" s="201"/>
+      <c r="Q229" s="201"/>
+      <c r="R229" s="201"/>
+      <c r="S229" s="201"/>
+      <c r="T229" s="201"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
@@ -32229,15 +32321,21 @@
         <f t="shared" si="178"/>
         <v>0.30272465348386696</v>
       </c>
-      <c r="O230" s="199"/>
-      <c r="P230" s="199"/>
-      <c r="Q230" s="199"/>
-      <c r="R230" s="199"/>
-      <c r="S230" s="199"/>
-      <c r="T230" s="199"/>
+      <c r="O230" s="201"/>
+      <c r="P230" s="201"/>
+      <c r="Q230" s="201"/>
+      <c r="R230" s="201"/>
+      <c r="S230" s="201"/>
+      <c r="T230" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O220:T230"/>
+    <mergeCell ref="O160:T170"/>
+    <mergeCell ref="O172:T182"/>
     <mergeCell ref="O4:T14"/>
     <mergeCell ref="O100:T110"/>
     <mergeCell ref="O124:T134"/>
@@ -32251,12 +32349,6 @@
     <mergeCell ref="O64:T74"/>
     <mergeCell ref="O76:T86"/>
     <mergeCell ref="O88:T98"/>
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O220:T230"/>
-    <mergeCell ref="O160:T170"/>
-    <mergeCell ref="O172:T182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34060,16 +34152,16 @@
   <sheetData>
     <row r="1" spans="2:51" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" s="138" customFormat="1" ht="112.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="207"/>
+      <c r="E2" s="206"/>
       <c r="F2" s="202" t="s">
         <v>198</v>
       </c>
@@ -34082,10 +34174,10 @@
         <v>208</v>
       </c>
       <c r="K2" s="202"/>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="206" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="207"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="202" t="s">
         <v>210</v>
       </c>
@@ -34098,26 +34190,26 @@
         <v>199</v>
       </c>
       <c r="S2" s="202"/>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="207"/>
+      <c r="U2" s="206"/>
       <c r="V2" s="202" t="s">
         <v>201</v>
       </c>
       <c r="W2" s="202"/>
-      <c r="X2" s="207" t="s">
+      <c r="X2" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="207"/>
+      <c r="Y2" s="206"/>
       <c r="Z2" s="202" t="s">
         <v>203</v>
       </c>
       <c r="AA2" s="202"/>
-      <c r="AB2" s="207" t="s">
+      <c r="AB2" s="206" t="s">
         <v>204</v>
       </c>
-      <c r="AC2" s="207"/>
+      <c r="AC2" s="206"/>
       <c r="AD2" s="202" t="s">
         <v>205</v>
       </c>
@@ -34161,11 +34253,11 @@
       <c r="AX2" s="202" t="s">
         <v>224</v>
       </c>
-      <c r="AY2" s="204"/>
+      <c r="AY2" s="209"/>
     </row>
     <row r="3" spans="2:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="206"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="205"/>
       <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
@@ -36445,12 +36537,15 @@
     <row r="17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="R2:S2"/>
@@ -36462,15 +36557,12 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36544,16 +36636,16 @@
     </row>
     <row r="2" spans="1:27" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="138"/>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="207"/>
+      <c r="E2" s="206"/>
       <c r="F2" s="202" t="s">
         <v>235</v>
       </c>
@@ -36566,10 +36658,10 @@
         <v>237</v>
       </c>
       <c r="K2" s="202"/>
-      <c r="L2" s="207" t="s">
+      <c r="L2" s="206" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="207"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="202" t="s">
         <v>239</v>
       </c>
@@ -36582,27 +36674,27 @@
         <v>241</v>
       </c>
       <c r="S2" s="202"/>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>242</v>
       </c>
-      <c r="U2" s="207"/>
+      <c r="U2" s="206"/>
       <c r="V2" s="202" t="s">
         <v>243</v>
       </c>
       <c r="W2" s="202"/>
-      <c r="X2" s="207" t="s">
+      <c r="X2" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="207"/>
+      <c r="Y2" s="206"/>
       <c r="Z2" s="202" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="204"/>
+      <c r="AA2" s="209"/>
     </row>
     <row r="3" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="88"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="209"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="205"/>
       <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
@@ -37549,6 +37641,12 @@
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="L2:M2"/>
@@ -37557,12 +37655,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43641,12 +43733,12 @@
         <f t="shared" ref="N136:N145" si="23">K136/L136</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O136" s="199"/>
-      <c r="P136" s="199"/>
-      <c r="Q136" s="199"/>
-      <c r="R136" s="199"/>
-      <c r="S136" s="199"/>
-      <c r="T136" s="199"/>
+      <c r="O136" s="201"/>
+      <c r="P136" s="201"/>
+      <c r="Q136" s="201"/>
+      <c r="R136" s="201"/>
+      <c r="S136" s="201"/>
+      <c r="T136" s="201"/>
     </row>
     <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="86" t="s">
@@ -43668,12 +43760,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O137" s="199"/>
-      <c r="P137" s="199"/>
-      <c r="Q137" s="199"/>
-      <c r="R137" s="199"/>
-      <c r="S137" s="199"/>
-      <c r="T137" s="199"/>
+      <c r="O137" s="201"/>
+      <c r="P137" s="201"/>
+      <c r="Q137" s="201"/>
+      <c r="R137" s="201"/>
+      <c r="S137" s="201"/>
+      <c r="T137" s="201"/>
     </row>
     <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="86" t="s">
@@ -43695,12 +43787,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O138" s="199"/>
-      <c r="P138" s="199"/>
-      <c r="Q138" s="199"/>
-      <c r="R138" s="199"/>
-      <c r="S138" s="199"/>
-      <c r="T138" s="199"/>
+      <c r="O138" s="201"/>
+      <c r="P138" s="201"/>
+      <c r="Q138" s="201"/>
+      <c r="R138" s="201"/>
+      <c r="S138" s="201"/>
+      <c r="T138" s="201"/>
     </row>
     <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="86" t="s">
@@ -43722,12 +43814,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O139" s="199"/>
-      <c r="P139" s="199"/>
-      <c r="Q139" s="199"/>
-      <c r="R139" s="199"/>
-      <c r="S139" s="199"/>
-      <c r="T139" s="199"/>
+      <c r="O139" s="201"/>
+      <c r="P139" s="201"/>
+      <c r="Q139" s="201"/>
+      <c r="R139" s="201"/>
+      <c r="S139" s="201"/>
+      <c r="T139" s="201"/>
     </row>
     <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="86" t="s">
@@ -43749,12 +43841,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O140" s="199"/>
-      <c r="P140" s="199"/>
-      <c r="Q140" s="199"/>
-      <c r="R140" s="199"/>
-      <c r="S140" s="199"/>
-      <c r="T140" s="199"/>
+      <c r="O140" s="201"/>
+      <c r="P140" s="201"/>
+      <c r="Q140" s="201"/>
+      <c r="R140" s="201"/>
+      <c r="S140" s="201"/>
+      <c r="T140" s="201"/>
     </row>
     <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="86" t="s">
@@ -43776,12 +43868,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O141" s="199"/>
-      <c r="P141" s="199"/>
-      <c r="Q141" s="199"/>
-      <c r="R141" s="199"/>
-      <c r="S141" s="199"/>
-      <c r="T141" s="199"/>
+      <c r="O141" s="201"/>
+      <c r="P141" s="201"/>
+      <c r="Q141" s="201"/>
+      <c r="R141" s="201"/>
+      <c r="S141" s="201"/>
+      <c r="T141" s="201"/>
     </row>
     <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="86" t="s">
@@ -43803,12 +43895,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O142" s="199"/>
-      <c r="P142" s="199"/>
-      <c r="Q142" s="199"/>
-      <c r="R142" s="199"/>
-      <c r="S142" s="199"/>
-      <c r="T142" s="199"/>
+      <c r="O142" s="201"/>
+      <c r="P142" s="201"/>
+      <c r="Q142" s="201"/>
+      <c r="R142" s="201"/>
+      <c r="S142" s="201"/>
+      <c r="T142" s="201"/>
     </row>
     <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="86" t="s">
@@ -43830,12 +43922,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O143" s="199"/>
-      <c r="P143" s="199"/>
-      <c r="Q143" s="199"/>
-      <c r="R143" s="199"/>
-      <c r="S143" s="199"/>
-      <c r="T143" s="199"/>
+      <c r="O143" s="201"/>
+      <c r="P143" s="201"/>
+      <c r="Q143" s="201"/>
+      <c r="R143" s="201"/>
+      <c r="S143" s="201"/>
+      <c r="T143" s="201"/>
     </row>
     <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="86" t="s">
@@ -43857,12 +43949,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O144" s="199"/>
-      <c r="P144" s="199"/>
-      <c r="Q144" s="199"/>
-      <c r="R144" s="199"/>
-      <c r="S144" s="199"/>
-      <c r="T144" s="199"/>
+      <c r="O144" s="201"/>
+      <c r="P144" s="201"/>
+      <c r="Q144" s="201"/>
+      <c r="R144" s="201"/>
+      <c r="S144" s="201"/>
+      <c r="T144" s="201"/>
     </row>
     <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="86" t="s">
@@ -43884,12 +43976,12 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O145" s="199"/>
-      <c r="P145" s="199"/>
-      <c r="Q145" s="199"/>
-      <c r="R145" s="199"/>
-      <c r="S145" s="199"/>
-      <c r="T145" s="199"/>
+      <c r="O145" s="201"/>
+      <c r="P145" s="201"/>
+      <c r="Q145" s="201"/>
+      <c r="R145" s="201"/>
+      <c r="S145" s="201"/>
+      <c r="T145" s="201"/>
     </row>
     <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="91" t="s">
@@ -43947,12 +44039,12 @@
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-      <c r="Q146" s="199"/>
-      <c r="R146" s="199"/>
-      <c r="S146" s="199"/>
-      <c r="T146" s="199"/>
+      <c r="O146" s="201"/>
+      <c r="P146" s="201"/>
+      <c r="Q146" s="201"/>
+      <c r="R146" s="201"/>
+      <c r="S146" s="201"/>
+      <c r="T146" s="201"/>
     </row>
     <row r="147" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="98"/>
@@ -43989,12 +44081,12 @@
         <f t="shared" ref="N148:N157" si="25">K148/L148</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O148" s="199"/>
-      <c r="P148" s="199"/>
-      <c r="Q148" s="199"/>
-      <c r="R148" s="199"/>
-      <c r="S148" s="199"/>
-      <c r="T148" s="199"/>
+      <c r="O148" s="201"/>
+      <c r="P148" s="201"/>
+      <c r="Q148" s="201"/>
+      <c r="R148" s="201"/>
+      <c r="S148" s="201"/>
+      <c r="T148" s="201"/>
     </row>
     <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="86" t="s">
@@ -44016,12 +44108,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O149" s="199"/>
-      <c r="P149" s="199"/>
-      <c r="Q149" s="199"/>
-      <c r="R149" s="199"/>
-      <c r="S149" s="199"/>
-      <c r="T149" s="199"/>
+      <c r="O149" s="201"/>
+      <c r="P149" s="201"/>
+      <c r="Q149" s="201"/>
+      <c r="R149" s="201"/>
+      <c r="S149" s="201"/>
+      <c r="T149" s="201"/>
     </row>
     <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="86" t="s">
@@ -44043,12 +44135,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O150" s="199"/>
-      <c r="P150" s="199"/>
-      <c r="Q150" s="199"/>
-      <c r="R150" s="199"/>
-      <c r="S150" s="199"/>
-      <c r="T150" s="199"/>
+      <c r="O150" s="201"/>
+      <c r="P150" s="201"/>
+      <c r="Q150" s="201"/>
+      <c r="R150" s="201"/>
+      <c r="S150" s="201"/>
+      <c r="T150" s="201"/>
     </row>
     <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="86" t="s">
@@ -44070,12 +44162,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O151" s="199"/>
-      <c r="P151" s="199"/>
-      <c r="Q151" s="199"/>
-      <c r="R151" s="199"/>
-      <c r="S151" s="199"/>
-      <c r="T151" s="199"/>
+      <c r="O151" s="201"/>
+      <c r="P151" s="201"/>
+      <c r="Q151" s="201"/>
+      <c r="R151" s="201"/>
+      <c r="S151" s="201"/>
+      <c r="T151" s="201"/>
     </row>
     <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="86" t="s">
@@ -44097,12 +44189,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O152" s="199"/>
-      <c r="P152" s="199"/>
-      <c r="Q152" s="199"/>
-      <c r="R152" s="199"/>
-      <c r="S152" s="199"/>
-      <c r="T152" s="199"/>
+      <c r="O152" s="201"/>
+      <c r="P152" s="201"/>
+      <c r="Q152" s="201"/>
+      <c r="R152" s="201"/>
+      <c r="S152" s="201"/>
+      <c r="T152" s="201"/>
     </row>
     <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="86" t="s">
@@ -44124,12 +44216,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O153" s="199"/>
-      <c r="P153" s="199"/>
-      <c r="Q153" s="199"/>
-      <c r="R153" s="199"/>
-      <c r="S153" s="199"/>
-      <c r="T153" s="199"/>
+      <c r="O153" s="201"/>
+      <c r="P153" s="201"/>
+      <c r="Q153" s="201"/>
+      <c r="R153" s="201"/>
+      <c r="S153" s="201"/>
+      <c r="T153" s="201"/>
     </row>
     <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="86" t="s">
@@ -44151,12 +44243,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O154" s="199"/>
-      <c r="P154" s="199"/>
-      <c r="Q154" s="199"/>
-      <c r="R154" s="199"/>
-      <c r="S154" s="199"/>
-      <c r="T154" s="199"/>
+      <c r="O154" s="201"/>
+      <c r="P154" s="201"/>
+      <c r="Q154" s="201"/>
+      <c r="R154" s="201"/>
+      <c r="S154" s="201"/>
+      <c r="T154" s="201"/>
     </row>
     <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="86" t="s">
@@ -44178,12 +44270,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O155" s="199"/>
-      <c r="P155" s="199"/>
-      <c r="Q155" s="199"/>
-      <c r="R155" s="199"/>
-      <c r="S155" s="199"/>
-      <c r="T155" s="199"/>
+      <c r="O155" s="201"/>
+      <c r="P155" s="201"/>
+      <c r="Q155" s="201"/>
+      <c r="R155" s="201"/>
+      <c r="S155" s="201"/>
+      <c r="T155" s="201"/>
     </row>
     <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="86" t="s">
@@ -44205,12 +44297,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O156" s="199"/>
-      <c r="P156" s="199"/>
-      <c r="Q156" s="199"/>
-      <c r="R156" s="199"/>
-      <c r="S156" s="199"/>
-      <c r="T156" s="199"/>
+      <c r="O156" s="201"/>
+      <c r="P156" s="201"/>
+      <c r="Q156" s="201"/>
+      <c r="R156" s="201"/>
+      <c r="S156" s="201"/>
+      <c r="T156" s="201"/>
     </row>
     <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="86" t="s">
@@ -44232,12 +44324,12 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O157" s="199"/>
-      <c r="P157" s="199"/>
-      <c r="Q157" s="199"/>
-      <c r="R157" s="199"/>
-      <c r="S157" s="199"/>
-      <c r="T157" s="199"/>
+      <c r="O157" s="201"/>
+      <c r="P157" s="201"/>
+      <c r="Q157" s="201"/>
+      <c r="R157" s="201"/>
+      <c r="S157" s="201"/>
+      <c r="T157" s="201"/>
     </row>
     <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="91" t="s">
@@ -44295,12 +44387,12 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O158" s="199"/>
-      <c r="P158" s="199"/>
-      <c r="Q158" s="199"/>
-      <c r="R158" s="199"/>
-      <c r="S158" s="199"/>
-      <c r="T158" s="199"/>
+      <c r="O158" s="201"/>
+      <c r="P158" s="201"/>
+      <c r="Q158" s="201"/>
+      <c r="R158" s="201"/>
+      <c r="S158" s="201"/>
+      <c r="T158" s="201"/>
     </row>
     <row r="159" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="98"/>
@@ -44337,12 +44429,12 @@
         <f t="shared" ref="N160:N169" si="27">K160/L160</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O160" s="199"/>
-      <c r="P160" s="199"/>
-      <c r="Q160" s="199"/>
-      <c r="R160" s="199"/>
-      <c r="S160" s="199"/>
-      <c r="T160" s="199"/>
+      <c r="O160" s="201"/>
+      <c r="P160" s="201"/>
+      <c r="Q160" s="201"/>
+      <c r="R160" s="201"/>
+      <c r="S160" s="201"/>
+      <c r="T160" s="201"/>
     </row>
     <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="86" t="s">
@@ -44364,12 +44456,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O161" s="199"/>
-      <c r="P161" s="199"/>
-      <c r="Q161" s="199"/>
-      <c r="R161" s="199"/>
-      <c r="S161" s="199"/>
-      <c r="T161" s="199"/>
+      <c r="O161" s="201"/>
+      <c r="P161" s="201"/>
+      <c r="Q161" s="201"/>
+      <c r="R161" s="201"/>
+      <c r="S161" s="201"/>
+      <c r="T161" s="201"/>
     </row>
     <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="86" t="s">
@@ -44391,12 +44483,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O162" s="199"/>
-      <c r="P162" s="199"/>
-      <c r="Q162" s="199"/>
-      <c r="R162" s="199"/>
-      <c r="S162" s="199"/>
-      <c r="T162" s="199"/>
+      <c r="O162" s="201"/>
+      <c r="P162" s="201"/>
+      <c r="Q162" s="201"/>
+      <c r="R162" s="201"/>
+      <c r="S162" s="201"/>
+      <c r="T162" s="201"/>
     </row>
     <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
@@ -44418,12 +44510,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O163" s="199"/>
-      <c r="P163" s="199"/>
-      <c r="Q163" s="199"/>
-      <c r="R163" s="199"/>
-      <c r="S163" s="199"/>
-      <c r="T163" s="199"/>
+      <c r="O163" s="201"/>
+      <c r="P163" s="201"/>
+      <c r="Q163" s="201"/>
+      <c r="R163" s="201"/>
+      <c r="S163" s="201"/>
+      <c r="T163" s="201"/>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
@@ -44445,12 +44537,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O164" s="199"/>
-      <c r="P164" s="199"/>
-      <c r="Q164" s="199"/>
-      <c r="R164" s="199"/>
-      <c r="S164" s="199"/>
-      <c r="T164" s="199"/>
+      <c r="O164" s="201"/>
+      <c r="P164" s="201"/>
+      <c r="Q164" s="201"/>
+      <c r="R164" s="201"/>
+      <c r="S164" s="201"/>
+      <c r="T164" s="201"/>
     </row>
     <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
@@ -44472,12 +44564,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O165" s="199"/>
-      <c r="P165" s="199"/>
-      <c r="Q165" s="199"/>
-      <c r="R165" s="199"/>
-      <c r="S165" s="199"/>
-      <c r="T165" s="199"/>
+      <c r="O165" s="201"/>
+      <c r="P165" s="201"/>
+      <c r="Q165" s="201"/>
+      <c r="R165" s="201"/>
+      <c r="S165" s="201"/>
+      <c r="T165" s="201"/>
     </row>
     <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
@@ -44499,12 +44591,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O166" s="199"/>
-      <c r="P166" s="199"/>
-      <c r="Q166" s="199"/>
-      <c r="R166" s="199"/>
-      <c r="S166" s="199"/>
-      <c r="T166" s="199"/>
+      <c r="O166" s="201"/>
+      <c r="P166" s="201"/>
+      <c r="Q166" s="201"/>
+      <c r="R166" s="201"/>
+      <c r="S166" s="201"/>
+      <c r="T166" s="201"/>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="86" t="s">
@@ -44526,12 +44618,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O167" s="199"/>
-      <c r="P167" s="199"/>
-      <c r="Q167" s="199"/>
-      <c r="R167" s="199"/>
-      <c r="S167" s="199"/>
-      <c r="T167" s="199"/>
+      <c r="O167" s="201"/>
+      <c r="P167" s="201"/>
+      <c r="Q167" s="201"/>
+      <c r="R167" s="201"/>
+      <c r="S167" s="201"/>
+      <c r="T167" s="201"/>
     </row>
     <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
@@ -44553,12 +44645,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O168" s="199"/>
-      <c r="P168" s="199"/>
-      <c r="Q168" s="199"/>
-      <c r="R168" s="199"/>
-      <c r="S168" s="199"/>
-      <c r="T168" s="199"/>
+      <c r="O168" s="201"/>
+      <c r="P168" s="201"/>
+      <c r="Q168" s="201"/>
+      <c r="R168" s="201"/>
+      <c r="S168" s="201"/>
+      <c r="T168" s="201"/>
     </row>
     <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="86" t="s">
@@ -44580,12 +44672,12 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O169" s="199"/>
-      <c r="P169" s="199"/>
-      <c r="Q169" s="199"/>
-      <c r="R169" s="199"/>
-      <c r="S169" s="199"/>
-      <c r="T169" s="199"/>
+      <c r="O169" s="201"/>
+      <c r="P169" s="201"/>
+      <c r="Q169" s="201"/>
+      <c r="R169" s="201"/>
+      <c r="S169" s="201"/>
+      <c r="T169" s="201"/>
     </row>
     <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="91" t="s">
@@ -44643,12 +44735,12 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O170" s="199"/>
-      <c r="P170" s="199"/>
-      <c r="Q170" s="199"/>
-      <c r="R170" s="199"/>
-      <c r="S170" s="199"/>
-      <c r="T170" s="199"/>
+      <c r="O170" s="201"/>
+      <c r="P170" s="201"/>
+      <c r="Q170" s="201"/>
+      <c r="R170" s="201"/>
+      <c r="S170" s="201"/>
+      <c r="T170" s="201"/>
     </row>
     <row r="171" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="98"/>
@@ -44685,12 +44777,12 @@
         <f t="shared" ref="N172:N181" si="29">K172/L172</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O172" s="199"/>
-      <c r="P172" s="199"/>
-      <c r="Q172" s="199"/>
-      <c r="R172" s="199"/>
-      <c r="S172" s="199"/>
-      <c r="T172" s="199"/>
+      <c r="O172" s="201"/>
+      <c r="P172" s="201"/>
+      <c r="Q172" s="201"/>
+      <c r="R172" s="201"/>
+      <c r="S172" s="201"/>
+      <c r="T172" s="201"/>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="86" t="s">
@@ -44712,12 +44804,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O173" s="199"/>
-      <c r="P173" s="199"/>
-      <c r="Q173" s="199"/>
-      <c r="R173" s="199"/>
-      <c r="S173" s="199"/>
-      <c r="T173" s="199"/>
+      <c r="O173" s="201"/>
+      <c r="P173" s="201"/>
+      <c r="Q173" s="201"/>
+      <c r="R173" s="201"/>
+      <c r="S173" s="201"/>
+      <c r="T173" s="201"/>
     </row>
     <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="86" t="s">
@@ -44739,12 +44831,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O174" s="199"/>
-      <c r="P174" s="199"/>
-      <c r="Q174" s="199"/>
-      <c r="R174" s="199"/>
-      <c r="S174" s="199"/>
-      <c r="T174" s="199"/>
+      <c r="O174" s="201"/>
+      <c r="P174" s="201"/>
+      <c r="Q174" s="201"/>
+      <c r="R174" s="201"/>
+      <c r="S174" s="201"/>
+      <c r="T174" s="201"/>
     </row>
     <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="86" t="s">
@@ -44766,12 +44858,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O175" s="199"/>
-      <c r="P175" s="199"/>
-      <c r="Q175" s="199"/>
-      <c r="R175" s="199"/>
-      <c r="S175" s="199"/>
-      <c r="T175" s="199"/>
+      <c r="O175" s="201"/>
+      <c r="P175" s="201"/>
+      <c r="Q175" s="201"/>
+      <c r="R175" s="201"/>
+      <c r="S175" s="201"/>
+      <c r="T175" s="201"/>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="86" t="s">
@@ -44793,12 +44885,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O176" s="199"/>
-      <c r="P176" s="199"/>
-      <c r="Q176" s="199"/>
-      <c r="R176" s="199"/>
-      <c r="S176" s="199"/>
-      <c r="T176" s="199"/>
+      <c r="O176" s="201"/>
+      <c r="P176" s="201"/>
+      <c r="Q176" s="201"/>
+      <c r="R176" s="201"/>
+      <c r="S176" s="201"/>
+      <c r="T176" s="201"/>
     </row>
     <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="86" t="s">
@@ -44820,12 +44912,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O177" s="199"/>
-      <c r="P177" s="199"/>
-      <c r="Q177" s="199"/>
-      <c r="R177" s="199"/>
-      <c r="S177" s="199"/>
-      <c r="T177" s="199"/>
+      <c r="O177" s="201"/>
+      <c r="P177" s="201"/>
+      <c r="Q177" s="201"/>
+      <c r="R177" s="201"/>
+      <c r="S177" s="201"/>
+      <c r="T177" s="201"/>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="86" t="s">
@@ -44847,12 +44939,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O178" s="199"/>
-      <c r="P178" s="199"/>
-      <c r="Q178" s="199"/>
-      <c r="R178" s="199"/>
-      <c r="S178" s="199"/>
-      <c r="T178" s="199"/>
+      <c r="O178" s="201"/>
+      <c r="P178" s="201"/>
+      <c r="Q178" s="201"/>
+      <c r="R178" s="201"/>
+      <c r="S178" s="201"/>
+      <c r="T178" s="201"/>
     </row>
     <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="86" t="s">
@@ -44874,12 +44966,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O179" s="199"/>
-      <c r="P179" s="199"/>
-      <c r="Q179" s="199"/>
-      <c r="R179" s="199"/>
-      <c r="S179" s="199"/>
-      <c r="T179" s="199"/>
+      <c r="O179" s="201"/>
+      <c r="P179" s="201"/>
+      <c r="Q179" s="201"/>
+      <c r="R179" s="201"/>
+      <c r="S179" s="201"/>
+      <c r="T179" s="201"/>
     </row>
     <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="86" t="s">
@@ -44901,12 +44993,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O180" s="199"/>
-      <c r="P180" s="199"/>
-      <c r="Q180" s="199"/>
-      <c r="R180" s="199"/>
-      <c r="S180" s="199"/>
-      <c r="T180" s="199"/>
+      <c r="O180" s="201"/>
+      <c r="P180" s="201"/>
+      <c r="Q180" s="201"/>
+      <c r="R180" s="201"/>
+      <c r="S180" s="201"/>
+      <c r="T180" s="201"/>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="86" t="s">
@@ -44928,12 +45020,12 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O181" s="199"/>
-      <c r="P181" s="199"/>
-      <c r="Q181" s="199"/>
-      <c r="R181" s="199"/>
-      <c r="S181" s="199"/>
-      <c r="T181" s="199"/>
+      <c r="O181" s="201"/>
+      <c r="P181" s="201"/>
+      <c r="Q181" s="201"/>
+      <c r="R181" s="201"/>
+      <c r="S181" s="201"/>
+      <c r="T181" s="201"/>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="91" t="s">
@@ -44991,12 +45083,12 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O182" s="199"/>
-      <c r="P182" s="199"/>
-      <c r="Q182" s="199"/>
-      <c r="R182" s="199"/>
-      <c r="S182" s="199"/>
-      <c r="T182" s="199"/>
+      <c r="O182" s="201"/>
+      <c r="P182" s="201"/>
+      <c r="Q182" s="201"/>
+      <c r="R182" s="201"/>
+      <c r="S182" s="201"/>
+      <c r="T182" s="201"/>
     </row>
     <row r="183" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="98"/>
@@ -45033,12 +45125,12 @@
         <f t="shared" ref="N184:N193" si="31">K184/L184</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O184" s="199"/>
-      <c r="P184" s="199"/>
-      <c r="Q184" s="199"/>
-      <c r="R184" s="199"/>
-      <c r="S184" s="199"/>
-      <c r="T184" s="199"/>
+      <c r="O184" s="201"/>
+      <c r="P184" s="201"/>
+      <c r="Q184" s="201"/>
+      <c r="R184" s="201"/>
+      <c r="S184" s="201"/>
+      <c r="T184" s="201"/>
     </row>
     <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="86" t="s">
@@ -45060,12 +45152,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O185" s="199"/>
-      <c r="P185" s="199"/>
-      <c r="Q185" s="199"/>
-      <c r="R185" s="199"/>
-      <c r="S185" s="199"/>
-      <c r="T185" s="199"/>
+      <c r="O185" s="201"/>
+      <c r="P185" s="201"/>
+      <c r="Q185" s="201"/>
+      <c r="R185" s="201"/>
+      <c r="S185" s="201"/>
+      <c r="T185" s="201"/>
     </row>
     <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="86" t="s">
@@ -45087,12 +45179,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O186" s="199"/>
-      <c r="P186" s="199"/>
-      <c r="Q186" s="199"/>
-      <c r="R186" s="199"/>
-      <c r="S186" s="199"/>
-      <c r="T186" s="199"/>
+      <c r="O186" s="201"/>
+      <c r="P186" s="201"/>
+      <c r="Q186" s="201"/>
+      <c r="R186" s="201"/>
+      <c r="S186" s="201"/>
+      <c r="T186" s="201"/>
     </row>
     <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="86" t="s">
@@ -45114,12 +45206,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O187" s="199"/>
-      <c r="P187" s="199"/>
-      <c r="Q187" s="199"/>
-      <c r="R187" s="199"/>
-      <c r="S187" s="199"/>
-      <c r="T187" s="199"/>
+      <c r="O187" s="201"/>
+      <c r="P187" s="201"/>
+      <c r="Q187" s="201"/>
+      <c r="R187" s="201"/>
+      <c r="S187" s="201"/>
+      <c r="T187" s="201"/>
     </row>
     <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="86" t="s">
@@ -45141,12 +45233,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O188" s="199"/>
-      <c r="P188" s="199"/>
-      <c r="Q188" s="199"/>
-      <c r="R188" s="199"/>
-      <c r="S188" s="199"/>
-      <c r="T188" s="199"/>
+      <c r="O188" s="201"/>
+      <c r="P188" s="201"/>
+      <c r="Q188" s="201"/>
+      <c r="R188" s="201"/>
+      <c r="S188" s="201"/>
+      <c r="T188" s="201"/>
     </row>
     <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="86" t="s">
@@ -45168,12 +45260,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O189" s="199"/>
-      <c r="P189" s="199"/>
-      <c r="Q189" s="199"/>
-      <c r="R189" s="199"/>
-      <c r="S189" s="199"/>
-      <c r="T189" s="199"/>
+      <c r="O189" s="201"/>
+      <c r="P189" s="201"/>
+      <c r="Q189" s="201"/>
+      <c r="R189" s="201"/>
+      <c r="S189" s="201"/>
+      <c r="T189" s="201"/>
     </row>
     <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="86" t="s">
@@ -45195,12 +45287,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O190" s="199"/>
-      <c r="P190" s="199"/>
-      <c r="Q190" s="199"/>
-      <c r="R190" s="199"/>
-      <c r="S190" s="199"/>
-      <c r="T190" s="199"/>
+      <c r="O190" s="201"/>
+      <c r="P190" s="201"/>
+      <c r="Q190" s="201"/>
+      <c r="R190" s="201"/>
+      <c r="S190" s="201"/>
+      <c r="T190" s="201"/>
     </row>
     <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="86" t="s">
@@ -45222,12 +45314,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O191" s="199"/>
-      <c r="P191" s="199"/>
-      <c r="Q191" s="199"/>
-      <c r="R191" s="199"/>
-      <c r="S191" s="199"/>
-      <c r="T191" s="199"/>
+      <c r="O191" s="201"/>
+      <c r="P191" s="201"/>
+      <c r="Q191" s="201"/>
+      <c r="R191" s="201"/>
+      <c r="S191" s="201"/>
+      <c r="T191" s="201"/>
     </row>
     <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="86" t="s">
@@ -45249,12 +45341,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O192" s="199"/>
-      <c r="P192" s="199"/>
-      <c r="Q192" s="199"/>
-      <c r="R192" s="199"/>
-      <c r="S192" s="199"/>
-      <c r="T192" s="199"/>
+      <c r="O192" s="201"/>
+      <c r="P192" s="201"/>
+      <c r="Q192" s="201"/>
+      <c r="R192" s="201"/>
+      <c r="S192" s="201"/>
+      <c r="T192" s="201"/>
     </row>
     <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="86" t="s">
@@ -45276,12 +45368,12 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O193" s="199"/>
-      <c r="P193" s="199"/>
-      <c r="Q193" s="199"/>
-      <c r="R193" s="199"/>
-      <c r="S193" s="199"/>
-      <c r="T193" s="199"/>
+      <c r="O193" s="201"/>
+      <c r="P193" s="201"/>
+      <c r="Q193" s="201"/>
+      <c r="R193" s="201"/>
+      <c r="S193" s="201"/>
+      <c r="T193" s="201"/>
     </row>
     <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="91" t="s">
@@ -45339,12 +45431,12 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O194" s="199"/>
-      <c r="P194" s="199"/>
-      <c r="Q194" s="199"/>
-      <c r="R194" s="199"/>
-      <c r="S194" s="199"/>
-      <c r="T194" s="199"/>
+      <c r="O194" s="201"/>
+      <c r="P194" s="201"/>
+      <c r="Q194" s="201"/>
+      <c r="R194" s="201"/>
+      <c r="S194" s="201"/>
+      <c r="T194" s="201"/>
     </row>
     <row r="195" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="98"/>
@@ -45381,12 +45473,12 @@
         <f t="shared" ref="N196:N205" si="33">K196/L196</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O196" s="199"/>
-      <c r="P196" s="199"/>
-      <c r="Q196" s="199"/>
-      <c r="R196" s="199"/>
-      <c r="S196" s="199"/>
-      <c r="T196" s="199"/>
+      <c r="O196" s="201"/>
+      <c r="P196" s="201"/>
+      <c r="Q196" s="201"/>
+      <c r="R196" s="201"/>
+      <c r="S196" s="201"/>
+      <c r="T196" s="201"/>
     </row>
     <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="86" t="s">
@@ -45408,12 +45500,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O197" s="199"/>
-      <c r="P197" s="199"/>
-      <c r="Q197" s="199"/>
-      <c r="R197" s="199"/>
-      <c r="S197" s="199"/>
-      <c r="T197" s="199"/>
+      <c r="O197" s="201"/>
+      <c r="P197" s="201"/>
+      <c r="Q197" s="201"/>
+      <c r="R197" s="201"/>
+      <c r="S197" s="201"/>
+      <c r="T197" s="201"/>
     </row>
     <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="86" t="s">
@@ -45435,12 +45527,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O198" s="199"/>
-      <c r="P198" s="199"/>
-      <c r="Q198" s="199"/>
-      <c r="R198" s="199"/>
-      <c r="S198" s="199"/>
-      <c r="T198" s="199"/>
+      <c r="O198" s="201"/>
+      <c r="P198" s="201"/>
+      <c r="Q198" s="201"/>
+      <c r="R198" s="201"/>
+      <c r="S198" s="201"/>
+      <c r="T198" s="201"/>
     </row>
     <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="86" t="s">
@@ -45462,12 +45554,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O199" s="199"/>
-      <c r="P199" s="199"/>
-      <c r="Q199" s="199"/>
-      <c r="R199" s="199"/>
-      <c r="S199" s="199"/>
-      <c r="T199" s="199"/>
+      <c r="O199" s="201"/>
+      <c r="P199" s="201"/>
+      <c r="Q199" s="201"/>
+      <c r="R199" s="201"/>
+      <c r="S199" s="201"/>
+      <c r="T199" s="201"/>
     </row>
     <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="86" t="s">
@@ -45489,12 +45581,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O200" s="199"/>
-      <c r="P200" s="199"/>
-      <c r="Q200" s="199"/>
-      <c r="R200" s="199"/>
-      <c r="S200" s="199"/>
-      <c r="T200" s="199"/>
+      <c r="O200" s="201"/>
+      <c r="P200" s="201"/>
+      <c r="Q200" s="201"/>
+      <c r="R200" s="201"/>
+      <c r="S200" s="201"/>
+      <c r="T200" s="201"/>
     </row>
     <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="86" t="s">
@@ -45516,12 +45608,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O201" s="199"/>
-      <c r="P201" s="199"/>
-      <c r="Q201" s="199"/>
-      <c r="R201" s="199"/>
-      <c r="S201" s="199"/>
-      <c r="T201" s="199"/>
+      <c r="O201" s="201"/>
+      <c r="P201" s="201"/>
+      <c r="Q201" s="201"/>
+      <c r="R201" s="201"/>
+      <c r="S201" s="201"/>
+      <c r="T201" s="201"/>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="86" t="s">
@@ -45543,12 +45635,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O202" s="199"/>
-      <c r="P202" s="199"/>
-      <c r="Q202" s="199"/>
-      <c r="R202" s="199"/>
-      <c r="S202" s="199"/>
-      <c r="T202" s="199"/>
+      <c r="O202" s="201"/>
+      <c r="P202" s="201"/>
+      <c r="Q202" s="201"/>
+      <c r="R202" s="201"/>
+      <c r="S202" s="201"/>
+      <c r="T202" s="201"/>
     </row>
     <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="86" t="s">
@@ -45570,12 +45662,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O203" s="199"/>
-      <c r="P203" s="199"/>
-      <c r="Q203" s="199"/>
-      <c r="R203" s="199"/>
-      <c r="S203" s="199"/>
-      <c r="T203" s="199"/>
+      <c r="O203" s="201"/>
+      <c r="P203" s="201"/>
+      <c r="Q203" s="201"/>
+      <c r="R203" s="201"/>
+      <c r="S203" s="201"/>
+      <c r="T203" s="201"/>
     </row>
     <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="86" t="s">
@@ -45597,12 +45689,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O204" s="199"/>
-      <c r="P204" s="199"/>
-      <c r="Q204" s="199"/>
-      <c r="R204" s="199"/>
-      <c r="S204" s="199"/>
-      <c r="T204" s="199"/>
+      <c r="O204" s="201"/>
+      <c r="P204" s="201"/>
+      <c r="Q204" s="201"/>
+      <c r="R204" s="201"/>
+      <c r="S204" s="201"/>
+      <c r="T204" s="201"/>
     </row>
     <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="86" t="s">
@@ -45624,12 +45716,12 @@
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O205" s="199"/>
-      <c r="P205" s="199"/>
-      <c r="Q205" s="199"/>
-      <c r="R205" s="199"/>
-      <c r="S205" s="199"/>
-      <c r="T205" s="199"/>
+      <c r="O205" s="201"/>
+      <c r="P205" s="201"/>
+      <c r="Q205" s="201"/>
+      <c r="R205" s="201"/>
+      <c r="S205" s="201"/>
+      <c r="T205" s="201"/>
     </row>
     <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="91" t="s">
@@ -45687,12 +45779,12 @@
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O206" s="199"/>
-      <c r="P206" s="199"/>
-      <c r="Q206" s="199"/>
-      <c r="R206" s="199"/>
-      <c r="S206" s="199"/>
-      <c r="T206" s="199"/>
+      <c r="O206" s="201"/>
+      <c r="P206" s="201"/>
+      <c r="Q206" s="201"/>
+      <c r="R206" s="201"/>
+      <c r="S206" s="201"/>
+      <c r="T206" s="201"/>
     </row>
     <row r="207" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="98"/>
@@ -45729,12 +45821,12 @@
         <f t="shared" ref="N208:N217" si="35">K208/L208</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O208" s="199"/>
-      <c r="P208" s="199"/>
-      <c r="Q208" s="199"/>
-      <c r="R208" s="199"/>
-      <c r="S208" s="199"/>
-      <c r="T208" s="199"/>
+      <c r="O208" s="201"/>
+      <c r="P208" s="201"/>
+      <c r="Q208" s="201"/>
+      <c r="R208" s="201"/>
+      <c r="S208" s="201"/>
+      <c r="T208" s="201"/>
     </row>
     <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="86" t="s">
@@ -45756,12 +45848,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O209" s="199"/>
-      <c r="P209" s="199"/>
-      <c r="Q209" s="199"/>
-      <c r="R209" s="199"/>
-      <c r="S209" s="199"/>
-      <c r="T209" s="199"/>
+      <c r="O209" s="201"/>
+      <c r="P209" s="201"/>
+      <c r="Q209" s="201"/>
+      <c r="R209" s="201"/>
+      <c r="S209" s="201"/>
+      <c r="T209" s="201"/>
     </row>
     <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="86" t="s">
@@ -45783,12 +45875,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O210" s="199"/>
-      <c r="P210" s="199"/>
-      <c r="Q210" s="199"/>
-      <c r="R210" s="199"/>
-      <c r="S210" s="199"/>
-      <c r="T210" s="199"/>
+      <c r="O210" s="201"/>
+      <c r="P210" s="201"/>
+      <c r="Q210" s="201"/>
+      <c r="R210" s="201"/>
+      <c r="S210" s="201"/>
+      <c r="T210" s="201"/>
     </row>
     <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="86" t="s">
@@ -45810,12 +45902,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O211" s="199"/>
-      <c r="P211" s="199"/>
-      <c r="Q211" s="199"/>
-      <c r="R211" s="199"/>
-      <c r="S211" s="199"/>
-      <c r="T211" s="199"/>
+      <c r="O211" s="201"/>
+      <c r="P211" s="201"/>
+      <c r="Q211" s="201"/>
+      <c r="R211" s="201"/>
+      <c r="S211" s="201"/>
+      <c r="T211" s="201"/>
     </row>
     <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="86" t="s">
@@ -45837,12 +45929,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O212" s="199"/>
-      <c r="P212" s="199"/>
-      <c r="Q212" s="199"/>
-      <c r="R212" s="199"/>
-      <c r="S212" s="199"/>
-      <c r="T212" s="199"/>
+      <c r="O212" s="201"/>
+      <c r="P212" s="201"/>
+      <c r="Q212" s="201"/>
+      <c r="R212" s="201"/>
+      <c r="S212" s="201"/>
+      <c r="T212" s="201"/>
     </row>
     <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="86" t="s">
@@ -45864,12 +45956,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O213" s="199"/>
-      <c r="P213" s="199"/>
-      <c r="Q213" s="199"/>
-      <c r="R213" s="199"/>
-      <c r="S213" s="199"/>
-      <c r="T213" s="199"/>
+      <c r="O213" s="201"/>
+      <c r="P213" s="201"/>
+      <c r="Q213" s="201"/>
+      <c r="R213" s="201"/>
+      <c r="S213" s="201"/>
+      <c r="T213" s="201"/>
     </row>
     <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="86" t="s">
@@ -45891,12 +45983,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O214" s="199"/>
-      <c r="P214" s="199"/>
-      <c r="Q214" s="199"/>
-      <c r="R214" s="199"/>
-      <c r="S214" s="199"/>
-      <c r="T214" s="199"/>
+      <c r="O214" s="201"/>
+      <c r="P214" s="201"/>
+      <c r="Q214" s="201"/>
+      <c r="R214" s="201"/>
+      <c r="S214" s="201"/>
+      <c r="T214" s="201"/>
     </row>
     <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="86" t="s">
@@ -45918,12 +46010,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O215" s="199"/>
-      <c r="P215" s="199"/>
-      <c r="Q215" s="199"/>
-      <c r="R215" s="199"/>
-      <c r="S215" s="199"/>
-      <c r="T215" s="199"/>
+      <c r="O215" s="201"/>
+      <c r="P215" s="201"/>
+      <c r="Q215" s="201"/>
+      <c r="R215" s="201"/>
+      <c r="S215" s="201"/>
+      <c r="T215" s="201"/>
     </row>
     <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="86" t="s">
@@ -45945,12 +46037,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O216" s="199"/>
-      <c r="P216" s="199"/>
-      <c r="Q216" s="199"/>
-      <c r="R216" s="199"/>
-      <c r="S216" s="199"/>
-      <c r="T216" s="199"/>
+      <c r="O216" s="201"/>
+      <c r="P216" s="201"/>
+      <c r="Q216" s="201"/>
+      <c r="R216" s="201"/>
+      <c r="S216" s="201"/>
+      <c r="T216" s="201"/>
     </row>
     <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="86" t="s">
@@ -45972,12 +46064,12 @@
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O217" s="199"/>
-      <c r="P217" s="199"/>
-      <c r="Q217" s="199"/>
-      <c r="R217" s="199"/>
-      <c r="S217" s="199"/>
-      <c r="T217" s="199"/>
+      <c r="O217" s="201"/>
+      <c r="P217" s="201"/>
+      <c r="Q217" s="201"/>
+      <c r="R217" s="201"/>
+      <c r="S217" s="201"/>
+      <c r="T217" s="201"/>
     </row>
     <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="91" t="s">
@@ -46035,12 +46127,12 @@
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O218" s="199"/>
-      <c r="P218" s="199"/>
-      <c r="Q218" s="199"/>
-      <c r="R218" s="199"/>
-      <c r="S218" s="199"/>
-      <c r="T218" s="199"/>
+      <c r="O218" s="201"/>
+      <c r="P218" s="201"/>
+      <c r="Q218" s="201"/>
+      <c r="R218" s="201"/>
+      <c r="S218" s="201"/>
+      <c r="T218" s="201"/>
     </row>
     <row r="219" spans="1:20" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="98"/>
@@ -46077,12 +46169,12 @@
         <f t="shared" ref="N220:N229" si="37">K220/L220</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O220" s="199"/>
-      <c r="P220" s="199"/>
-      <c r="Q220" s="199"/>
-      <c r="R220" s="199"/>
-      <c r="S220" s="199"/>
-      <c r="T220" s="199"/>
+      <c r="O220" s="201"/>
+      <c r="P220" s="201"/>
+      <c r="Q220" s="201"/>
+      <c r="R220" s="201"/>
+      <c r="S220" s="201"/>
+      <c r="T220" s="201"/>
     </row>
     <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="86" t="s">
@@ -46104,12 +46196,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O221" s="199"/>
-      <c r="P221" s="199"/>
-      <c r="Q221" s="199"/>
-      <c r="R221" s="199"/>
-      <c r="S221" s="199"/>
-      <c r="T221" s="199"/>
+      <c r="O221" s="201"/>
+      <c r="P221" s="201"/>
+      <c r="Q221" s="201"/>
+      <c r="R221" s="201"/>
+      <c r="S221" s="201"/>
+      <c r="T221" s="201"/>
     </row>
     <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="86" t="s">
@@ -46131,12 +46223,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O222" s="199"/>
-      <c r="P222" s="199"/>
-      <c r="Q222" s="199"/>
-      <c r="R222" s="199"/>
-      <c r="S222" s="199"/>
-      <c r="T222" s="199"/>
+      <c r="O222" s="201"/>
+      <c r="P222" s="201"/>
+      <c r="Q222" s="201"/>
+      <c r="R222" s="201"/>
+      <c r="S222" s="201"/>
+      <c r="T222" s="201"/>
     </row>
     <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="86" t="s">
@@ -46158,12 +46250,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O223" s="199"/>
-      <c r="P223" s="199"/>
-      <c r="Q223" s="199"/>
-      <c r="R223" s="199"/>
-      <c r="S223" s="199"/>
-      <c r="T223" s="199"/>
+      <c r="O223" s="201"/>
+      <c r="P223" s="201"/>
+      <c r="Q223" s="201"/>
+      <c r="R223" s="201"/>
+      <c r="S223" s="201"/>
+      <c r="T223" s="201"/>
     </row>
     <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="86" t="s">
@@ -46185,12 +46277,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O224" s="199"/>
-      <c r="P224" s="199"/>
-      <c r="Q224" s="199"/>
-      <c r="R224" s="199"/>
-      <c r="S224" s="199"/>
-      <c r="T224" s="199"/>
+      <c r="O224" s="201"/>
+      <c r="P224" s="201"/>
+      <c r="Q224" s="201"/>
+      <c r="R224" s="201"/>
+      <c r="S224" s="201"/>
+      <c r="T224" s="201"/>
     </row>
     <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="86" t="s">
@@ -46212,12 +46304,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O225" s="199"/>
-      <c r="P225" s="199"/>
-      <c r="Q225" s="199"/>
-      <c r="R225" s="199"/>
-      <c r="S225" s="199"/>
-      <c r="T225" s="199"/>
+      <c r="O225" s="201"/>
+      <c r="P225" s="201"/>
+      <c r="Q225" s="201"/>
+      <c r="R225" s="201"/>
+      <c r="S225" s="201"/>
+      <c r="T225" s="201"/>
     </row>
     <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="86" t="s">
@@ -46239,12 +46331,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O226" s="199"/>
-      <c r="P226" s="199"/>
-      <c r="Q226" s="199"/>
-      <c r="R226" s="199"/>
-      <c r="S226" s="199"/>
-      <c r="T226" s="199"/>
+      <c r="O226" s="201"/>
+      <c r="P226" s="201"/>
+      <c r="Q226" s="201"/>
+      <c r="R226" s="201"/>
+      <c r="S226" s="201"/>
+      <c r="T226" s="201"/>
     </row>
     <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="86" t="s">
@@ -46266,12 +46358,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O227" s="199"/>
-      <c r="P227" s="199"/>
-      <c r="Q227" s="199"/>
-      <c r="R227" s="199"/>
-      <c r="S227" s="199"/>
-      <c r="T227" s="199"/>
+      <c r="O227" s="201"/>
+      <c r="P227" s="201"/>
+      <c r="Q227" s="201"/>
+      <c r="R227" s="201"/>
+      <c r="S227" s="201"/>
+      <c r="T227" s="201"/>
     </row>
     <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="86" t="s">
@@ -46293,12 +46385,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O228" s="199"/>
-      <c r="P228" s="199"/>
-      <c r="Q228" s="199"/>
-      <c r="R228" s="199"/>
-      <c r="S228" s="199"/>
-      <c r="T228" s="199"/>
+      <c r="O228" s="201"/>
+      <c r="P228" s="201"/>
+      <c r="Q228" s="201"/>
+      <c r="R228" s="201"/>
+      <c r="S228" s="201"/>
+      <c r="T228" s="201"/>
     </row>
     <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="86" t="s">
@@ -46320,12 +46412,12 @@
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O229" s="199"/>
-      <c r="P229" s="199"/>
-      <c r="Q229" s="199"/>
-      <c r="R229" s="199"/>
-      <c r="S229" s="199"/>
-      <c r="T229" s="199"/>
+      <c r="O229" s="201"/>
+      <c r="P229" s="201"/>
+      <c r="Q229" s="201"/>
+      <c r="R229" s="201"/>
+      <c r="S229" s="201"/>
+      <c r="T229" s="201"/>
     </row>
     <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="91" t="s">
@@ -46383,12 +46475,12 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O230" s="199"/>
-      <c r="P230" s="199"/>
-      <c r="Q230" s="199"/>
-      <c r="R230" s="199"/>
-      <c r="S230" s="199"/>
-      <c r="T230" s="199"/>
+      <c r="O230" s="201"/>
+      <c r="P230" s="201"/>
+      <c r="Q230" s="201"/>
+      <c r="R230" s="201"/>
+      <c r="S230" s="201"/>
+      <c r="T230" s="201"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="147" t="s">
@@ -49251,15 +49343,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O267:T277"/>
-    <mergeCell ref="O279:T289"/>
-    <mergeCell ref="O231:T241"/>
-    <mergeCell ref="O243:T253"/>
-    <mergeCell ref="O172:T182"/>
-    <mergeCell ref="O184:T194"/>
-    <mergeCell ref="O196:T206"/>
-    <mergeCell ref="O208:T218"/>
-    <mergeCell ref="O255:T265"/>
     <mergeCell ref="O291:T301"/>
     <mergeCell ref="O136:T146"/>
     <mergeCell ref="O4:T14"/>
@@ -49276,6 +49359,15 @@
     <mergeCell ref="O220:T230"/>
     <mergeCell ref="O148:T158"/>
     <mergeCell ref="O160:T170"/>
+    <mergeCell ref="O267:T277"/>
+    <mergeCell ref="O279:T289"/>
+    <mergeCell ref="O231:T241"/>
+    <mergeCell ref="O243:T253"/>
+    <mergeCell ref="O172:T182"/>
+    <mergeCell ref="O184:T194"/>
+    <mergeCell ref="O196:T206"/>
+    <mergeCell ref="O208:T218"/>
+    <mergeCell ref="O255:T265"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -50390,14 +50482,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="193" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="194"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="197" t="s">
         <v>72</v>
       </c>
@@ -51551,10 +51643,10 @@
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="196"/>
       <c r="J12" s="169" t="s">
         <v>17</v>
       </c>
